--- a/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91212967-D1A3-426E-90AF-6C42033F814E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9442ED-BA30-4FFD-A4BA-B44BB330E126}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16020" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
   </bookViews>
@@ -8612,7 +8612,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2201" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2201" uniqueCount="742">
   <si>
     <t>Document type:</t>
   </si>
@@ -10846,16 +10846,19 @@
     <t>RSDGAS,RSDBGS</t>
   </si>
   <si>
-    <t>RSDELC,RSDGAS,RSDBGS</t>
-  </si>
-  <si>
     <t>Share-I~UP~RSDBGS</t>
   </si>
   <si>
-    <t>RSDSOL,RSDGAS,RSDBGS</t>
-  </si>
-  <si>
-    <t>RSDWOO,RSDGAS,RSDBGS</t>
+    <t>RSDBGS,RSDGAS</t>
+  </si>
+  <si>
+    <t>RSDELC,RSDBGS,RSDGAS</t>
+  </si>
+  <si>
+    <t>RSDSOL,RSDBGS,RSDGAS</t>
+  </si>
+  <si>
+    <t>RSDWOO,RSDBGS,RSDGAS</t>
   </si>
 </sst>
 </file>
@@ -13547,6 +13550,15 @@
     <xf numFmtId="0" fontId="37" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -13554,15 +13566,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13574,13 +13577,22 @@
     <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -13592,19 +13604,10 @@
     <xf numFmtId="0" fontId="53" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13622,12 +13625,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -13642,6 +13639,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -21173,8 +21176,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:AS166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21308,7 +21311,7 @@
         <v>320</v>
       </c>
       <c r="AE3" s="17" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AF3" s="17" t="s">
         <v>254</v>
@@ -21364,12 +21367,12 @@
         <v>85</v>
       </c>
       <c r="U4" s="539"/>
-      <c r="V4" s="540" t="s">
+      <c r="V4" s="531" t="s">
         <v>86</v>
       </c>
-      <c r="W4" s="541"/>
-      <c r="X4" s="541"/>
-      <c r="Y4" s="542"/>
+      <c r="W4" s="532"/>
+      <c r="X4" s="532"/>
+      <c r="Y4" s="533"/>
       <c r="Z4" s="60"/>
       <c r="AA4" s="60"/>
       <c r="AB4" s="68" t="s">
@@ -21472,34 +21475,34 @@
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
       <c r="G6" s="39"/>
-      <c r="H6" s="531" t="s">
+      <c r="H6" s="534" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="532"/>
-      <c r="J6" s="532"/>
-      <c r="K6" s="533"/>
-      <c r="L6" s="532" t="s">
+      <c r="I6" s="535"/>
+      <c r="J6" s="535"/>
+      <c r="K6" s="536"/>
+      <c r="L6" s="535" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="532"/>
-      <c r="N6" s="532"/>
-      <c r="O6" s="533"/>
-      <c r="P6" s="531" t="s">
+      <c r="M6" s="535"/>
+      <c r="N6" s="535"/>
+      <c r="O6" s="536"/>
+      <c r="P6" s="534" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="532"/>
-      <c r="R6" s="532"/>
-      <c r="S6" s="533"/>
-      <c r="T6" s="531" t="s">
+      <c r="Q6" s="535"/>
+      <c r="R6" s="535"/>
+      <c r="S6" s="536"/>
+      <c r="T6" s="534" t="s">
         <v>68</v>
       </c>
-      <c r="U6" s="533"/>
-      <c r="V6" s="531" t="s">
+      <c r="U6" s="536"/>
+      <c r="V6" s="534" t="s">
         <v>541</v>
       </c>
-      <c r="W6" s="532"/>
-      <c r="X6" s="532"/>
-      <c r="Y6" s="533"/>
+      <c r="W6" s="535"/>
+      <c r="X6" s="535"/>
+      <c r="Y6" s="536"/>
       <c r="Z6" s="61" t="s">
         <v>553</v>
       </c>
@@ -21630,11 +21633,11 @@
         <v>31</v>
       </c>
       <c r="AM7" s="105" t="str">
-        <f>C7</f>
+        <f t="shared" ref="AM7:AN14" si="1">C7</f>
         <v>R-SH_Apt_KER_N1</v>
       </c>
       <c r="AN7" s="105" t="str">
-        <f>D7</f>
+        <f t="shared" si="1"/>
         <v>Residential Kerosene Heating Oil - New 1 SH</v>
       </c>
       <c r="AO7" s="106" t="s">
@@ -21684,15 +21687,15 @@
         <v>0.7</v>
       </c>
       <c r="Q8" s="248">
-        <f t="shared" ref="Q8" si="1">I8*0.7</f>
+        <f t="shared" ref="Q8" si="2">I8*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R8" s="248">
-        <f t="shared" ref="R8" si="2">J8*0.7</f>
+        <f t="shared" ref="R8" si="3">J8*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S8" s="249">
-        <f t="shared" ref="S8" si="3">K8*0.7</f>
+        <f t="shared" ref="S8" si="4">K8*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T8" s="53">
@@ -21704,15 +21707,15 @@
         <v>3.6576075949367097</v>
       </c>
       <c r="W8" s="384">
-        <f t="shared" ref="W8:Y8" si="4">W10*1.3</f>
+        <f t="shared" ref="W8:Y8" si="5">W10*1.3</f>
         <v>3.6576075949367097</v>
       </c>
       <c r="X8" s="384">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.6576075949367097</v>
       </c>
       <c r="Y8" s="384">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.6576075949367097</v>
       </c>
       <c r="Z8" s="384">
@@ -21725,7 +21728,7 @@
       <c r="AE8" s="73"/>
       <c r="AF8" s="73"/>
       <c r="AG8" s="63">
-        <f t="shared" ref="AG8:AG14" si="5">31.536*(AJ8/1000)</f>
+        <f t="shared" ref="AG8:AG14" si="6">31.536*(AJ8/1000)</f>
         <v>0.56764799999999993</v>
       </c>
       <c r="AH8" s="66"/>
@@ -21737,11 +21740,11 @@
       </c>
       <c r="AL8" s="106"/>
       <c r="AM8" s="105" t="str">
-        <f>C8</f>
+        <f t="shared" si="1"/>
         <v>R-SW_Apt_KER_N1</v>
       </c>
       <c r="AN8" s="105" t="str">
-        <f>D8</f>
+        <f t="shared" si="1"/>
         <v>Residential Kerosene Heating Oil - New 2 SH + WH</v>
       </c>
       <c r="AO8" s="106" t="s">
@@ -21758,13 +21761,13 @@
     <row r="9" spans="3:44" ht="15" x14ac:dyDescent="0.25">
       <c r="C9" s="29" t="str">
         <f>"R-SH_Apt"&amp;"_"&amp;RIGHT(E9,3)&amp;"_N1"</f>
-        <v>R-SH_Apt_BGS_N1</v>
+        <v>R-SH_Apt_GAS_N1</v>
       </c>
       <c r="D9" s="40" t="s">
         <v>95</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="F9" s="30"/>
       <c r="G9" s="58" t="s">
@@ -21799,15 +21802,15 @@
         <v>2.79</v>
       </c>
       <c r="W9" s="383">
-        <f t="shared" ref="W9:Y9" si="6">2.79</f>
+        <f t="shared" ref="W9:Y9" si="7">2.79</f>
         <v>2.79</v>
       </c>
       <c r="X9" s="383">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.79</v>
       </c>
       <c r="Y9" s="383">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.79</v>
       </c>
       <c r="Z9" s="383">
@@ -21820,7 +21823,7 @@
       <c r="AE9" s="72"/>
       <c r="AF9" s="72"/>
       <c r="AG9" s="62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.47304000000000002</v>
       </c>
       <c r="AH9" s="65"/>
@@ -21832,11 +21835,11 @@
       </c>
       <c r="AL9" s="106"/>
       <c r="AM9" s="105" t="str">
-        <f>C9</f>
-        <v>R-SH_Apt_BGS_N1</v>
+        <f t="shared" si="1"/>
+        <v>R-SH_Apt_GAS_N1</v>
       </c>
       <c r="AN9" s="105" t="str">
-        <f>D9</f>
+        <f t="shared" si="1"/>
         <v>Residential Natural Gas Heating - New 1 SH</v>
       </c>
       <c r="AO9" s="106" t="s">
@@ -21853,13 +21856,13 @@
     <row r="10" spans="3:44" ht="15" x14ac:dyDescent="0.25">
       <c r="C10" s="23" t="str">
         <f>"R-SW_Apt"&amp;"_"&amp;RIGHT(E10,3)&amp;"_N1"</f>
-        <v>R-SW_Apt_BGS_N1</v>
+        <v>R-SW_Apt_GAS_N1</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>99</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="57" t="s">
@@ -21886,15 +21889,15 @@
         <v>0.7</v>
       </c>
       <c r="Q10" s="248">
-        <f t="shared" ref="Q10" si="7">I10*0.7</f>
+        <f t="shared" ref="Q10" si="8">I10*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R10" s="248">
-        <f t="shared" ref="R10" si="8">J10*0.7</f>
+        <f t="shared" ref="R10" si="9">J10*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S10" s="249">
-        <f t="shared" ref="S10" si="9">K10*0.7</f>
+        <f t="shared" ref="S10" si="10">K10*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T10" s="53">
@@ -21927,7 +21930,7 @@
       <c r="AE10" s="73"/>
       <c r="AF10" s="73"/>
       <c r="AG10" s="63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.56764799999999993</v>
       </c>
       <c r="AH10" s="66"/>
@@ -21939,11 +21942,11 @@
       </c>
       <c r="AL10" s="106"/>
       <c r="AM10" s="105" t="str">
-        <f>C10</f>
-        <v>R-SW_Apt_BGS_N1</v>
+        <f t="shared" si="1"/>
+        <v>R-SW_Apt_GAS_N1</v>
       </c>
       <c r="AN10" s="105" t="str">
-        <f>D10</f>
+        <f t="shared" si="1"/>
         <v>Residential Natural Gas Heating - New 2 SH + WH</v>
       </c>
       <c r="AO10" s="106" t="s">
@@ -22001,15 +22004,15 @@
         <v>3.04</v>
       </c>
       <c r="W11" s="383">
-        <f t="shared" ref="W11:Y11" si="10">SUM(2.79+0.25)</f>
+        <f t="shared" ref="W11:Y11" si="11">SUM(2.79+0.25)</f>
         <v>3.04</v>
       </c>
       <c r="X11" s="383">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.04</v>
       </c>
       <c r="Y11" s="383">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.04</v>
       </c>
       <c r="Z11" s="383">
@@ -22023,7 +22026,7 @@
       <c r="AE11" s="72"/>
       <c r="AF11" s="72"/>
       <c r="AG11" s="62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.47304000000000002</v>
       </c>
       <c r="AH11" s="65"/>
@@ -22035,11 +22038,11 @@
       </c>
       <c r="AL11" s="106"/>
       <c r="AM11" s="105" t="str">
-        <f>C11</f>
+        <f t="shared" si="1"/>
         <v>R-SH_Apt_LPG_N1</v>
       </c>
       <c r="AN11" s="105" t="str">
-        <f>D11</f>
+        <f t="shared" si="1"/>
         <v>Residential Liquid Petroleum Gas- New 1 SH</v>
       </c>
       <c r="AO11" s="106" t="s">
@@ -22089,15 +22092,15 @@
         <v>0.7</v>
       </c>
       <c r="Q12" s="248">
-        <f t="shared" ref="Q12:S12" si="11">I12*0.7</f>
+        <f t="shared" ref="Q12:S12" si="12">I12*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R12" s="248">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.7</v>
       </c>
       <c r="S12" s="249">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.7</v>
       </c>
       <c r="T12" s="53">
@@ -22131,7 +22134,7 @@
       <c r="AE12" s="73"/>
       <c r="AF12" s="73"/>
       <c r="AG12" s="63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.56764799999999993</v>
       </c>
       <c r="AH12" s="66"/>
@@ -22143,11 +22146,11 @@
       </c>
       <c r="AL12" s="106"/>
       <c r="AM12" s="105" t="str">
-        <f>C12</f>
+        <f t="shared" si="1"/>
         <v>R-SW_Apt_LPG_N1</v>
       </c>
       <c r="AN12" s="105" t="str">
-        <f>D12</f>
+        <f t="shared" si="1"/>
         <v>Residential Liquid Petroleum Gas- New 2 SH + WH</v>
       </c>
       <c r="AO12" s="106" t="s">
@@ -22224,7 +22227,7 @@
       <c r="AE13" s="72"/>
       <c r="AF13" s="72"/>
       <c r="AG13" s="62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.47304000000000002</v>
       </c>
       <c r="AH13" s="65"/>
@@ -22236,11 +22239,11 @@
       </c>
       <c r="AL13" s="106"/>
       <c r="AM13" s="105" t="str">
-        <f>C13</f>
+        <f t="shared" si="1"/>
         <v>R-SH_Apt_WOO_N1</v>
       </c>
       <c r="AN13" s="105" t="str">
-        <f>D13</f>
+        <f t="shared" si="1"/>
         <v>Residential Biomass Boiler - New 1 SH</v>
       </c>
       <c r="AO13" s="106" t="s">
@@ -22286,19 +22289,19 @@
       <c r="N14" s="32"/>
       <c r="O14" s="45"/>
       <c r="P14" s="247">
-        <f t="shared" ref="P14:S14" si="12">H14*0.7</f>
+        <f t="shared" ref="P14:S14" si="13">H14*0.7</f>
         <v>0.7</v>
       </c>
       <c r="Q14" s="248">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.7</v>
       </c>
       <c r="R14" s="248">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.7</v>
       </c>
       <c r="S14" s="249">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.7</v>
       </c>
       <c r="T14" s="53">
@@ -22331,7 +22334,7 @@
       <c r="AE14" s="73"/>
       <c r="AF14" s="73"/>
       <c r="AG14" s="63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.56764799999999993</v>
       </c>
       <c r="AH14" s="66"/>
@@ -22343,11 +22346,11 @@
       </c>
       <c r="AL14" s="109"/>
       <c r="AM14" s="108" t="str">
-        <f>C14</f>
+        <f t="shared" si="1"/>
         <v>R-SW_Apt_WOO_N1</v>
       </c>
       <c r="AN14" s="108" t="str">
-        <f>D14</f>
+        <f t="shared" si="1"/>
         <v>Residential Biomass Boiler - New 2 SH + WH</v>
       </c>
       <c r="AO14" s="109" t="s">
@@ -22496,11 +22499,11 @@
       </c>
       <c r="AL16" s="104"/>
       <c r="AM16" s="103" t="str">
-        <f>C18</f>
+        <f t="shared" ref="AM16:AN21" si="14">C18</f>
         <v>R-SH_Apt_ELC_HPN1</v>
       </c>
       <c r="AN16" s="103" t="str">
-        <f>D18</f>
+        <f t="shared" si="14"/>
         <v>Residential Electric Heat Pump - Air to Air - SH</v>
       </c>
       <c r="AO16" s="104" t="s">
@@ -22562,11 +22565,11 @@
       <c r="AJ17" s="34"/>
       <c r="AL17" s="106"/>
       <c r="AM17" s="105" t="str">
-        <f>C19</f>
+        <f t="shared" si="14"/>
         <v>R-HC_Apt_ELC_HPN1</v>
       </c>
       <c r="AN17" s="105" t="str">
-        <f>D19</f>
+        <f t="shared" si="14"/>
         <v>Residential Electric Heat Pump - Air to Air - SH + SC</v>
       </c>
       <c r="AO17" s="106" t="s">
@@ -22651,7 +22654,7 @@
       <c r="AE18" s="264"/>
       <c r="AF18" s="264"/>
       <c r="AG18" s="85">
-        <f t="shared" ref="AG18:AG23" si="13">31.536*(AJ18/1000)</f>
+        <f t="shared" ref="AG18:AG23" si="15">31.536*(AJ18/1000)</f>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH18" s="88"/>
@@ -22663,11 +22666,11 @@
       </c>
       <c r="AL18" s="106"/>
       <c r="AM18" s="105" t="str">
-        <f>C20</f>
+        <f t="shared" si="14"/>
         <v>R-SH_Apt_ELC_HPN2</v>
       </c>
       <c r="AN18" s="105" t="str">
-        <f>D20</f>
+        <f t="shared" si="14"/>
         <v>Residential Electric Heat Pump - Air to Water - SH</v>
       </c>
       <c r="AO18" s="106" t="s">
@@ -22763,7 +22766,7 @@
       <c r="AE19" s="73"/>
       <c r="AF19" s="73"/>
       <c r="AG19" s="63">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH19" s="66"/>
@@ -22775,11 +22778,11 @@
       </c>
       <c r="AL19" s="106"/>
       <c r="AM19" s="105" t="str">
-        <f>C21</f>
+        <f t="shared" si="14"/>
         <v>R-SW_Apt_ELC_HPN1</v>
       </c>
       <c r="AN19" s="105" t="str">
-        <f>D21</f>
+        <f t="shared" si="14"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH</v>
       </c>
       <c r="AO19" s="106" t="s">
@@ -22863,7 +22866,7 @@
       <c r="AE20" s="72"/>
       <c r="AF20" s="72"/>
       <c r="AG20" s="62">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH20" s="65"/>
@@ -22875,11 +22878,11 @@
       </c>
       <c r="AL20" s="213"/>
       <c r="AM20" s="105" t="str">
-        <f>C22</f>
+        <f t="shared" si="14"/>
         <v>R-SH_Apt_ELC_HPN3</v>
       </c>
       <c r="AN20" s="105" t="str">
-        <f>D22</f>
+        <f t="shared" si="14"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH</v>
       </c>
       <c r="AO20" s="106" t="s">
@@ -22935,15 +22938,15 @@
         <v>0.7</v>
       </c>
       <c r="Q21" s="23">
-        <f t="shared" ref="Q21:S21" si="14">I21*0.7</f>
+        <f t="shared" ref="Q21:S21" si="16">I21*0.7</f>
         <v>0.76999999999999991</v>
       </c>
       <c r="R21" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.86333333333333329</v>
       </c>
       <c r="S21" s="57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.93333333333333324</v>
       </c>
       <c r="T21" s="53">
@@ -22976,7 +22979,7 @@
       <c r="AE21" s="73"/>
       <c r="AF21" s="73"/>
       <c r="AG21" s="63">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.18921600000000002</v>
       </c>
       <c r="AH21" s="66"/>
@@ -22988,11 +22991,11 @@
       </c>
       <c r="AL21" s="112"/>
       <c r="AM21" s="108" t="str">
-        <f>C23</f>
+        <f t="shared" si="14"/>
         <v>R-HC_Apt_ELC_HPN2</v>
       </c>
       <c r="AN21" s="108" t="str">
-        <f>D23</f>
+        <f t="shared" si="14"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC</v>
       </c>
       <c r="AO21" s="109" t="s">
@@ -23078,7 +23081,7 @@
       <c r="AE22" s="72"/>
       <c r="AF22" s="72"/>
       <c r="AG22" s="62">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH22" s="65"/>
@@ -23091,7 +23094,7 @@
       <c r="AL22" s="113"/>
       <c r="AM22" s="103" t="str">
         <f>C25</f>
-        <v>R-SW_Apt_BGS_HPN1</v>
+        <v>R-SW_Apt_GAS_HPN1</v>
       </c>
       <c r="AN22" s="103" t="str">
         <f>D25</f>
@@ -23191,7 +23194,7 @@
       <c r="AE23" s="73"/>
       <c r="AF23" s="73"/>
       <c r="AG23" s="63">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH23" s="66"/>
@@ -23204,7 +23207,7 @@
       <c r="AL23" s="214"/>
       <c r="AM23" s="108" t="str">
         <f>C26</f>
-        <v>R-SW_Apt_BGS_HPN2</v>
+        <v>R-SW_Apt_GAS_HPN2</v>
       </c>
       <c r="AN23" s="108" t="str">
         <f>D26</f>
@@ -23261,7 +23264,7 @@
       <c r="AL24" s="215"/>
       <c r="AM24" s="111" t="str">
         <f>C28</f>
-        <v>R-SW_Apt_BGS_HHPN1</v>
+        <v>R-SW_Apt_GAS_HHPN1</v>
       </c>
       <c r="AN24" s="111" t="str">
         <f>D28</f>
@@ -23281,13 +23284,13 @@
     <row r="25" spans="3:44" ht="15" x14ac:dyDescent="0.25">
       <c r="C25" s="19" t="str">
         <f>"R-SW_Apt"&amp;"_"&amp;RIGHT(E25,3)&amp;"_HPN1"</f>
-        <v>R-SW_Apt_BGS_HPN1</v>
+        <v>R-SW_Apt_GAS_HPN1</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>116</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="F25" s="89" t="s">
         <v>703</v>
@@ -23320,15 +23323,15 @@
         <v>1.1666666666666667</v>
       </c>
       <c r="Q25" s="20">
-        <f t="shared" ref="Q25:S25" si="15">I25*0.7</f>
+        <f t="shared" ref="Q25:S25" si="17">I25*0.7</f>
         <v>1.2530864197530862</v>
       </c>
       <c r="R25" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.4691358024691357</v>
       </c>
       <c r="S25" s="56">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.4691358024691357</v>
       </c>
       <c r="T25" s="89">
@@ -23362,7 +23365,7 @@
       <c r="AE25" s="85"/>
       <c r="AF25" s="85"/>
       <c r="AG25" s="85">
-        <f t="shared" ref="AG25:AG26" si="16">31.536*(AJ25/1000)</f>
+        <f t="shared" ref="AG25:AG26" si="18">31.536*(AJ25/1000)</f>
         <v>0.56764799999999993</v>
       </c>
       <c r="AH25" s="88"/>
@@ -23395,13 +23398,13 @@
     <row r="26" spans="3:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="256" t="str">
         <f>"R-SW_Apt"&amp;"_"&amp;RIGHT(E26,3)&amp;"_HPN2"</f>
-        <v>R-SW_Apt_BGS_HPN2</v>
+        <v>R-SW_Apt_GAS_HPN2</v>
       </c>
       <c r="D26" s="26" t="s">
         <v>117</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="F26" s="27" t="s">
         <v>703</v>
@@ -23434,15 +23437,15 @@
         <v>1.1666666666666665</v>
       </c>
       <c r="Q26" s="26">
-        <f t="shared" ref="Q26" si="17">I26*0.7</f>
+        <f t="shared" ref="Q26" si="19">I26*0.7</f>
         <v>1.2055555555555555</v>
       </c>
       <c r="R26" s="26">
-        <f t="shared" ref="R26" si="18">J26*0.7</f>
+        <f t="shared" ref="R26" si="20">J26*0.7</f>
         <v>1.2055555555555555</v>
       </c>
       <c r="S26" s="59">
-        <f t="shared" ref="S26" si="19">K26*0.7</f>
+        <f t="shared" ref="S26" si="21">K26*0.7</f>
         <v>1.2444444444444445</v>
       </c>
       <c r="T26" s="27">
@@ -23476,7 +23479,7 @@
       <c r="AE26" s="64"/>
       <c r="AF26" s="64"/>
       <c r="AG26" s="64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.56764799999999993</v>
       </c>
       <c r="AH26" s="67"/>
@@ -23566,13 +23569,13 @@
     <row r="28" spans="3:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="96" t="str">
         <f>"R-SW_Apt"&amp;"_"&amp;RIGHT(E28,3)&amp;"_HHPN1"</f>
-        <v>R-SW_Apt_BGS_HHPN1</v>
+        <v>R-SW_Apt_GAS_HHPN1</v>
       </c>
       <c r="D28" s="80" t="s">
         <v>125</v>
       </c>
       <c r="E28" s="121" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="F28" s="121" t="s">
         <v>703</v>
@@ -23609,11 +23612,11 @@
         <v>2.5409999999999995</v>
       </c>
       <c r="R28" s="26">
-        <f t="shared" ref="R28:S28" si="20">J28*0.7</f>
+        <f t="shared" ref="R28:S28" si="22">J28*0.7</f>
         <v>2.7299999999999995</v>
       </c>
       <c r="S28" s="59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2.7299999999999995</v>
       </c>
       <c r="T28" s="260">
@@ -23625,15 +23628,15 @@
         <v>8.3046953586497896</v>
       </c>
       <c r="W28" s="79">
-        <f t="shared" ref="W28:Y28" si="21">(W21+W10)*0.8</f>
+        <f t="shared" ref="W28:Y28" si="23">(W21+W10)*0.8</f>
         <v>7.7598479662447266</v>
       </c>
       <c r="X28" s="79">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>7.2640368391561196</v>
       </c>
       <c r="Y28" s="79">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>7.2150005738396636</v>
       </c>
       <c r="Z28" s="265">
@@ -23818,7 +23821,7 @@
       <c r="AE30" s="85"/>
       <c r="AF30" s="85"/>
       <c r="AG30" s="85">
-        <f t="shared" ref="AG30:AG31" si="22">31.536*(AJ30/1000)</f>
+        <f t="shared" ref="AG30:AG31" si="24">31.536*(AJ30/1000)</f>
         <v>0.56764799999999993</v>
       </c>
       <c r="AH30" s="88"/>
@@ -23921,7 +23924,7 @@
       <c r="AE31" s="63"/>
       <c r="AF31" s="63"/>
       <c r="AG31" s="64">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.56764799999999993</v>
       </c>
       <c r="AH31" s="67"/>
@@ -24036,7 +24039,7 @@
       <c r="AE33" s="85"/>
       <c r="AF33" s="85"/>
       <c r="AG33" s="85">
-        <f t="shared" ref="AG33:AG34" si="23">31.536*(AJ33/1000)</f>
+        <f t="shared" ref="AG33:AG34" si="25">31.536*(AJ33/1000)</f>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH33" s="88"/>
@@ -24115,7 +24118,7 @@
       <c r="AE34" s="63"/>
       <c r="AF34" s="63"/>
       <c r="AG34" s="63">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH34" s="66"/>
@@ -24233,7 +24236,7 @@
       <c r="AE36" s="85"/>
       <c r="AF36" s="85"/>
       <c r="AG36" s="85">
-        <f t="shared" ref="AG36:AG37" si="24">31.536*(AJ36/1000)</f>
+        <f t="shared" ref="AG36:AG37" si="26">31.536*(AJ36/1000)</f>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH36" s="88"/>
@@ -24313,7 +24316,7 @@
       <c r="AE37" s="63"/>
       <c r="AF37" s="63"/>
       <c r="AG37" s="64">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH37" s="67"/>
@@ -24554,12 +24557,12 @@
         <v>85</v>
       </c>
       <c r="U42" s="539"/>
-      <c r="V42" s="540" t="s">
+      <c r="V42" s="531" t="s">
         <v>86</v>
       </c>
-      <c r="W42" s="541"/>
-      <c r="X42" s="541"/>
-      <c r="Y42" s="542"/>
+      <c r="W42" s="532"/>
+      <c r="X42" s="532"/>
+      <c r="Y42" s="533"/>
       <c r="Z42" s="60"/>
       <c r="AA42" s="60"/>
       <c r="AB42" s="68" t="s">
@@ -24660,34 +24663,34 @@
       <c r="E44" s="38"/>
       <c r="F44" s="38"/>
       <c r="G44" s="39"/>
-      <c r="H44" s="531" t="s">
+      <c r="H44" s="534" t="s">
         <v>34</v>
       </c>
-      <c r="I44" s="532"/>
-      <c r="J44" s="532"/>
-      <c r="K44" s="533"/>
-      <c r="L44" s="532" t="s">
+      <c r="I44" s="535"/>
+      <c r="J44" s="535"/>
+      <c r="K44" s="536"/>
+      <c r="L44" s="535" t="s">
         <v>34</v>
       </c>
-      <c r="M44" s="532"/>
-      <c r="N44" s="532"/>
-      <c r="O44" s="533"/>
-      <c r="P44" s="531" t="s">
+      <c r="M44" s="535"/>
+      <c r="N44" s="535"/>
+      <c r="O44" s="536"/>
+      <c r="P44" s="534" t="s">
         <v>34</v>
       </c>
-      <c r="Q44" s="532"/>
-      <c r="R44" s="532"/>
-      <c r="S44" s="533"/>
-      <c r="T44" s="534" t="s">
+      <c r="Q44" s="535"/>
+      <c r="R44" s="535"/>
+      <c r="S44" s="536"/>
+      <c r="T44" s="540" t="s">
         <v>68</v>
       </c>
-      <c r="U44" s="535"/>
-      <c r="V44" s="534" t="s">
+      <c r="U44" s="541"/>
+      <c r="V44" s="540" t="s">
         <v>541</v>
       </c>
-      <c r="W44" s="536"/>
-      <c r="X44" s="536"/>
-      <c r="Y44" s="535"/>
+      <c r="W44" s="542"/>
+      <c r="X44" s="542"/>
+      <c r="Y44" s="541"/>
       <c r="Z44" s="377" t="s">
         <v>553</v>
       </c>
@@ -24783,15 +24786,15 @@
         <v>4.2250000000000005</v>
       </c>
       <c r="W45" s="383">
-        <f t="shared" ref="W45:Y45" si="25">W49*1.3</f>
+        <f t="shared" ref="W45:Y45" si="27">W49*1.3</f>
         <v>4.2250000000000005</v>
       </c>
       <c r="X45" s="383">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.2250000000000005</v>
       </c>
       <c r="Y45" s="383">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.2250000000000005</v>
       </c>
       <c r="Z45" s="383">
@@ -24804,7 +24807,7 @@
       <c r="AE45" s="72"/>
       <c r="AF45" s="72"/>
       <c r="AG45" s="62">
-        <f t="shared" ref="AG45:AG83" si="26">31.536*(AJ45/1000)</f>
+        <f t="shared" ref="AG45:AG83" si="28">31.536*(AJ45/1000)</f>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH45" s="65"/>
@@ -24818,11 +24821,11 @@
         <v>31</v>
       </c>
       <c r="AM45" s="105" t="str">
-        <f t="shared" ref="AM45:AM60" si="27">C45</f>
+        <f t="shared" ref="AM45:AM60" si="29">C45</f>
         <v>R-SH_Att_KER_N1</v>
       </c>
       <c r="AN45" s="105" t="str">
-        <f t="shared" ref="AN45:AN60" si="28">D45</f>
+        <f t="shared" ref="AN45:AN60" si="30">D45</f>
         <v>Residential Kerosene Heating Oil - New 1 SH</v>
       </c>
       <c r="AO45" s="106" t="s">
@@ -24872,15 +24875,15 @@
         <v>0.7</v>
       </c>
       <c r="Q46" s="23">
-        <f t="shared" ref="Q46:Q48" si="29">I46*0.7</f>
+        <f t="shared" ref="Q46:Q48" si="31">I46*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R46" s="23">
-        <f t="shared" ref="R46:R48" si="30">J46*0.7</f>
+        <f t="shared" ref="R46:R48" si="32">J46*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S46" s="57">
-        <f t="shared" ref="S46:S48" si="31">K46*0.7</f>
+        <f t="shared" ref="S46:S48" si="33">K46*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T46" s="53">
@@ -24892,15 +24895,15 @@
         <v>4.2773760330578519</v>
       </c>
       <c r="W46" s="384">
-        <f t="shared" ref="W46:Y46" si="32">W50*1.3</f>
+        <f t="shared" ref="W46:Y46" si="34">W50*1.3</f>
         <v>4.2773760330578519</v>
       </c>
       <c r="X46" s="384">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>4.2773760330578519</v>
       </c>
       <c r="Y46" s="384">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>4.2773760330578519</v>
       </c>
       <c r="Z46" s="384">
@@ -24913,7 +24916,7 @@
       <c r="AE46" s="73"/>
       <c r="AF46" s="73"/>
       <c r="AG46" s="63">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH46" s="66"/>
@@ -24925,11 +24928,11 @@
       </c>
       <c r="AL46" s="106"/>
       <c r="AM46" s="105" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>R-SW_Att_KER_N1</v>
       </c>
       <c r="AN46" s="105" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>Residential Kerosene Heating Oil - New 2 SH + WH</v>
       </c>
       <c r="AO46" s="106" t="s">
@@ -24979,15 +24982,15 @@
         <v>0.7</v>
       </c>
       <c r="Q47" s="29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.7</v>
       </c>
       <c r="R47" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.7</v>
       </c>
       <c r="S47" s="58">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.7</v>
       </c>
       <c r="T47" s="54">
@@ -25025,7 +25028,7 @@
         <v>5</v>
       </c>
       <c r="AG47" s="62">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH47" s="65"/>
@@ -25037,11 +25040,11 @@
       </c>
       <c r="AL47" s="106"/>
       <c r="AM47" s="105" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>R-SW_Att_KER_N2</v>
       </c>
       <c r="AN47" s="105" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Solar</v>
       </c>
       <c r="AO47" s="106" t="s">
@@ -25091,15 +25094,15 @@
         <v>0.7</v>
       </c>
       <c r="Q48" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="R48" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="S48" s="57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="T48" s="53">
@@ -25149,11 +25152,11 @@
       </c>
       <c r="AL48" s="106"/>
       <c r="AM48" s="105" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>R-SW_Att_KER_N3</v>
       </c>
       <c r="AN48" s="105" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Wood Stove</v>
       </c>
       <c r="AO48" s="107" t="s">
@@ -25168,13 +25171,13 @@
     <row r="49" spans="3:44" ht="15" x14ac:dyDescent="0.25">
       <c r="C49" s="40" t="str">
         <f>"R-SH_Att"&amp;"_"&amp;RIGHT(E49,3)&amp;"_N1"</f>
-        <v>R-SH_Att_BGS_N1</v>
+        <v>R-SH_Att_GAS_N1</v>
       </c>
       <c r="D49" s="29" t="s">
         <v>95</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="F49" s="30"/>
       <c r="G49" s="58" t="s">
@@ -25209,15 +25212,15 @@
         <v>3.25</v>
       </c>
       <c r="W49" s="383">
-        <f t="shared" ref="W49:Y49" si="33">3.25</f>
+        <f t="shared" ref="W49:Y49" si="35">3.25</f>
         <v>3.25</v>
       </c>
       <c r="X49" s="383">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>3.25</v>
       </c>
       <c r="Y49" s="383">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>3.25</v>
       </c>
       <c r="Z49" s="383">
@@ -25230,7 +25233,7 @@
       <c r="AE49" s="72"/>
       <c r="AF49" s="72"/>
       <c r="AG49" s="62">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH49" s="65"/>
@@ -25242,11 +25245,11 @@
       </c>
       <c r="AL49" s="106"/>
       <c r="AM49" s="105" t="str">
-        <f t="shared" si="27"/>
-        <v>R-SH_Att_BGS_N1</v>
+        <f t="shared" si="29"/>
+        <v>R-SH_Att_GAS_N1</v>
       </c>
       <c r="AN49" s="105" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>Residential Natural Gas Heating - New 1 SH</v>
       </c>
       <c r="AO49" s="106" t="s">
@@ -25263,13 +25266,13 @@
     <row r="50" spans="3:44" ht="15" x14ac:dyDescent="0.25">
       <c r="C50" s="22" t="str">
         <f>"R-SW_Att"&amp;"_"&amp;RIGHT(E50,3)&amp;"_N1"</f>
-        <v>R-SW_Att_BGS_N1</v>
+        <v>R-SW_Att_GAS_N1</v>
       </c>
       <c r="D50" s="23" t="s">
         <v>99</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="F50" s="24"/>
       <c r="G50" s="57" t="s">
@@ -25296,15 +25299,15 @@
         <v>0.7</v>
       </c>
       <c r="Q50" s="23">
-        <f t="shared" ref="Q50:Q52" si="34">I50*0.7</f>
+        <f t="shared" ref="Q50:Q52" si="36">I50*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R50" s="23">
-        <f t="shared" ref="R50:R52" si="35">J50*0.7</f>
+        <f t="shared" ref="R50:R52" si="37">J50*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S50" s="57">
-        <f t="shared" ref="S50:S52" si="36">K50*0.7</f>
+        <f t="shared" ref="S50:S52" si="38">K50*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T50" s="53">
@@ -25337,7 +25340,7 @@
       <c r="AE50" s="73"/>
       <c r="AF50" s="73"/>
       <c r="AG50" s="63">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH50" s="66"/>
@@ -25349,11 +25352,11 @@
       </c>
       <c r="AL50" s="106"/>
       <c r="AM50" s="105" t="str">
-        <f t="shared" si="27"/>
-        <v>R-SW_Att_BGS_N1</v>
+        <f t="shared" si="29"/>
+        <v>R-SW_Att_GAS_N1</v>
       </c>
       <c r="AN50" s="105" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>Residential Natural Gas Heating - New 2 SH + WH</v>
       </c>
       <c r="AO50" s="106" t="s">
@@ -25370,13 +25373,13 @@
     <row r="51" spans="3:44" ht="15" x14ac:dyDescent="0.25">
       <c r="C51" s="40" t="str">
         <f>"R-SW_Att"&amp;"_"&amp;RIGHT(E51,3)&amp;"_N2"</f>
-        <v>R-SW_Att_BGS_N2</v>
+        <v>R-SW_Att_GAS_N2</v>
       </c>
       <c r="D51" s="29" t="s">
         <v>100</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F51" s="30"/>
       <c r="G51" s="58" t="s">
@@ -25403,15 +25406,15 @@
         <v>0.7</v>
       </c>
       <c r="Q51" s="29">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.7</v>
       </c>
       <c r="R51" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.7</v>
       </c>
       <c r="S51" s="58">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.7</v>
       </c>
       <c r="T51" s="54">
@@ -25447,7 +25450,7 @@
         <v>5</v>
       </c>
       <c r="AG51" s="62">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH51" s="65"/>
@@ -25459,11 +25462,11 @@
       </c>
       <c r="AL51" s="106"/>
       <c r="AM51" s="105" t="str">
-        <f t="shared" si="27"/>
-        <v>R-SW_Att_BGS_N2</v>
+        <f t="shared" si="29"/>
+        <v>R-SW_Att_GAS_N2</v>
       </c>
       <c r="AN51" s="105" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>Residential Natural Gas Heating - New 3 SH + WH + Solar</v>
       </c>
       <c r="AO51" s="106" t="s">
@@ -25480,13 +25483,13 @@
     <row r="52" spans="3:44" ht="15" x14ac:dyDescent="0.25">
       <c r="C52" s="22" t="str">
         <f>"R-SW_Att"&amp;"_"&amp;RIGHT(E52,3)&amp;"_N3"</f>
-        <v>R-SW_Att_BGS_N3</v>
+        <v>R-SW_Att_GAS_N3</v>
       </c>
       <c r="D52" s="23" t="s">
         <v>101</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F52" s="24"/>
       <c r="G52" s="57" t="s">
@@ -25513,15 +25516,15 @@
         <v>0.7</v>
       </c>
       <c r="Q52" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="R52" s="23">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="S52" s="57">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="T52" s="53">
@@ -25559,7 +25562,7 @@
         <v>5</v>
       </c>
       <c r="AG52" s="63">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH52" s="66"/>
@@ -25571,11 +25574,11 @@
       </c>
       <c r="AL52" s="106"/>
       <c r="AM52" s="105" t="str">
-        <f t="shared" si="27"/>
-        <v>R-SW_Att_BGS_N3</v>
+        <f t="shared" si="29"/>
+        <v>R-SW_Att_GAS_N3</v>
       </c>
       <c r="AN52" s="105" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>Residential Natural Gas Heating - New 4 SH + WH + Wood Stove</v>
       </c>
       <c r="AO52" s="106" t="s">
@@ -25633,15 +25636,15 @@
         <v>3.5</v>
       </c>
       <c r="W53" s="383">
-        <f t="shared" ref="W53:Y53" si="37">SUM(W49+0.25)</f>
+        <f t="shared" ref="W53:Y53" si="39">SUM(W49+0.25)</f>
         <v>3.5</v>
       </c>
       <c r="X53" s="383">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>3.5</v>
       </c>
       <c r="Y53" s="383">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>3.5</v>
       </c>
       <c r="Z53" s="383">
@@ -25655,7 +25658,7 @@
       <c r="AE53" s="72"/>
       <c r="AF53" s="72"/>
       <c r="AG53" s="62">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH53" s="65"/>
@@ -25667,11 +25670,11 @@
       </c>
       <c r="AL53" s="106"/>
       <c r="AM53" s="105" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>R-SH_Att_LPG_N1</v>
       </c>
       <c r="AN53" s="105" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>Residential Liquid Petroleum Gas- New 1 SH</v>
       </c>
       <c r="AO53" s="106" t="s">
@@ -25721,15 +25724,15 @@
         <v>0.7</v>
       </c>
       <c r="Q54" s="23">
-        <f t="shared" ref="Q54" si="38">I54*0.7</f>
+        <f t="shared" ref="Q54" si="40">I54*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R54" s="23">
-        <f t="shared" ref="R54" si="39">J54*0.7</f>
+        <f t="shared" ref="R54" si="41">J54*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S54" s="57">
-        <f t="shared" ref="S54" si="40">K54*0.7</f>
+        <f t="shared" ref="S54" si="42">K54*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T54" s="53">
@@ -25741,15 +25744,15 @@
         <v>3.5402892561983474</v>
       </c>
       <c r="W54" s="384">
-        <f t="shared" ref="W54:Y54" si="41">W49*($U$152/$U$151)+0.25</f>
+        <f t="shared" ref="W54:Y54" si="43">W49*($U$152/$U$151)+0.25</f>
         <v>3.5402892561983474</v>
       </c>
       <c r="X54" s="384">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>3.5402892561983474</v>
       </c>
       <c r="Y54" s="384">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>3.5402892561983474</v>
       </c>
       <c r="Z54" s="383">
@@ -25763,7 +25766,7 @@
       <c r="AE54" s="73"/>
       <c r="AF54" s="73"/>
       <c r="AG54" s="63">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH54" s="66"/>
@@ -25775,11 +25778,11 @@
       </c>
       <c r="AL54" s="106"/>
       <c r="AM54" s="105" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>R-SW_Att_LPG_N1</v>
       </c>
       <c r="AN54" s="105" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>Residential Liquid Petroleum Gas- New 2 SH + WH</v>
       </c>
       <c r="AO54" s="106" t="s">
@@ -25857,7 +25860,7 @@
       <c r="AE55" s="72"/>
       <c r="AF55" s="72"/>
       <c r="AG55" s="62">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH55" s="65"/>
@@ -25869,11 +25872,11 @@
       </c>
       <c r="AL55" s="106"/>
       <c r="AM55" s="105" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>R-SH_Att_WOO_N1</v>
       </c>
       <c r="AN55" s="105" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>Residential Biomass Boiler - New 1 SH</v>
       </c>
       <c r="AO55" s="106" t="s">
@@ -25919,19 +25922,19 @@
       <c r="N56" s="32"/>
       <c r="O56" s="45"/>
       <c r="P56" s="22">
-        <f t="shared" ref="P56:S60" si="42">H56*0.7</f>
+        <f t="shared" ref="P56:S60" si="44">H56*0.7</f>
         <v>0.7</v>
       </c>
       <c r="Q56" s="23">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.7</v>
       </c>
       <c r="R56" s="23">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.7</v>
       </c>
       <c r="S56" s="57">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.7</v>
       </c>
       <c r="T56" s="53">
@@ -25964,7 +25967,7 @@
       <c r="AE56" s="73"/>
       <c r="AF56" s="73"/>
       <c r="AG56" s="63">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH56" s="66"/>
@@ -25976,11 +25979,11 @@
       </c>
       <c r="AL56" s="109"/>
       <c r="AM56" s="108" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>R-SW_Att_WOO_N1</v>
       </c>
       <c r="AN56" s="108" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>Residential Biomass Boiler - New 2 SH + WH</v>
       </c>
       <c r="AO56" s="109" t="s">
@@ -26059,7 +26062,7 @@
       <c r="AE57" s="73"/>
       <c r="AF57" s="73"/>
       <c r="AG57" s="63">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH57" s="66"/>
@@ -26074,7 +26077,7 @@
         <v>603</v>
       </c>
       <c r="AN57" s="108" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>Residential  Stove New 1 - SH</v>
       </c>
       <c r="AO57" s="106" t="s">
@@ -26118,19 +26121,19 @@
       <c r="N58" s="32"/>
       <c r="O58" s="45"/>
       <c r="P58" s="22">
-        <f t="shared" ref="P58" si="43">H58*0.7</f>
+        <f t="shared" ref="P58" si="45">H58*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="Q58" s="23">
-        <f t="shared" ref="Q58" si="44">I58*0.7</f>
+        <f t="shared" ref="Q58" si="46">I58*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="R58" s="23">
-        <f t="shared" ref="R58" si="45">J58*0.7</f>
+        <f t="shared" ref="R58" si="47">J58*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="S58" s="57">
-        <f t="shared" ref="S58" si="46">K58*0.7</f>
+        <f t="shared" ref="S58" si="48">K58*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="T58" s="53">
@@ -26163,7 +26166,7 @@
       <c r="AE58" s="73"/>
       <c r="AF58" s="73"/>
       <c r="AG58" s="63">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH58" s="66"/>
@@ -26178,7 +26181,7 @@
         <v>604</v>
       </c>
       <c r="AN58" s="108" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>Residential  Stove with back boiler New 1 - SH +WH</v>
       </c>
       <c r="AO58" s="109" t="s">
@@ -26233,19 +26236,19 @@
         <v>4.2250000000000005</v>
       </c>
       <c r="W59" s="62">
-        <f t="shared" ref="W59:Z60" si="47">W45</f>
+        <f t="shared" ref="W59:Z60" si="49">W45</f>
         <v>4.2250000000000005</v>
       </c>
       <c r="X59" s="62">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>4.2250000000000005</v>
       </c>
       <c r="Y59" s="62">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>4.2250000000000005</v>
       </c>
       <c r="Z59" s="62">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0.12</v>
       </c>
       <c r="AA59" s="65"/>
@@ -26267,11 +26270,11 @@
       </c>
       <c r="AL59" s="109"/>
       <c r="AM59" s="108" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>R-SH_Att_HVO_N1</v>
       </c>
       <c r="AN59" s="108" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>Residential  Hydrotreated vegetable oil - New 1 SH</v>
       </c>
       <c r="AO59" s="109" t="s">
@@ -26316,19 +26319,19 @@
       <c r="N60" s="50"/>
       <c r="O60" s="51"/>
       <c r="P60" s="256">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="Q60" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="R60" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="S60" s="59">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="T60" s="55">
@@ -26340,19 +26343,19 @@
         <v>4.2773760330578519</v>
       </c>
       <c r="W60" s="62">
-        <f t="shared" ref="W60:Y60" si="48">W46</f>
+        <f t="shared" ref="W60:Y60" si="50">W46</f>
         <v>4.2773760330578519</v>
       </c>
       <c r="X60" s="62">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>4.2773760330578519</v>
       </c>
       <c r="Y60" s="62">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>4.2773760330578519</v>
       </c>
       <c r="Z60" s="62">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0.12</v>
       </c>
       <c r="AA60" s="66"/>
@@ -26362,7 +26365,7 @@
       <c r="AE60" s="73"/>
       <c r="AF60" s="73"/>
       <c r="AG60" s="63">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH60" s="67"/>
@@ -26374,11 +26377,11 @@
       </c>
       <c r="AL60" s="109"/>
       <c r="AM60" s="108" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>R-SW_Att_HVO_N1</v>
       </c>
       <c r="AN60" s="108" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>Residential  Hydrotreated vegetable oil - New 1 SH + WH</v>
       </c>
       <c r="AO60" s="109" t="s">
@@ -26515,7 +26518,7 @@
       <c r="AE62" s="84"/>
       <c r="AF62" s="84"/>
       <c r="AG62" s="82">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH62" s="83"/>
@@ -26527,11 +26530,11 @@
       </c>
       <c r="AL62" s="104"/>
       <c r="AM62" s="103" t="str">
-        <f>C64</f>
+        <f t="shared" ref="AM62:AN68" si="51">C64</f>
         <v>R-SH_Att_ELC_HPN1</v>
       </c>
       <c r="AN62" s="103" t="str">
-        <f>D64</f>
+        <f t="shared" si="51"/>
         <v>Residential Electric Heat Pump - Air to Air - SH</v>
       </c>
       <c r="AO62" s="104" t="s">
@@ -26584,11 +26587,11 @@
       <c r="AJ63" s="34"/>
       <c r="AL63" s="106"/>
       <c r="AM63" s="105" t="str">
-        <f>C65</f>
+        <f t="shared" si="51"/>
         <v>R-HC_Att_ELC_HPN1</v>
       </c>
       <c r="AN63" s="105" t="str">
-        <f>D65</f>
+        <f t="shared" si="51"/>
         <v>Residential Electric Heat Pump - Air to Air - SH + SC</v>
       </c>
       <c r="AO63" s="106" t="s">
@@ -26673,7 +26676,7 @@
       <c r="AE64" s="85"/>
       <c r="AF64" s="85"/>
       <c r="AG64" s="85">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.220752</v>
       </c>
       <c r="AH64" s="88"/>
@@ -26685,11 +26688,11 @@
       </c>
       <c r="AL64" s="106"/>
       <c r="AM64" s="105" t="str">
-        <f>C66</f>
+        <f t="shared" si="51"/>
         <v>R-SH_Att_ELC_HPN2</v>
       </c>
       <c r="AN64" s="105" t="str">
-        <f>D66</f>
+        <f t="shared" si="51"/>
         <v>Residential Electric Heat Pump - Air to Water - SH</v>
       </c>
       <c r="AO64" s="106" t="s">
@@ -26785,7 +26788,7 @@
       <c r="AE65" s="63"/>
       <c r="AF65" s="63"/>
       <c r="AG65" s="63">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH65" s="66"/>
@@ -26797,11 +26800,11 @@
       </c>
       <c r="AL65" s="106"/>
       <c r="AM65" s="105" t="str">
-        <f>C67</f>
+        <f t="shared" si="51"/>
         <v>R-SW_Att_ELC_HPN1</v>
       </c>
       <c r="AN65" s="105" t="str">
-        <f>D67</f>
+        <f t="shared" si="51"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH</v>
       </c>
       <c r="AO65" s="106" t="s">
@@ -26884,7 +26887,7 @@
       <c r="AE66" s="62"/>
       <c r="AF66" s="62"/>
       <c r="AG66" s="62">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.220752</v>
       </c>
       <c r="AH66" s="65"/>
@@ -26896,11 +26899,11 @@
       </c>
       <c r="AL66" s="213"/>
       <c r="AM66" s="105" t="str">
-        <f>C68</f>
+        <f t="shared" si="51"/>
         <v>R-SW_Att_ELC_HPN2</v>
       </c>
       <c r="AN66" s="105" t="str">
-        <f>D68</f>
+        <f t="shared" si="51"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar</v>
       </c>
       <c r="AO66" s="106" t="s">
@@ -26955,15 +26958,15 @@
         <v>0.7</v>
       </c>
       <c r="Q67" s="23">
-        <f t="shared" ref="Q67:Q68" si="49">I67*0.7</f>
+        <f t="shared" ref="Q67:Q68" si="52">I67*0.7</f>
         <v>0.76999999999999991</v>
       </c>
       <c r="R67" s="23">
-        <f t="shared" ref="R67:R68" si="50">J67*0.7</f>
+        <f t="shared" ref="R67:R68" si="53">J67*0.7</f>
         <v>0.86333333333333329</v>
       </c>
       <c r="S67" s="57">
-        <f t="shared" ref="S67:S68" si="51">K67*0.7</f>
+        <f t="shared" ref="S67:S68" si="54">K67*0.7</f>
         <v>0.93333333333333324</v>
       </c>
       <c r="T67" s="53">
@@ -26996,7 +26999,7 @@
       <c r="AE67" s="63"/>
       <c r="AF67" s="63"/>
       <c r="AG67" s="63">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH67" s="66"/>
@@ -27008,11 +27011,11 @@
       </c>
       <c r="AL67" s="213"/>
       <c r="AM67" s="105" t="str">
-        <f>C69</f>
+        <f t="shared" si="51"/>
         <v>R-SH_Att_ELC_HPN3</v>
       </c>
       <c r="AN67" s="105" t="str">
-        <f>D69</f>
+        <f t="shared" si="51"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH</v>
       </c>
       <c r="AO67" s="106" t="s">
@@ -27064,15 +27067,15 @@
         <v>0.7</v>
       </c>
       <c r="Q68" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>0.77700000000000002</v>
       </c>
       <c r="R68" s="29">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="S68" s="58">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="T68" s="54">
@@ -27110,7 +27113,7 @@
         <v>5</v>
       </c>
       <c r="AG68" s="62">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH68" s="65"/>
@@ -27122,11 +27125,11 @@
       </c>
       <c r="AL68" s="112"/>
       <c r="AM68" s="108" t="str">
-        <f>C70</f>
+        <f t="shared" si="51"/>
         <v>R-HC_Att_ELC_HPN2</v>
       </c>
       <c r="AN68" s="108" t="str">
-        <f>D70</f>
+        <f t="shared" si="51"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC</v>
       </c>
       <c r="AO68" s="109" t="s">
@@ -27212,7 +27215,7 @@
       <c r="AE69" s="63"/>
       <c r="AF69" s="63"/>
       <c r="AG69" s="63">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.220752</v>
       </c>
       <c r="AH69" s="66"/>
@@ -27225,7 +27228,7 @@
       <c r="AL69" s="113"/>
       <c r="AM69" s="103" t="str">
         <f>C72</f>
-        <v>R-SW_Att_BGS_HPN1</v>
+        <v>R-SW_Att_GAS_HPN1</v>
       </c>
       <c r="AN69" s="103" t="str">
         <f>D72</f>
@@ -27326,7 +27329,7 @@
       <c r="AE70" s="86"/>
       <c r="AF70" s="86"/>
       <c r="AG70" s="86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH70" s="91"/>
@@ -27339,7 +27342,7 @@
       <c r="AL70" s="214"/>
       <c r="AM70" s="108" t="str">
         <f>C73</f>
-        <v>R-SW_Att_BGS_HPN2</v>
+        <v>R-SW_Att_GAS_HPN2</v>
       </c>
       <c r="AN70" s="108" t="str">
         <f>D73</f>
@@ -27396,7 +27399,7 @@
       <c r="AL71" s="215"/>
       <c r="AM71" s="111" t="str">
         <f>C75</f>
-        <v>R-SW_Att_BGS_HHPN1</v>
+        <v>R-SW_Att_GAS_HHPN1</v>
       </c>
       <c r="AN71" s="111" t="str">
         <f>D75</f>
@@ -27416,13 +27419,13 @@
     <row r="72" spans="3:44" ht="15" x14ac:dyDescent="0.25">
       <c r="C72" s="19" t="str">
         <f>"R-SW_Att"&amp;"_"&amp;RIGHT(E72,3)&amp;"_HPN1"</f>
-        <v>R-SW_Att_BGS_HPN1</v>
+        <v>R-SW_Att_GAS_HPN1</v>
       </c>
       <c r="D72" s="20" t="s">
         <v>116</v>
       </c>
       <c r="E72" s="89" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="F72" s="89" t="s">
         <v>703</v>
@@ -27455,15 +27458,15 @@
         <v>1.1666666666666667</v>
       </c>
       <c r="Q72" s="20">
-        <f t="shared" ref="Q72:Q73" si="52">I72*0.7</f>
+        <f t="shared" ref="Q72:Q73" si="55">I72*0.7</f>
         <v>1.2530864197530862</v>
       </c>
       <c r="R72" s="20">
-        <f t="shared" ref="R72:R73" si="53">J72*0.7</f>
+        <f t="shared" ref="R72:R73" si="56">J72*0.7</f>
         <v>1.4691358024691357</v>
       </c>
       <c r="S72" s="56">
-        <f t="shared" ref="S72:S73" si="54">K72*0.7</f>
+        <f t="shared" ref="S72:S73" si="57">K72*0.7</f>
         <v>1.4691358024691357</v>
       </c>
       <c r="T72" s="89">
@@ -27497,7 +27500,7 @@
       <c r="AE72" s="85"/>
       <c r="AF72" s="85"/>
       <c r="AG72" s="85">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH72" s="88"/>
@@ -27530,13 +27533,13 @@
     <row r="73" spans="3:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C73" s="256" t="str">
         <f>"R-SW_Att"&amp;"_"&amp;RIGHT(E73,3)&amp;"_HPN2"</f>
-        <v>R-SW_Att_BGS_HPN2</v>
+        <v>R-SW_Att_GAS_HPN2</v>
       </c>
       <c r="D73" s="26" t="s">
         <v>117</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="F73" s="27" t="s">
         <v>703</v>
@@ -27569,15 +27572,15 @@
         <v>1.1666666666666665</v>
       </c>
       <c r="Q73" s="26">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>1.2055555555555555</v>
       </c>
       <c r="R73" s="26">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>1.2055555555555555</v>
       </c>
       <c r="S73" s="59">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>1.2444444444444445</v>
       </c>
       <c r="T73" s="27">
@@ -27701,13 +27704,13 @@
     <row r="75" spans="3:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C75" s="96" t="str">
         <f>"R-SW_Att"&amp;"_"&amp;RIGHT(E75,3)&amp;"_HHPN1"</f>
-        <v>R-SW_Att_BGS_HHPN1</v>
+        <v>R-SW_Att_GAS_HHPN1</v>
       </c>
       <c r="D75" s="80" t="s">
         <v>125</v>
       </c>
       <c r="E75" s="121" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="F75" s="121" t="s">
         <v>703</v>
@@ -27740,15 +27743,15 @@
         <v>2.2889999999999997</v>
       </c>
       <c r="Q75" s="26">
-        <f t="shared" ref="Q75" si="55">I75*0.7</f>
+        <f t="shared" ref="Q75" si="58">I75*0.7</f>
         <v>2.5409999999999995</v>
       </c>
       <c r="R75" s="26">
-        <f t="shared" ref="R75" si="56">J75*0.7</f>
+        <f t="shared" ref="R75" si="59">J75*0.7</f>
         <v>2.7299999999999995</v>
       </c>
       <c r="S75" s="59">
-        <f t="shared" ref="S75" si="57">K75*0.7</f>
+        <f t="shared" ref="S75" si="60">K75*0.7</f>
         <v>2.7299999999999995</v>
       </c>
       <c r="T75" s="3">
@@ -27759,15 +27762,15 @@
         <v>9.5138179028489738</v>
       </c>
       <c r="W75" s="79">
-        <f t="shared" ref="W75:Y75" si="58">(W67+W50)*0.8</f>
+        <f t="shared" ref="W75:Y75" si="61">(W67+W50)*0.8</f>
         <v>8.8944751180388462</v>
       </c>
       <c r="X75" s="79">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>8.3308731838616321</v>
       </c>
       <c r="Y75" s="79">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>8.2751323332287203</v>
       </c>
       <c r="Z75" s="375">
@@ -27788,7 +27791,7 @@
         <v>5</v>
       </c>
       <c r="AG75" s="82">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.42415920000000001</v>
       </c>
       <c r="AH75" s="83"/>
@@ -27950,7 +27953,7 @@
       <c r="AE77" s="85"/>
       <c r="AF77" s="85"/>
       <c r="AG77" s="85">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH77" s="88"/>
@@ -28035,7 +28038,7 @@
       <c r="AE78" s="64"/>
       <c r="AF78" s="64"/>
       <c r="AG78" s="64">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH78" s="67"/>
@@ -28150,7 +28153,7 @@
       <c r="AE80" s="85"/>
       <c r="AF80" s="85"/>
       <c r="AG80" s="85">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.18921600000000002</v>
       </c>
       <c r="AH80" s="88"/>
@@ -28229,7 +28232,7 @@
       <c r="AE81" s="63"/>
       <c r="AF81" s="63"/>
       <c r="AG81" s="63">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.18921600000000002</v>
       </c>
       <c r="AH81" s="67"/>
@@ -28347,7 +28350,7 @@
       <c r="AE83" s="93"/>
       <c r="AF83" s="93"/>
       <c r="AG83" s="93">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.18921600000000002</v>
       </c>
       <c r="AH83" s="92"/>
@@ -28510,12 +28513,12 @@
         <v>85</v>
       </c>
       <c r="U90" s="539"/>
-      <c r="V90" s="540" t="s">
+      <c r="V90" s="531" t="s">
         <v>86</v>
       </c>
-      <c r="W90" s="541"/>
-      <c r="X90" s="541"/>
-      <c r="Y90" s="542"/>
+      <c r="W90" s="532"/>
+      <c r="X90" s="532"/>
+      <c r="Y90" s="533"/>
       <c r="Z90" s="60"/>
       <c r="AA90" s="60"/>
       <c r="AB90" s="68" t="s">
@@ -28616,34 +28619,34 @@
       <c r="E92" s="38"/>
       <c r="F92" s="38"/>
       <c r="G92" s="39"/>
-      <c r="H92" s="531" t="s">
+      <c r="H92" s="534" t="s">
         <v>34</v>
       </c>
-      <c r="I92" s="532"/>
-      <c r="J92" s="532"/>
-      <c r="K92" s="533"/>
-      <c r="L92" s="532" t="s">
+      <c r="I92" s="535"/>
+      <c r="J92" s="535"/>
+      <c r="K92" s="536"/>
+      <c r="L92" s="535" t="s">
         <v>34</v>
       </c>
-      <c r="M92" s="532"/>
-      <c r="N92" s="532"/>
-      <c r="O92" s="533"/>
-      <c r="P92" s="531" t="s">
+      <c r="M92" s="535"/>
+      <c r="N92" s="535"/>
+      <c r="O92" s="536"/>
+      <c r="P92" s="534" t="s">
         <v>34</v>
       </c>
-      <c r="Q92" s="532"/>
-      <c r="R92" s="532"/>
-      <c r="S92" s="533"/>
-      <c r="T92" s="534" t="s">
+      <c r="Q92" s="535"/>
+      <c r="R92" s="535"/>
+      <c r="S92" s="536"/>
+      <c r="T92" s="540" t="s">
         <v>68</v>
       </c>
-      <c r="U92" s="535"/>
-      <c r="V92" s="534" t="s">
+      <c r="U92" s="541"/>
+      <c r="V92" s="540" t="s">
         <v>541</v>
       </c>
-      <c r="W92" s="536"/>
-      <c r="X92" s="536"/>
-      <c r="Y92" s="535"/>
+      <c r="W92" s="542"/>
+      <c r="X92" s="542"/>
+      <c r="Y92" s="541"/>
       <c r="Z92" s="377" t="s">
         <v>553</v>
       </c>
@@ -28739,15 +28742,15 @@
         <v>4.5825000000000005</v>
       </c>
       <c r="W93" s="383">
-        <f t="shared" ref="W93:Y93" si="59">W97*1.3</f>
+        <f t="shared" ref="W93:Y93" si="62">W97*1.3</f>
         <v>4.5825000000000005</v>
       </c>
       <c r="X93" s="383">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>4.5825000000000005</v>
       </c>
       <c r="Y93" s="383">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>4.5825000000000005</v>
       </c>
       <c r="Z93" s="383">
@@ -28760,7 +28763,7 @@
       <c r="AE93" s="72"/>
       <c r="AF93" s="72"/>
       <c r="AG93" s="62">
-        <f t="shared" ref="AG93:AG131" si="60">31.536*(AJ93/1000)</f>
+        <f t="shared" ref="AG93:AG131" si="63">31.536*(AJ93/1000)</f>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH93" s="65"/>
@@ -28828,15 +28831,15 @@
         <v>0.7</v>
       </c>
       <c r="Q94" s="23">
-        <f t="shared" ref="Q94:Q96" si="61">I94*0.7</f>
+        <f t="shared" ref="Q94:Q96" si="64">I94*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R94" s="23">
-        <f t="shared" ref="R94:R96" si="62">J94*0.7</f>
+        <f t="shared" ref="R94:R96" si="65">J94*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S94" s="57">
-        <f t="shared" ref="S94:S96" si="63">K94*0.7</f>
+        <f t="shared" ref="S94:S96" si="66">K94*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T94" s="53">
@@ -28848,15 +28851,15 @@
         <v>4.9452075289575284</v>
       </c>
       <c r="W94" s="384">
-        <f t="shared" ref="W94:Y94" si="64">W98*1.3</f>
+        <f t="shared" ref="W94:Y94" si="67">W98*1.3</f>
         <v>4.9452075289575284</v>
       </c>
       <c r="X94" s="384">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>4.9452075289575284</v>
       </c>
       <c r="Y94" s="384">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>4.9452075289575284</v>
       </c>
       <c r="Z94" s="384">
@@ -28869,7 +28872,7 @@
       <c r="AE94" s="73"/>
       <c r="AF94" s="73"/>
       <c r="AG94" s="63">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH94" s="66"/>
@@ -28881,11 +28884,11 @@
       </c>
       <c r="AL94" s="106"/>
       <c r="AM94" s="105" t="str">
-        <f t="shared" ref="AM94:AM108" si="65">C94</f>
+        <f t="shared" ref="AM94:AM108" si="68">C94</f>
         <v>R-SW_Det_KER_N1</v>
       </c>
       <c r="AN94" s="105" t="str">
-        <f t="shared" ref="AN94:AN108" si="66">D94</f>
+        <f t="shared" ref="AN94:AN108" si="69">D94</f>
         <v>Residential Kerosene Heating Oil - New 2 SH + WH</v>
       </c>
       <c r="AO94" s="106" t="s">
@@ -28935,15 +28938,15 @@
         <v>0.7</v>
       </c>
       <c r="Q95" s="29">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0.7</v>
       </c>
       <c r="R95" s="29">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0.7</v>
       </c>
       <c r="S95" s="58">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>0.7</v>
       </c>
       <c r="T95" s="54">
@@ -28981,7 +28984,7 @@
         <v>5</v>
       </c>
       <c r="AG95" s="62">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH95" s="65"/>
@@ -28993,11 +28996,11 @@
       </c>
       <c r="AL95" s="106"/>
       <c r="AM95" s="105" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>R-SW_Det_KER_N2</v>
       </c>
       <c r="AN95" s="105" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Solar</v>
       </c>
       <c r="AO95" s="106" t="s">
@@ -29047,15 +29050,15 @@
         <v>0.7</v>
       </c>
       <c r="Q96" s="23">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="R96" s="23">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="S96" s="57">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="T96" s="53">
@@ -29093,7 +29096,7 @@
         <v>5</v>
       </c>
       <c r="AG96" s="63">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH96" s="66"/>
@@ -29105,11 +29108,11 @@
       </c>
       <c r="AL96" s="106"/>
       <c r="AM96" s="105" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>R-SW_Det_KER_N3</v>
       </c>
       <c r="AN96" s="105" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Wood Stove</v>
       </c>
       <c r="AO96" s="107" t="s">
@@ -29165,15 +29168,15 @@
         <v>3.5249999999999999</v>
       </c>
       <c r="W97" s="383">
-        <f t="shared" ref="W97:Y97" si="67">3.525</f>
+        <f t="shared" ref="W97:Y97" si="70">3.525</f>
         <v>3.5249999999999999</v>
       </c>
       <c r="X97" s="383">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>3.5249999999999999</v>
       </c>
       <c r="Y97" s="383">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>3.5249999999999999</v>
       </c>
       <c r="Z97" s="383">
@@ -29186,7 +29189,7 @@
       <c r="AE97" s="72"/>
       <c r="AF97" s="72"/>
       <c r="AG97" s="62">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH97" s="65"/>
@@ -29198,11 +29201,11 @@
       </c>
       <c r="AL97" s="106"/>
       <c r="AM97" s="105" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>R-SH_Det_BGS_N1</v>
       </c>
       <c r="AN97" s="105" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>Residential Natural Gas Heating - New 1 SH</v>
       </c>
       <c r="AO97" s="106" t="s">
@@ -29252,15 +29255,15 @@
         <v>0.7</v>
       </c>
       <c r="Q98" s="23">
-        <f t="shared" ref="Q98:Q100" si="68">I98*0.7</f>
+        <f t="shared" ref="Q98:Q100" si="71">I98*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R98" s="23">
-        <f t="shared" ref="R98:R100" si="69">J98*0.7</f>
+        <f t="shared" ref="R98:R100" si="72">J98*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S98" s="57">
-        <f t="shared" ref="S98:S100" si="70">K98*0.7</f>
+        <f t="shared" ref="S98:S100" si="73">K98*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T98" s="53">
@@ -29293,7 +29296,7 @@
       <c r="AE98" s="73"/>
       <c r="AF98" s="73"/>
       <c r="AG98" s="63">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH98" s="66"/>
@@ -29305,11 +29308,11 @@
       </c>
       <c r="AL98" s="106"/>
       <c r="AM98" s="105" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>R-SW_Det_BGS_N1</v>
       </c>
       <c r="AN98" s="105" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>Residential Natural Gas Heating - New 2 SH + WH</v>
       </c>
       <c r="AO98" s="106" t="s">
@@ -29326,13 +29329,13 @@
     <row r="99" spans="3:44" ht="15" x14ac:dyDescent="0.25">
       <c r="C99" s="40" t="str">
         <f>"R-SW_Det"&amp;"_"&amp;RIGHT(E99,3)&amp;"_N2"</f>
-        <v>R-SW_Det_BGS_N2</v>
+        <v>R-SW_Det_GAS_N2</v>
       </c>
       <c r="D99" s="29" t="s">
         <v>100</v>
       </c>
       <c r="E99" s="30" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F99" s="30"/>
       <c r="G99" s="58" t="s">
@@ -29359,15 +29362,15 @@
         <v>0.7</v>
       </c>
       <c r="Q99" s="29">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>0.7</v>
       </c>
       <c r="R99" s="29">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>0.7</v>
       </c>
       <c r="S99" s="58">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>0.7</v>
       </c>
       <c r="T99" s="54">
@@ -29403,7 +29406,7 @@
         <v>5</v>
       </c>
       <c r="AG99" s="62">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH99" s="65"/>
@@ -29415,11 +29418,11 @@
       </c>
       <c r="AL99" s="106"/>
       <c r="AM99" s="105" t="str">
-        <f t="shared" si="65"/>
-        <v>R-SW_Det_BGS_N2</v>
+        <f t="shared" si="68"/>
+        <v>R-SW_Det_GAS_N2</v>
       </c>
       <c r="AN99" s="105" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>Residential Natural Gas Heating - New 3 SH + WH + Solar</v>
       </c>
       <c r="AO99" s="106" t="s">
@@ -29436,13 +29439,13 @@
     <row r="100" spans="3:44" ht="15" x14ac:dyDescent="0.25">
       <c r="C100" s="22" t="str">
         <f>"R-SW_Det"&amp;"_"&amp;RIGHT(E100,3)&amp;"_N3"</f>
-        <v>R-SW_Det_BGS_N3</v>
+        <v>R-SW_Det_GAS_N3</v>
       </c>
       <c r="D100" s="23" t="s">
         <v>101</v>
       </c>
       <c r="E100" s="24" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F100" s="24"/>
       <c r="G100" s="57" t="s">
@@ -29469,15 +29472,15 @@
         <v>0.7</v>
       </c>
       <c r="Q100" s="23">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="R100" s="23">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="S100" s="57">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="T100" s="53">
@@ -29515,7 +29518,7 @@
         <v>5</v>
       </c>
       <c r="AG100" s="63">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH100" s="66"/>
@@ -29527,11 +29530,11 @@
       </c>
       <c r="AL100" s="106"/>
       <c r="AM100" s="105" t="str">
-        <f t="shared" si="65"/>
-        <v>R-SW_Det_BGS_N3</v>
+        <f t="shared" si="68"/>
+        <v>R-SW_Det_GAS_N3</v>
       </c>
       <c r="AN100" s="105" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>Residential Natural Gas Heating - New 4 SH + WH + Wood Stove</v>
       </c>
       <c r="AO100" s="106" t="s">
@@ -29589,15 +29592,15 @@
         <v>3.7749999999999999</v>
       </c>
       <c r="W101" s="383">
-        <f t="shared" ref="W101:Y101" si="71">W97+0.25</f>
+        <f t="shared" ref="W101:Y101" si="74">W97+0.25</f>
         <v>3.7749999999999999</v>
       </c>
       <c r="X101" s="383">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>3.7749999999999999</v>
       </c>
       <c r="Y101" s="383">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>3.7749999999999999</v>
       </c>
       <c r="Z101" s="383">
@@ -29611,7 +29614,7 @@
       <c r="AE101" s="72"/>
       <c r="AF101" s="72"/>
       <c r="AG101" s="62">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH101" s="65"/>
@@ -29623,11 +29626,11 @@
       </c>
       <c r="AL101" s="106"/>
       <c r="AM101" s="105" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>R-SH_Det_LPG_N1</v>
       </c>
       <c r="AN101" s="105" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>Residential Liquid Petroleum Gas- New 1 SH</v>
       </c>
       <c r="AO101" s="106" t="s">
@@ -29677,15 +29680,15 @@
         <v>0.7</v>
       </c>
       <c r="Q102" s="23">
-        <f t="shared" ref="Q102" si="72">I102*0.7</f>
+        <f t="shared" ref="Q102" si="75">I102*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R102" s="23">
-        <f t="shared" ref="R102" si="73">J102*0.7</f>
+        <f t="shared" ref="R102" si="76">J102*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S102" s="57">
-        <f t="shared" ref="S102" si="74">K102*0.7</f>
+        <f t="shared" ref="S102" si="77">K102*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T102" s="53">
@@ -29697,15 +29700,15 @@
         <v>3.8040057915057912</v>
       </c>
       <c r="W102" s="384">
-        <f t="shared" ref="W102:Y102" si="75">W98</f>
+        <f t="shared" ref="W102:Y102" si="78">W98</f>
         <v>3.8040057915057912</v>
       </c>
       <c r="X102" s="384">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>3.8040057915057912</v>
       </c>
       <c r="Y102" s="384">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>3.8040057915057912</v>
       </c>
       <c r="Z102" s="383">
@@ -29719,7 +29722,7 @@
       <c r="AE102" s="73"/>
       <c r="AF102" s="73"/>
       <c r="AG102" s="63">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH102" s="66"/>
@@ -29731,11 +29734,11 @@
       </c>
       <c r="AL102" s="106"/>
       <c r="AM102" s="105" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>R-SW_Det_LPG_N1</v>
       </c>
       <c r="AN102" s="105" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>Residential Liquid Petroleum Gas- New 2 SH + WH</v>
       </c>
       <c r="AO102" s="106" t="s">
@@ -29813,7 +29816,7 @@
       <c r="AE103" s="72"/>
       <c r="AF103" s="72"/>
       <c r="AG103" s="62">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH103" s="65"/>
@@ -29825,11 +29828,11 @@
       </c>
       <c r="AL103" s="106"/>
       <c r="AM103" s="105" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>R-SH_Det_WOO_N1</v>
       </c>
       <c r="AN103" s="105" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>Residential Biomass Boiler - New 1 SH</v>
       </c>
       <c r="AO103" s="106" t="s">
@@ -29875,19 +29878,19 @@
       <c r="N104" s="32"/>
       <c r="O104" s="45"/>
       <c r="P104" s="22">
-        <f t="shared" ref="P104:S104" si="76">H104*0.7</f>
+        <f t="shared" ref="P104:S104" si="79">H104*0.7</f>
         <v>0.7</v>
       </c>
       <c r="Q104" s="23">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>0.7</v>
       </c>
       <c r="R104" s="23">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>0.7</v>
       </c>
       <c r="S104" s="57">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>0.7</v>
       </c>
       <c r="T104" s="53">
@@ -29899,15 +29902,15 @@
         <v>22.778925619834713</v>
       </c>
       <c r="W104" s="384">
-        <f t="shared" ref="W104" si="77">W103*($U$152/$U$151)</f>
+        <f t="shared" ref="W104" si="80">W103*($U$152/$U$151)</f>
         <v>22.04476084710744</v>
       </c>
       <c r="X104" s="384">
-        <f t="shared" ref="X104" si="78">X103*($U$152/$U$151)</f>
+        <f t="shared" ref="X104" si="81">X103*($U$152/$U$151)</f>
         <v>20.839163429752066</v>
       </c>
       <c r="Y104" s="384">
-        <f t="shared" ref="Y104" si="79">Y103*($U$152/$U$151)</f>
+        <f t="shared" ref="Y104" si="82">Y103*($U$152/$U$151)</f>
         <v>18.635439049586779</v>
       </c>
       <c r="Z104" s="384">
@@ -29920,7 +29923,7 @@
       <c r="AE104" s="73"/>
       <c r="AF104" s="73"/>
       <c r="AG104" s="63">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH104" s="66"/>
@@ -29932,11 +29935,11 @@
       </c>
       <c r="AL104" s="109"/>
       <c r="AM104" s="108" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>R-SW_Det_WOO_N1</v>
       </c>
       <c r="AN104" s="108" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>Residential Biomass Boiler - New 2 SH + WH</v>
       </c>
       <c r="AO104" s="109" t="s">
@@ -30015,7 +30018,7 @@
       <c r="AE105" s="73"/>
       <c r="AF105" s="73"/>
       <c r="AG105" s="63">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH105" s="66"/>
@@ -30030,7 +30033,7 @@
         <v>611</v>
       </c>
       <c r="AN105" s="108" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>Residential  Stove New 1 - SH</v>
       </c>
       <c r="AO105" s="106" t="s">
@@ -30074,19 +30077,19 @@
       <c r="N106" s="32"/>
       <c r="O106" s="45"/>
       <c r="P106" s="22">
-        <f t="shared" ref="P106:P108" si="80">H106*0.7</f>
+        <f t="shared" ref="P106:P108" si="83">H106*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="Q106" s="23">
-        <f t="shared" ref="Q106:Q108" si="81">I106*0.7</f>
+        <f t="shared" ref="Q106:Q108" si="84">I106*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="R106" s="23">
-        <f t="shared" ref="R106:R108" si="82">J106*0.7</f>
+        <f t="shared" ref="R106:R108" si="85">J106*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="S106" s="57">
-        <f t="shared" ref="S106:S108" si="83">K106*0.7</f>
+        <f t="shared" ref="S106:S108" si="86">K106*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="T106" s="53">
@@ -30119,7 +30122,7 @@
       <c r="AE106" s="73"/>
       <c r="AF106" s="73"/>
       <c r="AG106" s="63">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH106" s="66"/>
@@ -30134,7 +30137,7 @@
         <v>612</v>
       </c>
       <c r="AN106" s="108" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>Residential  Stove with back boiler New 1 - SH +WH</v>
       </c>
       <c r="AO106" s="109" t="s">
@@ -30189,19 +30192,19 @@
         <v>4.5825000000000005</v>
       </c>
       <c r="W107" s="62">
-        <f t="shared" ref="W107:Z107" si="84">W93</f>
+        <f t="shared" ref="W107:Z107" si="87">W93</f>
         <v>4.5825000000000005</v>
       </c>
       <c r="X107" s="62">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>4.5825000000000005</v>
       </c>
       <c r="Y107" s="62">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>4.5825000000000005</v>
       </c>
       <c r="Z107" s="62">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>0.12</v>
       </c>
       <c r="AA107" s="65"/>
@@ -30211,7 +30214,7 @@
       <c r="AE107" s="72"/>
       <c r="AF107" s="72"/>
       <c r="AG107" s="62">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH107" s="65"/>
@@ -30223,11 +30226,11 @@
       </c>
       <c r="AL107" s="109"/>
       <c r="AM107" s="108" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>R-SH_Det_HVO_N1</v>
       </c>
       <c r="AN107" s="108" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>Residential  Hydrotreated vegetable oil - New 1 SH</v>
       </c>
       <c r="AO107" s="109" t="s">
@@ -30272,19 +30275,19 @@
       <c r="N108" s="50"/>
       <c r="O108" s="51"/>
       <c r="P108" s="256">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="Q108" s="26">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="R108" s="26">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="S108" s="59">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="T108" s="55">
@@ -30296,19 +30299,19 @@
         <v>4.9452075289575284</v>
       </c>
       <c r="W108" s="62">
-        <f t="shared" ref="W108:Z108" si="85">W94</f>
+        <f t="shared" ref="W108:Z108" si="88">W94</f>
         <v>4.9452075289575284</v>
       </c>
       <c r="X108" s="62">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>4.9452075289575284</v>
       </c>
       <c r="Y108" s="62">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>4.9452075289575284</v>
       </c>
       <c r="Z108" s="62">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>0.12</v>
       </c>
       <c r="AA108" s="66"/>
@@ -30318,7 +30321,7 @@
       <c r="AE108" s="73"/>
       <c r="AF108" s="73"/>
       <c r="AG108" s="63">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH108" s="67"/>
@@ -30330,11 +30333,11 @@
       </c>
       <c r="AL108" s="109"/>
       <c r="AM108" s="108" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>R-SW_Det_HVO_N1</v>
       </c>
       <c r="AN108" s="108" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>Residential  Hydrotreated vegetable oil - New 1 SH + WH</v>
       </c>
       <c r="AO108" s="109" t="s">
@@ -30471,7 +30474,7 @@
       <c r="AE110" s="84"/>
       <c r="AF110" s="84"/>
       <c r="AG110" s="82">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH110" s="83"/>
@@ -30483,11 +30486,11 @@
       </c>
       <c r="AL110" s="104"/>
       <c r="AM110" s="103" t="str">
-        <f t="shared" ref="AM110:AM116" si="86">C112</f>
+        <f t="shared" ref="AM110:AM116" si="89">C112</f>
         <v>R-SH_Det_ELC_HPN1</v>
       </c>
       <c r="AN110" s="103" t="str">
-        <f t="shared" ref="AN110:AN116" si="87">D112</f>
+        <f t="shared" ref="AN110:AN116" si="90">D112</f>
         <v>Residential Electric Heat Pump - Air to Air - SH</v>
       </c>
       <c r="AO110" s="104" t="s">
@@ -30540,11 +30543,11 @@
       <c r="AJ111" s="34"/>
       <c r="AL111" s="106"/>
       <c r="AM111" s="105" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>R-HC_Det_ELC_HPN1</v>
       </c>
       <c r="AN111" s="105" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>Residential Electric Heat Pump - Air to Air - SH + SC</v>
       </c>
       <c r="AO111" s="106" t="s">
@@ -30626,7 +30629,7 @@
       <c r="AE112" s="85"/>
       <c r="AF112" s="85"/>
       <c r="AG112" s="85">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AH112" s="88"/>
@@ -30638,11 +30641,11 @@
       </c>
       <c r="AL112" s="106"/>
       <c r="AM112" s="105" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>R-SH_Det_ELC_HPN2</v>
       </c>
       <c r="AN112" s="105" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>Residential Electric Heat Pump - Air to Water - SH</v>
       </c>
       <c r="AO112" s="106" t="s">
@@ -30732,7 +30735,7 @@
       <c r="AE113" s="63"/>
       <c r="AF113" s="63"/>
       <c r="AG113" s="63">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH113" s="66"/>
@@ -30744,11 +30747,11 @@
       </c>
       <c r="AL113" s="106"/>
       <c r="AM113" s="105" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>R-SW_Det_ELC_HPN1</v>
       </c>
       <c r="AN113" s="105" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH</v>
       </c>
       <c r="AO113" s="106" t="s">
@@ -30828,7 +30831,7 @@
       <c r="AE114" s="62"/>
       <c r="AF114" s="62"/>
       <c r="AG114" s="62">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AH114" s="65"/>
@@ -30840,11 +30843,11 @@
       </c>
       <c r="AL114" s="213"/>
       <c r="AM114" s="105" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>R-SW_Det_ELC_HPN2</v>
       </c>
       <c r="AN114" s="105" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar</v>
       </c>
       <c r="AO114" s="106" t="s">
@@ -30896,15 +30899,15 @@
         <v>0.7</v>
       </c>
       <c r="Q115" s="23">
-        <f t="shared" ref="Q115:Q116" si="88">I115*0.7</f>
+        <f t="shared" ref="Q115:Q116" si="91">I115*0.7</f>
         <v>0.76999999999999991</v>
       </c>
       <c r="R115" s="23">
-        <f t="shared" ref="R115:R116" si="89">J115*0.7</f>
+        <f t="shared" ref="R115:R116" si="92">J115*0.7</f>
         <v>0.86333333333333329</v>
       </c>
       <c r="S115" s="57">
-        <f t="shared" ref="S115:S116" si="90">K115*0.7</f>
+        <f t="shared" ref="S115:S116" si="93">K115*0.7</f>
         <v>0.93333333333333324</v>
       </c>
       <c r="T115" s="53">
@@ -30916,15 +30919,15 @@
         <v>9.9300970464135023</v>
       </c>
       <c r="W115" s="384">
-        <f t="shared" ref="W115" si="91">W114*($U$150/$U$149)</f>
+        <f t="shared" ref="W115" si="94">W114*($U$150/$U$149)</f>
         <v>9.0363883122362889</v>
       </c>
       <c r="X115" s="384">
-        <f t="shared" ref="X115" si="92">X114*($U$150/$U$149)</f>
+        <f t="shared" ref="X115" si="95">X114*($U$150/$U$149)</f>
         <v>8.2231133641350223</v>
       </c>
       <c r="Y115" s="384">
-        <f t="shared" ref="Y115" si="93">Y114*($U$150/$U$149)</f>
+        <f t="shared" ref="Y115" si="96">Y114*($U$150/$U$149)</f>
         <v>8.1426795780590719</v>
       </c>
       <c r="Z115" s="384">
@@ -30937,7 +30940,7 @@
       <c r="AE115" s="63"/>
       <c r="AF115" s="63"/>
       <c r="AG115" s="63">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH115" s="66"/>
@@ -30949,11 +30952,11 @@
       </c>
       <c r="AL115" s="213"/>
       <c r="AM115" s="105" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>R-SH_Det_ELC_HPN3</v>
       </c>
       <c r="AN115" s="105" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH</v>
       </c>
       <c r="AO115" s="106" t="s">
@@ -31005,15 +31008,15 @@
         <v>0.7</v>
       </c>
       <c r="Q116" s="29">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>0.77700000000000002</v>
       </c>
       <c r="R116" s="29">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="S116" s="58">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="T116" s="54">
@@ -31051,7 +31054,7 @@
         <v>5</v>
       </c>
       <c r="AG116" s="62">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH116" s="65"/>
@@ -31063,11 +31066,11 @@
       </c>
       <c r="AL116" s="112"/>
       <c r="AM116" s="108" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>R-HC_Det_ELC_HPN2</v>
       </c>
       <c r="AN116" s="108" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC</v>
       </c>
       <c r="AO116" s="109" t="s">
@@ -31149,7 +31152,7 @@
       <c r="AE117" s="63"/>
       <c r="AF117" s="63"/>
       <c r="AG117" s="63">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AH117" s="66"/>
@@ -31162,7 +31165,7 @@
       <c r="AL117" s="113"/>
       <c r="AM117" s="103" t="str">
         <f>C120</f>
-        <v>R-SW_Det_BGS_HPN1</v>
+        <v>R-SW_Det_GAS_HPN1</v>
       </c>
       <c r="AN117" s="103" t="str">
         <f>D120</f>
@@ -31255,7 +31258,7 @@
       <c r="AE118" s="86"/>
       <c r="AF118" s="86"/>
       <c r="AG118" s="86">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH118" s="91"/>
@@ -31268,7 +31271,7 @@
       <c r="AL118" s="214"/>
       <c r="AM118" s="108" t="str">
         <f>C121</f>
-        <v>R-SW_Det_BGS_HPN2</v>
+        <v>R-SW_Det_GAS_HPN2</v>
       </c>
       <c r="AN118" s="108" t="str">
         <f>D121</f>
@@ -31325,7 +31328,7 @@
       <c r="AL119" s="215"/>
       <c r="AM119" s="111" t="str">
         <f>C123</f>
-        <v>R-SW_Det_BGS_HHPN1</v>
+        <v>R-SW_Det_GAS_HHPN1</v>
       </c>
       <c r="AN119" s="111" t="str">
         <f>D123</f>
@@ -31345,13 +31348,13 @@
     <row r="120" spans="3:44" ht="15" x14ac:dyDescent="0.25">
       <c r="C120" s="19" t="str">
         <f>"R-SW_Det"&amp;"_"&amp;RIGHT(E120,3)&amp;"_HPN1"</f>
-        <v>R-SW_Det_BGS_HPN1</v>
+        <v>R-SW_Det_GAS_HPN1</v>
       </c>
       <c r="D120" s="20" t="s">
         <v>116</v>
       </c>
       <c r="E120" s="89" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="F120" s="89" t="s">
         <v>703</v>
@@ -31384,15 +31387,15 @@
         <v>1.1666666666666667</v>
       </c>
       <c r="Q120" s="20">
-        <f t="shared" ref="Q120:Q121" si="94">I120*0.7</f>
+        <f t="shared" ref="Q120:Q121" si="97">I120*0.7</f>
         <v>1.2530864197530862</v>
       </c>
       <c r="R120" s="20">
-        <f t="shared" ref="R120:R121" si="95">J120*0.7</f>
+        <f t="shared" ref="R120:R121" si="98">J120*0.7</f>
         <v>1.4691358024691357</v>
       </c>
       <c r="S120" s="56">
-        <f t="shared" ref="S120:S121" si="96">K120*0.7</f>
+        <f t="shared" ref="S120:S121" si="99">K120*0.7</f>
         <v>1.4691358024691357</v>
       </c>
       <c r="T120" s="89">
@@ -31426,7 +31429,7 @@
       <c r="AE120" s="85"/>
       <c r="AF120" s="85"/>
       <c r="AG120" s="85">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH120" s="88"/>
@@ -31459,13 +31462,13 @@
     <row r="121" spans="3:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C121" s="256" t="str">
         <f>"R-SW_Det"&amp;"_"&amp;RIGHT(E121,3)&amp;"_HPN2"</f>
-        <v>R-SW_Det_BGS_HPN2</v>
+        <v>R-SW_Det_GAS_HPN2</v>
       </c>
       <c r="D121" s="26" t="s">
         <v>117</v>
       </c>
       <c r="E121" s="27" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="F121" s="27" t="s">
         <v>703</v>
@@ -31498,15 +31501,15 @@
         <v>1.1666666666666665</v>
       </c>
       <c r="Q121" s="26">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>1.2055555555555555</v>
       </c>
       <c r="R121" s="26">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>1.2055555555555555</v>
       </c>
       <c r="S121" s="59">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>1.2444444444444445</v>
       </c>
       <c r="T121" s="27">
@@ -31540,7 +31543,7 @@
       <c r="AE121" s="64"/>
       <c r="AF121" s="64"/>
       <c r="AG121" s="64">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH121" s="67"/>
@@ -31609,11 +31612,11 @@
       <c r="AJ122" s="34"/>
       <c r="AL122" s="216"/>
       <c r="AM122" s="103" t="str">
-        <f t="shared" ref="AM122:AM123" si="97">C128</f>
+        <f t="shared" ref="AM122:AM123" si="100">C128</f>
         <v>R-WH_Det_ELC_N1</v>
       </c>
       <c r="AN122" s="103" t="str">
-        <f t="shared" ref="AN122:AN123" si="98">D128</f>
+        <f t="shared" ref="AN122:AN123" si="101">D128</f>
         <v xml:space="preserve">Residential Electric Water Heater </v>
       </c>
       <c r="AO122" s="104" t="s">
@@ -31630,13 +31633,13 @@
     <row r="123" spans="3:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C123" s="96" t="str">
         <f>"R-SW_Det"&amp;"_"&amp;RIGHT(E123,3)&amp;"_HHPN1"</f>
-        <v>R-SW_Det_BGS_HHPN1</v>
+        <v>R-SW_Det_GAS_HHPN1</v>
       </c>
       <c r="D123" s="80" t="s">
         <v>125</v>
       </c>
       <c r="E123" s="121" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="F123" s="121" t="s">
         <v>703</v>
@@ -31669,15 +31672,15 @@
         <v>2.2889999999999997</v>
       </c>
       <c r="Q123" s="26">
-        <f t="shared" ref="Q123" si="99">I123*0.7</f>
+        <f t="shared" ref="Q123" si="102">I123*0.7</f>
         <v>2.5409999999999995</v>
       </c>
       <c r="R123" s="26">
-        <f t="shared" ref="R123" si="100">J123*0.7</f>
+        <f t="shared" ref="R123" si="103">J123*0.7</f>
         <v>2.7299999999999995</v>
       </c>
       <c r="S123" s="59">
-        <f t="shared" ref="S123" si="101">K123*0.7</f>
+        <f t="shared" ref="S123" si="104">K123*0.7</f>
         <v>2.7299999999999995</v>
       </c>
       <c r="T123" s="3">
@@ -31688,15 +31691,15 @@
         <v>10.987282270335434</v>
       </c>
       <c r="W123" s="79">
-        <f t="shared" ref="W123:Y123" si="102">(W115+W98)*0.8</f>
+        <f t="shared" ref="W123:Y123" si="105">(W115+W98)*0.8</f>
         <v>10.272315282993665</v>
       </c>
       <c r="X123" s="79">
-        <f t="shared" si="102"/>
+        <f t="shared" si="105"/>
         <v>9.6216953245126504</v>
       </c>
       <c r="Y123" s="79">
-        <f t="shared" si="102"/>
+        <f t="shared" si="105"/>
         <v>9.5573482956518898</v>
       </c>
       <c r="Z123" s="375">
@@ -31717,7 +31720,7 @@
         <v>5</v>
       </c>
       <c r="AG123" s="82">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0.62441279999999999</v>
       </c>
       <c r="AH123" s="83"/>
@@ -31730,11 +31733,11 @@
       </c>
       <c r="AL123" s="2"/>
       <c r="AM123" s="105" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>R-WH_Det_SOL_N1</v>
       </c>
       <c r="AN123" s="105" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="101"/>
         <v xml:space="preserve">Residential Solar Water Heater </v>
       </c>
       <c r="AO123" s="106" t="s">
@@ -31879,7 +31882,7 @@
       <c r="AE125" s="85"/>
       <c r="AF125" s="85"/>
       <c r="AG125" s="85">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH125" s="88"/>
@@ -31964,7 +31967,7 @@
       <c r="AE126" s="64"/>
       <c r="AF126" s="64"/>
       <c r="AG126" s="64">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH126" s="67"/>
@@ -32079,7 +32082,7 @@
       <c r="AE128" s="85"/>
       <c r="AF128" s="85"/>
       <c r="AG128" s="85">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0.25228800000000001</v>
       </c>
       <c r="AH128" s="88"/>
@@ -32158,7 +32161,7 @@
       <c r="AE129" s="63"/>
       <c r="AF129" s="63"/>
       <c r="AG129" s="63">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0.25228800000000001</v>
       </c>
       <c r="AH129" s="67"/>
@@ -32273,7 +32276,7 @@
       <c r="AE131" s="93"/>
       <c r="AF131" s="93"/>
       <c r="AG131" s="93">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0.25228800000000001</v>
       </c>
       <c r="AH131" s="92"/>
@@ -32354,7 +32357,7 @@
         <v>3</v>
       </c>
       <c r="U145" s="381">
-        <f t="shared" ref="U145:U154" si="103">V145/$V$153</f>
+        <f t="shared" ref="U145:U154" si="106">V145/$V$153</f>
         <v>0.72929037751472525</v>
       </c>
       <c r="V145" s="382">
@@ -32368,7 +32371,7 @@
         <v>5</v>
       </c>
       <c r="U146" s="381">
-        <f t="shared" si="103"/>
+        <f t="shared" si="106"/>
         <v>0.79101166159768732</v>
       </c>
       <c r="V146" s="382">
@@ -32381,7 +32384,7 @@
         <v>8</v>
       </c>
       <c r="U147" s="381">
-        <f t="shared" si="103"/>
+        <f t="shared" si="106"/>
         <v>0.85077698714062355</v>
       </c>
       <c r="V147" s="382">
@@ -32395,7 +32398,7 @@
         <v>10</v>
       </c>
       <c r="U148" s="381">
-        <f t="shared" si="103"/>
+        <f t="shared" si="106"/>
         <v>0.86872586872586877</v>
       </c>
       <c r="V148" s="380">
@@ -32416,7 +32419,7 @@
         <v>15</v>
       </c>
       <c r="U149" s="371">
-        <f t="shared" si="103"/>
+        <f t="shared" si="106"/>
         <v>0.91505791505791501</v>
       </c>
       <c r="V149" s="3">
@@ -32443,7 +32446,7 @@
         <v>18</v>
       </c>
       <c r="U150" s="371">
-        <f t="shared" si="103"/>
+        <f t="shared" si="106"/>
         <v>0.92277992277992282</v>
       </c>
       <c r="V150" s="3">
@@ -32472,7 +32475,7 @@
         <v>20</v>
       </c>
       <c r="U151" s="381">
-        <f t="shared" si="103"/>
+        <f t="shared" si="106"/>
         <v>0.93436293436293438</v>
       </c>
       <c r="V151" s="380">
@@ -32502,7 +32505,7 @@
         <v>24</v>
       </c>
       <c r="U152" s="371">
-        <f t="shared" si="103"/>
+        <f t="shared" si="106"/>
         <v>0.94594594594594594</v>
       </c>
       <c r="V152" s="3">
@@ -32531,7 +32534,7 @@
         <v>30</v>
       </c>
       <c r="U153" s="371">
-        <f t="shared" si="103"/>
+        <f t="shared" si="106"/>
         <v>1</v>
       </c>
       <c r="V153" s="3">
@@ -32560,7 +32563,7 @@
         <v>35</v>
       </c>
       <c r="U154" s="371">
-        <f t="shared" si="103"/>
+        <f t="shared" si="106"/>
         <v>1.0791505791505791</v>
       </c>
       <c r="V154" s="3">
@@ -32605,6 +32608,26 @@
     <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:O92"/>
+    <mergeCell ref="P92:S92"/>
+    <mergeCell ref="T92:U92"/>
+    <mergeCell ref="V92:Y92"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:O90"/>
+    <mergeCell ref="P90:S90"/>
+    <mergeCell ref="T90:U90"/>
+    <mergeCell ref="V90:Y90"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:Y44"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:Y42"/>
     <mergeCell ref="V4:Y4"/>
     <mergeCell ref="V6:Y6"/>
     <mergeCell ref="H4:K4"/>
@@ -32615,26 +32638,6 @@
     <mergeCell ref="P6:S6"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="P42:S42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="V42:Y42"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:Y44"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="L90:O90"/>
-    <mergeCell ref="P90:S90"/>
-    <mergeCell ref="T90:U90"/>
-    <mergeCell ref="V90:Y90"/>
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="L92:O92"/>
-    <mergeCell ref="P92:S92"/>
-    <mergeCell ref="T92:U92"/>
-    <mergeCell ref="V92:Y92"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -32780,12 +32783,12 @@
       <c r="I5" s="127"/>
       <c r="J5" s="127"/>
       <c r="K5" s="127"/>
-      <c r="L5" s="540" t="s">
+      <c r="L5" s="531" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="541"/>
-      <c r="N5" s="541"/>
-      <c r="O5" s="542"/>
+      <c r="M5" s="532"/>
+      <c r="N5" s="532"/>
+      <c r="O5" s="533"/>
       <c r="P5" s="60"/>
       <c r="Q5" s="60" t="s">
         <v>87</v>
@@ -32816,12 +32819,12 @@
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
       <c r="K6" s="37"/>
-      <c r="L6" s="534" t="s">
+      <c r="L6" s="540" t="s">
         <v>541</v>
       </c>
-      <c r="M6" s="536"/>
-      <c r="N6" s="536"/>
-      <c r="O6" s="535"/>
+      <c r="M6" s="542"/>
+      <c r="N6" s="542"/>
+      <c r="O6" s="541"/>
       <c r="P6" s="377" t="s">
         <v>553</v>
       </c>
@@ -33707,23 +33710,23 @@
       <c r="K33" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L33" s="540" t="s">
+      <c r="L33" s="531" t="s">
         <v>86</v>
       </c>
-      <c r="M33" s="541"/>
-      <c r="N33" s="541"/>
-      <c r="O33" s="542"/>
+      <c r="M33" s="532"/>
+      <c r="N33" s="532"/>
+      <c r="O33" s="533"/>
     </row>
     <row r="34" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H34" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L34" s="534" t="s">
+      <c r="L34" s="540" t="s">
         <v>91</v>
       </c>
-      <c r="M34" s="536"/>
-      <c r="N34" s="536"/>
-      <c r="O34" s="535"/>
+      <c r="M34" s="542"/>
+      <c r="N34" s="542"/>
+      <c r="O34" s="541"/>
     </row>
     <row r="35" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H35" s="3" t="s">
@@ -34070,11 +34073,11 @@
       </c>
       <c r="I4" s="538"/>
       <c r="J4" s="539"/>
-      <c r="K4" s="540" t="s">
+      <c r="K4" s="531" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="541"/>
-      <c r="M4" s="542"/>
+      <c r="L4" s="532"/>
+      <c r="M4" s="533"/>
       <c r="N4" s="60"/>
       <c r="O4" s="60" t="s">
         <v>87</v>
@@ -34100,16 +34103,16 @@
       <c r="G5" s="385" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="546" t="s">
+      <c r="H5" s="543" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="547"/>
-      <c r="J5" s="548"/>
-      <c r="K5" s="546" t="s">
+      <c r="I5" s="544"/>
+      <c r="J5" s="545"/>
+      <c r="K5" s="543" t="s">
         <v>330</v>
       </c>
-      <c r="L5" s="547"/>
-      <c r="M5" s="548"/>
+      <c r="L5" s="544"/>
+      <c r="M5" s="545"/>
       <c r="N5" s="386" t="s">
         <v>92</v>
       </c>
@@ -34126,23 +34129,23 @@
         <v>218</v>
       </c>
       <c r="AA5" s="208"/>
-      <c r="AB5" s="543" t="s">
+      <c r="AB5" s="546" t="s">
         <v>583</v>
       </c>
-      <c r="AC5" s="543"/>
+      <c r="AC5" s="546"/>
       <c r="AD5" s="388"/>
-      <c r="AE5" s="544" t="s">
+      <c r="AE5" s="547" t="s">
         <v>65</v>
       </c>
-      <c r="AF5" s="544"/>
-      <c r="AG5" s="544" t="s">
+      <c r="AF5" s="547"/>
+      <c r="AG5" s="547" t="s">
         <v>584</v>
       </c>
-      <c r="AH5" s="544"/>
-      <c r="AI5" s="545" t="s">
+      <c r="AH5" s="547"/>
+      <c r="AI5" s="548" t="s">
         <v>585</v>
       </c>
-      <c r="AJ5" s="545"/>
+      <c r="AJ5" s="548"/>
     </row>
     <row r="6" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C6" s="432" t="str">
@@ -34880,12 +34883,12 @@
       <c r="K27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L27" s="540" t="s">
+      <c r="L27" s="531" t="s">
         <v>86</v>
       </c>
-      <c r="M27" s="541"/>
-      <c r="N27" s="541"/>
-      <c r="O27" s="542"/>
+      <c r="M27" s="532"/>
+      <c r="N27" s="532"/>
+      <c r="O27" s="533"/>
       <c r="T27" s="210"/>
       <c r="U27" s="210"/>
     </row>
@@ -34893,12 +34896,12 @@
       <c r="J28" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L28" s="531" t="s">
+      <c r="L28" s="534" t="s">
         <v>91</v>
       </c>
-      <c r="M28" s="532"/>
-      <c r="N28" s="532"/>
-      <c r="O28" s="533"/>
+      <c r="M28" s="535"/>
+      <c r="N28" s="535"/>
+      <c r="O28" s="536"/>
       <c r="T28" s="210"/>
       <c r="U28" s="210"/>
     </row>
@@ -36288,16 +36291,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="L27:O27"/>
     <mergeCell ref="L28:O28"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="K5:M5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="L27:O27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S7" r:id="rId1" xr:uid="{B1EDD63D-40A5-4174-9D28-8666BD314B83}"/>
@@ -36728,103 +36731,103 @@
       <c r="C4" s="283" t="s">
         <v>339</v>
       </c>
-      <c r="D4" s="550" t="s">
+      <c r="D4" s="549" t="s">
         <v>340</v>
       </c>
-      <c r="E4" s="549"/>
-      <c r="F4" s="549"/>
-      <c r="G4" s="549"/>
+      <c r="E4" s="550"/>
+      <c r="F4" s="550"/>
+      <c r="G4" s="550"/>
       <c r="H4" s="551"/>
-      <c r="I4" s="549" t="s">
+      <c r="I4" s="550" t="s">
         <v>341</v>
       </c>
-      <c r="J4" s="549"/>
-      <c r="K4" s="549"/>
-      <c r="L4" s="549"/>
+      <c r="J4" s="550"/>
+      <c r="K4" s="550"/>
+      <c r="L4" s="550"/>
       <c r="M4" s="551"/>
-      <c r="N4" s="549" t="s">
+      <c r="N4" s="550" t="s">
         <v>342</v>
       </c>
-      <c r="O4" s="549"/>
-      <c r="P4" s="549"/>
-      <c r="Q4" s="549"/>
+      <c r="O4" s="550"/>
+      <c r="P4" s="550"/>
+      <c r="Q4" s="550"/>
       <c r="R4" s="551"/>
-      <c r="S4" s="549" t="s">
+      <c r="S4" s="550" t="s">
         <v>343</v>
       </c>
-      <c r="T4" s="549"/>
-      <c r="U4" s="549"/>
-      <c r="V4" s="549"/>
+      <c r="T4" s="550"/>
+      <c r="U4" s="550"/>
+      <c r="V4" s="550"/>
       <c r="W4" s="551"/>
-      <c r="X4" s="549" t="s">
+      <c r="X4" s="550" t="s">
         <v>344</v>
       </c>
-      <c r="Y4" s="549"/>
-      <c r="Z4" s="549"/>
-      <c r="AA4" s="549"/>
+      <c r="Y4" s="550"/>
+      <c r="Z4" s="550"/>
+      <c r="AA4" s="550"/>
       <c r="AB4" s="551"/>
-      <c r="AC4" s="549" t="s">
+      <c r="AC4" s="550" t="s">
         <v>345</v>
       </c>
-      <c r="AD4" s="549"/>
-      <c r="AE4" s="549"/>
-      <c r="AF4" s="549"/>
+      <c r="AD4" s="550"/>
+      <c r="AE4" s="550"/>
+      <c r="AF4" s="550"/>
       <c r="AG4" s="551"/>
-      <c r="AH4" s="549" t="s">
+      <c r="AH4" s="550" t="s">
         <v>346</v>
       </c>
-      <c r="AI4" s="549"/>
-      <c r="AJ4" s="549"/>
-      <c r="AK4" s="549"/>
+      <c r="AI4" s="550"/>
+      <c r="AJ4" s="550"/>
+      <c r="AK4" s="550"/>
       <c r="AL4" s="551"/>
-      <c r="AM4" s="549" t="s">
+      <c r="AM4" s="550" t="s">
         <v>347</v>
       </c>
-      <c r="AN4" s="549"/>
-      <c r="AO4" s="549"/>
-      <c r="AP4" s="549"/>
+      <c r="AN4" s="550"/>
+      <c r="AO4" s="550"/>
+      <c r="AP4" s="550"/>
       <c r="AQ4" s="551"/>
-      <c r="AR4" s="549" t="s">
+      <c r="AR4" s="550" t="s">
         <v>348</v>
       </c>
-      <c r="AS4" s="549"/>
-      <c r="AT4" s="549"/>
-      <c r="AU4" s="549"/>
+      <c r="AS4" s="550"/>
+      <c r="AT4" s="550"/>
+      <c r="AU4" s="550"/>
       <c r="AV4" s="551"/>
-      <c r="AW4" s="549" t="s">
+      <c r="AW4" s="550" t="s">
         <v>349</v>
       </c>
-      <c r="AX4" s="549"/>
-      <c r="AY4" s="549"/>
-      <c r="AZ4" s="549"/>
-      <c r="BA4" s="549"/>
-      <c r="BB4" s="550" t="s">
+      <c r="AX4" s="550"/>
+      <c r="AY4" s="550"/>
+      <c r="AZ4" s="550"/>
+      <c r="BA4" s="550"/>
+      <c r="BB4" s="549" t="s">
         <v>350</v>
       </c>
-      <c r="BC4" s="549"/>
-      <c r="BD4" s="549"/>
-      <c r="BE4" s="549"/>
+      <c r="BC4" s="550"/>
+      <c r="BD4" s="550"/>
+      <c r="BE4" s="550"/>
       <c r="BF4" s="551"/>
-      <c r="BG4" s="549" t="s">
+      <c r="BG4" s="550" t="s">
         <v>351</v>
       </c>
-      <c r="BH4" s="549"/>
-      <c r="BI4" s="549"/>
-      <c r="BJ4" s="549"/>
-      <c r="BK4" s="549"/>
-      <c r="BL4" s="550" t="s">
+      <c r="BH4" s="550"/>
+      <c r="BI4" s="550"/>
+      <c r="BJ4" s="550"/>
+      <c r="BK4" s="550"/>
+      <c r="BL4" s="549" t="s">
         <v>352</v>
       </c>
-      <c r="BM4" s="549"/>
-      <c r="BN4" s="549"/>
-      <c r="BO4" s="549"/>
-      <c r="BP4" s="549"/>
-      <c r="BQ4" s="550" t="s">
+      <c r="BM4" s="550"/>
+      <c r="BN4" s="550"/>
+      <c r="BO4" s="550"/>
+      <c r="BP4" s="550"/>
+      <c r="BQ4" s="549" t="s">
         <v>353</v>
       </c>
-      <c r="BR4" s="549"/>
-      <c r="BS4" s="549"/>
-      <c r="BT4" s="549"/>
+      <c r="BR4" s="550"/>
+      <c r="BS4" s="550"/>
+      <c r="BT4" s="550"/>
       <c r="BU4" s="551"/>
       <c r="BV4" s="284" t="s">
         <v>354</v>
@@ -50418,11 +50421,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="BL4:BP4"/>
-    <mergeCell ref="BQ4:BU4"/>
-    <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="CB4:CF4"/>
-    <mergeCell ref="CG4:CK4"/>
     <mergeCell ref="BG4:BK4"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
@@ -50435,6 +50433,11 @@
     <mergeCell ref="AR4:AV4"/>
     <mergeCell ref="AW4:BA4"/>
     <mergeCell ref="BB4:BF4"/>
+    <mergeCell ref="BL4:BP4"/>
+    <mergeCell ref="BQ4:BU4"/>
+    <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="CB4:CF4"/>
+    <mergeCell ref="CG4:CK4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -50457,23 +50460,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="558" t="s">
+      <c r="A1" s="556" t="s">
         <v>627</v>
       </c>
-      <c r="B1" s="560" t="s">
+      <c r="B1" s="558" t="s">
         <v>628</v>
       </c>
-      <c r="C1" s="561"/>
-      <c r="D1" s="561"/>
-      <c r="E1" s="561"/>
-      <c r="F1" s="562"/>
-      <c r="G1" s="560" t="s">
+      <c r="C1" s="559"/>
+      <c r="D1" s="559"/>
+      <c r="E1" s="559"/>
+      <c r="F1" s="560"/>
+      <c r="G1" s="558" t="s">
         <v>629</v>
       </c>
-      <c r="H1" s="561"/>
-      <c r="I1" s="561"/>
-      <c r="J1" s="561"/>
-      <c r="K1" s="562"/>
+      <c r="H1" s="559"/>
+      <c r="I1" s="559"/>
+      <c r="J1" s="559"/>
+      <c r="K1" s="560"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -50483,7 +50486,7 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="559"/>
+      <c r="A2" s="557"/>
       <c r="B2" s="454" t="s">
         <v>276</v>
       </c>
@@ -51976,11 +51979,11 @@
       <c r="Y48" t="s">
         <v>678</v>
       </c>
-      <c r="Z48" s="556" t="s">
+      <c r="Z48" s="561" t="s">
         <v>616</v>
       </c>
-      <c r="AA48" s="557"/>
-      <c r="AB48" s="557"/>
+      <c r="AA48" s="562"/>
+      <c r="AB48" s="562"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
@@ -52197,11 +52200,11 @@
       <c r="Y53" t="s">
         <v>680</v>
       </c>
-      <c r="Z53" s="556" t="s">
+      <c r="Z53" s="561" t="s">
         <v>615</v>
       </c>
-      <c r="AA53" s="557"/>
-      <c r="AB53" s="557"/>
+      <c r="AA53" s="562"/>
+      <c r="AB53" s="562"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
@@ -52403,11 +52406,11 @@
       <c r="Y59" t="s">
         <v>681</v>
       </c>
-      <c r="Z59" s="556" t="s">
+      <c r="Z59" s="561" t="s">
         <v>682</v>
       </c>
-      <c r="AA59" s="557"/>
-      <c r="AB59" s="557"/>
+      <c r="AA59" s="562"/>
+      <c r="AB59" s="562"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="474" t="str">
@@ -53244,17 +53247,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="Z48:AB48"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="Z48:AB48"/>
   </mergeCells>
   <phoneticPr fontId="54" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9442ED-BA30-4FFD-A4BA-B44BB330E126}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B872128B-F9F8-4CFD-A932-4046B7C9E803}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16020" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
   </bookViews>
@@ -8612,7 +8612,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2201" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2201" uniqueCount="741">
   <si>
     <t>Document type:</t>
   </si>
@@ -10841,9 +10841,6 @@
   </si>
   <si>
     <t>New Technologies</t>
-  </si>
-  <si>
-    <t>RSDGAS,RSDBGS</t>
   </si>
   <si>
     <t>Share-I~UP~RSDBGS</t>
@@ -13550,15 +13547,6 @@
     <xf numFmtId="0" fontId="37" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -13566,6 +13554,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13577,22 +13574,13 @@
     <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -13604,10 +13592,19 @@
     <xf numFmtId="0" fontId="53" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13625,6 +13622,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -13639,12 +13642,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -21177,7 +21174,7 @@
   <dimension ref="A2:AS166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A80" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E124" sqref="E124"/>
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21311,7 +21308,7 @@
         <v>320</v>
       </c>
       <c r="AE3" s="17" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AF3" s="17" t="s">
         <v>254</v>
@@ -21367,12 +21364,12 @@
         <v>85</v>
       </c>
       <c r="U4" s="539"/>
-      <c r="V4" s="531" t="s">
+      <c r="V4" s="540" t="s">
         <v>86</v>
       </c>
-      <c r="W4" s="532"/>
-      <c r="X4" s="532"/>
-      <c r="Y4" s="533"/>
+      <c r="W4" s="541"/>
+      <c r="X4" s="541"/>
+      <c r="Y4" s="542"/>
       <c r="Z4" s="60"/>
       <c r="AA4" s="60"/>
       <c r="AB4" s="68" t="s">
@@ -21475,34 +21472,34 @@
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
       <c r="G6" s="39"/>
-      <c r="H6" s="534" t="s">
+      <c r="H6" s="531" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="535"/>
-      <c r="J6" s="535"/>
-      <c r="K6" s="536"/>
-      <c r="L6" s="535" t="s">
+      <c r="I6" s="532"/>
+      <c r="J6" s="532"/>
+      <c r="K6" s="533"/>
+      <c r="L6" s="532" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="535"/>
-      <c r="N6" s="535"/>
-      <c r="O6" s="536"/>
-      <c r="P6" s="534" t="s">
+      <c r="M6" s="532"/>
+      <c r="N6" s="532"/>
+      <c r="O6" s="533"/>
+      <c r="P6" s="531" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="535"/>
-      <c r="R6" s="535"/>
-      <c r="S6" s="536"/>
-      <c r="T6" s="534" t="s">
+      <c r="Q6" s="532"/>
+      <c r="R6" s="532"/>
+      <c r="S6" s="533"/>
+      <c r="T6" s="531" t="s">
         <v>68</v>
       </c>
-      <c r="U6" s="536"/>
-      <c r="V6" s="534" t="s">
+      <c r="U6" s="533"/>
+      <c r="V6" s="531" t="s">
         <v>541</v>
       </c>
-      <c r="W6" s="535"/>
-      <c r="X6" s="535"/>
-      <c r="Y6" s="536"/>
+      <c r="W6" s="532"/>
+      <c r="X6" s="532"/>
+      <c r="Y6" s="533"/>
       <c r="Z6" s="61" t="s">
         <v>553</v>
       </c>
@@ -21767,7 +21764,7 @@
         <v>95</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F9" s="30"/>
       <c r="G9" s="58" t="s">
@@ -21862,7 +21859,7 @@
         <v>99</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="57" t="s">
@@ -23290,7 +23287,7 @@
         <v>116</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F25" s="89" t="s">
         <v>703</v>
@@ -23404,7 +23401,7 @@
         <v>117</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F26" s="27" t="s">
         <v>703</v>
@@ -23575,7 +23572,7 @@
         <v>125</v>
       </c>
       <c r="E28" s="121" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F28" s="121" t="s">
         <v>703</v>
@@ -24557,12 +24554,12 @@
         <v>85</v>
       </c>
       <c r="U42" s="539"/>
-      <c r="V42" s="531" t="s">
+      <c r="V42" s="540" t="s">
         <v>86</v>
       </c>
-      <c r="W42" s="532"/>
-      <c r="X42" s="532"/>
-      <c r="Y42" s="533"/>
+      <c r="W42" s="541"/>
+      <c r="X42" s="541"/>
+      <c r="Y42" s="542"/>
       <c r="Z42" s="60"/>
       <c r="AA42" s="60"/>
       <c r="AB42" s="68" t="s">
@@ -24663,34 +24660,34 @@
       <c r="E44" s="38"/>
       <c r="F44" s="38"/>
       <c r="G44" s="39"/>
-      <c r="H44" s="534" t="s">
+      <c r="H44" s="531" t="s">
         <v>34</v>
       </c>
-      <c r="I44" s="535"/>
-      <c r="J44" s="535"/>
-      <c r="K44" s="536"/>
-      <c r="L44" s="535" t="s">
+      <c r="I44" s="532"/>
+      <c r="J44" s="532"/>
+      <c r="K44" s="533"/>
+      <c r="L44" s="532" t="s">
         <v>34</v>
       </c>
-      <c r="M44" s="535"/>
-      <c r="N44" s="535"/>
-      <c r="O44" s="536"/>
-      <c r="P44" s="534" t="s">
+      <c r="M44" s="532"/>
+      <c r="N44" s="532"/>
+      <c r="O44" s="533"/>
+      <c r="P44" s="531" t="s">
         <v>34</v>
       </c>
-      <c r="Q44" s="535"/>
-      <c r="R44" s="535"/>
-      <c r="S44" s="536"/>
-      <c r="T44" s="540" t="s">
+      <c r="Q44" s="532"/>
+      <c r="R44" s="532"/>
+      <c r="S44" s="533"/>
+      <c r="T44" s="534" t="s">
         <v>68</v>
       </c>
-      <c r="U44" s="541"/>
-      <c r="V44" s="540" t="s">
+      <c r="U44" s="535"/>
+      <c r="V44" s="534" t="s">
         <v>541</v>
       </c>
-      <c r="W44" s="542"/>
-      <c r="X44" s="542"/>
-      <c r="Y44" s="541"/>
+      <c r="W44" s="536"/>
+      <c r="X44" s="536"/>
+      <c r="Y44" s="535"/>
       <c r="Z44" s="377" t="s">
         <v>553</v>
       </c>
@@ -25177,7 +25174,7 @@
         <v>95</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F49" s="30"/>
       <c r="G49" s="58" t="s">
@@ -25272,7 +25269,7 @@
         <v>99</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F50" s="24"/>
       <c r="G50" s="57" t="s">
@@ -25379,7 +25376,7 @@
         <v>100</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F51" s="30"/>
       <c r="G51" s="58" t="s">
@@ -25489,7 +25486,7 @@
         <v>101</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F52" s="24"/>
       <c r="G52" s="57" t="s">
@@ -27425,7 +27422,7 @@
         <v>116</v>
       </c>
       <c r="E72" s="89" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F72" s="89" t="s">
         <v>703</v>
@@ -27539,7 +27536,7 @@
         <v>117</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F73" s="27" t="s">
         <v>703</v>
@@ -27710,7 +27707,7 @@
         <v>125</v>
       </c>
       <c r="E75" s="121" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F75" s="121" t="s">
         <v>703</v>
@@ -28513,12 +28510,12 @@
         <v>85</v>
       </c>
       <c r="U90" s="539"/>
-      <c r="V90" s="531" t="s">
+      <c r="V90" s="540" t="s">
         <v>86</v>
       </c>
-      <c r="W90" s="532"/>
-      <c r="X90" s="532"/>
-      <c r="Y90" s="533"/>
+      <c r="W90" s="541"/>
+      <c r="X90" s="541"/>
+      <c r="Y90" s="542"/>
       <c r="Z90" s="60"/>
       <c r="AA90" s="60"/>
       <c r="AB90" s="68" t="s">
@@ -28619,34 +28616,34 @@
       <c r="E92" s="38"/>
       <c r="F92" s="38"/>
       <c r="G92" s="39"/>
-      <c r="H92" s="534" t="s">
+      <c r="H92" s="531" t="s">
         <v>34</v>
       </c>
-      <c r="I92" s="535"/>
-      <c r="J92" s="535"/>
-      <c r="K92" s="536"/>
-      <c r="L92" s="535" t="s">
+      <c r="I92" s="532"/>
+      <c r="J92" s="532"/>
+      <c r="K92" s="533"/>
+      <c r="L92" s="532" t="s">
         <v>34</v>
       </c>
-      <c r="M92" s="535"/>
-      <c r="N92" s="535"/>
-      <c r="O92" s="536"/>
-      <c r="P92" s="534" t="s">
+      <c r="M92" s="532"/>
+      <c r="N92" s="532"/>
+      <c r="O92" s="533"/>
+      <c r="P92" s="531" t="s">
         <v>34</v>
       </c>
-      <c r="Q92" s="535"/>
-      <c r="R92" s="535"/>
-      <c r="S92" s="536"/>
-      <c r="T92" s="540" t="s">
+      <c r="Q92" s="532"/>
+      <c r="R92" s="532"/>
+      <c r="S92" s="533"/>
+      <c r="T92" s="534" t="s">
         <v>68</v>
       </c>
-      <c r="U92" s="541"/>
-      <c r="V92" s="540" t="s">
+      <c r="U92" s="535"/>
+      <c r="V92" s="534" t="s">
         <v>541</v>
       </c>
-      <c r="W92" s="542"/>
-      <c r="X92" s="542"/>
-      <c r="Y92" s="541"/>
+      <c r="W92" s="536"/>
+      <c r="X92" s="536"/>
+      <c r="Y92" s="535"/>
       <c r="Z92" s="377" t="s">
         <v>553</v>
       </c>
@@ -29127,13 +29124,13 @@
     <row r="97" spans="3:44" ht="15" x14ac:dyDescent="0.25">
       <c r="C97" s="40" t="str">
         <f>"R-SH_Det"&amp;"_"&amp;RIGHT(E97,3)&amp;"_N1"</f>
-        <v>R-SH_Det_BGS_N1</v>
+        <v>R-SH_Det_GAS_N1</v>
       </c>
       <c r="D97" s="29" t="s">
         <v>95</v>
       </c>
       <c r="E97" s="30" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="F97" s="30"/>
       <c r="G97" s="58" t="s">
@@ -29202,7 +29199,7 @@
       <c r="AL97" s="106"/>
       <c r="AM97" s="105" t="str">
         <f t="shared" si="68"/>
-        <v>R-SH_Det_BGS_N1</v>
+        <v>R-SH_Det_GAS_N1</v>
       </c>
       <c r="AN97" s="105" t="str">
         <f t="shared" si="69"/>
@@ -29222,13 +29219,13 @@
     <row r="98" spans="3:44" ht="15" x14ac:dyDescent="0.25">
       <c r="C98" s="22" t="str">
         <f>"R-SW_Det"&amp;"_"&amp;RIGHT(E98,3)&amp;"_N1"</f>
-        <v>R-SW_Det_BGS_N1</v>
+        <v>R-SW_Det_GAS_N1</v>
       </c>
       <c r="D98" s="23" t="s">
         <v>99</v>
       </c>
       <c r="E98" s="24" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="F98" s="24"/>
       <c r="G98" s="57" t="s">
@@ -29309,7 +29306,7 @@
       <c r="AL98" s="106"/>
       <c r="AM98" s="105" t="str">
         <f t="shared" si="68"/>
-        <v>R-SW_Det_BGS_N1</v>
+        <v>R-SW_Det_GAS_N1</v>
       </c>
       <c r="AN98" s="105" t="str">
         <f t="shared" si="69"/>
@@ -29335,7 +29332,7 @@
         <v>100</v>
       </c>
       <c r="E99" s="30" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F99" s="30"/>
       <c r="G99" s="58" t="s">
@@ -29445,7 +29442,7 @@
         <v>101</v>
       </c>
       <c r="E100" s="24" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F100" s="24"/>
       <c r="G100" s="57" t="s">
@@ -31354,7 +31351,7 @@
         <v>116</v>
       </c>
       <c r="E120" s="89" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F120" s="89" t="s">
         <v>703</v>
@@ -31468,7 +31465,7 @@
         <v>117</v>
       </c>
       <c r="E121" s="27" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F121" s="27" t="s">
         <v>703</v>
@@ -31639,7 +31636,7 @@
         <v>125</v>
       </c>
       <c r="E123" s="121" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F123" s="121" t="s">
         <v>703</v>
@@ -32608,26 +32605,6 @@
     <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="L92:O92"/>
-    <mergeCell ref="P92:S92"/>
-    <mergeCell ref="T92:U92"/>
-    <mergeCell ref="V92:Y92"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="L90:O90"/>
-    <mergeCell ref="P90:S90"/>
-    <mergeCell ref="T90:U90"/>
-    <mergeCell ref="V90:Y90"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:Y44"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="P42:S42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="V42:Y42"/>
     <mergeCell ref="V4:Y4"/>
     <mergeCell ref="V6:Y6"/>
     <mergeCell ref="H4:K4"/>
@@ -32638,6 +32615,26 @@
     <mergeCell ref="P6:S6"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:Y42"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:Y44"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:O90"/>
+    <mergeCell ref="P90:S90"/>
+    <mergeCell ref="T90:U90"/>
+    <mergeCell ref="V90:Y90"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:O92"/>
+    <mergeCell ref="P92:S92"/>
+    <mergeCell ref="T92:U92"/>
+    <mergeCell ref="V92:Y92"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -32783,12 +32780,12 @@
       <c r="I5" s="127"/>
       <c r="J5" s="127"/>
       <c r="K5" s="127"/>
-      <c r="L5" s="531" t="s">
+      <c r="L5" s="540" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="532"/>
-      <c r="N5" s="532"/>
-      <c r="O5" s="533"/>
+      <c r="M5" s="541"/>
+      <c r="N5" s="541"/>
+      <c r="O5" s="542"/>
       <c r="P5" s="60"/>
       <c r="Q5" s="60" t="s">
         <v>87</v>
@@ -32819,12 +32816,12 @@
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
       <c r="K6" s="37"/>
-      <c r="L6" s="540" t="s">
+      <c r="L6" s="534" t="s">
         <v>541</v>
       </c>
-      <c r="M6" s="542"/>
-      <c r="N6" s="542"/>
-      <c r="O6" s="541"/>
+      <c r="M6" s="536"/>
+      <c r="N6" s="536"/>
+      <c r="O6" s="535"/>
       <c r="P6" s="377" t="s">
         <v>553</v>
       </c>
@@ -33710,23 +33707,23 @@
       <c r="K33" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L33" s="531" t="s">
+      <c r="L33" s="540" t="s">
         <v>86</v>
       </c>
-      <c r="M33" s="532"/>
-      <c r="N33" s="532"/>
-      <c r="O33" s="533"/>
+      <c r="M33" s="541"/>
+      <c r="N33" s="541"/>
+      <c r="O33" s="542"/>
     </row>
     <row r="34" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H34" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L34" s="540" t="s">
+      <c r="L34" s="534" t="s">
         <v>91</v>
       </c>
-      <c r="M34" s="542"/>
-      <c r="N34" s="542"/>
-      <c r="O34" s="541"/>
+      <c r="M34" s="536"/>
+      <c r="N34" s="536"/>
+      <c r="O34" s="535"/>
     </row>
     <row r="35" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H35" s="3" t="s">
@@ -34073,11 +34070,11 @@
       </c>
       <c r="I4" s="538"/>
       <c r="J4" s="539"/>
-      <c r="K4" s="531" t="s">
+      <c r="K4" s="540" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="532"/>
-      <c r="M4" s="533"/>
+      <c r="L4" s="541"/>
+      <c r="M4" s="542"/>
       <c r="N4" s="60"/>
       <c r="O4" s="60" t="s">
         <v>87</v>
@@ -34103,16 +34100,16 @@
       <c r="G5" s="385" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="543" t="s">
+      <c r="H5" s="546" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="544"/>
-      <c r="J5" s="545"/>
-      <c r="K5" s="543" t="s">
+      <c r="I5" s="547"/>
+      <c r="J5" s="548"/>
+      <c r="K5" s="546" t="s">
         <v>330</v>
       </c>
-      <c r="L5" s="544"/>
-      <c r="M5" s="545"/>
+      <c r="L5" s="547"/>
+      <c r="M5" s="548"/>
       <c r="N5" s="386" t="s">
         <v>92</v>
       </c>
@@ -34129,23 +34126,23 @@
         <v>218</v>
       </c>
       <c r="AA5" s="208"/>
-      <c r="AB5" s="546" t="s">
+      <c r="AB5" s="543" t="s">
         <v>583</v>
       </c>
-      <c r="AC5" s="546"/>
+      <c r="AC5" s="543"/>
       <c r="AD5" s="388"/>
-      <c r="AE5" s="547" t="s">
+      <c r="AE5" s="544" t="s">
         <v>65</v>
       </c>
-      <c r="AF5" s="547"/>
-      <c r="AG5" s="547" t="s">
+      <c r="AF5" s="544"/>
+      <c r="AG5" s="544" t="s">
         <v>584</v>
       </c>
-      <c r="AH5" s="547"/>
-      <c r="AI5" s="548" t="s">
+      <c r="AH5" s="544"/>
+      <c r="AI5" s="545" t="s">
         <v>585</v>
       </c>
-      <c r="AJ5" s="548"/>
+      <c r="AJ5" s="545"/>
     </row>
     <row r="6" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C6" s="432" t="str">
@@ -34883,12 +34880,12 @@
       <c r="K27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L27" s="531" t="s">
+      <c r="L27" s="540" t="s">
         <v>86</v>
       </c>
-      <c r="M27" s="532"/>
-      <c r="N27" s="532"/>
-      <c r="O27" s="533"/>
+      <c r="M27" s="541"/>
+      <c r="N27" s="541"/>
+      <c r="O27" s="542"/>
       <c r="T27" s="210"/>
       <c r="U27" s="210"/>
     </row>
@@ -34896,12 +34893,12 @@
       <c r="J28" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L28" s="534" t="s">
+      <c r="L28" s="531" t="s">
         <v>91</v>
       </c>
-      <c r="M28" s="535"/>
-      <c r="N28" s="535"/>
-      <c r="O28" s="536"/>
+      <c r="M28" s="532"/>
+      <c r="N28" s="532"/>
+      <c r="O28" s="533"/>
       <c r="T28" s="210"/>
       <c r="U28" s="210"/>
     </row>
@@ -36291,16 +36288,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
     <mergeCell ref="AB5:AC5"/>
     <mergeCell ref="AE5:AF5"/>
     <mergeCell ref="AG5:AH5"/>
     <mergeCell ref="AI5:AJ5"/>
     <mergeCell ref="L27:O27"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S7" r:id="rId1" xr:uid="{B1EDD63D-40A5-4174-9D28-8666BD314B83}"/>
@@ -36731,103 +36728,103 @@
       <c r="C4" s="283" t="s">
         <v>339</v>
       </c>
-      <c r="D4" s="549" t="s">
+      <c r="D4" s="550" t="s">
         <v>340</v>
       </c>
-      <c r="E4" s="550"/>
-      <c r="F4" s="550"/>
-      <c r="G4" s="550"/>
+      <c r="E4" s="549"/>
+      <c r="F4" s="549"/>
+      <c r="G4" s="549"/>
       <c r="H4" s="551"/>
-      <c r="I4" s="550" t="s">
+      <c r="I4" s="549" t="s">
         <v>341</v>
       </c>
-      <c r="J4" s="550"/>
-      <c r="K4" s="550"/>
-      <c r="L4" s="550"/>
+      <c r="J4" s="549"/>
+      <c r="K4" s="549"/>
+      <c r="L4" s="549"/>
       <c r="M4" s="551"/>
-      <c r="N4" s="550" t="s">
+      <c r="N4" s="549" t="s">
         <v>342</v>
       </c>
-      <c r="O4" s="550"/>
-      <c r="P4" s="550"/>
-      <c r="Q4" s="550"/>
+      <c r="O4" s="549"/>
+      <c r="P4" s="549"/>
+      <c r="Q4" s="549"/>
       <c r="R4" s="551"/>
-      <c r="S4" s="550" t="s">
+      <c r="S4" s="549" t="s">
         <v>343</v>
       </c>
-      <c r="T4" s="550"/>
-      <c r="U4" s="550"/>
-      <c r="V4" s="550"/>
+      <c r="T4" s="549"/>
+      <c r="U4" s="549"/>
+      <c r="V4" s="549"/>
       <c r="W4" s="551"/>
-      <c r="X4" s="550" t="s">
+      <c r="X4" s="549" t="s">
         <v>344</v>
       </c>
-      <c r="Y4" s="550"/>
-      <c r="Z4" s="550"/>
-      <c r="AA4" s="550"/>
+      <c r="Y4" s="549"/>
+      <c r="Z4" s="549"/>
+      <c r="AA4" s="549"/>
       <c r="AB4" s="551"/>
-      <c r="AC4" s="550" t="s">
+      <c r="AC4" s="549" t="s">
         <v>345</v>
       </c>
-      <c r="AD4" s="550"/>
-      <c r="AE4" s="550"/>
-      <c r="AF4" s="550"/>
+      <c r="AD4" s="549"/>
+      <c r="AE4" s="549"/>
+      <c r="AF4" s="549"/>
       <c r="AG4" s="551"/>
-      <c r="AH4" s="550" t="s">
+      <c r="AH4" s="549" t="s">
         <v>346</v>
       </c>
-      <c r="AI4" s="550"/>
-      <c r="AJ4" s="550"/>
-      <c r="AK4" s="550"/>
+      <c r="AI4" s="549"/>
+      <c r="AJ4" s="549"/>
+      <c r="AK4" s="549"/>
       <c r="AL4" s="551"/>
-      <c r="AM4" s="550" t="s">
+      <c r="AM4" s="549" t="s">
         <v>347</v>
       </c>
-      <c r="AN4" s="550"/>
-      <c r="AO4" s="550"/>
-      <c r="AP4" s="550"/>
+      <c r="AN4" s="549"/>
+      <c r="AO4" s="549"/>
+      <c r="AP4" s="549"/>
       <c r="AQ4" s="551"/>
-      <c r="AR4" s="550" t="s">
+      <c r="AR4" s="549" t="s">
         <v>348</v>
       </c>
-      <c r="AS4" s="550"/>
-      <c r="AT4" s="550"/>
-      <c r="AU4" s="550"/>
+      <c r="AS4" s="549"/>
+      <c r="AT4" s="549"/>
+      <c r="AU4" s="549"/>
       <c r="AV4" s="551"/>
-      <c r="AW4" s="550" t="s">
+      <c r="AW4" s="549" t="s">
         <v>349</v>
       </c>
-      <c r="AX4" s="550"/>
-      <c r="AY4" s="550"/>
-      <c r="AZ4" s="550"/>
-      <c r="BA4" s="550"/>
-      <c r="BB4" s="549" t="s">
+      <c r="AX4" s="549"/>
+      <c r="AY4" s="549"/>
+      <c r="AZ4" s="549"/>
+      <c r="BA4" s="549"/>
+      <c r="BB4" s="550" t="s">
         <v>350</v>
       </c>
-      <c r="BC4" s="550"/>
-      <c r="BD4" s="550"/>
-      <c r="BE4" s="550"/>
+      <c r="BC4" s="549"/>
+      <c r="BD4" s="549"/>
+      <c r="BE4" s="549"/>
       <c r="BF4" s="551"/>
-      <c r="BG4" s="550" t="s">
+      <c r="BG4" s="549" t="s">
         <v>351</v>
       </c>
-      <c r="BH4" s="550"/>
-      <c r="BI4" s="550"/>
-      <c r="BJ4" s="550"/>
-      <c r="BK4" s="550"/>
-      <c r="BL4" s="549" t="s">
+      <c r="BH4" s="549"/>
+      <c r="BI4" s="549"/>
+      <c r="BJ4" s="549"/>
+      <c r="BK4" s="549"/>
+      <c r="BL4" s="550" t="s">
         <v>352</v>
       </c>
-      <c r="BM4" s="550"/>
-      <c r="BN4" s="550"/>
-      <c r="BO4" s="550"/>
-      <c r="BP4" s="550"/>
-      <c r="BQ4" s="549" t="s">
+      <c r="BM4" s="549"/>
+      <c r="BN4" s="549"/>
+      <c r="BO4" s="549"/>
+      <c r="BP4" s="549"/>
+      <c r="BQ4" s="550" t="s">
         <v>353</v>
       </c>
-      <c r="BR4" s="550"/>
-      <c r="BS4" s="550"/>
-      <c r="BT4" s="550"/>
+      <c r="BR4" s="549"/>
+      <c r="BS4" s="549"/>
+      <c r="BT4" s="549"/>
       <c r="BU4" s="551"/>
       <c r="BV4" s="284" t="s">
         <v>354</v>
@@ -50421,6 +50418,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="BL4:BP4"/>
+    <mergeCell ref="BQ4:BU4"/>
+    <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="CB4:CF4"/>
+    <mergeCell ref="CG4:CK4"/>
     <mergeCell ref="BG4:BK4"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
@@ -50433,11 +50435,6 @@
     <mergeCell ref="AR4:AV4"/>
     <mergeCell ref="AW4:BA4"/>
     <mergeCell ref="BB4:BF4"/>
-    <mergeCell ref="BL4:BP4"/>
-    <mergeCell ref="BQ4:BU4"/>
-    <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="CB4:CF4"/>
-    <mergeCell ref="CG4:CK4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -50460,23 +50457,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="556" t="s">
+      <c r="A1" s="558" t="s">
         <v>627</v>
       </c>
-      <c r="B1" s="558" t="s">
+      <c r="B1" s="560" t="s">
         <v>628</v>
       </c>
-      <c r="C1" s="559"/>
-      <c r="D1" s="559"/>
-      <c r="E1" s="559"/>
-      <c r="F1" s="560"/>
-      <c r="G1" s="558" t="s">
+      <c r="C1" s="561"/>
+      <c r="D1" s="561"/>
+      <c r="E1" s="561"/>
+      <c r="F1" s="562"/>
+      <c r="G1" s="560" t="s">
         <v>629</v>
       </c>
-      <c r="H1" s="559"/>
-      <c r="I1" s="559"/>
-      <c r="J1" s="559"/>
-      <c r="K1" s="560"/>
+      <c r="H1" s="561"/>
+      <c r="I1" s="561"/>
+      <c r="J1" s="561"/>
+      <c r="K1" s="562"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -50486,7 +50483,7 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="557"/>
+      <c r="A2" s="559"/>
       <c r="B2" s="454" t="s">
         <v>276</v>
       </c>
@@ -51979,11 +51976,11 @@
       <c r="Y48" t="s">
         <v>678</v>
       </c>
-      <c r="Z48" s="561" t="s">
+      <c r="Z48" s="556" t="s">
         <v>616</v>
       </c>
-      <c r="AA48" s="562"/>
-      <c r="AB48" s="562"/>
+      <c r="AA48" s="557"/>
+      <c r="AB48" s="557"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
@@ -52200,11 +52197,11 @@
       <c r="Y53" t="s">
         <v>680</v>
       </c>
-      <c r="Z53" s="561" t="s">
+      <c r="Z53" s="556" t="s">
         <v>615</v>
       </c>
-      <c r="AA53" s="562"/>
-      <c r="AB53" s="562"/>
+      <c r="AA53" s="557"/>
+      <c r="AB53" s="557"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
@@ -52406,11 +52403,11 @@
       <c r="Y59" t="s">
         <v>681</v>
       </c>
-      <c r="Z59" s="561" t="s">
+      <c r="Z59" s="556" t="s">
         <v>682</v>
       </c>
-      <c r="AA59" s="562"/>
-      <c r="AB59" s="562"/>
+      <c r="AA59" s="557"/>
+      <c r="AB59" s="557"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="474" t="str">
@@ -53247,17 +53244,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="Z48:AB48"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="Z48:AB48"/>
   </mergeCells>
   <phoneticPr fontId="54" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B872128B-F9F8-4CFD-A932-4046B7C9E803}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF1B590-FBFB-47E1-9574-BC3A648E807A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16020" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="62" r:id="rId1"/>
@@ -13547,6 +13547,15 @@
     <xf numFmtId="0" fontId="37" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -13554,15 +13563,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13574,13 +13574,22 @@
     <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -13592,19 +13601,10 @@
     <xf numFmtId="0" fontId="53" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13622,12 +13622,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -13642,6 +13636,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -21173,8 +21173,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:AS166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Y103" sqref="Y103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21364,12 +21364,12 @@
         <v>85</v>
       </c>
       <c r="U4" s="539"/>
-      <c r="V4" s="540" t="s">
+      <c r="V4" s="531" t="s">
         <v>86</v>
       </c>
-      <c r="W4" s="541"/>
-      <c r="X4" s="541"/>
-      <c r="Y4" s="542"/>
+      <c r="W4" s="532"/>
+      <c r="X4" s="532"/>
+      <c r="Y4" s="533"/>
       <c r="Z4" s="60"/>
       <c r="AA4" s="60"/>
       <c r="AB4" s="68" t="s">
@@ -21472,34 +21472,34 @@
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
       <c r="G6" s="39"/>
-      <c r="H6" s="531" t="s">
+      <c r="H6" s="534" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="532"/>
-      <c r="J6" s="532"/>
-      <c r="K6" s="533"/>
-      <c r="L6" s="532" t="s">
+      <c r="I6" s="535"/>
+      <c r="J6" s="535"/>
+      <c r="K6" s="536"/>
+      <c r="L6" s="535" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="532"/>
-      <c r="N6" s="532"/>
-      <c r="O6" s="533"/>
-      <c r="P6" s="531" t="s">
+      <c r="M6" s="535"/>
+      <c r="N6" s="535"/>
+      <c r="O6" s="536"/>
+      <c r="P6" s="534" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="532"/>
-      <c r="R6" s="532"/>
-      <c r="S6" s="533"/>
-      <c r="T6" s="531" t="s">
+      <c r="Q6" s="535"/>
+      <c r="R6" s="535"/>
+      <c r="S6" s="536"/>
+      <c r="T6" s="534" t="s">
         <v>68</v>
       </c>
-      <c r="U6" s="533"/>
-      <c r="V6" s="531" t="s">
+      <c r="U6" s="536"/>
+      <c r="V6" s="534" t="s">
         <v>541</v>
       </c>
-      <c r="W6" s="532"/>
-      <c r="X6" s="532"/>
-      <c r="Y6" s="533"/>
+      <c r="W6" s="535"/>
+      <c r="X6" s="535"/>
+      <c r="Y6" s="536"/>
       <c r="Z6" s="61" t="s">
         <v>553</v>
       </c>
@@ -21997,20 +21997,20 @@
       </c>
       <c r="U11" s="30"/>
       <c r="V11" s="383">
-        <f>SUM(2.79+0.25)</f>
-        <v>3.04</v>
+        <f>2.79+0.35</f>
+        <v>3.14</v>
       </c>
       <c r="W11" s="383">
-        <f t="shared" ref="W11:Y11" si="11">SUM(2.79+0.25)</f>
-        <v>3.04</v>
+        <f t="shared" ref="W11:Y11" si="11">2.79+0.35</f>
+        <v>3.14</v>
       </c>
       <c r="X11" s="383">
         <f t="shared" si="11"/>
-        <v>3.04</v>
+        <v>3.14</v>
       </c>
       <c r="Y11" s="383">
         <f t="shared" si="11"/>
-        <v>3.04</v>
+        <v>3.14</v>
       </c>
       <c r="Z11" s="383">
         <f>0.12+0.15</f>
@@ -22105,20 +22105,20 @@
       </c>
       <c r="U12" s="24"/>
       <c r="V12" s="384">
-        <f>V11*($U$150/$U$149)</f>
-        <v>3.0656540084388189</v>
+        <f>V10+0.35</f>
+        <v>3.1635443037974689</v>
       </c>
       <c r="W12" s="384">
-        <f>W11*($U$150/$U$149)</f>
-        <v>3.0656540084388189</v>
+        <f t="shared" ref="W12:Y12" si="13">W10+0.35</f>
+        <v>3.1635443037974689</v>
       </c>
       <c r="X12" s="384">
-        <f>X11*($U$150/$U$149)</f>
-        <v>3.0656540084388189</v>
+        <f t="shared" si="13"/>
+        <v>3.1635443037974689</v>
       </c>
       <c r="Y12" s="384">
-        <f>Y11*($U$150/$U$149)</f>
-        <v>3.0656540084388189</v>
+        <f t="shared" si="13"/>
+        <v>3.1635443037974689</v>
       </c>
       <c r="Z12" s="384">
         <f>0.12+0.15</f>
@@ -22286,19 +22286,19 @@
       <c r="N14" s="32"/>
       <c r="O14" s="45"/>
       <c r="P14" s="247">
-        <f t="shared" ref="P14:S14" si="13">H14*0.7</f>
+        <f t="shared" ref="P14:S14" si="14">H14*0.7</f>
         <v>0.7</v>
       </c>
       <c r="Q14" s="248">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.7</v>
       </c>
       <c r="R14" s="248">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.7</v>
       </c>
       <c r="S14" s="249">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.7</v>
       </c>
       <c r="T14" s="53">
@@ -22496,11 +22496,11 @@
       </c>
       <c r="AL16" s="104"/>
       <c r="AM16" s="103" t="str">
-        <f t="shared" ref="AM16:AN21" si="14">C18</f>
+        <f t="shared" ref="AM16:AN21" si="15">C18</f>
         <v>R-SH_Apt_ELC_HPN1</v>
       </c>
       <c r="AN16" s="103" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Residential Electric Heat Pump - Air to Air - SH</v>
       </c>
       <c r="AO16" s="104" t="s">
@@ -22562,11 +22562,11 @@
       <c r="AJ17" s="34"/>
       <c r="AL17" s="106"/>
       <c r="AM17" s="105" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>R-HC_Apt_ELC_HPN1</v>
       </c>
       <c r="AN17" s="105" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Residential Electric Heat Pump - Air to Air - SH + SC</v>
       </c>
       <c r="AO17" s="106" t="s">
@@ -22651,7 +22651,7 @@
       <c r="AE18" s="264"/>
       <c r="AF18" s="264"/>
       <c r="AG18" s="85">
-        <f t="shared" ref="AG18:AG23" si="15">31.536*(AJ18/1000)</f>
+        <f t="shared" ref="AG18:AG23" si="16">31.536*(AJ18/1000)</f>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH18" s="88"/>
@@ -22663,11 +22663,11 @@
       </c>
       <c r="AL18" s="106"/>
       <c r="AM18" s="105" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>R-SH_Apt_ELC_HPN2</v>
       </c>
       <c r="AN18" s="105" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Residential Electric Heat Pump - Air to Water - SH</v>
       </c>
       <c r="AO18" s="106" t="s">
@@ -22763,7 +22763,7 @@
       <c r="AE19" s="73"/>
       <c r="AF19" s="73"/>
       <c r="AG19" s="63">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH19" s="66"/>
@@ -22775,11 +22775,11 @@
       </c>
       <c r="AL19" s="106"/>
       <c r="AM19" s="105" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>R-SW_Apt_ELC_HPN1</v>
       </c>
       <c r="AN19" s="105" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH</v>
       </c>
       <c r="AO19" s="106" t="s">
@@ -22863,7 +22863,7 @@
       <c r="AE20" s="72"/>
       <c r="AF20" s="72"/>
       <c r="AG20" s="62">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH20" s="65"/>
@@ -22875,11 +22875,11 @@
       </c>
       <c r="AL20" s="213"/>
       <c r="AM20" s="105" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>R-SH_Apt_ELC_HPN3</v>
       </c>
       <c r="AN20" s="105" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH</v>
       </c>
       <c r="AO20" s="106" t="s">
@@ -22935,15 +22935,15 @@
         <v>0.7</v>
       </c>
       <c r="Q21" s="23">
-        <f t="shared" ref="Q21:S21" si="16">I21*0.7</f>
+        <f t="shared" ref="Q21:S21" si="17">I21*0.7</f>
         <v>0.76999999999999991</v>
       </c>
       <c r="R21" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.86333333333333329</v>
       </c>
       <c r="S21" s="57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.93333333333333324</v>
       </c>
       <c r="T21" s="53">
@@ -22976,7 +22976,7 @@
       <c r="AE21" s="73"/>
       <c r="AF21" s="73"/>
       <c r="AG21" s="63">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.18921600000000002</v>
       </c>
       <c r="AH21" s="66"/>
@@ -22988,11 +22988,11 @@
       </c>
       <c r="AL21" s="112"/>
       <c r="AM21" s="108" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>R-HC_Apt_ELC_HPN2</v>
       </c>
       <c r="AN21" s="108" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC</v>
       </c>
       <c r="AO21" s="109" t="s">
@@ -23078,7 +23078,7 @@
       <c r="AE22" s="72"/>
       <c r="AF22" s="72"/>
       <c r="AG22" s="62">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH22" s="65"/>
@@ -23191,7 +23191,7 @@
       <c r="AE23" s="73"/>
       <c r="AF23" s="73"/>
       <c r="AG23" s="63">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH23" s="66"/>
@@ -23320,15 +23320,15 @@
         <v>1.1666666666666667</v>
       </c>
       <c r="Q25" s="20">
-        <f t="shared" ref="Q25:S25" si="17">I25*0.7</f>
+        <f t="shared" ref="Q25:S25" si="18">I25*0.7</f>
         <v>1.2530864197530862</v>
       </c>
       <c r="R25" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.4691358024691357</v>
       </c>
       <c r="S25" s="56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.4691358024691357</v>
       </c>
       <c r="T25" s="89">
@@ -23362,7 +23362,7 @@
       <c r="AE25" s="85"/>
       <c r="AF25" s="85"/>
       <c r="AG25" s="85">
-        <f t="shared" ref="AG25:AG26" si="18">31.536*(AJ25/1000)</f>
+        <f t="shared" ref="AG25:AG26" si="19">31.536*(AJ25/1000)</f>
         <v>0.56764799999999993</v>
       </c>
       <c r="AH25" s="88"/>
@@ -23434,15 +23434,15 @@
         <v>1.1666666666666665</v>
       </c>
       <c r="Q26" s="26">
-        <f t="shared" ref="Q26" si="19">I26*0.7</f>
+        <f t="shared" ref="Q26" si="20">I26*0.7</f>
         <v>1.2055555555555555</v>
       </c>
       <c r="R26" s="26">
-        <f t="shared" ref="R26" si="20">J26*0.7</f>
+        <f t="shared" ref="R26" si="21">J26*0.7</f>
         <v>1.2055555555555555</v>
       </c>
       <c r="S26" s="59">
-        <f t="shared" ref="S26" si="21">K26*0.7</f>
+        <f t="shared" ref="S26" si="22">K26*0.7</f>
         <v>1.2444444444444445</v>
       </c>
       <c r="T26" s="27">
@@ -23476,7 +23476,7 @@
       <c r="AE26" s="64"/>
       <c r="AF26" s="64"/>
       <c r="AG26" s="64">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.56764799999999993</v>
       </c>
       <c r="AH26" s="67"/>
@@ -23609,11 +23609,11 @@
         <v>2.5409999999999995</v>
       </c>
       <c r="R28" s="26">
-        <f t="shared" ref="R28:S28" si="22">J28*0.7</f>
+        <f t="shared" ref="R28:S28" si="23">J28*0.7</f>
         <v>2.7299999999999995</v>
       </c>
       <c r="S28" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.7299999999999995</v>
       </c>
       <c r="T28" s="260">
@@ -23625,15 +23625,15 @@
         <v>8.3046953586497896</v>
       </c>
       <c r="W28" s="79">
-        <f t="shared" ref="W28:Y28" si="23">(W21+W10)*0.8</f>
+        <f t="shared" ref="W28:Y28" si="24">(W21+W10)*0.8</f>
         <v>7.7598479662447266</v>
       </c>
       <c r="X28" s="79">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>7.2640368391561196</v>
       </c>
       <c r="Y28" s="79">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>7.2150005738396636</v>
       </c>
       <c r="Z28" s="265">
@@ -23818,7 +23818,7 @@
       <c r="AE30" s="85"/>
       <c r="AF30" s="85"/>
       <c r="AG30" s="85">
-        <f t="shared" ref="AG30:AG31" si="24">31.536*(AJ30/1000)</f>
+        <f t="shared" ref="AG30:AG31" si="25">31.536*(AJ30/1000)</f>
         <v>0.56764799999999993</v>
       </c>
       <c r="AH30" s="88"/>
@@ -23921,7 +23921,7 @@
       <c r="AE31" s="63"/>
       <c r="AF31" s="63"/>
       <c r="AG31" s="64">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.56764799999999993</v>
       </c>
       <c r="AH31" s="67"/>
@@ -24036,7 +24036,7 @@
       <c r="AE33" s="85"/>
       <c r="AF33" s="85"/>
       <c r="AG33" s="85">
-        <f t="shared" ref="AG33:AG34" si="25">31.536*(AJ33/1000)</f>
+        <f t="shared" ref="AG33:AG34" si="26">31.536*(AJ33/1000)</f>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH33" s="88"/>
@@ -24115,7 +24115,7 @@
       <c r="AE34" s="63"/>
       <c r="AF34" s="63"/>
       <c r="AG34" s="63">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH34" s="66"/>
@@ -24233,7 +24233,7 @@
       <c r="AE36" s="85"/>
       <c r="AF36" s="85"/>
       <c r="AG36" s="85">
-        <f t="shared" ref="AG36:AG37" si="26">31.536*(AJ36/1000)</f>
+        <f t="shared" ref="AG36:AG37" si="27">31.536*(AJ36/1000)</f>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH36" s="88"/>
@@ -24313,7 +24313,7 @@
       <c r="AE37" s="63"/>
       <c r="AF37" s="63"/>
       <c r="AG37" s="64">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH37" s="67"/>
@@ -24554,12 +24554,12 @@
         <v>85</v>
       </c>
       <c r="U42" s="539"/>
-      <c r="V42" s="540" t="s">
+      <c r="V42" s="531" t="s">
         <v>86</v>
       </c>
-      <c r="W42" s="541"/>
-      <c r="X42" s="541"/>
-      <c r="Y42" s="542"/>
+      <c r="W42" s="532"/>
+      <c r="X42" s="532"/>
+      <c r="Y42" s="533"/>
       <c r="Z42" s="60"/>
       <c r="AA42" s="60"/>
       <c r="AB42" s="68" t="s">
@@ -24660,34 +24660,34 @@
       <c r="E44" s="38"/>
       <c r="F44" s="38"/>
       <c r="G44" s="39"/>
-      <c r="H44" s="531" t="s">
+      <c r="H44" s="534" t="s">
         <v>34</v>
       </c>
-      <c r="I44" s="532"/>
-      <c r="J44" s="532"/>
-      <c r="K44" s="533"/>
-      <c r="L44" s="532" t="s">
+      <c r="I44" s="535"/>
+      <c r="J44" s="535"/>
+      <c r="K44" s="536"/>
+      <c r="L44" s="535" t="s">
         <v>34</v>
       </c>
-      <c r="M44" s="532"/>
-      <c r="N44" s="532"/>
-      <c r="O44" s="533"/>
-      <c r="P44" s="531" t="s">
+      <c r="M44" s="535"/>
+      <c r="N44" s="535"/>
+      <c r="O44" s="536"/>
+      <c r="P44" s="534" t="s">
         <v>34</v>
       </c>
-      <c r="Q44" s="532"/>
-      <c r="R44" s="532"/>
-      <c r="S44" s="533"/>
-      <c r="T44" s="534" t="s">
+      <c r="Q44" s="535"/>
+      <c r="R44" s="535"/>
+      <c r="S44" s="536"/>
+      <c r="T44" s="540" t="s">
         <v>68</v>
       </c>
-      <c r="U44" s="535"/>
-      <c r="V44" s="534" t="s">
+      <c r="U44" s="541"/>
+      <c r="V44" s="540" t="s">
         <v>541</v>
       </c>
-      <c r="W44" s="536"/>
-      <c r="X44" s="536"/>
-      <c r="Y44" s="535"/>
+      <c r="W44" s="542"/>
+      <c r="X44" s="542"/>
+      <c r="Y44" s="541"/>
       <c r="Z44" s="377" t="s">
         <v>553</v>
       </c>
@@ -24783,15 +24783,15 @@
         <v>4.2250000000000005</v>
       </c>
       <c r="W45" s="383">
-        <f t="shared" ref="W45:Y45" si="27">W49*1.3</f>
+        <f t="shared" ref="W45:Y45" si="28">W49*1.3</f>
         <v>4.2250000000000005</v>
       </c>
       <c r="X45" s="383">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4.2250000000000005</v>
       </c>
       <c r="Y45" s="383">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4.2250000000000005</v>
       </c>
       <c r="Z45" s="383">
@@ -24804,7 +24804,7 @@
       <c r="AE45" s="72"/>
       <c r="AF45" s="72"/>
       <c r="AG45" s="62">
-        <f t="shared" ref="AG45:AG83" si="28">31.536*(AJ45/1000)</f>
+        <f t="shared" ref="AG45:AG83" si="29">31.536*(AJ45/1000)</f>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH45" s="65"/>
@@ -24818,11 +24818,11 @@
         <v>31</v>
       </c>
       <c r="AM45" s="105" t="str">
-        <f t="shared" ref="AM45:AM60" si="29">C45</f>
+        <f t="shared" ref="AM45:AM60" si="30">C45</f>
         <v>R-SH_Att_KER_N1</v>
       </c>
       <c r="AN45" s="105" t="str">
-        <f t="shared" ref="AN45:AN60" si="30">D45</f>
+        <f t="shared" ref="AN45:AN60" si="31">D45</f>
         <v>Residential Kerosene Heating Oil - New 1 SH</v>
       </c>
       <c r="AO45" s="106" t="s">
@@ -24872,15 +24872,15 @@
         <v>0.7</v>
       </c>
       <c r="Q46" s="23">
-        <f t="shared" ref="Q46:Q48" si="31">I46*0.7</f>
+        <f t="shared" ref="Q46:Q48" si="32">I46*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R46" s="23">
-        <f t="shared" ref="R46:R48" si="32">J46*0.7</f>
+        <f t="shared" ref="R46:R48" si="33">J46*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S46" s="57">
-        <f t="shared" ref="S46:S48" si="33">K46*0.7</f>
+        <f t="shared" ref="S46:S48" si="34">K46*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T46" s="53">
@@ -24892,15 +24892,15 @@
         <v>4.2773760330578519</v>
       </c>
       <c r="W46" s="384">
-        <f t="shared" ref="W46:Y46" si="34">W50*1.3</f>
+        <f t="shared" ref="W46:Y46" si="35">W50*1.3</f>
         <v>4.2773760330578519</v>
       </c>
       <c r="X46" s="384">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.2773760330578519</v>
       </c>
       <c r="Y46" s="384">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.2773760330578519</v>
       </c>
       <c r="Z46" s="384">
@@ -24913,7 +24913,7 @@
       <c r="AE46" s="73"/>
       <c r="AF46" s="73"/>
       <c r="AG46" s="63">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH46" s="66"/>
@@ -24925,11 +24925,11 @@
       </c>
       <c r="AL46" s="106"/>
       <c r="AM46" s="105" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>R-SW_Att_KER_N1</v>
       </c>
       <c r="AN46" s="105" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>Residential Kerosene Heating Oil - New 2 SH + WH</v>
       </c>
       <c r="AO46" s="106" t="s">
@@ -24979,15 +24979,15 @@
         <v>0.7</v>
       </c>
       <c r="Q47" s="29">
-        <f t="shared" si="31"/>
-        <v>0.7</v>
-      </c>
-      <c r="R47" s="29">
         <f t="shared" si="32"/>
         <v>0.7</v>
       </c>
+      <c r="R47" s="29">
+        <f t="shared" si="33"/>
+        <v>0.7</v>
+      </c>
       <c r="S47" s="58">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.7</v>
       </c>
       <c r="T47" s="54">
@@ -25025,7 +25025,7 @@
         <v>5</v>
       </c>
       <c r="AG47" s="62">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH47" s="65"/>
@@ -25037,11 +25037,11 @@
       </c>
       <c r="AL47" s="106"/>
       <c r="AM47" s="105" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>R-SW_Att_KER_N2</v>
       </c>
       <c r="AN47" s="105" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Solar</v>
       </c>
       <c r="AO47" s="106" t="s">
@@ -25091,15 +25091,15 @@
         <v>0.7</v>
       </c>
       <c r="Q48" s="23">
-        <f t="shared" si="31"/>
-        <v>0.71749999999999992</v>
-      </c>
-      <c r="R48" s="23">
         <f t="shared" si="32"/>
         <v>0.71749999999999992</v>
       </c>
+      <c r="R48" s="23">
+        <f t="shared" si="33"/>
+        <v>0.71749999999999992</v>
+      </c>
       <c r="S48" s="57">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="T48" s="53">
@@ -25149,11 +25149,11 @@
       </c>
       <c r="AL48" s="106"/>
       <c r="AM48" s="105" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>R-SW_Att_KER_N3</v>
       </c>
       <c r="AN48" s="105" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Wood Stove</v>
       </c>
       <c r="AO48" s="107" t="s">
@@ -25209,15 +25209,15 @@
         <v>3.25</v>
       </c>
       <c r="W49" s="383">
-        <f t="shared" ref="W49:Y49" si="35">3.25</f>
+        <f t="shared" ref="W49:Y49" si="36">3.25</f>
         <v>3.25</v>
       </c>
       <c r="X49" s="383">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>3.25</v>
       </c>
       <c r="Y49" s="383">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>3.25</v>
       </c>
       <c r="Z49" s="383">
@@ -25230,7 +25230,7 @@
       <c r="AE49" s="72"/>
       <c r="AF49" s="72"/>
       <c r="AG49" s="62">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH49" s="65"/>
@@ -25242,11 +25242,11 @@
       </c>
       <c r="AL49" s="106"/>
       <c r="AM49" s="105" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>R-SH_Att_GAS_N1</v>
       </c>
       <c r="AN49" s="105" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>Residential Natural Gas Heating - New 1 SH</v>
       </c>
       <c r="AO49" s="106" t="s">
@@ -25296,15 +25296,15 @@
         <v>0.7</v>
       </c>
       <c r="Q50" s="23">
-        <f t="shared" ref="Q50:Q52" si="36">I50*0.7</f>
+        <f t="shared" ref="Q50:Q52" si="37">I50*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R50" s="23">
-        <f t="shared" ref="R50:R52" si="37">J50*0.7</f>
+        <f t="shared" ref="R50:R52" si="38">J50*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S50" s="57">
-        <f t="shared" ref="S50:S52" si="38">K50*0.7</f>
+        <f t="shared" ref="S50:S52" si="39">K50*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T50" s="53">
@@ -25337,7 +25337,7 @@
       <c r="AE50" s="73"/>
       <c r="AF50" s="73"/>
       <c r="AG50" s="63">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH50" s="66"/>
@@ -25349,11 +25349,11 @@
       </c>
       <c r="AL50" s="106"/>
       <c r="AM50" s="105" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>R-SW_Att_GAS_N1</v>
       </c>
       <c r="AN50" s="105" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>Residential Natural Gas Heating - New 2 SH + WH</v>
       </c>
       <c r="AO50" s="106" t="s">
@@ -25403,15 +25403,15 @@
         <v>0.7</v>
       </c>
       <c r="Q51" s="29">
-        <f t="shared" si="36"/>
-        <v>0.7</v>
-      </c>
-      <c r="R51" s="29">
         <f t="shared" si="37"/>
         <v>0.7</v>
       </c>
+      <c r="R51" s="29">
+        <f t="shared" si="38"/>
+        <v>0.7</v>
+      </c>
       <c r="S51" s="58">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.7</v>
       </c>
       <c r="T51" s="54">
@@ -25447,7 +25447,7 @@
         <v>5</v>
       </c>
       <c r="AG51" s="62">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH51" s="65"/>
@@ -25459,11 +25459,11 @@
       </c>
       <c r="AL51" s="106"/>
       <c r="AM51" s="105" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>R-SW_Att_GAS_N2</v>
       </c>
       <c r="AN51" s="105" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>Residential Natural Gas Heating - New 3 SH + WH + Solar</v>
       </c>
       <c r="AO51" s="106" t="s">
@@ -25513,15 +25513,15 @@
         <v>0.7</v>
       </c>
       <c r="Q52" s="23">
-        <f t="shared" si="36"/>
-        <v>0.71749999999999992</v>
-      </c>
-      <c r="R52" s="23">
         <f t="shared" si="37"/>
         <v>0.71749999999999992</v>
       </c>
+      <c r="R52" s="23">
+        <f t="shared" si="38"/>
+        <v>0.71749999999999992</v>
+      </c>
       <c r="S52" s="57">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="T52" s="53">
@@ -25559,7 +25559,7 @@
         <v>5</v>
       </c>
       <c r="AG52" s="63">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH52" s="66"/>
@@ -25571,11 +25571,11 @@
       </c>
       <c r="AL52" s="106"/>
       <c r="AM52" s="105" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>R-SW_Att_GAS_N3</v>
       </c>
       <c r="AN52" s="105" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>Residential Natural Gas Heating - New 4 SH + WH + Wood Stove</v>
       </c>
       <c r="AO52" s="106" t="s">
@@ -25629,20 +25629,20 @@
       </c>
       <c r="U53" s="41"/>
       <c r="V53" s="383">
-        <f>SUM(V49+0.25)</f>
-        <v>3.5</v>
+        <f>SUM(V49+0.3)</f>
+        <v>3.55</v>
       </c>
       <c r="W53" s="383">
-        <f t="shared" ref="W53:Y53" si="39">SUM(W49+0.25)</f>
-        <v>3.5</v>
+        <f>SUM(W49+0.3)</f>
+        <v>3.55</v>
       </c>
       <c r="X53" s="383">
-        <f t="shared" si="39"/>
-        <v>3.5</v>
+        <f>SUM(X49+0.3)</f>
+        <v>3.55</v>
       </c>
       <c r="Y53" s="383">
-        <f t="shared" si="39"/>
-        <v>3.5</v>
+        <f>SUM(Y49+0.3)</f>
+        <v>3.55</v>
       </c>
       <c r="Z53" s="383">
         <f>SUM(0.12+0.15)</f>
@@ -25655,7 +25655,7 @@
       <c r="AE53" s="72"/>
       <c r="AF53" s="72"/>
       <c r="AG53" s="62">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH53" s="65"/>
@@ -25667,11 +25667,11 @@
       </c>
       <c r="AL53" s="106"/>
       <c r="AM53" s="105" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>R-SH_Att_LPG_N1</v>
       </c>
       <c r="AN53" s="105" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>Residential Liquid Petroleum Gas- New 1 SH</v>
       </c>
       <c r="AO53" s="106" t="s">
@@ -25737,20 +25737,20 @@
       </c>
       <c r="U54" s="25"/>
       <c r="V54" s="384">
-        <f>V49*($U$152/$U$151)+0.25</f>
-        <v>3.5402892561983474</v>
+        <f>V49*($U$152/$U$151)+0.3</f>
+        <v>3.5902892561983473</v>
       </c>
       <c r="W54" s="384">
-        <f t="shared" ref="W54:Y54" si="43">W49*($U$152/$U$151)+0.25</f>
-        <v>3.5402892561983474</v>
+        <f>W49*($U$152/$U$151)+0.3</f>
+        <v>3.5902892561983473</v>
       </c>
       <c r="X54" s="384">
-        <f t="shared" si="43"/>
-        <v>3.5402892561983474</v>
+        <f>X49*($U$152/$U$151)+0.3</f>
+        <v>3.5902892561983473</v>
       </c>
       <c r="Y54" s="384">
-        <f t="shared" si="43"/>
-        <v>3.5402892561983474</v>
+        <f>Y49*($U$152/$U$151)+0.3</f>
+        <v>3.5902892561983473</v>
       </c>
       <c r="Z54" s="383">
         <f>SUM(0.12+0.15)</f>
@@ -25763,7 +25763,7 @@
       <c r="AE54" s="73"/>
       <c r="AF54" s="73"/>
       <c r="AG54" s="63">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH54" s="66"/>
@@ -25775,11 +25775,11 @@
       </c>
       <c r="AL54" s="106"/>
       <c r="AM54" s="105" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>R-SW_Att_LPG_N1</v>
       </c>
       <c r="AN54" s="105" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>Residential Liquid Petroleum Gas- New 2 SH + WH</v>
       </c>
       <c r="AO54" s="106" t="s">
@@ -25857,7 +25857,7 @@
       <c r="AE55" s="72"/>
       <c r="AF55" s="72"/>
       <c r="AG55" s="62">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH55" s="65"/>
@@ -25869,11 +25869,11 @@
       </c>
       <c r="AL55" s="106"/>
       <c r="AM55" s="105" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>R-SH_Att_WOO_N1</v>
       </c>
       <c r="AN55" s="105" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>Residential Biomass Boiler - New 1 SH</v>
       </c>
       <c r="AO55" s="106" t="s">
@@ -25919,19 +25919,19 @@
       <c r="N56" s="32"/>
       <c r="O56" s="45"/>
       <c r="P56" s="22">
-        <f t="shared" ref="P56:S60" si="44">H56*0.7</f>
+        <f t="shared" ref="P56:S60" si="43">H56*0.7</f>
         <v>0.7</v>
       </c>
       <c r="Q56" s="23">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0.7</v>
       </c>
       <c r="R56" s="23">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0.7</v>
       </c>
       <c r="S56" s="57">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0.7</v>
       </c>
       <c r="T56" s="53">
@@ -25964,7 +25964,7 @@
       <c r="AE56" s="73"/>
       <c r="AF56" s="73"/>
       <c r="AG56" s="63">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH56" s="66"/>
@@ -25976,11 +25976,11 @@
       </c>
       <c r="AL56" s="109"/>
       <c r="AM56" s="108" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>R-SW_Att_WOO_N1</v>
       </c>
       <c r="AN56" s="108" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>Residential Biomass Boiler - New 2 SH + WH</v>
       </c>
       <c r="AO56" s="109" t="s">
@@ -26059,7 +26059,7 @@
       <c r="AE57" s="73"/>
       <c r="AF57" s="73"/>
       <c r="AG57" s="63">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH57" s="66"/>
@@ -26074,7 +26074,7 @@
         <v>603</v>
       </c>
       <c r="AN57" s="108" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>Residential  Stove New 1 - SH</v>
       </c>
       <c r="AO57" s="106" t="s">
@@ -26118,19 +26118,19 @@
       <c r="N58" s="32"/>
       <c r="O58" s="45"/>
       <c r="P58" s="22">
-        <f t="shared" ref="P58" si="45">H58*0.7</f>
+        <f t="shared" ref="P58" si="44">H58*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="Q58" s="23">
-        <f t="shared" ref="Q58" si="46">I58*0.7</f>
+        <f t="shared" ref="Q58" si="45">I58*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="R58" s="23">
-        <f t="shared" ref="R58" si="47">J58*0.7</f>
+        <f t="shared" ref="R58" si="46">J58*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="S58" s="57">
-        <f t="shared" ref="S58" si="48">K58*0.7</f>
+        <f t="shared" ref="S58" si="47">K58*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="T58" s="53">
@@ -26163,7 +26163,7 @@
       <c r="AE58" s="73"/>
       <c r="AF58" s="73"/>
       <c r="AG58" s="63">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH58" s="66"/>
@@ -26178,7 +26178,7 @@
         <v>604</v>
       </c>
       <c r="AN58" s="108" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>Residential  Stove with back boiler New 1 - SH +WH</v>
       </c>
       <c r="AO58" s="109" t="s">
@@ -26233,19 +26233,19 @@
         <v>4.2250000000000005</v>
       </c>
       <c r="W59" s="62">
-        <f t="shared" ref="W59:Z60" si="49">W45</f>
+        <f t="shared" ref="W59:Z60" si="48">W45</f>
         <v>4.2250000000000005</v>
       </c>
       <c r="X59" s="62">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>4.2250000000000005</v>
       </c>
       <c r="Y59" s="62">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>4.2250000000000005</v>
       </c>
       <c r="Z59" s="62">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>0.12</v>
       </c>
       <c r="AA59" s="65"/>
@@ -26267,11 +26267,11 @@
       </c>
       <c r="AL59" s="109"/>
       <c r="AM59" s="108" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>R-SH_Att_HVO_N1</v>
       </c>
       <c r="AN59" s="108" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>Residential  Hydrotreated vegetable oil - New 1 SH</v>
       </c>
       <c r="AO59" s="109" t="s">
@@ -26316,19 +26316,19 @@
       <c r="N60" s="50"/>
       <c r="O60" s="51"/>
       <c r="P60" s="256">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="Q60" s="26">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="R60" s="26">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="S60" s="59">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="T60" s="55">
@@ -26340,19 +26340,19 @@
         <v>4.2773760330578519</v>
       </c>
       <c r="W60" s="62">
-        <f t="shared" ref="W60:Y60" si="50">W46</f>
+        <f t="shared" ref="W60:Y60" si="49">W46</f>
         <v>4.2773760330578519</v>
       </c>
       <c r="X60" s="62">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>4.2773760330578519</v>
       </c>
       <c r="Y60" s="62">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>4.2773760330578519</v>
       </c>
       <c r="Z60" s="62">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>0.12</v>
       </c>
       <c r="AA60" s="66"/>
@@ -26362,7 +26362,7 @@
       <c r="AE60" s="73"/>
       <c r="AF60" s="73"/>
       <c r="AG60" s="63">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH60" s="67"/>
@@ -26374,11 +26374,11 @@
       </c>
       <c r="AL60" s="109"/>
       <c r="AM60" s="108" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>R-SW_Att_HVO_N1</v>
       </c>
       <c r="AN60" s="108" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>Residential  Hydrotreated vegetable oil - New 1 SH + WH</v>
       </c>
       <c r="AO60" s="109" t="s">
@@ -26515,7 +26515,7 @@
       <c r="AE62" s="84"/>
       <c r="AF62" s="84"/>
       <c r="AG62" s="82">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH62" s="83"/>
@@ -26527,11 +26527,11 @@
       </c>
       <c r="AL62" s="104"/>
       <c r="AM62" s="103" t="str">
-        <f t="shared" ref="AM62:AN68" si="51">C64</f>
+        <f t="shared" ref="AM62:AN68" si="50">C64</f>
         <v>R-SH_Att_ELC_HPN1</v>
       </c>
       <c r="AN62" s="103" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>Residential Electric Heat Pump - Air to Air - SH</v>
       </c>
       <c r="AO62" s="104" t="s">
@@ -26584,11 +26584,11 @@
       <c r="AJ63" s="34"/>
       <c r="AL63" s="106"/>
       <c r="AM63" s="105" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>R-HC_Att_ELC_HPN1</v>
       </c>
       <c r="AN63" s="105" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>Residential Electric Heat Pump - Air to Air - SH + SC</v>
       </c>
       <c r="AO63" s="106" t="s">
@@ -26673,7 +26673,7 @@
       <c r="AE64" s="85"/>
       <c r="AF64" s="85"/>
       <c r="AG64" s="85">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.220752</v>
       </c>
       <c r="AH64" s="88"/>
@@ -26685,11 +26685,11 @@
       </c>
       <c r="AL64" s="106"/>
       <c r="AM64" s="105" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>R-SH_Att_ELC_HPN2</v>
       </c>
       <c r="AN64" s="105" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>Residential Electric Heat Pump - Air to Water - SH</v>
       </c>
       <c r="AO64" s="106" t="s">
@@ -26785,7 +26785,7 @@
       <c r="AE65" s="63"/>
       <c r="AF65" s="63"/>
       <c r="AG65" s="63">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH65" s="66"/>
@@ -26797,11 +26797,11 @@
       </c>
       <c r="AL65" s="106"/>
       <c r="AM65" s="105" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>R-SW_Att_ELC_HPN1</v>
       </c>
       <c r="AN65" s="105" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH</v>
       </c>
       <c r="AO65" s="106" t="s">
@@ -26884,7 +26884,7 @@
       <c r="AE66" s="62"/>
       <c r="AF66" s="62"/>
       <c r="AG66" s="62">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.220752</v>
       </c>
       <c r="AH66" s="65"/>
@@ -26896,11 +26896,11 @@
       </c>
       <c r="AL66" s="213"/>
       <c r="AM66" s="105" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>R-SW_Att_ELC_HPN2</v>
       </c>
       <c r="AN66" s="105" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar</v>
       </c>
       <c r="AO66" s="106" t="s">
@@ -26955,15 +26955,15 @@
         <v>0.7</v>
       </c>
       <c r="Q67" s="23">
-        <f t="shared" ref="Q67:Q68" si="52">I67*0.7</f>
+        <f t="shared" ref="Q67:Q68" si="51">I67*0.7</f>
         <v>0.76999999999999991</v>
       </c>
       <c r="R67" s="23">
-        <f t="shared" ref="R67:R68" si="53">J67*0.7</f>
+        <f t="shared" ref="R67:R68" si="52">J67*0.7</f>
         <v>0.86333333333333329</v>
       </c>
       <c r="S67" s="57">
-        <f t="shared" ref="S67:S68" si="54">K67*0.7</f>
+        <f t="shared" ref="S67:S68" si="53">K67*0.7</f>
         <v>0.93333333333333324</v>
       </c>
       <c r="T67" s="53">
@@ -26996,7 +26996,7 @@
       <c r="AE67" s="63"/>
       <c r="AF67" s="63"/>
       <c r="AG67" s="63">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH67" s="66"/>
@@ -27008,11 +27008,11 @@
       </c>
       <c r="AL67" s="213"/>
       <c r="AM67" s="105" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>R-SH_Att_ELC_HPN3</v>
       </c>
       <c r="AN67" s="105" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH</v>
       </c>
       <c r="AO67" s="106" t="s">
@@ -27064,15 +27064,15 @@
         <v>0.7</v>
       </c>
       <c r="Q68" s="29">
+        <f t="shared" si="51"/>
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="R68" s="29">
         <f t="shared" si="52"/>
-        <v>0.77700000000000002</v>
-      </c>
-      <c r="R68" s="29">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="S68" s="58">
         <f t="shared" si="53"/>
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="S68" s="58">
-        <f t="shared" si="54"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="T68" s="54">
@@ -27110,7 +27110,7 @@
         <v>5</v>
       </c>
       <c r="AG68" s="62">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH68" s="65"/>
@@ -27122,11 +27122,11 @@
       </c>
       <c r="AL68" s="112"/>
       <c r="AM68" s="108" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>R-HC_Att_ELC_HPN2</v>
       </c>
       <c r="AN68" s="108" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC</v>
       </c>
       <c r="AO68" s="109" t="s">
@@ -27212,7 +27212,7 @@
       <c r="AE69" s="63"/>
       <c r="AF69" s="63"/>
       <c r="AG69" s="63">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.220752</v>
       </c>
       <c r="AH69" s="66"/>
@@ -27326,7 +27326,7 @@
       <c r="AE70" s="86"/>
       <c r="AF70" s="86"/>
       <c r="AG70" s="86">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH70" s="91"/>
@@ -27455,15 +27455,15 @@
         <v>1.1666666666666667</v>
       </c>
       <c r="Q72" s="20">
-        <f t="shared" ref="Q72:Q73" si="55">I72*0.7</f>
+        <f t="shared" ref="Q72:Q73" si="54">I72*0.7</f>
         <v>1.2530864197530862</v>
       </c>
       <c r="R72" s="20">
-        <f t="shared" ref="R72:R73" si="56">J72*0.7</f>
+        <f t="shared" ref="R72:R73" si="55">J72*0.7</f>
         <v>1.4691358024691357</v>
       </c>
       <c r="S72" s="56">
-        <f t="shared" ref="S72:S73" si="57">K72*0.7</f>
+        <f t="shared" ref="S72:S73" si="56">K72*0.7</f>
         <v>1.4691358024691357</v>
       </c>
       <c r="T72" s="89">
@@ -27497,7 +27497,7 @@
       <c r="AE72" s="85"/>
       <c r="AF72" s="85"/>
       <c r="AG72" s="85">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH72" s="88"/>
@@ -27569,15 +27569,15 @@
         <v>1.1666666666666665</v>
       </c>
       <c r="Q73" s="26">
+        <f t="shared" si="54"/>
+        <v>1.2055555555555555</v>
+      </c>
+      <c r="R73" s="26">
         <f t="shared" si="55"/>
         <v>1.2055555555555555</v>
       </c>
-      <c r="R73" s="26">
+      <c r="S73" s="59">
         <f t="shared" si="56"/>
-        <v>1.2055555555555555</v>
-      </c>
-      <c r="S73" s="59">
-        <f t="shared" si="57"/>
         <v>1.2444444444444445</v>
       </c>
       <c r="T73" s="27">
@@ -27740,15 +27740,15 @@
         <v>2.2889999999999997</v>
       </c>
       <c r="Q75" s="26">
-        <f t="shared" ref="Q75" si="58">I75*0.7</f>
+        <f t="shared" ref="Q75" si="57">I75*0.7</f>
         <v>2.5409999999999995</v>
       </c>
       <c r="R75" s="26">
-        <f t="shared" ref="R75" si="59">J75*0.7</f>
+        <f t="shared" ref="R75" si="58">J75*0.7</f>
         <v>2.7299999999999995</v>
       </c>
       <c r="S75" s="59">
-        <f t="shared" ref="S75" si="60">K75*0.7</f>
+        <f t="shared" ref="S75" si="59">K75*0.7</f>
         <v>2.7299999999999995</v>
       </c>
       <c r="T75" s="3">
@@ -27759,15 +27759,15 @@
         <v>9.5138179028489738</v>
       </c>
       <c r="W75" s="79">
-        <f t="shared" ref="W75:Y75" si="61">(W67+W50)*0.8</f>
+        <f t="shared" ref="W75:Y75" si="60">(W67+W50)*0.8</f>
         <v>8.8944751180388462</v>
       </c>
       <c r="X75" s="79">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>8.3308731838616321</v>
       </c>
       <c r="Y75" s="79">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>8.2751323332287203</v>
       </c>
       <c r="Z75" s="375">
@@ -27788,7 +27788,7 @@
         <v>5</v>
       </c>
       <c r="AG75" s="82">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.42415920000000001</v>
       </c>
       <c r="AH75" s="83"/>
@@ -27950,7 +27950,7 @@
       <c r="AE77" s="85"/>
       <c r="AF77" s="85"/>
       <c r="AG77" s="85">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH77" s="88"/>
@@ -28035,7 +28035,7 @@
       <c r="AE78" s="64"/>
       <c r="AF78" s="64"/>
       <c r="AG78" s="64">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH78" s="67"/>
@@ -28150,7 +28150,7 @@
       <c r="AE80" s="85"/>
       <c r="AF80" s="85"/>
       <c r="AG80" s="85">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.18921600000000002</v>
       </c>
       <c r="AH80" s="88"/>
@@ -28229,7 +28229,7 @@
       <c r="AE81" s="63"/>
       <c r="AF81" s="63"/>
       <c r="AG81" s="63">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.18921600000000002</v>
       </c>
       <c r="AH81" s="67"/>
@@ -28347,7 +28347,7 @@
       <c r="AE83" s="93"/>
       <c r="AF83" s="93"/>
       <c r="AG83" s="93">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.18921600000000002</v>
       </c>
       <c r="AH83" s="92"/>
@@ -28510,12 +28510,12 @@
         <v>85</v>
       </c>
       <c r="U90" s="539"/>
-      <c r="V90" s="540" t="s">
+      <c r="V90" s="531" t="s">
         <v>86</v>
       </c>
-      <c r="W90" s="541"/>
-      <c r="X90" s="541"/>
-      <c r="Y90" s="542"/>
+      <c r="W90" s="532"/>
+      <c r="X90" s="532"/>
+      <c r="Y90" s="533"/>
       <c r="Z90" s="60"/>
       <c r="AA90" s="60"/>
       <c r="AB90" s="68" t="s">
@@ -28616,34 +28616,34 @@
       <c r="E92" s="38"/>
       <c r="F92" s="38"/>
       <c r="G92" s="39"/>
-      <c r="H92" s="531" t="s">
+      <c r="H92" s="534" t="s">
         <v>34</v>
       </c>
-      <c r="I92" s="532"/>
-      <c r="J92" s="532"/>
-      <c r="K92" s="533"/>
-      <c r="L92" s="532" t="s">
+      <c r="I92" s="535"/>
+      <c r="J92" s="535"/>
+      <c r="K92" s="536"/>
+      <c r="L92" s="535" t="s">
         <v>34</v>
       </c>
-      <c r="M92" s="532"/>
-      <c r="N92" s="532"/>
-      <c r="O92" s="533"/>
-      <c r="P92" s="531" t="s">
+      <c r="M92" s="535"/>
+      <c r="N92" s="535"/>
+      <c r="O92" s="536"/>
+      <c r="P92" s="534" t="s">
         <v>34</v>
       </c>
-      <c r="Q92" s="532"/>
-      <c r="R92" s="532"/>
-      <c r="S92" s="533"/>
-      <c r="T92" s="534" t="s">
+      <c r="Q92" s="535"/>
+      <c r="R92" s="535"/>
+      <c r="S92" s="536"/>
+      <c r="T92" s="540" t="s">
         <v>68</v>
       </c>
-      <c r="U92" s="535"/>
-      <c r="V92" s="534" t="s">
+      <c r="U92" s="541"/>
+      <c r="V92" s="540" t="s">
         <v>541</v>
       </c>
-      <c r="W92" s="536"/>
-      <c r="X92" s="536"/>
-      <c r="Y92" s="535"/>
+      <c r="W92" s="542"/>
+      <c r="X92" s="542"/>
+      <c r="Y92" s="541"/>
       <c r="Z92" s="377" t="s">
         <v>553</v>
       </c>
@@ -28739,15 +28739,15 @@
         <v>4.5825000000000005</v>
       </c>
       <c r="W93" s="383">
-        <f t="shared" ref="W93:Y93" si="62">W97*1.3</f>
+        <f t="shared" ref="W93:Y93" si="61">W97*1.3</f>
         <v>4.5825000000000005</v>
       </c>
       <c r="X93" s="383">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>4.5825000000000005</v>
       </c>
       <c r="Y93" s="383">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>4.5825000000000005</v>
       </c>
       <c r="Z93" s="383">
@@ -28760,7 +28760,7 @@
       <c r="AE93" s="72"/>
       <c r="AF93" s="72"/>
       <c r="AG93" s="62">
-        <f t="shared" ref="AG93:AG131" si="63">31.536*(AJ93/1000)</f>
+        <f t="shared" ref="AG93:AG131" si="62">31.536*(AJ93/1000)</f>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH93" s="65"/>
@@ -28828,15 +28828,15 @@
         <v>0.7</v>
       </c>
       <c r="Q94" s="23">
-        <f t="shared" ref="Q94:Q96" si="64">I94*0.7</f>
+        <f t="shared" ref="Q94:Q96" si="63">I94*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R94" s="23">
-        <f t="shared" ref="R94:R96" si="65">J94*0.7</f>
+        <f t="shared" ref="R94:R96" si="64">J94*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S94" s="57">
-        <f t="shared" ref="S94:S96" si="66">K94*0.7</f>
+        <f t="shared" ref="S94:S96" si="65">K94*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T94" s="53">
@@ -28848,15 +28848,15 @@
         <v>4.9452075289575284</v>
       </c>
       <c r="W94" s="384">
-        <f t="shared" ref="W94:Y94" si="67">W98*1.3</f>
+        <f t="shared" ref="W94:Y94" si="66">W98*1.3</f>
         <v>4.9452075289575284</v>
       </c>
       <c r="X94" s="384">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>4.9452075289575284</v>
       </c>
       <c r="Y94" s="384">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>4.9452075289575284</v>
       </c>
       <c r="Z94" s="384">
@@ -28869,7 +28869,7 @@
       <c r="AE94" s="73"/>
       <c r="AF94" s="73"/>
       <c r="AG94" s="63">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH94" s="66"/>
@@ -28881,11 +28881,11 @@
       </c>
       <c r="AL94" s="106"/>
       <c r="AM94" s="105" t="str">
-        <f t="shared" ref="AM94:AM108" si="68">C94</f>
+        <f t="shared" ref="AM94:AM108" si="67">C94</f>
         <v>R-SW_Det_KER_N1</v>
       </c>
       <c r="AN94" s="105" t="str">
-        <f t="shared" ref="AN94:AN108" si="69">D94</f>
+        <f t="shared" ref="AN94:AN108" si="68">D94</f>
         <v>Residential Kerosene Heating Oil - New 2 SH + WH</v>
       </c>
       <c r="AO94" s="106" t="s">
@@ -28935,15 +28935,15 @@
         <v>0.7</v>
       </c>
       <c r="Q95" s="29">
+        <f t="shared" si="63"/>
+        <v>0.7</v>
+      </c>
+      <c r="R95" s="29">
         <f t="shared" si="64"/>
         <v>0.7</v>
       </c>
-      <c r="R95" s="29">
+      <c r="S95" s="58">
         <f t="shared" si="65"/>
-        <v>0.7</v>
-      </c>
-      <c r="S95" s="58">
-        <f t="shared" si="66"/>
         <v>0.7</v>
       </c>
       <c r="T95" s="54">
@@ -28981,7 +28981,7 @@
         <v>5</v>
       </c>
       <c r="AG95" s="62">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH95" s="65"/>
@@ -28993,11 +28993,11 @@
       </c>
       <c r="AL95" s="106"/>
       <c r="AM95" s="105" t="str">
+        <f t="shared" si="67"/>
+        <v>R-SW_Det_KER_N2</v>
+      </c>
+      <c r="AN95" s="105" t="str">
         <f t="shared" si="68"/>
-        <v>R-SW_Det_KER_N2</v>
-      </c>
-      <c r="AN95" s="105" t="str">
-        <f t="shared" si="69"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Solar</v>
       </c>
       <c r="AO95" s="106" t="s">
@@ -29047,15 +29047,15 @@
         <v>0.7</v>
       </c>
       <c r="Q96" s="23">
+        <f t="shared" si="63"/>
+        <v>0.71749999999999992</v>
+      </c>
+      <c r="R96" s="23">
         <f t="shared" si="64"/>
         <v>0.71749999999999992</v>
       </c>
-      <c r="R96" s="23">
+      <c r="S96" s="57">
         <f t="shared" si="65"/>
-        <v>0.71749999999999992</v>
-      </c>
-      <c r="S96" s="57">
-        <f t="shared" si="66"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="T96" s="53">
@@ -29093,7 +29093,7 @@
         <v>5</v>
       </c>
       <c r="AG96" s="63">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH96" s="66"/>
@@ -29105,11 +29105,11 @@
       </c>
       <c r="AL96" s="106"/>
       <c r="AM96" s="105" t="str">
+        <f t="shared" si="67"/>
+        <v>R-SW_Det_KER_N3</v>
+      </c>
+      <c r="AN96" s="105" t="str">
         <f t="shared" si="68"/>
-        <v>R-SW_Det_KER_N3</v>
-      </c>
-      <c r="AN96" s="105" t="str">
-        <f t="shared" si="69"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Wood Stove</v>
       </c>
       <c r="AO96" s="107" t="s">
@@ -29165,15 +29165,15 @@
         <v>3.5249999999999999</v>
       </c>
       <c r="W97" s="383">
-        <f t="shared" ref="W97:Y97" si="70">3.525</f>
+        <f t="shared" ref="W97:Y97" si="69">3.525</f>
         <v>3.5249999999999999</v>
       </c>
       <c r="X97" s="383">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>3.5249999999999999</v>
       </c>
       <c r="Y97" s="383">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>3.5249999999999999</v>
       </c>
       <c r="Z97" s="383">
@@ -29186,7 +29186,7 @@
       <c r="AE97" s="72"/>
       <c r="AF97" s="72"/>
       <c r="AG97" s="62">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH97" s="65"/>
@@ -29198,11 +29198,11 @@
       </c>
       <c r="AL97" s="106"/>
       <c r="AM97" s="105" t="str">
+        <f t="shared" si="67"/>
+        <v>R-SH_Det_GAS_N1</v>
+      </c>
+      <c r="AN97" s="105" t="str">
         <f t="shared" si="68"/>
-        <v>R-SH_Det_GAS_N1</v>
-      </c>
-      <c r="AN97" s="105" t="str">
-        <f t="shared" si="69"/>
         <v>Residential Natural Gas Heating - New 1 SH</v>
       </c>
       <c r="AO97" s="106" t="s">
@@ -29252,15 +29252,15 @@
         <v>0.7</v>
       </c>
       <c r="Q98" s="23">
-        <f t="shared" ref="Q98:Q100" si="71">I98*0.7</f>
+        <f t="shared" ref="Q98:Q100" si="70">I98*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R98" s="23">
-        <f t="shared" ref="R98:R100" si="72">J98*0.7</f>
+        <f t="shared" ref="R98:R100" si="71">J98*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S98" s="57">
-        <f t="shared" ref="S98:S100" si="73">K98*0.7</f>
+        <f t="shared" ref="S98:S100" si="72">K98*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T98" s="53">
@@ -29293,7 +29293,7 @@
       <c r="AE98" s="73"/>
       <c r="AF98" s="73"/>
       <c r="AG98" s="63">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH98" s="66"/>
@@ -29305,11 +29305,11 @@
       </c>
       <c r="AL98" s="106"/>
       <c r="AM98" s="105" t="str">
+        <f t="shared" si="67"/>
+        <v>R-SW_Det_GAS_N1</v>
+      </c>
+      <c r="AN98" s="105" t="str">
         <f t="shared" si="68"/>
-        <v>R-SW_Det_GAS_N1</v>
-      </c>
-      <c r="AN98" s="105" t="str">
-        <f t="shared" si="69"/>
         <v>Residential Natural Gas Heating - New 2 SH + WH</v>
       </c>
       <c r="AO98" s="106" t="s">
@@ -29359,15 +29359,15 @@
         <v>0.7</v>
       </c>
       <c r="Q99" s="29">
+        <f t="shared" si="70"/>
+        <v>0.7</v>
+      </c>
+      <c r="R99" s="29">
         <f t="shared" si="71"/>
         <v>0.7</v>
       </c>
-      <c r="R99" s="29">
+      <c r="S99" s="58">
         <f t="shared" si="72"/>
-        <v>0.7</v>
-      </c>
-      <c r="S99" s="58">
-        <f t="shared" si="73"/>
         <v>0.7</v>
       </c>
       <c r="T99" s="54">
@@ -29403,7 +29403,7 @@
         <v>5</v>
       </c>
       <c r="AG99" s="62">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH99" s="65"/>
@@ -29415,11 +29415,11 @@
       </c>
       <c r="AL99" s="106"/>
       <c r="AM99" s="105" t="str">
+        <f t="shared" si="67"/>
+        <v>R-SW_Det_GAS_N2</v>
+      </c>
+      <c r="AN99" s="105" t="str">
         <f t="shared" si="68"/>
-        <v>R-SW_Det_GAS_N2</v>
-      </c>
-      <c r="AN99" s="105" t="str">
-        <f t="shared" si="69"/>
         <v>Residential Natural Gas Heating - New 3 SH + WH + Solar</v>
       </c>
       <c r="AO99" s="106" t="s">
@@ -29469,15 +29469,15 @@
         <v>0.7</v>
       </c>
       <c r="Q100" s="23">
+        <f t="shared" si="70"/>
+        <v>0.71749999999999992</v>
+      </c>
+      <c r="R100" s="23">
         <f t="shared" si="71"/>
         <v>0.71749999999999992</v>
       </c>
-      <c r="R100" s="23">
+      <c r="S100" s="57">
         <f t="shared" si="72"/>
-        <v>0.71749999999999992</v>
-      </c>
-      <c r="S100" s="57">
-        <f t="shared" si="73"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="T100" s="53">
@@ -29515,7 +29515,7 @@
         <v>5</v>
       </c>
       <c r="AG100" s="63">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH100" s="66"/>
@@ -29527,11 +29527,11 @@
       </c>
       <c r="AL100" s="106"/>
       <c r="AM100" s="105" t="str">
+        <f t="shared" si="67"/>
+        <v>R-SW_Det_GAS_N3</v>
+      </c>
+      <c r="AN100" s="105" t="str">
         <f t="shared" si="68"/>
-        <v>R-SW_Det_GAS_N3</v>
-      </c>
-      <c r="AN100" s="105" t="str">
-        <f t="shared" si="69"/>
         <v>Residential Natural Gas Heating - New 4 SH + WH + Wood Stove</v>
       </c>
       <c r="AO100" s="106" t="s">
@@ -29585,20 +29585,20 @@
       </c>
       <c r="U101" s="41"/>
       <c r="V101" s="383">
-        <f>V97+0.25</f>
-        <v>3.7749999999999999</v>
+        <f>V97+0.3</f>
+        <v>3.8249999999999997</v>
       </c>
       <c r="W101" s="383">
-        <f t="shared" ref="W101:Y101" si="74">W97+0.25</f>
-        <v>3.7749999999999999</v>
+        <f>W97+0.3</f>
+        <v>3.8249999999999997</v>
       </c>
       <c r="X101" s="383">
-        <f t="shared" si="74"/>
-        <v>3.7749999999999999</v>
+        <f>X97+0.3</f>
+        <v>3.8249999999999997</v>
       </c>
       <c r="Y101" s="383">
-        <f t="shared" si="74"/>
-        <v>3.7749999999999999</v>
+        <f>Y97+0.3</f>
+        <v>3.8249999999999997</v>
       </c>
       <c r="Z101" s="383">
         <f>SUM(0.12+0.15)</f>
@@ -29611,7 +29611,7 @@
       <c r="AE101" s="72"/>
       <c r="AF101" s="72"/>
       <c r="AG101" s="62">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH101" s="65"/>
@@ -29623,11 +29623,11 @@
       </c>
       <c r="AL101" s="106"/>
       <c r="AM101" s="105" t="str">
+        <f t="shared" si="67"/>
+        <v>R-SH_Det_LPG_N1</v>
+      </c>
+      <c r="AN101" s="105" t="str">
         <f t="shared" si="68"/>
-        <v>R-SH_Det_LPG_N1</v>
-      </c>
-      <c r="AN101" s="105" t="str">
-        <f t="shared" si="69"/>
         <v>Residential Liquid Petroleum Gas- New 1 SH</v>
       </c>
       <c r="AO101" s="106" t="s">
@@ -29677,15 +29677,15 @@
         <v>0.7</v>
       </c>
       <c r="Q102" s="23">
-        <f t="shared" ref="Q102" si="75">I102*0.7</f>
+        <f t="shared" ref="Q102" si="73">I102*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R102" s="23">
-        <f t="shared" ref="R102" si="76">J102*0.7</f>
+        <f t="shared" ref="R102" si="74">J102*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S102" s="57">
-        <f t="shared" ref="S102" si="77">K102*0.7</f>
+        <f t="shared" ref="S102" si="75">K102*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T102" s="53">
@@ -29693,20 +29693,20 @@
       </c>
       <c r="U102" s="25"/>
       <c r="V102" s="384">
-        <f>V98</f>
-        <v>3.8040057915057912</v>
+        <f>V98+0.3</f>
+        <v>4.1040057915057915</v>
       </c>
       <c r="W102" s="384">
-        <f t="shared" ref="W102:Y102" si="78">W98</f>
-        <v>3.8040057915057912</v>
+        <f>W98+0.3</f>
+        <v>4.1040057915057915</v>
       </c>
       <c r="X102" s="384">
-        <f t="shared" si="78"/>
-        <v>3.8040057915057912</v>
+        <f>X98+0.3</f>
+        <v>4.1040057915057915</v>
       </c>
       <c r="Y102" s="384">
-        <f t="shared" si="78"/>
-        <v>3.8040057915057912</v>
+        <f>Y98+0.3</f>
+        <v>4.1040057915057915</v>
       </c>
       <c r="Z102" s="383">
         <f>SUM(0.12+0.15)</f>
@@ -29719,7 +29719,7 @@
       <c r="AE102" s="73"/>
       <c r="AF102" s="73"/>
       <c r="AG102" s="63">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH102" s="66"/>
@@ -29731,11 +29731,11 @@
       </c>
       <c r="AL102" s="106"/>
       <c r="AM102" s="105" t="str">
+        <f t="shared" si="67"/>
+        <v>R-SW_Det_LPG_N1</v>
+      </c>
+      <c r="AN102" s="105" t="str">
         <f t="shared" si="68"/>
-        <v>R-SW_Det_LPG_N1</v>
-      </c>
-      <c r="AN102" s="105" t="str">
-        <f t="shared" si="69"/>
         <v>Residential Liquid Petroleum Gas- New 2 SH + WH</v>
       </c>
       <c r="AO102" s="106" t="s">
@@ -29813,7 +29813,7 @@
       <c r="AE103" s="72"/>
       <c r="AF103" s="72"/>
       <c r="AG103" s="62">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH103" s="65"/>
@@ -29825,11 +29825,11 @@
       </c>
       <c r="AL103" s="106"/>
       <c r="AM103" s="105" t="str">
+        <f t="shared" si="67"/>
+        <v>R-SH_Det_WOO_N1</v>
+      </c>
+      <c r="AN103" s="105" t="str">
         <f t="shared" si="68"/>
-        <v>R-SH_Det_WOO_N1</v>
-      </c>
-      <c r="AN103" s="105" t="str">
-        <f t="shared" si="69"/>
         <v>Residential Biomass Boiler - New 1 SH</v>
       </c>
       <c r="AO103" s="106" t="s">
@@ -29875,19 +29875,19 @@
       <c r="N104" s="32"/>
       <c r="O104" s="45"/>
       <c r="P104" s="22">
-        <f t="shared" ref="P104:S104" si="79">H104*0.7</f>
+        <f t="shared" ref="P104:S104" si="76">H104*0.7</f>
         <v>0.7</v>
       </c>
       <c r="Q104" s="23">
-        <f t="shared" si="79"/>
+        <f t="shared" si="76"/>
         <v>0.7</v>
       </c>
       <c r="R104" s="23">
-        <f t="shared" si="79"/>
+        <f t="shared" si="76"/>
         <v>0.7</v>
       </c>
       <c r="S104" s="57">
-        <f t="shared" si="79"/>
+        <f t="shared" si="76"/>
         <v>0.7</v>
       </c>
       <c r="T104" s="53">
@@ -29899,15 +29899,15 @@
         <v>22.778925619834713</v>
       </c>
       <c r="W104" s="384">
-        <f t="shared" ref="W104" si="80">W103*($U$152/$U$151)</f>
+        <f t="shared" ref="W104" si="77">W103*($U$152/$U$151)</f>
         <v>22.04476084710744</v>
       </c>
       <c r="X104" s="384">
-        <f t="shared" ref="X104" si="81">X103*($U$152/$U$151)</f>
+        <f t="shared" ref="X104" si="78">X103*($U$152/$U$151)</f>
         <v>20.839163429752066</v>
       </c>
       <c r="Y104" s="384">
-        <f t="shared" ref="Y104" si="82">Y103*($U$152/$U$151)</f>
+        <f t="shared" ref="Y104" si="79">Y103*($U$152/$U$151)</f>
         <v>18.635439049586779</v>
       </c>
       <c r="Z104" s="384">
@@ -29920,7 +29920,7 @@
       <c r="AE104" s="73"/>
       <c r="AF104" s="73"/>
       <c r="AG104" s="63">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH104" s="66"/>
@@ -29932,11 +29932,11 @@
       </c>
       <c r="AL104" s="109"/>
       <c r="AM104" s="108" t="str">
+        <f t="shared" si="67"/>
+        <v>R-SW_Det_WOO_N1</v>
+      </c>
+      <c r="AN104" s="108" t="str">
         <f t="shared" si="68"/>
-        <v>R-SW_Det_WOO_N1</v>
-      </c>
-      <c r="AN104" s="108" t="str">
-        <f t="shared" si="69"/>
         <v>Residential Biomass Boiler - New 2 SH + WH</v>
       </c>
       <c r="AO104" s="109" t="s">
@@ -30015,7 +30015,7 @@
       <c r="AE105" s="73"/>
       <c r="AF105" s="73"/>
       <c r="AG105" s="63">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH105" s="66"/>
@@ -30030,7 +30030,7 @@
         <v>611</v>
       </c>
       <c r="AN105" s="108" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>Residential  Stove New 1 - SH</v>
       </c>
       <c r="AO105" s="106" t="s">
@@ -30074,19 +30074,19 @@
       <c r="N106" s="32"/>
       <c r="O106" s="45"/>
       <c r="P106" s="22">
-        <f t="shared" ref="P106:P108" si="83">H106*0.7</f>
+        <f t="shared" ref="P106:P108" si="80">H106*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="Q106" s="23">
-        <f t="shared" ref="Q106:Q108" si="84">I106*0.7</f>
+        <f t="shared" ref="Q106:Q108" si="81">I106*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="R106" s="23">
-        <f t="shared" ref="R106:R108" si="85">J106*0.7</f>
+        <f t="shared" ref="R106:R108" si="82">J106*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="S106" s="57">
-        <f t="shared" ref="S106:S108" si="86">K106*0.7</f>
+        <f t="shared" ref="S106:S108" si="83">K106*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="T106" s="53">
@@ -30119,7 +30119,7 @@
       <c r="AE106" s="73"/>
       <c r="AF106" s="73"/>
       <c r="AG106" s="63">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH106" s="66"/>
@@ -30134,7 +30134,7 @@
         <v>612</v>
       </c>
       <c r="AN106" s="108" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>Residential  Stove with back boiler New 1 - SH +WH</v>
       </c>
       <c r="AO106" s="109" t="s">
@@ -30189,19 +30189,19 @@
         <v>4.5825000000000005</v>
       </c>
       <c r="W107" s="62">
-        <f t="shared" ref="W107:Z107" si="87">W93</f>
+        <f t="shared" ref="W107:Z107" si="84">W93</f>
         <v>4.5825000000000005</v>
       </c>
       <c r="X107" s="62">
-        <f t="shared" si="87"/>
+        <f t="shared" si="84"/>
         <v>4.5825000000000005</v>
       </c>
       <c r="Y107" s="62">
-        <f t="shared" si="87"/>
+        <f t="shared" si="84"/>
         <v>4.5825000000000005</v>
       </c>
       <c r="Z107" s="62">
-        <f t="shared" si="87"/>
+        <f t="shared" si="84"/>
         <v>0.12</v>
       </c>
       <c r="AA107" s="65"/>
@@ -30211,7 +30211,7 @@
       <c r="AE107" s="72"/>
       <c r="AF107" s="72"/>
       <c r="AG107" s="62">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH107" s="65"/>
@@ -30223,11 +30223,11 @@
       </c>
       <c r="AL107" s="109"/>
       <c r="AM107" s="108" t="str">
+        <f t="shared" si="67"/>
+        <v>R-SH_Det_HVO_N1</v>
+      </c>
+      <c r="AN107" s="108" t="str">
         <f t="shared" si="68"/>
-        <v>R-SH_Det_HVO_N1</v>
-      </c>
-      <c r="AN107" s="108" t="str">
-        <f t="shared" si="69"/>
         <v>Residential  Hydrotreated vegetable oil - New 1 SH</v>
       </c>
       <c r="AO107" s="109" t="s">
@@ -30272,19 +30272,19 @@
       <c r="N108" s="50"/>
       <c r="O108" s="51"/>
       <c r="P108" s="256">
+        <f t="shared" si="80"/>
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="Q108" s="26">
+        <f t="shared" si="81"/>
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="R108" s="26">
+        <f t="shared" si="82"/>
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="S108" s="59">
         <f t="shared" si="83"/>
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="Q108" s="26">
-        <f t="shared" si="84"/>
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="R108" s="26">
-        <f t="shared" si="85"/>
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="S108" s="59">
-        <f t="shared" si="86"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="T108" s="55">
@@ -30296,19 +30296,19 @@
         <v>4.9452075289575284</v>
       </c>
       <c r="W108" s="62">
-        <f t="shared" ref="W108:Z108" si="88">W94</f>
+        <f t="shared" ref="W108:Z108" si="85">W94</f>
         <v>4.9452075289575284</v>
       </c>
       <c r="X108" s="62">
-        <f t="shared" si="88"/>
+        <f t="shared" si="85"/>
         <v>4.9452075289575284</v>
       </c>
       <c r="Y108" s="62">
-        <f t="shared" si="88"/>
+        <f t="shared" si="85"/>
         <v>4.9452075289575284</v>
       </c>
       <c r="Z108" s="62">
-        <f t="shared" si="88"/>
+        <f t="shared" si="85"/>
         <v>0.12</v>
       </c>
       <c r="AA108" s="66"/>
@@ -30318,7 +30318,7 @@
       <c r="AE108" s="73"/>
       <c r="AF108" s="73"/>
       <c r="AG108" s="63">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH108" s="67"/>
@@ -30330,11 +30330,11 @@
       </c>
       <c r="AL108" s="109"/>
       <c r="AM108" s="108" t="str">
+        <f t="shared" si="67"/>
+        <v>R-SW_Det_HVO_N1</v>
+      </c>
+      <c r="AN108" s="108" t="str">
         <f t="shared" si="68"/>
-        <v>R-SW_Det_HVO_N1</v>
-      </c>
-      <c r="AN108" s="108" t="str">
-        <f t="shared" si="69"/>
         <v>Residential  Hydrotreated vegetable oil - New 1 SH + WH</v>
       </c>
       <c r="AO108" s="109" t="s">
@@ -30471,7 +30471,7 @@
       <c r="AE110" s="84"/>
       <c r="AF110" s="84"/>
       <c r="AG110" s="82">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH110" s="83"/>
@@ -30483,11 +30483,11 @@
       </c>
       <c r="AL110" s="104"/>
       <c r="AM110" s="103" t="str">
-        <f t="shared" ref="AM110:AM116" si="89">C112</f>
+        <f t="shared" ref="AM110:AM116" si="86">C112</f>
         <v>R-SH_Det_ELC_HPN1</v>
       </c>
       <c r="AN110" s="103" t="str">
-        <f t="shared" ref="AN110:AN116" si="90">D112</f>
+        <f t="shared" ref="AN110:AN116" si="87">D112</f>
         <v>Residential Electric Heat Pump - Air to Air - SH</v>
       </c>
       <c r="AO110" s="104" t="s">
@@ -30540,11 +30540,11 @@
       <c r="AJ111" s="34"/>
       <c r="AL111" s="106"/>
       <c r="AM111" s="105" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v>R-HC_Det_ELC_HPN1</v>
       </c>
       <c r="AN111" s="105" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="87"/>
         <v>Residential Electric Heat Pump - Air to Air - SH + SC</v>
       </c>
       <c r="AO111" s="106" t="s">
@@ -30626,7 +30626,7 @@
       <c r="AE112" s="85"/>
       <c r="AF112" s="85"/>
       <c r="AG112" s="85">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AH112" s="88"/>
@@ -30638,11 +30638,11 @@
       </c>
       <c r="AL112" s="106"/>
       <c r="AM112" s="105" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v>R-SH_Det_ELC_HPN2</v>
       </c>
       <c r="AN112" s="105" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="87"/>
         <v>Residential Electric Heat Pump - Air to Water - SH</v>
       </c>
       <c r="AO112" s="106" t="s">
@@ -30732,7 +30732,7 @@
       <c r="AE113" s="63"/>
       <c r="AF113" s="63"/>
       <c r="AG113" s="63">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH113" s="66"/>
@@ -30744,11 +30744,11 @@
       </c>
       <c r="AL113" s="106"/>
       <c r="AM113" s="105" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v>R-SW_Det_ELC_HPN1</v>
       </c>
       <c r="AN113" s="105" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="87"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH</v>
       </c>
       <c r="AO113" s="106" t="s">
@@ -30828,7 +30828,7 @@
       <c r="AE114" s="62"/>
       <c r="AF114" s="62"/>
       <c r="AG114" s="62">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AH114" s="65"/>
@@ -30840,11 +30840,11 @@
       </c>
       <c r="AL114" s="213"/>
       <c r="AM114" s="105" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v>R-SW_Det_ELC_HPN2</v>
       </c>
       <c r="AN114" s="105" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="87"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar</v>
       </c>
       <c r="AO114" s="106" t="s">
@@ -30896,15 +30896,15 @@
         <v>0.7</v>
       </c>
       <c r="Q115" s="23">
-        <f t="shared" ref="Q115:Q116" si="91">I115*0.7</f>
+        <f t="shared" ref="Q115:Q116" si="88">I115*0.7</f>
         <v>0.76999999999999991</v>
       </c>
       <c r="R115" s="23">
-        <f t="shared" ref="R115:R116" si="92">J115*0.7</f>
+        <f t="shared" ref="R115:R116" si="89">J115*0.7</f>
         <v>0.86333333333333329</v>
       </c>
       <c r="S115" s="57">
-        <f t="shared" ref="S115:S116" si="93">K115*0.7</f>
+        <f t="shared" ref="S115:S116" si="90">K115*0.7</f>
         <v>0.93333333333333324</v>
       </c>
       <c r="T115" s="53">
@@ -30916,15 +30916,15 @@
         <v>9.9300970464135023</v>
       </c>
       <c r="W115" s="384">
-        <f t="shared" ref="W115" si="94">W114*($U$150/$U$149)</f>
+        <f t="shared" ref="W115" si="91">W114*($U$150/$U$149)</f>
         <v>9.0363883122362889</v>
       </c>
       <c r="X115" s="384">
-        <f t="shared" ref="X115" si="95">X114*($U$150/$U$149)</f>
+        <f t="shared" ref="X115" si="92">X114*($U$150/$U$149)</f>
         <v>8.2231133641350223</v>
       </c>
       <c r="Y115" s="384">
-        <f t="shared" ref="Y115" si="96">Y114*($U$150/$U$149)</f>
+        <f t="shared" ref="Y115" si="93">Y114*($U$150/$U$149)</f>
         <v>8.1426795780590719</v>
       </c>
       <c r="Z115" s="384">
@@ -30937,7 +30937,7 @@
       <c r="AE115" s="63"/>
       <c r="AF115" s="63"/>
       <c r="AG115" s="63">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH115" s="66"/>
@@ -30949,11 +30949,11 @@
       </c>
       <c r="AL115" s="213"/>
       <c r="AM115" s="105" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v>R-SH_Det_ELC_HPN3</v>
       </c>
       <c r="AN115" s="105" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="87"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH</v>
       </c>
       <c r="AO115" s="106" t="s">
@@ -31005,15 +31005,15 @@
         <v>0.7</v>
       </c>
       <c r="Q116" s="29">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v>0.77700000000000002</v>
       </c>
       <c r="R116" s="29">
-        <f t="shared" si="92"/>
+        <f t="shared" si="89"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="S116" s="58">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="T116" s="54">
@@ -31051,7 +31051,7 @@
         <v>5</v>
       </c>
       <c r="AG116" s="62">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH116" s="65"/>
@@ -31063,11 +31063,11 @@
       </c>
       <c r="AL116" s="112"/>
       <c r="AM116" s="108" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v>R-HC_Det_ELC_HPN2</v>
       </c>
       <c r="AN116" s="108" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="87"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC</v>
       </c>
       <c r="AO116" s="109" t="s">
@@ -31149,7 +31149,7 @@
       <c r="AE117" s="63"/>
       <c r="AF117" s="63"/>
       <c r="AG117" s="63">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AH117" s="66"/>
@@ -31255,7 +31255,7 @@
       <c r="AE118" s="86"/>
       <c r="AF118" s="86"/>
       <c r="AG118" s="86">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH118" s="91"/>
@@ -31384,15 +31384,15 @@
         <v>1.1666666666666667</v>
       </c>
       <c r="Q120" s="20">
-        <f t="shared" ref="Q120:Q121" si="97">I120*0.7</f>
+        <f t="shared" ref="Q120:Q121" si="94">I120*0.7</f>
         <v>1.2530864197530862</v>
       </c>
       <c r="R120" s="20">
-        <f t="shared" ref="R120:R121" si="98">J120*0.7</f>
+        <f t="shared" ref="R120:R121" si="95">J120*0.7</f>
         <v>1.4691358024691357</v>
       </c>
       <c r="S120" s="56">
-        <f t="shared" ref="S120:S121" si="99">K120*0.7</f>
+        <f t="shared" ref="S120:S121" si="96">K120*0.7</f>
         <v>1.4691358024691357</v>
       </c>
       <c r="T120" s="89">
@@ -31426,7 +31426,7 @@
       <c r="AE120" s="85"/>
       <c r="AF120" s="85"/>
       <c r="AG120" s="85">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH120" s="88"/>
@@ -31498,15 +31498,15 @@
         <v>1.1666666666666665</v>
       </c>
       <c r="Q121" s="26">
-        <f t="shared" si="97"/>
+        <f t="shared" si="94"/>
         <v>1.2055555555555555</v>
       </c>
       <c r="R121" s="26">
-        <f t="shared" si="98"/>
+        <f t="shared" si="95"/>
         <v>1.2055555555555555</v>
       </c>
       <c r="S121" s="59">
-        <f t="shared" si="99"/>
+        <f t="shared" si="96"/>
         <v>1.2444444444444445</v>
       </c>
       <c r="T121" s="27">
@@ -31540,7 +31540,7 @@
       <c r="AE121" s="64"/>
       <c r="AF121" s="64"/>
       <c r="AG121" s="64">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH121" s="67"/>
@@ -31609,11 +31609,11 @@
       <c r="AJ122" s="34"/>
       <c r="AL122" s="216"/>
       <c r="AM122" s="103" t="str">
-        <f t="shared" ref="AM122:AM123" si="100">C128</f>
+        <f t="shared" ref="AM122:AM123" si="97">C128</f>
         <v>R-WH_Det_ELC_N1</v>
       </c>
       <c r="AN122" s="103" t="str">
-        <f t="shared" ref="AN122:AN123" si="101">D128</f>
+        <f t="shared" ref="AN122:AN123" si="98">D128</f>
         <v xml:space="preserve">Residential Electric Water Heater </v>
       </c>
       <c r="AO122" s="104" t="s">
@@ -31669,15 +31669,15 @@
         <v>2.2889999999999997</v>
       </c>
       <c r="Q123" s="26">
-        <f t="shared" ref="Q123" si="102">I123*0.7</f>
+        <f t="shared" ref="Q123" si="99">I123*0.7</f>
         <v>2.5409999999999995</v>
       </c>
       <c r="R123" s="26">
-        <f t="shared" ref="R123" si="103">J123*0.7</f>
+        <f t="shared" ref="R123" si="100">J123*0.7</f>
         <v>2.7299999999999995</v>
       </c>
       <c r="S123" s="59">
-        <f t="shared" ref="S123" si="104">K123*0.7</f>
+        <f t="shared" ref="S123" si="101">K123*0.7</f>
         <v>2.7299999999999995</v>
       </c>
       <c r="T123" s="3">
@@ -31688,15 +31688,15 @@
         <v>10.987282270335434</v>
       </c>
       <c r="W123" s="79">
-        <f t="shared" ref="W123:Y123" si="105">(W115+W98)*0.8</f>
+        <f t="shared" ref="W123:Y123" si="102">(W115+W98)*0.8</f>
         <v>10.272315282993665</v>
       </c>
       <c r="X123" s="79">
-        <f t="shared" si="105"/>
+        <f t="shared" si="102"/>
         <v>9.6216953245126504</v>
       </c>
       <c r="Y123" s="79">
-        <f t="shared" si="105"/>
+        <f t="shared" si="102"/>
         <v>9.5573482956518898</v>
       </c>
       <c r="Z123" s="375">
@@ -31717,7 +31717,7 @@
         <v>5</v>
       </c>
       <c r="AG123" s="82">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>0.62441279999999999</v>
       </c>
       <c r="AH123" s="83"/>
@@ -31730,11 +31730,11 @@
       </c>
       <c r="AL123" s="2"/>
       <c r="AM123" s="105" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="97"/>
         <v>R-WH_Det_SOL_N1</v>
       </c>
       <c r="AN123" s="105" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="98"/>
         <v xml:space="preserve">Residential Solar Water Heater </v>
       </c>
       <c r="AO123" s="106" t="s">
@@ -31879,7 +31879,7 @@
       <c r="AE125" s="85"/>
       <c r="AF125" s="85"/>
       <c r="AG125" s="85">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH125" s="88"/>
@@ -31964,7 +31964,7 @@
       <c r="AE126" s="64"/>
       <c r="AF126" s="64"/>
       <c r="AG126" s="64">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH126" s="67"/>
@@ -32079,7 +32079,7 @@
       <c r="AE128" s="85"/>
       <c r="AF128" s="85"/>
       <c r="AG128" s="85">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>0.25228800000000001</v>
       </c>
       <c r="AH128" s="88"/>
@@ -32158,7 +32158,7 @@
       <c r="AE129" s="63"/>
       <c r="AF129" s="63"/>
       <c r="AG129" s="63">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>0.25228800000000001</v>
       </c>
       <c r="AH129" s="67"/>
@@ -32273,7 +32273,7 @@
       <c r="AE131" s="93"/>
       <c r="AF131" s="93"/>
       <c r="AG131" s="93">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>0.25228800000000001</v>
       </c>
       <c r="AH131" s="92"/>
@@ -32354,7 +32354,7 @@
         <v>3</v>
       </c>
       <c r="U145" s="381">
-        <f t="shared" ref="U145:U154" si="106">V145/$V$153</f>
+        <f t="shared" ref="U145:U154" si="103">V145/$V$153</f>
         <v>0.72929037751472525</v>
       </c>
       <c r="V145" s="382">
@@ -32368,7 +32368,7 @@
         <v>5</v>
       </c>
       <c r="U146" s="381">
-        <f t="shared" si="106"/>
+        <f t="shared" si="103"/>
         <v>0.79101166159768732</v>
       </c>
       <c r="V146" s="382">
@@ -32381,7 +32381,7 @@
         <v>8</v>
       </c>
       <c r="U147" s="381">
-        <f t="shared" si="106"/>
+        <f t="shared" si="103"/>
         <v>0.85077698714062355</v>
       </c>
       <c r="V147" s="382">
@@ -32395,7 +32395,7 @@
         <v>10</v>
       </c>
       <c r="U148" s="381">
-        <f t="shared" si="106"/>
+        <f t="shared" si="103"/>
         <v>0.86872586872586877</v>
       </c>
       <c r="V148" s="380">
@@ -32416,7 +32416,7 @@
         <v>15</v>
       </c>
       <c r="U149" s="371">
-        <f t="shared" si="106"/>
+        <f t="shared" si="103"/>
         <v>0.91505791505791501</v>
       </c>
       <c r="V149" s="3">
@@ -32443,7 +32443,7 @@
         <v>18</v>
       </c>
       <c r="U150" s="371">
-        <f t="shared" si="106"/>
+        <f t="shared" si="103"/>
         <v>0.92277992277992282</v>
       </c>
       <c r="V150" s="3">
@@ -32472,7 +32472,7 @@
         <v>20</v>
       </c>
       <c r="U151" s="381">
-        <f t="shared" si="106"/>
+        <f t="shared" si="103"/>
         <v>0.93436293436293438</v>
       </c>
       <c r="V151" s="380">
@@ -32502,7 +32502,7 @@
         <v>24</v>
       </c>
       <c r="U152" s="371">
-        <f t="shared" si="106"/>
+        <f t="shared" si="103"/>
         <v>0.94594594594594594</v>
       </c>
       <c r="V152" s="3">
@@ -32531,7 +32531,7 @@
         <v>30</v>
       </c>
       <c r="U153" s="371">
-        <f t="shared" si="106"/>
+        <f t="shared" si="103"/>
         <v>1</v>
       </c>
       <c r="V153" s="3">
@@ -32560,7 +32560,7 @@
         <v>35</v>
       </c>
       <c r="U154" s="371">
-        <f t="shared" si="106"/>
+        <f t="shared" si="103"/>
         <v>1.0791505791505791</v>
       </c>
       <c r="V154" s="3">
@@ -32605,6 +32605,26 @@
     <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:O92"/>
+    <mergeCell ref="P92:S92"/>
+    <mergeCell ref="T92:U92"/>
+    <mergeCell ref="V92:Y92"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:O90"/>
+    <mergeCell ref="P90:S90"/>
+    <mergeCell ref="T90:U90"/>
+    <mergeCell ref="V90:Y90"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:Y44"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:Y42"/>
     <mergeCell ref="V4:Y4"/>
     <mergeCell ref="V6:Y6"/>
     <mergeCell ref="H4:K4"/>
@@ -32615,26 +32635,6 @@
     <mergeCell ref="P6:S6"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="P42:S42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="V42:Y42"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:Y44"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="L90:O90"/>
-    <mergeCell ref="P90:S90"/>
-    <mergeCell ref="T90:U90"/>
-    <mergeCell ref="V90:Y90"/>
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="L92:O92"/>
-    <mergeCell ref="P92:S92"/>
-    <mergeCell ref="T92:U92"/>
-    <mergeCell ref="V92:Y92"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -32780,12 +32780,12 @@
       <c r="I5" s="127"/>
       <c r="J5" s="127"/>
       <c r="K5" s="127"/>
-      <c r="L5" s="540" t="s">
+      <c r="L5" s="531" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="541"/>
-      <c r="N5" s="541"/>
-      <c r="O5" s="542"/>
+      <c r="M5" s="532"/>
+      <c r="N5" s="532"/>
+      <c r="O5" s="533"/>
       <c r="P5" s="60"/>
       <c r="Q5" s="60" t="s">
         <v>87</v>
@@ -32816,12 +32816,12 @@
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
       <c r="K6" s="37"/>
-      <c r="L6" s="534" t="s">
+      <c r="L6" s="540" t="s">
         <v>541</v>
       </c>
-      <c r="M6" s="536"/>
-      <c r="N6" s="536"/>
-      <c r="O6" s="535"/>
+      <c r="M6" s="542"/>
+      <c r="N6" s="542"/>
+      <c r="O6" s="541"/>
       <c r="P6" s="377" t="s">
         <v>553</v>
       </c>
@@ -33707,23 +33707,23 @@
       <c r="K33" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L33" s="540" t="s">
+      <c r="L33" s="531" t="s">
         <v>86</v>
       </c>
-      <c r="M33" s="541"/>
-      <c r="N33" s="541"/>
-      <c r="O33" s="542"/>
+      <c r="M33" s="532"/>
+      <c r="N33" s="532"/>
+      <c r="O33" s="533"/>
     </row>
     <row r="34" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H34" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L34" s="534" t="s">
+      <c r="L34" s="540" t="s">
         <v>91</v>
       </c>
-      <c r="M34" s="536"/>
-      <c r="N34" s="536"/>
-      <c r="O34" s="535"/>
+      <c r="M34" s="542"/>
+      <c r="N34" s="542"/>
+      <c r="O34" s="541"/>
     </row>
     <row r="35" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H35" s="3" t="s">
@@ -34070,11 +34070,11 @@
       </c>
       <c r="I4" s="538"/>
       <c r="J4" s="539"/>
-      <c r="K4" s="540" t="s">
+      <c r="K4" s="531" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="541"/>
-      <c r="M4" s="542"/>
+      <c r="L4" s="532"/>
+      <c r="M4" s="533"/>
       <c r="N4" s="60"/>
       <c r="O4" s="60" t="s">
         <v>87</v>
@@ -34100,16 +34100,16 @@
       <c r="G5" s="385" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="546" t="s">
+      <c r="H5" s="543" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="547"/>
-      <c r="J5" s="548"/>
-      <c r="K5" s="546" t="s">
+      <c r="I5" s="544"/>
+      <c r="J5" s="545"/>
+      <c r="K5" s="543" t="s">
         <v>330</v>
       </c>
-      <c r="L5" s="547"/>
-      <c r="M5" s="548"/>
+      <c r="L5" s="544"/>
+      <c r="M5" s="545"/>
       <c r="N5" s="386" t="s">
         <v>92</v>
       </c>
@@ -34126,23 +34126,23 @@
         <v>218</v>
       </c>
       <c r="AA5" s="208"/>
-      <c r="AB5" s="543" t="s">
+      <c r="AB5" s="546" t="s">
         <v>583</v>
       </c>
-      <c r="AC5" s="543"/>
+      <c r="AC5" s="546"/>
       <c r="AD5" s="388"/>
-      <c r="AE5" s="544" t="s">
+      <c r="AE5" s="547" t="s">
         <v>65</v>
       </c>
-      <c r="AF5" s="544"/>
-      <c r="AG5" s="544" t="s">
+      <c r="AF5" s="547"/>
+      <c r="AG5" s="547" t="s">
         <v>584</v>
       </c>
-      <c r="AH5" s="544"/>
-      <c r="AI5" s="545" t="s">
+      <c r="AH5" s="547"/>
+      <c r="AI5" s="548" t="s">
         <v>585</v>
       </c>
-      <c r="AJ5" s="545"/>
+      <c r="AJ5" s="548"/>
     </row>
     <row r="6" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C6" s="432" t="str">
@@ -34880,12 +34880,12 @@
       <c r="K27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L27" s="540" t="s">
+      <c r="L27" s="531" t="s">
         <v>86</v>
       </c>
-      <c r="M27" s="541"/>
-      <c r="N27" s="541"/>
-      <c r="O27" s="542"/>
+      <c r="M27" s="532"/>
+      <c r="N27" s="532"/>
+      <c r="O27" s="533"/>
       <c r="T27" s="210"/>
       <c r="U27" s="210"/>
     </row>
@@ -34893,12 +34893,12 @@
       <c r="J28" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L28" s="531" t="s">
+      <c r="L28" s="534" t="s">
         <v>91</v>
       </c>
-      <c r="M28" s="532"/>
-      <c r="N28" s="532"/>
-      <c r="O28" s="533"/>
+      <c r="M28" s="535"/>
+      <c r="N28" s="535"/>
+      <c r="O28" s="536"/>
       <c r="T28" s="210"/>
       <c r="U28" s="210"/>
     </row>
@@ -36288,16 +36288,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="L27:O27"/>
     <mergeCell ref="L28:O28"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="K5:M5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="L27:O27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S7" r:id="rId1" xr:uid="{B1EDD63D-40A5-4174-9D28-8666BD314B83}"/>
@@ -36728,103 +36728,103 @@
       <c r="C4" s="283" t="s">
         <v>339</v>
       </c>
-      <c r="D4" s="550" t="s">
+      <c r="D4" s="549" t="s">
         <v>340</v>
       </c>
-      <c r="E4" s="549"/>
-      <c r="F4" s="549"/>
-      <c r="G4" s="549"/>
+      <c r="E4" s="550"/>
+      <c r="F4" s="550"/>
+      <c r="G4" s="550"/>
       <c r="H4" s="551"/>
-      <c r="I4" s="549" t="s">
+      <c r="I4" s="550" t="s">
         <v>341</v>
       </c>
-      <c r="J4" s="549"/>
-      <c r="K4" s="549"/>
-      <c r="L4" s="549"/>
+      <c r="J4" s="550"/>
+      <c r="K4" s="550"/>
+      <c r="L4" s="550"/>
       <c r="M4" s="551"/>
-      <c r="N4" s="549" t="s">
+      <c r="N4" s="550" t="s">
         <v>342</v>
       </c>
-      <c r="O4" s="549"/>
-      <c r="P4" s="549"/>
-      <c r="Q4" s="549"/>
+      <c r="O4" s="550"/>
+      <c r="P4" s="550"/>
+      <c r="Q4" s="550"/>
       <c r="R4" s="551"/>
-      <c r="S4" s="549" t="s">
+      <c r="S4" s="550" t="s">
         <v>343</v>
       </c>
-      <c r="T4" s="549"/>
-      <c r="U4" s="549"/>
-      <c r="V4" s="549"/>
+      <c r="T4" s="550"/>
+      <c r="U4" s="550"/>
+      <c r="V4" s="550"/>
       <c r="W4" s="551"/>
-      <c r="X4" s="549" t="s">
+      <c r="X4" s="550" t="s">
         <v>344</v>
       </c>
-      <c r="Y4" s="549"/>
-      <c r="Z4" s="549"/>
-      <c r="AA4" s="549"/>
+      <c r="Y4" s="550"/>
+      <c r="Z4" s="550"/>
+      <c r="AA4" s="550"/>
       <c r="AB4" s="551"/>
-      <c r="AC4" s="549" t="s">
+      <c r="AC4" s="550" t="s">
         <v>345</v>
       </c>
-      <c r="AD4" s="549"/>
-      <c r="AE4" s="549"/>
-      <c r="AF4" s="549"/>
+      <c r="AD4" s="550"/>
+      <c r="AE4" s="550"/>
+      <c r="AF4" s="550"/>
       <c r="AG4" s="551"/>
-      <c r="AH4" s="549" t="s">
+      <c r="AH4" s="550" t="s">
         <v>346</v>
       </c>
-      <c r="AI4" s="549"/>
-      <c r="AJ4" s="549"/>
-      <c r="AK4" s="549"/>
+      <c r="AI4" s="550"/>
+      <c r="AJ4" s="550"/>
+      <c r="AK4" s="550"/>
       <c r="AL4" s="551"/>
-      <c r="AM4" s="549" t="s">
+      <c r="AM4" s="550" t="s">
         <v>347</v>
       </c>
-      <c r="AN4" s="549"/>
-      <c r="AO4" s="549"/>
-      <c r="AP4" s="549"/>
+      <c r="AN4" s="550"/>
+      <c r="AO4" s="550"/>
+      <c r="AP4" s="550"/>
       <c r="AQ4" s="551"/>
-      <c r="AR4" s="549" t="s">
+      <c r="AR4" s="550" t="s">
         <v>348</v>
       </c>
-      <c r="AS4" s="549"/>
-      <c r="AT4" s="549"/>
-      <c r="AU4" s="549"/>
+      <c r="AS4" s="550"/>
+      <c r="AT4" s="550"/>
+      <c r="AU4" s="550"/>
       <c r="AV4" s="551"/>
-      <c r="AW4" s="549" t="s">
+      <c r="AW4" s="550" t="s">
         <v>349</v>
       </c>
-      <c r="AX4" s="549"/>
-      <c r="AY4" s="549"/>
-      <c r="AZ4" s="549"/>
-      <c r="BA4" s="549"/>
-      <c r="BB4" s="550" t="s">
+      <c r="AX4" s="550"/>
+      <c r="AY4" s="550"/>
+      <c r="AZ4" s="550"/>
+      <c r="BA4" s="550"/>
+      <c r="BB4" s="549" t="s">
         <v>350</v>
       </c>
-      <c r="BC4" s="549"/>
-      <c r="BD4" s="549"/>
-      <c r="BE4" s="549"/>
+      <c r="BC4" s="550"/>
+      <c r="BD4" s="550"/>
+      <c r="BE4" s="550"/>
       <c r="BF4" s="551"/>
-      <c r="BG4" s="549" t="s">
+      <c r="BG4" s="550" t="s">
         <v>351</v>
       </c>
-      <c r="BH4" s="549"/>
-      <c r="BI4" s="549"/>
-      <c r="BJ4" s="549"/>
-      <c r="BK4" s="549"/>
-      <c r="BL4" s="550" t="s">
+      <c r="BH4" s="550"/>
+      <c r="BI4" s="550"/>
+      <c r="BJ4" s="550"/>
+      <c r="BK4" s="550"/>
+      <c r="BL4" s="549" t="s">
         <v>352</v>
       </c>
-      <c r="BM4" s="549"/>
-      <c r="BN4" s="549"/>
-      <c r="BO4" s="549"/>
-      <c r="BP4" s="549"/>
-      <c r="BQ4" s="550" t="s">
+      <c r="BM4" s="550"/>
+      <c r="BN4" s="550"/>
+      <c r="BO4" s="550"/>
+      <c r="BP4" s="550"/>
+      <c r="BQ4" s="549" t="s">
         <v>353</v>
       </c>
-      <c r="BR4" s="549"/>
-      <c r="BS4" s="549"/>
-      <c r="BT4" s="549"/>
+      <c r="BR4" s="550"/>
+      <c r="BS4" s="550"/>
+      <c r="BT4" s="550"/>
       <c r="BU4" s="551"/>
       <c r="BV4" s="284" t="s">
         <v>354</v>
@@ -50418,11 +50418,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="BL4:BP4"/>
-    <mergeCell ref="BQ4:BU4"/>
-    <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="CB4:CF4"/>
-    <mergeCell ref="CG4:CK4"/>
     <mergeCell ref="BG4:BK4"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
@@ -50435,6 +50430,11 @@
     <mergeCell ref="AR4:AV4"/>
     <mergeCell ref="AW4:BA4"/>
     <mergeCell ref="BB4:BF4"/>
+    <mergeCell ref="BL4:BP4"/>
+    <mergeCell ref="BQ4:BU4"/>
+    <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="CB4:CF4"/>
+    <mergeCell ref="CG4:CK4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -50457,23 +50457,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="558" t="s">
+      <c r="A1" s="556" t="s">
         <v>627</v>
       </c>
-      <c r="B1" s="560" t="s">
+      <c r="B1" s="558" t="s">
         <v>628</v>
       </c>
-      <c r="C1" s="561"/>
-      <c r="D1" s="561"/>
-      <c r="E1" s="561"/>
-      <c r="F1" s="562"/>
-      <c r="G1" s="560" t="s">
+      <c r="C1" s="559"/>
+      <c r="D1" s="559"/>
+      <c r="E1" s="559"/>
+      <c r="F1" s="560"/>
+      <c r="G1" s="558" t="s">
         <v>629</v>
       </c>
-      <c r="H1" s="561"/>
-      <c r="I1" s="561"/>
-      <c r="J1" s="561"/>
-      <c r="K1" s="562"/>
+      <c r="H1" s="559"/>
+      <c r="I1" s="559"/>
+      <c r="J1" s="559"/>
+      <c r="K1" s="560"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -50483,7 +50483,7 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="559"/>
+      <c r="A2" s="557"/>
       <c r="B2" s="454" t="s">
         <v>276</v>
       </c>
@@ -51976,11 +51976,11 @@
       <c r="Y48" t="s">
         <v>678</v>
       </c>
-      <c r="Z48" s="556" t="s">
+      <c r="Z48" s="561" t="s">
         <v>616</v>
       </c>
-      <c r="AA48" s="557"/>
-      <c r="AB48" s="557"/>
+      <c r="AA48" s="562"/>
+      <c r="AB48" s="562"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
@@ -52197,11 +52197,11 @@
       <c r="Y53" t="s">
         <v>680</v>
       </c>
-      <c r="Z53" s="556" t="s">
+      <c r="Z53" s="561" t="s">
         <v>615</v>
       </c>
-      <c r="AA53" s="557"/>
-      <c r="AB53" s="557"/>
+      <c r="AA53" s="562"/>
+      <c r="AB53" s="562"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
@@ -52403,11 +52403,11 @@
       <c r="Y59" t="s">
         <v>681</v>
       </c>
-      <c r="Z59" s="556" t="s">
+      <c r="Z59" s="561" t="s">
         <v>682</v>
       </c>
-      <c r="AA59" s="557"/>
-      <c r="AB59" s="557"/>
+      <c r="AA59" s="562"/>
+      <c r="AB59" s="562"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="474" t="str">
@@ -53244,17 +53244,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="Z48:AB48"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="Z48:AB48"/>
   </mergeCells>
   <phoneticPr fontId="54" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF1B590-FBFB-47E1-9574-BC3A648E807A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD811A08-E54A-4C35-8A65-0CA638390DDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
   </bookViews>
@@ -8612,7 +8612,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2201" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="741">
   <si>
     <t>Document type:</t>
   </si>
@@ -13547,15 +13547,6 @@
     <xf numFmtId="0" fontId="37" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -13563,6 +13554,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13574,22 +13574,13 @@
     <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -13601,10 +13592,19 @@
     <xf numFmtId="0" fontId="53" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13622,6 +13622,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -13636,12 +13642,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -21173,8 +21173,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:AS166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="Y103" sqref="Y103"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AD29" sqref="AD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21364,12 +21364,12 @@
         <v>85</v>
       </c>
       <c r="U4" s="539"/>
-      <c r="V4" s="531" t="s">
+      <c r="V4" s="540" t="s">
         <v>86</v>
       </c>
-      <c r="W4" s="532"/>
-      <c r="X4" s="532"/>
-      <c r="Y4" s="533"/>
+      <c r="W4" s="541"/>
+      <c r="X4" s="541"/>
+      <c r="Y4" s="542"/>
       <c r="Z4" s="60"/>
       <c r="AA4" s="60"/>
       <c r="AB4" s="68" t="s">
@@ -21472,34 +21472,34 @@
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
       <c r="G6" s="39"/>
-      <c r="H6" s="534" t="s">
+      <c r="H6" s="531" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="535"/>
-      <c r="J6" s="535"/>
-      <c r="K6" s="536"/>
-      <c r="L6" s="535" t="s">
+      <c r="I6" s="532"/>
+      <c r="J6" s="532"/>
+      <c r="K6" s="533"/>
+      <c r="L6" s="532" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="535"/>
-      <c r="N6" s="535"/>
-      <c r="O6" s="536"/>
-      <c r="P6" s="534" t="s">
+      <c r="M6" s="532"/>
+      <c r="N6" s="532"/>
+      <c r="O6" s="533"/>
+      <c r="P6" s="531" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="535"/>
-      <c r="R6" s="535"/>
-      <c r="S6" s="536"/>
-      <c r="T6" s="534" t="s">
+      <c r="Q6" s="532"/>
+      <c r="R6" s="532"/>
+      <c r="S6" s="533"/>
+      <c r="T6" s="531" t="s">
         <v>68</v>
       </c>
-      <c r="U6" s="536"/>
-      <c r="V6" s="534" t="s">
+      <c r="U6" s="533"/>
+      <c r="V6" s="531" t="s">
         <v>541</v>
       </c>
-      <c r="W6" s="535"/>
-      <c r="X6" s="535"/>
-      <c r="Y6" s="536"/>
+      <c r="W6" s="532"/>
+      <c r="X6" s="532"/>
+      <c r="Y6" s="533"/>
       <c r="Z6" s="61" t="s">
         <v>553</v>
       </c>
@@ -23582,19 +23582,19 @@
       </c>
       <c r="H28" s="383">
         <f>1*$AD$28+JRC_Data!AD18*(1.2-$AD$28)</f>
-        <v>3.2699999999999996</v>
+        <v>3.1549999999999998</v>
       </c>
       <c r="I28" s="383">
         <f>1*$AD$28+JRC_Data!AE18*(1.2-$AD$28)</f>
-        <v>3.6299999999999994</v>
+        <v>3.4950000000000001</v>
       </c>
       <c r="J28" s="383">
         <f>1*$AD$28+JRC_Data!AF18*(1.2-$AD$28)</f>
-        <v>3.8999999999999995</v>
+        <v>3.75</v>
       </c>
       <c r="K28" s="383">
         <f>1*$AD$28+JRC_Data!AG18*(1.2-$AD$28)</f>
-        <v>3.8999999999999995</v>
+        <v>3.75</v>
       </c>
       <c r="L28" s="49"/>
       <c r="M28" s="50"/>
@@ -23602,19 +23602,19 @@
       <c r="O28" s="51"/>
       <c r="P28" s="256">
         <f>H28*0.7</f>
-        <v>2.2889999999999997</v>
+        <v>2.2084999999999999</v>
       </c>
       <c r="Q28" s="26">
         <f>I28*0.7</f>
-        <v>2.5409999999999995</v>
+        <v>2.4464999999999999</v>
       </c>
       <c r="R28" s="26">
         <f t="shared" ref="R28:S28" si="23">J28*0.7</f>
-        <v>2.7299999999999995</v>
+        <v>2.625</v>
       </c>
       <c r="S28" s="59">
         <f t="shared" si="23"/>
-        <v>2.7299999999999995</v>
+        <v>2.625</v>
       </c>
       <c r="T28" s="260">
         <v>20</v>
@@ -23644,18 +23644,18 @@
       <c r="AB28" s="84"/>
       <c r="AC28" s="84"/>
       <c r="AD28" s="84">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="AE28" s="73">
         <f>AD28</f>
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="AF28" s="66">
         <v>5</v>
       </c>
       <c r="AG28" s="82">
         <f>31.536*(AJ28/1000)</f>
-        <v>0.30274559999999995</v>
+        <v>0.32166719999999999</v>
       </c>
       <c r="AH28" s="83"/>
       <c r="AI28" s="83">
@@ -23663,7 +23663,7 @@
       </c>
       <c r="AJ28" s="83">
         <f>AJ10*AD28+AJ21*(1-AD28)</f>
-        <v>9.5999999999999979</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AL28" s="2"/>
       <c r="AM28" s="105" t="str">
@@ -24499,7 +24499,9 @@
       <c r="AD41" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="AE41" s="17"/>
+      <c r="AE41" s="17" t="s">
+        <v>736</v>
+      </c>
       <c r="AF41" s="17" t="s">
         <v>254</v>
       </c>
@@ -24554,12 +24556,12 @@
         <v>85</v>
       </c>
       <c r="U42" s="539"/>
-      <c r="V42" s="531" t="s">
+      <c r="V42" s="540" t="s">
         <v>86</v>
       </c>
-      <c r="W42" s="532"/>
-      <c r="X42" s="532"/>
-      <c r="Y42" s="533"/>
+      <c r="W42" s="541"/>
+      <c r="X42" s="541"/>
+      <c r="Y42" s="542"/>
       <c r="Z42" s="60"/>
       <c r="AA42" s="60"/>
       <c r="AB42" s="68" t="s">
@@ -24571,7 +24573,9 @@
       <c r="AD42" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="AE42" s="71"/>
+      <c r="AE42" s="71" t="s">
+        <v>215</v>
+      </c>
       <c r="AF42" s="71" t="s">
         <v>253</v>
       </c>
@@ -24660,34 +24664,34 @@
       <c r="E44" s="38"/>
       <c r="F44" s="38"/>
       <c r="G44" s="39"/>
-      <c r="H44" s="534" t="s">
+      <c r="H44" s="531" t="s">
         <v>34</v>
       </c>
-      <c r="I44" s="535"/>
-      <c r="J44" s="535"/>
-      <c r="K44" s="536"/>
-      <c r="L44" s="535" t="s">
+      <c r="I44" s="532"/>
+      <c r="J44" s="532"/>
+      <c r="K44" s="533"/>
+      <c r="L44" s="532" t="s">
         <v>34</v>
       </c>
-      <c r="M44" s="535"/>
-      <c r="N44" s="535"/>
-      <c r="O44" s="536"/>
-      <c r="P44" s="534" t="s">
+      <c r="M44" s="532"/>
+      <c r="N44" s="532"/>
+      <c r="O44" s="533"/>
+      <c r="P44" s="531" t="s">
         <v>34</v>
       </c>
-      <c r="Q44" s="535"/>
-      <c r="R44" s="535"/>
-      <c r="S44" s="536"/>
-      <c r="T44" s="540" t="s">
+      <c r="Q44" s="532"/>
+      <c r="R44" s="532"/>
+      <c r="S44" s="533"/>
+      <c r="T44" s="534" t="s">
         <v>68</v>
       </c>
-      <c r="U44" s="541"/>
-      <c r="V44" s="540" t="s">
+      <c r="U44" s="535"/>
+      <c r="V44" s="534" t="s">
         <v>541</v>
       </c>
-      <c r="W44" s="542"/>
-      <c r="X44" s="542"/>
-      <c r="Y44" s="541"/>
+      <c r="W44" s="536"/>
+      <c r="X44" s="536"/>
+      <c r="Y44" s="535"/>
       <c r="Z44" s="377" t="s">
         <v>553</v>
       </c>
@@ -25016,7 +25020,7 @@
       </c>
       <c r="AA47" s="65"/>
       <c r="AB47" s="42">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AC47" s="72"/>
       <c r="AD47" s="72"/>
@@ -25438,7 +25442,7 @@
       </c>
       <c r="AA51" s="65"/>
       <c r="AB51" s="42">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AC51" s="72"/>
       <c r="AD51" s="72"/>
@@ -27101,7 +27105,7 @@
       </c>
       <c r="AA68" s="62"/>
       <c r="AB68" s="72">
-        <v>0.1</v>
+        <v>0.66</v>
       </c>
       <c r="AC68" s="62"/>
       <c r="AD68" s="62"/>
@@ -27717,19 +27721,19 @@
       </c>
       <c r="H75" s="383">
         <f>1*$AD$28+JRC_Data!AD18*(1.2-$AD$28)</f>
-        <v>3.2699999999999996</v>
+        <v>3.1549999999999998</v>
       </c>
       <c r="I75" s="383">
         <f>1*$AD$28+JRC_Data!AE18*(1.2-$AD$28)</f>
-        <v>3.6299999999999994</v>
+        <v>3.4950000000000001</v>
       </c>
       <c r="J75" s="383">
         <f>1*$AD$28+JRC_Data!AF18*(1.2-$AD$28)</f>
-        <v>3.8999999999999995</v>
+        <v>3.75</v>
       </c>
       <c r="K75" s="383">
         <f>1*$AD$28+JRC_Data!AG18*(1.2-$AD$28)</f>
-        <v>3.8999999999999995</v>
+        <v>3.75</v>
       </c>
       <c r="L75" s="49"/>
       <c r="M75" s="50"/>
@@ -27737,19 +27741,19 @@
       <c r="O75" s="51"/>
       <c r="P75" s="256">
         <f>H75*0.7</f>
-        <v>2.2889999999999997</v>
+        <v>2.2084999999999999</v>
       </c>
       <c r="Q75" s="26">
         <f t="shared" ref="Q75" si="57">I75*0.7</f>
-        <v>2.5409999999999995</v>
+        <v>2.4464999999999999</v>
       </c>
       <c r="R75" s="26">
         <f t="shared" ref="R75" si="58">J75*0.7</f>
-        <v>2.7299999999999995</v>
+        <v>2.625</v>
       </c>
       <c r="S75" s="59">
         <f t="shared" ref="S75" si="59">K75*0.7</f>
-        <v>2.7299999999999995</v>
+        <v>2.625</v>
       </c>
       <c r="T75" s="3">
         <v>20</v>
@@ -27778,18 +27782,18 @@
       <c r="AB75" s="84"/>
       <c r="AC75" s="84"/>
       <c r="AD75" s="84">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="AE75" s="73">
         <f>AD75</f>
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="AF75" s="83">
         <v>5</v>
       </c>
       <c r="AG75" s="82">
         <f t="shared" si="29"/>
-        <v>0.42415920000000001</v>
+        <v>0.45017639999999998</v>
       </c>
       <c r="AH75" s="83"/>
       <c r="AI75" s="83">
@@ -27797,7 +27801,7 @@
       </c>
       <c r="AJ75" s="83">
         <f>AJ50*AD75+AJ68*(1-AD75)</f>
-        <v>13.45</v>
+        <v>14.275</v>
       </c>
       <c r="AL75" s="2"/>
       <c r="AM75" s="105" t="str">
@@ -28455,7 +28459,9 @@
       <c r="AD89" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="AE89" s="17"/>
+      <c r="AE89" s="17" t="s">
+        <v>736</v>
+      </c>
       <c r="AF89" s="17" t="s">
         <v>254</v>
       </c>
@@ -28510,12 +28516,12 @@
         <v>85</v>
       </c>
       <c r="U90" s="539"/>
-      <c r="V90" s="531" t="s">
+      <c r="V90" s="540" t="s">
         <v>86</v>
       </c>
-      <c r="W90" s="532"/>
-      <c r="X90" s="532"/>
-      <c r="Y90" s="533"/>
+      <c r="W90" s="541"/>
+      <c r="X90" s="541"/>
+      <c r="Y90" s="542"/>
       <c r="Z90" s="60"/>
       <c r="AA90" s="60"/>
       <c r="AB90" s="68" t="s">
@@ -28527,7 +28533,9 @@
       <c r="AD90" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="AE90" s="71"/>
+      <c r="AE90" s="71" t="s">
+        <v>215</v>
+      </c>
       <c r="AF90" s="71" t="s">
         <v>253</v>
       </c>
@@ -28616,34 +28624,34 @@
       <c r="E92" s="38"/>
       <c r="F92" s="38"/>
       <c r="G92" s="39"/>
-      <c r="H92" s="534" t="s">
+      <c r="H92" s="531" t="s">
         <v>34</v>
       </c>
-      <c r="I92" s="535"/>
-      <c r="J92" s="535"/>
-      <c r="K92" s="536"/>
-      <c r="L92" s="535" t="s">
+      <c r="I92" s="532"/>
+      <c r="J92" s="532"/>
+      <c r="K92" s="533"/>
+      <c r="L92" s="532" t="s">
         <v>34</v>
       </c>
-      <c r="M92" s="535"/>
-      <c r="N92" s="535"/>
-      <c r="O92" s="536"/>
-      <c r="P92" s="534" t="s">
+      <c r="M92" s="532"/>
+      <c r="N92" s="532"/>
+      <c r="O92" s="533"/>
+      <c r="P92" s="531" t="s">
         <v>34</v>
       </c>
-      <c r="Q92" s="535"/>
-      <c r="R92" s="535"/>
-      <c r="S92" s="536"/>
-      <c r="T92" s="540" t="s">
+      <c r="Q92" s="532"/>
+      <c r="R92" s="532"/>
+      <c r="S92" s="533"/>
+      <c r="T92" s="534" t="s">
         <v>68</v>
       </c>
-      <c r="U92" s="541"/>
-      <c r="V92" s="540" t="s">
+      <c r="U92" s="535"/>
+      <c r="V92" s="534" t="s">
         <v>541</v>
       </c>
-      <c r="W92" s="542"/>
-      <c r="X92" s="542"/>
-      <c r="Y92" s="541"/>
+      <c r="W92" s="536"/>
+      <c r="X92" s="536"/>
+      <c r="Y92" s="535"/>
       <c r="Z92" s="377" t="s">
         <v>553</v>
       </c>
@@ -28972,7 +28980,7 @@
       </c>
       <c r="AA95" s="65"/>
       <c r="AB95" s="42">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AC95" s="72"/>
       <c r="AD95" s="72"/>
@@ -29394,7 +29402,7 @@
       </c>
       <c r="AA99" s="65"/>
       <c r="AB99" s="42">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AC99" s="72"/>
       <c r="AD99" s="72"/>
@@ -29585,19 +29593,19 @@
       </c>
       <c r="U101" s="41"/>
       <c r="V101" s="383">
-        <f>V97+0.3</f>
+        <f t="shared" ref="V101:Y102" si="73">V97+0.3</f>
         <v>3.8249999999999997</v>
       </c>
       <c r="W101" s="383">
-        <f>W97+0.3</f>
+        <f t="shared" si="73"/>
         <v>3.8249999999999997</v>
       </c>
       <c r="X101" s="383">
-        <f>X97+0.3</f>
+        <f t="shared" si="73"/>
         <v>3.8249999999999997</v>
       </c>
       <c r="Y101" s="383">
-        <f>Y97+0.3</f>
+        <f t="shared" si="73"/>
         <v>3.8249999999999997</v>
       </c>
       <c r="Z101" s="383">
@@ -29677,15 +29685,15 @@
         <v>0.7</v>
       </c>
       <c r="Q102" s="23">
-        <f t="shared" ref="Q102" si="73">I102*0.7</f>
+        <f t="shared" ref="Q102" si="74">I102*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R102" s="23">
-        <f t="shared" ref="R102" si="74">J102*0.7</f>
+        <f t="shared" ref="R102" si="75">J102*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S102" s="57">
-        <f t="shared" ref="S102" si="75">K102*0.7</f>
+        <f t="shared" ref="S102" si="76">K102*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T102" s="53">
@@ -29693,19 +29701,19 @@
       </c>
       <c r="U102" s="25"/>
       <c r="V102" s="384">
-        <f>V98+0.3</f>
+        <f t="shared" si="73"/>
         <v>4.1040057915057915</v>
       </c>
       <c r="W102" s="384">
-        <f>W98+0.3</f>
+        <f t="shared" si="73"/>
         <v>4.1040057915057915</v>
       </c>
       <c r="X102" s="384">
-        <f>X98+0.3</f>
+        <f t="shared" si="73"/>
         <v>4.1040057915057915</v>
       </c>
       <c r="Y102" s="384">
-        <f>Y98+0.3</f>
+        <f t="shared" si="73"/>
         <v>4.1040057915057915</v>
       </c>
       <c r="Z102" s="383">
@@ -29875,19 +29883,19 @@
       <c r="N104" s="32"/>
       <c r="O104" s="45"/>
       <c r="P104" s="22">
-        <f t="shared" ref="P104:S104" si="76">H104*0.7</f>
+        <f t="shared" ref="P104:S104" si="77">H104*0.7</f>
         <v>0.7</v>
       </c>
       <c r="Q104" s="23">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.7</v>
       </c>
       <c r="R104" s="23">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.7</v>
       </c>
       <c r="S104" s="57">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.7</v>
       </c>
       <c r="T104" s="53">
@@ -29899,15 +29907,15 @@
         <v>22.778925619834713</v>
       </c>
       <c r="W104" s="384">
-        <f t="shared" ref="W104" si="77">W103*($U$152/$U$151)</f>
+        <f t="shared" ref="W104" si="78">W103*($U$152/$U$151)</f>
         <v>22.04476084710744</v>
       </c>
       <c r="X104" s="384">
-        <f t="shared" ref="X104" si="78">X103*($U$152/$U$151)</f>
+        <f t="shared" ref="X104" si="79">X103*($U$152/$U$151)</f>
         <v>20.839163429752066</v>
       </c>
       <c r="Y104" s="384">
-        <f t="shared" ref="Y104" si="79">Y103*($U$152/$U$151)</f>
+        <f t="shared" ref="Y104" si="80">Y103*($U$152/$U$151)</f>
         <v>18.635439049586779</v>
       </c>
       <c r="Z104" s="384">
@@ -30074,19 +30082,19 @@
       <c r="N106" s="32"/>
       <c r="O106" s="45"/>
       <c r="P106" s="22">
-        <f t="shared" ref="P106:P108" si="80">H106*0.7</f>
+        <f t="shared" ref="P106:P108" si="81">H106*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="Q106" s="23">
-        <f t="shared" ref="Q106:Q108" si="81">I106*0.7</f>
+        <f t="shared" ref="Q106:Q108" si="82">I106*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="R106" s="23">
-        <f t="shared" ref="R106:R108" si="82">J106*0.7</f>
+        <f t="shared" ref="R106:R108" si="83">J106*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="S106" s="57">
-        <f t="shared" ref="S106:S108" si="83">K106*0.7</f>
+        <f t="shared" ref="S106:S108" si="84">K106*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="T106" s="53">
@@ -30189,19 +30197,19 @@
         <v>4.5825000000000005</v>
       </c>
       <c r="W107" s="62">
-        <f t="shared" ref="W107:Z107" si="84">W93</f>
+        <f t="shared" ref="W107:Z107" si="85">W93</f>
         <v>4.5825000000000005</v>
       </c>
       <c r="X107" s="62">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>4.5825000000000005</v>
       </c>
       <c r="Y107" s="62">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>4.5825000000000005</v>
       </c>
       <c r="Z107" s="62">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.12</v>
       </c>
       <c r="AA107" s="65"/>
@@ -30272,19 +30280,19 @@
       <c r="N108" s="50"/>
       <c r="O108" s="51"/>
       <c r="P108" s="256">
-        <f t="shared" si="80"/>
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="Q108" s="26">
         <f t="shared" si="81"/>
         <v>0.57399999999999995</v>
       </c>
-      <c r="R108" s="26">
+      <c r="Q108" s="26">
         <f t="shared" si="82"/>
         <v>0.57399999999999995</v>
       </c>
+      <c r="R108" s="26">
+        <f t="shared" si="83"/>
+        <v>0.57399999999999995</v>
+      </c>
       <c r="S108" s="59">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="T108" s="55">
@@ -30296,19 +30304,19 @@
         <v>4.9452075289575284</v>
       </c>
       <c r="W108" s="62">
-        <f t="shared" ref="W108:Z108" si="85">W94</f>
+        <f t="shared" ref="W108:Z108" si="86">W94</f>
         <v>4.9452075289575284</v>
       </c>
       <c r="X108" s="62">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>4.9452075289575284</v>
       </c>
       <c r="Y108" s="62">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>4.9452075289575284</v>
       </c>
       <c r="Z108" s="62">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0.12</v>
       </c>
       <c r="AA108" s="66"/>
@@ -30483,11 +30491,11 @@
       </c>
       <c r="AL110" s="104"/>
       <c r="AM110" s="103" t="str">
-        <f t="shared" ref="AM110:AM116" si="86">C112</f>
+        <f t="shared" ref="AM110:AM116" si="87">C112</f>
         <v>R-SH_Det_ELC_HPN1</v>
       </c>
       <c r="AN110" s="103" t="str">
-        <f t="shared" ref="AN110:AN116" si="87">D112</f>
+        <f t="shared" ref="AN110:AN116" si="88">D112</f>
         <v>Residential Electric Heat Pump - Air to Air - SH</v>
       </c>
       <c r="AO110" s="104" t="s">
@@ -30540,11 +30548,11 @@
       <c r="AJ111" s="34"/>
       <c r="AL111" s="106"/>
       <c r="AM111" s="105" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>R-HC_Det_ELC_HPN1</v>
       </c>
       <c r="AN111" s="105" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>Residential Electric Heat Pump - Air to Air - SH + SC</v>
       </c>
       <c r="AO111" s="106" t="s">
@@ -30638,11 +30646,11 @@
       </c>
       <c r="AL112" s="106"/>
       <c r="AM112" s="105" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>R-SH_Det_ELC_HPN2</v>
       </c>
       <c r="AN112" s="105" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>Residential Electric Heat Pump - Air to Water - SH</v>
       </c>
       <c r="AO112" s="106" t="s">
@@ -30744,11 +30752,11 @@
       </c>
       <c r="AL113" s="106"/>
       <c r="AM113" s="105" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>R-SW_Det_ELC_HPN1</v>
       </c>
       <c r="AN113" s="105" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH</v>
       </c>
       <c r="AO113" s="106" t="s">
@@ -30840,11 +30848,11 @@
       </c>
       <c r="AL114" s="213"/>
       <c r="AM114" s="105" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>R-SW_Det_ELC_HPN2</v>
       </c>
       <c r="AN114" s="105" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar</v>
       </c>
       <c r="AO114" s="106" t="s">
@@ -30896,15 +30904,15 @@
         <v>0.7</v>
       </c>
       <c r="Q115" s="23">
-        <f t="shared" ref="Q115:Q116" si="88">I115*0.7</f>
+        <f t="shared" ref="Q115:Q116" si="89">I115*0.7</f>
         <v>0.76999999999999991</v>
       </c>
       <c r="R115" s="23">
-        <f t="shared" ref="R115:R116" si="89">J115*0.7</f>
+        <f t="shared" ref="R115:R116" si="90">J115*0.7</f>
         <v>0.86333333333333329</v>
       </c>
       <c r="S115" s="57">
-        <f t="shared" ref="S115:S116" si="90">K115*0.7</f>
+        <f t="shared" ref="S115:S116" si="91">K115*0.7</f>
         <v>0.93333333333333324</v>
       </c>
       <c r="T115" s="53">
@@ -30916,15 +30924,15 @@
         <v>9.9300970464135023</v>
       </c>
       <c r="W115" s="384">
-        <f t="shared" ref="W115" si="91">W114*($U$150/$U$149)</f>
+        <f t="shared" ref="W115" si="92">W114*($U$150/$U$149)</f>
         <v>9.0363883122362889</v>
       </c>
       <c r="X115" s="384">
-        <f t="shared" ref="X115" si="92">X114*($U$150/$U$149)</f>
+        <f t="shared" ref="X115" si="93">X114*($U$150/$U$149)</f>
         <v>8.2231133641350223</v>
       </c>
       <c r="Y115" s="384">
-        <f t="shared" ref="Y115" si="93">Y114*($U$150/$U$149)</f>
+        <f t="shared" ref="Y115" si="94">Y114*($U$150/$U$149)</f>
         <v>8.1426795780590719</v>
       </c>
       <c r="Z115" s="384">
@@ -30949,11 +30957,11 @@
       </c>
       <c r="AL115" s="213"/>
       <c r="AM115" s="105" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>R-SH_Det_ELC_HPN3</v>
       </c>
       <c r="AN115" s="105" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH</v>
       </c>
       <c r="AO115" s="106" t="s">
@@ -31005,15 +31013,15 @@
         <v>0.7</v>
       </c>
       <c r="Q116" s="29">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>0.77700000000000002</v>
       </c>
       <c r="R116" s="29">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="S116" s="58">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="T116" s="54">
@@ -31042,7 +31050,7 @@
       </c>
       <c r="AA116" s="62"/>
       <c r="AB116" s="72">
-        <v>0.1</v>
+        <v>0.66</v>
       </c>
       <c r="AC116" s="62"/>
       <c r="AD116" s="62"/>
@@ -31063,11 +31071,11 @@
       </c>
       <c r="AL116" s="112"/>
       <c r="AM116" s="108" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>R-HC_Det_ELC_HPN2</v>
       </c>
       <c r="AN116" s="108" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC</v>
       </c>
       <c r="AO116" s="109" t="s">
@@ -31384,15 +31392,15 @@
         <v>1.1666666666666667</v>
       </c>
       <c r="Q120" s="20">
-        <f t="shared" ref="Q120:Q121" si="94">I120*0.7</f>
+        <f t="shared" ref="Q120:Q121" si="95">I120*0.7</f>
         <v>1.2530864197530862</v>
       </c>
       <c r="R120" s="20">
-        <f t="shared" ref="R120:R121" si="95">J120*0.7</f>
+        <f t="shared" ref="R120:R121" si="96">J120*0.7</f>
         <v>1.4691358024691357</v>
       </c>
       <c r="S120" s="56">
-        <f t="shared" ref="S120:S121" si="96">K120*0.7</f>
+        <f t="shared" ref="S120:S121" si="97">K120*0.7</f>
         <v>1.4691358024691357</v>
       </c>
       <c r="T120" s="89">
@@ -31498,15 +31506,15 @@
         <v>1.1666666666666665</v>
       </c>
       <c r="Q121" s="26">
-        <f t="shared" si="94"/>
-        <v>1.2055555555555555</v>
-      </c>
-      <c r="R121" s="26">
         <f t="shared" si="95"/>
         <v>1.2055555555555555</v>
       </c>
+      <c r="R121" s="26">
+        <f t="shared" si="96"/>
+        <v>1.2055555555555555</v>
+      </c>
       <c r="S121" s="59">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>1.2444444444444445</v>
       </c>
       <c r="T121" s="27">
@@ -31609,11 +31617,11 @@
       <c r="AJ122" s="34"/>
       <c r="AL122" s="216"/>
       <c r="AM122" s="103" t="str">
-        <f t="shared" ref="AM122:AM123" si="97">C128</f>
+        <f t="shared" ref="AM122:AM123" si="98">C128</f>
         <v>R-WH_Det_ELC_N1</v>
       </c>
       <c r="AN122" s="103" t="str">
-        <f t="shared" ref="AN122:AN123" si="98">D128</f>
+        <f t="shared" ref="AN122:AN123" si="99">D128</f>
         <v xml:space="preserve">Residential Electric Water Heater </v>
       </c>
       <c r="AO122" s="104" t="s">
@@ -31646,19 +31654,19 @@
       </c>
       <c r="H123" s="383">
         <f>1*$AD$28+JRC_Data!AD18*(1.2-$AD$28)</f>
-        <v>3.2699999999999996</v>
+        <v>3.1549999999999998</v>
       </c>
       <c r="I123" s="383">
         <f>1*$AD$28+JRC_Data!AE18*(1.2-$AD$28)</f>
-        <v>3.6299999999999994</v>
+        <v>3.4950000000000001</v>
       </c>
       <c r="J123" s="383">
         <f>1*$AD$28+JRC_Data!AF18*(1.2-$AD$28)</f>
-        <v>3.8999999999999995</v>
+        <v>3.75</v>
       </c>
       <c r="K123" s="383">
         <f>1*$AD$28+JRC_Data!AG18*(1.2-$AD$28)</f>
-        <v>3.8999999999999995</v>
+        <v>3.75</v>
       </c>
       <c r="L123" s="49"/>
       <c r="M123" s="50"/>
@@ -31666,19 +31674,19 @@
       <c r="O123" s="51"/>
       <c r="P123" s="256">
         <f>H123*0.7</f>
-        <v>2.2889999999999997</v>
+        <v>2.2084999999999999</v>
       </c>
       <c r="Q123" s="26">
-        <f t="shared" ref="Q123" si="99">I123*0.7</f>
-        <v>2.5409999999999995</v>
+        <f t="shared" ref="Q123" si="100">I123*0.7</f>
+        <v>2.4464999999999999</v>
       </c>
       <c r="R123" s="26">
-        <f t="shared" ref="R123" si="100">J123*0.7</f>
-        <v>2.7299999999999995</v>
+        <f t="shared" ref="R123" si="101">J123*0.7</f>
+        <v>2.625</v>
       </c>
       <c r="S123" s="59">
-        <f t="shared" ref="S123" si="101">K123*0.7</f>
-        <v>2.7299999999999995</v>
+        <f t="shared" ref="S123" si="102">K123*0.7</f>
+        <v>2.625</v>
       </c>
       <c r="T123" s="3">
         <v>20</v>
@@ -31688,15 +31696,15 @@
         <v>10.987282270335434</v>
       </c>
       <c r="W123" s="79">
-        <f t="shared" ref="W123:Y123" si="102">(W115+W98)*0.8</f>
+        <f t="shared" ref="W123:Y123" si="103">(W115+W98)*0.8</f>
         <v>10.272315282993665</v>
       </c>
       <c r="X123" s="79">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>9.6216953245126504</v>
       </c>
       <c r="Y123" s="79">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>9.5573482956518898</v>
       </c>
       <c r="Z123" s="375">
@@ -31707,18 +31715,18 @@
       <c r="AB123" s="84"/>
       <c r="AC123" s="84"/>
       <c r="AD123" s="84">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="AE123" s="73">
         <f>AD123</f>
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="AF123" s="83">
         <v>5</v>
       </c>
       <c r="AG123" s="82">
         <f t="shared" si="62"/>
-        <v>0.62441279999999999</v>
+        <v>0.66540960000000005</v>
       </c>
       <c r="AH123" s="83"/>
       <c r="AI123" s="83">
@@ -31726,15 +31734,15 @@
       </c>
       <c r="AJ123" s="83">
         <f>AJ98*AD123+AJ116*(1-AD123)</f>
-        <v>19.799999999999997</v>
+        <v>21.1</v>
       </c>
       <c r="AL123" s="2"/>
       <c r="AM123" s="105" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>R-WH_Det_SOL_N1</v>
       </c>
       <c r="AN123" s="105" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v xml:space="preserve">Residential Solar Water Heater </v>
       </c>
       <c r="AO123" s="106" t="s">
@@ -32354,7 +32362,7 @@
         <v>3</v>
       </c>
       <c r="U145" s="381">
-        <f t="shared" ref="U145:U154" si="103">V145/$V$153</f>
+        <f t="shared" ref="U145:U154" si="104">V145/$V$153</f>
         <v>0.72929037751472525</v>
       </c>
       <c r="V145" s="382">
@@ -32368,7 +32376,7 @@
         <v>5</v>
       </c>
       <c r="U146" s="381">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0.79101166159768732</v>
       </c>
       <c r="V146" s="382">
@@ -32381,7 +32389,7 @@
         <v>8</v>
       </c>
       <c r="U147" s="381">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0.85077698714062355</v>
       </c>
       <c r="V147" s="382">
@@ -32395,7 +32403,7 @@
         <v>10</v>
       </c>
       <c r="U148" s="381">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0.86872586872586877</v>
       </c>
       <c r="V148" s="380">
@@ -32416,7 +32424,7 @@
         <v>15</v>
       </c>
       <c r="U149" s="371">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0.91505791505791501</v>
       </c>
       <c r="V149" s="3">
@@ -32443,7 +32451,7 @@
         <v>18</v>
       </c>
       <c r="U150" s="371">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0.92277992277992282</v>
       </c>
       <c r="V150" s="3">
@@ -32472,7 +32480,7 @@
         <v>20</v>
       </c>
       <c r="U151" s="381">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0.93436293436293438</v>
       </c>
       <c r="V151" s="380">
@@ -32502,7 +32510,7 @@
         <v>24</v>
       </c>
       <c r="U152" s="371">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0.94594594594594594</v>
       </c>
       <c r="V152" s="3">
@@ -32531,7 +32539,7 @@
         <v>30</v>
       </c>
       <c r="U153" s="371">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>1</v>
       </c>
       <c r="V153" s="3">
@@ -32560,7 +32568,7 @@
         <v>35</v>
       </c>
       <c r="U154" s="371">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>1.0791505791505791</v>
       </c>
       <c r="V154" s="3">
@@ -32605,26 +32613,6 @@
     <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="L92:O92"/>
-    <mergeCell ref="P92:S92"/>
-    <mergeCell ref="T92:U92"/>
-    <mergeCell ref="V92:Y92"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="L90:O90"/>
-    <mergeCell ref="P90:S90"/>
-    <mergeCell ref="T90:U90"/>
-    <mergeCell ref="V90:Y90"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:Y44"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="P42:S42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="V42:Y42"/>
     <mergeCell ref="V4:Y4"/>
     <mergeCell ref="V6:Y6"/>
     <mergeCell ref="H4:K4"/>
@@ -32635,6 +32623,26 @@
     <mergeCell ref="P6:S6"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:Y42"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:Y44"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:O90"/>
+    <mergeCell ref="P90:S90"/>
+    <mergeCell ref="T90:U90"/>
+    <mergeCell ref="V90:Y90"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:O92"/>
+    <mergeCell ref="P92:S92"/>
+    <mergeCell ref="T92:U92"/>
+    <mergeCell ref="V92:Y92"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -32780,12 +32788,12 @@
       <c r="I5" s="127"/>
       <c r="J5" s="127"/>
       <c r="K5" s="127"/>
-      <c r="L5" s="531" t="s">
+      <c r="L5" s="540" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="532"/>
-      <c r="N5" s="532"/>
-      <c r="O5" s="533"/>
+      <c r="M5" s="541"/>
+      <c r="N5" s="541"/>
+      <c r="O5" s="542"/>
       <c r="P5" s="60"/>
       <c r="Q5" s="60" t="s">
         <v>87</v>
@@ -32816,12 +32824,12 @@
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
       <c r="K6" s="37"/>
-      <c r="L6" s="540" t="s">
+      <c r="L6" s="534" t="s">
         <v>541</v>
       </c>
-      <c r="M6" s="542"/>
-      <c r="N6" s="542"/>
-      <c r="O6" s="541"/>
+      <c r="M6" s="536"/>
+      <c r="N6" s="536"/>
+      <c r="O6" s="535"/>
       <c r="P6" s="377" t="s">
         <v>553</v>
       </c>
@@ -33707,23 +33715,23 @@
       <c r="K33" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L33" s="531" t="s">
+      <c r="L33" s="540" t="s">
         <v>86</v>
       </c>
-      <c r="M33" s="532"/>
-      <c r="N33" s="532"/>
-      <c r="O33" s="533"/>
+      <c r="M33" s="541"/>
+      <c r="N33" s="541"/>
+      <c r="O33" s="542"/>
     </row>
     <row r="34" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H34" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L34" s="540" t="s">
+      <c r="L34" s="534" t="s">
         <v>91</v>
       </c>
-      <c r="M34" s="542"/>
-      <c r="N34" s="542"/>
-      <c r="O34" s="541"/>
+      <c r="M34" s="536"/>
+      <c r="N34" s="536"/>
+      <c r="O34" s="535"/>
     </row>
     <row r="35" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H35" s="3" t="s">
@@ -34070,11 +34078,11 @@
       </c>
       <c r="I4" s="538"/>
       <c r="J4" s="539"/>
-      <c r="K4" s="531" t="s">
+      <c r="K4" s="540" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="532"/>
-      <c r="M4" s="533"/>
+      <c r="L4" s="541"/>
+      <c r="M4" s="542"/>
       <c r="N4" s="60"/>
       <c r="O4" s="60" t="s">
         <v>87</v>
@@ -34100,16 +34108,16 @@
       <c r="G5" s="385" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="543" t="s">
+      <c r="H5" s="546" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="544"/>
-      <c r="J5" s="545"/>
-      <c r="K5" s="543" t="s">
+      <c r="I5" s="547"/>
+      <c r="J5" s="548"/>
+      <c r="K5" s="546" t="s">
         <v>330</v>
       </c>
-      <c r="L5" s="544"/>
-      <c r="M5" s="545"/>
+      <c r="L5" s="547"/>
+      <c r="M5" s="548"/>
       <c r="N5" s="386" t="s">
         <v>92</v>
       </c>
@@ -34126,23 +34134,23 @@
         <v>218</v>
       </c>
       <c r="AA5" s="208"/>
-      <c r="AB5" s="546" t="s">
+      <c r="AB5" s="543" t="s">
         <v>583</v>
       </c>
-      <c r="AC5" s="546"/>
+      <c r="AC5" s="543"/>
       <c r="AD5" s="388"/>
-      <c r="AE5" s="547" t="s">
+      <c r="AE5" s="544" t="s">
         <v>65</v>
       </c>
-      <c r="AF5" s="547"/>
-      <c r="AG5" s="547" t="s">
+      <c r="AF5" s="544"/>
+      <c r="AG5" s="544" t="s">
         <v>584</v>
       </c>
-      <c r="AH5" s="547"/>
-      <c r="AI5" s="548" t="s">
+      <c r="AH5" s="544"/>
+      <c r="AI5" s="545" t="s">
         <v>585</v>
       </c>
-      <c r="AJ5" s="548"/>
+      <c r="AJ5" s="545"/>
     </row>
     <row r="6" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C6" s="432" t="str">
@@ -34880,12 +34888,12 @@
       <c r="K27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L27" s="531" t="s">
+      <c r="L27" s="540" t="s">
         <v>86</v>
       </c>
-      <c r="M27" s="532"/>
-      <c r="N27" s="532"/>
-      <c r="O27" s="533"/>
+      <c r="M27" s="541"/>
+      <c r="N27" s="541"/>
+      <c r="O27" s="542"/>
       <c r="T27" s="210"/>
       <c r="U27" s="210"/>
     </row>
@@ -34893,12 +34901,12 @@
       <c r="J28" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L28" s="534" t="s">
+      <c r="L28" s="531" t="s">
         <v>91</v>
       </c>
-      <c r="M28" s="535"/>
-      <c r="N28" s="535"/>
-      <c r="O28" s="536"/>
+      <c r="M28" s="532"/>
+      <c r="N28" s="532"/>
+      <c r="O28" s="533"/>
       <c r="T28" s="210"/>
       <c r="U28" s="210"/>
     </row>
@@ -36288,16 +36296,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
     <mergeCell ref="AB5:AC5"/>
     <mergeCell ref="AE5:AF5"/>
     <mergeCell ref="AG5:AH5"/>
     <mergeCell ref="AI5:AJ5"/>
     <mergeCell ref="L27:O27"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S7" r:id="rId1" xr:uid="{B1EDD63D-40A5-4174-9D28-8666BD314B83}"/>
@@ -36728,103 +36736,103 @@
       <c r="C4" s="283" t="s">
         <v>339</v>
       </c>
-      <c r="D4" s="549" t="s">
+      <c r="D4" s="550" t="s">
         <v>340</v>
       </c>
-      <c r="E4" s="550"/>
-      <c r="F4" s="550"/>
-      <c r="G4" s="550"/>
+      <c r="E4" s="549"/>
+      <c r="F4" s="549"/>
+      <c r="G4" s="549"/>
       <c r="H4" s="551"/>
-      <c r="I4" s="550" t="s">
+      <c r="I4" s="549" t="s">
         <v>341</v>
       </c>
-      <c r="J4" s="550"/>
-      <c r="K4" s="550"/>
-      <c r="L4" s="550"/>
+      <c r="J4" s="549"/>
+      <c r="K4" s="549"/>
+      <c r="L4" s="549"/>
       <c r="M4" s="551"/>
-      <c r="N4" s="550" t="s">
+      <c r="N4" s="549" t="s">
         <v>342</v>
       </c>
-      <c r="O4" s="550"/>
-      <c r="P4" s="550"/>
-      <c r="Q4" s="550"/>
+      <c r="O4" s="549"/>
+      <c r="P4" s="549"/>
+      <c r="Q4" s="549"/>
       <c r="R4" s="551"/>
-      <c r="S4" s="550" t="s">
+      <c r="S4" s="549" t="s">
         <v>343</v>
       </c>
-      <c r="T4" s="550"/>
-      <c r="U4" s="550"/>
-      <c r="V4" s="550"/>
+      <c r="T4" s="549"/>
+      <c r="U4" s="549"/>
+      <c r="V4" s="549"/>
       <c r="W4" s="551"/>
-      <c r="X4" s="550" t="s">
+      <c r="X4" s="549" t="s">
         <v>344</v>
       </c>
-      <c r="Y4" s="550"/>
-      <c r="Z4" s="550"/>
-      <c r="AA4" s="550"/>
+      <c r="Y4" s="549"/>
+      <c r="Z4" s="549"/>
+      <c r="AA4" s="549"/>
       <c r="AB4" s="551"/>
-      <c r="AC4" s="550" t="s">
+      <c r="AC4" s="549" t="s">
         <v>345</v>
       </c>
-      <c r="AD4" s="550"/>
-      <c r="AE4" s="550"/>
-      <c r="AF4" s="550"/>
+      <c r="AD4" s="549"/>
+      <c r="AE4" s="549"/>
+      <c r="AF4" s="549"/>
       <c r="AG4" s="551"/>
-      <c r="AH4" s="550" t="s">
+      <c r="AH4" s="549" t="s">
         <v>346</v>
       </c>
-      <c r="AI4" s="550"/>
-      <c r="AJ4" s="550"/>
-      <c r="AK4" s="550"/>
+      <c r="AI4" s="549"/>
+      <c r="AJ4" s="549"/>
+      <c r="AK4" s="549"/>
       <c r="AL4" s="551"/>
-      <c r="AM4" s="550" t="s">
+      <c r="AM4" s="549" t="s">
         <v>347</v>
       </c>
-      <c r="AN4" s="550"/>
-      <c r="AO4" s="550"/>
-      <c r="AP4" s="550"/>
+      <c r="AN4" s="549"/>
+      <c r="AO4" s="549"/>
+      <c r="AP4" s="549"/>
       <c r="AQ4" s="551"/>
-      <c r="AR4" s="550" t="s">
+      <c r="AR4" s="549" t="s">
         <v>348</v>
       </c>
-      <c r="AS4" s="550"/>
-      <c r="AT4" s="550"/>
-      <c r="AU4" s="550"/>
+      <c r="AS4" s="549"/>
+      <c r="AT4" s="549"/>
+      <c r="AU4" s="549"/>
       <c r="AV4" s="551"/>
-      <c r="AW4" s="550" t="s">
+      <c r="AW4" s="549" t="s">
         <v>349</v>
       </c>
-      <c r="AX4" s="550"/>
-      <c r="AY4" s="550"/>
-      <c r="AZ4" s="550"/>
-      <c r="BA4" s="550"/>
-      <c r="BB4" s="549" t="s">
+      <c r="AX4" s="549"/>
+      <c r="AY4" s="549"/>
+      <c r="AZ4" s="549"/>
+      <c r="BA4" s="549"/>
+      <c r="BB4" s="550" t="s">
         <v>350</v>
       </c>
-      <c r="BC4" s="550"/>
-      <c r="BD4" s="550"/>
-      <c r="BE4" s="550"/>
+      <c r="BC4" s="549"/>
+      <c r="BD4" s="549"/>
+      <c r="BE4" s="549"/>
       <c r="BF4" s="551"/>
-      <c r="BG4" s="550" t="s">
+      <c r="BG4" s="549" t="s">
         <v>351</v>
       </c>
-      <c r="BH4" s="550"/>
-      <c r="BI4" s="550"/>
-      <c r="BJ4" s="550"/>
-      <c r="BK4" s="550"/>
-      <c r="BL4" s="549" t="s">
+      <c r="BH4" s="549"/>
+      <c r="BI4" s="549"/>
+      <c r="BJ4" s="549"/>
+      <c r="BK4" s="549"/>
+      <c r="BL4" s="550" t="s">
         <v>352</v>
       </c>
-      <c r="BM4" s="550"/>
-      <c r="BN4" s="550"/>
-      <c r="BO4" s="550"/>
-      <c r="BP4" s="550"/>
-      <c r="BQ4" s="549" t="s">
+      <c r="BM4" s="549"/>
+      <c r="BN4" s="549"/>
+      <c r="BO4" s="549"/>
+      <c r="BP4" s="549"/>
+      <c r="BQ4" s="550" t="s">
         <v>353</v>
       </c>
-      <c r="BR4" s="550"/>
-      <c r="BS4" s="550"/>
-      <c r="BT4" s="550"/>
+      <c r="BR4" s="549"/>
+      <c r="BS4" s="549"/>
+      <c r="BT4" s="549"/>
       <c r="BU4" s="551"/>
       <c r="BV4" s="284" t="s">
         <v>354</v>
@@ -50418,6 +50426,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="BL4:BP4"/>
+    <mergeCell ref="BQ4:BU4"/>
+    <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="CB4:CF4"/>
+    <mergeCell ref="CG4:CK4"/>
     <mergeCell ref="BG4:BK4"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
@@ -50430,11 +50443,6 @@
     <mergeCell ref="AR4:AV4"/>
     <mergeCell ref="AW4:BA4"/>
     <mergeCell ref="BB4:BF4"/>
-    <mergeCell ref="BL4:BP4"/>
-    <mergeCell ref="BQ4:BU4"/>
-    <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="CB4:CF4"/>
-    <mergeCell ref="CG4:CK4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -50457,23 +50465,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="556" t="s">
+      <c r="A1" s="558" t="s">
         <v>627</v>
       </c>
-      <c r="B1" s="558" t="s">
+      <c r="B1" s="560" t="s">
         <v>628</v>
       </c>
-      <c r="C1" s="559"/>
-      <c r="D1" s="559"/>
-      <c r="E1" s="559"/>
-      <c r="F1" s="560"/>
-      <c r="G1" s="558" t="s">
+      <c r="C1" s="561"/>
+      <c r="D1" s="561"/>
+      <c r="E1" s="561"/>
+      <c r="F1" s="562"/>
+      <c r="G1" s="560" t="s">
         <v>629</v>
       </c>
-      <c r="H1" s="559"/>
-      <c r="I1" s="559"/>
-      <c r="J1" s="559"/>
-      <c r="K1" s="560"/>
+      <c r="H1" s="561"/>
+      <c r="I1" s="561"/>
+      <c r="J1" s="561"/>
+      <c r="K1" s="562"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -50483,7 +50491,7 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="557"/>
+      <c r="A2" s="559"/>
       <c r="B2" s="454" t="s">
         <v>276</v>
       </c>
@@ -51976,11 +51984,11 @@
       <c r="Y48" t="s">
         <v>678</v>
       </c>
-      <c r="Z48" s="561" t="s">
+      <c r="Z48" s="556" t="s">
         <v>616</v>
       </c>
-      <c r="AA48" s="562"/>
-      <c r="AB48" s="562"/>
+      <c r="AA48" s="557"/>
+      <c r="AB48" s="557"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
@@ -52197,11 +52205,11 @@
       <c r="Y53" t="s">
         <v>680</v>
       </c>
-      <c r="Z53" s="561" t="s">
+      <c r="Z53" s="556" t="s">
         <v>615</v>
       </c>
-      <c r="AA53" s="562"/>
-      <c r="AB53" s="562"/>
+      <c r="AA53" s="557"/>
+      <c r="AB53" s="557"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
@@ -52403,11 +52411,11 @@
       <c r="Y59" t="s">
         <v>681</v>
       </c>
-      <c r="Z59" s="561" t="s">
+      <c r="Z59" s="556" t="s">
         <v>682</v>
       </c>
-      <c r="AA59" s="562"/>
-      <c r="AB59" s="562"/>
+      <c r="AA59" s="557"/>
+      <c r="AB59" s="557"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="474" t="str">
@@ -53244,17 +53252,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="Z48:AB48"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="Z48:AB48"/>
   </mergeCells>
   <phoneticPr fontId="54" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78188AD5-97EC-42C9-9D9B-814EB055DB9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BA5A0E-737C-4DEE-8191-9395728C5A35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16020" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="62" r:id="rId1"/>
@@ -13498,15 +13498,6 @@
     <xf numFmtId="0" fontId="37" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -13514,6 +13505,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13525,22 +13525,13 @@
     <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -13552,10 +13543,19 @@
     <xf numFmtId="0" fontId="53" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13573,6 +13573,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -13587,12 +13593,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -18349,7 +18349,7 @@
   <dimension ref="A2:AM103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18511,7 +18511,7 @@
         <v>2.045375452121146E-4</v>
       </c>
       <c r="J6" s="129">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="L6" s="3">
         <f>I6/0.0000036</f>
@@ -18726,7 +18726,7 @@
         <v>7.5784815901851145E-4</v>
       </c>
       <c r="J12" s="129">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="L12" s="4">
         <f>I12/0.0000036</f>
@@ -18926,7 +18926,7 @@
         <v>3.7645780249386E-3</v>
       </c>
       <c r="J18" s="129">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="L18" s="4">
         <f>I18/0.0000036</f>
@@ -19219,7 +19219,7 @@
       <c r="AL26" s="4"/>
       <c r="AM26" s="4"/>
     </row>
-    <row r="27" spans="2:39" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:39" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
         <v>211</v>
       </c>
@@ -20707,12 +20707,12 @@
         <v>85</v>
       </c>
       <c r="U4" s="535"/>
-      <c r="V4" s="527" t="s">
+      <c r="V4" s="536" t="s">
         <v>86</v>
       </c>
-      <c r="W4" s="528"/>
-      <c r="X4" s="528"/>
-      <c r="Y4" s="529"/>
+      <c r="W4" s="537"/>
+      <c r="X4" s="537"/>
+      <c r="Y4" s="538"/>
       <c r="Z4" s="60"/>
       <c r="AA4" s="60"/>
       <c r="AB4" s="68" t="s">
@@ -20815,34 +20815,34 @@
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
       <c r="G6" s="39"/>
-      <c r="H6" s="530" t="s">
+      <c r="H6" s="527" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="531"/>
-      <c r="J6" s="531"/>
-      <c r="K6" s="532"/>
-      <c r="L6" s="531" t="s">
+      <c r="I6" s="528"/>
+      <c r="J6" s="528"/>
+      <c r="K6" s="529"/>
+      <c r="L6" s="528" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="531"/>
-      <c r="N6" s="531"/>
-      <c r="O6" s="532"/>
-      <c r="P6" s="530" t="s">
+      <c r="M6" s="528"/>
+      <c r="N6" s="528"/>
+      <c r="O6" s="529"/>
+      <c r="P6" s="527" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="531"/>
-      <c r="R6" s="531"/>
-      <c r="S6" s="532"/>
-      <c r="T6" s="530" t="s">
+      <c r="Q6" s="528"/>
+      <c r="R6" s="528"/>
+      <c r="S6" s="529"/>
+      <c r="T6" s="527" t="s">
         <v>68</v>
       </c>
-      <c r="U6" s="532"/>
-      <c r="V6" s="530" t="s">
+      <c r="U6" s="529"/>
+      <c r="V6" s="527" t="s">
         <v>525</v>
       </c>
-      <c r="W6" s="531"/>
-      <c r="X6" s="531"/>
-      <c r="Y6" s="532"/>
+      <c r="W6" s="528"/>
+      <c r="X6" s="528"/>
+      <c r="Y6" s="529"/>
       <c r="Z6" s="61" t="s">
         <v>537</v>
       </c>
@@ -23899,12 +23899,12 @@
         <v>85</v>
       </c>
       <c r="U42" s="535"/>
-      <c r="V42" s="527" t="s">
+      <c r="V42" s="536" t="s">
         <v>86</v>
       </c>
-      <c r="W42" s="528"/>
-      <c r="X42" s="528"/>
-      <c r="Y42" s="529"/>
+      <c r="W42" s="537"/>
+      <c r="X42" s="537"/>
+      <c r="Y42" s="538"/>
       <c r="Z42" s="60"/>
       <c r="AA42" s="60"/>
       <c r="AB42" s="68" t="s">
@@ -24007,34 +24007,34 @@
       <c r="E44" s="38"/>
       <c r="F44" s="38"/>
       <c r="G44" s="39"/>
-      <c r="H44" s="530" t="s">
+      <c r="H44" s="527" t="s">
         <v>34</v>
       </c>
-      <c r="I44" s="531"/>
-      <c r="J44" s="531"/>
-      <c r="K44" s="532"/>
-      <c r="L44" s="531" t="s">
+      <c r="I44" s="528"/>
+      <c r="J44" s="528"/>
+      <c r="K44" s="529"/>
+      <c r="L44" s="528" t="s">
         <v>34</v>
       </c>
-      <c r="M44" s="531"/>
-      <c r="N44" s="531"/>
-      <c r="O44" s="532"/>
-      <c r="P44" s="530" t="s">
+      <c r="M44" s="528"/>
+      <c r="N44" s="528"/>
+      <c r="O44" s="529"/>
+      <c r="P44" s="527" t="s">
         <v>34</v>
       </c>
-      <c r="Q44" s="531"/>
-      <c r="R44" s="531"/>
-      <c r="S44" s="532"/>
-      <c r="T44" s="536" t="s">
+      <c r="Q44" s="528"/>
+      <c r="R44" s="528"/>
+      <c r="S44" s="529"/>
+      <c r="T44" s="530" t="s">
         <v>68</v>
       </c>
-      <c r="U44" s="537"/>
-      <c r="V44" s="536" t="s">
+      <c r="U44" s="531"/>
+      <c r="V44" s="530" t="s">
         <v>525</v>
       </c>
-      <c r="W44" s="538"/>
-      <c r="X44" s="538"/>
-      <c r="Y44" s="537"/>
+      <c r="W44" s="532"/>
+      <c r="X44" s="532"/>
+      <c r="Y44" s="531"/>
       <c r="Z44" s="373" t="s">
         <v>537</v>
       </c>
@@ -27859,12 +27859,12 @@
         <v>85</v>
       </c>
       <c r="U90" s="535"/>
-      <c r="V90" s="527" t="s">
+      <c r="V90" s="536" t="s">
         <v>86</v>
       </c>
-      <c r="W90" s="528"/>
-      <c r="X90" s="528"/>
-      <c r="Y90" s="529"/>
+      <c r="W90" s="537"/>
+      <c r="X90" s="537"/>
+      <c r="Y90" s="538"/>
       <c r="Z90" s="60"/>
       <c r="AA90" s="60"/>
       <c r="AB90" s="68" t="s">
@@ -27967,34 +27967,34 @@
       <c r="E92" s="38"/>
       <c r="F92" s="38"/>
       <c r="G92" s="39"/>
-      <c r="H92" s="530" t="s">
+      <c r="H92" s="527" t="s">
         <v>34</v>
       </c>
-      <c r="I92" s="531"/>
-      <c r="J92" s="531"/>
-      <c r="K92" s="532"/>
-      <c r="L92" s="531" t="s">
+      <c r="I92" s="528"/>
+      <c r="J92" s="528"/>
+      <c r="K92" s="529"/>
+      <c r="L92" s="528" t="s">
         <v>34</v>
       </c>
-      <c r="M92" s="531"/>
-      <c r="N92" s="531"/>
-      <c r="O92" s="532"/>
-      <c r="P92" s="530" t="s">
+      <c r="M92" s="528"/>
+      <c r="N92" s="528"/>
+      <c r="O92" s="529"/>
+      <c r="P92" s="527" t="s">
         <v>34</v>
       </c>
-      <c r="Q92" s="531"/>
-      <c r="R92" s="531"/>
-      <c r="S92" s="532"/>
-      <c r="T92" s="536" t="s">
+      <c r="Q92" s="528"/>
+      <c r="R92" s="528"/>
+      <c r="S92" s="529"/>
+      <c r="T92" s="530" t="s">
         <v>68</v>
       </c>
-      <c r="U92" s="537"/>
-      <c r="V92" s="536" t="s">
+      <c r="U92" s="531"/>
+      <c r="V92" s="530" t="s">
         <v>525</v>
       </c>
-      <c r="W92" s="538"/>
-      <c r="X92" s="538"/>
-      <c r="Y92" s="537"/>
+      <c r="W92" s="532"/>
+      <c r="X92" s="532"/>
+      <c r="Y92" s="531"/>
       <c r="Z92" s="373" t="s">
         <v>537</v>
       </c>
@@ -31956,26 +31956,6 @@
     <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="L92:O92"/>
-    <mergeCell ref="P92:S92"/>
-    <mergeCell ref="T92:U92"/>
-    <mergeCell ref="V92:Y92"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="L90:O90"/>
-    <mergeCell ref="P90:S90"/>
-    <mergeCell ref="T90:U90"/>
-    <mergeCell ref="V90:Y90"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:Y44"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="P42:S42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="V42:Y42"/>
     <mergeCell ref="V4:Y4"/>
     <mergeCell ref="V6:Y6"/>
     <mergeCell ref="H4:K4"/>
@@ -31986,6 +31966,26 @@
     <mergeCell ref="P6:S6"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:Y42"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:Y44"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:O90"/>
+    <mergeCell ref="P90:S90"/>
+    <mergeCell ref="T90:U90"/>
+    <mergeCell ref="V90:Y90"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:O92"/>
+    <mergeCell ref="P92:S92"/>
+    <mergeCell ref="T92:U92"/>
+    <mergeCell ref="V92:Y92"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -32131,12 +32131,12 @@
       <c r="I5" s="127"/>
       <c r="J5" s="127"/>
       <c r="K5" s="127"/>
-      <c r="L5" s="527" t="s">
+      <c r="L5" s="536" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="528"/>
-      <c r="N5" s="528"/>
-      <c r="O5" s="529"/>
+      <c r="M5" s="537"/>
+      <c r="N5" s="537"/>
+      <c r="O5" s="538"/>
       <c r="P5" s="60"/>
       <c r="Q5" s="60" t="s">
         <v>87</v>
@@ -32167,12 +32167,12 @@
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
       <c r="K6" s="37"/>
-      <c r="L6" s="536" t="s">
+      <c r="L6" s="530" t="s">
         <v>525</v>
       </c>
-      <c r="M6" s="538"/>
-      <c r="N6" s="538"/>
-      <c r="O6" s="537"/>
+      <c r="M6" s="532"/>
+      <c r="N6" s="532"/>
+      <c r="O6" s="531"/>
       <c r="P6" s="373" t="s">
         <v>537</v>
       </c>
@@ -33058,23 +33058,23 @@
       <c r="K33" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L33" s="527" t="s">
+      <c r="L33" s="536" t="s">
         <v>86</v>
       </c>
-      <c r="M33" s="528"/>
-      <c r="N33" s="528"/>
-      <c r="O33" s="529"/>
+      <c r="M33" s="537"/>
+      <c r="N33" s="537"/>
+      <c r="O33" s="538"/>
     </row>
     <row r="34" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H34" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L34" s="536" t="s">
+      <c r="L34" s="530" t="s">
         <v>91</v>
       </c>
-      <c r="M34" s="538"/>
-      <c r="N34" s="538"/>
-      <c r="O34" s="537"/>
+      <c r="M34" s="532"/>
+      <c r="N34" s="532"/>
+      <c r="O34" s="531"/>
     </row>
     <row r="35" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H35" s="3" t="s">
@@ -33421,11 +33421,11 @@
       </c>
       <c r="I4" s="534"/>
       <c r="J4" s="535"/>
-      <c r="K4" s="527" t="s">
+      <c r="K4" s="536" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="528"/>
-      <c r="M4" s="529"/>
+      <c r="L4" s="537"/>
+      <c r="M4" s="538"/>
       <c r="N4" s="60"/>
       <c r="O4" s="60" t="s">
         <v>87</v>
@@ -33451,16 +33451,16 @@
       <c r="G5" s="381" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="539" t="s">
+      <c r="H5" s="542" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="540"/>
-      <c r="J5" s="541"/>
-      <c r="K5" s="539" t="s">
+      <c r="I5" s="543"/>
+      <c r="J5" s="544"/>
+      <c r="K5" s="542" t="s">
         <v>314</v>
       </c>
-      <c r="L5" s="540"/>
-      <c r="M5" s="541"/>
+      <c r="L5" s="543"/>
+      <c r="M5" s="544"/>
       <c r="N5" s="382" t="s">
         <v>92</v>
       </c>
@@ -33477,23 +33477,23 @@
         <v>218</v>
       </c>
       <c r="AA5" s="207"/>
-      <c r="AB5" s="542" t="s">
+      <c r="AB5" s="539" t="s">
         <v>567</v>
       </c>
-      <c r="AC5" s="542"/>
+      <c r="AC5" s="539"/>
       <c r="AD5" s="384"/>
-      <c r="AE5" s="543" t="s">
+      <c r="AE5" s="540" t="s">
         <v>65</v>
       </c>
-      <c r="AF5" s="543"/>
-      <c r="AG5" s="543" t="s">
+      <c r="AF5" s="540"/>
+      <c r="AG5" s="540" t="s">
         <v>568</v>
       </c>
-      <c r="AH5" s="543"/>
-      <c r="AI5" s="544" t="s">
+      <c r="AH5" s="540"/>
+      <c r="AI5" s="541" t="s">
         <v>569</v>
       </c>
-      <c r="AJ5" s="544"/>
+      <c r="AJ5" s="541"/>
     </row>
     <row r="6" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C6" s="428" t="str">
@@ -34231,12 +34231,12 @@
       <c r="K27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L27" s="527" t="s">
+      <c r="L27" s="536" t="s">
         <v>86</v>
       </c>
-      <c r="M27" s="528"/>
-      <c r="N27" s="528"/>
-      <c r="O27" s="529"/>
+      <c r="M27" s="537"/>
+      <c r="N27" s="537"/>
+      <c r="O27" s="538"/>
       <c r="T27" s="209"/>
       <c r="U27" s="209"/>
     </row>
@@ -34244,12 +34244,12 @@
       <c r="J28" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L28" s="530" t="s">
+      <c r="L28" s="527" t="s">
         <v>91</v>
       </c>
-      <c r="M28" s="531"/>
-      <c r="N28" s="531"/>
-      <c r="O28" s="532"/>
+      <c r="M28" s="528"/>
+      <c r="N28" s="528"/>
+      <c r="O28" s="529"/>
       <c r="T28" s="209"/>
       <c r="U28" s="209"/>
     </row>
@@ -35639,16 +35639,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
     <mergeCell ref="AB5:AC5"/>
     <mergeCell ref="AE5:AF5"/>
     <mergeCell ref="AG5:AH5"/>
     <mergeCell ref="AI5:AJ5"/>
     <mergeCell ref="L27:O27"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S7" r:id="rId1" xr:uid="{B1EDD63D-40A5-4174-9D28-8666BD314B83}"/>
@@ -36079,103 +36079,103 @@
       <c r="C4" s="279" t="s">
         <v>323</v>
       </c>
-      <c r="D4" s="545" t="s">
+      <c r="D4" s="546" t="s">
         <v>324</v>
       </c>
-      <c r="E4" s="546"/>
-      <c r="F4" s="546"/>
-      <c r="G4" s="546"/>
+      <c r="E4" s="545"/>
+      <c r="F4" s="545"/>
+      <c r="G4" s="545"/>
       <c r="H4" s="547"/>
-      <c r="I4" s="546" t="s">
+      <c r="I4" s="545" t="s">
         <v>325</v>
       </c>
-      <c r="J4" s="546"/>
-      <c r="K4" s="546"/>
-      <c r="L4" s="546"/>
+      <c r="J4" s="545"/>
+      <c r="K4" s="545"/>
+      <c r="L4" s="545"/>
       <c r="M4" s="547"/>
-      <c r="N4" s="546" t="s">
+      <c r="N4" s="545" t="s">
         <v>326</v>
       </c>
-      <c r="O4" s="546"/>
-      <c r="P4" s="546"/>
-      <c r="Q4" s="546"/>
+      <c r="O4" s="545"/>
+      <c r="P4" s="545"/>
+      <c r="Q4" s="545"/>
       <c r="R4" s="547"/>
-      <c r="S4" s="546" t="s">
+      <c r="S4" s="545" t="s">
         <v>327</v>
       </c>
-      <c r="T4" s="546"/>
-      <c r="U4" s="546"/>
-      <c r="V4" s="546"/>
+      <c r="T4" s="545"/>
+      <c r="U4" s="545"/>
+      <c r="V4" s="545"/>
       <c r="W4" s="547"/>
-      <c r="X4" s="546" t="s">
+      <c r="X4" s="545" t="s">
         <v>328</v>
       </c>
-      <c r="Y4" s="546"/>
-      <c r="Z4" s="546"/>
-      <c r="AA4" s="546"/>
+      <c r="Y4" s="545"/>
+      <c r="Z4" s="545"/>
+      <c r="AA4" s="545"/>
       <c r="AB4" s="547"/>
-      <c r="AC4" s="546" t="s">
+      <c r="AC4" s="545" t="s">
         <v>329</v>
       </c>
-      <c r="AD4" s="546"/>
-      <c r="AE4" s="546"/>
-      <c r="AF4" s="546"/>
+      <c r="AD4" s="545"/>
+      <c r="AE4" s="545"/>
+      <c r="AF4" s="545"/>
       <c r="AG4" s="547"/>
-      <c r="AH4" s="546" t="s">
+      <c r="AH4" s="545" t="s">
         <v>330</v>
       </c>
-      <c r="AI4" s="546"/>
-      <c r="AJ4" s="546"/>
-      <c r="AK4" s="546"/>
+      <c r="AI4" s="545"/>
+      <c r="AJ4" s="545"/>
+      <c r="AK4" s="545"/>
       <c r="AL4" s="547"/>
-      <c r="AM4" s="546" t="s">
+      <c r="AM4" s="545" t="s">
         <v>331</v>
       </c>
-      <c r="AN4" s="546"/>
-      <c r="AO4" s="546"/>
-      <c r="AP4" s="546"/>
+      <c r="AN4" s="545"/>
+      <c r="AO4" s="545"/>
+      <c r="AP4" s="545"/>
       <c r="AQ4" s="547"/>
-      <c r="AR4" s="546" t="s">
+      <c r="AR4" s="545" t="s">
         <v>332</v>
       </c>
-      <c r="AS4" s="546"/>
-      <c r="AT4" s="546"/>
-      <c r="AU4" s="546"/>
+      <c r="AS4" s="545"/>
+      <c r="AT4" s="545"/>
+      <c r="AU4" s="545"/>
       <c r="AV4" s="547"/>
-      <c r="AW4" s="546" t="s">
+      <c r="AW4" s="545" t="s">
         <v>333</v>
       </c>
-      <c r="AX4" s="546"/>
-      <c r="AY4" s="546"/>
-      <c r="AZ4" s="546"/>
-      <c r="BA4" s="546"/>
-      <c r="BB4" s="545" t="s">
+      <c r="AX4" s="545"/>
+      <c r="AY4" s="545"/>
+      <c r="AZ4" s="545"/>
+      <c r="BA4" s="545"/>
+      <c r="BB4" s="546" t="s">
         <v>334</v>
       </c>
-      <c r="BC4" s="546"/>
-      <c r="BD4" s="546"/>
-      <c r="BE4" s="546"/>
+      <c r="BC4" s="545"/>
+      <c r="BD4" s="545"/>
+      <c r="BE4" s="545"/>
       <c r="BF4" s="547"/>
-      <c r="BG4" s="546" t="s">
+      <c r="BG4" s="545" t="s">
         <v>335</v>
       </c>
-      <c r="BH4" s="546"/>
-      <c r="BI4" s="546"/>
-      <c r="BJ4" s="546"/>
-      <c r="BK4" s="546"/>
-      <c r="BL4" s="545" t="s">
+      <c r="BH4" s="545"/>
+      <c r="BI4" s="545"/>
+      <c r="BJ4" s="545"/>
+      <c r="BK4" s="545"/>
+      <c r="BL4" s="546" t="s">
         <v>336</v>
       </c>
-      <c r="BM4" s="546"/>
-      <c r="BN4" s="546"/>
-      <c r="BO4" s="546"/>
-      <c r="BP4" s="546"/>
-      <c r="BQ4" s="545" t="s">
+      <c r="BM4" s="545"/>
+      <c r="BN4" s="545"/>
+      <c r="BO4" s="545"/>
+      <c r="BP4" s="545"/>
+      <c r="BQ4" s="546" t="s">
         <v>337</v>
       </c>
-      <c r="BR4" s="546"/>
-      <c r="BS4" s="546"/>
-      <c r="BT4" s="546"/>
+      <c r="BR4" s="545"/>
+      <c r="BS4" s="545"/>
+      <c r="BT4" s="545"/>
       <c r="BU4" s="547"/>
       <c r="BV4" s="280" t="s">
         <v>338</v>
@@ -49769,6 +49769,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="BL4:BP4"/>
+    <mergeCell ref="BQ4:BU4"/>
+    <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="CB4:CF4"/>
+    <mergeCell ref="CG4:CK4"/>
     <mergeCell ref="BG4:BK4"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
@@ -49781,11 +49786,6 @@
     <mergeCell ref="AR4:AV4"/>
     <mergeCell ref="AW4:BA4"/>
     <mergeCell ref="BB4:BF4"/>
-    <mergeCell ref="BL4:BP4"/>
-    <mergeCell ref="BQ4:BU4"/>
-    <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="CB4:CF4"/>
-    <mergeCell ref="CG4:CK4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -49808,23 +49808,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="552" t="s">
+      <c r="A1" s="554" t="s">
         <v>611</v>
       </c>
-      <c r="B1" s="554" t="s">
+      <c r="B1" s="556" t="s">
         <v>612</v>
       </c>
-      <c r="C1" s="555"/>
-      <c r="D1" s="555"/>
-      <c r="E1" s="555"/>
-      <c r="F1" s="556"/>
-      <c r="G1" s="554" t="s">
+      <c r="C1" s="557"/>
+      <c r="D1" s="557"/>
+      <c r="E1" s="557"/>
+      <c r="F1" s="558"/>
+      <c r="G1" s="556" t="s">
         <v>613</v>
       </c>
-      <c r="H1" s="555"/>
-      <c r="I1" s="555"/>
-      <c r="J1" s="555"/>
-      <c r="K1" s="556"/>
+      <c r="H1" s="557"/>
+      <c r="I1" s="557"/>
+      <c r="J1" s="557"/>
+      <c r="K1" s="558"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -49834,7 +49834,7 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="553"/>
+      <c r="A2" s="555"/>
       <c r="B2" s="450" t="s">
         <v>270</v>
       </c>
@@ -51327,11 +51327,11 @@
       <c r="Y48" t="s">
         <v>662</v>
       </c>
-      <c r="Z48" s="557" t="s">
+      <c r="Z48" s="552" t="s">
         <v>600</v>
       </c>
-      <c r="AA48" s="558"/>
-      <c r="AB48" s="558"/>
+      <c r="AA48" s="553"/>
+      <c r="AB48" s="553"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
@@ -51548,11 +51548,11 @@
       <c r="Y53" t="s">
         <v>664</v>
       </c>
-      <c r="Z53" s="557" t="s">
+      <c r="Z53" s="552" t="s">
         <v>599</v>
       </c>
-      <c r="AA53" s="558"/>
-      <c r="AB53" s="558"/>
+      <c r="AA53" s="553"/>
+      <c r="AB53" s="553"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
@@ -51754,11 +51754,11 @@
       <c r="Y59" t="s">
         <v>665</v>
       </c>
-      <c r="Z59" s="557" t="s">
+      <c r="Z59" s="552" t="s">
         <v>666</v>
       </c>
-      <c r="AA59" s="558"/>
-      <c r="AB59" s="558"/>
+      <c r="AA59" s="553"/>
+      <c r="AB59" s="553"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="470" t="str">
@@ -52595,17 +52595,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="Z48:AB48"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="Z48:AB48"/>
   </mergeCells>
   <phoneticPr fontId="54" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3A78F9-8EE2-4FF9-AAF9-23CDCB31132F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B031AEBA-F47C-4024-9EB7-C20B0E29B4CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="62" r:id="rId1"/>
@@ -13540,6 +13540,15 @@
     <xf numFmtId="0" fontId="37" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -13547,15 +13556,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13567,13 +13567,22 @@
     <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -13585,19 +13594,10 @@
     <xf numFmtId="0" fontId="53" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13615,12 +13615,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -13635,6 +13629,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -14438,57 +14438,57 @@
       <sheetData sheetId="11">
         <row r="6">
           <cell r="L6">
-            <v>7.5784815901851145E-4</v>
+            <v>3.1499640433377643E-4</v>
           </cell>
         </row>
         <row r="8">
           <cell r="L8">
-            <v>6.1667922907240368E-3</v>
+            <v>2.5632013151118248E-3</v>
           </cell>
         </row>
         <row r="9">
           <cell r="L9">
-            <v>7.3612177725668258E-4</v>
+            <v>3.0596592500527567E-4</v>
           </cell>
         </row>
         <row r="10">
           <cell r="L10">
-            <v>5.2407143773435417E-4</v>
+            <v>2.1782809199424584E-4</v>
           </cell>
         </row>
         <row r="51">
           <cell r="L51">
-            <v>2.045375452121146E-4</v>
+            <v>1.3249013578385519E-4</v>
           </cell>
         </row>
         <row r="53">
           <cell r="L53">
-            <v>4.1672182679251225E-3</v>
+            <v>2.6993348022525303E-3</v>
           </cell>
         </row>
         <row r="54">
           <cell r="L54">
-            <v>5.0182384146831558E-4</v>
+            <v>3.2505870170077217E-4</v>
           </cell>
         </row>
         <row r="55">
           <cell r="L55">
-            <v>3.8041601576060773E-4</v>
+            <v>2.4641622412260611E-4</v>
           </cell>
         </row>
         <row r="96">
           <cell r="L96">
-            <v>3.7645780249386E-3</v>
+            <v>2.4058665241777602E-3</v>
           </cell>
         </row>
         <row r="98">
           <cell r="L98">
-            <v>6.6666794692434245E-3</v>
+            <v>4.2605415152040874E-3</v>
           </cell>
         </row>
         <row r="100">
           <cell r="L100">
-            <v>1.0463165232771768E-3</v>
+            <v>6.686799636959782E-4</v>
           </cell>
         </row>
         <row r="104">
@@ -18390,8 +18390,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:AM103"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18550,14 +18550,14 @@
       </c>
       <c r="I6" s="236">
         <f>[1]ArchetypeDemand!$L$51</f>
-        <v>2.045375452121146E-4</v>
+        <v>1.3249013578385519E-4</v>
       </c>
       <c r="J6" s="129">
         <v>2019</v>
       </c>
       <c r="L6" s="3">
         <f>I6/0.0000036</f>
-        <v>56.815984781142944</v>
+        <v>36.802815495515333</v>
       </c>
       <c r="S6" s="223" t="s">
         <v>256</v>
@@ -18620,12 +18620,12 @@
       <c r="H8" s="62"/>
       <c r="I8" s="238">
         <f>[1]ArchetypeDemand!$L$53</f>
-        <v>4.1672182679251225E-3</v>
+        <v>2.6993348022525303E-3</v>
       </c>
       <c r="J8" s="58"/>
       <c r="L8" s="4">
         <f t="shared" si="0"/>
-        <v>1157.5606299792007</v>
+        <v>749.81522284792516</v>
       </c>
       <c r="S8" s="223" t="s">
         <v>258</v>
@@ -18654,12 +18654,12 @@
       <c r="H9" s="63"/>
       <c r="I9" s="237">
         <f>[1]ArchetypeDemand!$L$54</f>
-        <v>5.0182384146831558E-4</v>
+        <v>3.2505870170077217E-4</v>
       </c>
       <c r="J9" s="57"/>
       <c r="L9" s="4">
         <f t="shared" si="0"/>
-        <v>139.39551151897655</v>
+        <v>90.294083805770057</v>
       </c>
       <c r="S9" s="226" t="s">
         <v>259</v>
@@ -18688,12 +18688,12 @@
       <c r="H10" s="86"/>
       <c r="I10" s="239">
         <f>[1]ArchetypeDemand!$L$55</f>
-        <v>3.8041601576060773E-4</v>
+        <v>2.4641622412260611E-4</v>
       </c>
       <c r="J10" s="95"/>
       <c r="L10" s="4">
         <f t="shared" si="0"/>
-        <v>105.67111548905771</v>
+        <v>68.448951145168365</v>
       </c>
       <c r="S10" s="223" t="s">
         <v>260</v>
@@ -18765,14 +18765,14 @@
       </c>
       <c r="I12" s="236">
         <f>[1]ArchetypeDemand!$L$6</f>
-        <v>7.5784815901851145E-4</v>
+        <v>3.1499640433377643E-4</v>
       </c>
       <c r="J12" s="129">
         <v>2019</v>
       </c>
       <c r="L12" s="4">
         <f>I12/0.0000036</f>
-        <v>210.51337750514207</v>
+        <v>87.499001203826793</v>
       </c>
       <c r="S12" s="223" t="s">
         <v>262</v>
@@ -18835,12 +18835,12 @@
       <c r="H14" s="62"/>
       <c r="I14" s="238">
         <f>[1]ArchetypeDemand!$L$8</f>
-        <v>6.1667922907240368E-3</v>
+        <v>2.5632013151118248E-3</v>
       </c>
       <c r="J14" s="58"/>
       <c r="L14" s="4">
         <f t="shared" si="1"/>
-        <v>1712.9978585344547</v>
+        <v>712.00036530884029</v>
       </c>
       <c r="S14" s="231" t="s">
         <v>270</v>
@@ -18869,12 +18869,12 @@
       <c r="H15" s="63"/>
       <c r="I15" s="237">
         <f>[1]ArchetypeDemand!$L$9</f>
-        <v>7.3612177725668258E-4</v>
+        <v>3.0596592500527567E-4</v>
       </c>
       <c r="J15" s="57"/>
       <c r="L15" s="4">
         <f t="shared" si="1"/>
-        <v>204.4782714601896</v>
+        <v>84.990534723687688</v>
       </c>
       <c r="S15" s="235" t="s">
         <v>271</v>
@@ -18900,12 +18900,12 @@
       <c r="H16" s="86"/>
       <c r="I16" s="239">
         <f>[1]ArchetypeDemand!$L$10</f>
-        <v>5.2407143773435417E-4</v>
+        <v>2.1782809199424584E-4</v>
       </c>
       <c r="J16" s="95"/>
       <c r="L16" s="4">
         <f t="shared" si="1"/>
-        <v>145.57539937065394</v>
+        <v>60.507803331734962</v>
       </c>
     </row>
     <row r="17" spans="2:39" x14ac:dyDescent="0.2">
@@ -18965,14 +18965,14 @@
       </c>
       <c r="I18" s="236">
         <f>[1]ArchetypeDemand!$L$96</f>
-        <v>3.7645780249386E-3</v>
+        <v>2.4058665241777602E-3</v>
       </c>
       <c r="J18" s="129">
         <v>2019</v>
       </c>
       <c r="L18" s="4">
         <f>I18/0.0000036</f>
-        <v>1045.7161180385001</v>
+        <v>668.29625671604458</v>
       </c>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
@@ -19043,12 +19043,12 @@
       <c r="H20" s="62"/>
       <c r="I20" s="238">
         <f>[1]ArchetypeDemand!$L$98</f>
-        <v>6.6666794692434245E-3</v>
+        <v>4.2605415152040874E-3</v>
       </c>
       <c r="J20" s="58"/>
       <c r="L20" s="4">
         <f t="shared" si="2"/>
-        <v>1851.8554081231734</v>
+        <v>1183.4837542233577</v>
       </c>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
@@ -19119,12 +19119,12 @@
       <c r="H22" s="86"/>
       <c r="I22" s="239">
         <f>[1]ArchetypeDemand!$L$100</f>
-        <v>1.0463165232771768E-3</v>
+        <v>6.686799636959782E-4</v>
       </c>
       <c r="J22" s="95"/>
       <c r="L22" s="4">
         <f t="shared" si="2"/>
-        <v>290.64347868810466</v>
+        <v>185.74443435999396</v>
       </c>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
@@ -20558,7 +20558,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:AT166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="AC24" sqref="AC24"/>
     </sheetView>
   </sheetViews>
@@ -20754,12 +20754,12 @@
         <v>85</v>
       </c>
       <c r="V4" s="535"/>
-      <c r="W4" s="536" t="s">
+      <c r="W4" s="527" t="s">
         <v>86</v>
       </c>
-      <c r="X4" s="537"/>
-      <c r="Y4" s="537"/>
-      <c r="Z4" s="538"/>
+      <c r="X4" s="528"/>
+      <c r="Y4" s="528"/>
+      <c r="Z4" s="529"/>
       <c r="AA4" s="60"/>
       <c r="AB4" s="60"/>
       <c r="AC4" s="68" t="s">
@@ -20864,34 +20864,34 @@
       <c r="F6" s="38"/>
       <c r="G6" s="38"/>
       <c r="H6" s="39"/>
-      <c r="I6" s="527" t="s">
+      <c r="I6" s="530" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="528"/>
-      <c r="K6" s="528"/>
-      <c r="L6" s="529"/>
-      <c r="M6" s="528" t="s">
+      <c r="J6" s="531"/>
+      <c r="K6" s="531"/>
+      <c r="L6" s="532"/>
+      <c r="M6" s="531" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="528"/>
-      <c r="O6" s="528"/>
-      <c r="P6" s="529"/>
-      <c r="Q6" s="527" t="s">
+      <c r="N6" s="531"/>
+      <c r="O6" s="531"/>
+      <c r="P6" s="532"/>
+      <c r="Q6" s="530" t="s">
         <v>34</v>
       </c>
-      <c r="R6" s="528"/>
-      <c r="S6" s="528"/>
-      <c r="T6" s="529"/>
-      <c r="U6" s="527" t="s">
+      <c r="R6" s="531"/>
+      <c r="S6" s="531"/>
+      <c r="T6" s="532"/>
+      <c r="U6" s="530" t="s">
         <v>68</v>
       </c>
-      <c r="V6" s="529"/>
-      <c r="W6" s="527" t="s">
+      <c r="V6" s="532"/>
+      <c r="W6" s="530" t="s">
         <v>525</v>
       </c>
-      <c r="X6" s="528"/>
-      <c r="Y6" s="528"/>
-      <c r="Z6" s="529"/>
+      <c r="X6" s="531"/>
+      <c r="Y6" s="531"/>
+      <c r="Z6" s="532"/>
       <c r="AA6" s="61" t="s">
         <v>537</v>
       </c>
@@ -22180,11 +22180,11 @@
       </c>
       <c r="AM19" s="106"/>
       <c r="AN19" s="105" t="str">
-        <f>C25</f>
+        <f t="shared" ref="AN19:AO21" si="17">C25</f>
         <v>R-SW_Apt_ELC_HPN1</v>
       </c>
       <c r="AO19" s="105" t="str">
-        <f>D25</f>
+        <f t="shared" si="17"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH</v>
       </c>
       <c r="AP19" s="106" t="s">
@@ -22283,11 +22283,11 @@
       </c>
       <c r="AM20" s="212"/>
       <c r="AN20" s="105" t="str">
-        <f>C26</f>
+        <f t="shared" si="17"/>
         <v>R-SH_Apt_ELC_HPN3</v>
       </c>
       <c r="AO20" s="105" t="str">
-        <f>D26</f>
+        <f t="shared" si="17"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH</v>
       </c>
       <c r="AP20" s="106" t="s">
@@ -22349,15 +22349,15 @@
         <v>9.5039999999999996</v>
       </c>
       <c r="X21" s="379">
-        <f t="shared" ref="X21:Z21" si="17">X20+0.6+(0.28*5)</f>
+        <f t="shared" ref="X21:Z21" si="18">X20+0.6+(0.28*5)</f>
         <v>8.82864</v>
       </c>
       <c r="Y21" s="379">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8.2140623999999995</v>
       </c>
       <c r="Z21" s="379">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8.1532799999999988</v>
       </c>
       <c r="AA21" s="379">
@@ -22370,7 +22370,7 @@
       <c r="AF21" s="72"/>
       <c r="AG21" s="72"/>
       <c r="AH21" s="62">
-        <f t="shared" ref="AH21:AH24" si="18">31.536*(AK21/1000)</f>
+        <f t="shared" ref="AH21:AH24" si="19">31.536*(AK21/1000)</f>
         <v>0.15768000000000001</v>
       </c>
       <c r="AI21" s="65"/>
@@ -22382,11 +22382,11 @@
       </c>
       <c r="AM21" s="112"/>
       <c r="AN21" s="108" t="str">
-        <f>C27</f>
+        <f t="shared" si="17"/>
         <v>R-HC_Apt_ELC_HPN2</v>
       </c>
       <c r="AO21" s="108" t="str">
-        <f>D27</f>
+        <f t="shared" si="17"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC</v>
       </c>
       <c r="AP21" s="109" t="s">
@@ -22448,15 +22448,15 @@
         <v>9.6039999999999992</v>
       </c>
       <c r="X22" s="379">
-        <f t="shared" ref="X22:Z22" si="19">X20+0.6+(0.3*5)</f>
+        <f t="shared" ref="X22:Z22" si="20">X20+0.6+(0.3*5)</f>
         <v>8.9286399999999997</v>
       </c>
       <c r="Y22" s="379">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8.314062400000001</v>
       </c>
       <c r="Z22" s="379">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8.2532800000000002</v>
       </c>
       <c r="AA22" s="379">
@@ -22469,7 +22469,7 @@
       <c r="AF22" s="72"/>
       <c r="AG22" s="72"/>
       <c r="AH22" s="62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AI22" s="65"/>
@@ -22547,15 +22547,15 @@
         <v>10.103999999999999</v>
       </c>
       <c r="X23" s="379">
-        <f t="shared" ref="X23:Z23" si="20">X20+0.6+(0.4*5)</f>
+        <f t="shared" ref="X23:Z23" si="21">X20+0.6+(0.4*5)</f>
         <v>9.4286399999999997</v>
       </c>
       <c r="Y23" s="379">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.814062400000001</v>
       </c>
       <c r="Z23" s="379">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.7532800000000002</v>
       </c>
       <c r="AA23" s="379">
@@ -22568,7 +22568,7 @@
       <c r="AF23" s="72"/>
       <c r="AG23" s="72"/>
       <c r="AH23" s="62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AI23" s="65"/>
@@ -22646,15 +22646,15 @@
         <v>10.603999999999999</v>
       </c>
       <c r="X24" s="379">
-        <f t="shared" ref="X24:Z24" si="21">X20+0.6+(0.5*5)</f>
+        <f t="shared" ref="X24:Z24" si="22">X20+0.6+(0.5*5)</f>
         <v>9.9286399999999997</v>
       </c>
       <c r="Y24" s="379">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>9.314062400000001</v>
       </c>
       <c r="Z24" s="379">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>9.2532800000000002</v>
       </c>
       <c r="AA24" s="379">
@@ -22667,7 +22667,7 @@
       <c r="AF24" s="72"/>
       <c r="AG24" s="72"/>
       <c r="AH24" s="62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AI24" s="65"/>
@@ -22740,15 +22740,15 @@
         <v>0.7</v>
       </c>
       <c r="R25" s="23">
-        <f t="shared" ref="R25:T25" si="22">J25*0.7</f>
+        <f t="shared" ref="R25:T25" si="23">J25*0.7</f>
         <v>0.76999999999999991</v>
       </c>
       <c r="S25" s="23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.86333333333333329</v>
       </c>
       <c r="T25" s="57">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.93333333333333324</v>
       </c>
       <c r="U25" s="53">
@@ -23129,15 +23129,15 @@
         <v>1.1666666666666667</v>
       </c>
       <c r="R29" s="20">
-        <f t="shared" ref="R29:T29" si="23">J29*0.7</f>
+        <f t="shared" ref="R29:T29" si="24">J29*0.7</f>
         <v>1.2530864197530862</v>
       </c>
       <c r="S29" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.4691358024691357</v>
       </c>
       <c r="T29" s="56">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.4691358024691357</v>
       </c>
       <c r="U29" s="89">
@@ -23171,7 +23171,7 @@
       <c r="AF29" s="85"/>
       <c r="AG29" s="85"/>
       <c r="AH29" s="85">
-        <f t="shared" ref="AH29:AH30" si="24">31.536*(AK29/1000)</f>
+        <f t="shared" ref="AH29:AH30" si="25">31.536*(AK29/1000)</f>
         <v>0.56764799999999993</v>
       </c>
       <c r="AI29" s="88"/>
@@ -23244,15 +23244,15 @@
         <v>1.1666666666666665</v>
       </c>
       <c r="R30" s="26">
-        <f t="shared" ref="R30" si="25">J30*0.7</f>
+        <f t="shared" ref="R30" si="26">J30*0.7</f>
         <v>1.2055555555555555</v>
       </c>
       <c r="S30" s="26">
-        <f t="shared" ref="S30" si="26">K30*0.7</f>
+        <f t="shared" ref="S30" si="27">K30*0.7</f>
         <v>1.2055555555555555</v>
       </c>
       <c r="T30" s="59">
-        <f t="shared" ref="T30" si="27">L30*0.7</f>
+        <f t="shared" ref="T30" si="28">L30*0.7</f>
         <v>1.2444444444444445</v>
       </c>
       <c r="U30" s="27">
@@ -23286,7 +23286,7 @@
       <c r="AF30" s="64"/>
       <c r="AG30" s="64"/>
       <c r="AH30" s="64">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.56764799999999993</v>
       </c>
       <c r="AI30" s="67"/>
@@ -23401,11 +23401,11 @@
         <v>2.4464999999999999</v>
       </c>
       <c r="S32" s="26">
-        <f t="shared" ref="S32:T32" si="28">K32*0.7</f>
+        <f t="shared" ref="S32:T32" si="29">K32*0.7</f>
         <v>2.625</v>
       </c>
       <c r="T32" s="59">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.625</v>
       </c>
       <c r="U32" s="256">
@@ -23574,7 +23574,7 @@
       <c r="AF34" s="85"/>
       <c r="AG34" s="85"/>
       <c r="AH34" s="85">
-        <f t="shared" ref="AH34:AH35" si="29">31.536*(AK34/1000)</f>
+        <f t="shared" ref="AH34:AH35" si="30">31.536*(AK34/1000)</f>
         <v>0.56764799999999993</v>
       </c>
       <c r="AI34" s="88"/>
@@ -23660,7 +23660,7 @@
       <c r="AF35" s="63"/>
       <c r="AG35" s="63"/>
       <c r="AH35" s="64">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.56764799999999993</v>
       </c>
       <c r="AI35" s="67"/>
@@ -23777,7 +23777,7 @@
       <c r="AF37" s="85"/>
       <c r="AG37" s="85"/>
       <c r="AH37" s="85">
-        <f t="shared" ref="AH37:AH38" si="30">31.536*(AK37/1000)</f>
+        <f t="shared" ref="AH37:AH38" si="31">31.536*(AK37/1000)</f>
         <v>0.15768000000000001</v>
       </c>
       <c r="AI37" s="88"/>
@@ -23867,7 +23867,7 @@
       <c r="AF38" s="63"/>
       <c r="AG38" s="63"/>
       <c r="AH38" s="63">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AI38" s="66"/>
@@ -24035,7 +24035,7 @@
       <c r="AF40" s="85"/>
       <c r="AG40" s="85"/>
       <c r="AH40" s="85">
-        <f t="shared" ref="AH40:AH41" si="31">31.536*(AK40/1000)</f>
+        <f t="shared" ref="AH40:AH41" si="32">31.536*(AK40/1000)</f>
         <v>0.15768000000000001</v>
       </c>
       <c r="AI40" s="88"/>
@@ -24139,7 +24139,7 @@
       <c r="AF41" s="63"/>
       <c r="AG41" s="63"/>
       <c r="AH41" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AI41" s="67"/>
@@ -24320,11 +24320,11 @@
         <v>31</v>
       </c>
       <c r="AN45" s="105" t="str">
-        <f t="shared" ref="AN45:AN60" si="32">C49</f>
+        <f t="shared" ref="AN45:AN60" si="33">C49</f>
         <v>R-SH_Att_KER_N1</v>
       </c>
       <c r="AO45" s="105" t="str">
-        <f t="shared" ref="AO45:AO60" si="33">D49</f>
+        <f t="shared" ref="AO45:AO60" si="34">D49</f>
         <v>Residential Kerosene Heating Oil - New 1 SH</v>
       </c>
       <c r="AP45" s="106" t="s">
@@ -24377,12 +24377,12 @@
         <v>85</v>
       </c>
       <c r="V46" s="535"/>
-      <c r="W46" s="536" t="s">
+      <c r="W46" s="527" t="s">
         <v>86</v>
       </c>
-      <c r="X46" s="537"/>
-      <c r="Y46" s="537"/>
-      <c r="Z46" s="538"/>
+      <c r="X46" s="528"/>
+      <c r="Y46" s="528"/>
+      <c r="Z46" s="529"/>
       <c r="AA46" s="60"/>
       <c r="AB46" s="60"/>
       <c r="AC46" s="68" t="s">
@@ -24410,11 +24410,11 @@
       <c r="AK46" s="60"/>
       <c r="AM46" s="106"/>
       <c r="AN46" s="105" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>R-SW_Att_KER_N1</v>
       </c>
       <c r="AO46" s="105" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>Residential Kerosene Heating Oil - New 2 SH + WH</v>
       </c>
       <c r="AP46" s="106" t="s">
@@ -24468,11 +24468,11 @@
       <c r="AK47" s="372"/>
       <c r="AM47" s="106"/>
       <c r="AN47" s="105" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>R-SW_Att_KER_N2</v>
       </c>
       <c r="AO47" s="105" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Solar</v>
       </c>
       <c r="AP47" s="106" t="s">
@@ -24495,34 +24495,34 @@
       <c r="F48" s="38"/>
       <c r="G48" s="38"/>
       <c r="H48" s="39"/>
-      <c r="I48" s="527" t="s">
+      <c r="I48" s="530" t="s">
         <v>34</v>
       </c>
-      <c r="J48" s="528"/>
-      <c r="K48" s="528"/>
-      <c r="L48" s="529"/>
-      <c r="M48" s="528" t="s">
+      <c r="J48" s="531"/>
+      <c r="K48" s="531"/>
+      <c r="L48" s="532"/>
+      <c r="M48" s="531" t="s">
         <v>34</v>
       </c>
-      <c r="N48" s="528"/>
-      <c r="O48" s="528"/>
-      <c r="P48" s="529"/>
-      <c r="Q48" s="527" t="s">
+      <c r="N48" s="531"/>
+      <c r="O48" s="531"/>
+      <c r="P48" s="532"/>
+      <c r="Q48" s="530" t="s">
         <v>34</v>
       </c>
-      <c r="R48" s="528"/>
-      <c r="S48" s="528"/>
-      <c r="T48" s="529"/>
-      <c r="U48" s="530" t="s">
+      <c r="R48" s="531"/>
+      <c r="S48" s="531"/>
+      <c r="T48" s="532"/>
+      <c r="U48" s="536" t="s">
         <v>68</v>
       </c>
-      <c r="V48" s="531"/>
-      <c r="W48" s="530" t="s">
+      <c r="V48" s="537"/>
+      <c r="W48" s="536" t="s">
         <v>525</v>
       </c>
-      <c r="X48" s="532"/>
-      <c r="Y48" s="532"/>
-      <c r="Z48" s="531"/>
+      <c r="X48" s="538"/>
+      <c r="Y48" s="538"/>
+      <c r="Z48" s="537"/>
       <c r="AA48" s="373" t="s">
         <v>537</v>
       </c>
@@ -24554,11 +24554,11 @@
       </c>
       <c r="AM48" s="106"/>
       <c r="AN48" s="105" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>R-SW_Att_KER_N3</v>
       </c>
       <c r="AO48" s="105" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Wood Stove</v>
       </c>
       <c r="AP48" s="107" t="s">
@@ -24615,15 +24615,15 @@
         <v>4.2250000000000005</v>
       </c>
       <c r="X49" s="379">
-        <f t="shared" ref="X49:Z49" si="34">X53*1.3</f>
+        <f t="shared" ref="X49:Z49" si="35">X53*1.3</f>
         <v>4.2250000000000005</v>
       </c>
       <c r="Y49" s="379">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.2250000000000005</v>
       </c>
       <c r="Z49" s="379">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.2250000000000005</v>
       </c>
       <c r="AA49" s="379">
@@ -24636,7 +24636,7 @@
       <c r="AF49" s="72"/>
       <c r="AG49" s="72"/>
       <c r="AH49" s="62">
-        <f t="shared" ref="AH49:AH87" si="35">31.536*(AK49/1000)</f>
+        <f t="shared" ref="AH49:AH87" si="36">31.536*(AK49/1000)</f>
         <v>0.63072000000000006</v>
       </c>
       <c r="AI49" s="65"/>
@@ -24648,11 +24648,11 @@
       </c>
       <c r="AM49" s="106"/>
       <c r="AN49" s="105" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>R-SH_Att_GAS_N1</v>
       </c>
       <c r="AO49" s="105" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>Residential Natural Gas Heating - New 1 SH</v>
       </c>
       <c r="AP49" s="106" t="s">
@@ -24703,15 +24703,15 @@
         <v>0.7</v>
       </c>
       <c r="R50" s="23">
-        <f t="shared" ref="R50:R52" si="36">J50*0.7</f>
+        <f t="shared" ref="R50:R52" si="37">J50*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S50" s="23">
-        <f t="shared" ref="S50:S52" si="37">K50*0.7</f>
+        <f t="shared" ref="S50:S52" si="38">K50*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T50" s="57">
-        <f t="shared" ref="T50:T52" si="38">L50*0.7</f>
+        <f t="shared" ref="T50:T52" si="39">L50*0.7</f>
         <v>0.7</v>
       </c>
       <c r="U50" s="53">
@@ -24723,15 +24723,15 @@
         <v>4.2773760330578519</v>
       </c>
       <c r="X50" s="380">
-        <f t="shared" ref="X50:Z50" si="39">X54*1.3</f>
+        <f t="shared" ref="X50:Z50" si="40">X54*1.3</f>
         <v>4.2773760330578519</v>
       </c>
       <c r="Y50" s="380">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4.2773760330578519</v>
       </c>
       <c r="Z50" s="380">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4.2773760330578519</v>
       </c>
       <c r="AA50" s="380">
@@ -24744,7 +24744,7 @@
       <c r="AF50" s="73"/>
       <c r="AG50" s="73"/>
       <c r="AH50" s="63">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AI50" s="66"/>
@@ -24756,11 +24756,11 @@
       </c>
       <c r="AM50" s="106"/>
       <c r="AN50" s="105" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>R-SW_Att_GAS_N1</v>
       </c>
       <c r="AO50" s="105" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>Residential Natural Gas Heating - New 2 SH + WH</v>
       </c>
       <c r="AP50" s="106" t="s">
@@ -24811,15 +24811,15 @@
         <v>0.7</v>
       </c>
       <c r="R51" s="29">
-        <f t="shared" si="36"/>
-        <v>0.7</v>
-      </c>
-      <c r="S51" s="29">
         <f t="shared" si="37"/>
         <v>0.7</v>
       </c>
+      <c r="S51" s="29">
+        <f t="shared" si="38"/>
+        <v>0.7</v>
+      </c>
       <c r="T51" s="58">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.7</v>
       </c>
       <c r="U51" s="54">
@@ -24857,7 +24857,7 @@
         <v>5</v>
       </c>
       <c r="AH51" s="62">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AI51" s="65"/>
@@ -24869,11 +24869,11 @@
       </c>
       <c r="AM51" s="106"/>
       <c r="AN51" s="105" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>R-SW_Att_GAS_N2</v>
       </c>
       <c r="AO51" s="105" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>Residential Natural Gas Heating - New 3 SH + WH + Solar</v>
       </c>
       <c r="AP51" s="106" t="s">
@@ -24924,15 +24924,15 @@
         <v>0.7</v>
       </c>
       <c r="R52" s="23">
-        <f t="shared" si="36"/>
-        <v>0.71749999999999992</v>
-      </c>
-      <c r="S52" s="23">
         <f t="shared" si="37"/>
         <v>0.71749999999999992</v>
       </c>
+      <c r="S52" s="23">
+        <f t="shared" si="38"/>
+        <v>0.71749999999999992</v>
+      </c>
       <c r="T52" s="57">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="U52" s="53">
@@ -24982,11 +24982,11 @@
       </c>
       <c r="AM52" s="106"/>
       <c r="AN52" s="105" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>R-SW_Att_GAS_N3</v>
       </c>
       <c r="AO52" s="105" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>Residential Natural Gas Heating - New 4 SH + WH + Wood Stove</v>
       </c>
       <c r="AP52" s="106" t="s">
@@ -25045,15 +25045,15 @@
         <v>3.25</v>
       </c>
       <c r="X53" s="379">
-        <f t="shared" ref="X53:Z53" si="40">3.25</f>
+        <f t="shared" ref="X53:Z53" si="41">3.25</f>
         <v>3.25</v>
       </c>
       <c r="Y53" s="379">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3.25</v>
       </c>
       <c r="Z53" s="379">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3.25</v>
       </c>
       <c r="AA53" s="379">
@@ -25066,7 +25066,7 @@
       <c r="AF53" s="72"/>
       <c r="AG53" s="72"/>
       <c r="AH53" s="62">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AI53" s="65"/>
@@ -25078,11 +25078,11 @@
       </c>
       <c r="AM53" s="106"/>
       <c r="AN53" s="105" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>R-SH_Att_LPG_N1</v>
       </c>
       <c r="AO53" s="105" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>Residential Liquid Petroleum Gas- New 1 SH</v>
       </c>
       <c r="AP53" s="106" t="s">
@@ -25133,15 +25133,15 @@
         <v>0.7</v>
       </c>
       <c r="R54" s="23">
-        <f t="shared" ref="R54:R56" si="41">J54*0.7</f>
+        <f t="shared" ref="R54:R56" si="42">J54*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S54" s="23">
-        <f t="shared" ref="S54:S56" si="42">K54*0.7</f>
+        <f t="shared" ref="S54:S56" si="43">K54*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T54" s="57">
-        <f t="shared" ref="T54:T56" si="43">L54*0.7</f>
+        <f t="shared" ref="T54:T56" si="44">L54*0.7</f>
         <v>0.7</v>
       </c>
       <c r="U54" s="53">
@@ -25174,7 +25174,7 @@
       <c r="AF54" s="73"/>
       <c r="AG54" s="73"/>
       <c r="AH54" s="63">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AI54" s="66"/>
@@ -25186,11 +25186,11 @@
       </c>
       <c r="AM54" s="106"/>
       <c r="AN54" s="105" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>R-SW_Att_LPG_N1</v>
       </c>
       <c r="AO54" s="105" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>Residential Liquid Petroleum Gas- New 2 SH + WH</v>
       </c>
       <c r="AP54" s="106" t="s">
@@ -25241,15 +25241,15 @@
         <v>0.7</v>
       </c>
       <c r="R55" s="29">
-        <f t="shared" si="41"/>
-        <v>0.7</v>
-      </c>
-      <c r="S55" s="29">
         <f t="shared" si="42"/>
         <v>0.7</v>
       </c>
+      <c r="S55" s="29">
+        <f t="shared" si="43"/>
+        <v>0.7</v>
+      </c>
       <c r="T55" s="58">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.7</v>
       </c>
       <c r="U55" s="54">
@@ -25285,7 +25285,7 @@
         <v>5</v>
       </c>
       <c r="AH55" s="62">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AI55" s="65"/>
@@ -25297,11 +25297,11 @@
       </c>
       <c r="AM55" s="106"/>
       <c r="AN55" s="105" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>R-SH_Att_WOO_N1</v>
       </c>
       <c r="AO55" s="105" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>Residential Biomass Boiler - New 1 SH</v>
       </c>
       <c r="AP55" s="106" t="s">
@@ -25352,15 +25352,15 @@
         <v>0.7</v>
       </c>
       <c r="R56" s="23">
-        <f t="shared" si="41"/>
-        <v>0.71749999999999992</v>
-      </c>
-      <c r="S56" s="23">
         <f t="shared" si="42"/>
         <v>0.71749999999999992</v>
       </c>
+      <c r="S56" s="23">
+        <f t="shared" si="43"/>
+        <v>0.71749999999999992</v>
+      </c>
       <c r="T56" s="57">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="U56" s="53">
@@ -25398,7 +25398,7 @@
         <v>5</v>
       </c>
       <c r="AH56" s="63">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AI56" s="66"/>
@@ -25410,11 +25410,11 @@
       </c>
       <c r="AM56" s="109"/>
       <c r="AN56" s="108" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>R-SW_Att_WOO_N1</v>
       </c>
       <c r="AO56" s="108" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>Residential Biomass Boiler - New 2 SH + WH</v>
       </c>
       <c r="AP56" s="109" t="s">
@@ -25495,7 +25495,7 @@
       <c r="AF57" s="72"/>
       <c r="AG57" s="72"/>
       <c r="AH57" s="62">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AI57" s="65"/>
@@ -25510,7 +25510,7 @@
         <v>587</v>
       </c>
       <c r="AO57" s="108" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>Residential  Stove New 1 - SH</v>
       </c>
       <c r="AP57" s="106" t="s">
@@ -25559,15 +25559,15 @@
         <v>0.7</v>
       </c>
       <c r="R58" s="23">
-        <f t="shared" ref="R58" si="44">J58*0.7</f>
+        <f t="shared" ref="R58" si="45">J58*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S58" s="23">
-        <f t="shared" ref="S58" si="45">K58*0.7</f>
+        <f t="shared" ref="S58" si="46">K58*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T58" s="57">
-        <f t="shared" ref="T58" si="46">L58*0.7</f>
+        <f t="shared" ref="T58" si="47">L58*0.7</f>
         <v>0.7</v>
       </c>
       <c r="U58" s="53">
@@ -25601,7 +25601,7 @@
       <c r="AF58" s="73"/>
       <c r="AG58" s="73"/>
       <c r="AH58" s="63">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AI58" s="66"/>
@@ -25616,7 +25616,7 @@
         <v>588</v>
       </c>
       <c r="AO58" s="108" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>Residential  Stove with back boiler New 1 - SH +WH</v>
       </c>
       <c r="AP58" s="109" t="s">
@@ -25693,7 +25693,7 @@
       <c r="AF59" s="72"/>
       <c r="AG59" s="72"/>
       <c r="AH59" s="62">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AI59" s="65"/>
@@ -25705,11 +25705,11 @@
       </c>
       <c r="AM59" s="109"/>
       <c r="AN59" s="108" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>R-SH_Att_HVO_N1</v>
       </c>
       <c r="AO59" s="108" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>Residential  Hydrotreated vegetable oil - New 1 SH</v>
       </c>
       <c r="AP59" s="109" t="s">
@@ -25756,19 +25756,19 @@
       <c r="O60" s="32"/>
       <c r="P60" s="45"/>
       <c r="Q60" s="22">
-        <f t="shared" ref="Q60:T64" si="47">I60*0.7</f>
+        <f t="shared" ref="Q60:T64" si="48">I60*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R60" s="23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.7</v>
       </c>
       <c r="S60" s="23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.7</v>
       </c>
       <c r="T60" s="57">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.7</v>
       </c>
       <c r="U60" s="53">
@@ -25801,7 +25801,7 @@
       <c r="AF60" s="73"/>
       <c r="AG60" s="73"/>
       <c r="AH60" s="63">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AI60" s="66"/>
@@ -25813,11 +25813,11 @@
       </c>
       <c r="AM60" s="109"/>
       <c r="AN60" s="108" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>R-SW_Att_HVO_N1</v>
       </c>
       <c r="AO60" s="108" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>Residential  Hydrotreated vegetable oil - New 1 SH + WH</v>
       </c>
       <c r="AP60" s="109" t="s">
@@ -25897,7 +25897,7 @@
       <c r="AF61" s="73"/>
       <c r="AG61" s="73"/>
       <c r="AH61" s="63">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AI61" s="66"/>
@@ -25960,19 +25960,19 @@
       <c r="O62" s="32"/>
       <c r="P62" s="45"/>
       <c r="Q62" s="22">
-        <f t="shared" ref="Q62" si="48">I62*0.7</f>
+        <f t="shared" ref="Q62" si="49">I62*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="R62" s="23">
-        <f t="shared" ref="R62" si="49">J62*0.7</f>
+        <f t="shared" ref="R62" si="50">J62*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="S62" s="23">
-        <f t="shared" ref="S62" si="50">K62*0.7</f>
+        <f t="shared" ref="S62" si="51">K62*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="T62" s="57">
-        <f t="shared" ref="T62" si="51">L62*0.7</f>
+        <f t="shared" ref="T62" si="52">L62*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="U62" s="53">
@@ -26005,7 +26005,7 @@
       <c r="AF62" s="73"/>
       <c r="AG62" s="73"/>
       <c r="AH62" s="63">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AI62" s="66"/>
@@ -26017,11 +26017,11 @@
       </c>
       <c r="AM62" s="104"/>
       <c r="AN62" s="103" t="str">
-        <f t="shared" ref="AN62:AO68" si="52">C68</f>
+        <f t="shared" ref="AN62:AO68" si="53">C68</f>
         <v>R-SH_Att_ELC_HPN1</v>
       </c>
       <c r="AO62" s="103" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>Residential Electric Heat Pump - Air to Air - SH</v>
       </c>
       <c r="AP62" s="104" t="s">
@@ -26079,19 +26079,19 @@
         <v>4.2250000000000005</v>
       </c>
       <c r="X63" s="62">
-        <f t="shared" ref="X63:AA64" si="53">X49</f>
+        <f t="shared" ref="X63:AA64" si="54">X49</f>
         <v>4.2250000000000005</v>
       </c>
       <c r="Y63" s="62">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>4.2250000000000005</v>
       </c>
       <c r="Z63" s="62">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>4.2250000000000005</v>
       </c>
       <c r="AA63" s="62">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.12</v>
       </c>
       <c r="AB63" s="65"/>
@@ -26113,11 +26113,11 @@
       </c>
       <c r="AM63" s="106"/>
       <c r="AN63" s="105" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>R-HC_Att_ELC_HPN1</v>
       </c>
       <c r="AO63" s="105" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>Residential Electric Heat Pump - Air to Air - SH + SC</v>
       </c>
       <c r="AP63" s="106" t="s">
@@ -26163,19 +26163,19 @@
       <c r="O64" s="50"/>
       <c r="P64" s="51"/>
       <c r="Q64" s="252">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="R64" s="26">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="S64" s="26">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="T64" s="59">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="U64" s="55">
@@ -26187,19 +26187,19 @@
         <v>4.2773760330578519</v>
       </c>
       <c r="X64" s="62">
-        <f t="shared" ref="X64:Z64" si="54">X50</f>
+        <f t="shared" ref="X64:Z64" si="55">X50</f>
         <v>4.2773760330578519</v>
       </c>
       <c r="Y64" s="62">
+        <f t="shared" si="55"/>
+        <v>4.2773760330578519</v>
+      </c>
+      <c r="Z64" s="62">
+        <f t="shared" si="55"/>
+        <v>4.2773760330578519</v>
+      </c>
+      <c r="AA64" s="62">
         <f t="shared" si="54"/>
-        <v>4.2773760330578519</v>
-      </c>
-      <c r="Z64" s="62">
-        <f t="shared" si="54"/>
-        <v>4.2773760330578519</v>
-      </c>
-      <c r="AA64" s="62">
-        <f t="shared" si="53"/>
         <v>0.12</v>
       </c>
       <c r="AB64" s="66"/>
@@ -26209,7 +26209,7 @@
       <c r="AF64" s="73"/>
       <c r="AG64" s="73"/>
       <c r="AH64" s="63">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AI64" s="67"/>
@@ -26221,11 +26221,11 @@
       </c>
       <c r="AM64" s="106"/>
       <c r="AN64" s="105" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>R-SH_Att_ELC_HPN2</v>
       </c>
       <c r="AO64" s="105" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>Residential Electric Heat Pump - Air to Water - SH</v>
       </c>
       <c r="AP64" s="106" t="s">
@@ -26279,11 +26279,11 @@
       <c r="AK65" s="34"/>
       <c r="AM65" s="106"/>
       <c r="AN65" s="105" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>R-SW_Att_ELC_HPN1</v>
       </c>
       <c r="AO65" s="105" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH</v>
       </c>
       <c r="AP65" s="106" t="s">
@@ -26364,7 +26364,7 @@
       <c r="AF66" s="84"/>
       <c r="AG66" s="84"/>
       <c r="AH66" s="82">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AI66" s="83"/>
@@ -26376,11 +26376,11 @@
       </c>
       <c r="AM66" s="212"/>
       <c r="AN66" s="105" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>R-SW_Att_ELC_HPN2</v>
       </c>
       <c r="AO66" s="105" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar</v>
       </c>
       <c r="AP66" s="106" t="s">
@@ -26434,11 +26434,11 @@
       <c r="AK67" s="34"/>
       <c r="AM67" s="212"/>
       <c r="AN67" s="105" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>R-SH_Att_ELC_HPN3</v>
       </c>
       <c r="AO67" s="105" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH</v>
       </c>
       <c r="AP67" s="106" t="s">
@@ -26524,7 +26524,7 @@
       <c r="AF68" s="85"/>
       <c r="AG68" s="85"/>
       <c r="AH68" s="85">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.220752</v>
       </c>
       <c r="AI68" s="88"/>
@@ -26536,11 +26536,11 @@
       </c>
       <c r="AM68" s="112"/>
       <c r="AN68" s="108" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>R-HC_Att_ELC_HPN2</v>
       </c>
       <c r="AO68" s="108" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC</v>
       </c>
       <c r="AP68" s="109" t="s">
@@ -26637,7 +26637,7 @@
       <c r="AF69" s="63"/>
       <c r="AG69" s="63"/>
       <c r="AH69" s="63">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AI69" s="66"/>
@@ -26737,7 +26737,7 @@
       <c r="AF70" s="62"/>
       <c r="AG70" s="62"/>
       <c r="AH70" s="62">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.220752</v>
       </c>
       <c r="AI70" s="65"/>
@@ -26809,15 +26809,15 @@
         <v>0.7</v>
       </c>
       <c r="R71" s="23">
-        <f t="shared" ref="R71:R72" si="55">J71*0.7</f>
+        <f t="shared" ref="R71:R72" si="56">J71*0.7</f>
         <v>0.76999999999999991</v>
       </c>
       <c r="S71" s="23">
-        <f t="shared" ref="S71:S72" si="56">K71*0.7</f>
+        <f t="shared" ref="S71:S72" si="57">K71*0.7</f>
         <v>0.86333333333333329</v>
       </c>
       <c r="T71" s="57">
-        <f t="shared" ref="T71:T72" si="57">L71*0.7</f>
+        <f t="shared" ref="T71:T72" si="58">L71*0.7</f>
         <v>0.93333333333333324</v>
       </c>
       <c r="U71" s="53">
@@ -26850,7 +26850,7 @@
       <c r="AF71" s="63"/>
       <c r="AG71" s="63"/>
       <c r="AH71" s="63">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AI71" s="66"/>
@@ -26919,15 +26919,15 @@
         <v>0.7</v>
       </c>
       <c r="R72" s="29">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.77700000000000002</v>
       </c>
       <c r="S72" s="29">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="T72" s="58">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="U72" s="54">
@@ -26965,7 +26965,7 @@
         <v>5</v>
       </c>
       <c r="AH72" s="62">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AI72" s="65"/>
@@ -27068,7 +27068,7 @@
       <c r="AF73" s="63"/>
       <c r="AG73" s="63"/>
       <c r="AH73" s="63">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.220752</v>
       </c>
       <c r="AI73" s="66"/>
@@ -27183,7 +27183,7 @@
       <c r="AF74" s="86"/>
       <c r="AG74" s="86"/>
       <c r="AH74" s="86">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AI74" s="91"/>
@@ -27314,15 +27314,15 @@
         <v>1.1666666666666667</v>
       </c>
       <c r="R76" s="20">
-        <f t="shared" ref="R76:R77" si="58">J76*0.7</f>
+        <f t="shared" ref="R76:R77" si="59">J76*0.7</f>
         <v>1.2530864197530862</v>
       </c>
       <c r="S76" s="20">
-        <f t="shared" ref="S76:S77" si="59">K76*0.7</f>
+        <f t="shared" ref="S76:S77" si="60">K76*0.7</f>
         <v>1.4691358024691357</v>
       </c>
       <c r="T76" s="56">
-        <f t="shared" ref="T76:T77" si="60">L76*0.7</f>
+        <f t="shared" ref="T76:T77" si="61">L76*0.7</f>
         <v>1.4691358024691357</v>
       </c>
       <c r="U76" s="89">
@@ -27356,7 +27356,7 @@
       <c r="AF76" s="85"/>
       <c r="AG76" s="85"/>
       <c r="AH76" s="85">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AI76" s="88"/>
@@ -27429,15 +27429,15 @@
         <v>1.1666666666666665</v>
       </c>
       <c r="R77" s="26">
-        <f t="shared" si="58"/>
-        <v>1.2055555555555555</v>
-      </c>
-      <c r="S77" s="26">
         <f t="shared" si="59"/>
         <v>1.2055555555555555</v>
       </c>
+      <c r="S77" s="26">
+        <f t="shared" si="60"/>
+        <v>1.2055555555555555</v>
+      </c>
       <c r="T77" s="59">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>1.2444444444444445</v>
       </c>
       <c r="U77" s="27">
@@ -27564,15 +27564,15 @@
         <v>2.2084999999999999</v>
       </c>
       <c r="R79" s="26">
-        <f t="shared" ref="R79" si="61">J79*0.7</f>
+        <f t="shared" ref="R79" si="62">J79*0.7</f>
         <v>2.4464999999999999</v>
       </c>
       <c r="S79" s="26">
-        <f t="shared" ref="S79" si="62">K79*0.7</f>
+        <f t="shared" ref="S79" si="63">K79*0.7</f>
         <v>2.625</v>
       </c>
       <c r="T79" s="59">
-        <f t="shared" ref="T79" si="63">L79*0.7</f>
+        <f t="shared" ref="T79" si="64">L79*0.7</f>
         <v>2.625</v>
       </c>
       <c r="U79" s="3">
@@ -27583,15 +27583,15 @@
         <v>9.5138179028489738</v>
       </c>
       <c r="X79" s="79">
-        <f t="shared" ref="X79:Z79" si="64">(X71+X54)*0.8</f>
+        <f t="shared" ref="X79:Z79" si="65">(X71+X54)*0.8</f>
         <v>8.8944751180388462</v>
       </c>
       <c r="Y79" s="79">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>8.3308731838616321</v>
       </c>
       <c r="Z79" s="79">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>8.2751323332287203</v>
       </c>
       <c r="AA79" s="371">
@@ -27612,7 +27612,7 @@
         <v>5</v>
       </c>
       <c r="AH79" s="82">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.45017639999999998</v>
       </c>
       <c r="AI79" s="83"/>
@@ -27738,7 +27738,7 @@
       <c r="AF81" s="85"/>
       <c r="AG81" s="85"/>
       <c r="AH81" s="85">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AI81" s="88"/>
@@ -27824,7 +27824,7 @@
       <c r="AF82" s="64"/>
       <c r="AG82" s="64"/>
       <c r="AH82" s="64">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AI82" s="67"/>
@@ -27941,7 +27941,7 @@
       <c r="AF84" s="85"/>
       <c r="AG84" s="85"/>
       <c r="AH84" s="85">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.18921600000000002</v>
       </c>
       <c r="AI84" s="88"/>
@@ -28021,7 +28021,7 @@
       <c r="AF85" s="63"/>
       <c r="AG85" s="63"/>
       <c r="AH85" s="63">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.18921600000000002</v>
       </c>
       <c r="AI85" s="67"/>
@@ -28141,7 +28141,7 @@
       <c r="AF87" s="93"/>
       <c r="AG87" s="93"/>
       <c r="AH87" s="93">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.18921600000000002</v>
       </c>
       <c r="AI87" s="92"/>
@@ -28384,12 +28384,12 @@
         <v>85</v>
       </c>
       <c r="V94" s="535"/>
-      <c r="W94" s="536" t="s">
+      <c r="W94" s="527" t="s">
         <v>86</v>
       </c>
-      <c r="X94" s="537"/>
-      <c r="Y94" s="537"/>
-      <c r="Z94" s="538"/>
+      <c r="X94" s="528"/>
+      <c r="Y94" s="528"/>
+      <c r="Z94" s="529"/>
       <c r="AA94" s="60"/>
       <c r="AB94" s="60"/>
       <c r="AC94" s="68" t="s">
@@ -28417,11 +28417,11 @@
       <c r="AK94" s="60"/>
       <c r="AM94" s="106"/>
       <c r="AN94" s="105" t="str">
-        <f t="shared" ref="AN94:AN108" si="65">C98</f>
+        <f t="shared" ref="AN94:AN108" si="66">C98</f>
         <v>R-SW_Det_KER_N1</v>
       </c>
       <c r="AO94" s="105" t="str">
-        <f t="shared" ref="AO94:AO108" si="66">D98</f>
+        <f t="shared" ref="AO94:AO108" si="67">D98</f>
         <v>Residential Kerosene Heating Oil - New 2 SH + WH</v>
       </c>
       <c r="AP94" s="106" t="s">
@@ -28475,11 +28475,11 @@
       <c r="AK95" s="372"/>
       <c r="AM95" s="106"/>
       <c r="AN95" s="105" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>R-SW_Det_KER_N2</v>
       </c>
       <c r="AO95" s="105" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Solar</v>
       </c>
       <c r="AP95" s="106" t="s">
@@ -28502,34 +28502,34 @@
       <c r="F96" s="38"/>
       <c r="G96" s="38"/>
       <c r="H96" s="39"/>
-      <c r="I96" s="527" t="s">
+      <c r="I96" s="530" t="s">
         <v>34</v>
       </c>
-      <c r="J96" s="528"/>
-      <c r="K96" s="528"/>
-      <c r="L96" s="529"/>
-      <c r="M96" s="528" t="s">
+      <c r="J96" s="531"/>
+      <c r="K96" s="531"/>
+      <c r="L96" s="532"/>
+      <c r="M96" s="531" t="s">
         <v>34</v>
       </c>
-      <c r="N96" s="528"/>
-      <c r="O96" s="528"/>
-      <c r="P96" s="529"/>
-      <c r="Q96" s="527" t="s">
+      <c r="N96" s="531"/>
+      <c r="O96" s="531"/>
+      <c r="P96" s="532"/>
+      <c r="Q96" s="530" t="s">
         <v>34</v>
       </c>
-      <c r="R96" s="528"/>
-      <c r="S96" s="528"/>
-      <c r="T96" s="529"/>
-      <c r="U96" s="530" t="s">
+      <c r="R96" s="531"/>
+      <c r="S96" s="531"/>
+      <c r="T96" s="532"/>
+      <c r="U96" s="536" t="s">
         <v>68</v>
       </c>
-      <c r="V96" s="531"/>
-      <c r="W96" s="530" t="s">
+      <c r="V96" s="537"/>
+      <c r="W96" s="536" t="s">
         <v>525</v>
       </c>
-      <c r="X96" s="532"/>
-      <c r="Y96" s="532"/>
-      <c r="Z96" s="531"/>
+      <c r="X96" s="538"/>
+      <c r="Y96" s="538"/>
+      <c r="Z96" s="537"/>
       <c r="AA96" s="373" t="s">
         <v>537</v>
       </c>
@@ -28561,11 +28561,11 @@
       </c>
       <c r="AM96" s="106"/>
       <c r="AN96" s="105" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>R-SW_Det_KER_N3</v>
       </c>
       <c r="AO96" s="105" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Wood Stove</v>
       </c>
       <c r="AP96" s="107" t="s">
@@ -28622,15 +28622,15 @@
         <v>4.5825000000000005</v>
       </c>
       <c r="X97" s="379">
-        <f t="shared" ref="X97:Z97" si="67">X101*1.3</f>
+        <f t="shared" ref="X97:Z97" si="68">X101*1.3</f>
         <v>4.5825000000000005</v>
       </c>
       <c r="Y97" s="379">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>4.5825000000000005</v>
       </c>
       <c r="Z97" s="379">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>4.5825000000000005</v>
       </c>
       <c r="AA97" s="379">
@@ -28643,7 +28643,7 @@
       <c r="AF97" s="72"/>
       <c r="AG97" s="72"/>
       <c r="AH97" s="62">
-        <f t="shared" ref="AH97:AH135" si="68">31.536*(AK97/1000)</f>
+        <f t="shared" ref="AH97:AH135" si="69">31.536*(AK97/1000)</f>
         <v>0.94608000000000003</v>
       </c>
       <c r="AI97" s="65"/>
@@ -28655,11 +28655,11 @@
       </c>
       <c r="AM97" s="106"/>
       <c r="AN97" s="105" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>R-SH_Det_GAS_N1</v>
       </c>
       <c r="AO97" s="105" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>Residential Natural Gas Heating - New 1 SH</v>
       </c>
       <c r="AP97" s="106" t="s">
@@ -28710,15 +28710,15 @@
         <v>0.7</v>
       </c>
       <c r="R98" s="23">
-        <f t="shared" ref="R98:R100" si="69">J98*0.7</f>
+        <f t="shared" ref="R98:R100" si="70">J98*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S98" s="23">
-        <f t="shared" ref="S98:S100" si="70">K98*0.7</f>
+        <f t="shared" ref="S98:S100" si="71">K98*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T98" s="57">
-        <f t="shared" ref="T98:T100" si="71">L98*0.7</f>
+        <f t="shared" ref="T98:T100" si="72">L98*0.7</f>
         <v>0.7</v>
       </c>
       <c r="U98" s="53">
@@ -28730,15 +28730,15 @@
         <v>4.9452075289575284</v>
       </c>
       <c r="X98" s="380">
-        <f t="shared" ref="X98:Z98" si="72">X102*1.3</f>
+        <f t="shared" ref="X98:Z98" si="73">X102*1.3</f>
         <v>4.9452075289575284</v>
       </c>
       <c r="Y98" s="380">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>4.9452075289575284</v>
       </c>
       <c r="Z98" s="380">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>4.9452075289575284</v>
       </c>
       <c r="AA98" s="380">
@@ -28751,7 +28751,7 @@
       <c r="AF98" s="73"/>
       <c r="AG98" s="73"/>
       <c r="AH98" s="63">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AI98" s="66"/>
@@ -28763,11 +28763,11 @@
       </c>
       <c r="AM98" s="106"/>
       <c r="AN98" s="105" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>R-SW_Det_GAS_N1</v>
       </c>
       <c r="AO98" s="105" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>Residential Natural Gas Heating - New 2 SH + WH</v>
       </c>
       <c r="AP98" s="106" t="s">
@@ -28818,15 +28818,15 @@
         <v>0.7</v>
       </c>
       <c r="R99" s="29">
-        <f t="shared" si="69"/>
-        <v>0.7</v>
-      </c>
-      <c r="S99" s="29">
         <f t="shared" si="70"/>
         <v>0.7</v>
       </c>
+      <c r="S99" s="29">
+        <f t="shared" si="71"/>
+        <v>0.7</v>
+      </c>
       <c r="T99" s="58">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.7</v>
       </c>
       <c r="U99" s="54">
@@ -28864,7 +28864,7 @@
         <v>5</v>
       </c>
       <c r="AH99" s="62">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AI99" s="65"/>
@@ -28876,11 +28876,11 @@
       </c>
       <c r="AM99" s="106"/>
       <c r="AN99" s="105" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>R-SW_Det_GAS_N2</v>
       </c>
       <c r="AO99" s="105" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>Residential Natural Gas Heating - New 3 SH + WH + Solar</v>
       </c>
       <c r="AP99" s="106" t="s">
@@ -28931,15 +28931,15 @@
         <v>0.7</v>
       </c>
       <c r="R100" s="23">
-        <f t="shared" si="69"/>
-        <v>0.71749999999999992</v>
-      </c>
-      <c r="S100" s="23">
         <f t="shared" si="70"/>
         <v>0.71749999999999992</v>
       </c>
+      <c r="S100" s="23">
+        <f t="shared" si="71"/>
+        <v>0.71749999999999992</v>
+      </c>
       <c r="T100" s="57">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="U100" s="53">
@@ -28977,7 +28977,7 @@
         <v>5</v>
       </c>
       <c r="AH100" s="63">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AI100" s="66"/>
@@ -28989,11 +28989,11 @@
       </c>
       <c r="AM100" s="106"/>
       <c r="AN100" s="105" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>R-SW_Det_GAS_N3</v>
       </c>
       <c r="AO100" s="105" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>Residential Natural Gas Heating - New 4 SH + WH + Wood Stove</v>
       </c>
       <c r="AP100" s="106" t="s">
@@ -29052,15 +29052,15 @@
         <v>3.5249999999999999</v>
       </c>
       <c r="X101" s="379">
-        <f t="shared" ref="X101:Z101" si="73">3.525</f>
+        <f t="shared" ref="X101:Z101" si="74">3.525</f>
         <v>3.5249999999999999</v>
       </c>
       <c r="Y101" s="379">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>3.5249999999999999</v>
       </c>
       <c r="Z101" s="379">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>3.5249999999999999</v>
       </c>
       <c r="AA101" s="379">
@@ -29073,7 +29073,7 @@
       <c r="AF101" s="72"/>
       <c r="AG101" s="72"/>
       <c r="AH101" s="62">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AI101" s="65"/>
@@ -29085,11 +29085,11 @@
       </c>
       <c r="AM101" s="106"/>
       <c r="AN101" s="105" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>R-SH_Det_LPG_N1</v>
       </c>
       <c r="AO101" s="105" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>Residential Liquid Petroleum Gas- New 1 SH</v>
       </c>
       <c r="AP101" s="106" t="s">
@@ -29140,15 +29140,15 @@
         <v>0.7</v>
       </c>
       <c r="R102" s="23">
-        <f t="shared" ref="R102:R104" si="74">J102*0.7</f>
+        <f t="shared" ref="R102:R104" si="75">J102*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S102" s="23">
-        <f t="shared" ref="S102:S104" si="75">K102*0.7</f>
+        <f t="shared" ref="S102:S104" si="76">K102*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T102" s="57">
-        <f t="shared" ref="T102:T104" si="76">L102*0.7</f>
+        <f t="shared" ref="T102:T104" si="77">L102*0.7</f>
         <v>0.7</v>
       </c>
       <c r="U102" s="53">
@@ -29181,7 +29181,7 @@
       <c r="AF102" s="73"/>
       <c r="AG102" s="73"/>
       <c r="AH102" s="63">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AI102" s="66"/>
@@ -29193,11 +29193,11 @@
       </c>
       <c r="AM102" s="106"/>
       <c r="AN102" s="105" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>R-SW_Det_LPG_N1</v>
       </c>
       <c r="AO102" s="105" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>Residential Liquid Petroleum Gas- New 2 SH + WH</v>
       </c>
       <c r="AP102" s="106" t="s">
@@ -29248,15 +29248,15 @@
         <v>0.7</v>
       </c>
       <c r="R103" s="29">
-        <f t="shared" si="74"/>
-        <v>0.7</v>
-      </c>
-      <c r="S103" s="29">
         <f t="shared" si="75"/>
         <v>0.7</v>
       </c>
+      <c r="S103" s="29">
+        <f t="shared" si="76"/>
+        <v>0.7</v>
+      </c>
       <c r="T103" s="58">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.7</v>
       </c>
       <c r="U103" s="54">
@@ -29292,7 +29292,7 @@
         <v>5</v>
       </c>
       <c r="AH103" s="62">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AI103" s="65"/>
@@ -29304,11 +29304,11 @@
       </c>
       <c r="AM103" s="106"/>
       <c r="AN103" s="105" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>R-SH_Det_WOO_N1</v>
       </c>
       <c r="AO103" s="105" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>Residential Biomass Boiler - New 1 SH</v>
       </c>
       <c r="AP103" s="106" t="s">
@@ -29359,15 +29359,15 @@
         <v>0.7</v>
       </c>
       <c r="R104" s="23">
-        <f t="shared" si="74"/>
-        <v>0.71749999999999992</v>
-      </c>
-      <c r="S104" s="23">
         <f t="shared" si="75"/>
         <v>0.71749999999999992</v>
       </c>
+      <c r="S104" s="23">
+        <f t="shared" si="76"/>
+        <v>0.71749999999999992</v>
+      </c>
       <c r="T104" s="57">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="U104" s="53">
@@ -29405,7 +29405,7 @@
         <v>5</v>
       </c>
       <c r="AH104" s="63">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AI104" s="66"/>
@@ -29417,11 +29417,11 @@
       </c>
       <c r="AM104" s="109"/>
       <c r="AN104" s="108" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>R-SW_Det_WOO_N1</v>
       </c>
       <c r="AO104" s="108" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>Residential Biomass Boiler - New 2 SH + WH</v>
       </c>
       <c r="AP104" s="109" t="s">
@@ -29476,19 +29476,19 @@
       </c>
       <c r="V105" s="41"/>
       <c r="W105" s="379">
-        <f t="shared" ref="W105:Z106" si="77">W101+0.3</f>
+        <f t="shared" ref="W105:Z106" si="78">W101+0.3</f>
         <v>3.8249999999999997</v>
       </c>
       <c r="X105" s="379">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>3.8249999999999997</v>
       </c>
       <c r="Y105" s="379">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>3.8249999999999997</v>
       </c>
       <c r="Z105" s="379">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>3.8249999999999997</v>
       </c>
       <c r="AA105" s="379">
@@ -29502,7 +29502,7 @@
       <c r="AF105" s="72"/>
       <c r="AG105" s="72"/>
       <c r="AH105" s="62">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AI105" s="65"/>
@@ -29517,7 +29517,7 @@
         <v>595</v>
       </c>
       <c r="AO105" s="108" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>Residential  Stove New 1 - SH</v>
       </c>
       <c r="AP105" s="106" t="s">
@@ -29566,15 +29566,15 @@
         <v>0.7</v>
       </c>
       <c r="R106" s="23">
-        <f t="shared" ref="R106" si="78">J106*0.7</f>
+        <f t="shared" ref="R106" si="79">J106*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S106" s="23">
-        <f t="shared" ref="S106" si="79">K106*0.7</f>
+        <f t="shared" ref="S106" si="80">K106*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T106" s="57">
-        <f t="shared" ref="T106" si="80">L106*0.7</f>
+        <f t="shared" ref="T106" si="81">L106*0.7</f>
         <v>0.7</v>
       </c>
       <c r="U106" s="53">
@@ -29582,19 +29582,19 @@
       </c>
       <c r="V106" s="25"/>
       <c r="W106" s="380">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>4.1040057915057915</v>
       </c>
       <c r="X106" s="380">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>4.1040057915057915</v>
       </c>
       <c r="Y106" s="380">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>4.1040057915057915</v>
       </c>
       <c r="Z106" s="380">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>4.1040057915057915</v>
       </c>
       <c r="AA106" s="379">
@@ -29608,7 +29608,7 @@
       <c r="AF106" s="73"/>
       <c r="AG106" s="73"/>
       <c r="AH106" s="63">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AI106" s="66"/>
@@ -29623,7 +29623,7 @@
         <v>596</v>
       </c>
       <c r="AO106" s="108" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>Residential  Stove with back boiler New 1 - SH +WH</v>
       </c>
       <c r="AP106" s="109" t="s">
@@ -29700,7 +29700,7 @@
       <c r="AF107" s="72"/>
       <c r="AG107" s="72"/>
       <c r="AH107" s="62">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AI107" s="65"/>
@@ -29712,11 +29712,11 @@
       </c>
       <c r="AM107" s="109"/>
       <c r="AN107" s="108" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>R-SH_Det_HVO_N1</v>
       </c>
       <c r="AO107" s="108" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>Residential  Hydrotreated vegetable oil - New 1 SH</v>
       </c>
       <c r="AP107" s="109" t="s">
@@ -29763,19 +29763,19 @@
       <c r="O108" s="32"/>
       <c r="P108" s="45"/>
       <c r="Q108" s="22">
-        <f t="shared" ref="Q108:T108" si="81">I108*0.7</f>
+        <f t="shared" ref="Q108:T108" si="82">I108*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R108" s="23">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0.7</v>
       </c>
       <c r="S108" s="23">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0.7</v>
       </c>
       <c r="T108" s="57">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0.7</v>
       </c>
       <c r="U108" s="53">
@@ -29787,15 +29787,15 @@
         <v>22.778925619834713</v>
       </c>
       <c r="X108" s="380">
-        <f t="shared" ref="X108" si="82">X107*($V$156/$V$155)</f>
+        <f t="shared" ref="X108" si="83">X107*($V$156/$V$155)</f>
         <v>22.04476084710744</v>
       </c>
       <c r="Y108" s="380">
-        <f t="shared" ref="Y108" si="83">Y107*($V$156/$V$155)</f>
+        <f t="shared" ref="Y108" si="84">Y107*($V$156/$V$155)</f>
         <v>20.839163429752066</v>
       </c>
       <c r="Z108" s="380">
-        <f t="shared" ref="Z108" si="84">Z107*($V$156/$V$155)</f>
+        <f t="shared" ref="Z108" si="85">Z107*($V$156/$V$155)</f>
         <v>18.635439049586779</v>
       </c>
       <c r="AA108" s="380">
@@ -29808,7 +29808,7 @@
       <c r="AF108" s="73"/>
       <c r="AG108" s="73"/>
       <c r="AH108" s="63">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AI108" s="66"/>
@@ -29820,11 +29820,11 @@
       </c>
       <c r="AM108" s="109"/>
       <c r="AN108" s="108" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>R-SW_Det_HVO_N1</v>
       </c>
       <c r="AO108" s="108" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>Residential  Hydrotreated vegetable oil - New 1 SH + WH</v>
       </c>
       <c r="AP108" s="109" t="s">
@@ -29904,7 +29904,7 @@
       <c r="AF109" s="73"/>
       <c r="AG109" s="73"/>
       <c r="AH109" s="63">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AI109" s="66"/>
@@ -29967,19 +29967,19 @@
       <c r="O110" s="32"/>
       <c r="P110" s="45"/>
       <c r="Q110" s="22">
-        <f t="shared" ref="Q110:Q112" si="85">I110*0.7</f>
+        <f t="shared" ref="Q110:Q112" si="86">I110*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="R110" s="23">
-        <f t="shared" ref="R110:R112" si="86">J110*0.7</f>
+        <f t="shared" ref="R110:R112" si="87">J110*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="S110" s="23">
-        <f t="shared" ref="S110:S112" si="87">K110*0.7</f>
+        <f t="shared" ref="S110:S112" si="88">K110*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="T110" s="57">
-        <f t="shared" ref="T110:T112" si="88">L110*0.7</f>
+        <f t="shared" ref="T110:T112" si="89">L110*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="U110" s="53">
@@ -30012,7 +30012,7 @@
       <c r="AF110" s="73"/>
       <c r="AG110" s="73"/>
       <c r="AH110" s="63">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AI110" s="66"/>
@@ -30024,11 +30024,11 @@
       </c>
       <c r="AM110" s="104"/>
       <c r="AN110" s="103" t="str">
-        <f t="shared" ref="AN110:AN116" si="89">C116</f>
+        <f t="shared" ref="AN110:AN116" si="90">C116</f>
         <v>R-SH_Det_ELC_HPN1</v>
       </c>
       <c r="AO110" s="103" t="str">
-        <f t="shared" ref="AO110:AO116" si="90">D116</f>
+        <f t="shared" ref="AO110:AO116" si="91">D116</f>
         <v>Residential Electric Heat Pump - Air to Air - SH</v>
       </c>
       <c r="AP110" s="104" t="s">
@@ -30086,19 +30086,19 @@
         <v>4.5825000000000005</v>
       </c>
       <c r="X111" s="62">
-        <f t="shared" ref="X111:AA111" si="91">X97</f>
+        <f t="shared" ref="X111:AA111" si="92">X97</f>
         <v>4.5825000000000005</v>
       </c>
       <c r="Y111" s="62">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>4.5825000000000005</v>
       </c>
       <c r="Z111" s="62">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>4.5825000000000005</v>
       </c>
       <c r="AA111" s="62">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0.12</v>
       </c>
       <c r="AB111" s="65"/>
@@ -30108,7 +30108,7 @@
       <c r="AF111" s="72"/>
       <c r="AG111" s="72"/>
       <c r="AH111" s="62">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AI111" s="65"/>
@@ -30120,11 +30120,11 @@
       </c>
       <c r="AM111" s="106"/>
       <c r="AN111" s="105" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>R-HC_Det_ELC_HPN1</v>
       </c>
       <c r="AO111" s="105" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>Residential Electric Heat Pump - Air to Air - SH + SC</v>
       </c>
       <c r="AP111" s="106" t="s">
@@ -30170,19 +30170,19 @@
       <c r="O112" s="50"/>
       <c r="P112" s="51"/>
       <c r="Q112" s="252">
-        <f t="shared" si="85"/>
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="R112" s="26">
         <f t="shared" si="86"/>
         <v>0.57399999999999995</v>
       </c>
-      <c r="S112" s="26">
+      <c r="R112" s="26">
         <f t="shared" si="87"/>
         <v>0.57399999999999995</v>
       </c>
+      <c r="S112" s="26">
+        <f t="shared" si="88"/>
+        <v>0.57399999999999995</v>
+      </c>
       <c r="T112" s="59">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="U112" s="55">
@@ -30194,19 +30194,19 @@
         <v>4.9452075289575284</v>
       </c>
       <c r="X112" s="62">
-        <f t="shared" ref="X112:AA112" si="92">X98</f>
+        <f t="shared" ref="X112:AA112" si="93">X98</f>
         <v>4.9452075289575284</v>
       </c>
       <c r="Y112" s="62">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>4.9452075289575284</v>
       </c>
       <c r="Z112" s="62">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>4.9452075289575284</v>
       </c>
       <c r="AA112" s="62">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0.12</v>
       </c>
       <c r="AB112" s="66"/>
@@ -30216,7 +30216,7 @@
       <c r="AF112" s="73"/>
       <c r="AG112" s="73"/>
       <c r="AH112" s="63">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AI112" s="67"/>
@@ -30228,11 +30228,11 @@
       </c>
       <c r="AM112" s="106"/>
       <c r="AN112" s="105" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>R-SH_Det_ELC_HPN2</v>
       </c>
       <c r="AO112" s="105" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>Residential Electric Heat Pump - Air to Water - SH</v>
       </c>
       <c r="AP112" s="106" t="s">
@@ -30286,11 +30286,11 @@
       <c r="AK113" s="34"/>
       <c r="AM113" s="106"/>
       <c r="AN113" s="105" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>R-SW_Det_ELC_HPN1</v>
       </c>
       <c r="AO113" s="105" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH</v>
       </c>
       <c r="AP113" s="106" t="s">
@@ -30371,7 +30371,7 @@
       <c r="AF114" s="84"/>
       <c r="AG114" s="84"/>
       <c r="AH114" s="82">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AI114" s="83"/>
@@ -30383,11 +30383,11 @@
       </c>
       <c r="AM114" s="212"/>
       <c r="AN114" s="105" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>R-SW_Det_ELC_HPN2</v>
       </c>
       <c r="AO114" s="105" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar</v>
       </c>
       <c r="AP114" s="106" t="s">
@@ -30441,11 +30441,11 @@
       <c r="AK115" s="34"/>
       <c r="AM115" s="212"/>
       <c r="AN115" s="105" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>R-SH_Det_ELC_HPN3</v>
       </c>
       <c r="AO115" s="105" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH</v>
       </c>
       <c r="AP115" s="106" t="s">
@@ -30528,7 +30528,7 @@
       <c r="AF116" s="85"/>
       <c r="AG116" s="85"/>
       <c r="AH116" s="85">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AI116" s="88"/>
@@ -30540,11 +30540,11 @@
       </c>
       <c r="AM116" s="112"/>
       <c r="AN116" s="108" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>R-HC_Det_ELC_HPN2</v>
       </c>
       <c r="AO116" s="108" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC</v>
       </c>
       <c r="AP116" s="109" t="s">
@@ -30635,7 +30635,7 @@
       <c r="AF117" s="63"/>
       <c r="AG117" s="63"/>
       <c r="AH117" s="63">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AI117" s="66"/>
@@ -30732,7 +30732,7 @@
       <c r="AF118" s="62"/>
       <c r="AG118" s="62"/>
       <c r="AH118" s="62">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AI118" s="65"/>
@@ -30801,15 +30801,15 @@
         <v>0.7</v>
       </c>
       <c r="R119" s="23">
-        <f t="shared" ref="R119:R120" si="93">J119*0.7</f>
+        <f t="shared" ref="R119:R120" si="94">J119*0.7</f>
         <v>0.76999999999999991</v>
       </c>
       <c r="S119" s="23">
-        <f t="shared" ref="S119:S120" si="94">K119*0.7</f>
+        <f t="shared" ref="S119:S120" si="95">K119*0.7</f>
         <v>0.86333333333333329</v>
       </c>
       <c r="T119" s="57">
-        <f t="shared" ref="T119:T120" si="95">L119*0.7</f>
+        <f t="shared" ref="T119:T120" si="96">L119*0.7</f>
         <v>0.93333333333333324</v>
       </c>
       <c r="U119" s="53">
@@ -30821,15 +30821,15 @@
         <v>9.9300970464135023</v>
       </c>
       <c r="X119" s="380">
-        <f t="shared" ref="X119" si="96">X118*($V$154/$V$153)</f>
+        <f t="shared" ref="X119" si="97">X118*($V$154/$V$153)</f>
         <v>9.0363883122362889</v>
       </c>
       <c r="Y119" s="380">
-        <f t="shared" ref="Y119" si="97">Y118*($V$154/$V$153)</f>
+        <f t="shared" ref="Y119" si="98">Y118*($V$154/$V$153)</f>
         <v>8.2231133641350223</v>
       </c>
       <c r="Z119" s="380">
-        <f t="shared" ref="Z119" si="98">Z118*($V$154/$V$153)</f>
+        <f t="shared" ref="Z119" si="99">Z118*($V$154/$V$153)</f>
         <v>8.1426795780590719</v>
       </c>
       <c r="AA119" s="380">
@@ -30842,7 +30842,7 @@
       <c r="AF119" s="63"/>
       <c r="AG119" s="63"/>
       <c r="AH119" s="63">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AI119" s="66"/>
@@ -30911,15 +30911,15 @@
         <v>0.7</v>
       </c>
       <c r="R120" s="29">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0.77700000000000002</v>
       </c>
       <c r="S120" s="29">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="T120" s="58">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="U120" s="54">
@@ -30957,7 +30957,7 @@
         <v>5</v>
       </c>
       <c r="AH120" s="62">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AI120" s="65"/>
@@ -31056,7 +31056,7 @@
       <c r="AF121" s="63"/>
       <c r="AG121" s="63"/>
       <c r="AH121" s="63">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AI121" s="66"/>
@@ -31163,7 +31163,7 @@
       <c r="AF122" s="86"/>
       <c r="AG122" s="86"/>
       <c r="AH122" s="86">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AI122" s="91"/>
@@ -31175,11 +31175,11 @@
       </c>
       <c r="AM122" s="215"/>
       <c r="AN122" s="103" t="str">
-        <f t="shared" ref="AN122:AN123" si="99">C132</f>
+        <f t="shared" ref="AN122:AN123" si="100">C132</f>
         <v>R-WH_Det_ELC_N1</v>
       </c>
       <c r="AO122" s="103" t="str">
-        <f t="shared" ref="AO122:AO123" si="100">D132</f>
+        <f t="shared" ref="AO122:AO123" si="101">D132</f>
         <v xml:space="preserve">Residential Electric Water Heater </v>
       </c>
       <c r="AP122" s="104" t="s">
@@ -31233,11 +31233,11 @@
       <c r="AK123" s="34"/>
       <c r="AM123" s="2"/>
       <c r="AN123" s="105" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>R-WH_Det_SOL_N1</v>
       </c>
       <c r="AO123" s="105" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v xml:space="preserve">Residential Solar Water Heater </v>
       </c>
       <c r="AP123" s="106" t="s">
@@ -31294,15 +31294,15 @@
         <v>1.1666666666666667</v>
       </c>
       <c r="R124" s="20">
-        <f t="shared" ref="R124:R125" si="101">J124*0.7</f>
+        <f t="shared" ref="R124:R125" si="102">J124*0.7</f>
         <v>1.2530864197530862</v>
       </c>
       <c r="S124" s="20">
-        <f t="shared" ref="S124:S125" si="102">K124*0.7</f>
+        <f t="shared" ref="S124:S125" si="103">K124*0.7</f>
         <v>1.4691358024691357</v>
       </c>
       <c r="T124" s="56">
-        <f t="shared" ref="T124:T125" si="103">L124*0.7</f>
+        <f t="shared" ref="T124:T125" si="104">L124*0.7</f>
         <v>1.4691358024691357</v>
       </c>
       <c r="U124" s="89">
@@ -31336,7 +31336,7 @@
       <c r="AF124" s="85"/>
       <c r="AG124" s="85"/>
       <c r="AH124" s="85">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AI124" s="88"/>
@@ -31409,15 +31409,15 @@
         <v>1.1666666666666665</v>
       </c>
       <c r="R125" s="26">
-        <f t="shared" si="101"/>
-        <v>1.2055555555555555</v>
-      </c>
-      <c r="S125" s="26">
         <f t="shared" si="102"/>
         <v>1.2055555555555555</v>
       </c>
+      <c r="S125" s="26">
+        <f t="shared" si="103"/>
+        <v>1.2055555555555555</v>
+      </c>
       <c r="T125" s="59">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>1.2444444444444445</v>
       </c>
       <c r="U125" s="27">
@@ -31451,7 +31451,7 @@
       <c r="AF125" s="64"/>
       <c r="AG125" s="64"/>
       <c r="AH125" s="64">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AI125" s="67"/>
@@ -31544,15 +31544,15 @@
         <v>2.2084999999999999</v>
       </c>
       <c r="R127" s="26">
-        <f t="shared" ref="R127" si="104">J127*0.7</f>
+        <f t="shared" ref="R127" si="105">J127*0.7</f>
         <v>2.4464999999999999</v>
       </c>
       <c r="S127" s="26">
-        <f t="shared" ref="S127" si="105">K127*0.7</f>
+        <f t="shared" ref="S127" si="106">K127*0.7</f>
         <v>2.625</v>
       </c>
       <c r="T127" s="59">
-        <f t="shared" ref="T127" si="106">L127*0.7</f>
+        <f t="shared" ref="T127" si="107">L127*0.7</f>
         <v>2.625</v>
       </c>
       <c r="U127" s="3">
@@ -31563,15 +31563,15 @@
         <v>10.987282270335434</v>
       </c>
       <c r="X127" s="79">
-        <f t="shared" ref="X127:Z127" si="107">(X119+X102)*0.8</f>
+        <f t="shared" ref="X127:Z127" si="108">(X119+X102)*0.8</f>
         <v>10.272315282993665</v>
       </c>
       <c r="Y127" s="79">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>9.6216953245126504</v>
       </c>
       <c r="Z127" s="79">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>9.5573482956518898</v>
       </c>
       <c r="AA127" s="371">
@@ -31592,7 +31592,7 @@
         <v>5</v>
       </c>
       <c r="AH127" s="82">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.66540960000000005</v>
       </c>
       <c r="AI127" s="83"/>
@@ -31718,7 +31718,7 @@
       <c r="AF129" s="85"/>
       <c r="AG129" s="85"/>
       <c r="AH129" s="85">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AI129" s="88"/>
@@ -31804,7 +31804,7 @@
       <c r="AF130" s="64"/>
       <c r="AG130" s="64"/>
       <c r="AH130" s="64">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AI130" s="67"/>
@@ -31921,7 +31921,7 @@
       <c r="AF132" s="85"/>
       <c r="AG132" s="85"/>
       <c r="AH132" s="85">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.25228800000000001</v>
       </c>
       <c r="AI132" s="88"/>
@@ -32001,7 +32001,7 @@
       <c r="AF133" s="63"/>
       <c r="AG133" s="63"/>
       <c r="AH133" s="63">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.25228800000000001</v>
       </c>
       <c r="AI133" s="67"/>
@@ -32118,7 +32118,7 @@
       <c r="AF135" s="93"/>
       <c r="AG135" s="93"/>
       <c r="AH135" s="93">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.25228800000000001</v>
       </c>
       <c r="AI135" s="92"/>
@@ -32202,7 +32202,7 @@
         <v>3</v>
       </c>
       <c r="V149" s="377">
-        <f t="shared" ref="V149:V158" si="108">W149/$W$157</f>
+        <f t="shared" ref="V149:V158" si="109">W149/$W$157</f>
         <v>0.72929037751472525</v>
       </c>
       <c r="W149" s="378">
@@ -32216,7 +32216,7 @@
         <v>5</v>
       </c>
       <c r="V150" s="377">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0.79101166159768732</v>
       </c>
       <c r="W150" s="378">
@@ -32229,7 +32229,7 @@
         <v>8</v>
       </c>
       <c r="V151" s="377">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0.85077698714062355</v>
       </c>
       <c r="W151" s="378">
@@ -32242,7 +32242,7 @@
         <v>10</v>
       </c>
       <c r="V152" s="377">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0.86872586872586877</v>
       </c>
       <c r="W152" s="376">
@@ -32262,7 +32262,7 @@
         <v>15</v>
       </c>
       <c r="V153" s="367">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0.91505791505791501</v>
       </c>
       <c r="W153" s="3">
@@ -32289,7 +32289,7 @@
         <v>18</v>
       </c>
       <c r="V154" s="367">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0.92277992277992282</v>
       </c>
       <c r="W154" s="3">
@@ -32318,7 +32318,7 @@
         <v>20</v>
       </c>
       <c r="V155" s="377">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0.93436293436293438</v>
       </c>
       <c r="W155" s="376">
@@ -32348,7 +32348,7 @@
         <v>24</v>
       </c>
       <c r="V156" s="367">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0.94594594594594594</v>
       </c>
       <c r="W156" s="3">
@@ -32377,7 +32377,7 @@
         <v>30</v>
       </c>
       <c r="V157" s="367">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>1</v>
       </c>
       <c r="W157" s="3">
@@ -32406,7 +32406,7 @@
         <v>35</v>
       </c>
       <c r="V158" s="367">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>1.0791505791505791</v>
       </c>
       <c r="W158" s="3">
@@ -32451,6 +32451,26 @@
     <row r="166" spans="14:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="I96:L96"/>
+    <mergeCell ref="M96:P96"/>
+    <mergeCell ref="Q96:T96"/>
+    <mergeCell ref="U96:V96"/>
+    <mergeCell ref="W96:Z96"/>
+    <mergeCell ref="I94:L94"/>
+    <mergeCell ref="M94:P94"/>
+    <mergeCell ref="Q94:T94"/>
+    <mergeCell ref="U94:V94"/>
+    <mergeCell ref="W94:Z94"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="Q48:T48"/>
+    <mergeCell ref="U48:V48"/>
+    <mergeCell ref="W48:Z48"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="Q46:T46"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="W46:Z46"/>
     <mergeCell ref="W4:Z4"/>
     <mergeCell ref="W6:Z6"/>
     <mergeCell ref="I4:L4"/>
@@ -32461,26 +32481,6 @@
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="M6:P6"/>
     <mergeCell ref="I6:L6"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="M46:P46"/>
-    <mergeCell ref="Q46:T46"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="W46:Z46"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="Q48:T48"/>
-    <mergeCell ref="U48:V48"/>
-    <mergeCell ref="W48:Z48"/>
-    <mergeCell ref="I94:L94"/>
-    <mergeCell ref="M94:P94"/>
-    <mergeCell ref="Q94:T94"/>
-    <mergeCell ref="U94:V94"/>
-    <mergeCell ref="W94:Z94"/>
-    <mergeCell ref="I96:L96"/>
-    <mergeCell ref="M96:P96"/>
-    <mergeCell ref="Q96:T96"/>
-    <mergeCell ref="U96:V96"/>
-    <mergeCell ref="W96:Z96"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -32626,12 +32626,12 @@
       <c r="I5" s="127"/>
       <c r="J5" s="127"/>
       <c r="K5" s="127"/>
-      <c r="L5" s="536" t="s">
+      <c r="L5" s="527" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="537"/>
-      <c r="N5" s="537"/>
-      <c r="O5" s="538"/>
+      <c r="M5" s="528"/>
+      <c r="N5" s="528"/>
+      <c r="O5" s="529"/>
       <c r="P5" s="60"/>
       <c r="Q5" s="60" t="s">
         <v>87</v>
@@ -32662,12 +32662,12 @@
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
       <c r="K6" s="37"/>
-      <c r="L6" s="530" t="s">
+      <c r="L6" s="536" t="s">
         <v>525</v>
       </c>
-      <c r="M6" s="532"/>
-      <c r="N6" s="532"/>
-      <c r="O6" s="531"/>
+      <c r="M6" s="538"/>
+      <c r="N6" s="538"/>
+      <c r="O6" s="537"/>
       <c r="P6" s="373" t="s">
         <v>537</v>
       </c>
@@ -33553,23 +33553,23 @@
       <c r="K33" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L33" s="536" t="s">
+      <c r="L33" s="527" t="s">
         <v>86</v>
       </c>
-      <c r="M33" s="537"/>
-      <c r="N33" s="537"/>
-      <c r="O33" s="538"/>
+      <c r="M33" s="528"/>
+      <c r="N33" s="528"/>
+      <c r="O33" s="529"/>
     </row>
     <row r="34" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H34" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L34" s="530" t="s">
+      <c r="L34" s="536" t="s">
         <v>91</v>
       </c>
-      <c r="M34" s="532"/>
-      <c r="N34" s="532"/>
-      <c r="O34" s="531"/>
+      <c r="M34" s="538"/>
+      <c r="N34" s="538"/>
+      <c r="O34" s="537"/>
     </row>
     <row r="35" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H35" s="3" t="s">
@@ -33916,11 +33916,11 @@
       </c>
       <c r="I4" s="534"/>
       <c r="J4" s="535"/>
-      <c r="K4" s="536" t="s">
+      <c r="K4" s="527" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="537"/>
-      <c r="M4" s="538"/>
+      <c r="L4" s="528"/>
+      <c r="M4" s="529"/>
       <c r="N4" s="60"/>
       <c r="O4" s="60" t="s">
         <v>87</v>
@@ -33946,16 +33946,16 @@
       <c r="G5" s="381" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="542" t="s">
+      <c r="H5" s="539" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="543"/>
-      <c r="J5" s="544"/>
-      <c r="K5" s="542" t="s">
+      <c r="I5" s="540"/>
+      <c r="J5" s="541"/>
+      <c r="K5" s="539" t="s">
         <v>314</v>
       </c>
-      <c r="L5" s="543"/>
-      <c r="M5" s="544"/>
+      <c r="L5" s="540"/>
+      <c r="M5" s="541"/>
       <c r="N5" s="382" t="s">
         <v>92</v>
       </c>
@@ -33972,23 +33972,23 @@
         <v>218</v>
       </c>
       <c r="AA5" s="207"/>
-      <c r="AB5" s="539" t="s">
+      <c r="AB5" s="542" t="s">
         <v>567</v>
       </c>
-      <c r="AC5" s="539"/>
+      <c r="AC5" s="542"/>
       <c r="AD5" s="384"/>
-      <c r="AE5" s="540" t="s">
+      <c r="AE5" s="543" t="s">
         <v>65</v>
       </c>
-      <c r="AF5" s="540"/>
-      <c r="AG5" s="540" t="s">
+      <c r="AF5" s="543"/>
+      <c r="AG5" s="543" t="s">
         <v>568</v>
       </c>
-      <c r="AH5" s="540"/>
-      <c r="AI5" s="541" t="s">
+      <c r="AH5" s="543"/>
+      <c r="AI5" s="544" t="s">
         <v>569</v>
       </c>
-      <c r="AJ5" s="541"/>
+      <c r="AJ5" s="544"/>
     </row>
     <row r="6" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C6" s="428" t="str">
@@ -34726,12 +34726,12 @@
       <c r="K27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L27" s="536" t="s">
+      <c r="L27" s="527" t="s">
         <v>86</v>
       </c>
-      <c r="M27" s="537"/>
-      <c r="N27" s="537"/>
-      <c r="O27" s="538"/>
+      <c r="M27" s="528"/>
+      <c r="N27" s="528"/>
+      <c r="O27" s="529"/>
       <c r="T27" s="209"/>
       <c r="U27" s="209"/>
     </row>
@@ -34739,12 +34739,12 @@
       <c r="J28" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L28" s="527" t="s">
+      <c r="L28" s="530" t="s">
         <v>91</v>
       </c>
-      <c r="M28" s="528"/>
-      <c r="N28" s="528"/>
-      <c r="O28" s="529"/>
+      <c r="M28" s="531"/>
+      <c r="N28" s="531"/>
+      <c r="O28" s="532"/>
       <c r="T28" s="209"/>
       <c r="U28" s="209"/>
     </row>
@@ -36134,16 +36134,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="L27:O27"/>
     <mergeCell ref="L28:O28"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="K5:M5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="L27:O27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S7" r:id="rId1" xr:uid="{B1EDD63D-40A5-4174-9D28-8666BD314B83}"/>
@@ -36574,103 +36574,103 @@
       <c r="C4" s="279" t="s">
         <v>323</v>
       </c>
-      <c r="D4" s="546" t="s">
+      <c r="D4" s="545" t="s">
         <v>324</v>
       </c>
-      <c r="E4" s="545"/>
-      <c r="F4" s="545"/>
-      <c r="G4" s="545"/>
+      <c r="E4" s="546"/>
+      <c r="F4" s="546"/>
+      <c r="G4" s="546"/>
       <c r="H4" s="547"/>
-      <c r="I4" s="545" t="s">
+      <c r="I4" s="546" t="s">
         <v>325</v>
       </c>
-      <c r="J4" s="545"/>
-      <c r="K4" s="545"/>
-      <c r="L4" s="545"/>
+      <c r="J4" s="546"/>
+      <c r="K4" s="546"/>
+      <c r="L4" s="546"/>
       <c r="M4" s="547"/>
-      <c r="N4" s="545" t="s">
+      <c r="N4" s="546" t="s">
         <v>326</v>
       </c>
-      <c r="O4" s="545"/>
-      <c r="P4" s="545"/>
-      <c r="Q4" s="545"/>
+      <c r="O4" s="546"/>
+      <c r="P4" s="546"/>
+      <c r="Q4" s="546"/>
       <c r="R4" s="547"/>
-      <c r="S4" s="545" t="s">
+      <c r="S4" s="546" t="s">
         <v>327</v>
       </c>
-      <c r="T4" s="545"/>
-      <c r="U4" s="545"/>
-      <c r="V4" s="545"/>
+      <c r="T4" s="546"/>
+      <c r="U4" s="546"/>
+      <c r="V4" s="546"/>
       <c r="W4" s="547"/>
-      <c r="X4" s="545" t="s">
+      <c r="X4" s="546" t="s">
         <v>328</v>
       </c>
-      <c r="Y4" s="545"/>
-      <c r="Z4" s="545"/>
-      <c r="AA4" s="545"/>
+      <c r="Y4" s="546"/>
+      <c r="Z4" s="546"/>
+      <c r="AA4" s="546"/>
       <c r="AB4" s="547"/>
-      <c r="AC4" s="545" t="s">
+      <c r="AC4" s="546" t="s">
         <v>329</v>
       </c>
-      <c r="AD4" s="545"/>
-      <c r="AE4" s="545"/>
-      <c r="AF4" s="545"/>
+      <c r="AD4" s="546"/>
+      <c r="AE4" s="546"/>
+      <c r="AF4" s="546"/>
       <c r="AG4" s="547"/>
-      <c r="AH4" s="545" t="s">
+      <c r="AH4" s="546" t="s">
         <v>330</v>
       </c>
-      <c r="AI4" s="545"/>
-      <c r="AJ4" s="545"/>
-      <c r="AK4" s="545"/>
+      <c r="AI4" s="546"/>
+      <c r="AJ4" s="546"/>
+      <c r="AK4" s="546"/>
       <c r="AL4" s="547"/>
-      <c r="AM4" s="545" t="s">
+      <c r="AM4" s="546" t="s">
         <v>331</v>
       </c>
-      <c r="AN4" s="545"/>
-      <c r="AO4" s="545"/>
-      <c r="AP4" s="545"/>
+      <c r="AN4" s="546"/>
+      <c r="AO4" s="546"/>
+      <c r="AP4" s="546"/>
       <c r="AQ4" s="547"/>
-      <c r="AR4" s="545" t="s">
+      <c r="AR4" s="546" t="s">
         <v>332</v>
       </c>
-      <c r="AS4" s="545"/>
-      <c r="AT4" s="545"/>
-      <c r="AU4" s="545"/>
+      <c r="AS4" s="546"/>
+      <c r="AT4" s="546"/>
+      <c r="AU4" s="546"/>
       <c r="AV4" s="547"/>
-      <c r="AW4" s="545" t="s">
+      <c r="AW4" s="546" t="s">
         <v>333</v>
       </c>
-      <c r="AX4" s="545"/>
-      <c r="AY4" s="545"/>
-      <c r="AZ4" s="545"/>
-      <c r="BA4" s="545"/>
-      <c r="BB4" s="546" t="s">
+      <c r="AX4" s="546"/>
+      <c r="AY4" s="546"/>
+      <c r="AZ4" s="546"/>
+      <c r="BA4" s="546"/>
+      <c r="BB4" s="545" t="s">
         <v>334</v>
       </c>
-      <c r="BC4" s="545"/>
-      <c r="BD4" s="545"/>
-      <c r="BE4" s="545"/>
+      <c r="BC4" s="546"/>
+      <c r="BD4" s="546"/>
+      <c r="BE4" s="546"/>
       <c r="BF4" s="547"/>
-      <c r="BG4" s="545" t="s">
+      <c r="BG4" s="546" t="s">
         <v>335</v>
       </c>
-      <c r="BH4" s="545"/>
-      <c r="BI4" s="545"/>
-      <c r="BJ4" s="545"/>
-      <c r="BK4" s="545"/>
-      <c r="BL4" s="546" t="s">
+      <c r="BH4" s="546"/>
+      <c r="BI4" s="546"/>
+      <c r="BJ4" s="546"/>
+      <c r="BK4" s="546"/>
+      <c r="BL4" s="545" t="s">
         <v>336</v>
       </c>
-      <c r="BM4" s="545"/>
-      <c r="BN4" s="545"/>
-      <c r="BO4" s="545"/>
-      <c r="BP4" s="545"/>
-      <c r="BQ4" s="546" t="s">
+      <c r="BM4" s="546"/>
+      <c r="BN4" s="546"/>
+      <c r="BO4" s="546"/>
+      <c r="BP4" s="546"/>
+      <c r="BQ4" s="545" t="s">
         <v>337</v>
       </c>
-      <c r="BR4" s="545"/>
-      <c r="BS4" s="545"/>
-      <c r="BT4" s="545"/>
+      <c r="BR4" s="546"/>
+      <c r="BS4" s="546"/>
+      <c r="BT4" s="546"/>
       <c r="BU4" s="547"/>
       <c r="BV4" s="280" t="s">
         <v>338</v>
@@ -50264,11 +50264,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="BL4:BP4"/>
-    <mergeCell ref="BQ4:BU4"/>
-    <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="CB4:CF4"/>
-    <mergeCell ref="CG4:CK4"/>
     <mergeCell ref="BG4:BK4"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
@@ -50281,6 +50276,11 @@
     <mergeCell ref="AR4:AV4"/>
     <mergeCell ref="AW4:BA4"/>
     <mergeCell ref="BB4:BF4"/>
+    <mergeCell ref="BL4:BP4"/>
+    <mergeCell ref="BQ4:BU4"/>
+    <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="CB4:CF4"/>
+    <mergeCell ref="CG4:CK4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -50303,23 +50303,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="554" t="s">
+      <c r="A1" s="552" t="s">
         <v>611</v>
       </c>
-      <c r="B1" s="556" t="s">
+      <c r="B1" s="554" t="s">
         <v>612</v>
       </c>
-      <c r="C1" s="557"/>
-      <c r="D1" s="557"/>
-      <c r="E1" s="557"/>
-      <c r="F1" s="558"/>
-      <c r="G1" s="556" t="s">
+      <c r="C1" s="555"/>
+      <c r="D1" s="555"/>
+      <c r="E1" s="555"/>
+      <c r="F1" s="556"/>
+      <c r="G1" s="554" t="s">
         <v>613</v>
       </c>
-      <c r="H1" s="557"/>
-      <c r="I1" s="557"/>
-      <c r="J1" s="557"/>
-      <c r="K1" s="558"/>
+      <c r="H1" s="555"/>
+      <c r="I1" s="555"/>
+      <c r="J1" s="555"/>
+      <c r="K1" s="556"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -50329,7 +50329,7 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="555"/>
+      <c r="A2" s="553"/>
       <c r="B2" s="450" t="s">
         <v>270</v>
       </c>
@@ -51822,11 +51822,11 @@
       <c r="Y48" t="s">
         <v>662</v>
       </c>
-      <c r="Z48" s="552" t="s">
+      <c r="Z48" s="557" t="s">
         <v>600</v>
       </c>
-      <c r="AA48" s="553"/>
-      <c r="AB48" s="553"/>
+      <c r="AA48" s="558"/>
+      <c r="AB48" s="558"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
@@ -52043,11 +52043,11 @@
       <c r="Y53" t="s">
         <v>664</v>
       </c>
-      <c r="Z53" s="552" t="s">
+      <c r="Z53" s="557" t="s">
         <v>599</v>
       </c>
-      <c r="AA53" s="553"/>
-      <c r="AB53" s="553"/>
+      <c r="AA53" s="558"/>
+      <c r="AB53" s="558"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
@@ -52249,11 +52249,11 @@
       <c r="Y59" t="s">
         <v>665</v>
       </c>
-      <c r="Z59" s="552" t="s">
+      <c r="Z59" s="557" t="s">
         <v>666</v>
       </c>
-      <c r="AA59" s="553"/>
-      <c r="AB59" s="553"/>
+      <c r="AA59" s="558"/>
+      <c r="AB59" s="558"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="470" t="str">
@@ -53090,17 +53090,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="Z48:AB48"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="Z48:AB48"/>
   </mergeCells>
   <phoneticPr fontId="54" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7520EBDA-F655-4B60-B34E-F025DAD5172D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75103D6-D108-4490-9DA0-723FD07BDBAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="62" r:id="rId1"/>
@@ -13542,6 +13542,8 @@
     </xf>
     <xf numFmtId="2" fontId="15" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="15" fillId="36" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -13578,15 +13580,6 @@
     <xf numFmtId="0" fontId="37" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -13594,6 +13587,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13605,22 +13607,13 @@
     <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -13632,10 +13625,19 @@
     <xf numFmtId="0" fontId="53" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13653,6 +13655,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -13668,14 +13676,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Accent1" xfId="4" builtinId="29"/>
@@ -15311,12 +15311,12 @@
       <c r="Z15" s="500"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="518" t="s">
+      <c r="A16" s="520" t="s">
         <v>682</v>
       </c>
-      <c r="B16" s="518"/>
-      <c r="C16" s="518"/>
-      <c r="D16" s="518"/>
+      <c r="B16" s="520"/>
+      <c r="C16" s="520"/>
+      <c r="D16" s="520"/>
       <c r="E16" s="502"/>
       <c r="F16" s="502"/>
       <c r="G16" s="503"/>
@@ -15400,11 +15400,11 @@
       <c r="A19" s="507" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="517" t="s">
+      <c r="B19" s="519" t="s">
         <v>698</v>
       </c>
-      <c r="C19" s="517"/>
-      <c r="D19" s="517"/>
+      <c r="C19" s="519"/>
+      <c r="D19" s="519"/>
       <c r="E19" s="508"/>
       <c r="F19" s="508"/>
       <c r="G19" s="509"/>
@@ -15432,11 +15432,11 @@
       <c r="A20" s="507" t="s">
         <v>683</v>
       </c>
-      <c r="B20" s="517" t="s">
+      <c r="B20" s="519" t="s">
         <v>693</v>
       </c>
-      <c r="C20" s="517"/>
-      <c r="D20" s="517"/>
+      <c r="C20" s="519"/>
+      <c r="D20" s="519"/>
       <c r="E20" s="508"/>
       <c r="F20" s="508"/>
       <c r="G20" s="509"/>
@@ -15524,11 +15524,11 @@
       <c r="A23" s="507" t="s">
         <v>685</v>
       </c>
-      <c r="B23" s="517" t="s">
+      <c r="B23" s="519" t="s">
         <v>695</v>
       </c>
-      <c r="C23" s="517"/>
-      <c r="D23" s="517"/>
+      <c r="C23" s="519"/>
+      <c r="D23" s="519"/>
       <c r="E23" s="500"/>
       <c r="F23" s="500"/>
       <c r="G23" s="500"/>
@@ -15554,11 +15554,11 @@
     </row>
     <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="507"/>
-      <c r="B24" s="517" t="s">
+      <c r="B24" s="519" t="s">
         <v>696</v>
       </c>
-      <c r="C24" s="517"/>
-      <c r="D24" s="517"/>
+      <c r="C24" s="519"/>
+      <c r="D24" s="519"/>
       <c r="E24" s="500"/>
       <c r="F24" s="500"/>
       <c r="G24" s="500"/>
@@ -15584,11 +15584,11 @@
     </row>
     <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="507"/>
-      <c r="B25" s="517" t="s">
+      <c r="B25" s="519" t="s">
         <v>697</v>
       </c>
-      <c r="C25" s="517"/>
-      <c r="D25" s="517"/>
+      <c r="C25" s="519"/>
+      <c r="D25" s="519"/>
       <c r="E25" s="500"/>
       <c r="F25" s="500"/>
       <c r="G25" s="500"/>
@@ -15616,11 +15616,11 @@
       <c r="A26" s="507" t="s">
         <v>686</v>
       </c>
-      <c r="B26" s="517" t="s">
+      <c r="B26" s="519" t="s">
         <v>695</v>
       </c>
-      <c r="C26" s="517"/>
-      <c r="D26" s="517"/>
+      <c r="C26" s="519"/>
+      <c r="D26" s="519"/>
       <c r="E26" s="500"/>
       <c r="F26" s="500"/>
       <c r="G26" s="500"/>
@@ -15646,11 +15646,11 @@
     </row>
     <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="507"/>
-      <c r="B27" s="517" t="s">
+      <c r="B27" s="519" t="s">
         <v>697</v>
       </c>
-      <c r="C27" s="517"/>
-      <c r="D27" s="517"/>
+      <c r="C27" s="519"/>
+      <c r="D27" s="519"/>
       <c r="E27" s="500"/>
       <c r="F27" s="500"/>
       <c r="G27" s="500"/>
@@ -15738,11 +15738,11 @@
       <c r="A30" s="507" t="s">
         <v>688</v>
       </c>
-      <c r="B30" s="519" t="s">
+      <c r="B30" s="521" t="s">
         <v>689</v>
       </c>
-      <c r="C30" s="517"/>
-      <c r="D30" s="517"/>
+      <c r="C30" s="519"/>
+      <c r="D30" s="519"/>
       <c r="E30" s="512"/>
       <c r="F30" s="512"/>
       <c r="G30" s="500"/>
@@ -15770,11 +15770,11 @@
       <c r="A31" s="507" t="s">
         <v>690</v>
       </c>
-      <c r="B31" s="517" t="s">
+      <c r="B31" s="519" t="s">
         <v>691</v>
       </c>
-      <c r="C31" s="517"/>
-      <c r="D31" s="517"/>
+      <c r="C31" s="519"/>
+      <c r="D31" s="519"/>
       <c r="E31" s="512"/>
       <c r="F31" s="512"/>
       <c r="G31" s="500"/>
@@ -17753,16 +17753,16 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="520" t="s">
+      <c r="B2" s="522" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="521"/>
-      <c r="D2" s="521"/>
-      <c r="E2" s="522"/>
-      <c r="G2" s="520" t="s">
+      <c r="C2" s="523"/>
+      <c r="D2" s="523"/>
+      <c r="E2" s="524"/>
+      <c r="G2" s="522" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="522"/>
+      <c r="H2" s="524"/>
       <c r="I2" s="153"/>
       <c r="J2" s="153"/>
       <c r="K2" s="154"/>
@@ -18045,10 +18045,10 @@
       <c r="E14" s="169" t="s">
         <v>185</v>
       </c>
-      <c r="G14" s="520" t="s">
+      <c r="G14" s="522" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="522"/>
+      <c r="H14" s="524"/>
     </row>
     <row r="15" spans="2:20" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="166" t="s">
@@ -18132,12 +18132,12 @@
     </row>
     <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="523" t="s">
+      <c r="B20" s="525" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="524"/>
-      <c r="D20" s="524"/>
-      <c r="E20" s="525"/>
+      <c r="C20" s="526"/>
+      <c r="D20" s="526"/>
+      <c r="E20" s="527"/>
     </row>
     <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="181" t="s">
@@ -18320,16 +18320,16 @@
     </row>
     <row r="35" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="520" t="s">
+      <c r="B36" s="522" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="521"/>
-      <c r="D36" s="521"/>
-      <c r="E36" s="522"/>
-      <c r="G36" s="526" t="s">
+      <c r="C36" s="523"/>
+      <c r="D36" s="523"/>
+      <c r="E36" s="524"/>
+      <c r="G36" s="528" t="s">
         <v>55</v>
       </c>
-      <c r="H36" s="527"/>
+      <c r="H36" s="529"/>
     </row>
     <row r="37" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" s="197" t="s">
@@ -18428,7 +18428,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:AM103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -18489,13 +18489,13 @@
       <c r="J3" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="S3" s="528" t="s">
+      <c r="S3" s="530" t="s">
         <v>253</v>
       </c>
-      <c r="T3" s="528"/>
-      <c r="U3" s="528"/>
-      <c r="V3" s="528"/>
-      <c r="W3" s="528"/>
+      <c r="T3" s="530"/>
+      <c r="U3" s="530"/>
+      <c r="V3" s="530"/>
+      <c r="W3" s="530"/>
     </row>
     <row r="4" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="16" t="s">
@@ -20596,8 +20596,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:AS167"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O47" sqref="O47"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20765,34 +20765,34 @@
       <c r="G4" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="535" t="s">
+      <c r="H4" s="537" t="s">
         <v>263</v>
       </c>
-      <c r="I4" s="536"/>
-      <c r="J4" s="536"/>
-      <c r="K4" s="537"/>
-      <c r="L4" s="535" t="s">
+      <c r="I4" s="538"/>
+      <c r="J4" s="538"/>
+      <c r="K4" s="539"/>
+      <c r="L4" s="537" t="s">
         <v>83</v>
       </c>
-      <c r="M4" s="536"/>
-      <c r="N4" s="536"/>
-      <c r="O4" s="537"/>
-      <c r="P4" s="535" t="s">
+      <c r="M4" s="538"/>
+      <c r="N4" s="538"/>
+      <c r="O4" s="539"/>
+      <c r="P4" s="537" t="s">
         <v>84</v>
       </c>
-      <c r="Q4" s="536"/>
-      <c r="R4" s="536"/>
-      <c r="S4" s="537"/>
-      <c r="T4" s="535" t="s">
+      <c r="Q4" s="538"/>
+      <c r="R4" s="538"/>
+      <c r="S4" s="539"/>
+      <c r="T4" s="537" t="s">
         <v>85</v>
       </c>
-      <c r="U4" s="537"/>
-      <c r="V4" s="529" t="s">
+      <c r="U4" s="539"/>
+      <c r="V4" s="540" t="s">
         <v>86</v>
       </c>
-      <c r="W4" s="530"/>
-      <c r="X4" s="530"/>
-      <c r="Y4" s="531"/>
+      <c r="W4" s="541"/>
+      <c r="X4" s="541"/>
+      <c r="Y4" s="542"/>
       <c r="Z4" s="60"/>
       <c r="AA4" s="60"/>
       <c r="AB4" s="68" t="s">
@@ -20895,34 +20895,34 @@
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
       <c r="G6" s="39"/>
-      <c r="H6" s="532" t="s">
+      <c r="H6" s="531" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="533"/>
-      <c r="J6" s="533"/>
-      <c r="K6" s="534"/>
-      <c r="L6" s="533" t="s">
+      <c r="I6" s="532"/>
+      <c r="J6" s="532"/>
+      <c r="K6" s="533"/>
+      <c r="L6" s="532" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="533"/>
-      <c r="N6" s="533"/>
-      <c r="O6" s="534"/>
-      <c r="P6" s="532" t="s">
+      <c r="M6" s="532"/>
+      <c r="N6" s="532"/>
+      <c r="O6" s="533"/>
+      <c r="P6" s="531" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="533"/>
-      <c r="R6" s="533"/>
-      <c r="S6" s="534"/>
-      <c r="T6" s="532" t="s">
+      <c r="Q6" s="532"/>
+      <c r="R6" s="532"/>
+      <c r="S6" s="533"/>
+      <c r="T6" s="531" t="s">
         <v>68</v>
       </c>
-      <c r="U6" s="534"/>
-      <c r="V6" s="532" t="s">
+      <c r="U6" s="533"/>
+      <c r="V6" s="531" t="s">
         <v>508</v>
       </c>
-      <c r="W6" s="533"/>
-      <c r="X6" s="533"/>
-      <c r="Y6" s="534"/>
+      <c r="W6" s="532"/>
+      <c r="X6" s="532"/>
+      <c r="Y6" s="533"/>
       <c r="Z6" s="61" t="s">
         <v>520</v>
       </c>
@@ -20986,7 +20986,7 @@
         <v>264</v>
       </c>
       <c r="F7" s="89"/>
-      <c r="G7" s="561" t="s">
+      <c r="G7" s="517" t="s">
         <v>714</v>
       </c>
       <c r="H7" s="246">
@@ -21053,11 +21053,11 @@
         <v>31</v>
       </c>
       <c r="AM7" s="105" t="str">
-        <f>C7</f>
+        <f t="shared" ref="AM7:AN14" si="1">C7</f>
         <v>R-SH_Apt_KER_N1</v>
       </c>
       <c r="AN7" s="105" t="str">
-        <f>D7</f>
+        <f t="shared" si="1"/>
         <v>Residential Kerosene Heating Oil - New 1 SH</v>
       </c>
       <c r="AO7" s="106" t="s">
@@ -21107,15 +21107,15 @@
         <v>0.7</v>
       </c>
       <c r="Q8" s="244">
-        <f t="shared" ref="Q8" si="1">I8*0.7</f>
+        <f t="shared" ref="Q8" si="2">I8*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R8" s="244">
-        <f t="shared" ref="R8" si="2">J8*0.7</f>
+        <f t="shared" ref="R8" si="3">J8*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S8" s="245">
-        <f t="shared" ref="S8" si="3">K8*0.7</f>
+        <f t="shared" ref="S8" si="4">K8*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T8" s="53">
@@ -21127,15 +21127,15 @@
         <v>3.6576075949367097</v>
       </c>
       <c r="W8" s="380">
-        <f t="shared" ref="W8:Y8" si="4">W10*1.3</f>
+        <f t="shared" ref="W8:Y8" si="5">W10*1.3</f>
         <v>3.6576075949367097</v>
       </c>
       <c r="X8" s="380">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.6576075949367097</v>
       </c>
       <c r="Y8" s="380">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.6576075949367097</v>
       </c>
       <c r="Z8" s="380">
@@ -21148,7 +21148,7 @@
       <c r="AE8" s="73"/>
       <c r="AF8" s="73"/>
       <c r="AG8" s="63">
-        <f t="shared" ref="AG8:AG14" si="5">31.536*(AJ8/1000)</f>
+        <f t="shared" ref="AG8:AG14" si="6">31.536*(AJ8/1000)</f>
         <v>0.56764799999999993</v>
       </c>
       <c r="AH8" s="66"/>
@@ -21160,11 +21160,11 @@
       </c>
       <c r="AL8" s="106"/>
       <c r="AM8" s="105" t="str">
-        <f>C8</f>
+        <f t="shared" si="1"/>
         <v>R-SW_Apt_KER_N1</v>
       </c>
       <c r="AN8" s="105" t="str">
-        <f>D8</f>
+        <f t="shared" si="1"/>
         <v>Residential Kerosene Heating Oil - New 2 SH + WH</v>
       </c>
       <c r="AO8" s="106" t="s">
@@ -21190,7 +21190,7 @@
         <v>700</v>
       </c>
       <c r="F9" s="30"/>
-      <c r="G9" s="561" t="s">
+      <c r="G9" s="517" t="s">
         <v>714</v>
       </c>
       <c r="H9" s="240">
@@ -21222,15 +21222,15 @@
         <v>2.79</v>
       </c>
       <c r="W9" s="379">
-        <f t="shared" ref="W9:Y9" si="6">2.79</f>
+        <f t="shared" ref="W9:Y9" si="7">2.79</f>
         <v>2.79</v>
       </c>
       <c r="X9" s="379">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.79</v>
       </c>
       <c r="Y9" s="379">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.79</v>
       </c>
       <c r="Z9" s="379">
@@ -21243,7 +21243,7 @@
       <c r="AE9" s="72"/>
       <c r="AF9" s="72"/>
       <c r="AG9" s="62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.47304000000000002</v>
       </c>
       <c r="AH9" s="65"/>
@@ -21255,11 +21255,11 @@
       </c>
       <c r="AL9" s="106"/>
       <c r="AM9" s="105" t="str">
-        <f>C9</f>
+        <f t="shared" si="1"/>
         <v>R-SH_Apt_GAS_N1</v>
       </c>
       <c r="AN9" s="105" t="str">
-        <f>D9</f>
+        <f t="shared" si="1"/>
         <v>Residential Natural Gas Heating - New 1 SH</v>
       </c>
       <c r="AO9" s="106" t="s">
@@ -21309,15 +21309,15 @@
         <v>0.7</v>
       </c>
       <c r="Q10" s="244">
-        <f t="shared" ref="Q10" si="7">I10*0.7</f>
+        <f t="shared" ref="Q10" si="8">I10*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R10" s="244">
-        <f t="shared" ref="R10" si="8">J10*0.7</f>
+        <f t="shared" ref="R10" si="9">J10*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S10" s="245">
-        <f t="shared" ref="S10" si="9">K10*0.7</f>
+        <f t="shared" ref="S10" si="10">K10*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T10" s="53">
@@ -21350,7 +21350,7 @@
       <c r="AE10" s="73"/>
       <c r="AF10" s="73"/>
       <c r="AG10" s="63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.56764799999999993</v>
       </c>
       <c r="AH10" s="66"/>
@@ -21362,11 +21362,11 @@
       </c>
       <c r="AL10" s="106"/>
       <c r="AM10" s="105" t="str">
-        <f>C10</f>
+        <f t="shared" si="1"/>
         <v>R-SW_Apt_GAS_N1</v>
       </c>
       <c r="AN10" s="105" t="str">
-        <f>D10</f>
+        <f t="shared" si="1"/>
         <v>Residential Natural Gas Heating - New 2 SH + WH</v>
       </c>
       <c r="AO10" s="106" t="s">
@@ -21392,7 +21392,7 @@
         <v>265</v>
       </c>
       <c r="F11" s="30"/>
-      <c r="G11" s="561" t="s">
+      <c r="G11" s="517" t="s">
         <v>714</v>
       </c>
       <c r="H11" s="240">
@@ -21424,15 +21424,15 @@
         <v>3.14</v>
       </c>
       <c r="W11" s="379">
-        <f t="shared" ref="W11:Y11" si="10">2.79+0.35</f>
+        <f t="shared" ref="W11:Y11" si="11">2.79+0.35</f>
         <v>3.14</v>
       </c>
       <c r="X11" s="379">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.14</v>
       </c>
       <c r="Y11" s="379">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.14</v>
       </c>
       <c r="Z11" s="379">
@@ -21446,7 +21446,7 @@
       <c r="AE11" s="72"/>
       <c r="AF11" s="72"/>
       <c r="AG11" s="62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.47304000000000002</v>
       </c>
       <c r="AH11" s="65"/>
@@ -21458,11 +21458,11 @@
       </c>
       <c r="AL11" s="106"/>
       <c r="AM11" s="105" t="str">
-        <f>C11</f>
+        <f t="shared" si="1"/>
         <v>R-SH_Apt_LPG_N1</v>
       </c>
       <c r="AN11" s="105" t="str">
-        <f>D11</f>
+        <f t="shared" si="1"/>
         <v>Residential Liquid Petroleum Gas- New 1 SH</v>
       </c>
       <c r="AO11" s="106" t="s">
@@ -21512,15 +21512,15 @@
         <v>0.7</v>
       </c>
       <c r="Q12" s="244">
-        <f t="shared" ref="Q12:S12" si="11">I12*0.7</f>
+        <f t="shared" ref="Q12:S12" si="12">I12*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R12" s="244">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.7</v>
       </c>
       <c r="S12" s="245">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.7</v>
       </c>
       <c r="T12" s="53">
@@ -21532,15 +21532,15 @@
         <v>3.1635443037974689</v>
       </c>
       <c r="W12" s="380">
-        <f t="shared" ref="W12:Y12" si="12">W10+0.35</f>
+        <f t="shared" ref="W12:Y12" si="13">W10+0.35</f>
         <v>3.1635443037974689</v>
       </c>
       <c r="X12" s="380">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.1635443037974689</v>
       </c>
       <c r="Y12" s="380">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.1635443037974689</v>
       </c>
       <c r="Z12" s="380">
@@ -21554,7 +21554,7 @@
       <c r="AE12" s="73"/>
       <c r="AF12" s="73"/>
       <c r="AG12" s="63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.56764799999999993</v>
       </c>
       <c r="AH12" s="66"/>
@@ -21566,11 +21566,11 @@
       </c>
       <c r="AL12" s="106"/>
       <c r="AM12" s="105" t="str">
-        <f>C12</f>
+        <f t="shared" si="1"/>
         <v>R-SW_Apt_LPG_N1</v>
       </c>
       <c r="AN12" s="105" t="str">
-        <f>D12</f>
+        <f t="shared" si="1"/>
         <v>Residential Liquid Petroleum Gas- New 2 SH + WH</v>
       </c>
       <c r="AO12" s="106" t="s">
@@ -21596,7 +21596,7 @@
         <v>268</v>
       </c>
       <c r="F13" s="30"/>
-      <c r="G13" s="561" t="s">
+      <c r="G13" s="517" t="s">
         <v>714</v>
       </c>
       <c r="H13" s="240">
@@ -21647,7 +21647,7 @@
       <c r="AE13" s="72"/>
       <c r="AF13" s="72"/>
       <c r="AG13" s="62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.47304000000000002</v>
       </c>
       <c r="AH13" s="65"/>
@@ -21659,11 +21659,11 @@
       </c>
       <c r="AL13" s="106"/>
       <c r="AM13" s="105" t="str">
-        <f>C13</f>
+        <f t="shared" si="1"/>
         <v>R-SH_Apt_WOO_N1</v>
       </c>
       <c r="AN13" s="105" t="str">
-        <f>D13</f>
+        <f t="shared" si="1"/>
         <v>Residential Biomass Boiler - New 1 SH</v>
       </c>
       <c r="AO13" s="106" t="s">
@@ -21709,19 +21709,19 @@
       <c r="N14" s="32"/>
       <c r="O14" s="45"/>
       <c r="P14" s="243">
-        <f t="shared" ref="P14:S14" si="13">H14*0.7</f>
+        <f t="shared" ref="P14:S14" si="14">H14*0.7</f>
         <v>0.7</v>
       </c>
       <c r="Q14" s="244">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.7</v>
       </c>
       <c r="R14" s="244">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.7</v>
       </c>
       <c r="S14" s="245">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.7</v>
       </c>
       <c r="T14" s="53">
@@ -21754,7 +21754,7 @@
       <c r="AE14" s="73"/>
       <c r="AF14" s="73"/>
       <c r="AG14" s="63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.56764799999999993</v>
       </c>
       <c r="AH14" s="66"/>
@@ -21766,11 +21766,11 @@
       </c>
       <c r="AL14" s="109"/>
       <c r="AM14" s="108" t="str">
-        <f>C14</f>
+        <f t="shared" si="1"/>
         <v>R-SW_Apt_WOO_N1</v>
       </c>
       <c r="AN14" s="108" t="str">
-        <f>D14</f>
+        <f t="shared" si="1"/>
         <v>Residential Biomass Boiler - New 2 SH + WH</v>
       </c>
       <c r="AO14" s="109" t="s">
@@ -21919,11 +21919,11 @@
       </c>
       <c r="AL16" s="104"/>
       <c r="AM16" s="103" t="str">
-        <f>C18</f>
+        <f t="shared" ref="AM16:AN18" si="15">C18</f>
         <v>R-SH_Apt_ELC_HPN1</v>
       </c>
       <c r="AN16" s="103" t="str">
-        <f>D18</f>
+        <f t="shared" si="15"/>
         <v>Residential Electric Heat Pump - Air to Air - SH</v>
       </c>
       <c r="AO16" s="104" t="s">
@@ -21985,11 +21985,11 @@
       <c r="AJ17" s="34"/>
       <c r="AL17" s="106"/>
       <c r="AM17" s="105" t="str">
-        <f>C19</f>
+        <f t="shared" si="15"/>
         <v>R-HC_Apt_ELC_HPN1</v>
       </c>
       <c r="AN17" s="105" t="str">
-        <f>D19</f>
+        <f t="shared" si="15"/>
         <v>Residential Electric Heat Pump - Air to Air - SH + SC</v>
       </c>
       <c r="AO17" s="106" t="s">
@@ -22017,7 +22017,7 @@
       <c r="F18" s="89" t="s">
         <v>563</v>
       </c>
-      <c r="G18" s="561" t="s">
+      <c r="G18" s="517" t="s">
         <v>714</v>
       </c>
       <c r="H18" s="19">
@@ -22074,7 +22074,7 @@
       <c r="AE18" s="260"/>
       <c r="AF18" s="260"/>
       <c r="AG18" s="85">
-        <f t="shared" ref="AG18:AG31" si="14">31.536*(AJ18/1000)</f>
+        <f t="shared" ref="AG18:AG31" si="16">31.536*(AJ18/1000)</f>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH18" s="88"/>
@@ -22086,11 +22086,11 @@
       </c>
       <c r="AL18" s="106"/>
       <c r="AM18" s="212" t="str">
-        <f>C20</f>
+        <f t="shared" si="15"/>
         <v>R-SH_Apt_ELC_HPN2-AB</v>
       </c>
       <c r="AN18" s="212" t="str">
-        <f>D20</f>
+        <f t="shared" si="15"/>
         <v>Residential Electric Heat Pump - Air to Water - SH - AB rated dwelling</v>
       </c>
       <c r="AO18" s="106" t="s">
@@ -22187,7 +22187,7 @@
       <c r="AE19" s="73"/>
       <c r="AF19" s="73"/>
       <c r="AG19" s="63">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH19" s="66"/>
@@ -22199,11 +22199,11 @@
       </c>
       <c r="AL19" s="106"/>
       <c r="AM19" s="212" t="str">
-        <f t="shared" ref="AM19:AN19" si="15">C21</f>
+        <f t="shared" ref="AM19:AN19" si="17">C21</f>
         <v>R-SH_Apt_ELC_HPN2-C</v>
       </c>
       <c r="AN19" s="212" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Residential Electric Heat Pump - Air to Water - SH - C rated dwelling</v>
       </c>
       <c r="AO19" s="106" t="s">
@@ -22288,7 +22288,7 @@
       <c r="AE20" s="72"/>
       <c r="AF20" s="72"/>
       <c r="AG20" s="62">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH20" s="65"/>
@@ -22300,11 +22300,11 @@
       </c>
       <c r="AL20" s="106"/>
       <c r="AM20" s="212" t="str">
-        <f t="shared" ref="AM20:AN20" si="16">C22</f>
+        <f t="shared" ref="AM20:AN20" si="18">C22</f>
         <v>R-SH_Apt_ELC_HPN2-D</v>
       </c>
       <c r="AN20" s="212" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Residential Electric Heat Pump - Air to Water - SH - D rated dwelling</v>
       </c>
       <c r="AO20" s="106" t="s">
@@ -22369,15 +22369,15 @@
         <v>9.5039999999999996</v>
       </c>
       <c r="W21" s="379">
-        <f t="shared" ref="W21:Y21" si="17">W20+0.6+(0.28*5)</f>
+        <f t="shared" ref="W21:Y21" si="19">W20+0.6+(0.28*5)</f>
         <v>8.82864</v>
       </c>
       <c r="X21" s="379">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>8.2140623999999995</v>
       </c>
       <c r="Y21" s="379">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>8.1532799999999988</v>
       </c>
       <c r="Z21" s="379">
@@ -22390,7 +22390,7 @@
       <c r="AE21" s="72"/>
       <c r="AF21" s="72"/>
       <c r="AG21" s="62">
-        <f t="shared" ref="AG21:AG24" si="18">31.536*(AJ21/1000)</f>
+        <f t="shared" ref="AG21:AG24" si="20">31.536*(AJ21/1000)</f>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH21" s="65"/>
@@ -22402,11 +22402,11 @@
       </c>
       <c r="AL21" s="106"/>
       <c r="AM21" s="212" t="str">
-        <f t="shared" ref="AM21:AN21" si="19">C23</f>
+        <f t="shared" ref="AM21:AN21" si="21">C23</f>
         <v>R-SH_Apt_ELC_HPN2-E</v>
       </c>
       <c r="AN21" s="212" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Residential Electric Heat Pump - Air to Water - SH - E rated dwelling</v>
       </c>
       <c r="AO21" s="106" t="s">
@@ -22471,15 +22471,15 @@
         <v>9.6039999999999992</v>
       </c>
       <c r="W22" s="379">
-        <f t="shared" ref="W22:Y22" si="20">W20+0.6+(0.3*5)</f>
+        <f t="shared" ref="W22:Y22" si="22">W20+0.6+(0.3*5)</f>
         <v>8.9286399999999997</v>
       </c>
       <c r="X22" s="379">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>8.314062400000001</v>
       </c>
       <c r="Y22" s="379">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>8.2532800000000002</v>
       </c>
       <c r="Z22" s="379">
@@ -22492,7 +22492,7 @@
       <c r="AE22" s="72"/>
       <c r="AF22" s="72"/>
       <c r="AG22" s="62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH22" s="65"/>
@@ -22504,11 +22504,11 @@
       </c>
       <c r="AL22" s="106"/>
       <c r="AM22" s="212" t="str">
-        <f t="shared" ref="AM22:AN22" si="21">C24</f>
+        <f t="shared" ref="AM22:AN22" si="23">C24</f>
         <v>R-SH_Apt_ELC_HPN2-F</v>
       </c>
       <c r="AN22" s="212" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>Residential Electric Heat Pump - Air to Water - SH - F rated dwelling</v>
       </c>
       <c r="AO22" s="106" t="s">
@@ -22573,15 +22573,15 @@
         <v>10.103999999999999</v>
       </c>
       <c r="W23" s="379">
-        <f t="shared" ref="W23:Y23" si="22">W20+0.6+(0.4*5)</f>
+        <f t="shared" ref="W23:Y23" si="24">W20+0.6+(0.4*5)</f>
         <v>9.4286399999999997</v>
       </c>
       <c r="X23" s="379">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>8.814062400000001</v>
       </c>
       <c r="Y23" s="379">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>8.7532800000000002</v>
       </c>
       <c r="Z23" s="379">
@@ -22594,7 +22594,7 @@
       <c r="AE23" s="72"/>
       <c r="AF23" s="72"/>
       <c r="AG23" s="62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH23" s="65"/>
@@ -22606,11 +22606,11 @@
       </c>
       <c r="AL23" s="106"/>
       <c r="AM23" s="212" t="str">
-        <f t="shared" ref="AM23:AN23" si="23">C25</f>
+        <f t="shared" ref="AM23:AN23" si="25">C25</f>
         <v>R-SW_Apt_ELC_HPN1-AB</v>
       </c>
       <c r="AN23" s="212" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH - AB rated dwelling</v>
       </c>
       <c r="AO23" s="106" t="s">
@@ -22675,15 +22675,15 @@
         <v>10.603999999999999</v>
       </c>
       <c r="W24" s="379">
-        <f t="shared" ref="W24:Y24" si="24">W20+0.6+(0.5*5)</f>
+        <f t="shared" ref="W24:Y24" si="26">W20+0.6+(0.5*5)</f>
         <v>9.9286399999999997</v>
       </c>
       <c r="X24" s="379">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>9.314062400000001</v>
       </c>
       <c r="Y24" s="379">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>9.2532800000000002</v>
       </c>
       <c r="Z24" s="379">
@@ -22696,7 +22696,7 @@
       <c r="AE24" s="72"/>
       <c r="AF24" s="72"/>
       <c r="AG24" s="62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH24" s="65"/>
@@ -22769,15 +22769,15 @@
         <v>0.7</v>
       </c>
       <c r="Q25" s="23">
-        <f t="shared" ref="Q25:S25" si="25">I25*0.7</f>
+        <f t="shared" ref="Q25:S25" si="27">I25*0.7</f>
         <v>0.76999999999999991</v>
       </c>
       <c r="R25" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.86333333333333329</v>
       </c>
       <c r="S25" s="57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.93333333333333324</v>
       </c>
       <c r="T25" s="53">
@@ -22810,7 +22810,7 @@
       <c r="AE25" s="73"/>
       <c r="AF25" s="73"/>
       <c r="AG25" s="63">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.18921600000000002</v>
       </c>
       <c r="AH25" s="66"/>
@@ -22822,11 +22822,11 @@
       </c>
       <c r="AL25" s="106"/>
       <c r="AM25" s="212" t="str">
-        <f t="shared" ref="AM25" si="26">C27</f>
+        <f t="shared" ref="AM25" si="28">C27</f>
         <v>R-SW_Apt_ELC_HPN1-D</v>
       </c>
       <c r="AN25" s="212" t="str">
-        <f t="shared" ref="AN25" si="27">D27</f>
+        <f t="shared" ref="AN25" si="29">D27</f>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH - D rated dwelling</v>
       </c>
       <c r="AO25" s="106" t="s">
@@ -22878,19 +22878,19 @@
       <c r="N26" s="23"/>
       <c r="O26" s="57"/>
       <c r="P26" s="22">
-        <f t="shared" ref="P26:P29" si="28">H26*0.7</f>
+        <f t="shared" ref="P26:P29" si="30">H26*0.7</f>
         <v>0.7</v>
       </c>
       <c r="Q26" s="23">
-        <f t="shared" ref="Q26:Q29" si="29">I26*0.7</f>
+        <f t="shared" ref="Q26:Q29" si="31">I26*0.7</f>
         <v>0.76999999999999991</v>
       </c>
       <c r="R26" s="23">
-        <f t="shared" ref="R26:R29" si="30">J26*0.7</f>
+        <f t="shared" ref="R26:R29" si="32">J26*0.7</f>
         <v>0.86333333333333329</v>
       </c>
       <c r="S26" s="57">
-        <f t="shared" ref="S26:S29" si="31">K26*0.7</f>
+        <f t="shared" ref="S26:S29" si="33">K26*0.7</f>
         <v>0.93333333333333324</v>
       </c>
       <c r="T26" s="53">
@@ -22902,15 +22902,15 @@
         <v>9.5842025316455697</v>
       </c>
       <c r="W26" s="380">
-        <f t="shared" ref="W26:Y26" si="32">W21/$V$20*$V$25</f>
+        <f t="shared" ref="W26:Y26" si="34">W21/$V$20*$V$25</f>
         <v>8.9031432911392407</v>
       </c>
       <c r="X26" s="380">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>8.2833793822784809</v>
       </c>
       <c r="Y26" s="380">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>8.2220840506329118</v>
       </c>
       <c r="Z26" s="380">
@@ -22923,7 +22923,7 @@
       <c r="AE26" s="73"/>
       <c r="AF26" s="73"/>
       <c r="AG26" s="63">
-        <f t="shared" ref="AG26:AG29" si="33">31.536*(AJ26/1000)</f>
+        <f t="shared" ref="AG26:AG29" si="35">31.536*(AJ26/1000)</f>
         <v>0.18921600000000002</v>
       </c>
       <c r="AH26" s="66"/>
@@ -22935,11 +22935,11 @@
       </c>
       <c r="AL26" s="106"/>
       <c r="AM26" s="212" t="str">
-        <f t="shared" ref="AM26:AM27" si="34">C28</f>
+        <f t="shared" ref="AM26:AM27" si="36">C28</f>
         <v>R-SW_Apt_ELC_HPN1-E</v>
       </c>
       <c r="AN26" s="212" t="str">
-        <f t="shared" ref="AN26:AN27" si="35">D28</f>
+        <f t="shared" ref="AN26:AN27" si="37">D28</f>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH - E rated dwelling</v>
       </c>
       <c r="AO26" s="106" t="s">
@@ -22992,19 +22992,19 @@
       <c r="N27" s="23"/>
       <c r="O27" s="57"/>
       <c r="P27" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.7</v>
       </c>
       <c r="Q27" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.76999999999999991</v>
       </c>
       <c r="R27" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.86333333333333329</v>
       </c>
       <c r="S27" s="57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.93333333333333324</v>
       </c>
       <c r="T27" s="53">
@@ -23012,19 +23012,19 @@
       </c>
       <c r="U27" s="24"/>
       <c r="V27" s="380">
-        <f t="shared" ref="V27:Y28" si="36">V22/$V$20*$V$25</f>
+        <f t="shared" ref="V27:Y28" si="38">V22/$V$20*$V$25</f>
         <v>9.6850464135021088</v>
       </c>
       <c r="W27" s="380">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.0039871729957817</v>
       </c>
       <c r="X27" s="380">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>8.3842232641350218</v>
       </c>
       <c r="Y27" s="380">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>8.3229279324894527</v>
       </c>
       <c r="Z27" s="380">
@@ -23037,7 +23037,7 @@
       <c r="AE27" s="73"/>
       <c r="AF27" s="73"/>
       <c r="AG27" s="63">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.18921600000000002</v>
       </c>
       <c r="AH27" s="66"/>
@@ -23049,11 +23049,11 @@
       </c>
       <c r="AL27" s="106"/>
       <c r="AM27" s="212" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>R-SW_Apt_ELC_HPN1-F</v>
       </c>
       <c r="AN27" s="212" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH - F rated dwelling</v>
       </c>
       <c r="AO27" s="106" t="s">
@@ -23105,19 +23105,19 @@
       <c r="N28" s="23"/>
       <c r="O28" s="57"/>
       <c r="P28" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.7</v>
       </c>
       <c r="Q28" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.76999999999999991</v>
       </c>
       <c r="R28" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.86333333333333329</v>
       </c>
       <c r="S28" s="57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.93333333333333324</v>
       </c>
       <c r="T28" s="53">
@@ -23125,19 +23125,19 @@
       </c>
       <c r="U28" s="24"/>
       <c r="V28" s="380">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10.18926582278481</v>
       </c>
       <c r="W28" s="380">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.5082065822784809</v>
       </c>
       <c r="X28" s="380">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>8.8884426734177229</v>
       </c>
       <c r="Y28" s="380">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>8.8271473417721538</v>
       </c>
       <c r="Z28" s="380">
@@ -23150,7 +23150,7 @@
       <c r="AE28" s="73"/>
       <c r="AF28" s="73"/>
       <c r="AG28" s="63">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.18921600000000002</v>
       </c>
       <c r="AH28" s="66"/>
@@ -23218,19 +23218,19 @@
       <c r="N29" s="23"/>
       <c r="O29" s="57"/>
       <c r="P29" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.7</v>
       </c>
       <c r="Q29" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.76999999999999991</v>
       </c>
       <c r="R29" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.86333333333333329</v>
       </c>
       <c r="S29" s="57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.93333333333333324</v>
       </c>
       <c r="T29" s="53">
@@ -23242,15 +23242,15 @@
         <v>10.693485232067511</v>
       </c>
       <c r="W29" s="380">
-        <f t="shared" ref="W29:Y29" si="37">W24/$V$20*$V$25</f>
+        <f t="shared" ref="W29:Y29" si="39">W24/$V$20*$V$25</f>
         <v>10.012425991561182</v>
       </c>
       <c r="X29" s="380">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>9.3926620827004239</v>
       </c>
       <c r="Y29" s="380">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>9.331366751054853</v>
       </c>
       <c r="Z29" s="380">
@@ -23263,7 +23263,7 @@
       <c r="AE29" s="73"/>
       <c r="AF29" s="73"/>
       <c r="AG29" s="63">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.18921600000000002</v>
       </c>
       <c r="AH29" s="66"/>
@@ -23307,7 +23307,7 @@
       <c r="F30" s="24" t="s">
         <v>563</v>
       </c>
-      <c r="G30" s="561" t="s">
+      <c r="G30" s="517" t="s">
         <v>714</v>
       </c>
       <c r="H30" s="40">
@@ -23365,7 +23365,7 @@
       <c r="AE30" s="72"/>
       <c r="AF30" s="72"/>
       <c r="AG30" s="62">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH30" s="65"/>
@@ -23478,7 +23478,7 @@
       <c r="AE31" s="73"/>
       <c r="AF31" s="73"/>
       <c r="AG31" s="63">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH31" s="66"/>
@@ -23607,15 +23607,15 @@
         <v>1.1666666666666667</v>
       </c>
       <c r="Q33" s="20">
-        <f t="shared" ref="Q33:S33" si="38">I33*0.7</f>
+        <f t="shared" ref="Q33:S33" si="40">I33*0.7</f>
         <v>1.2530864197530862</v>
       </c>
       <c r="R33" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1.4691358024691357</v>
       </c>
       <c r="S33" s="56">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1.4691358024691357</v>
       </c>
       <c r="T33" s="89">
@@ -23649,7 +23649,7 @@
       <c r="AE33" s="85"/>
       <c r="AF33" s="85"/>
       <c r="AG33" s="85">
-        <f t="shared" ref="AG33:AG34" si="39">31.536*(AJ33/1000)</f>
+        <f t="shared" ref="AG33:AG34" si="41">31.536*(AJ33/1000)</f>
         <v>0.56764799999999993</v>
       </c>
       <c r="AH33" s="88"/>
@@ -23721,15 +23721,15 @@
         <v>1.1666666666666665</v>
       </c>
       <c r="Q34" s="26">
-        <f t="shared" ref="Q34" si="40">I34*0.7</f>
+        <f t="shared" ref="Q34" si="42">I34*0.7</f>
         <v>1.2055555555555555</v>
       </c>
       <c r="R34" s="26">
-        <f t="shared" ref="R34" si="41">J34*0.7</f>
+        <f t="shared" ref="R34" si="43">J34*0.7</f>
         <v>1.2055555555555555</v>
       </c>
       <c r="S34" s="59">
-        <f t="shared" ref="S34" si="42">K34*0.7</f>
+        <f t="shared" ref="S34" si="44">K34*0.7</f>
         <v>1.2444444444444445</v>
       </c>
       <c r="T34" s="27">
@@ -23763,7 +23763,7 @@
       <c r="AE34" s="64"/>
       <c r="AF34" s="64"/>
       <c r="AG34" s="64">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.56764799999999993</v>
       </c>
       <c r="AH34" s="67"/>
@@ -23896,11 +23896,11 @@
         <v>2.4464999999999999</v>
       </c>
       <c r="R36" s="26">
-        <f t="shared" ref="R36:S36" si="43">J36*0.7</f>
+        <f t="shared" ref="R36:S36" si="45">J36*0.7</f>
         <v>2.625</v>
       </c>
       <c r="S36" s="59">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>2.625</v>
       </c>
       <c r="T36" s="256">
@@ -24105,7 +24105,7 @@
       <c r="AE38" s="85"/>
       <c r="AF38" s="85"/>
       <c r="AG38" s="85">
-        <f t="shared" ref="AG38:AG39" si="44">31.536*(AJ38/1000)</f>
+        <f t="shared" ref="AG38:AG39" si="46">31.536*(AJ38/1000)</f>
         <v>0.56764799999999993</v>
       </c>
       <c r="AH38" s="88"/>
@@ -24208,7 +24208,7 @@
       <c r="AE39" s="63"/>
       <c r="AF39" s="63"/>
       <c r="AG39" s="64">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.56764799999999993</v>
       </c>
       <c r="AH39" s="67"/>
@@ -24323,7 +24323,7 @@
       <c r="AE41" s="85"/>
       <c r="AF41" s="85"/>
       <c r="AG41" s="85">
-        <f t="shared" ref="AG41:AG42" si="45">31.536*(AJ41/1000)</f>
+        <f t="shared" ref="AG41:AG42" si="47">31.536*(AJ41/1000)</f>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH41" s="88"/>
@@ -24402,7 +24402,7 @@
       <c r="AE42" s="63"/>
       <c r="AF42" s="63"/>
       <c r="AG42" s="63">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH42" s="66"/>
@@ -24520,7 +24520,7 @@
       <c r="AE44" s="85"/>
       <c r="AF44" s="85"/>
       <c r="AG44" s="85">
-        <f t="shared" ref="AG44:AG45" si="46">31.536*(AJ44/1000)</f>
+        <f t="shared" ref="AG44:AG45" si="48">31.536*(AJ44/1000)</f>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH44" s="88"/>
@@ -24600,7 +24600,7 @@
       <c r="AE45" s="63"/>
       <c r="AF45" s="63"/>
       <c r="AG45" s="64">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH45" s="67"/>
@@ -24821,34 +24821,34 @@
       <c r="G50" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H50" s="535" t="s">
+      <c r="H50" s="537" t="s">
         <v>82</v>
       </c>
-      <c r="I50" s="536"/>
-      <c r="J50" s="536"/>
-      <c r="K50" s="537"/>
-      <c r="L50" s="535" t="s">
+      <c r="I50" s="538"/>
+      <c r="J50" s="538"/>
+      <c r="K50" s="539"/>
+      <c r="L50" s="537" t="s">
         <v>83</v>
       </c>
-      <c r="M50" s="536"/>
-      <c r="N50" s="536"/>
-      <c r="O50" s="537"/>
-      <c r="P50" s="535" t="s">
+      <c r="M50" s="538"/>
+      <c r="N50" s="538"/>
+      <c r="O50" s="539"/>
+      <c r="P50" s="537" t="s">
         <v>84</v>
       </c>
-      <c r="Q50" s="536"/>
-      <c r="R50" s="536"/>
-      <c r="S50" s="537"/>
-      <c r="T50" s="535" t="s">
+      <c r="Q50" s="538"/>
+      <c r="R50" s="538"/>
+      <c r="S50" s="539"/>
+      <c r="T50" s="537" t="s">
         <v>85</v>
       </c>
-      <c r="U50" s="537"/>
-      <c r="V50" s="529" t="s">
+      <c r="U50" s="539"/>
+      <c r="V50" s="540" t="s">
         <v>86</v>
       </c>
-      <c r="W50" s="530"/>
-      <c r="X50" s="530"/>
-      <c r="Y50" s="531"/>
+      <c r="W50" s="541"/>
+      <c r="X50" s="541"/>
+      <c r="Y50" s="542"/>
       <c r="Z50" s="60"/>
       <c r="AA50" s="60"/>
       <c r="AB50" s="68" t="s">
@@ -24951,34 +24951,34 @@
       <c r="E52" s="38"/>
       <c r="F52" s="38"/>
       <c r="G52" s="39"/>
-      <c r="H52" s="532" t="s">
+      <c r="H52" s="531" t="s">
         <v>34</v>
       </c>
-      <c r="I52" s="533"/>
-      <c r="J52" s="533"/>
-      <c r="K52" s="534"/>
-      <c r="L52" s="533" t="s">
+      <c r="I52" s="532"/>
+      <c r="J52" s="532"/>
+      <c r="K52" s="533"/>
+      <c r="L52" s="532" t="s">
         <v>34</v>
       </c>
-      <c r="M52" s="533"/>
-      <c r="N52" s="533"/>
-      <c r="O52" s="534"/>
-      <c r="P52" s="532" t="s">
+      <c r="M52" s="532"/>
+      <c r="N52" s="532"/>
+      <c r="O52" s="533"/>
+      <c r="P52" s="531" t="s">
         <v>34</v>
       </c>
-      <c r="Q52" s="533"/>
-      <c r="R52" s="533"/>
-      <c r="S52" s="534"/>
-      <c r="T52" s="538" t="s">
+      <c r="Q52" s="532"/>
+      <c r="R52" s="532"/>
+      <c r="S52" s="533"/>
+      <c r="T52" s="534" t="s">
         <v>68</v>
       </c>
-      <c r="U52" s="539"/>
-      <c r="V52" s="538" t="s">
+      <c r="U52" s="535"/>
+      <c r="V52" s="534" t="s">
         <v>508</v>
       </c>
-      <c r="W52" s="540"/>
-      <c r="X52" s="540"/>
-      <c r="Y52" s="539"/>
+      <c r="W52" s="536"/>
+      <c r="X52" s="536"/>
+      <c r="Y52" s="535"/>
       <c r="Z52" s="373" t="s">
         <v>520</v>
       </c>
@@ -25042,7 +25042,7 @@
         <v>264</v>
       </c>
       <c r="F53" s="89"/>
-      <c r="G53" s="561" t="s">
+      <c r="G53" s="517" t="s">
         <v>727</v>
       </c>
       <c r="H53" s="19">
@@ -25074,15 +25074,15 @@
         <v>4.2250000000000005</v>
       </c>
       <c r="W53" s="379">
-        <f t="shared" ref="W53:Y53" si="47">W57*1.3</f>
+        <f t="shared" ref="W53:Y53" si="49">W57*1.3</f>
         <v>4.2250000000000005</v>
       </c>
       <c r="X53" s="379">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>4.2250000000000005</v>
       </c>
       <c r="Y53" s="379">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>4.2250000000000005</v>
       </c>
       <c r="Z53" s="379">
@@ -25095,7 +25095,7 @@
       <c r="AE53" s="72"/>
       <c r="AF53" s="72"/>
       <c r="AG53" s="62">
-        <f t="shared" ref="AG53:AG91" si="48">31.536*(AJ53/1000)</f>
+        <f t="shared" ref="AG53:AG91" si="50">31.536*(AJ53/1000)</f>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH53" s="65"/>
@@ -25109,11 +25109,11 @@
         <v>31</v>
       </c>
       <c r="AM53" s="105" t="str">
-        <f>C53</f>
+        <f t="shared" ref="AM53:AM64" si="51">C53</f>
         <v>R-SH_Att_KER_N1</v>
       </c>
       <c r="AN53" s="105" t="str">
-        <f>D53</f>
+        <f t="shared" ref="AN53:AN64" si="52">D53</f>
         <v>Residential Kerosene Heating Oil - New 1 SH</v>
       </c>
       <c r="AO53" s="106" t="s">
@@ -25163,15 +25163,15 @@
         <v>0.7</v>
       </c>
       <c r="Q54" s="23">
-        <f t="shared" ref="Q54:Q56" si="49">I54*0.7</f>
+        <f t="shared" ref="Q54:Q56" si="53">I54*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R54" s="23">
-        <f t="shared" ref="R54:R56" si="50">J54*0.7</f>
+        <f t="shared" ref="R54:R56" si="54">J54*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S54" s="57">
-        <f t="shared" ref="S54:S56" si="51">K54*0.7</f>
+        <f t="shared" ref="S54:S56" si="55">K54*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T54" s="53">
@@ -25183,15 +25183,15 @@
         <v>4.2773760330578519</v>
       </c>
       <c r="W54" s="380">
-        <f t="shared" ref="W54:Y54" si="52">W58*1.3</f>
+        <f t="shared" ref="W54:Y54" si="56">W58*1.3</f>
         <v>4.2773760330578519</v>
       </c>
       <c r="X54" s="380">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>4.2773760330578519</v>
       </c>
       <c r="Y54" s="380">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>4.2773760330578519</v>
       </c>
       <c r="Z54" s="380">
@@ -25204,7 +25204,7 @@
       <c r="AE54" s="73"/>
       <c r="AF54" s="73"/>
       <c r="AG54" s="63">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH54" s="66"/>
@@ -25216,11 +25216,11 @@
       </c>
       <c r="AL54" s="106"/>
       <c r="AM54" s="105" t="str">
-        <f>C54</f>
+        <f t="shared" si="51"/>
         <v>R-SW_Att_KER_N1</v>
       </c>
       <c r="AN54" s="105" t="str">
-        <f>D54</f>
+        <f t="shared" si="52"/>
         <v>Residential Kerosene Heating Oil - New 2 SH + WH</v>
       </c>
       <c r="AO54" s="106" t="s">
@@ -25270,15 +25270,15 @@
         <v>0.7</v>
       </c>
       <c r="Q55" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.7</v>
       </c>
       <c r="R55" s="29">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0.7</v>
       </c>
       <c r="S55" s="58">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.7</v>
       </c>
       <c r="T55" s="54">
@@ -25316,7 +25316,7 @@
         <v>5</v>
       </c>
       <c r="AG55" s="62">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH55" s="65"/>
@@ -25328,11 +25328,11 @@
       </c>
       <c r="AL55" s="106"/>
       <c r="AM55" s="105" t="str">
-        <f>C55</f>
+        <f t="shared" si="51"/>
         <v>R-SW_Att_KER_N2</v>
       </c>
       <c r="AN55" s="105" t="str">
-        <f>D55</f>
+        <f t="shared" si="52"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Solar</v>
       </c>
       <c r="AO55" s="106" t="s">
@@ -25382,15 +25382,15 @@
         <v>0.7</v>
       </c>
       <c r="Q56" s="23">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="R56" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="S56" s="57">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="T56" s="53">
@@ -25440,11 +25440,11 @@
       </c>
       <c r="AL56" s="106"/>
       <c r="AM56" s="105" t="str">
-        <f>C56</f>
+        <f t="shared" si="51"/>
         <v>R-SW_Att_KER_N3</v>
       </c>
       <c r="AN56" s="105" t="str">
-        <f>D56</f>
+        <f t="shared" si="52"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Wood Stove</v>
       </c>
       <c r="AO56" s="107" t="s">
@@ -25500,15 +25500,15 @@
         <v>3.25</v>
       </c>
       <c r="W57" s="379">
-        <f t="shared" ref="W57:Y57" si="53">3.25</f>
+        <f t="shared" ref="W57:Y57" si="57">3.25</f>
         <v>3.25</v>
       </c>
       <c r="X57" s="379">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>3.25</v>
       </c>
       <c r="Y57" s="379">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>3.25</v>
       </c>
       <c r="Z57" s="379">
@@ -25521,7 +25521,7 @@
       <c r="AE57" s="72"/>
       <c r="AF57" s="72"/>
       <c r="AG57" s="62">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH57" s="65"/>
@@ -25533,11 +25533,11 @@
       </c>
       <c r="AL57" s="106"/>
       <c r="AM57" s="105" t="str">
-        <f>C57</f>
+        <f t="shared" si="51"/>
         <v>R-SH_Att_GAS_N1</v>
       </c>
       <c r="AN57" s="105" t="str">
-        <f>D57</f>
+        <f t="shared" si="52"/>
         <v>Residential Natural Gas Heating - New 1 SH</v>
       </c>
       <c r="AO57" s="106" t="s">
@@ -25587,15 +25587,15 @@
         <v>0.7</v>
       </c>
       <c r="Q58" s="23">
-        <f t="shared" ref="Q58:Q60" si="54">I58*0.7</f>
+        <f t="shared" ref="Q58:Q60" si="58">I58*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R58" s="23">
-        <f t="shared" ref="R58:R60" si="55">J58*0.7</f>
+        <f t="shared" ref="R58:R60" si="59">J58*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S58" s="57">
-        <f t="shared" ref="S58:S60" si="56">K58*0.7</f>
+        <f t="shared" ref="S58:S60" si="60">K58*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T58" s="53">
@@ -25628,7 +25628,7 @@
       <c r="AE58" s="73"/>
       <c r="AF58" s="73"/>
       <c r="AG58" s="63">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH58" s="66"/>
@@ -25640,11 +25640,11 @@
       </c>
       <c r="AL58" s="106"/>
       <c r="AM58" s="105" t="str">
-        <f>C58</f>
+        <f t="shared" si="51"/>
         <v>R-SW_Att_GAS_N1</v>
       </c>
       <c r="AN58" s="105" t="str">
-        <f>D58</f>
+        <f t="shared" si="52"/>
         <v>Residential Natural Gas Heating - New 2 SH + WH</v>
       </c>
       <c r="AO58" s="106" t="s">
@@ -25694,15 +25694,15 @@
         <v>0.7</v>
       </c>
       <c r="Q59" s="29">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>0.7</v>
       </c>
       <c r="R59" s="29">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>0.7</v>
       </c>
       <c r="S59" s="58">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0.7</v>
       </c>
       <c r="T59" s="54">
@@ -25738,7 +25738,7 @@
         <v>5</v>
       </c>
       <c r="AG59" s="62">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH59" s="65"/>
@@ -25750,11 +25750,11 @@
       </c>
       <c r="AL59" s="106"/>
       <c r="AM59" s="105" t="str">
-        <f>C59</f>
+        <f t="shared" si="51"/>
         <v>R-SW_Att_GAS_N2</v>
       </c>
       <c r="AN59" s="105" t="str">
-        <f>D59</f>
+        <f t="shared" si="52"/>
         <v>Residential Natural Gas Heating - New 3 SH + WH + Solar</v>
       </c>
       <c r="AO59" s="106" t="s">
@@ -25804,15 +25804,15 @@
         <v>0.7</v>
       </c>
       <c r="Q60" s="23">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="R60" s="23">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="S60" s="57">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="T60" s="53">
@@ -25850,7 +25850,7 @@
         <v>5</v>
       </c>
       <c r="AG60" s="63">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH60" s="66"/>
@@ -25862,11 +25862,11 @@
       </c>
       <c r="AL60" s="106"/>
       <c r="AM60" s="105" t="str">
-        <f>C60</f>
+        <f t="shared" si="51"/>
         <v>R-SW_Att_GAS_N3</v>
       </c>
       <c r="AN60" s="105" t="str">
-        <f>D60</f>
+        <f t="shared" si="52"/>
         <v>Residential Natural Gas Heating - New 4 SH + WH + Wood Stove</v>
       </c>
       <c r="AO60" s="106" t="s">
@@ -25946,7 +25946,7 @@
       <c r="AE61" s="72"/>
       <c r="AF61" s="72"/>
       <c r="AG61" s="62">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH61" s="65"/>
@@ -25958,11 +25958,11 @@
       </c>
       <c r="AL61" s="106"/>
       <c r="AM61" s="105" t="str">
-        <f>C61</f>
+        <f t="shared" si="51"/>
         <v>R-SH_Att_LPG_N1</v>
       </c>
       <c r="AN61" s="105" t="str">
-        <f>D61</f>
+        <f t="shared" si="52"/>
         <v>Residential Liquid Petroleum Gas- New 1 SH</v>
       </c>
       <c r="AO61" s="106" t="s">
@@ -26012,15 +26012,15 @@
         <v>0.7</v>
       </c>
       <c r="Q62" s="23">
-        <f t="shared" ref="Q62" si="57">I62*0.7</f>
+        <f t="shared" ref="Q62" si="61">I62*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R62" s="23">
-        <f t="shared" ref="R62" si="58">J62*0.7</f>
+        <f t="shared" ref="R62" si="62">J62*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S62" s="57">
-        <f t="shared" ref="S62" si="59">K62*0.7</f>
+        <f t="shared" ref="S62" si="63">K62*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T62" s="53">
@@ -26054,7 +26054,7 @@
       <c r="AE62" s="73"/>
       <c r="AF62" s="73"/>
       <c r="AG62" s="63">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH62" s="66"/>
@@ -26066,11 +26066,11 @@
       </c>
       <c r="AL62" s="106"/>
       <c r="AM62" s="105" t="str">
-        <f>C62</f>
+        <f t="shared" si="51"/>
         <v>R-SW_Att_LPG_N1</v>
       </c>
       <c r="AN62" s="105" t="str">
-        <f>D62</f>
+        <f t="shared" si="52"/>
         <v>Residential Liquid Petroleum Gas- New 2 SH + WH</v>
       </c>
       <c r="AO62" s="106" t="s">
@@ -26148,7 +26148,7 @@
       <c r="AE63" s="72"/>
       <c r="AF63" s="72"/>
       <c r="AG63" s="62">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH63" s="65"/>
@@ -26160,11 +26160,11 @@
       </c>
       <c r="AL63" s="106"/>
       <c r="AM63" s="105" t="str">
-        <f>C63</f>
+        <f t="shared" si="51"/>
         <v>R-SH_Att_WOO_N1</v>
       </c>
       <c r="AN63" s="105" t="str">
-        <f>D63</f>
+        <f t="shared" si="52"/>
         <v>Residential Biomass Boiler - New 1 SH</v>
       </c>
       <c r="AO63" s="106" t="s">
@@ -26210,19 +26210,19 @@
       <c r="N64" s="32"/>
       <c r="O64" s="45"/>
       <c r="P64" s="22">
-        <f t="shared" ref="P64:S68" si="60">H64*0.7</f>
+        <f t="shared" ref="P64:S68" si="64">H64*0.7</f>
         <v>0.7</v>
       </c>
       <c r="Q64" s="23">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>0.7</v>
       </c>
       <c r="R64" s="23">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>0.7</v>
       </c>
       <c r="S64" s="57">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>0.7</v>
       </c>
       <c r="T64" s="53">
@@ -26255,7 +26255,7 @@
       <c r="AE64" s="73"/>
       <c r="AF64" s="73"/>
       <c r="AG64" s="63">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH64" s="66"/>
@@ -26267,11 +26267,11 @@
       </c>
       <c r="AL64" s="109"/>
       <c r="AM64" s="108" t="str">
-        <f>C64</f>
+        <f t="shared" si="51"/>
         <v>R-SW_Att_WOO_N1</v>
       </c>
       <c r="AN64" s="108" t="str">
-        <f>D64</f>
+        <f t="shared" si="52"/>
         <v>Residential Biomass Boiler - New 2 SH + WH</v>
       </c>
       <c r="AO64" s="109" t="s">
@@ -26350,7 +26350,7 @@
       <c r="AE65" s="73"/>
       <c r="AF65" s="73"/>
       <c r="AG65" s="63">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH65" s="66"/>
@@ -26409,19 +26409,19 @@
       <c r="N66" s="32"/>
       <c r="O66" s="45"/>
       <c r="P66" s="22">
-        <f t="shared" ref="P66" si="61">H66*0.7</f>
+        <f t="shared" ref="P66" si="65">H66*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="Q66" s="23">
-        <f t="shared" ref="Q66" si="62">I66*0.7</f>
+        <f t="shared" ref="Q66" si="66">I66*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="R66" s="23">
-        <f t="shared" ref="R66" si="63">J66*0.7</f>
+        <f t="shared" ref="R66" si="67">J66*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="S66" s="57">
-        <f t="shared" ref="S66" si="64">K66*0.7</f>
+        <f t="shared" ref="S66" si="68">K66*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="T66" s="53">
@@ -26454,7 +26454,7 @@
       <c r="AE66" s="73"/>
       <c r="AF66" s="73"/>
       <c r="AG66" s="63">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH66" s="66"/>
@@ -26524,19 +26524,19 @@
         <v>4.2250000000000005</v>
       </c>
       <c r="W67" s="62">
-        <f t="shared" ref="W67:Z68" si="65">W53</f>
+        <f t="shared" ref="W67:Z68" si="69">W53</f>
         <v>4.2250000000000005</v>
       </c>
       <c r="X67" s="62">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>4.2250000000000005</v>
       </c>
       <c r="Y67" s="62">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>4.2250000000000005</v>
       </c>
       <c r="Z67" s="62">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>0.12</v>
       </c>
       <c r="AA67" s="65"/>
@@ -26607,19 +26607,19 @@
       <c r="N68" s="50"/>
       <c r="O68" s="51"/>
       <c r="P68" s="252">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="Q68" s="26">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="R68" s="26">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="S68" s="59">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="T68" s="55">
@@ -26631,19 +26631,19 @@
         <v>4.2773760330578519</v>
       </c>
       <c r="W68" s="62">
-        <f t="shared" ref="W68:Y68" si="66">W54</f>
+        <f t="shared" ref="W68:Y68" si="70">W54</f>
         <v>4.2773760330578519</v>
       </c>
       <c r="X68" s="62">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>4.2773760330578519</v>
       </c>
       <c r="Y68" s="62">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>4.2773760330578519</v>
       </c>
       <c r="Z68" s="62">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>0.12</v>
       </c>
       <c r="AA68" s="66"/>
@@ -26653,7 +26653,7 @@
       <c r="AE68" s="73"/>
       <c r="AF68" s="73"/>
       <c r="AG68" s="63">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH68" s="67"/>
@@ -26806,7 +26806,7 @@
       <c r="AE70" s="84"/>
       <c r="AF70" s="84"/>
       <c r="AG70" s="82">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH70" s="83"/>
@@ -26818,11 +26818,11 @@
       </c>
       <c r="AL70" s="104"/>
       <c r="AM70" s="103" t="str">
-        <f>C72</f>
+        <f t="shared" ref="AM70:AN76" si="71">C72</f>
         <v>R-SH_Att_ELC_HPN1</v>
       </c>
       <c r="AN70" s="103" t="str">
-        <f>D72</f>
+        <f t="shared" si="71"/>
         <v>Residential Electric Heat Pump - Air to Air - SH</v>
       </c>
       <c r="AO70" s="104" t="s">
@@ -26875,11 +26875,11 @@
       <c r="AJ71" s="34"/>
       <c r="AL71" s="106"/>
       <c r="AM71" s="105" t="str">
-        <f>C73</f>
+        <f t="shared" si="71"/>
         <v>R-HC_Att_ELC_HPN1</v>
       </c>
       <c r="AN71" s="105" t="str">
-        <f>D73</f>
+        <f t="shared" si="71"/>
         <v>Residential Electric Heat Pump - Air to Air - SH + SC</v>
       </c>
       <c r="AO71" s="106" t="s">
@@ -26964,7 +26964,7 @@
       <c r="AE72" s="85"/>
       <c r="AF72" s="85"/>
       <c r="AG72" s="85">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.220752</v>
       </c>
       <c r="AH72" s="88"/>
@@ -26976,11 +26976,11 @@
       </c>
       <c r="AL72" s="106"/>
       <c r="AM72" s="105" t="str">
-        <f>C74</f>
+        <f t="shared" si="71"/>
         <v>R-SH_Att_ELC_HPN2</v>
       </c>
       <c r="AN72" s="105" t="str">
-        <f>D74</f>
+        <f t="shared" si="71"/>
         <v>Residential Electric Heat Pump - Air to Water - SH</v>
       </c>
       <c r="AO72" s="106" t="s">
@@ -27076,7 +27076,7 @@
       <c r="AE73" s="63"/>
       <c r="AF73" s="63"/>
       <c r="AG73" s="63">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH73" s="66"/>
@@ -27088,11 +27088,11 @@
       </c>
       <c r="AL73" s="106"/>
       <c r="AM73" s="105" t="str">
-        <f>C75</f>
+        <f t="shared" si="71"/>
         <v>R-SW_Att_ELC_HPN1</v>
       </c>
       <c r="AN73" s="105" t="str">
-        <f>D75</f>
+        <f t="shared" si="71"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH</v>
       </c>
       <c r="AO73" s="106" t="s">
@@ -27175,7 +27175,7 @@
       <c r="AE74" s="62"/>
       <c r="AF74" s="62"/>
       <c r="AG74" s="62">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.220752</v>
       </c>
       <c r="AH74" s="65"/>
@@ -27187,11 +27187,11 @@
       </c>
       <c r="AL74" s="212"/>
       <c r="AM74" s="105" t="str">
-        <f>C76</f>
+        <f t="shared" si="71"/>
         <v>R-SW_Att_ELC_HPN2</v>
       </c>
       <c r="AN74" s="105" t="str">
-        <f>D76</f>
+        <f t="shared" si="71"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar</v>
       </c>
       <c r="AO74" s="106" t="s">
@@ -27246,15 +27246,15 @@
         <v>0.7</v>
       </c>
       <c r="Q75" s="23">
-        <f t="shared" ref="Q75:Q76" si="67">I75*0.7</f>
+        <f t="shared" ref="Q75:Q76" si="72">I75*0.7</f>
         <v>0.76999999999999991</v>
       </c>
       <c r="R75" s="23">
-        <f t="shared" ref="R75:R76" si="68">J75*0.7</f>
+        <f t="shared" ref="R75:R76" si="73">J75*0.7</f>
         <v>0.86333333333333329</v>
       </c>
       <c r="S75" s="57">
-        <f t="shared" ref="S75:S76" si="69">K75*0.7</f>
+        <f t="shared" ref="S75:S76" si="74">K75*0.7</f>
         <v>0.93333333333333324</v>
       </c>
       <c r="T75" s="53">
@@ -27287,7 +27287,7 @@
       <c r="AE75" s="63"/>
       <c r="AF75" s="63"/>
       <c r="AG75" s="63">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH75" s="66"/>
@@ -27299,11 +27299,11 @@
       </c>
       <c r="AL75" s="212"/>
       <c r="AM75" s="105" t="str">
-        <f>C77</f>
+        <f t="shared" si="71"/>
         <v>R-SH_Att_ELC_HPN3</v>
       </c>
       <c r="AN75" s="105" t="str">
-        <f>D77</f>
+        <f t="shared" si="71"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH</v>
       </c>
       <c r="AO75" s="106" t="s">
@@ -27355,15 +27355,15 @@
         <v>0.7</v>
       </c>
       <c r="Q76" s="29">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>0.77700000000000002</v>
       </c>
       <c r="R76" s="29">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="S76" s="58">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="T76" s="54">
@@ -27401,7 +27401,7 @@
         <v>5</v>
       </c>
       <c r="AG76" s="62">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH76" s="65"/>
@@ -27413,11 +27413,11 @@
       </c>
       <c r="AL76" s="112"/>
       <c r="AM76" s="108" t="str">
-        <f>C78</f>
+        <f t="shared" si="71"/>
         <v>R-HC_Att_ELC_HPN2</v>
       </c>
       <c r="AN76" s="108" t="str">
-        <f>D78</f>
+        <f t="shared" si="71"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC</v>
       </c>
       <c r="AO76" s="109" t="s">
@@ -27503,7 +27503,7 @@
       <c r="AE77" s="63"/>
       <c r="AF77" s="63"/>
       <c r="AG77" s="63">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.220752</v>
       </c>
       <c r="AH77" s="66"/>
@@ -27617,7 +27617,7 @@
       <c r="AE78" s="86"/>
       <c r="AF78" s="86"/>
       <c r="AG78" s="86">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH78" s="91"/>
@@ -27746,15 +27746,15 @@
         <v>1.1666666666666667</v>
       </c>
       <c r="Q80" s="20">
-        <f t="shared" ref="Q80:Q81" si="70">I80*0.7</f>
+        <f t="shared" ref="Q80:Q81" si="75">I80*0.7</f>
         <v>1.2530864197530862</v>
       </c>
       <c r="R80" s="20">
-        <f t="shared" ref="R80:R81" si="71">J80*0.7</f>
+        <f t="shared" ref="R80:R81" si="76">J80*0.7</f>
         <v>1.4691358024691357</v>
       </c>
       <c r="S80" s="56">
-        <f t="shared" ref="S80:S81" si="72">K80*0.7</f>
+        <f t="shared" ref="S80:S81" si="77">K80*0.7</f>
         <v>1.4691358024691357</v>
       </c>
       <c r="T80" s="89">
@@ -27788,7 +27788,7 @@
       <c r="AE80" s="85"/>
       <c r="AF80" s="85"/>
       <c r="AG80" s="85">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH80" s="88"/>
@@ -27860,15 +27860,15 @@
         <v>1.1666666666666665</v>
       </c>
       <c r="Q81" s="26">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>1.2055555555555555</v>
       </c>
       <c r="R81" s="26">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>1.2055555555555555</v>
       </c>
       <c r="S81" s="59">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>1.2444444444444445</v>
       </c>
       <c r="T81" s="27">
@@ -28031,15 +28031,15 @@
         <v>2.2084999999999999</v>
       </c>
       <c r="Q83" s="26">
-        <f t="shared" ref="Q83" si="73">I83*0.7</f>
+        <f t="shared" ref="Q83" si="78">I83*0.7</f>
         <v>2.4464999999999999</v>
       </c>
       <c r="R83" s="26">
-        <f t="shared" ref="R83" si="74">J83*0.7</f>
+        <f t="shared" ref="R83" si="79">J83*0.7</f>
         <v>2.625</v>
       </c>
       <c r="S83" s="59">
-        <f t="shared" ref="S83" si="75">K83*0.7</f>
+        <f t="shared" ref="S83" si="80">K83*0.7</f>
         <v>2.625</v>
       </c>
       <c r="T83" s="3">
@@ -28050,15 +28050,15 @@
         <v>9.5138179028489738</v>
       </c>
       <c r="W83" s="79">
-        <f t="shared" ref="W83:Y83" si="76">(W75+W58)*0.8</f>
+        <f t="shared" ref="W83:Y83" si="81">(W75+W58)*0.8</f>
         <v>8.8944751180388462</v>
       </c>
       <c r="X83" s="79">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>8.3308731838616321</v>
       </c>
       <c r="Y83" s="79">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>8.2751323332287203</v>
       </c>
       <c r="Z83" s="371">
@@ -28079,7 +28079,7 @@
         <v>5</v>
       </c>
       <c r="AG83" s="82">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.45017639999999998</v>
       </c>
       <c r="AH83" s="83"/>
@@ -28241,7 +28241,7 @@
       <c r="AE85" s="85"/>
       <c r="AF85" s="85"/>
       <c r="AG85" s="85">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH85" s="88"/>
@@ -28326,7 +28326,7 @@
       <c r="AE86" s="64"/>
       <c r="AF86" s="64"/>
       <c r="AG86" s="64">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH86" s="67"/>
@@ -28441,7 +28441,7 @@
       <c r="AE88" s="85"/>
       <c r="AF88" s="85"/>
       <c r="AG88" s="85">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.18921600000000002</v>
       </c>
       <c r="AH88" s="88"/>
@@ -28520,7 +28520,7 @@
       <c r="AE89" s="63"/>
       <c r="AF89" s="63"/>
       <c r="AG89" s="63">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.18921600000000002</v>
       </c>
       <c r="AH89" s="67"/>
@@ -28638,7 +28638,7 @@
       <c r="AE91" s="93"/>
       <c r="AF91" s="93"/>
       <c r="AG91" s="93">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.18921600000000002</v>
       </c>
       <c r="AH91" s="92"/>
@@ -28781,34 +28781,34 @@
       <c r="G98" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H98" s="535" t="s">
+      <c r="H98" s="537" t="s">
         <v>82</v>
       </c>
-      <c r="I98" s="536"/>
-      <c r="J98" s="536"/>
-      <c r="K98" s="537"/>
-      <c r="L98" s="535" t="s">
+      <c r="I98" s="538"/>
+      <c r="J98" s="538"/>
+      <c r="K98" s="539"/>
+      <c r="L98" s="537" t="s">
         <v>83</v>
       </c>
-      <c r="M98" s="536"/>
-      <c r="N98" s="536"/>
-      <c r="O98" s="537"/>
-      <c r="P98" s="535" t="s">
+      <c r="M98" s="538"/>
+      <c r="N98" s="538"/>
+      <c r="O98" s="539"/>
+      <c r="P98" s="537" t="s">
         <v>84</v>
       </c>
-      <c r="Q98" s="536"/>
-      <c r="R98" s="536"/>
-      <c r="S98" s="537"/>
-      <c r="T98" s="535" t="s">
+      <c r="Q98" s="538"/>
+      <c r="R98" s="538"/>
+      <c r="S98" s="539"/>
+      <c r="T98" s="537" t="s">
         <v>85</v>
       </c>
-      <c r="U98" s="537"/>
-      <c r="V98" s="529" t="s">
+      <c r="U98" s="539"/>
+      <c r="V98" s="540" t="s">
         <v>86</v>
       </c>
-      <c r="W98" s="530"/>
-      <c r="X98" s="530"/>
-      <c r="Y98" s="531"/>
+      <c r="W98" s="541"/>
+      <c r="X98" s="541"/>
+      <c r="Y98" s="542"/>
       <c r="Z98" s="60"/>
       <c r="AA98" s="60"/>
       <c r="AB98" s="68" t="s">
@@ -28911,34 +28911,34 @@
       <c r="E100" s="38"/>
       <c r="F100" s="38"/>
       <c r="G100" s="39"/>
-      <c r="H100" s="532" t="s">
+      <c r="H100" s="531" t="s">
         <v>34</v>
       </c>
-      <c r="I100" s="533"/>
-      <c r="J100" s="533"/>
-      <c r="K100" s="534"/>
-      <c r="L100" s="533" t="s">
+      <c r="I100" s="532"/>
+      <c r="J100" s="532"/>
+      <c r="K100" s="533"/>
+      <c r="L100" s="532" t="s">
         <v>34</v>
       </c>
-      <c r="M100" s="533"/>
-      <c r="N100" s="533"/>
-      <c r="O100" s="534"/>
-      <c r="P100" s="532" t="s">
+      <c r="M100" s="532"/>
+      <c r="N100" s="532"/>
+      <c r="O100" s="533"/>
+      <c r="P100" s="531" t="s">
         <v>34</v>
       </c>
-      <c r="Q100" s="533"/>
-      <c r="R100" s="533"/>
-      <c r="S100" s="534"/>
-      <c r="T100" s="538" t="s">
+      <c r="Q100" s="532"/>
+      <c r="R100" s="532"/>
+      <c r="S100" s="533"/>
+      <c r="T100" s="534" t="s">
         <v>68</v>
       </c>
-      <c r="U100" s="539"/>
-      <c r="V100" s="538" t="s">
+      <c r="U100" s="535"/>
+      <c r="V100" s="534" t="s">
         <v>508</v>
       </c>
-      <c r="W100" s="540"/>
-      <c r="X100" s="540"/>
-      <c r="Y100" s="539"/>
+      <c r="W100" s="536"/>
+      <c r="X100" s="536"/>
+      <c r="Y100" s="535"/>
       <c r="Z100" s="373" t="s">
         <v>520</v>
       </c>
@@ -29002,7 +29002,7 @@
         <v>264</v>
       </c>
       <c r="F101" s="89"/>
-      <c r="G101" s="562" t="s">
+      <c r="G101" s="518" t="s">
         <v>730</v>
       </c>
       <c r="H101" s="19">
@@ -29034,15 +29034,15 @@
         <v>4.5825000000000005</v>
       </c>
       <c r="W101" s="379">
-        <f t="shared" ref="W101:Y101" si="77">W105*1.3</f>
+        <f t="shared" ref="W101:Y101" si="82">W105*1.3</f>
         <v>4.5825000000000005</v>
       </c>
       <c r="X101" s="379">
-        <f t="shared" si="77"/>
+        <f t="shared" si="82"/>
         <v>4.5825000000000005</v>
       </c>
       <c r="Y101" s="379">
-        <f t="shared" si="77"/>
+        <f t="shared" si="82"/>
         <v>4.5825000000000005</v>
       </c>
       <c r="Z101" s="379">
@@ -29055,7 +29055,7 @@
       <c r="AE101" s="72"/>
       <c r="AF101" s="72"/>
       <c r="AG101" s="62">
-        <f t="shared" ref="AG101:AG139" si="78">31.536*(AJ101/1000)</f>
+        <f t="shared" ref="AG101:AG139" si="83">31.536*(AJ101/1000)</f>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH101" s="65"/>
@@ -29069,11 +29069,11 @@
         <v>31</v>
       </c>
       <c r="AM101" s="105" t="str">
-        <f>C101</f>
+        <f t="shared" ref="AM101:AM112" si="84">C101</f>
         <v>R-SH_Det_KER_N1</v>
       </c>
       <c r="AN101" s="105" t="str">
-        <f>D101</f>
+        <f t="shared" ref="AN101:AN112" si="85">D101</f>
         <v>Residential Kerosene Heating Oil - New 1 SH</v>
       </c>
       <c r="AO101" s="106" t="s">
@@ -29123,15 +29123,15 @@
         <v>0.7</v>
       </c>
       <c r="Q102" s="23">
-        <f t="shared" ref="Q102:Q104" si="79">I102*0.7</f>
+        <f t="shared" ref="Q102:Q104" si="86">I102*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R102" s="23">
-        <f t="shared" ref="R102:R104" si="80">J102*0.7</f>
+        <f t="shared" ref="R102:R104" si="87">J102*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S102" s="57">
-        <f t="shared" ref="S102:S104" si="81">K102*0.7</f>
+        <f t="shared" ref="S102:S104" si="88">K102*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T102" s="53">
@@ -29143,15 +29143,15 @@
         <v>4.9452075289575284</v>
       </c>
       <c r="W102" s="380">
-        <f t="shared" ref="W102:Y102" si="82">W106*1.3</f>
+        <f t="shared" ref="W102:Y102" si="89">W106*1.3</f>
         <v>4.9452075289575284</v>
       </c>
       <c r="X102" s="380">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>4.9452075289575284</v>
       </c>
       <c r="Y102" s="380">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>4.9452075289575284</v>
       </c>
       <c r="Z102" s="380">
@@ -29164,7 +29164,7 @@
       <c r="AE102" s="73"/>
       <c r="AF102" s="73"/>
       <c r="AG102" s="63">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH102" s="66"/>
@@ -29176,11 +29176,11 @@
       </c>
       <c r="AL102" s="106"/>
       <c r="AM102" s="105" t="str">
-        <f>C102</f>
+        <f t="shared" si="84"/>
         <v>R-SW_Det_KER_N1</v>
       </c>
       <c r="AN102" s="105" t="str">
-        <f>D102</f>
+        <f t="shared" si="85"/>
         <v>Residential Kerosene Heating Oil - New 2 SH + WH</v>
       </c>
       <c r="AO102" s="106" t="s">
@@ -29230,15 +29230,15 @@
         <v>0.7</v>
       </c>
       <c r="Q103" s="29">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>0.7</v>
       </c>
       <c r="R103" s="29">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>0.7</v>
       </c>
       <c r="S103" s="58">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>0.7</v>
       </c>
       <c r="T103" s="54">
@@ -29276,7 +29276,7 @@
         <v>5</v>
       </c>
       <c r="AG103" s="62">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH103" s="65"/>
@@ -29288,11 +29288,11 @@
       </c>
       <c r="AL103" s="106"/>
       <c r="AM103" s="105" t="str">
-        <f>C103</f>
+        <f t="shared" si="84"/>
         <v>R-SW_Det_KER_N2</v>
       </c>
       <c r="AN103" s="105" t="str">
-        <f>D103</f>
+        <f t="shared" si="85"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Solar</v>
       </c>
       <c r="AO103" s="106" t="s">
@@ -29342,15 +29342,15 @@
         <v>0.7</v>
       </c>
       <c r="Q104" s="23">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="R104" s="23">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="S104" s="57">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="T104" s="53">
@@ -29388,7 +29388,7 @@
         <v>5</v>
       </c>
       <c r="AG104" s="63">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH104" s="66"/>
@@ -29400,11 +29400,11 @@
       </c>
       <c r="AL104" s="106"/>
       <c r="AM104" s="105" t="str">
-        <f>C104</f>
+        <f t="shared" si="84"/>
         <v>R-SW_Det_KER_N3</v>
       </c>
       <c r="AN104" s="105" t="str">
-        <f>D104</f>
+        <f t="shared" si="85"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Wood Stove</v>
       </c>
       <c r="AO104" s="107" t="s">
@@ -29460,15 +29460,15 @@
         <v>3.5249999999999999</v>
       </c>
       <c r="W105" s="379">
-        <f t="shared" ref="W105:Y105" si="83">3.525</f>
+        <f t="shared" ref="W105:Y105" si="90">3.525</f>
         <v>3.5249999999999999</v>
       </c>
       <c r="X105" s="379">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>3.5249999999999999</v>
       </c>
       <c r="Y105" s="379">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>3.5249999999999999</v>
       </c>
       <c r="Z105" s="379">
@@ -29481,7 +29481,7 @@
       <c r="AE105" s="72"/>
       <c r="AF105" s="72"/>
       <c r="AG105" s="62">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH105" s="65"/>
@@ -29493,11 +29493,11 @@
       </c>
       <c r="AL105" s="106"/>
       <c r="AM105" s="105" t="str">
-        <f>C105</f>
+        <f t="shared" si="84"/>
         <v>R-SH_Det_GAS_N1</v>
       </c>
       <c r="AN105" s="105" t="str">
-        <f>D105</f>
+        <f t="shared" si="85"/>
         <v>Residential Natural Gas Heating - New 1 SH</v>
       </c>
       <c r="AO105" s="106" t="s">
@@ -29547,15 +29547,15 @@
         <v>0.7</v>
       </c>
       <c r="Q106" s="23">
-        <f t="shared" ref="Q106:Q108" si="84">I106*0.7</f>
+        <f t="shared" ref="Q106:Q108" si="91">I106*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R106" s="23">
-        <f t="shared" ref="R106:R108" si="85">J106*0.7</f>
+        <f t="shared" ref="R106:R108" si="92">J106*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S106" s="57">
-        <f t="shared" ref="S106:S108" si="86">K106*0.7</f>
+        <f t="shared" ref="S106:S108" si="93">K106*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T106" s="53">
@@ -29588,7 +29588,7 @@
       <c r="AE106" s="73"/>
       <c r="AF106" s="73"/>
       <c r="AG106" s="63">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH106" s="66"/>
@@ -29600,11 +29600,11 @@
       </c>
       <c r="AL106" s="106"/>
       <c r="AM106" s="105" t="str">
-        <f>C106</f>
+        <f t="shared" si="84"/>
         <v>R-SW_Det_GAS_N1</v>
       </c>
       <c r="AN106" s="105" t="str">
-        <f>D106</f>
+        <f t="shared" si="85"/>
         <v>Residential Natural Gas Heating - New 2 SH + WH</v>
       </c>
       <c r="AO106" s="106" t="s">
@@ -29654,15 +29654,15 @@
         <v>0.7</v>
       </c>
       <c r="Q107" s="29">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>0.7</v>
       </c>
       <c r="R107" s="29">
-        <f t="shared" si="85"/>
+        <f t="shared" si="92"/>
         <v>0.7</v>
       </c>
       <c r="S107" s="58">
-        <f t="shared" si="86"/>
+        <f t="shared" si="93"/>
         <v>0.7</v>
       </c>
       <c r="T107" s="54">
@@ -29698,7 +29698,7 @@
         <v>5</v>
       </c>
       <c r="AG107" s="62">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH107" s="65"/>
@@ -29710,11 +29710,11 @@
       </c>
       <c r="AL107" s="106"/>
       <c r="AM107" s="105" t="str">
-        <f>C107</f>
+        <f t="shared" si="84"/>
         <v>R-SW_Det_GAS_N2</v>
       </c>
       <c r="AN107" s="105" t="str">
-        <f>D107</f>
+        <f t="shared" si="85"/>
         <v>Residential Natural Gas Heating - New 3 SH + WH + Solar</v>
       </c>
       <c r="AO107" s="106" t="s">
@@ -29764,15 +29764,15 @@
         <v>0.7</v>
       </c>
       <c r="Q108" s="23">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="R108" s="23">
-        <f t="shared" si="85"/>
+        <f t="shared" si="92"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="S108" s="57">
-        <f t="shared" si="86"/>
+        <f t="shared" si="93"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="T108" s="53">
@@ -29810,7 +29810,7 @@
         <v>5</v>
       </c>
       <c r="AG108" s="63">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH108" s="66"/>
@@ -29822,11 +29822,11 @@
       </c>
       <c r="AL108" s="106"/>
       <c r="AM108" s="105" t="str">
-        <f>C108</f>
+        <f t="shared" si="84"/>
         <v>R-SW_Det_GAS_N3</v>
       </c>
       <c r="AN108" s="105" t="str">
-        <f>D108</f>
+        <f t="shared" si="85"/>
         <v>Residential Natural Gas Heating - New 4 SH + WH + Wood Stove</v>
       </c>
       <c r="AO108" s="106" t="s">
@@ -29880,19 +29880,19 @@
       </c>
       <c r="U109" s="41"/>
       <c r="V109" s="379">
-        <f t="shared" ref="V109:Y110" si="87">V105+0.3</f>
+        <f t="shared" ref="V109:Y110" si="94">V105+0.3</f>
         <v>3.8249999999999997</v>
       </c>
       <c r="W109" s="379">
-        <f t="shared" si="87"/>
+        <f t="shared" si="94"/>
         <v>3.8249999999999997</v>
       </c>
       <c r="X109" s="379">
-        <f t="shared" si="87"/>
+        <f t="shared" si="94"/>
         <v>3.8249999999999997</v>
       </c>
       <c r="Y109" s="379">
-        <f t="shared" si="87"/>
+        <f t="shared" si="94"/>
         <v>3.8249999999999997</v>
       </c>
       <c r="Z109" s="379">
@@ -29906,7 +29906,7 @@
       <c r="AE109" s="72"/>
       <c r="AF109" s="72"/>
       <c r="AG109" s="62">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH109" s="65"/>
@@ -29918,11 +29918,11 @@
       </c>
       <c r="AL109" s="106"/>
       <c r="AM109" s="105" t="str">
-        <f>C109</f>
+        <f t="shared" si="84"/>
         <v>R-SH_Det_LPG_N1</v>
       </c>
       <c r="AN109" s="105" t="str">
-        <f>D109</f>
+        <f t="shared" si="85"/>
         <v>Residential Liquid Petroleum Gas- New 1 SH</v>
       </c>
       <c r="AO109" s="106" t="s">
@@ -29972,15 +29972,15 @@
         <v>0.7</v>
       </c>
       <c r="Q110" s="23">
-        <f t="shared" ref="Q110" si="88">I110*0.7</f>
+        <f t="shared" ref="Q110" si="95">I110*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R110" s="23">
-        <f t="shared" ref="R110" si="89">J110*0.7</f>
+        <f t="shared" ref="R110" si="96">J110*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S110" s="57">
-        <f t="shared" ref="S110" si="90">K110*0.7</f>
+        <f t="shared" ref="S110" si="97">K110*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T110" s="53">
@@ -29988,19 +29988,19 @@
       </c>
       <c r="U110" s="25"/>
       <c r="V110" s="380">
-        <f t="shared" si="87"/>
+        <f t="shared" si="94"/>
         <v>4.1040057915057915</v>
       </c>
       <c r="W110" s="380">
-        <f t="shared" si="87"/>
+        <f t="shared" si="94"/>
         <v>4.1040057915057915</v>
       </c>
       <c r="X110" s="380">
-        <f t="shared" si="87"/>
+        <f t="shared" si="94"/>
         <v>4.1040057915057915</v>
       </c>
       <c r="Y110" s="380">
-        <f t="shared" si="87"/>
+        <f t="shared" si="94"/>
         <v>4.1040057915057915</v>
       </c>
       <c r="Z110" s="379">
@@ -30014,7 +30014,7 @@
       <c r="AE110" s="73"/>
       <c r="AF110" s="73"/>
       <c r="AG110" s="63">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH110" s="66"/>
@@ -30026,11 +30026,11 @@
       </c>
       <c r="AL110" s="106"/>
       <c r="AM110" s="105" t="str">
-        <f>C110</f>
+        <f t="shared" si="84"/>
         <v>R-SW_Det_LPG_N1</v>
       </c>
       <c r="AN110" s="105" t="str">
-        <f>D110</f>
+        <f t="shared" si="85"/>
         <v>Residential Liquid Petroleum Gas- New 2 SH + WH</v>
       </c>
       <c r="AO110" s="106" t="s">
@@ -30108,7 +30108,7 @@
       <c r="AE111" s="72"/>
       <c r="AF111" s="72"/>
       <c r="AG111" s="62">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH111" s="65"/>
@@ -30120,11 +30120,11 @@
       </c>
       <c r="AL111" s="106"/>
       <c r="AM111" s="105" t="str">
-        <f>C111</f>
+        <f t="shared" si="84"/>
         <v>R-SH_Det_WOO_N1</v>
       </c>
       <c r="AN111" s="105" t="str">
-        <f>D111</f>
+        <f t="shared" si="85"/>
         <v>Residential Biomass Boiler - New 1 SH</v>
       </c>
       <c r="AO111" s="106" t="s">
@@ -30170,19 +30170,19 @@
       <c r="N112" s="32"/>
       <c r="O112" s="45"/>
       <c r="P112" s="22">
-        <f t="shared" ref="P112:S112" si="91">H112*0.7</f>
+        <f t="shared" ref="P112:S112" si="98">H112*0.7</f>
         <v>0.7</v>
       </c>
       <c r="Q112" s="23">
-        <f t="shared" si="91"/>
+        <f t="shared" si="98"/>
         <v>0.7</v>
       </c>
       <c r="R112" s="23">
-        <f t="shared" si="91"/>
+        <f t="shared" si="98"/>
         <v>0.7</v>
       </c>
       <c r="S112" s="57">
-        <f t="shared" si="91"/>
+        <f t="shared" si="98"/>
         <v>0.7</v>
       </c>
       <c r="T112" s="53">
@@ -30194,15 +30194,15 @@
         <v>22.778925619834713</v>
       </c>
       <c r="W112" s="380">
-        <f t="shared" ref="W112" si="92">W111*($U$160/$U$159)</f>
+        <f t="shared" ref="W112" si="99">W111*($U$160/$U$159)</f>
         <v>22.04476084710744</v>
       </c>
       <c r="X112" s="380">
-        <f t="shared" ref="X112" si="93">X111*($U$160/$U$159)</f>
+        <f t="shared" ref="X112" si="100">X111*($U$160/$U$159)</f>
         <v>20.839163429752066</v>
       </c>
       <c r="Y112" s="380">
-        <f t="shared" ref="Y112" si="94">Y111*($U$160/$U$159)</f>
+        <f t="shared" ref="Y112" si="101">Y111*($U$160/$U$159)</f>
         <v>18.635439049586779</v>
       </c>
       <c r="Z112" s="380">
@@ -30215,7 +30215,7 @@
       <c r="AE112" s="73"/>
       <c r="AF112" s="73"/>
       <c r="AG112" s="63">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH112" s="66"/>
@@ -30227,11 +30227,11 @@
       </c>
       <c r="AL112" s="109"/>
       <c r="AM112" s="108" t="str">
-        <f>C112</f>
+        <f t="shared" si="84"/>
         <v>R-SW_Det_WOO_N1</v>
       </c>
       <c r="AN112" s="108" t="str">
-        <f>D112</f>
+        <f t="shared" si="85"/>
         <v>Residential Biomass Boiler - New 2 SH + WH</v>
       </c>
       <c r="AO112" s="109" t="s">
@@ -30310,7 +30310,7 @@
       <c r="AE113" s="73"/>
       <c r="AF113" s="73"/>
       <c r="AG113" s="63">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH113" s="66"/>
@@ -30369,19 +30369,19 @@
       <c r="N114" s="32"/>
       <c r="O114" s="45"/>
       <c r="P114" s="22">
-        <f t="shared" ref="P114:P116" si="95">H114*0.7</f>
+        <f t="shared" ref="P114:P116" si="102">H114*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="Q114" s="23">
-        <f t="shared" ref="Q114:Q116" si="96">I114*0.7</f>
+        <f t="shared" ref="Q114:Q116" si="103">I114*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="R114" s="23">
-        <f t="shared" ref="R114:R116" si="97">J114*0.7</f>
+        <f t="shared" ref="R114:R116" si="104">J114*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="S114" s="57">
-        <f t="shared" ref="S114:S116" si="98">K114*0.7</f>
+        <f t="shared" ref="S114:S116" si="105">K114*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="T114" s="53">
@@ -30414,7 +30414,7 @@
       <c r="AE114" s="73"/>
       <c r="AF114" s="73"/>
       <c r="AG114" s="63">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH114" s="66"/>
@@ -30484,19 +30484,19 @@
         <v>4.5825000000000005</v>
       </c>
       <c r="W115" s="62">
-        <f t="shared" ref="W115:Z115" si="99">W101</f>
+        <f t="shared" ref="W115:Z115" si="106">W101</f>
         <v>4.5825000000000005</v>
       </c>
       <c r="X115" s="62">
-        <f t="shared" si="99"/>
+        <f t="shared" si="106"/>
         <v>4.5825000000000005</v>
       </c>
       <c r="Y115" s="62">
-        <f t="shared" si="99"/>
+        <f t="shared" si="106"/>
         <v>4.5825000000000005</v>
       </c>
       <c r="Z115" s="62">
-        <f t="shared" si="99"/>
+        <f t="shared" si="106"/>
         <v>0.12</v>
       </c>
       <c r="AA115" s="65"/>
@@ -30506,7 +30506,7 @@
       <c r="AE115" s="72"/>
       <c r="AF115" s="72"/>
       <c r="AG115" s="62">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH115" s="65"/>
@@ -30567,19 +30567,19 @@
       <c r="N116" s="50"/>
       <c r="O116" s="51"/>
       <c r="P116" s="252">
-        <f t="shared" si="95"/>
+        <f t="shared" si="102"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="Q116" s="26">
-        <f t="shared" si="96"/>
+        <f t="shared" si="103"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="R116" s="26">
-        <f t="shared" si="97"/>
+        <f t="shared" si="104"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="S116" s="59">
-        <f t="shared" si="98"/>
+        <f t="shared" si="105"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="T116" s="55">
@@ -30591,19 +30591,19 @@
         <v>4.9452075289575284</v>
       </c>
       <c r="W116" s="62">
-        <f t="shared" ref="W116:Z116" si="100">W102</f>
+        <f t="shared" ref="W116:Z116" si="107">W102</f>
         <v>4.9452075289575284</v>
       </c>
       <c r="X116" s="62">
-        <f t="shared" si="100"/>
+        <f t="shared" si="107"/>
         <v>4.9452075289575284</v>
       </c>
       <c r="Y116" s="62">
-        <f t="shared" si="100"/>
+        <f t="shared" si="107"/>
         <v>4.9452075289575284</v>
       </c>
       <c r="Z116" s="62">
-        <f t="shared" si="100"/>
+        <f t="shared" si="107"/>
         <v>0.12</v>
       </c>
       <c r="AA116" s="66"/>
@@ -30613,7 +30613,7 @@
       <c r="AE116" s="73"/>
       <c r="AF116" s="73"/>
       <c r="AG116" s="63">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH116" s="67"/>
@@ -30766,7 +30766,7 @@
       <c r="AE118" s="84"/>
       <c r="AF118" s="84"/>
       <c r="AG118" s="82">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH118" s="83"/>
@@ -30778,11 +30778,11 @@
       </c>
       <c r="AL118" s="104"/>
       <c r="AM118" s="103" t="str">
-        <f>C120</f>
+        <f t="shared" ref="AM118:AN124" si="108">C120</f>
         <v>R-SH_Det_ELC_HPN1</v>
       </c>
       <c r="AN118" s="103" t="str">
-        <f>D120</f>
+        <f t="shared" si="108"/>
         <v>Residential Electric Heat Pump - Air to Air - SH</v>
       </c>
       <c r="AO118" s="104" t="s">
@@ -30835,11 +30835,11 @@
       <c r="AJ119" s="34"/>
       <c r="AL119" s="106"/>
       <c r="AM119" s="105" t="str">
-        <f>C121</f>
+        <f t="shared" si="108"/>
         <v>R-HC_Det_ELC_HPN1</v>
       </c>
       <c r="AN119" s="105" t="str">
-        <f>D121</f>
+        <f t="shared" si="108"/>
         <v>Residential Electric Heat Pump - Air to Air - SH + SC</v>
       </c>
       <c r="AO119" s="106" t="s">
@@ -30921,7 +30921,7 @@
       <c r="AE120" s="85"/>
       <c r="AF120" s="85"/>
       <c r="AG120" s="85">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AH120" s="88"/>
@@ -30933,11 +30933,11 @@
       </c>
       <c r="AL120" s="106"/>
       <c r="AM120" s="105" t="str">
-        <f>C122</f>
+        <f t="shared" si="108"/>
         <v>R-SH_Det_ELC_HPN2</v>
       </c>
       <c r="AN120" s="105" t="str">
-        <f>D122</f>
+        <f t="shared" si="108"/>
         <v>Residential Electric Heat Pump - Air to Water - SH</v>
       </c>
       <c r="AO120" s="106" t="s">
@@ -31027,7 +31027,7 @@
       <c r="AE121" s="63"/>
       <c r="AF121" s="63"/>
       <c r="AG121" s="63">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH121" s="66"/>
@@ -31039,11 +31039,11 @@
       </c>
       <c r="AL121" s="106"/>
       <c r="AM121" s="105" t="str">
-        <f>C123</f>
+        <f t="shared" si="108"/>
         <v>R-SW_Det_ELC_HPN1</v>
       </c>
       <c r="AN121" s="105" t="str">
-        <f>D123</f>
+        <f t="shared" si="108"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH</v>
       </c>
       <c r="AO121" s="106" t="s">
@@ -31123,7 +31123,7 @@
       <c r="AE122" s="62"/>
       <c r="AF122" s="62"/>
       <c r="AG122" s="62">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AH122" s="65"/>
@@ -31135,11 +31135,11 @@
       </c>
       <c r="AL122" s="212"/>
       <c r="AM122" s="105" t="str">
-        <f>C124</f>
+        <f t="shared" si="108"/>
         <v>R-SW_Det_ELC_HPN2</v>
       </c>
       <c r="AN122" s="105" t="str">
-        <f>D124</f>
+        <f t="shared" si="108"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar</v>
       </c>
       <c r="AO122" s="106" t="s">
@@ -31191,15 +31191,15 @@
         <v>0.7</v>
       </c>
       <c r="Q123" s="23">
-        <f t="shared" ref="Q123:Q124" si="101">I123*0.7</f>
+        <f t="shared" ref="Q123:Q124" si="109">I123*0.7</f>
         <v>0.76999999999999991</v>
       </c>
       <c r="R123" s="23">
-        <f t="shared" ref="R123:R124" si="102">J123*0.7</f>
+        <f t="shared" ref="R123:R124" si="110">J123*0.7</f>
         <v>0.86333333333333329</v>
       </c>
       <c r="S123" s="57">
-        <f t="shared" ref="S123:S124" si="103">K123*0.7</f>
+        <f t="shared" ref="S123:S124" si="111">K123*0.7</f>
         <v>0.93333333333333324</v>
       </c>
       <c r="T123" s="53">
@@ -31211,15 +31211,15 @@
         <v>9.9300970464135023</v>
       </c>
       <c r="W123" s="380">
-        <f t="shared" ref="W123" si="104">W122*($U$158/$U$157)</f>
+        <f t="shared" ref="W123" si="112">W122*($U$158/$U$157)</f>
         <v>9.0363883122362889</v>
       </c>
       <c r="X123" s="380">
-        <f t="shared" ref="X123" si="105">X122*($U$158/$U$157)</f>
+        <f t="shared" ref="X123" si="113">X122*($U$158/$U$157)</f>
         <v>8.2231133641350223</v>
       </c>
       <c r="Y123" s="380">
-        <f t="shared" ref="Y123" si="106">Y122*($U$158/$U$157)</f>
+        <f t="shared" ref="Y123" si="114">Y122*($U$158/$U$157)</f>
         <v>8.1426795780590719</v>
       </c>
       <c r="Z123" s="380">
@@ -31232,7 +31232,7 @@
       <c r="AE123" s="63"/>
       <c r="AF123" s="63"/>
       <c r="AG123" s="63">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH123" s="66"/>
@@ -31244,11 +31244,11 @@
       </c>
       <c r="AL123" s="212"/>
       <c r="AM123" s="105" t="str">
-        <f>C125</f>
+        <f t="shared" si="108"/>
         <v>R-SH_Det_ELC_HPN3</v>
       </c>
       <c r="AN123" s="105" t="str">
-        <f>D125</f>
+        <f t="shared" si="108"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH</v>
       </c>
       <c r="AO123" s="106" t="s">
@@ -31300,15 +31300,15 @@
         <v>0.7</v>
       </c>
       <c r="Q124" s="29">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>0.77700000000000002</v>
       </c>
       <c r="R124" s="29">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="S124" s="58">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="T124" s="54">
@@ -31346,7 +31346,7 @@
         <v>5</v>
       </c>
       <c r="AG124" s="62">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH124" s="65"/>
@@ -31358,11 +31358,11 @@
       </c>
       <c r="AL124" s="112"/>
       <c r="AM124" s="108" t="str">
-        <f>C126</f>
+        <f t="shared" si="108"/>
         <v>R-HC_Det_ELC_HPN2</v>
       </c>
       <c r="AN124" s="108" t="str">
-        <f>D126</f>
+        <f t="shared" si="108"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC</v>
       </c>
       <c r="AO124" s="109" t="s">
@@ -31444,7 +31444,7 @@
       <c r="AE125" s="63"/>
       <c r="AF125" s="63"/>
       <c r="AG125" s="63">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AH125" s="66"/>
@@ -31550,7 +31550,7 @@
       <c r="AE126" s="86"/>
       <c r="AF126" s="86"/>
       <c r="AG126" s="86">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH126" s="91"/>
@@ -31679,15 +31679,15 @@
         <v>1.1666666666666667</v>
       </c>
       <c r="Q128" s="20">
-        <f t="shared" ref="Q128:Q129" si="107">I128*0.7</f>
+        <f t="shared" ref="Q128:Q129" si="115">I128*0.7</f>
         <v>1.2530864197530862</v>
       </c>
       <c r="R128" s="20">
-        <f t="shared" ref="R128:R129" si="108">J128*0.7</f>
+        <f t="shared" ref="R128:R129" si="116">J128*0.7</f>
         <v>1.4691358024691357</v>
       </c>
       <c r="S128" s="56">
-        <f t="shared" ref="S128:S129" si="109">K128*0.7</f>
+        <f t="shared" ref="S128:S129" si="117">K128*0.7</f>
         <v>1.4691358024691357</v>
       </c>
       <c r="T128" s="89">
@@ -31721,7 +31721,7 @@
       <c r="AE128" s="85"/>
       <c r="AF128" s="85"/>
       <c r="AG128" s="85">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH128" s="88"/>
@@ -31793,15 +31793,15 @@
         <v>1.1666666666666665</v>
       </c>
       <c r="Q129" s="26">
-        <f t="shared" si="107"/>
+        <f t="shared" si="115"/>
         <v>1.2055555555555555</v>
       </c>
       <c r="R129" s="26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="116"/>
         <v>1.2055555555555555</v>
       </c>
       <c r="S129" s="59">
-        <f t="shared" si="109"/>
+        <f t="shared" si="117"/>
         <v>1.2444444444444445</v>
       </c>
       <c r="T129" s="27">
@@ -31835,7 +31835,7 @@
       <c r="AE129" s="64"/>
       <c r="AF129" s="64"/>
       <c r="AG129" s="64">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH129" s="67"/>
@@ -31964,15 +31964,15 @@
         <v>2.2084999999999999</v>
       </c>
       <c r="Q131" s="26">
-        <f t="shared" ref="Q131" si="110">I131*0.7</f>
+        <f t="shared" ref="Q131" si="118">I131*0.7</f>
         <v>2.4464999999999999</v>
       </c>
       <c r="R131" s="26">
-        <f t="shared" ref="R131" si="111">J131*0.7</f>
+        <f t="shared" ref="R131" si="119">J131*0.7</f>
         <v>2.625</v>
       </c>
       <c r="S131" s="59">
-        <f t="shared" ref="S131" si="112">K131*0.7</f>
+        <f t="shared" ref="S131" si="120">K131*0.7</f>
         <v>2.625</v>
       </c>
       <c r="T131" s="3">
@@ -31983,15 +31983,15 @@
         <v>10.987282270335434</v>
       </c>
       <c r="W131" s="79">
-        <f t="shared" ref="W131:Y131" si="113">(W123+W106)*0.8</f>
+        <f t="shared" ref="W131:Y131" si="121">(W123+W106)*0.8</f>
         <v>10.272315282993665</v>
       </c>
       <c r="X131" s="79">
-        <f t="shared" si="113"/>
+        <f t="shared" si="121"/>
         <v>9.6216953245126504</v>
       </c>
       <c r="Y131" s="79">
-        <f t="shared" si="113"/>
+        <f t="shared" si="121"/>
         <v>9.5573482956518898</v>
       </c>
       <c r="Z131" s="371">
@@ -32012,7 +32012,7 @@
         <v>5</v>
       </c>
       <c r="AG131" s="82">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>0.66540960000000005</v>
       </c>
       <c r="AH131" s="83"/>
@@ -32174,7 +32174,7 @@
       <c r="AE133" s="85"/>
       <c r="AF133" s="85"/>
       <c r="AG133" s="85">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH133" s="88"/>
@@ -32259,7 +32259,7 @@
       <c r="AE134" s="64"/>
       <c r="AF134" s="64"/>
       <c r="AG134" s="64">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH134" s="67"/>
@@ -32374,7 +32374,7 @@
       <c r="AE136" s="85"/>
       <c r="AF136" s="85"/>
       <c r="AG136" s="85">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>0.25228800000000001</v>
       </c>
       <c r="AH136" s="88"/>
@@ -32453,7 +32453,7 @@
       <c r="AE137" s="63"/>
       <c r="AF137" s="63"/>
       <c r="AG137" s="63">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>0.25228800000000001</v>
       </c>
       <c r="AH137" s="67"/>
@@ -32568,7 +32568,7 @@
       <c r="AE139" s="93"/>
       <c r="AF139" s="93"/>
       <c r="AG139" s="93">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>0.25228800000000001</v>
       </c>
       <c r="AH139" s="92"/>
@@ -32655,7 +32655,7 @@
         <v>3</v>
       </c>
       <c r="U153" s="377">
-        <f t="shared" ref="U153:U162" si="114">V153/$V$161</f>
+        <f t="shared" ref="U153:U162" si="122">V153/$V$161</f>
         <v>0.72929037751472525</v>
       </c>
       <c r="V153" s="378">
@@ -32669,7 +32669,7 @@
         <v>5</v>
       </c>
       <c r="U154" s="377">
-        <f t="shared" si="114"/>
+        <f t="shared" si="122"/>
         <v>0.79101166159768732</v>
       </c>
       <c r="V154" s="378">
@@ -32682,7 +32682,7 @@
         <v>8</v>
       </c>
       <c r="U155" s="377">
-        <f t="shared" si="114"/>
+        <f t="shared" si="122"/>
         <v>0.85077698714062355</v>
       </c>
       <c r="V155" s="378">
@@ -32695,7 +32695,7 @@
         <v>10</v>
       </c>
       <c r="U156" s="377">
-        <f t="shared" si="114"/>
+        <f t="shared" si="122"/>
         <v>0.86872586872586877</v>
       </c>
       <c r="V156" s="376">
@@ -32715,7 +32715,7 @@
         <v>15</v>
       </c>
       <c r="U157" s="367">
-        <f t="shared" si="114"/>
+        <f t="shared" si="122"/>
         <v>0.91505791505791501</v>
       </c>
       <c r="V157" s="3">
@@ -32742,7 +32742,7 @@
         <v>18</v>
       </c>
       <c r="U158" s="367">
-        <f t="shared" si="114"/>
+        <f t="shared" si="122"/>
         <v>0.92277992277992282</v>
       </c>
       <c r="V158" s="3">
@@ -32771,7 +32771,7 @@
         <v>20</v>
       </c>
       <c r="U159" s="377">
-        <f t="shared" si="114"/>
+        <f t="shared" si="122"/>
         <v>0.93436293436293438</v>
       </c>
       <c r="V159" s="376">
@@ -32801,7 +32801,7 @@
         <v>24</v>
       </c>
       <c r="U160" s="367">
-        <f t="shared" si="114"/>
+        <f t="shared" si="122"/>
         <v>0.94594594594594594</v>
       </c>
       <c r="V160" s="3">
@@ -32830,7 +32830,7 @@
         <v>30</v>
       </c>
       <c r="U161" s="367">
-        <f t="shared" si="114"/>
+        <f t="shared" si="122"/>
         <v>1</v>
       </c>
       <c r="V161" s="3">
@@ -32859,7 +32859,7 @@
         <v>35</v>
       </c>
       <c r="U162" s="367">
-        <f t="shared" si="114"/>
+        <f t="shared" si="122"/>
         <v>1.0791505791505791</v>
       </c>
       <c r="V162" s="3">
@@ -32903,26 +32903,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="H100:K100"/>
-    <mergeCell ref="L100:O100"/>
-    <mergeCell ref="P100:S100"/>
-    <mergeCell ref="T100:U100"/>
-    <mergeCell ref="V100:Y100"/>
-    <mergeCell ref="H98:K98"/>
-    <mergeCell ref="L98:O98"/>
-    <mergeCell ref="P98:S98"/>
-    <mergeCell ref="T98:U98"/>
-    <mergeCell ref="V98:Y98"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="V52:Y52"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="L50:O50"/>
-    <mergeCell ref="P50:S50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="V50:Y50"/>
     <mergeCell ref="V4:Y4"/>
     <mergeCell ref="V6:Y6"/>
     <mergeCell ref="H4:K4"/>
@@ -32933,6 +32913,26 @@
     <mergeCell ref="P6:S6"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:O50"/>
+    <mergeCell ref="P50:S50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="V50:Y50"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="V52:Y52"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:O98"/>
+    <mergeCell ref="P98:S98"/>
+    <mergeCell ref="T98:U98"/>
+    <mergeCell ref="V98:Y98"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:O100"/>
+    <mergeCell ref="P100:S100"/>
+    <mergeCell ref="T100:U100"/>
+    <mergeCell ref="V100:Y100"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -33078,12 +33078,12 @@
       <c r="I5" s="127"/>
       <c r="J5" s="127"/>
       <c r="K5" s="127"/>
-      <c r="L5" s="529" t="s">
+      <c r="L5" s="540" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="530"/>
-      <c r="N5" s="530"/>
-      <c r="O5" s="531"/>
+      <c r="M5" s="541"/>
+      <c r="N5" s="541"/>
+      <c r="O5" s="542"/>
       <c r="P5" s="60"/>
       <c r="Q5" s="60" t="s">
         <v>87</v>
@@ -33114,12 +33114,12 @@
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
       <c r="K6" s="37"/>
-      <c r="L6" s="538" t="s">
+      <c r="L6" s="534" t="s">
         <v>508</v>
       </c>
-      <c r="M6" s="540"/>
-      <c r="N6" s="540"/>
-      <c r="O6" s="539"/>
+      <c r="M6" s="536"/>
+      <c r="N6" s="536"/>
+      <c r="O6" s="535"/>
       <c r="P6" s="373" t="s">
         <v>520</v>
       </c>
@@ -34005,23 +34005,23 @@
       <c r="K33" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L33" s="529" t="s">
+      <c r="L33" s="540" t="s">
         <v>86</v>
       </c>
-      <c r="M33" s="530"/>
-      <c r="N33" s="530"/>
-      <c r="O33" s="531"/>
+      <c r="M33" s="541"/>
+      <c r="N33" s="541"/>
+      <c r="O33" s="542"/>
     </row>
     <row r="34" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H34" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="L34" s="538" t="s">
+      <c r="L34" s="534" t="s">
         <v>91</v>
       </c>
-      <c r="M34" s="540"/>
-      <c r="N34" s="540"/>
-      <c r="O34" s="539"/>
+      <c r="M34" s="536"/>
+      <c r="N34" s="536"/>
+      <c r="O34" s="535"/>
     </row>
     <row r="35" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H35" s="3" t="s">
@@ -34363,16 +34363,16 @@
       <c r="G4" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="535" t="s">
+      <c r="H4" s="537" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="536"/>
-      <c r="J4" s="537"/>
-      <c r="K4" s="529" t="s">
+      <c r="I4" s="538"/>
+      <c r="J4" s="539"/>
+      <c r="K4" s="540" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="530"/>
-      <c r="M4" s="531"/>
+      <c r="L4" s="541"/>
+      <c r="M4" s="542"/>
       <c r="N4" s="60"/>
       <c r="O4" s="60" t="s">
         <v>87</v>
@@ -34398,16 +34398,16 @@
       <c r="G5" s="381" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="541" t="s">
+      <c r="H5" s="546" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="542"/>
-      <c r="J5" s="543"/>
-      <c r="K5" s="541" t="s">
+      <c r="I5" s="547"/>
+      <c r="J5" s="548"/>
+      <c r="K5" s="546" t="s">
         <v>297</v>
       </c>
-      <c r="L5" s="542"/>
-      <c r="M5" s="543"/>
+      <c r="L5" s="547"/>
+      <c r="M5" s="548"/>
       <c r="N5" s="382" t="s">
         <v>92</v>
       </c>
@@ -34424,23 +34424,23 @@
         <v>215</v>
       </c>
       <c r="AA5" s="207"/>
-      <c r="AB5" s="544" t="s">
+      <c r="AB5" s="543" t="s">
         <v>546</v>
       </c>
-      <c r="AC5" s="544"/>
+      <c r="AC5" s="543"/>
       <c r="AD5" s="384"/>
-      <c r="AE5" s="545" t="s">
+      <c r="AE5" s="544" t="s">
         <v>65</v>
       </c>
-      <c r="AF5" s="545"/>
-      <c r="AG5" s="545" t="s">
+      <c r="AF5" s="544"/>
+      <c r="AG5" s="544" t="s">
         <v>547</v>
       </c>
-      <c r="AH5" s="545"/>
-      <c r="AI5" s="546" t="s">
+      <c r="AH5" s="544"/>
+      <c r="AI5" s="545" t="s">
         <v>548</v>
       </c>
-      <c r="AJ5" s="546"/>
+      <c r="AJ5" s="545"/>
     </row>
     <row r="6" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C6" s="428" t="str">
@@ -35178,12 +35178,12 @@
       <c r="K27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L27" s="529" t="s">
+      <c r="L27" s="540" t="s">
         <v>86</v>
       </c>
-      <c r="M27" s="530"/>
-      <c r="N27" s="530"/>
-      <c r="O27" s="531"/>
+      <c r="M27" s="541"/>
+      <c r="N27" s="541"/>
+      <c r="O27" s="542"/>
       <c r="T27" s="209"/>
       <c r="U27" s="209"/>
     </row>
@@ -35191,12 +35191,12 @@
       <c r="J28" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="L28" s="532" t="s">
+      <c r="L28" s="531" t="s">
         <v>91</v>
       </c>
-      <c r="M28" s="533"/>
-      <c r="N28" s="533"/>
-      <c r="O28" s="534"/>
+      <c r="M28" s="532"/>
+      <c r="N28" s="532"/>
+      <c r="O28" s="533"/>
       <c r="T28" s="209"/>
       <c r="U28" s="209"/>
     </row>
@@ -36586,16 +36586,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
     <mergeCell ref="AB5:AC5"/>
     <mergeCell ref="AE5:AF5"/>
     <mergeCell ref="AG5:AH5"/>
     <mergeCell ref="AI5:AJ5"/>
     <mergeCell ref="L27:O27"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S7" r:id="rId1" xr:uid="{B1EDD63D-40A5-4174-9D28-8666BD314B83}"/>
@@ -37026,128 +37026,128 @@
       <c r="C4" s="279" t="s">
         <v>306</v>
       </c>
-      <c r="D4" s="547" t="s">
+      <c r="D4" s="550" t="s">
         <v>307</v>
       </c>
-      <c r="E4" s="548"/>
-      <c r="F4" s="548"/>
-      <c r="G4" s="548"/>
-      <c r="H4" s="549"/>
-      <c r="I4" s="548" t="s">
+      <c r="E4" s="549"/>
+      <c r="F4" s="549"/>
+      <c r="G4" s="549"/>
+      <c r="H4" s="551"/>
+      <c r="I4" s="549" t="s">
         <v>308</v>
       </c>
-      <c r="J4" s="548"/>
-      <c r="K4" s="548"/>
-      <c r="L4" s="548"/>
-      <c r="M4" s="549"/>
-      <c r="N4" s="548" t="s">
+      <c r="J4" s="549"/>
+      <c r="K4" s="549"/>
+      <c r="L4" s="549"/>
+      <c r="M4" s="551"/>
+      <c r="N4" s="549" t="s">
         <v>309</v>
       </c>
-      <c r="O4" s="548"/>
-      <c r="P4" s="548"/>
-      <c r="Q4" s="548"/>
-      <c r="R4" s="549"/>
-      <c r="S4" s="548" t="s">
+      <c r="O4" s="549"/>
+      <c r="P4" s="549"/>
+      <c r="Q4" s="549"/>
+      <c r="R4" s="551"/>
+      <c r="S4" s="549" t="s">
         <v>310</v>
       </c>
-      <c r="T4" s="548"/>
-      <c r="U4" s="548"/>
-      <c r="V4" s="548"/>
-      <c r="W4" s="549"/>
-      <c r="X4" s="548" t="s">
+      <c r="T4" s="549"/>
+      <c r="U4" s="549"/>
+      <c r="V4" s="549"/>
+      <c r="W4" s="551"/>
+      <c r="X4" s="549" t="s">
         <v>311</v>
       </c>
-      <c r="Y4" s="548"/>
-      <c r="Z4" s="548"/>
-      <c r="AA4" s="548"/>
-      <c r="AB4" s="549"/>
-      <c r="AC4" s="548" t="s">
+      <c r="Y4" s="549"/>
+      <c r="Z4" s="549"/>
+      <c r="AA4" s="549"/>
+      <c r="AB4" s="551"/>
+      <c r="AC4" s="549" t="s">
         <v>312</v>
       </c>
-      <c r="AD4" s="548"/>
-      <c r="AE4" s="548"/>
-      <c r="AF4" s="548"/>
-      <c r="AG4" s="549"/>
-      <c r="AH4" s="548" t="s">
+      <c r="AD4" s="549"/>
+      <c r="AE4" s="549"/>
+      <c r="AF4" s="549"/>
+      <c r="AG4" s="551"/>
+      <c r="AH4" s="549" t="s">
         <v>313</v>
       </c>
-      <c r="AI4" s="548"/>
-      <c r="AJ4" s="548"/>
-      <c r="AK4" s="548"/>
-      <c r="AL4" s="549"/>
-      <c r="AM4" s="548" t="s">
+      <c r="AI4" s="549"/>
+      <c r="AJ4" s="549"/>
+      <c r="AK4" s="549"/>
+      <c r="AL4" s="551"/>
+      <c r="AM4" s="549" t="s">
         <v>314</v>
       </c>
-      <c r="AN4" s="548"/>
-      <c r="AO4" s="548"/>
-      <c r="AP4" s="548"/>
-      <c r="AQ4" s="549"/>
-      <c r="AR4" s="548" t="s">
+      <c r="AN4" s="549"/>
+      <c r="AO4" s="549"/>
+      <c r="AP4" s="549"/>
+      <c r="AQ4" s="551"/>
+      <c r="AR4" s="549" t="s">
         <v>315</v>
       </c>
-      <c r="AS4" s="548"/>
-      <c r="AT4" s="548"/>
-      <c r="AU4" s="548"/>
-      <c r="AV4" s="549"/>
-      <c r="AW4" s="548" t="s">
+      <c r="AS4" s="549"/>
+      <c r="AT4" s="549"/>
+      <c r="AU4" s="549"/>
+      <c r="AV4" s="551"/>
+      <c r="AW4" s="549" t="s">
         <v>316</v>
       </c>
-      <c r="AX4" s="548"/>
-      <c r="AY4" s="548"/>
-      <c r="AZ4" s="548"/>
-      <c r="BA4" s="548"/>
-      <c r="BB4" s="547" t="s">
+      <c r="AX4" s="549"/>
+      <c r="AY4" s="549"/>
+      <c r="AZ4" s="549"/>
+      <c r="BA4" s="549"/>
+      <c r="BB4" s="550" t="s">
         <v>317</v>
       </c>
-      <c r="BC4" s="548"/>
-      <c r="BD4" s="548"/>
-      <c r="BE4" s="548"/>
-      <c r="BF4" s="549"/>
-      <c r="BG4" s="548" t="s">
+      <c r="BC4" s="549"/>
+      <c r="BD4" s="549"/>
+      <c r="BE4" s="549"/>
+      <c r="BF4" s="551"/>
+      <c r="BG4" s="549" t="s">
         <v>318</v>
       </c>
-      <c r="BH4" s="548"/>
-      <c r="BI4" s="548"/>
-      <c r="BJ4" s="548"/>
-      <c r="BK4" s="548"/>
-      <c r="BL4" s="547" t="s">
+      <c r="BH4" s="549"/>
+      <c r="BI4" s="549"/>
+      <c r="BJ4" s="549"/>
+      <c r="BK4" s="549"/>
+      <c r="BL4" s="550" t="s">
         <v>319</v>
       </c>
-      <c r="BM4" s="548"/>
-      <c r="BN4" s="548"/>
-      <c r="BO4" s="548"/>
-      <c r="BP4" s="548"/>
-      <c r="BQ4" s="547" t="s">
+      <c r="BM4" s="549"/>
+      <c r="BN4" s="549"/>
+      <c r="BO4" s="549"/>
+      <c r="BP4" s="549"/>
+      <c r="BQ4" s="550" t="s">
         <v>320</v>
       </c>
-      <c r="BR4" s="548"/>
-      <c r="BS4" s="548"/>
-      <c r="BT4" s="548"/>
-      <c r="BU4" s="549"/>
+      <c r="BR4" s="549"/>
+      <c r="BS4" s="549"/>
+      <c r="BT4" s="549"/>
+      <c r="BU4" s="551"/>
       <c r="BV4" s="280" t="s">
         <v>321</v>
       </c>
-      <c r="BW4" s="550" t="s">
+      <c r="BW4" s="552" t="s">
         <v>322</v>
       </c>
-      <c r="BX4" s="551"/>
-      <c r="BY4" s="551"/>
-      <c r="BZ4" s="551"/>
-      <c r="CA4" s="552"/>
-      <c r="CB4" s="550" t="s">
+      <c r="BX4" s="553"/>
+      <c r="BY4" s="553"/>
+      <c r="BZ4" s="553"/>
+      <c r="CA4" s="554"/>
+      <c r="CB4" s="552" t="s">
         <v>323</v>
       </c>
-      <c r="CC4" s="551"/>
-      <c r="CD4" s="551"/>
-      <c r="CE4" s="551"/>
-      <c r="CF4" s="552"/>
-      <c r="CG4" s="550" t="s">
+      <c r="CC4" s="553"/>
+      <c r="CD4" s="553"/>
+      <c r="CE4" s="553"/>
+      <c r="CF4" s="554"/>
+      <c r="CG4" s="552" t="s">
         <v>324</v>
       </c>
-      <c r="CH4" s="551"/>
-      <c r="CI4" s="551"/>
-      <c r="CJ4" s="551"/>
-      <c r="CK4" s="552"/>
+      <c r="CH4" s="553"/>
+      <c r="CI4" s="553"/>
+      <c r="CJ4" s="553"/>
+      <c r="CK4" s="554"/>
     </row>
     <row r="5" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A5" s="282"/>
@@ -50716,6 +50716,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="BL4:BP4"/>
+    <mergeCell ref="BQ4:BU4"/>
+    <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="CB4:CF4"/>
+    <mergeCell ref="CG4:CK4"/>
     <mergeCell ref="BG4:BK4"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
@@ -50728,11 +50733,6 @@
     <mergeCell ref="AR4:AV4"/>
     <mergeCell ref="AW4:BA4"/>
     <mergeCell ref="BB4:BF4"/>
-    <mergeCell ref="BL4:BP4"/>
-    <mergeCell ref="BQ4:BU4"/>
-    <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="CB4:CF4"/>
-    <mergeCell ref="CG4:CK4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -50755,23 +50755,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="554" t="s">
+      <c r="A1" s="558" t="s">
         <v>590</v>
       </c>
-      <c r="B1" s="556" t="s">
+      <c r="B1" s="560" t="s">
         <v>591</v>
       </c>
-      <c r="C1" s="557"/>
-      <c r="D1" s="557"/>
-      <c r="E1" s="557"/>
-      <c r="F1" s="558"/>
-      <c r="G1" s="556" t="s">
+      <c r="C1" s="561"/>
+      <c r="D1" s="561"/>
+      <c r="E1" s="561"/>
+      <c r="F1" s="562"/>
+      <c r="G1" s="560" t="s">
         <v>592</v>
       </c>
-      <c r="H1" s="557"/>
-      <c r="I1" s="557"/>
-      <c r="J1" s="557"/>
-      <c r="K1" s="558"/>
+      <c r="H1" s="561"/>
+      <c r="I1" s="561"/>
+      <c r="J1" s="561"/>
+      <c r="K1" s="562"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -50781,7 +50781,7 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="555"/>
+      <c r="A2" s="559"/>
       <c r="B2" s="450" t="s">
         <v>259</v>
       </c>
@@ -50927,12 +50927,12 @@
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="553" t="s">
+      <c r="A7" s="555" t="s">
         <v>593</v>
       </c>
-      <c r="B7" s="553"/>
-      <c r="C7" s="553"/>
-      <c r="D7" s="553"/>
+      <c r="B7" s="555"/>
+      <c r="C7" s="555"/>
+      <c r="D7" s="555"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -51218,12 +51218,12 @@
       <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:30" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="553" t="s">
+      <c r="A18" s="555" t="s">
         <v>607</v>
       </c>
-      <c r="B18" s="553"/>
-      <c r="C18" s="553"/>
-      <c r="D18" s="553"/>
+      <c r="B18" s="555"/>
+      <c r="C18" s="555"/>
+      <c r="D18" s="555"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -51478,12 +51478,12 @@
       <c r="R27" s="3"/>
     </row>
     <row r="28" spans="1:30" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="553" t="s">
+      <c r="A28" s="555" t="s">
         <v>615</v>
       </c>
-      <c r="B28" s="553"/>
-      <c r="C28" s="553"/>
-      <c r="D28" s="553"/>
+      <c r="B28" s="555"/>
+      <c r="C28" s="555"/>
+      <c r="D28" s="555"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -51971,12 +51971,12 @@
       </c>
     </row>
     <row r="40" spans="1:30" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="553" t="s">
+      <c r="A40" s="555" t="s">
         <v>596</v>
       </c>
-      <c r="B40" s="553"/>
-      <c r="C40" s="553"/>
-      <c r="D40" s="553"/>
+      <c r="B40" s="555"/>
+      <c r="C40" s="555"/>
+      <c r="D40" s="555"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -52152,12 +52152,12 @@
       <c r="T44" s="3"/>
     </row>
     <row r="45" spans="1:30" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="553" t="s">
+      <c r="A45" s="555" t="s">
         <v>624</v>
       </c>
-      <c r="B45" s="553"/>
-      <c r="C45" s="553"/>
-      <c r="D45" s="553"/>
+      <c r="B45" s="555"/>
+      <c r="C45" s="555"/>
+      <c r="D45" s="555"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -52274,11 +52274,11 @@
       <c r="Y48" t="s">
         <v>641</v>
       </c>
-      <c r="Z48" s="559" t="s">
+      <c r="Z48" s="556" t="s">
         <v>579</v>
       </c>
-      <c r="AA48" s="560"/>
-      <c r="AB48" s="560"/>
+      <c r="AA48" s="557"/>
+      <c r="AB48" s="557"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
@@ -52495,11 +52495,11 @@
       <c r="Y53" t="s">
         <v>643</v>
       </c>
-      <c r="Z53" s="559" t="s">
+      <c r="Z53" s="556" t="s">
         <v>578</v>
       </c>
-      <c r="AA53" s="560"/>
-      <c r="AB53" s="560"/>
+      <c r="AA53" s="557"/>
+      <c r="AB53" s="557"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
@@ -52701,11 +52701,11 @@
       <c r="Y59" t="s">
         <v>644</v>
       </c>
-      <c r="Z59" s="559" t="s">
+      <c r="Z59" s="556" t="s">
         <v>645</v>
       </c>
-      <c r="AA59" s="560"/>
-      <c r="AB59" s="560"/>
+      <c r="AA59" s="557"/>
+      <c r="AB59" s="557"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="470" t="str">
@@ -53542,17 +53542,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="Z48:AB48"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="Z48:AB48"/>
   </mergeCells>
   <phoneticPr fontId="54" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19476A67-B42A-457D-B174-AC733CDA41AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5661EB-5F71-42AA-9A22-FCE7C33B0B08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="62" r:id="rId1"/>
@@ -13592,15 +13592,6 @@
     <xf numFmtId="0" fontId="37" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -13608,6 +13599,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13619,22 +13619,13 @@
     <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -13646,10 +13637,19 @@
     <xf numFmtId="0" fontId="53" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13667,6 +13667,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -13681,12 +13687,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -14475,16 +14475,16 @@
       <sheetName val="DettachedEnergyData"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
       <sheetData sheetId="10">
         <row r="6">
           <cell r="L6">
@@ -14547,14 +14547,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -20609,7 +20609,7 @@
   <dimension ref="A2:AS169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AT30" sqref="AT30"/>
+      <selection activeCell="V41" sqref="V41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20799,12 +20799,12 @@
         <v>85</v>
       </c>
       <c r="U4" s="539"/>
-      <c r="V4" s="531" t="s">
+      <c r="V4" s="540" t="s">
         <v>86</v>
       </c>
-      <c r="W4" s="532"/>
-      <c r="X4" s="532"/>
-      <c r="Y4" s="533"/>
+      <c r="W4" s="541"/>
+      <c r="X4" s="541"/>
+      <c r="Y4" s="542"/>
       <c r="Z4" s="60"/>
       <c r="AA4" s="60"/>
       <c r="AB4" s="68" t="s">
@@ -20907,34 +20907,34 @@
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
       <c r="G6" s="39"/>
-      <c r="H6" s="534" t="s">
+      <c r="H6" s="531" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="535"/>
-      <c r="J6" s="535"/>
-      <c r="K6" s="536"/>
-      <c r="L6" s="535" t="s">
+      <c r="I6" s="532"/>
+      <c r="J6" s="532"/>
+      <c r="K6" s="533"/>
+      <c r="L6" s="532" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="535"/>
-      <c r="N6" s="535"/>
-      <c r="O6" s="536"/>
-      <c r="P6" s="534" t="s">
+      <c r="M6" s="532"/>
+      <c r="N6" s="532"/>
+      <c r="O6" s="533"/>
+      <c r="P6" s="531" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="535"/>
-      <c r="R6" s="535"/>
-      <c r="S6" s="536"/>
-      <c r="T6" s="534" t="s">
+      <c r="Q6" s="532"/>
+      <c r="R6" s="532"/>
+      <c r="S6" s="533"/>
+      <c r="T6" s="531" t="s">
         <v>68</v>
       </c>
-      <c r="U6" s="536"/>
-      <c r="V6" s="534" t="s">
+      <c r="U6" s="533"/>
+      <c r="V6" s="531" t="s">
         <v>508</v>
       </c>
-      <c r="W6" s="535"/>
-      <c r="X6" s="535"/>
-      <c r="Y6" s="536"/>
+      <c r="W6" s="532"/>
+      <c r="X6" s="532"/>
+      <c r="Y6" s="533"/>
       <c r="Z6" s="61" t="s">
         <v>520</v>
       </c>
@@ -23012,19 +23012,19 @@
       </c>
       <c r="U27" s="24"/>
       <c r="V27" s="380">
-        <f>V21/$V$20*$V$26</f>
+        <f t="shared" ref="V27:Y31" si="36">V21/$V$20*$V$26</f>
         <v>9.5842025316455697</v>
       </c>
       <c r="W27" s="380">
-        <f>W21/$V$20*$V$26</f>
+        <f t="shared" si="36"/>
         <v>8.9031432911392407</v>
       </c>
       <c r="X27" s="380">
-        <f>X21/$V$20*$V$26</f>
+        <f t="shared" si="36"/>
         <v>8.2833793822784809</v>
       </c>
       <c r="Y27" s="380">
-        <f>Y21/$V$20*$V$26</f>
+        <f t="shared" si="36"/>
         <v>8.2220840506329118</v>
       </c>
       <c r="Z27" s="380">
@@ -23037,7 +23037,7 @@
       <c r="AE27" s="73"/>
       <c r="AF27" s="73"/>
       <c r="AG27" s="63">
-        <f t="shared" ref="AG27:AG30" si="36">31.536*(AJ27/1000)</f>
+        <f t="shared" ref="AG27:AG30" si="37">31.536*(AJ27/1000)</f>
         <v>0.18921600000000002</v>
       </c>
       <c r="AH27" s="66"/>
@@ -23049,11 +23049,11 @@
       </c>
       <c r="AL27" s="106"/>
       <c r="AM27" s="212" t="str">
-        <f t="shared" ref="AM27" si="37">C29</f>
+        <f t="shared" ref="AM27" si="38">C29</f>
         <v>R-SW_Apt_ELC_HPN1-E</v>
       </c>
       <c r="AN27" s="212" t="str">
-        <f t="shared" ref="AN27" si="38">D29</f>
+        <f t="shared" ref="AN27" si="39">D29</f>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH - E rated dwelling</v>
       </c>
       <c r="AO27" s="106" t="s">
@@ -23125,19 +23125,19 @@
       </c>
       <c r="U28" s="24"/>
       <c r="V28" s="380">
-        <f>V22/$V$20*$V$26</f>
+        <f t="shared" si="36"/>
         <v>9.6850464135021088</v>
       </c>
       <c r="W28" s="380">
-        <f>W22/$V$20*$V$26</f>
+        <f t="shared" si="36"/>
         <v>9.0039871729957817</v>
       </c>
       <c r="X28" s="380">
-        <f>X22/$V$20*$V$26</f>
+        <f t="shared" si="36"/>
         <v>8.3842232641350218</v>
       </c>
       <c r="Y28" s="380">
-        <f>Y22/$V$20*$V$26</f>
+        <f t="shared" si="36"/>
         <v>8.3229279324894527</v>
       </c>
       <c r="Z28" s="380">
@@ -23150,7 +23150,7 @@
       <c r="AE28" s="73"/>
       <c r="AF28" s="73"/>
       <c r="AG28" s="63">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.18921600000000002</v>
       </c>
       <c r="AH28" s="66"/>
@@ -23161,11 +23161,11 @@
         <v>6</v>
       </c>
       <c r="AM28" s="212" t="str">
-        <f>C30</f>
+        <f t="shared" ref="AM28:AN31" si="40">C30</f>
         <v>R-SW_Apt_ELC_HPN1-F</v>
       </c>
       <c r="AN28" s="212" t="str">
-        <f>D30</f>
+        <f t="shared" si="40"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH - F rated dwelling</v>
       </c>
       <c r="AO28" s="106" t="s">
@@ -23238,19 +23238,19 @@
       </c>
       <c r="U29" s="24"/>
       <c r="V29" s="380">
-        <f>V23/$V$20*$V$26</f>
+        <f t="shared" si="36"/>
         <v>10.18926582278481</v>
       </c>
       <c r="W29" s="380">
-        <f>W23/$V$20*$V$26</f>
+        <f t="shared" si="36"/>
         <v>9.5082065822784809</v>
       </c>
       <c r="X29" s="380">
-        <f>X23/$V$20*$V$26</f>
+        <f t="shared" si="36"/>
         <v>8.8884426734177229</v>
       </c>
       <c r="Y29" s="380">
-        <f>Y23/$V$20*$V$26</f>
+        <f t="shared" si="36"/>
         <v>8.8271473417721538</v>
       </c>
       <c r="Z29" s="380">
@@ -23263,7 +23263,7 @@
       <c r="AE29" s="73"/>
       <c r="AF29" s="73"/>
       <c r="AG29" s="63">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.18921600000000002</v>
       </c>
       <c r="AH29" s="66"/>
@@ -23275,11 +23275,11 @@
       </c>
       <c r="AL29" s="106"/>
       <c r="AM29" s="212" t="str">
-        <f>C31</f>
+        <f t="shared" si="40"/>
         <v>R-SW_Apt_ELC_HPN1-G</v>
       </c>
       <c r="AN29" s="212" t="str">
-        <f>D31</f>
+        <f t="shared" si="40"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH - G rated dwelling</v>
       </c>
       <c r="AO29" s="106" t="s">
@@ -23351,19 +23351,19 @@
       </c>
       <c r="U30" s="24"/>
       <c r="V30" s="380">
-        <f>V24/$V$20*$V$26</f>
+        <f t="shared" si="36"/>
         <v>10.693485232067511</v>
       </c>
       <c r="W30" s="380">
-        <f>W24/$V$20*$V$26</f>
+        <f t="shared" si="36"/>
         <v>10.012425991561182</v>
       </c>
       <c r="X30" s="380">
-        <f>X24/$V$20*$V$26</f>
+        <f t="shared" si="36"/>
         <v>9.3926620827004239</v>
       </c>
       <c r="Y30" s="380">
-        <f>Y24/$V$20*$V$26</f>
+        <f t="shared" si="36"/>
         <v>9.331366751054853</v>
       </c>
       <c r="Z30" s="380">
@@ -23376,7 +23376,7 @@
       <c r="AE30" s="73"/>
       <c r="AF30" s="73"/>
       <c r="AG30" s="63">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.18921600000000002</v>
       </c>
       <c r="AH30" s="66"/>
@@ -23388,11 +23388,11 @@
       </c>
       <c r="AL30" s="212"/>
       <c r="AM30" s="105" t="str">
-        <f>C32</f>
+        <f t="shared" si="40"/>
         <v>R-SH_Apt_ELC_HPN3</v>
       </c>
       <c r="AN30" s="105" t="str">
-        <f>D32</f>
+        <f t="shared" si="40"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH</v>
       </c>
       <c r="AO30" s="106" t="s">
@@ -23444,19 +23444,19 @@
       <c r="N31" s="23"/>
       <c r="O31" s="57"/>
       <c r="P31" s="22">
-        <f t="shared" ref="P31" si="39">H31*0.7</f>
+        <f t="shared" ref="P31" si="41">H31*0.7</f>
         <v>0.7</v>
       </c>
       <c r="Q31" s="23">
-        <f t="shared" ref="Q31" si="40">I31*0.7</f>
+        <f t="shared" ref="Q31" si="42">I31*0.7</f>
         <v>0.76999999999999991</v>
       </c>
       <c r="R31" s="23">
-        <f t="shared" ref="R31" si="41">J31*0.7</f>
+        <f t="shared" ref="R31" si="43">J31*0.7</f>
         <v>0.86333333333333329</v>
       </c>
       <c r="S31" s="57">
-        <f t="shared" ref="S31" si="42">K31*0.7</f>
+        <f t="shared" ref="S31" si="44">K31*0.7</f>
         <v>0.93333333333333324</v>
       </c>
       <c r="T31" s="53">
@@ -23464,19 +23464,19 @@
       </c>
       <c r="U31" s="24"/>
       <c r="V31" s="380">
-        <f>V25/$V$20*$V$26</f>
+        <f t="shared" si="36"/>
         <v>11.197704641350212</v>
       </c>
       <c r="W31" s="380">
-        <f>W25/$V$20*$V$26</f>
+        <f t="shared" si="36"/>
         <v>10.516645400843883</v>
       </c>
       <c r="X31" s="380">
-        <f>X25/$V$20*$V$26</f>
+        <f t="shared" si="36"/>
         <v>9.8968814919831249</v>
       </c>
       <c r="Y31" s="380">
-        <f>Y25/$V$20*$V$26</f>
+        <f t="shared" si="36"/>
         <v>9.8355861603375541</v>
       </c>
       <c r="Z31" s="380">
@@ -23489,7 +23489,7 @@
       <c r="AE31" s="73"/>
       <c r="AF31" s="73"/>
       <c r="AG31" s="63">
-        <f t="shared" ref="AG31" si="43">31.536*(AJ31/1000)</f>
+        <f t="shared" ref="AG31" si="45">31.536*(AJ31/1000)</f>
         <v>0.18921600000000002</v>
       </c>
       <c r="AH31" s="66"/>
@@ -23501,11 +23501,11 @@
       </c>
       <c r="AL31" s="112"/>
       <c r="AM31" s="108" t="str">
-        <f>C33</f>
+        <f t="shared" si="40"/>
         <v>R-HC_Apt_ELC_HPN2</v>
       </c>
       <c r="AN31" s="108" t="str">
-        <f>D33</f>
+        <f t="shared" si="40"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC</v>
       </c>
       <c r="AO31" s="109" t="s">
@@ -23833,15 +23833,15 @@
         <v>1.1666666666666667</v>
       </c>
       <c r="Q35" s="20">
-        <f t="shared" ref="Q35:S35" si="44">I35*0.7</f>
+        <f t="shared" ref="Q35:S35" si="46">I35*0.7</f>
         <v>1.2530864197530862</v>
       </c>
       <c r="R35" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1.4691358024691357</v>
       </c>
       <c r="S35" s="56">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1.4691358024691357</v>
       </c>
       <c r="T35" s="89">
@@ -23875,7 +23875,7 @@
       <c r="AE35" s="85"/>
       <c r="AF35" s="85"/>
       <c r="AG35" s="85">
-        <f t="shared" ref="AG35:AG36" si="45">31.536*(AJ35/1000)</f>
+        <f t="shared" ref="AG35:AG36" si="47">31.536*(AJ35/1000)</f>
         <v>0.56764799999999993</v>
       </c>
       <c r="AH35" s="88"/>
@@ -23947,15 +23947,15 @@
         <v>1.1666666666666665</v>
       </c>
       <c r="Q36" s="26">
-        <f t="shared" ref="Q36" si="46">I36*0.7</f>
+        <f t="shared" ref="Q36" si="48">I36*0.7</f>
         <v>1.2055555555555555</v>
       </c>
       <c r="R36" s="26">
-        <f t="shared" ref="R36" si="47">J36*0.7</f>
+        <f t="shared" ref="R36" si="49">J36*0.7</f>
         <v>1.2055555555555555</v>
       </c>
       <c r="S36" s="59">
-        <f t="shared" ref="S36" si="48">K36*0.7</f>
+        <f t="shared" ref="S36" si="50">K36*0.7</f>
         <v>1.2444444444444445</v>
       </c>
       <c r="T36" s="27">
@@ -23989,7 +23989,7 @@
       <c r="AE36" s="64"/>
       <c r="AF36" s="64"/>
       <c r="AG36" s="64">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.56764799999999993</v>
       </c>
       <c r="AH36" s="67"/>
@@ -24122,11 +24122,11 @@
         <v>2.4464999999999999</v>
       </c>
       <c r="R38" s="26">
-        <f t="shared" ref="R38:S38" si="49">J38*0.7</f>
+        <f t="shared" ref="R38:S38" si="51">J38*0.7</f>
         <v>2.625</v>
       </c>
       <c r="S38" s="59">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>2.625</v>
       </c>
       <c r="T38" s="256">
@@ -24331,7 +24331,7 @@
       <c r="AE40" s="85"/>
       <c r="AF40" s="85"/>
       <c r="AG40" s="85">
-        <f t="shared" ref="AG40:AG41" si="50">31.536*(AJ40/1000)</f>
+        <f t="shared" ref="AG40:AG41" si="52">31.536*(AJ40/1000)</f>
         <v>0.56764799999999993</v>
       </c>
       <c r="AH40" s="88"/>
@@ -24434,7 +24434,7 @@
       <c r="AE41" s="63"/>
       <c r="AF41" s="63"/>
       <c r="AG41" s="64">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0.56764799999999993</v>
       </c>
       <c r="AH41" s="67"/>
@@ -24549,7 +24549,7 @@
       <c r="AE43" s="85"/>
       <c r="AF43" s="85"/>
       <c r="AG43" s="85">
-        <f t="shared" ref="AG43:AG44" si="51">31.536*(AJ43/1000)</f>
+        <f t="shared" ref="AG43:AG44" si="53">31.536*(AJ43/1000)</f>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH43" s="88"/>
@@ -24628,7 +24628,7 @@
       <c r="AE44" s="63"/>
       <c r="AF44" s="63"/>
       <c r="AG44" s="63">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH44" s="66"/>
@@ -24747,7 +24747,7 @@
       <c r="AE46" s="85"/>
       <c r="AF46" s="85"/>
       <c r="AG46" s="85">
-        <f t="shared" ref="AG46:AG47" si="52">31.536*(AJ46/1000)</f>
+        <f t="shared" ref="AG46:AG47" si="54">31.536*(AJ46/1000)</f>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH46" s="88"/>
@@ -24830,7 +24830,7 @@
       <c r="AE47" s="63"/>
       <c r="AF47" s="63"/>
       <c r="AG47" s="64">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH47" s="67"/>
@@ -25069,12 +25069,12 @@
         <v>85</v>
       </c>
       <c r="U52" s="539"/>
-      <c r="V52" s="531" t="s">
+      <c r="V52" s="540" t="s">
         <v>86</v>
       </c>
-      <c r="W52" s="532"/>
-      <c r="X52" s="532"/>
-      <c r="Y52" s="533"/>
+      <c r="W52" s="541"/>
+      <c r="X52" s="541"/>
+      <c r="Y52" s="542"/>
       <c r="Z52" s="60"/>
       <c r="AA52" s="60"/>
       <c r="AB52" s="68" t="s">
@@ -25177,34 +25177,34 @@
       <c r="E54" s="38"/>
       <c r="F54" s="38"/>
       <c r="G54" s="39"/>
-      <c r="H54" s="534" t="s">
+      <c r="H54" s="531" t="s">
         <v>34</v>
       </c>
-      <c r="I54" s="535"/>
-      <c r="J54" s="535"/>
-      <c r="K54" s="536"/>
-      <c r="L54" s="535" t="s">
+      <c r="I54" s="532"/>
+      <c r="J54" s="532"/>
+      <c r="K54" s="533"/>
+      <c r="L54" s="532" t="s">
         <v>34</v>
       </c>
-      <c r="M54" s="535"/>
-      <c r="N54" s="535"/>
-      <c r="O54" s="536"/>
-      <c r="P54" s="534" t="s">
+      <c r="M54" s="532"/>
+      <c r="N54" s="532"/>
+      <c r="O54" s="533"/>
+      <c r="P54" s="531" t="s">
         <v>34</v>
       </c>
-      <c r="Q54" s="535"/>
-      <c r="R54" s="535"/>
-      <c r="S54" s="536"/>
-      <c r="T54" s="540" t="s">
+      <c r="Q54" s="532"/>
+      <c r="R54" s="532"/>
+      <c r="S54" s="533"/>
+      <c r="T54" s="534" t="s">
         <v>68</v>
       </c>
-      <c r="U54" s="541"/>
-      <c r="V54" s="540" t="s">
+      <c r="U54" s="535"/>
+      <c r="V54" s="534" t="s">
         <v>508</v>
       </c>
-      <c r="W54" s="542"/>
-      <c r="X54" s="542"/>
-      <c r="Y54" s="541"/>
+      <c r="W54" s="536"/>
+      <c r="X54" s="536"/>
+      <c r="Y54" s="535"/>
       <c r="Z54" s="373" t="s">
         <v>520</v>
       </c>
@@ -25300,15 +25300,15 @@
         <v>4.2250000000000005</v>
       </c>
       <c r="W55" s="379">
-        <f t="shared" ref="W55:Y55" si="53">W59*1.3</f>
+        <f t="shared" ref="W55:Y55" si="55">W59*1.3</f>
         <v>4.2250000000000005</v>
       </c>
       <c r="X55" s="379">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>4.2250000000000005</v>
       </c>
       <c r="Y55" s="379">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>4.2250000000000005</v>
       </c>
       <c r="Z55" s="379">
@@ -25321,7 +25321,7 @@
       <c r="AE55" s="72"/>
       <c r="AF55" s="72"/>
       <c r="AG55" s="62">
-        <f t="shared" ref="AG55:AG93" si="54">31.536*(AJ55/1000)</f>
+        <f t="shared" ref="AG55:AG93" si="56">31.536*(AJ55/1000)</f>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH55" s="65"/>
@@ -25335,11 +25335,11 @@
         <v>31</v>
       </c>
       <c r="AM55" s="105" t="str">
-        <f t="shared" ref="AM55:AM66" si="55">C55</f>
+        <f t="shared" ref="AM55:AM66" si="57">C55</f>
         <v>R-SH_Att_KER_N1</v>
       </c>
       <c r="AN55" s="105" t="str">
-        <f t="shared" ref="AN55:AN66" si="56">D55</f>
+        <f t="shared" ref="AN55:AN66" si="58">D55</f>
         <v>Residential Kerosene Heating Oil - New 1 SH</v>
       </c>
       <c r="AO55" s="106" t="s">
@@ -25389,15 +25389,15 @@
         <v>0.7</v>
       </c>
       <c r="Q56" s="23">
-        <f t="shared" ref="Q56:Q58" si="57">I56*0.7</f>
+        <f t="shared" ref="Q56:Q58" si="59">I56*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R56" s="23">
-        <f t="shared" ref="R56:R58" si="58">J56*0.7</f>
+        <f t="shared" ref="R56:R58" si="60">J56*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S56" s="57">
-        <f t="shared" ref="S56:S58" si="59">K56*0.7</f>
+        <f t="shared" ref="S56:S58" si="61">K56*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T56" s="53">
@@ -25409,15 +25409,15 @@
         <v>4.2773760330578519</v>
       </c>
       <c r="W56" s="380">
-        <f t="shared" ref="W56:Y56" si="60">W60*1.3</f>
+        <f t="shared" ref="W56:Y56" si="62">W60*1.3</f>
         <v>4.2773760330578519</v>
       </c>
       <c r="X56" s="380">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>4.2773760330578519</v>
       </c>
       <c r="Y56" s="380">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>4.2773760330578519</v>
       </c>
       <c r="Z56" s="380">
@@ -25430,7 +25430,7 @@
       <c r="AE56" s="73"/>
       <c r="AF56" s="73"/>
       <c r="AG56" s="63">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH56" s="66"/>
@@ -25442,11 +25442,11 @@
       </c>
       <c r="AL56" s="106"/>
       <c r="AM56" s="105" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>R-SW_Att_KER_N1</v>
       </c>
       <c r="AN56" s="105" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>Residential Kerosene Heating Oil - New 2 SH + WH</v>
       </c>
       <c r="AO56" s="106" t="s">
@@ -25496,15 +25496,15 @@
         <v>0.7</v>
       </c>
       <c r="Q57" s="29">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.7</v>
       </c>
       <c r="R57" s="29">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0.7</v>
       </c>
       <c r="S57" s="58">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0.7</v>
       </c>
       <c r="T57" s="54">
@@ -25542,7 +25542,7 @@
         <v>5</v>
       </c>
       <c r="AG57" s="62">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH57" s="65"/>
@@ -25554,11 +25554,11 @@
       </c>
       <c r="AL57" s="106"/>
       <c r="AM57" s="105" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>R-SW_Att_KER_N2</v>
       </c>
       <c r="AN57" s="105" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Solar</v>
       </c>
       <c r="AO57" s="106" t="s">
@@ -25608,15 +25608,15 @@
         <v>0.7</v>
       </c>
       <c r="Q58" s="23">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="R58" s="23">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="S58" s="57">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="T58" s="53">
@@ -25666,11 +25666,11 @@
       </c>
       <c r="AL58" s="106"/>
       <c r="AM58" s="105" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>R-SW_Att_KER_N3</v>
       </c>
       <c r="AN58" s="105" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Wood Stove</v>
       </c>
       <c r="AO58" s="107" t="s">
@@ -25726,15 +25726,15 @@
         <v>3.25</v>
       </c>
       <c r="W59" s="379">
-        <f t="shared" ref="W59:Y59" si="61">3.25</f>
+        <f t="shared" ref="W59:Y59" si="63">3.25</f>
         <v>3.25</v>
       </c>
       <c r="X59" s="379">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>3.25</v>
       </c>
       <c r="Y59" s="379">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>3.25</v>
       </c>
       <c r="Z59" s="379">
@@ -25747,7 +25747,7 @@
       <c r="AE59" s="72"/>
       <c r="AF59" s="72"/>
       <c r="AG59" s="62">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH59" s="65"/>
@@ -25759,11 +25759,11 @@
       </c>
       <c r="AL59" s="106"/>
       <c r="AM59" s="105" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>R-SH_Att_GAS_N1</v>
       </c>
       <c r="AN59" s="105" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>Residential Natural Gas Heating - New 1 SH</v>
       </c>
       <c r="AO59" s="106" t="s">
@@ -25813,15 +25813,15 @@
         <v>0.7</v>
       </c>
       <c r="Q60" s="23">
-        <f t="shared" ref="Q60:Q62" si="62">I60*0.7</f>
+        <f t="shared" ref="Q60:Q62" si="64">I60*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R60" s="23">
-        <f t="shared" ref="R60:R62" si="63">J60*0.7</f>
+        <f t="shared" ref="R60:R62" si="65">J60*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S60" s="57">
-        <f t="shared" ref="S60:S62" si="64">K60*0.7</f>
+        <f t="shared" ref="S60:S62" si="66">K60*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T60" s="53">
@@ -25854,7 +25854,7 @@
       <c r="AE60" s="73"/>
       <c r="AF60" s="73"/>
       <c r="AG60" s="63">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH60" s="66"/>
@@ -25866,11 +25866,11 @@
       </c>
       <c r="AL60" s="106"/>
       <c r="AM60" s="105" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>R-SW_Att_GAS_N1</v>
       </c>
       <c r="AN60" s="105" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>Residential Natural Gas Heating - New 2 SH + WH</v>
       </c>
       <c r="AO60" s="106" t="s">
@@ -25920,15 +25920,15 @@
         <v>0.7</v>
       </c>
       <c r="Q61" s="29">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0.7</v>
       </c>
       <c r="R61" s="29">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.7</v>
       </c>
       <c r="S61" s="58">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.7</v>
       </c>
       <c r="T61" s="54">
@@ -25964,7 +25964,7 @@
         <v>5</v>
       </c>
       <c r="AG61" s="62">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH61" s="65"/>
@@ -25976,11 +25976,11 @@
       </c>
       <c r="AL61" s="106"/>
       <c r="AM61" s="105" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>R-SW_Att_GAS_N2</v>
       </c>
       <c r="AN61" s="105" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>Residential Natural Gas Heating - New 3 SH + WH + Solar</v>
       </c>
       <c r="AO61" s="106" t="s">
@@ -26030,15 +26030,15 @@
         <v>0.7</v>
       </c>
       <c r="Q62" s="23">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="R62" s="23">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="S62" s="57">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="T62" s="53">
@@ -26076,7 +26076,7 @@
         <v>5</v>
       </c>
       <c r="AG62" s="63">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH62" s="66"/>
@@ -26088,11 +26088,11 @@
       </c>
       <c r="AL62" s="106"/>
       <c r="AM62" s="105" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>R-SW_Att_GAS_N3</v>
       </c>
       <c r="AN62" s="105" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>Residential Natural Gas Heating - New 4 SH + WH + Wood Stove</v>
       </c>
       <c r="AO62" s="106" t="s">
@@ -26172,7 +26172,7 @@
       <c r="AE63" s="72"/>
       <c r="AF63" s="72"/>
       <c r="AG63" s="62">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH63" s="65"/>
@@ -26184,11 +26184,11 @@
       </c>
       <c r="AL63" s="106"/>
       <c r="AM63" s="105" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>R-SH_Att_LPG_N1</v>
       </c>
       <c r="AN63" s="105" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>Residential Liquid Petroleum Gas- New 1 SH</v>
       </c>
       <c r="AO63" s="106" t="s">
@@ -26238,15 +26238,15 @@
         <v>0.7</v>
       </c>
       <c r="Q64" s="23">
-        <f t="shared" ref="Q64" si="65">I64*0.7</f>
+        <f t="shared" ref="Q64" si="67">I64*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R64" s="23">
-        <f t="shared" ref="R64" si="66">J64*0.7</f>
+        <f t="shared" ref="R64" si="68">J64*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S64" s="57">
-        <f t="shared" ref="S64" si="67">K64*0.7</f>
+        <f t="shared" ref="S64" si="69">K64*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T64" s="53">
@@ -26280,7 +26280,7 @@
       <c r="AE64" s="73"/>
       <c r="AF64" s="73"/>
       <c r="AG64" s="63">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH64" s="66"/>
@@ -26292,11 +26292,11 @@
       </c>
       <c r="AL64" s="106"/>
       <c r="AM64" s="105" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>R-SW_Att_LPG_N1</v>
       </c>
       <c r="AN64" s="105" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>Residential Liquid Petroleum Gas- New 2 SH + WH</v>
       </c>
       <c r="AO64" s="106" t="s">
@@ -26374,7 +26374,7 @@
       <c r="AE65" s="72"/>
       <c r="AF65" s="72"/>
       <c r="AG65" s="62">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH65" s="65"/>
@@ -26386,11 +26386,11 @@
       </c>
       <c r="AL65" s="106"/>
       <c r="AM65" s="105" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>R-SH_Att_WOO_N1</v>
       </c>
       <c r="AN65" s="105" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>Residential Biomass Boiler - New 1 SH</v>
       </c>
       <c r="AO65" s="106" t="s">
@@ -26436,19 +26436,19 @@
       <c r="N66" s="32"/>
       <c r="O66" s="45"/>
       <c r="P66" s="22">
-        <f t="shared" ref="P66:S70" si="68">H66*0.7</f>
+        <f t="shared" ref="P66:S70" si="70">H66*0.7</f>
         <v>0.7</v>
       </c>
       <c r="Q66" s="23">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0.7</v>
       </c>
       <c r="R66" s="23">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0.7</v>
       </c>
       <c r="S66" s="57">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0.7</v>
       </c>
       <c r="T66" s="53">
@@ -26481,7 +26481,7 @@
       <c r="AE66" s="73"/>
       <c r="AF66" s="73"/>
       <c r="AG66" s="63">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH66" s="66"/>
@@ -26493,11 +26493,11 @@
       </c>
       <c r="AL66" s="109"/>
       <c r="AM66" s="108" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>R-SW_Att_WOO_N1</v>
       </c>
       <c r="AN66" s="108" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>Residential Biomass Boiler - New 2 SH + WH</v>
       </c>
       <c r="AO66" s="109" t="s">
@@ -26576,7 +26576,7 @@
       <c r="AE67" s="73"/>
       <c r="AF67" s="73"/>
       <c r="AG67" s="63">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH67" s="66"/>
@@ -26635,19 +26635,19 @@
       <c r="N68" s="32"/>
       <c r="O68" s="45"/>
       <c r="P68" s="22">
-        <f t="shared" ref="P68" si="69">H68*0.7</f>
+        <f t="shared" ref="P68" si="71">H68*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="Q68" s="23">
-        <f t="shared" ref="Q68" si="70">I68*0.7</f>
+        <f t="shared" ref="Q68" si="72">I68*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="R68" s="23">
-        <f t="shared" ref="R68" si="71">J68*0.7</f>
+        <f t="shared" ref="R68" si="73">J68*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="S68" s="57">
-        <f t="shared" ref="S68" si="72">K68*0.7</f>
+        <f t="shared" ref="S68" si="74">K68*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="T68" s="53">
@@ -26680,7 +26680,7 @@
       <c r="AE68" s="73"/>
       <c r="AF68" s="73"/>
       <c r="AG68" s="63">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH68" s="66"/>
@@ -26750,19 +26750,19 @@
         <v>4.2250000000000005</v>
       </c>
       <c r="W69" s="62">
-        <f t="shared" ref="W69:Z70" si="73">W55</f>
+        <f t="shared" ref="W69:Z70" si="75">W55</f>
         <v>4.2250000000000005</v>
       </c>
       <c r="X69" s="62">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>4.2250000000000005</v>
       </c>
       <c r="Y69" s="62">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>4.2250000000000005</v>
       </c>
       <c r="Z69" s="62">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>0.12</v>
       </c>
       <c r="AA69" s="65"/>
@@ -26833,19 +26833,19 @@
       <c r="N70" s="50"/>
       <c r="O70" s="51"/>
       <c r="P70" s="252">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="Q70" s="26">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="R70" s="26">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="S70" s="59">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="T70" s="55">
@@ -26857,19 +26857,19 @@
         <v>4.2773760330578519</v>
       </c>
       <c r="W70" s="62">
-        <f t="shared" ref="W70:Y70" si="74">W56</f>
+        <f t="shared" ref="W70:Y70" si="76">W56</f>
         <v>4.2773760330578519</v>
       </c>
       <c r="X70" s="62">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>4.2773760330578519</v>
       </c>
       <c r="Y70" s="62">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>4.2773760330578519</v>
       </c>
       <c r="Z70" s="62">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>0.12</v>
       </c>
       <c r="AA70" s="66"/>
@@ -26879,7 +26879,7 @@
       <c r="AE70" s="73"/>
       <c r="AF70" s="73"/>
       <c r="AG70" s="63">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH70" s="67"/>
@@ -27032,7 +27032,7 @@
       <c r="AE72" s="84"/>
       <c r="AF72" s="84"/>
       <c r="AG72" s="82">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH72" s="83"/>
@@ -27044,11 +27044,11 @@
       </c>
       <c r="AL72" s="104"/>
       <c r="AM72" s="103" t="str">
-        <f t="shared" ref="AM72:AN78" si="75">C74</f>
+        <f t="shared" ref="AM72:AN78" si="77">C74</f>
         <v>R-SH_Att_ELC_HPN1</v>
       </c>
       <c r="AN72" s="103" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>Residential Electric Heat Pump - Air to Air - SH</v>
       </c>
       <c r="AO72" s="104" t="s">
@@ -27101,11 +27101,11 @@
       <c r="AJ73" s="34"/>
       <c r="AL73" s="106"/>
       <c r="AM73" s="105" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>R-HC_Att_ELC_HPN1</v>
       </c>
       <c r="AN73" s="105" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>Residential Electric Heat Pump - Air to Air - SH + SC</v>
       </c>
       <c r="AO73" s="106" t="s">
@@ -27190,7 +27190,7 @@
       <c r="AE74" s="85"/>
       <c r="AF74" s="85"/>
       <c r="AG74" s="85">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.220752</v>
       </c>
       <c r="AH74" s="88"/>
@@ -27202,11 +27202,11 @@
       </c>
       <c r="AL74" s="106"/>
       <c r="AM74" s="105" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>R-SH_Att_ELC_HPN2</v>
       </c>
       <c r="AN74" s="105" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>Residential Electric Heat Pump - Air to Water - SH</v>
       </c>
       <c r="AO74" s="106" t="s">
@@ -27302,7 +27302,7 @@
       <c r="AE75" s="63"/>
       <c r="AF75" s="63"/>
       <c r="AG75" s="63">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH75" s="66"/>
@@ -27314,11 +27314,11 @@
       </c>
       <c r="AL75" s="106"/>
       <c r="AM75" s="105" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>R-SW_Att_ELC_HPN1</v>
       </c>
       <c r="AN75" s="105" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH</v>
       </c>
       <c r="AO75" s="106" t="s">
@@ -27401,7 +27401,7 @@
       <c r="AE76" s="62"/>
       <c r="AF76" s="62"/>
       <c r="AG76" s="62">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.220752</v>
       </c>
       <c r="AH76" s="65"/>
@@ -27413,11 +27413,11 @@
       </c>
       <c r="AL76" s="212"/>
       <c r="AM76" s="105" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>R-SW_Att_ELC_HPN2</v>
       </c>
       <c r="AN76" s="105" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar</v>
       </c>
       <c r="AO76" s="106" t="s">
@@ -27472,15 +27472,15 @@
         <v>0.7</v>
       </c>
       <c r="Q77" s="23">
-        <f t="shared" ref="Q77:Q78" si="76">I77*0.7</f>
+        <f t="shared" ref="Q77:Q78" si="78">I77*0.7</f>
         <v>0.76999999999999991</v>
       </c>
       <c r="R77" s="23">
-        <f t="shared" ref="R77:R78" si="77">J77*0.7</f>
+        <f t="shared" ref="R77:R78" si="79">J77*0.7</f>
         <v>0.86333333333333329</v>
       </c>
       <c r="S77" s="57">
-        <f t="shared" ref="S77:S78" si="78">K77*0.7</f>
+        <f t="shared" ref="S77:S78" si="80">K77*0.7</f>
         <v>0.93333333333333324</v>
       </c>
       <c r="T77" s="53">
@@ -27513,7 +27513,7 @@
       <c r="AE77" s="63"/>
       <c r="AF77" s="63"/>
       <c r="AG77" s="63">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH77" s="66"/>
@@ -27525,11 +27525,11 @@
       </c>
       <c r="AL77" s="212"/>
       <c r="AM77" s="105" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>R-SH_Att_ELC_HPN3</v>
       </c>
       <c r="AN77" s="105" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH</v>
       </c>
       <c r="AO77" s="106" t="s">
@@ -27581,15 +27581,15 @@
         <v>0.7</v>
       </c>
       <c r="Q78" s="29">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>0.77700000000000002</v>
       </c>
       <c r="R78" s="29">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="S78" s="58">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="T78" s="54">
@@ -27627,7 +27627,7 @@
         <v>5</v>
       </c>
       <c r="AG78" s="62">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH78" s="65"/>
@@ -27639,11 +27639,11 @@
       </c>
       <c r="AL78" s="112"/>
       <c r="AM78" s="108" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>R-HC_Att_ELC_HPN2</v>
       </c>
       <c r="AN78" s="108" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC</v>
       </c>
       <c r="AO78" s="109" t="s">
@@ -27729,7 +27729,7 @@
       <c r="AE79" s="63"/>
       <c r="AF79" s="63"/>
       <c r="AG79" s="63">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.220752</v>
       </c>
       <c r="AH79" s="66"/>
@@ -27843,7 +27843,7 @@
       <c r="AE80" s="86"/>
       <c r="AF80" s="86"/>
       <c r="AG80" s="86">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH80" s="91"/>
@@ -27972,15 +27972,15 @@
         <v>1.1666666666666667</v>
       </c>
       <c r="Q82" s="20">
-        <f t="shared" ref="Q82:Q83" si="79">I82*0.7</f>
+        <f t="shared" ref="Q82:Q83" si="81">I82*0.7</f>
         <v>1.2530864197530862</v>
       </c>
       <c r="R82" s="20">
-        <f t="shared" ref="R82:R83" si="80">J82*0.7</f>
+        <f t="shared" ref="R82:R83" si="82">J82*0.7</f>
         <v>1.4691358024691357</v>
       </c>
       <c r="S82" s="56">
-        <f t="shared" ref="S82:S83" si="81">K82*0.7</f>
+        <f t="shared" ref="S82:S83" si="83">K82*0.7</f>
         <v>1.4691358024691357</v>
       </c>
       <c r="T82" s="89">
@@ -28014,7 +28014,7 @@
       <c r="AE82" s="85"/>
       <c r="AF82" s="85"/>
       <c r="AG82" s="85">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH82" s="88"/>
@@ -28086,15 +28086,15 @@
         <v>1.1666666666666665</v>
       </c>
       <c r="Q83" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>1.2055555555555555</v>
       </c>
       <c r="R83" s="26">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1.2055555555555555</v>
       </c>
       <c r="S83" s="59">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>1.2444444444444445</v>
       </c>
       <c r="T83" s="27">
@@ -28257,15 +28257,15 @@
         <v>2.2084999999999999</v>
       </c>
       <c r="Q85" s="26">
-        <f t="shared" ref="Q85" si="82">I85*0.7</f>
+        <f t="shared" ref="Q85" si="84">I85*0.7</f>
         <v>2.4464999999999999</v>
       </c>
       <c r="R85" s="26">
-        <f t="shared" ref="R85" si="83">J85*0.7</f>
+        <f t="shared" ref="R85" si="85">J85*0.7</f>
         <v>2.625</v>
       </c>
       <c r="S85" s="59">
-        <f t="shared" ref="S85" si="84">K85*0.7</f>
+        <f t="shared" ref="S85" si="86">K85*0.7</f>
         <v>2.625</v>
       </c>
       <c r="T85" s="3">
@@ -28276,15 +28276,15 @@
         <v>9.5138179028489738</v>
       </c>
       <c r="W85" s="79">
-        <f t="shared" ref="W85:Y85" si="85">(W77+W60)*0.8</f>
+        <f t="shared" ref="W85:Y85" si="87">(W77+W60)*0.8</f>
         <v>8.8944751180388462</v>
       </c>
       <c r="X85" s="79">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>8.3308731838616321</v>
       </c>
       <c r="Y85" s="79">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>8.2751323332287203</v>
       </c>
       <c r="Z85" s="371">
@@ -28305,7 +28305,7 @@
         <v>5</v>
       </c>
       <c r="AG85" s="82">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.45017639999999998</v>
       </c>
       <c r="AH85" s="83"/>
@@ -28467,7 +28467,7 @@
       <c r="AE87" s="85"/>
       <c r="AF87" s="85"/>
       <c r="AG87" s="85">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH87" s="88"/>
@@ -28552,7 +28552,7 @@
       <c r="AE88" s="64"/>
       <c r="AF88" s="64"/>
       <c r="AG88" s="64">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH88" s="67"/>
@@ -28667,7 +28667,7 @@
       <c r="AE90" s="85"/>
       <c r="AF90" s="85"/>
       <c r="AG90" s="85">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.18921600000000002</v>
       </c>
       <c r="AH90" s="88"/>
@@ -28746,7 +28746,7 @@
       <c r="AE91" s="63"/>
       <c r="AF91" s="63"/>
       <c r="AG91" s="63">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.18921600000000002</v>
       </c>
       <c r="AH91" s="67"/>
@@ -28864,7 +28864,7 @@
       <c r="AE93" s="93"/>
       <c r="AF93" s="93"/>
       <c r="AG93" s="93">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.18921600000000002</v>
       </c>
       <c r="AH93" s="92"/>
@@ -29029,12 +29029,12 @@
         <v>85</v>
       </c>
       <c r="U100" s="539"/>
-      <c r="V100" s="531" t="s">
+      <c r="V100" s="540" t="s">
         <v>86</v>
       </c>
-      <c r="W100" s="532"/>
-      <c r="X100" s="532"/>
-      <c r="Y100" s="533"/>
+      <c r="W100" s="541"/>
+      <c r="X100" s="541"/>
+      <c r="Y100" s="542"/>
       <c r="Z100" s="60"/>
       <c r="AA100" s="60"/>
       <c r="AB100" s="68" t="s">
@@ -29137,34 +29137,34 @@
       <c r="E102" s="38"/>
       <c r="F102" s="38"/>
       <c r="G102" s="39"/>
-      <c r="H102" s="534" t="s">
+      <c r="H102" s="531" t="s">
         <v>34</v>
       </c>
-      <c r="I102" s="535"/>
-      <c r="J102" s="535"/>
-      <c r="K102" s="536"/>
-      <c r="L102" s="535" t="s">
+      <c r="I102" s="532"/>
+      <c r="J102" s="532"/>
+      <c r="K102" s="533"/>
+      <c r="L102" s="532" t="s">
         <v>34</v>
       </c>
-      <c r="M102" s="535"/>
-      <c r="N102" s="535"/>
-      <c r="O102" s="536"/>
-      <c r="P102" s="534" t="s">
+      <c r="M102" s="532"/>
+      <c r="N102" s="532"/>
+      <c r="O102" s="533"/>
+      <c r="P102" s="531" t="s">
         <v>34</v>
       </c>
-      <c r="Q102" s="535"/>
-      <c r="R102" s="535"/>
-      <c r="S102" s="536"/>
-      <c r="T102" s="540" t="s">
+      <c r="Q102" s="532"/>
+      <c r="R102" s="532"/>
+      <c r="S102" s="533"/>
+      <c r="T102" s="534" t="s">
         <v>68</v>
       </c>
-      <c r="U102" s="541"/>
-      <c r="V102" s="540" t="s">
+      <c r="U102" s="535"/>
+      <c r="V102" s="534" t="s">
         <v>508</v>
       </c>
-      <c r="W102" s="542"/>
-      <c r="X102" s="542"/>
-      <c r="Y102" s="541"/>
+      <c r="W102" s="536"/>
+      <c r="X102" s="536"/>
+      <c r="Y102" s="535"/>
       <c r="Z102" s="373" t="s">
         <v>520</v>
       </c>
@@ -29260,15 +29260,15 @@
         <v>4.5825000000000005</v>
       </c>
       <c r="W103" s="379">
-        <f t="shared" ref="W103:Y103" si="86">W107*1.3</f>
+        <f t="shared" ref="W103:Y103" si="88">W107*1.3</f>
         <v>4.5825000000000005</v>
       </c>
       <c r="X103" s="379">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>4.5825000000000005</v>
       </c>
       <c r="Y103" s="379">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>4.5825000000000005</v>
       </c>
       <c r="Z103" s="379">
@@ -29281,7 +29281,7 @@
       <c r="AE103" s="72"/>
       <c r="AF103" s="72"/>
       <c r="AG103" s="62">
-        <f t="shared" ref="AG103:AG141" si="87">31.536*(AJ103/1000)</f>
+        <f t="shared" ref="AG103:AG141" si="89">31.536*(AJ103/1000)</f>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH103" s="65"/>
@@ -29295,11 +29295,11 @@
         <v>31</v>
       </c>
       <c r="AM103" s="105" t="str">
-        <f t="shared" ref="AM103:AM114" si="88">C103</f>
+        <f t="shared" ref="AM103:AM114" si="90">C103</f>
         <v>R-SH_Det_KER_N1</v>
       </c>
       <c r="AN103" s="105" t="str">
-        <f t="shared" ref="AN103:AN114" si="89">D103</f>
+        <f t="shared" ref="AN103:AN114" si="91">D103</f>
         <v>Residential Kerosene Heating Oil - New 1 SH</v>
       </c>
       <c r="AO103" s="106" t="s">
@@ -29349,15 +29349,15 @@
         <v>0.7</v>
       </c>
       <c r="Q104" s="23">
-        <f t="shared" ref="Q104:Q106" si="90">I104*0.7</f>
+        <f t="shared" ref="Q104:Q106" si="92">I104*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R104" s="23">
-        <f t="shared" ref="R104:R106" si="91">J104*0.7</f>
+        <f t="shared" ref="R104:R106" si="93">J104*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S104" s="57">
-        <f t="shared" ref="S104:S106" si="92">K104*0.7</f>
+        <f t="shared" ref="S104:S106" si="94">K104*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T104" s="53">
@@ -29369,15 +29369,15 @@
         <v>4.9452075289575284</v>
       </c>
       <c r="W104" s="380">
-        <f t="shared" ref="W104:Y104" si="93">W108*1.3</f>
+        <f t="shared" ref="W104:Y104" si="95">W108*1.3</f>
         <v>4.9452075289575284</v>
       </c>
       <c r="X104" s="380">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>4.9452075289575284</v>
       </c>
       <c r="Y104" s="380">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>4.9452075289575284</v>
       </c>
       <c r="Z104" s="380">
@@ -29390,7 +29390,7 @@
       <c r="AE104" s="73"/>
       <c r="AF104" s="73"/>
       <c r="AG104" s="63">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH104" s="66"/>
@@ -29402,11 +29402,11 @@
       </c>
       <c r="AL104" s="106"/>
       <c r="AM104" s="105" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>R-SW_Det_KER_N1</v>
       </c>
       <c r="AN104" s="105" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>Residential Kerosene Heating Oil - New 2 SH + WH</v>
       </c>
       <c r="AO104" s="106" t="s">
@@ -29456,15 +29456,15 @@
         <v>0.7</v>
       </c>
       <c r="Q105" s="29">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>0.7</v>
       </c>
       <c r="R105" s="29">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>0.7</v>
       </c>
       <c r="S105" s="58">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>0.7</v>
       </c>
       <c r="T105" s="54">
@@ -29502,7 +29502,7 @@
         <v>5</v>
       </c>
       <c r="AG105" s="62">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH105" s="65"/>
@@ -29514,11 +29514,11 @@
       </c>
       <c r="AL105" s="106"/>
       <c r="AM105" s="105" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>R-SW_Det_KER_N2</v>
       </c>
       <c r="AN105" s="105" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Solar</v>
       </c>
       <c r="AO105" s="106" t="s">
@@ -29568,15 +29568,15 @@
         <v>0.7</v>
       </c>
       <c r="Q106" s="23">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="R106" s="23">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="S106" s="57">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="T106" s="53">
@@ -29614,7 +29614,7 @@
         <v>5</v>
       </c>
       <c r="AG106" s="63">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH106" s="66"/>
@@ -29626,11 +29626,11 @@
       </c>
       <c r="AL106" s="106"/>
       <c r="AM106" s="105" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>R-SW_Det_KER_N3</v>
       </c>
       <c r="AN106" s="105" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Wood Stove</v>
       </c>
       <c r="AO106" s="107" t="s">
@@ -29686,15 +29686,15 @@
         <v>3.5249999999999999</v>
       </c>
       <c r="W107" s="379">
-        <f t="shared" ref="W107:Y107" si="94">3.525</f>
+        <f t="shared" ref="W107:Y107" si="96">3.525</f>
         <v>3.5249999999999999</v>
       </c>
       <c r="X107" s="379">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>3.5249999999999999</v>
       </c>
       <c r="Y107" s="379">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>3.5249999999999999</v>
       </c>
       <c r="Z107" s="379">
@@ -29707,7 +29707,7 @@
       <c r="AE107" s="72"/>
       <c r="AF107" s="72"/>
       <c r="AG107" s="62">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH107" s="65"/>
@@ -29719,11 +29719,11 @@
       </c>
       <c r="AL107" s="106"/>
       <c r="AM107" s="105" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>R-SH_Det_GAS_N1</v>
       </c>
       <c r="AN107" s="105" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>Residential Natural Gas Heating - New 1 SH</v>
       </c>
       <c r="AO107" s="106" t="s">
@@ -29773,15 +29773,15 @@
         <v>0.7</v>
       </c>
       <c r="Q108" s="23">
-        <f t="shared" ref="Q108:Q110" si="95">I108*0.7</f>
+        <f t="shared" ref="Q108:Q110" si="97">I108*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R108" s="23">
-        <f t="shared" ref="R108:R110" si="96">J108*0.7</f>
+        <f t="shared" ref="R108:R110" si="98">J108*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S108" s="57">
-        <f t="shared" ref="S108:S110" si="97">K108*0.7</f>
+        <f t="shared" ref="S108:S110" si="99">K108*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T108" s="53">
@@ -29814,7 +29814,7 @@
       <c r="AE108" s="73"/>
       <c r="AF108" s="73"/>
       <c r="AG108" s="63">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH108" s="66"/>
@@ -29826,11 +29826,11 @@
       </c>
       <c r="AL108" s="106"/>
       <c r="AM108" s="105" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>R-SW_Det_GAS_N1</v>
       </c>
       <c r="AN108" s="105" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>Residential Natural Gas Heating - New 2 SH + WH</v>
       </c>
       <c r="AO108" s="106" t="s">
@@ -29880,15 +29880,15 @@
         <v>0.7</v>
       </c>
       <c r="Q109" s="29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>0.7</v>
       </c>
       <c r="R109" s="29">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>0.7</v>
       </c>
       <c r="S109" s="58">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>0.7</v>
       </c>
       <c r="T109" s="54">
@@ -29924,7 +29924,7 @@
         <v>5</v>
       </c>
       <c r="AG109" s="62">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH109" s="65"/>
@@ -29936,11 +29936,11 @@
       </c>
       <c r="AL109" s="106"/>
       <c r="AM109" s="105" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>R-SW_Det_GAS_N2</v>
       </c>
       <c r="AN109" s="105" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>Residential Natural Gas Heating - New 3 SH + WH + Solar</v>
       </c>
       <c r="AO109" s="106" t="s">
@@ -29990,15 +29990,15 @@
         <v>0.7</v>
       </c>
       <c r="Q110" s="23">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="R110" s="23">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="S110" s="57">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="T110" s="53">
@@ -30036,7 +30036,7 @@
         <v>5</v>
       </c>
       <c r="AG110" s="63">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH110" s="66"/>
@@ -30048,11 +30048,11 @@
       </c>
       <c r="AL110" s="106"/>
       <c r="AM110" s="105" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>R-SW_Det_GAS_N3</v>
       </c>
       <c r="AN110" s="105" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>Residential Natural Gas Heating - New 4 SH + WH + Wood Stove</v>
       </c>
       <c r="AO110" s="106" t="s">
@@ -30106,19 +30106,19 @@
       </c>
       <c r="U111" s="41"/>
       <c r="V111" s="379">
-        <f t="shared" ref="V111:Y112" si="98">V107+0.3</f>
+        <f t="shared" ref="V111:Y112" si="100">V107+0.3</f>
         <v>3.8249999999999997</v>
       </c>
       <c r="W111" s="379">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>3.8249999999999997</v>
       </c>
       <c r="X111" s="379">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>3.8249999999999997</v>
       </c>
       <c r="Y111" s="379">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>3.8249999999999997</v>
       </c>
       <c r="Z111" s="379">
@@ -30132,7 +30132,7 @@
       <c r="AE111" s="72"/>
       <c r="AF111" s="72"/>
       <c r="AG111" s="62">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH111" s="65"/>
@@ -30144,11 +30144,11 @@
       </c>
       <c r="AL111" s="106"/>
       <c r="AM111" s="105" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>R-SH_Det_LPG_N1</v>
       </c>
       <c r="AN111" s="105" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>Residential Liquid Petroleum Gas- New 1 SH</v>
       </c>
       <c r="AO111" s="106" t="s">
@@ -30198,15 +30198,15 @@
         <v>0.7</v>
       </c>
       <c r="Q112" s="23">
-        <f t="shared" ref="Q112" si="99">I112*0.7</f>
+        <f t="shared" ref="Q112" si="101">I112*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R112" s="23">
-        <f t="shared" ref="R112" si="100">J112*0.7</f>
+        <f t="shared" ref="R112" si="102">J112*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S112" s="57">
-        <f t="shared" ref="S112" si="101">K112*0.7</f>
+        <f t="shared" ref="S112" si="103">K112*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T112" s="53">
@@ -30214,19 +30214,19 @@
       </c>
       <c r="U112" s="25"/>
       <c r="V112" s="380">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>4.1040057915057915</v>
       </c>
       <c r="W112" s="380">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>4.1040057915057915</v>
       </c>
       <c r="X112" s="380">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>4.1040057915057915</v>
       </c>
       <c r="Y112" s="380">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>4.1040057915057915</v>
       </c>
       <c r="Z112" s="379">
@@ -30240,7 +30240,7 @@
       <c r="AE112" s="73"/>
       <c r="AF112" s="73"/>
       <c r="AG112" s="63">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH112" s="66"/>
@@ -30252,11 +30252,11 @@
       </c>
       <c r="AL112" s="106"/>
       <c r="AM112" s="105" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>R-SW_Det_LPG_N1</v>
       </c>
       <c r="AN112" s="105" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>Residential Liquid Petroleum Gas- New 2 SH + WH</v>
       </c>
       <c r="AO112" s="106" t="s">
@@ -30334,7 +30334,7 @@
       <c r="AE113" s="72"/>
       <c r="AF113" s="72"/>
       <c r="AG113" s="62">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH113" s="65"/>
@@ -30346,11 +30346,11 @@
       </c>
       <c r="AL113" s="106"/>
       <c r="AM113" s="105" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>R-SH_Det_WOO_N1</v>
       </c>
       <c r="AN113" s="105" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>Residential Biomass Boiler - New 1 SH</v>
       </c>
       <c r="AO113" s="106" t="s">
@@ -30396,19 +30396,19 @@
       <c r="N114" s="32"/>
       <c r="O114" s="45"/>
       <c r="P114" s="22">
-        <f t="shared" ref="P114:S114" si="102">H114*0.7</f>
+        <f t="shared" ref="P114:S114" si="104">H114*0.7</f>
         <v>0.7</v>
       </c>
       <c r="Q114" s="23">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>0.7</v>
       </c>
       <c r="R114" s="23">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>0.7</v>
       </c>
       <c r="S114" s="57">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>0.7</v>
       </c>
       <c r="T114" s="53">
@@ -30420,15 +30420,15 @@
         <v>22.778925619834713</v>
       </c>
       <c r="W114" s="380">
-        <f t="shared" ref="W114" si="103">W113*($U$162/$U$161)</f>
+        <f t="shared" ref="W114" si="105">W113*($U$162/$U$161)</f>
         <v>22.04476084710744</v>
       </c>
       <c r="X114" s="380">
-        <f t="shared" ref="X114" si="104">X113*($U$162/$U$161)</f>
+        <f t="shared" ref="X114" si="106">X113*($U$162/$U$161)</f>
         <v>20.839163429752066</v>
       </c>
       <c r="Y114" s="380">
-        <f t="shared" ref="Y114" si="105">Y113*($U$162/$U$161)</f>
+        <f t="shared" ref="Y114" si="107">Y113*($U$162/$U$161)</f>
         <v>18.635439049586779</v>
       </c>
       <c r="Z114" s="380">
@@ -30441,7 +30441,7 @@
       <c r="AE114" s="73"/>
       <c r="AF114" s="73"/>
       <c r="AG114" s="63">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH114" s="66"/>
@@ -30453,11 +30453,11 @@
       </c>
       <c r="AL114" s="109"/>
       <c r="AM114" s="108" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>R-SW_Det_WOO_N1</v>
       </c>
       <c r="AN114" s="108" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>Residential Biomass Boiler - New 2 SH + WH</v>
       </c>
       <c r="AO114" s="109" t="s">
@@ -30536,7 +30536,7 @@
       <c r="AE115" s="73"/>
       <c r="AF115" s="73"/>
       <c r="AG115" s="63">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH115" s="66"/>
@@ -30595,19 +30595,19 @@
       <c r="N116" s="32"/>
       <c r="O116" s="45"/>
       <c r="P116" s="22">
-        <f t="shared" ref="P116:P118" si="106">H116*0.7</f>
+        <f t="shared" ref="P116:P118" si="108">H116*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="Q116" s="23">
-        <f t="shared" ref="Q116:Q118" si="107">I116*0.7</f>
+        <f t="shared" ref="Q116:Q118" si="109">I116*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="R116" s="23">
-        <f t="shared" ref="R116:R118" si="108">J116*0.7</f>
+        <f t="shared" ref="R116:R118" si="110">J116*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="S116" s="57">
-        <f t="shared" ref="S116:S118" si="109">K116*0.7</f>
+        <f t="shared" ref="S116:S118" si="111">K116*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="T116" s="53">
@@ -30640,7 +30640,7 @@
       <c r="AE116" s="73"/>
       <c r="AF116" s="73"/>
       <c r="AG116" s="63">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH116" s="66"/>
@@ -30710,19 +30710,19 @@
         <v>4.5825000000000005</v>
       </c>
       <c r="W117" s="62">
-        <f t="shared" ref="W117:Z117" si="110">W103</f>
+        <f t="shared" ref="W117:Z117" si="112">W103</f>
         <v>4.5825000000000005</v>
       </c>
       <c r="X117" s="62">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>4.5825000000000005</v>
       </c>
       <c r="Y117" s="62">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>4.5825000000000005</v>
       </c>
       <c r="Z117" s="62">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>0.12</v>
       </c>
       <c r="AA117" s="65"/>
@@ -30732,7 +30732,7 @@
       <c r="AE117" s="72"/>
       <c r="AF117" s="72"/>
       <c r="AG117" s="62">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH117" s="65"/>
@@ -30793,19 +30793,19 @@
       <c r="N118" s="50"/>
       <c r="O118" s="51"/>
       <c r="P118" s="252">
-        <f t="shared" si="106"/>
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="Q118" s="26">
-        <f t="shared" si="107"/>
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="R118" s="26">
         <f t="shared" si="108"/>
         <v>0.57399999999999995</v>
       </c>
+      <c r="Q118" s="26">
+        <f t="shared" si="109"/>
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="R118" s="26">
+        <f t="shared" si="110"/>
+        <v>0.57399999999999995</v>
+      </c>
       <c r="S118" s="59">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="T118" s="55">
@@ -30817,19 +30817,19 @@
         <v>4.9452075289575284</v>
       </c>
       <c r="W118" s="62">
-        <f t="shared" ref="W118:Z118" si="111">W104</f>
+        <f t="shared" ref="W118:Z118" si="113">W104</f>
         <v>4.9452075289575284</v>
       </c>
       <c r="X118" s="62">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>4.9452075289575284</v>
       </c>
       <c r="Y118" s="62">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>4.9452075289575284</v>
       </c>
       <c r="Z118" s="62">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>0.12</v>
       </c>
       <c r="AA118" s="66"/>
@@ -30839,7 +30839,7 @@
       <c r="AE118" s="73"/>
       <c r="AF118" s="73"/>
       <c r="AG118" s="63">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH118" s="67"/>
@@ -30992,7 +30992,7 @@
       <c r="AE120" s="84"/>
       <c r="AF120" s="84"/>
       <c r="AG120" s="82">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH120" s="83"/>
@@ -31004,11 +31004,11 @@
       </c>
       <c r="AL120" s="104"/>
       <c r="AM120" s="103" t="str">
-        <f t="shared" ref="AM120:AN126" si="112">C122</f>
+        <f t="shared" ref="AM120:AN126" si="114">C122</f>
         <v>R-SH_Det_ELC_HPN1</v>
       </c>
       <c r="AN120" s="103" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>Residential Electric Heat Pump - Air to Air - SH</v>
       </c>
       <c r="AO120" s="104" t="s">
@@ -31061,11 +31061,11 @@
       <c r="AJ121" s="34"/>
       <c r="AL121" s="106"/>
       <c r="AM121" s="105" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>R-HC_Det_ELC_HPN1</v>
       </c>
       <c r="AN121" s="105" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>Residential Electric Heat Pump - Air to Air - SH + SC</v>
       </c>
       <c r="AO121" s="106" t="s">
@@ -31147,7 +31147,7 @@
       <c r="AE122" s="85"/>
       <c r="AF122" s="85"/>
       <c r="AG122" s="85">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AH122" s="88"/>
@@ -31159,11 +31159,11 @@
       </c>
       <c r="AL122" s="106"/>
       <c r="AM122" s="105" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>R-SH_Det_ELC_HPN2</v>
       </c>
       <c r="AN122" s="105" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>Residential Electric Heat Pump - Air to Water - SH</v>
       </c>
       <c r="AO122" s="106" t="s">
@@ -31253,7 +31253,7 @@
       <c r="AE123" s="63"/>
       <c r="AF123" s="63"/>
       <c r="AG123" s="63">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH123" s="66"/>
@@ -31265,11 +31265,11 @@
       </c>
       <c r="AL123" s="106"/>
       <c r="AM123" s="105" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>R-SW_Det_ELC_HPN1</v>
       </c>
       <c r="AN123" s="105" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH</v>
       </c>
       <c r="AO123" s="106" t="s">
@@ -31349,7 +31349,7 @@
       <c r="AE124" s="62"/>
       <c r="AF124" s="62"/>
       <c r="AG124" s="62">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AH124" s="65"/>
@@ -31361,11 +31361,11 @@
       </c>
       <c r="AL124" s="212"/>
       <c r="AM124" s="105" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>R-SW_Det_ELC_HPN2</v>
       </c>
       <c r="AN124" s="105" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar</v>
       </c>
       <c r="AO124" s="106" t="s">
@@ -31417,15 +31417,15 @@
         <v>0.7</v>
       </c>
       <c r="Q125" s="23">
-        <f t="shared" ref="Q125:Q126" si="113">I125*0.7</f>
+        <f t="shared" ref="Q125:Q126" si="115">I125*0.7</f>
         <v>0.76999999999999991</v>
       </c>
       <c r="R125" s="23">
-        <f t="shared" ref="R125:R126" si="114">J125*0.7</f>
+        <f t="shared" ref="R125:R126" si="116">J125*0.7</f>
         <v>0.86333333333333329</v>
       </c>
       <c r="S125" s="57">
-        <f t="shared" ref="S125:S126" si="115">K125*0.7</f>
+        <f t="shared" ref="S125:S126" si="117">K125*0.7</f>
         <v>0.93333333333333324</v>
       </c>
       <c r="T125" s="53">
@@ -31437,15 +31437,15 @@
         <v>9.9300970464135023</v>
       </c>
       <c r="W125" s="380">
-        <f t="shared" ref="W125" si="116">W124*($U$160/$U$159)</f>
+        <f t="shared" ref="W125" si="118">W124*($U$160/$U$159)</f>
         <v>9.0363883122362889</v>
       </c>
       <c r="X125" s="380">
-        <f t="shared" ref="X125" si="117">X124*($U$160/$U$159)</f>
+        <f t="shared" ref="X125" si="119">X124*($U$160/$U$159)</f>
         <v>8.2231133641350223</v>
       </c>
       <c r="Y125" s="380">
-        <f t="shared" ref="Y125" si="118">Y124*($U$160/$U$159)</f>
+        <f t="shared" ref="Y125" si="120">Y124*($U$160/$U$159)</f>
         <v>8.1426795780590719</v>
       </c>
       <c r="Z125" s="380">
@@ -31458,7 +31458,7 @@
       <c r="AE125" s="63"/>
       <c r="AF125" s="63"/>
       <c r="AG125" s="63">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH125" s="66"/>
@@ -31470,11 +31470,11 @@
       </c>
       <c r="AL125" s="212"/>
       <c r="AM125" s="105" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>R-SH_Det_ELC_HPN3</v>
       </c>
       <c r="AN125" s="105" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH</v>
       </c>
       <c r="AO125" s="106" t="s">
@@ -31526,15 +31526,15 @@
         <v>0.7</v>
       </c>
       <c r="Q126" s="29">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>0.77700000000000002</v>
       </c>
       <c r="R126" s="29">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="S126" s="58">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="T126" s="54">
@@ -31572,7 +31572,7 @@
         <v>5</v>
       </c>
       <c r="AG126" s="62">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH126" s="65"/>
@@ -31584,11 +31584,11 @@
       </c>
       <c r="AL126" s="112"/>
       <c r="AM126" s="108" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>R-HC_Det_ELC_HPN2</v>
       </c>
       <c r="AN126" s="108" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC</v>
       </c>
       <c r="AO126" s="109" t="s">
@@ -31670,7 +31670,7 @@
       <c r="AE127" s="63"/>
       <c r="AF127" s="63"/>
       <c r="AG127" s="63">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AH127" s="66"/>
@@ -31776,7 +31776,7 @@
       <c r="AE128" s="86"/>
       <c r="AF128" s="86"/>
       <c r="AG128" s="86">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH128" s="91"/>
@@ -31905,15 +31905,15 @@
         <v>1.1666666666666667</v>
       </c>
       <c r="Q130" s="20">
-        <f t="shared" ref="Q130:Q131" si="119">I130*0.7</f>
+        <f t="shared" ref="Q130:Q131" si="121">I130*0.7</f>
         <v>1.2530864197530862</v>
       </c>
       <c r="R130" s="20">
-        <f t="shared" ref="R130:R131" si="120">J130*0.7</f>
+        <f t="shared" ref="R130:R131" si="122">J130*0.7</f>
         <v>1.4691358024691357</v>
       </c>
       <c r="S130" s="56">
-        <f t="shared" ref="S130:S131" si="121">K130*0.7</f>
+        <f t="shared" ref="S130:S131" si="123">K130*0.7</f>
         <v>1.4691358024691357</v>
       </c>
       <c r="T130" s="89">
@@ -31947,7 +31947,7 @@
       <c r="AE130" s="85"/>
       <c r="AF130" s="85"/>
       <c r="AG130" s="85">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH130" s="88"/>
@@ -32019,15 +32019,15 @@
         <v>1.1666666666666665</v>
       </c>
       <c r="Q131" s="26">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>1.2055555555555555</v>
       </c>
       <c r="R131" s="26">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>1.2055555555555555</v>
       </c>
       <c r="S131" s="59">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>1.2444444444444445</v>
       </c>
       <c r="T131" s="27">
@@ -32061,7 +32061,7 @@
       <c r="AE131" s="64"/>
       <c r="AF131" s="64"/>
       <c r="AG131" s="64">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH131" s="67"/>
@@ -32190,15 +32190,15 @@
         <v>2.2084999999999999</v>
       </c>
       <c r="Q133" s="26">
-        <f t="shared" ref="Q133" si="122">I133*0.7</f>
+        <f t="shared" ref="Q133" si="124">I133*0.7</f>
         <v>2.4464999999999999</v>
       </c>
       <c r="R133" s="26">
-        <f t="shared" ref="R133" si="123">J133*0.7</f>
+        <f t="shared" ref="R133" si="125">J133*0.7</f>
         <v>2.625</v>
       </c>
       <c r="S133" s="59">
-        <f t="shared" ref="S133" si="124">K133*0.7</f>
+        <f t="shared" ref="S133" si="126">K133*0.7</f>
         <v>2.625</v>
       </c>
       <c r="T133" s="3">
@@ -32209,15 +32209,15 @@
         <v>10.987282270335434</v>
       </c>
       <c r="W133" s="79">
-        <f t="shared" ref="W133:Y133" si="125">(W125+W108)*0.8</f>
+        <f t="shared" ref="W133:Y133" si="127">(W125+W108)*0.8</f>
         <v>10.272315282993665</v>
       </c>
       <c r="X133" s="79">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>9.6216953245126504</v>
       </c>
       <c r="Y133" s="79">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>9.5573482956518898</v>
       </c>
       <c r="Z133" s="371">
@@ -32238,7 +32238,7 @@
         <v>5</v>
       </c>
       <c r="AG133" s="82">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0.66540960000000005</v>
       </c>
       <c r="AH133" s="83"/>
@@ -32400,7 +32400,7 @@
       <c r="AE135" s="85"/>
       <c r="AF135" s="85"/>
       <c r="AG135" s="85">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH135" s="88"/>
@@ -32485,7 +32485,7 @@
       <c r="AE136" s="64"/>
       <c r="AF136" s="64"/>
       <c r="AG136" s="64">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH136" s="67"/>
@@ -32600,7 +32600,7 @@
       <c r="AE138" s="85"/>
       <c r="AF138" s="85"/>
       <c r="AG138" s="85">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0.25228800000000001</v>
       </c>
       <c r="AH138" s="88"/>
@@ -32679,7 +32679,7 @@
       <c r="AE139" s="63"/>
       <c r="AF139" s="63"/>
       <c r="AG139" s="63">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0.25228800000000001</v>
       </c>
       <c r="AH139" s="67"/>
@@ -32794,7 +32794,7 @@
       <c r="AE141" s="93"/>
       <c r="AF141" s="93"/>
       <c r="AG141" s="93">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0.25228800000000001</v>
       </c>
       <c r="AH141" s="92"/>
@@ -32879,7 +32879,7 @@
         <v>3</v>
       </c>
       <c r="U155" s="377">
-        <f t="shared" ref="U155:U164" si="126">V155/$V$163</f>
+        <f t="shared" ref="U155:U164" si="128">V155/$V$163</f>
         <v>0.72929037751472525</v>
       </c>
       <c r="V155" s="378">
@@ -32893,7 +32893,7 @@
         <v>5</v>
       </c>
       <c r="U156" s="377">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0.79101166159768732</v>
       </c>
       <c r="V156" s="378">
@@ -32906,7 +32906,7 @@
         <v>8</v>
       </c>
       <c r="U157" s="377">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0.85077698714062355</v>
       </c>
       <c r="V157" s="378">
@@ -32919,7 +32919,7 @@
         <v>10</v>
       </c>
       <c r="U158" s="377">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0.86872586872586877</v>
       </c>
       <c r="V158" s="376">
@@ -32939,7 +32939,7 @@
         <v>15</v>
       </c>
       <c r="U159" s="367">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0.91505791505791501</v>
       </c>
       <c r="V159" s="3">
@@ -32966,7 +32966,7 @@
         <v>18</v>
       </c>
       <c r="U160" s="367">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0.92277992277992282</v>
       </c>
       <c r="V160" s="3">
@@ -32995,7 +32995,7 @@
         <v>20</v>
       </c>
       <c r="U161" s="377">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0.93436293436293438</v>
       </c>
       <c r="V161" s="376">
@@ -33025,7 +33025,7 @@
         <v>24</v>
       </c>
       <c r="U162" s="367">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0.94594594594594594</v>
       </c>
       <c r="V162" s="3">
@@ -33054,7 +33054,7 @@
         <v>30</v>
       </c>
       <c r="U163" s="367">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>1</v>
       </c>
       <c r="V163" s="3">
@@ -33083,7 +33083,7 @@
         <v>35</v>
       </c>
       <c r="U164" s="367">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>1.0791505791505791</v>
       </c>
       <c r="V164" s="3">
@@ -33127,26 +33127,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="H102:K102"/>
-    <mergeCell ref="L102:O102"/>
-    <mergeCell ref="P102:S102"/>
-    <mergeCell ref="T102:U102"/>
-    <mergeCell ref="V102:Y102"/>
-    <mergeCell ref="H100:K100"/>
-    <mergeCell ref="L100:O100"/>
-    <mergeCell ref="P100:S100"/>
-    <mergeCell ref="T100:U100"/>
-    <mergeCell ref="V100:Y100"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="L54:O54"/>
-    <mergeCell ref="P54:S54"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="V54:Y54"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="V52:Y52"/>
     <mergeCell ref="V4:Y4"/>
     <mergeCell ref="V6:Y6"/>
     <mergeCell ref="H4:K4"/>
@@ -33157,6 +33137,26 @@
     <mergeCell ref="P6:S6"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="V52:Y52"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:O54"/>
+    <mergeCell ref="P54:S54"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="V54:Y54"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:O100"/>
+    <mergeCell ref="P100:S100"/>
+    <mergeCell ref="T100:U100"/>
+    <mergeCell ref="V100:Y100"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:O102"/>
+    <mergeCell ref="P102:S102"/>
+    <mergeCell ref="T102:U102"/>
+    <mergeCell ref="V102:Y102"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -33302,12 +33302,12 @@
       <c r="I5" s="127"/>
       <c r="J5" s="127"/>
       <c r="K5" s="127"/>
-      <c r="L5" s="531" t="s">
+      <c r="L5" s="540" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="532"/>
-      <c r="N5" s="532"/>
-      <c r="O5" s="533"/>
+      <c r="M5" s="541"/>
+      <c r="N5" s="541"/>
+      <c r="O5" s="542"/>
       <c r="P5" s="60"/>
       <c r="Q5" s="60" t="s">
         <v>87</v>
@@ -33338,12 +33338,12 @@
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
       <c r="K6" s="37"/>
-      <c r="L6" s="540" t="s">
+      <c r="L6" s="534" t="s">
         <v>508</v>
       </c>
-      <c r="M6" s="542"/>
-      <c r="N6" s="542"/>
-      <c r="O6" s="541"/>
+      <c r="M6" s="536"/>
+      <c r="N6" s="536"/>
+      <c r="O6" s="535"/>
       <c r="P6" s="373" t="s">
         <v>520</v>
       </c>
@@ -34229,23 +34229,23 @@
       <c r="K33" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L33" s="531" t="s">
+      <c r="L33" s="540" t="s">
         <v>86</v>
       </c>
-      <c r="M33" s="532"/>
-      <c r="N33" s="532"/>
-      <c r="O33" s="533"/>
+      <c r="M33" s="541"/>
+      <c r="N33" s="541"/>
+      <c r="O33" s="542"/>
     </row>
     <row r="34" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H34" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="L34" s="540" t="s">
+      <c r="L34" s="534" t="s">
         <v>91</v>
       </c>
-      <c r="M34" s="542"/>
-      <c r="N34" s="542"/>
-      <c r="O34" s="541"/>
+      <c r="M34" s="536"/>
+      <c r="N34" s="536"/>
+      <c r="O34" s="535"/>
     </row>
     <row r="35" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H35" s="3" t="s">
@@ -34592,11 +34592,11 @@
       </c>
       <c r="I4" s="538"/>
       <c r="J4" s="539"/>
-      <c r="K4" s="531" t="s">
+      <c r="K4" s="540" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="532"/>
-      <c r="M4" s="533"/>
+      <c r="L4" s="541"/>
+      <c r="M4" s="542"/>
       <c r="N4" s="60"/>
       <c r="O4" s="60" t="s">
         <v>87</v>
@@ -34622,16 +34622,16 @@
       <c r="G5" s="381" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="543" t="s">
+      <c r="H5" s="546" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="544"/>
-      <c r="J5" s="545"/>
-      <c r="K5" s="543" t="s">
+      <c r="I5" s="547"/>
+      <c r="J5" s="548"/>
+      <c r="K5" s="546" t="s">
         <v>297</v>
       </c>
-      <c r="L5" s="544"/>
-      <c r="M5" s="545"/>
+      <c r="L5" s="547"/>
+      <c r="M5" s="548"/>
       <c r="N5" s="382" t="s">
         <v>92</v>
       </c>
@@ -34648,23 +34648,23 @@
         <v>215</v>
       </c>
       <c r="AA5" s="207"/>
-      <c r="AB5" s="546" t="s">
+      <c r="AB5" s="543" t="s">
         <v>546</v>
       </c>
-      <c r="AC5" s="546"/>
+      <c r="AC5" s="543"/>
       <c r="AD5" s="384"/>
-      <c r="AE5" s="547" t="s">
+      <c r="AE5" s="544" t="s">
         <v>65</v>
       </c>
-      <c r="AF5" s="547"/>
-      <c r="AG5" s="547" t="s">
+      <c r="AF5" s="544"/>
+      <c r="AG5" s="544" t="s">
         <v>547</v>
       </c>
-      <c r="AH5" s="547"/>
-      <c r="AI5" s="548" t="s">
+      <c r="AH5" s="544"/>
+      <c r="AI5" s="545" t="s">
         <v>548</v>
       </c>
-      <c r="AJ5" s="548"/>
+      <c r="AJ5" s="545"/>
     </row>
     <row r="6" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C6" s="428" t="str">
@@ -35402,12 +35402,12 @@
       <c r="K27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L27" s="531" t="s">
+      <c r="L27" s="540" t="s">
         <v>86</v>
       </c>
-      <c r="M27" s="532"/>
-      <c r="N27" s="532"/>
-      <c r="O27" s="533"/>
+      <c r="M27" s="541"/>
+      <c r="N27" s="541"/>
+      <c r="O27" s="542"/>
       <c r="T27" s="209"/>
       <c r="U27" s="209"/>
     </row>
@@ -35415,12 +35415,12 @@
       <c r="J28" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="L28" s="534" t="s">
+      <c r="L28" s="531" t="s">
         <v>91</v>
       </c>
-      <c r="M28" s="535"/>
-      <c r="N28" s="535"/>
-      <c r="O28" s="536"/>
+      <c r="M28" s="532"/>
+      <c r="N28" s="532"/>
+      <c r="O28" s="533"/>
       <c r="T28" s="209"/>
       <c r="U28" s="209"/>
     </row>
@@ -36810,16 +36810,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
     <mergeCell ref="AB5:AC5"/>
     <mergeCell ref="AE5:AF5"/>
     <mergeCell ref="AG5:AH5"/>
     <mergeCell ref="AI5:AJ5"/>
     <mergeCell ref="L27:O27"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S7" r:id="rId1" xr:uid="{B1EDD63D-40A5-4174-9D28-8666BD314B83}"/>
@@ -36837,7 +36837,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:CK183"/>
   <sheetViews>
-    <sheetView topLeftCell="BC1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
@@ -37250,103 +37250,103 @@
       <c r="C4" s="279" t="s">
         <v>306</v>
       </c>
-      <c r="D4" s="549" t="s">
+      <c r="D4" s="550" t="s">
         <v>307</v>
       </c>
-      <c r="E4" s="550"/>
-      <c r="F4" s="550"/>
-      <c r="G4" s="550"/>
+      <c r="E4" s="549"/>
+      <c r="F4" s="549"/>
+      <c r="G4" s="549"/>
       <c r="H4" s="551"/>
-      <c r="I4" s="550" t="s">
+      <c r="I4" s="549" t="s">
         <v>308</v>
       </c>
-      <c r="J4" s="550"/>
-      <c r="K4" s="550"/>
-      <c r="L4" s="550"/>
+      <c r="J4" s="549"/>
+      <c r="K4" s="549"/>
+      <c r="L4" s="549"/>
       <c r="M4" s="551"/>
-      <c r="N4" s="550" t="s">
+      <c r="N4" s="549" t="s">
         <v>309</v>
       </c>
-      <c r="O4" s="550"/>
-      <c r="P4" s="550"/>
-      <c r="Q4" s="550"/>
+      <c r="O4" s="549"/>
+      <c r="P4" s="549"/>
+      <c r="Q4" s="549"/>
       <c r="R4" s="551"/>
-      <c r="S4" s="550" t="s">
+      <c r="S4" s="549" t="s">
         <v>310</v>
       </c>
-      <c r="T4" s="550"/>
-      <c r="U4" s="550"/>
-      <c r="V4" s="550"/>
+      <c r="T4" s="549"/>
+      <c r="U4" s="549"/>
+      <c r="V4" s="549"/>
       <c r="W4" s="551"/>
-      <c r="X4" s="550" t="s">
+      <c r="X4" s="549" t="s">
         <v>311</v>
       </c>
-      <c r="Y4" s="550"/>
-      <c r="Z4" s="550"/>
-      <c r="AA4" s="550"/>
+      <c r="Y4" s="549"/>
+      <c r="Z4" s="549"/>
+      <c r="AA4" s="549"/>
       <c r="AB4" s="551"/>
-      <c r="AC4" s="550" t="s">
+      <c r="AC4" s="549" t="s">
         <v>312</v>
       </c>
-      <c r="AD4" s="550"/>
-      <c r="AE4" s="550"/>
-      <c r="AF4" s="550"/>
+      <c r="AD4" s="549"/>
+      <c r="AE4" s="549"/>
+      <c r="AF4" s="549"/>
       <c r="AG4" s="551"/>
-      <c r="AH4" s="550" t="s">
+      <c r="AH4" s="549" t="s">
         <v>313</v>
       </c>
-      <c r="AI4" s="550"/>
-      <c r="AJ4" s="550"/>
-      <c r="AK4" s="550"/>
+      <c r="AI4" s="549"/>
+      <c r="AJ4" s="549"/>
+      <c r="AK4" s="549"/>
       <c r="AL4" s="551"/>
-      <c r="AM4" s="550" t="s">
+      <c r="AM4" s="549" t="s">
         <v>314</v>
       </c>
-      <c r="AN4" s="550"/>
-      <c r="AO4" s="550"/>
-      <c r="AP4" s="550"/>
+      <c r="AN4" s="549"/>
+      <c r="AO4" s="549"/>
+      <c r="AP4" s="549"/>
       <c r="AQ4" s="551"/>
-      <c r="AR4" s="550" t="s">
+      <c r="AR4" s="549" t="s">
         <v>315</v>
       </c>
-      <c r="AS4" s="550"/>
-      <c r="AT4" s="550"/>
-      <c r="AU4" s="550"/>
+      <c r="AS4" s="549"/>
+      <c r="AT4" s="549"/>
+      <c r="AU4" s="549"/>
       <c r="AV4" s="551"/>
-      <c r="AW4" s="550" t="s">
+      <c r="AW4" s="549" t="s">
         <v>316</v>
       </c>
-      <c r="AX4" s="550"/>
-      <c r="AY4" s="550"/>
-      <c r="AZ4" s="550"/>
-      <c r="BA4" s="550"/>
-      <c r="BB4" s="549" t="s">
+      <c r="AX4" s="549"/>
+      <c r="AY4" s="549"/>
+      <c r="AZ4" s="549"/>
+      <c r="BA4" s="549"/>
+      <c r="BB4" s="550" t="s">
         <v>317</v>
       </c>
-      <c r="BC4" s="550"/>
-      <c r="BD4" s="550"/>
-      <c r="BE4" s="550"/>
+      <c r="BC4" s="549"/>
+      <c r="BD4" s="549"/>
+      <c r="BE4" s="549"/>
       <c r="BF4" s="551"/>
-      <c r="BG4" s="550" t="s">
+      <c r="BG4" s="549" t="s">
         <v>318</v>
       </c>
-      <c r="BH4" s="550"/>
-      <c r="BI4" s="550"/>
-      <c r="BJ4" s="550"/>
-      <c r="BK4" s="550"/>
-      <c r="BL4" s="549" t="s">
+      <c r="BH4" s="549"/>
+      <c r="BI4" s="549"/>
+      <c r="BJ4" s="549"/>
+      <c r="BK4" s="549"/>
+      <c r="BL4" s="550" t="s">
         <v>319</v>
       </c>
-      <c r="BM4" s="550"/>
-      <c r="BN4" s="550"/>
-      <c r="BO4" s="550"/>
-      <c r="BP4" s="550"/>
-      <c r="BQ4" s="549" t="s">
+      <c r="BM4" s="549"/>
+      <c r="BN4" s="549"/>
+      <c r="BO4" s="549"/>
+      <c r="BP4" s="549"/>
+      <c r="BQ4" s="550" t="s">
         <v>320</v>
       </c>
-      <c r="BR4" s="550"/>
-      <c r="BS4" s="550"/>
-      <c r="BT4" s="550"/>
+      <c r="BR4" s="549"/>
+      <c r="BS4" s="549"/>
+      <c r="BT4" s="549"/>
       <c r="BU4" s="551"/>
       <c r="BV4" s="280" t="s">
         <v>321</v>
@@ -50940,6 +50940,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="BL4:BP4"/>
+    <mergeCell ref="BQ4:BU4"/>
+    <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="CB4:CF4"/>
+    <mergeCell ref="CG4:CK4"/>
     <mergeCell ref="BG4:BK4"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
@@ -50952,11 +50957,6 @@
     <mergeCell ref="AR4:AV4"/>
     <mergeCell ref="AW4:BA4"/>
     <mergeCell ref="BB4:BF4"/>
-    <mergeCell ref="BL4:BP4"/>
-    <mergeCell ref="BQ4:BU4"/>
-    <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="CB4:CF4"/>
-    <mergeCell ref="CG4:CK4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -50968,8 +50968,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AD121"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AA32" sqref="AA32"/>
+    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -50979,23 +50979,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="556" t="s">
+      <c r="A1" s="558" t="s">
         <v>590</v>
       </c>
-      <c r="B1" s="558" t="s">
+      <c r="B1" s="560" t="s">
         <v>591</v>
       </c>
-      <c r="C1" s="559"/>
-      <c r="D1" s="559"/>
-      <c r="E1" s="559"/>
-      <c r="F1" s="560"/>
-      <c r="G1" s="558" t="s">
+      <c r="C1" s="561"/>
+      <c r="D1" s="561"/>
+      <c r="E1" s="561"/>
+      <c r="F1" s="562"/>
+      <c r="G1" s="560" t="s">
         <v>592</v>
       </c>
-      <c r="H1" s="559"/>
-      <c r="I1" s="559"/>
-      <c r="J1" s="559"/>
-      <c r="K1" s="560"/>
+      <c r="H1" s="561"/>
+      <c r="I1" s="561"/>
+      <c r="J1" s="561"/>
+      <c r="K1" s="562"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -51005,7 +51005,7 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="557"/>
+      <c r="A2" s="559"/>
       <c r="B2" s="450" t="s">
         <v>259</v>
       </c>
@@ -52498,11 +52498,11 @@
       <c r="Y48" t="s">
         <v>641</v>
       </c>
-      <c r="Z48" s="561" t="s">
+      <c r="Z48" s="556" t="s">
         <v>579</v>
       </c>
-      <c r="AA48" s="562"/>
-      <c r="AB48" s="562"/>
+      <c r="AA48" s="557"/>
+      <c r="AB48" s="557"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
@@ -52719,11 +52719,11 @@
       <c r="Y53" t="s">
         <v>643</v>
       </c>
-      <c r="Z53" s="561" t="s">
+      <c r="Z53" s="556" t="s">
         <v>578</v>
       </c>
-      <c r="AA53" s="562"/>
-      <c r="AB53" s="562"/>
+      <c r="AA53" s="557"/>
+      <c r="AB53" s="557"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
@@ -52925,11 +52925,11 @@
       <c r="Y59" t="s">
         <v>644</v>
       </c>
-      <c r="Z59" s="561" t="s">
+      <c r="Z59" s="556" t="s">
         <v>645</v>
       </c>
-      <c r="AA59" s="562"/>
-      <c r="AB59" s="562"/>
+      <c r="AA59" s="557"/>
+      <c r="AB59" s="557"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="470" t="str">
@@ -53766,17 +53766,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="Z48:AB48"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="Z48:AB48"/>
   </mergeCells>
   <phoneticPr fontId="54" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5661EB-5F71-42AA-9A22-FCE7C33B0B08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B8E0A5-CA8C-4B36-B387-C33E8DF73E4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
   </bookViews>
@@ -13592,6 +13592,15 @@
     <xf numFmtId="0" fontId="37" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -13599,15 +13608,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13619,13 +13619,22 @@
     <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -13637,19 +13646,10 @@
     <xf numFmtId="0" fontId="53" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13667,12 +13667,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -13687,6 +13681,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -14475,16 +14475,16 @@
       <sheetName val="DettachedEnergyData"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10">
         <row r="6">
           <cell r="L6">
@@ -14547,14 +14547,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -20608,8 +20608,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:AS169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="V41" sqref="V41"/>
+    <sheetView tabSelected="1" topLeftCell="B93" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20799,12 +20799,12 @@
         <v>85</v>
       </c>
       <c r="U4" s="539"/>
-      <c r="V4" s="540" t="s">
+      <c r="V4" s="531" t="s">
         <v>86</v>
       </c>
-      <c r="W4" s="541"/>
-      <c r="X4" s="541"/>
-      <c r="Y4" s="542"/>
+      <c r="W4" s="532"/>
+      <c r="X4" s="532"/>
+      <c r="Y4" s="533"/>
       <c r="Z4" s="60"/>
       <c r="AA4" s="60"/>
       <c r="AB4" s="68" t="s">
@@ -20907,34 +20907,34 @@
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
       <c r="G6" s="39"/>
-      <c r="H6" s="531" t="s">
+      <c r="H6" s="534" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="532"/>
-      <c r="J6" s="532"/>
-      <c r="K6" s="533"/>
-      <c r="L6" s="532" t="s">
+      <c r="I6" s="535"/>
+      <c r="J6" s="535"/>
+      <c r="K6" s="536"/>
+      <c r="L6" s="535" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="532"/>
-      <c r="N6" s="532"/>
-      <c r="O6" s="533"/>
-      <c r="P6" s="531" t="s">
+      <c r="M6" s="535"/>
+      <c r="N6" s="535"/>
+      <c r="O6" s="536"/>
+      <c r="P6" s="534" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="532"/>
-      <c r="R6" s="532"/>
-      <c r="S6" s="533"/>
-      <c r="T6" s="531" t="s">
+      <c r="Q6" s="535"/>
+      <c r="R6" s="535"/>
+      <c r="S6" s="536"/>
+      <c r="T6" s="534" t="s">
         <v>68</v>
       </c>
-      <c r="U6" s="533"/>
-      <c r="V6" s="531" t="s">
+      <c r="U6" s="536"/>
+      <c r="V6" s="534" t="s">
         <v>508</v>
       </c>
-      <c r="W6" s="532"/>
-      <c r="X6" s="532"/>
-      <c r="Y6" s="533"/>
+      <c r="W6" s="535"/>
+      <c r="X6" s="535"/>
+      <c r="Y6" s="536"/>
       <c r="Z6" s="61" t="s">
         <v>520</v>
       </c>
@@ -25069,12 +25069,12 @@
         <v>85</v>
       </c>
       <c r="U52" s="539"/>
-      <c r="V52" s="540" t="s">
+      <c r="V52" s="531" t="s">
         <v>86</v>
       </c>
-      <c r="W52" s="541"/>
-      <c r="X52" s="541"/>
-      <c r="Y52" s="542"/>
+      <c r="W52" s="532"/>
+      <c r="X52" s="532"/>
+      <c r="Y52" s="533"/>
       <c r="Z52" s="60"/>
       <c r="AA52" s="60"/>
       <c r="AB52" s="68" t="s">
@@ -25177,34 +25177,34 @@
       <c r="E54" s="38"/>
       <c r="F54" s="38"/>
       <c r="G54" s="39"/>
-      <c r="H54" s="531" t="s">
+      <c r="H54" s="534" t="s">
         <v>34</v>
       </c>
-      <c r="I54" s="532"/>
-      <c r="J54" s="532"/>
-      <c r="K54" s="533"/>
-      <c r="L54" s="532" t="s">
+      <c r="I54" s="535"/>
+      <c r="J54" s="535"/>
+      <c r="K54" s="536"/>
+      <c r="L54" s="535" t="s">
         <v>34</v>
       </c>
-      <c r="M54" s="532"/>
-      <c r="N54" s="532"/>
-      <c r="O54" s="533"/>
-      <c r="P54" s="531" t="s">
+      <c r="M54" s="535"/>
+      <c r="N54" s="535"/>
+      <c r="O54" s="536"/>
+      <c r="P54" s="534" t="s">
         <v>34</v>
       </c>
-      <c r="Q54" s="532"/>
-      <c r="R54" s="532"/>
-      <c r="S54" s="533"/>
-      <c r="T54" s="534" t="s">
+      <c r="Q54" s="535"/>
+      <c r="R54" s="535"/>
+      <c r="S54" s="536"/>
+      <c r="T54" s="540" t="s">
         <v>68</v>
       </c>
-      <c r="U54" s="535"/>
-      <c r="V54" s="534" t="s">
+      <c r="U54" s="541"/>
+      <c r="V54" s="540" t="s">
         <v>508</v>
       </c>
-      <c r="W54" s="536"/>
-      <c r="X54" s="536"/>
-      <c r="Y54" s="535"/>
+      <c r="W54" s="542"/>
+      <c r="X54" s="542"/>
+      <c r="Y54" s="541"/>
       <c r="Z54" s="373" t="s">
         <v>520</v>
       </c>
@@ -29029,12 +29029,12 @@
         <v>85</v>
       </c>
       <c r="U100" s="539"/>
-      <c r="V100" s="540" t="s">
+      <c r="V100" s="531" t="s">
         <v>86</v>
       </c>
-      <c r="W100" s="541"/>
-      <c r="X100" s="541"/>
-      <c r="Y100" s="542"/>
+      <c r="W100" s="532"/>
+      <c r="X100" s="532"/>
+      <c r="Y100" s="533"/>
       <c r="Z100" s="60"/>
       <c r="AA100" s="60"/>
       <c r="AB100" s="68" t="s">
@@ -29137,34 +29137,34 @@
       <c r="E102" s="38"/>
       <c r="F102" s="38"/>
       <c r="G102" s="39"/>
-      <c r="H102" s="531" t="s">
+      <c r="H102" s="534" t="s">
         <v>34</v>
       </c>
-      <c r="I102" s="532"/>
-      <c r="J102" s="532"/>
-      <c r="K102" s="533"/>
-      <c r="L102" s="532" t="s">
+      <c r="I102" s="535"/>
+      <c r="J102" s="535"/>
+      <c r="K102" s="536"/>
+      <c r="L102" s="535" t="s">
         <v>34</v>
       </c>
-      <c r="M102" s="532"/>
-      <c r="N102" s="532"/>
-      <c r="O102" s="533"/>
-      <c r="P102" s="531" t="s">
+      <c r="M102" s="535"/>
+      <c r="N102" s="535"/>
+      <c r="O102" s="536"/>
+      <c r="P102" s="534" t="s">
         <v>34</v>
       </c>
-      <c r="Q102" s="532"/>
-      <c r="R102" s="532"/>
-      <c r="S102" s="533"/>
-      <c r="T102" s="534" t="s">
+      <c r="Q102" s="535"/>
+      <c r="R102" s="535"/>
+      <c r="S102" s="536"/>
+      <c r="T102" s="540" t="s">
         <v>68</v>
       </c>
-      <c r="U102" s="535"/>
-      <c r="V102" s="534" t="s">
+      <c r="U102" s="541"/>
+      <c r="V102" s="540" t="s">
         <v>508</v>
       </c>
-      <c r="W102" s="536"/>
-      <c r="X102" s="536"/>
-      <c r="Y102" s="535"/>
+      <c r="W102" s="542"/>
+      <c r="X102" s="542"/>
+      <c r="Y102" s="541"/>
       <c r="Z102" s="373" t="s">
         <v>520</v>
       </c>
@@ -32405,7 +32405,7 @@
       </c>
       <c r="AH135" s="88"/>
       <c r="AI135" s="65">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="AJ135" s="88">
         <v>38</v>
@@ -32490,7 +32490,7 @@
       </c>
       <c r="AH136" s="67"/>
       <c r="AI136" s="66">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="AJ136" s="67">
         <v>38</v>
@@ -33127,6 +33127,26 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:O102"/>
+    <mergeCell ref="P102:S102"/>
+    <mergeCell ref="T102:U102"/>
+    <mergeCell ref="V102:Y102"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:O100"/>
+    <mergeCell ref="P100:S100"/>
+    <mergeCell ref="T100:U100"/>
+    <mergeCell ref="V100:Y100"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:O54"/>
+    <mergeCell ref="P54:S54"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="V54:Y54"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="V52:Y52"/>
     <mergeCell ref="V4:Y4"/>
     <mergeCell ref="V6:Y6"/>
     <mergeCell ref="H4:K4"/>
@@ -33137,26 +33157,6 @@
     <mergeCell ref="P6:S6"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="V52:Y52"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="L54:O54"/>
-    <mergeCell ref="P54:S54"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="V54:Y54"/>
-    <mergeCell ref="H100:K100"/>
-    <mergeCell ref="L100:O100"/>
-    <mergeCell ref="P100:S100"/>
-    <mergeCell ref="T100:U100"/>
-    <mergeCell ref="V100:Y100"/>
-    <mergeCell ref="H102:K102"/>
-    <mergeCell ref="L102:O102"/>
-    <mergeCell ref="P102:S102"/>
-    <mergeCell ref="T102:U102"/>
-    <mergeCell ref="V102:Y102"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -33302,12 +33302,12 @@
       <c r="I5" s="127"/>
       <c r="J5" s="127"/>
       <c r="K5" s="127"/>
-      <c r="L5" s="540" t="s">
+      <c r="L5" s="531" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="541"/>
-      <c r="N5" s="541"/>
-      <c r="O5" s="542"/>
+      <c r="M5" s="532"/>
+      <c r="N5" s="532"/>
+      <c r="O5" s="533"/>
       <c r="P5" s="60"/>
       <c r="Q5" s="60" t="s">
         <v>87</v>
@@ -33338,12 +33338,12 @@
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
       <c r="K6" s="37"/>
-      <c r="L6" s="534" t="s">
+      <c r="L6" s="540" t="s">
         <v>508</v>
       </c>
-      <c r="M6" s="536"/>
-      <c r="N6" s="536"/>
-      <c r="O6" s="535"/>
+      <c r="M6" s="542"/>
+      <c r="N6" s="542"/>
+      <c r="O6" s="541"/>
       <c r="P6" s="373" t="s">
         <v>520</v>
       </c>
@@ -34229,23 +34229,23 @@
       <c r="K33" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L33" s="540" t="s">
+      <c r="L33" s="531" t="s">
         <v>86</v>
       </c>
-      <c r="M33" s="541"/>
-      <c r="N33" s="541"/>
-      <c r="O33" s="542"/>
+      <c r="M33" s="532"/>
+      <c r="N33" s="532"/>
+      <c r="O33" s="533"/>
     </row>
     <row r="34" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H34" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="L34" s="534" t="s">
+      <c r="L34" s="540" t="s">
         <v>91</v>
       </c>
-      <c r="M34" s="536"/>
-      <c r="N34" s="536"/>
-      <c r="O34" s="535"/>
+      <c r="M34" s="542"/>
+      <c r="N34" s="542"/>
+      <c r="O34" s="541"/>
     </row>
     <row r="35" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H35" s="3" t="s">
@@ -34592,11 +34592,11 @@
       </c>
       <c r="I4" s="538"/>
       <c r="J4" s="539"/>
-      <c r="K4" s="540" t="s">
+      <c r="K4" s="531" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="541"/>
-      <c r="M4" s="542"/>
+      <c r="L4" s="532"/>
+      <c r="M4" s="533"/>
       <c r="N4" s="60"/>
       <c r="O4" s="60" t="s">
         <v>87</v>
@@ -34622,16 +34622,16 @@
       <c r="G5" s="381" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="546" t="s">
+      <c r="H5" s="543" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="547"/>
-      <c r="J5" s="548"/>
-      <c r="K5" s="546" t="s">
+      <c r="I5" s="544"/>
+      <c r="J5" s="545"/>
+      <c r="K5" s="543" t="s">
         <v>297</v>
       </c>
-      <c r="L5" s="547"/>
-      <c r="M5" s="548"/>
+      <c r="L5" s="544"/>
+      <c r="M5" s="545"/>
       <c r="N5" s="382" t="s">
         <v>92</v>
       </c>
@@ -34648,23 +34648,23 @@
         <v>215</v>
       </c>
       <c r="AA5" s="207"/>
-      <c r="AB5" s="543" t="s">
+      <c r="AB5" s="546" t="s">
         <v>546</v>
       </c>
-      <c r="AC5" s="543"/>
+      <c r="AC5" s="546"/>
       <c r="AD5" s="384"/>
-      <c r="AE5" s="544" t="s">
+      <c r="AE5" s="547" t="s">
         <v>65</v>
       </c>
-      <c r="AF5" s="544"/>
-      <c r="AG5" s="544" t="s">
+      <c r="AF5" s="547"/>
+      <c r="AG5" s="547" t="s">
         <v>547</v>
       </c>
-      <c r="AH5" s="544"/>
-      <c r="AI5" s="545" t="s">
+      <c r="AH5" s="547"/>
+      <c r="AI5" s="548" t="s">
         <v>548</v>
       </c>
-      <c r="AJ5" s="545"/>
+      <c r="AJ5" s="548"/>
     </row>
     <row r="6" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C6" s="428" t="str">
@@ -35402,12 +35402,12 @@
       <c r="K27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L27" s="540" t="s">
+      <c r="L27" s="531" t="s">
         <v>86</v>
       </c>
-      <c r="M27" s="541"/>
-      <c r="N27" s="541"/>
-      <c r="O27" s="542"/>
+      <c r="M27" s="532"/>
+      <c r="N27" s="532"/>
+      <c r="O27" s="533"/>
       <c r="T27" s="209"/>
       <c r="U27" s="209"/>
     </row>
@@ -35415,12 +35415,12 @@
       <c r="J28" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="L28" s="531" t="s">
+      <c r="L28" s="534" t="s">
         <v>91</v>
       </c>
-      <c r="M28" s="532"/>
-      <c r="N28" s="532"/>
-      <c r="O28" s="533"/>
+      <c r="M28" s="535"/>
+      <c r="N28" s="535"/>
+      <c r="O28" s="536"/>
       <c r="T28" s="209"/>
       <c r="U28" s="209"/>
     </row>
@@ -36810,16 +36810,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="L27:O27"/>
     <mergeCell ref="L28:O28"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="K5:M5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="L27:O27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S7" r:id="rId1" xr:uid="{B1EDD63D-40A5-4174-9D28-8666BD314B83}"/>
@@ -37250,103 +37250,103 @@
       <c r="C4" s="279" t="s">
         <v>306</v>
       </c>
-      <c r="D4" s="550" t="s">
+      <c r="D4" s="549" t="s">
         <v>307</v>
       </c>
-      <c r="E4" s="549"/>
-      <c r="F4" s="549"/>
-      <c r="G4" s="549"/>
+      <c r="E4" s="550"/>
+      <c r="F4" s="550"/>
+      <c r="G4" s="550"/>
       <c r="H4" s="551"/>
-      <c r="I4" s="549" t="s">
+      <c r="I4" s="550" t="s">
         <v>308</v>
       </c>
-      <c r="J4" s="549"/>
-      <c r="K4" s="549"/>
-      <c r="L4" s="549"/>
+      <c r="J4" s="550"/>
+      <c r="K4" s="550"/>
+      <c r="L4" s="550"/>
       <c r="M4" s="551"/>
-      <c r="N4" s="549" t="s">
+      <c r="N4" s="550" t="s">
         <v>309</v>
       </c>
-      <c r="O4" s="549"/>
-      <c r="P4" s="549"/>
-      <c r="Q4" s="549"/>
+      <c r="O4" s="550"/>
+      <c r="P4" s="550"/>
+      <c r="Q4" s="550"/>
       <c r="R4" s="551"/>
-      <c r="S4" s="549" t="s">
+      <c r="S4" s="550" t="s">
         <v>310</v>
       </c>
-      <c r="T4" s="549"/>
-      <c r="U4" s="549"/>
-      <c r="V4" s="549"/>
+      <c r="T4" s="550"/>
+      <c r="U4" s="550"/>
+      <c r="V4" s="550"/>
       <c r="W4" s="551"/>
-      <c r="X4" s="549" t="s">
+      <c r="X4" s="550" t="s">
         <v>311</v>
       </c>
-      <c r="Y4" s="549"/>
-      <c r="Z4" s="549"/>
-      <c r="AA4" s="549"/>
+      <c r="Y4" s="550"/>
+      <c r="Z4" s="550"/>
+      <c r="AA4" s="550"/>
       <c r="AB4" s="551"/>
-      <c r="AC4" s="549" t="s">
+      <c r="AC4" s="550" t="s">
         <v>312</v>
       </c>
-      <c r="AD4" s="549"/>
-      <c r="AE4" s="549"/>
-      <c r="AF4" s="549"/>
+      <c r="AD4" s="550"/>
+      <c r="AE4" s="550"/>
+      <c r="AF4" s="550"/>
       <c r="AG4" s="551"/>
-      <c r="AH4" s="549" t="s">
+      <c r="AH4" s="550" t="s">
         <v>313</v>
       </c>
-      <c r="AI4" s="549"/>
-      <c r="AJ4" s="549"/>
-      <c r="AK4" s="549"/>
+      <c r="AI4" s="550"/>
+      <c r="AJ4" s="550"/>
+      <c r="AK4" s="550"/>
       <c r="AL4" s="551"/>
-      <c r="AM4" s="549" t="s">
+      <c r="AM4" s="550" t="s">
         <v>314</v>
       </c>
-      <c r="AN4" s="549"/>
-      <c r="AO4" s="549"/>
-      <c r="AP4" s="549"/>
+      <c r="AN4" s="550"/>
+      <c r="AO4" s="550"/>
+      <c r="AP4" s="550"/>
       <c r="AQ4" s="551"/>
-      <c r="AR4" s="549" t="s">
+      <c r="AR4" s="550" t="s">
         <v>315</v>
       </c>
-      <c r="AS4" s="549"/>
-      <c r="AT4" s="549"/>
-      <c r="AU4" s="549"/>
+      <c r="AS4" s="550"/>
+      <c r="AT4" s="550"/>
+      <c r="AU4" s="550"/>
       <c r="AV4" s="551"/>
-      <c r="AW4" s="549" t="s">
+      <c r="AW4" s="550" t="s">
         <v>316</v>
       </c>
-      <c r="AX4" s="549"/>
-      <c r="AY4" s="549"/>
-      <c r="AZ4" s="549"/>
-      <c r="BA4" s="549"/>
-      <c r="BB4" s="550" t="s">
+      <c r="AX4" s="550"/>
+      <c r="AY4" s="550"/>
+      <c r="AZ4" s="550"/>
+      <c r="BA4" s="550"/>
+      <c r="BB4" s="549" t="s">
         <v>317</v>
       </c>
-      <c r="BC4" s="549"/>
-      <c r="BD4" s="549"/>
-      <c r="BE4" s="549"/>
+      <c r="BC4" s="550"/>
+      <c r="BD4" s="550"/>
+      <c r="BE4" s="550"/>
       <c r="BF4" s="551"/>
-      <c r="BG4" s="549" t="s">
+      <c r="BG4" s="550" t="s">
         <v>318</v>
       </c>
-      <c r="BH4" s="549"/>
-      <c r="BI4" s="549"/>
-      <c r="BJ4" s="549"/>
-      <c r="BK4" s="549"/>
-      <c r="BL4" s="550" t="s">
+      <c r="BH4" s="550"/>
+      <c r="BI4" s="550"/>
+      <c r="BJ4" s="550"/>
+      <c r="BK4" s="550"/>
+      <c r="BL4" s="549" t="s">
         <v>319</v>
       </c>
-      <c r="BM4" s="549"/>
-      <c r="BN4" s="549"/>
-      <c r="BO4" s="549"/>
-      <c r="BP4" s="549"/>
-      <c r="BQ4" s="550" t="s">
+      <c r="BM4" s="550"/>
+      <c r="BN4" s="550"/>
+      <c r="BO4" s="550"/>
+      <c r="BP4" s="550"/>
+      <c r="BQ4" s="549" t="s">
         <v>320</v>
       </c>
-      <c r="BR4" s="549"/>
-      <c r="BS4" s="549"/>
-      <c r="BT4" s="549"/>
+      <c r="BR4" s="550"/>
+      <c r="BS4" s="550"/>
+      <c r="BT4" s="550"/>
       <c r="BU4" s="551"/>
       <c r="BV4" s="280" t="s">
         <v>321</v>
@@ -50940,11 +50940,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="BL4:BP4"/>
-    <mergeCell ref="BQ4:BU4"/>
-    <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="CB4:CF4"/>
-    <mergeCell ref="CG4:CK4"/>
     <mergeCell ref="BG4:BK4"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
@@ -50957,6 +50952,11 @@
     <mergeCell ref="AR4:AV4"/>
     <mergeCell ref="AW4:BA4"/>
     <mergeCell ref="BB4:BF4"/>
+    <mergeCell ref="BL4:BP4"/>
+    <mergeCell ref="BQ4:BU4"/>
+    <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="CB4:CF4"/>
+    <mergeCell ref="CG4:CK4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -50979,23 +50979,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="558" t="s">
+      <c r="A1" s="556" t="s">
         <v>590</v>
       </c>
-      <c r="B1" s="560" t="s">
+      <c r="B1" s="558" t="s">
         <v>591</v>
       </c>
-      <c r="C1" s="561"/>
-      <c r="D1" s="561"/>
-      <c r="E1" s="561"/>
-      <c r="F1" s="562"/>
-      <c r="G1" s="560" t="s">
+      <c r="C1" s="559"/>
+      <c r="D1" s="559"/>
+      <c r="E1" s="559"/>
+      <c r="F1" s="560"/>
+      <c r="G1" s="558" t="s">
         <v>592</v>
       </c>
-      <c r="H1" s="561"/>
-      <c r="I1" s="561"/>
-      <c r="J1" s="561"/>
-      <c r="K1" s="562"/>
+      <c r="H1" s="559"/>
+      <c r="I1" s="559"/>
+      <c r="J1" s="559"/>
+      <c r="K1" s="560"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -51005,7 +51005,7 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="559"/>
+      <c r="A2" s="557"/>
       <c r="B2" s="450" t="s">
         <v>259</v>
       </c>
@@ -52498,11 +52498,11 @@
       <c r="Y48" t="s">
         <v>641</v>
       </c>
-      <c r="Z48" s="556" t="s">
+      <c r="Z48" s="561" t="s">
         <v>579</v>
       </c>
-      <c r="AA48" s="557"/>
-      <c r="AB48" s="557"/>
+      <c r="AA48" s="562"/>
+      <c r="AB48" s="562"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
@@ -52719,11 +52719,11 @@
       <c r="Y53" t="s">
         <v>643</v>
       </c>
-      <c r="Z53" s="556" t="s">
+      <c r="Z53" s="561" t="s">
         <v>578</v>
       </c>
-      <c r="AA53" s="557"/>
-      <c r="AB53" s="557"/>
+      <c r="AA53" s="562"/>
+      <c r="AB53" s="562"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
@@ -52925,11 +52925,11 @@
       <c r="Y59" t="s">
         <v>644</v>
       </c>
-      <c r="Z59" s="556" t="s">
+      <c r="Z59" s="561" t="s">
         <v>645</v>
       </c>
-      <c r="AA59" s="557"/>
-      <c r="AB59" s="557"/>
+      <c r="AA59" s="562"/>
+      <c r="AB59" s="562"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="470" t="str">
@@ -53766,17 +53766,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="Z48:AB48"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="Z48:AB48"/>
   </mergeCells>
   <phoneticPr fontId="54" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF75366F-40F7-4F1C-A487-F8AEA0FD18BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29197B3-356A-403B-A186-A5A53A30FCCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
+    <workbookView xWindow="2850" yWindow="-15150" windowWidth="21600" windowHeight="11385" firstSheet="3" activeTab="3" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="62" r:id="rId1"/>
@@ -13763,6 +13763,15 @@
     <xf numFmtId="0" fontId="37" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -13770,15 +13779,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13790,13 +13790,22 @@
     <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -13808,19 +13817,10 @@
     <xf numFmtId="0" fontId="53" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13838,12 +13838,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -13858,6 +13852,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -20779,7 +20779,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:AS229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H141" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -20970,12 +20970,12 @@
         <v>85</v>
       </c>
       <c r="U4" s="571"/>
-      <c r="V4" s="572" t="s">
+      <c r="V4" s="563" t="s">
         <v>86</v>
       </c>
-      <c r="W4" s="573"/>
-      <c r="X4" s="573"/>
-      <c r="Y4" s="574"/>
+      <c r="W4" s="564"/>
+      <c r="X4" s="564"/>
+      <c r="Y4" s="565"/>
       <c r="Z4" s="60"/>
       <c r="AA4" s="60"/>
       <c r="AB4" s="68" t="s">
@@ -21078,34 +21078,34 @@
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
       <c r="G6" s="39"/>
-      <c r="H6" s="563" t="s">
+      <c r="H6" s="566" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="564"/>
-      <c r="J6" s="564"/>
-      <c r="K6" s="565"/>
-      <c r="L6" s="564" t="s">
+      <c r="I6" s="567"/>
+      <c r="J6" s="567"/>
+      <c r="K6" s="568"/>
+      <c r="L6" s="567" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="564"/>
-      <c r="N6" s="564"/>
-      <c r="O6" s="565"/>
-      <c r="P6" s="563" t="s">
+      <c r="M6" s="567"/>
+      <c r="N6" s="567"/>
+      <c r="O6" s="568"/>
+      <c r="P6" s="566" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="564"/>
-      <c r="R6" s="564"/>
-      <c r="S6" s="565"/>
-      <c r="T6" s="563" t="s">
+      <c r="Q6" s="567"/>
+      <c r="R6" s="567"/>
+      <c r="S6" s="568"/>
+      <c r="T6" s="566" t="s">
         <v>68</v>
       </c>
-      <c r="U6" s="565"/>
-      <c r="V6" s="563" t="s">
+      <c r="U6" s="568"/>
+      <c r="V6" s="566" t="s">
         <v>503</v>
       </c>
-      <c r="W6" s="564"/>
-      <c r="X6" s="564"/>
-      <c r="Y6" s="565"/>
+      <c r="W6" s="567"/>
+      <c r="X6" s="567"/>
+      <c r="Y6" s="568"/>
       <c r="Z6" s="521" t="s">
         <v>515</v>
       </c>
@@ -24181,11 +24181,11 @@
       </c>
       <c r="AL36" s="206"/>
       <c r="AM36" s="206" t="str">
-        <f>C38</f>
+        <f t="shared" ref="AM36:AN41" si="51">C38</f>
         <v>R-HC_Apt_ELC_HPN2-AB</v>
       </c>
       <c r="AN36" s="206" t="str">
-        <f>D38</f>
+        <f t="shared" si="51"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC - AB rated dwelling</v>
       </c>
       <c r="AO36" s="100" t="s">
@@ -24250,15 +24250,15 @@
         <v>20.039963448065794</v>
       </c>
       <c r="W37" s="26">
-        <f t="shared" ref="W37:Y37" si="51">W25/$V$20*$V$32</f>
+        <f t="shared" ref="W37:Y37" si="52">W25/$V$20*$V$32</f>
         <v>18.821106305208652</v>
       </c>
       <c r="X37" s="26">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>17.711946305208652</v>
       </c>
       <c r="Y37" s="59">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>17.602249162351509</v>
       </c>
       <c r="Z37" s="64">
@@ -24284,11 +24284,11 @@
       </c>
       <c r="AL37" s="206"/>
       <c r="AM37" s="206" t="str">
-        <f>C39</f>
+        <f t="shared" si="51"/>
         <v>R-HC_Apt_ELC_HPN2-C</v>
       </c>
       <c r="AN37" s="206" t="str">
-        <f>D39</f>
+        <f t="shared" si="51"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC - C rated dwelling</v>
       </c>
       <c r="AO37" s="100" t="s">
@@ -24398,11 +24398,11 @@
       </c>
       <c r="AL38" s="206"/>
       <c r="AM38" s="206" t="str">
-        <f>C40</f>
+        <f t="shared" si="51"/>
         <v>R-HC_Apt_ELC_HPN2-D</v>
       </c>
       <c r="AN38" s="206" t="str">
-        <f>D40</f>
+        <f t="shared" si="51"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC - D rated dwelling</v>
       </c>
       <c r="AO38" s="100" t="s">
@@ -24473,19 +24473,19 @@
       </c>
       <c r="U39" s="57"/>
       <c r="V39" s="22">
-        <f>V27/$V$20*$V$38</f>
+        <f t="shared" ref="V39:Y43" si="53">V27/$V$20*$V$38</f>
         <v>17.443073447024759</v>
       </c>
       <c r="W39" s="23">
-        <f>W27/$V$20*$V$38</f>
+        <f t="shared" si="53"/>
         <v>16.203558076319517</v>
       </c>
       <c r="X39" s="23">
-        <f>X27/$V$20*$V$38</f>
+        <f t="shared" si="53"/>
         <v>15.075599088977745</v>
       </c>
       <c r="Y39" s="57">
-        <f>Y27/$V$20*$V$38</f>
+        <f t="shared" si="53"/>
         <v>14.964042705614274</v>
       </c>
       <c r="Z39" s="63">
@@ -24499,7 +24499,7 @@
       <c r="AE39" s="72"/>
       <c r="AF39" s="44"/>
       <c r="AG39" s="63">
-        <f t="shared" ref="AG39:AG43" si="52">31.536*(AJ39/1000)</f>
+        <f t="shared" ref="AG39:AG43" si="54">31.536*(AJ39/1000)</f>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH39" s="66"/>
@@ -24511,11 +24511,11 @@
       </c>
       <c r="AL39" s="206"/>
       <c r="AM39" s="206" t="str">
-        <f>C41</f>
+        <f t="shared" si="51"/>
         <v>R-HC_Apt_ELC_HPN2-E</v>
       </c>
       <c r="AN39" s="206" t="str">
-        <f>D41</f>
+        <f t="shared" si="51"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC - E rated dwelling</v>
       </c>
       <c r="AO39" s="100" t="s">
@@ -24587,19 +24587,19 @@
       </c>
       <c r="U40" s="58"/>
       <c r="V40" s="40">
-        <f>V28/$V$20*$V$38</f>
+        <f t="shared" si="53"/>
         <v>17.626607468984194</v>
       </c>
       <c r="W40" s="29">
-        <f>W28/$V$20*$V$38</f>
+        <f t="shared" si="53"/>
         <v>16.387092098278952</v>
       </c>
       <c r="X40" s="29">
-        <f>X28/$V$20*$V$38</f>
+        <f t="shared" si="53"/>
         <v>15.259133110937181</v>
       </c>
       <c r="Y40" s="58">
-        <f>Y28/$V$20*$V$38</f>
+        <f t="shared" si="53"/>
         <v>15.147576727573711</v>
       </c>
       <c r="Z40" s="62">
@@ -24613,7 +24613,7 @@
       <c r="AE40" s="71"/>
       <c r="AF40" s="42"/>
       <c r="AG40" s="62">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH40" s="65"/>
@@ -24625,11 +24625,11 @@
       </c>
       <c r="AL40" s="206"/>
       <c r="AM40" s="206" t="str">
-        <f>C42</f>
+        <f t="shared" si="51"/>
         <v>R-HC_Apt_ELC_HPN2-F</v>
       </c>
       <c r="AN40" s="206" t="str">
-        <f>D42</f>
+        <f t="shared" si="51"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC - F rated dwelling</v>
       </c>
       <c r="AO40" s="100" t="s">
@@ -24700,19 +24700,19 @@
       </c>
       <c r="U41" s="57"/>
       <c r="V41" s="22">
-        <f>V29/$V$20*$V$38</f>
+        <f t="shared" si="53"/>
         <v>18.544277578781376</v>
       </c>
       <c r="W41" s="23">
-        <f>W29/$V$20*$V$38</f>
+        <f t="shared" si="53"/>
         <v>17.304762208076127</v>
       </c>
       <c r="X41" s="23">
-        <f>X29/$V$20*$V$38</f>
+        <f t="shared" si="53"/>
         <v>16.17680322073436</v>
       </c>
       <c r="Y41" s="57">
-        <f>Y29/$V$20*$V$38</f>
+        <f t="shared" si="53"/>
         <v>16.065246837370889</v>
       </c>
       <c r="Z41" s="63">
@@ -24726,7 +24726,7 @@
       <c r="AE41" s="72"/>
       <c r="AF41" s="44"/>
       <c r="AG41" s="63">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH41" s="66"/>
@@ -24738,11 +24738,11 @@
       </c>
       <c r="AL41" s="206"/>
       <c r="AM41" s="206" t="str">
-        <f>C43</f>
+        <f t="shared" si="51"/>
         <v>R-HC_Apt_ELC_HPN2-G</v>
       </c>
       <c r="AN41" s="206" t="str">
-        <f>D43</f>
+        <f t="shared" si="51"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC - G rated dwelling</v>
       </c>
       <c r="AO41" s="100" t="s">
@@ -24813,19 +24813,19 @@
       </c>
       <c r="U42" s="58"/>
       <c r="V42" s="40">
-        <f>V30/$V$20*$V$38</f>
+        <f t="shared" si="53"/>
         <v>19.461947688578555</v>
       </c>
       <c r="W42" s="29">
-        <f>W30/$V$20*$V$38</f>
+        <f t="shared" si="53"/>
         <v>18.222432317873306</v>
       </c>
       <c r="X42" s="29">
-        <f>X30/$V$20*$V$38</f>
+        <f t="shared" si="53"/>
         <v>17.094473330531539</v>
       </c>
       <c r="Y42" s="58">
-        <f>Y30/$V$20*$V$38</f>
+        <f t="shared" si="53"/>
         <v>16.982916947168064</v>
       </c>
       <c r="Z42" s="62">
@@ -24839,7 +24839,7 @@
       <c r="AE42" s="71"/>
       <c r="AF42" s="42"/>
       <c r="AG42" s="62">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH42" s="65"/>
@@ -24926,19 +24926,19 @@
       </c>
       <c r="U43" s="59"/>
       <c r="V43" s="246">
-        <f>V31/$V$20*$V$38</f>
+        <f t="shared" si="53"/>
         <v>20.37961779837573</v>
       </c>
       <c r="W43" s="26">
-        <f>W31/$V$20*$V$38</f>
+        <f t="shared" si="53"/>
         <v>19.140102427670488</v>
       </c>
       <c r="X43" s="26">
-        <f>X31/$V$20*$V$38</f>
+        <f t="shared" si="53"/>
         <v>18.012143440328718</v>
       </c>
       <c r="Y43" s="59">
-        <f>Y31/$V$20*$V$38</f>
+        <f t="shared" si="53"/>
         <v>17.900587056965243</v>
       </c>
       <c r="Z43" s="64">
@@ -24952,7 +24952,7 @@
       <c r="AE43" s="515"/>
       <c r="AF43" s="49"/>
       <c r="AG43" s="64">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH43" s="67"/>
@@ -25081,15 +25081,15 @@
         <v>1.1666666666666667</v>
       </c>
       <c r="Q45" s="20">
-        <f t="shared" ref="Q45:S45" si="53">I45*0.7</f>
+        <f t="shared" ref="Q45:S45" si="55">I45*0.7</f>
         <v>1.2530864197530862</v>
       </c>
       <c r="R45" s="20">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1.4691358024691357</v>
       </c>
       <c r="S45" s="56">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1.4691358024691357</v>
       </c>
       <c r="T45" s="88">
@@ -25123,7 +25123,7 @@
       <c r="AE45" s="84"/>
       <c r="AF45" s="84"/>
       <c r="AG45" s="84">
-        <f t="shared" ref="AG45:AG46" si="54">31.536*(AJ45/1000)</f>
+        <f t="shared" ref="AG45:AG46" si="56">31.536*(AJ45/1000)</f>
         <v>0.56764799999999993</v>
       </c>
       <c r="AH45" s="87"/>
@@ -25195,15 +25195,15 @@
         <v>1.1666666666666665</v>
       </c>
       <c r="Q46" s="26">
-        <f t="shared" ref="Q46" si="55">I46*0.7</f>
+        <f t="shared" ref="Q46" si="57">I46*0.7</f>
         <v>1.2055555555555555</v>
       </c>
       <c r="R46" s="26">
-        <f t="shared" ref="R46" si="56">J46*0.7</f>
+        <f t="shared" ref="R46" si="58">J46*0.7</f>
         <v>1.2055555555555555</v>
       </c>
       <c r="S46" s="59">
-        <f t="shared" ref="S46" si="57">K46*0.7</f>
+        <f t="shared" ref="S46" si="59">K46*0.7</f>
         <v>1.2444444444444445</v>
       </c>
       <c r="T46" s="27">
@@ -25237,7 +25237,7 @@
       <c r="AE46" s="64"/>
       <c r="AF46" s="64"/>
       <c r="AG46" s="64">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.56764799999999993</v>
       </c>
       <c r="AH46" s="67"/>
@@ -25370,11 +25370,11 @@
         <v>2.4464999999999999</v>
       </c>
       <c r="R48" s="26">
-        <f t="shared" ref="R48:S48" si="58">J48*0.7</f>
+        <f t="shared" ref="R48:S48" si="60">J48*0.7</f>
         <v>2.625</v>
       </c>
       <c r="S48" s="59">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>2.625</v>
       </c>
       <c r="T48" s="250">
@@ -25580,7 +25580,7 @@
       <c r="AE50" s="84"/>
       <c r="AF50" s="84"/>
       <c r="AG50" s="84">
-        <f t="shared" ref="AG50:AG51" si="59">31.536*(AJ50/1000)</f>
+        <f t="shared" ref="AG50:AG51" si="61">31.536*(AJ50/1000)</f>
         <v>0.56764799999999993</v>
       </c>
       <c r="AH50" s="87"/>
@@ -25683,7 +25683,7 @@
       <c r="AE51" s="63"/>
       <c r="AF51" s="63"/>
       <c r="AG51" s="64">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0.56764799999999993</v>
       </c>
       <c r="AH51" s="67"/>
@@ -25798,7 +25798,7 @@
       <c r="AE53" s="84"/>
       <c r="AF53" s="84"/>
       <c r="AG53" s="84">
-        <f t="shared" ref="AG53:AG54" si="60">31.536*(AJ53/1000)</f>
+        <f t="shared" ref="AG53:AG54" si="62">31.536*(AJ53/1000)</f>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH53" s="87"/>
@@ -25877,7 +25877,7 @@
       <c r="AE54" s="63"/>
       <c r="AF54" s="63"/>
       <c r="AG54" s="63">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH54" s="66"/>
@@ -25995,7 +25995,7 @@
       <c r="AE56" s="84"/>
       <c r="AF56" s="84"/>
       <c r="AG56" s="84">
-        <f t="shared" ref="AG56:AG57" si="61">31.536*(AJ56/1000)</f>
+        <f t="shared" ref="AG56:AG57" si="63">31.536*(AJ56/1000)</f>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH56" s="87"/>
@@ -26075,7 +26075,7 @@
       <c r="AE57" s="64"/>
       <c r="AF57" s="64"/>
       <c r="AG57" s="64">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH57" s="67"/>
@@ -26318,12 +26318,12 @@
         <v>85</v>
       </c>
       <c r="U62" s="571"/>
-      <c r="V62" s="572" t="s">
+      <c r="V62" s="563" t="s">
         <v>86</v>
       </c>
-      <c r="W62" s="573"/>
-      <c r="X62" s="573"/>
-      <c r="Y62" s="574"/>
+      <c r="W62" s="564"/>
+      <c r="X62" s="564"/>
+      <c r="Y62" s="565"/>
       <c r="Z62" s="60"/>
       <c r="AA62" s="60"/>
       <c r="AB62" s="68" t="s">
@@ -26426,34 +26426,34 @@
       <c r="E64" s="38"/>
       <c r="F64" s="38"/>
       <c r="G64" s="39"/>
-      <c r="H64" s="563" t="s">
+      <c r="H64" s="566" t="s">
         <v>34</v>
       </c>
-      <c r="I64" s="564"/>
-      <c r="J64" s="564"/>
-      <c r="K64" s="565"/>
-      <c r="L64" s="564" t="s">
+      <c r="I64" s="567"/>
+      <c r="J64" s="567"/>
+      <c r="K64" s="568"/>
+      <c r="L64" s="567" t="s">
         <v>34</v>
       </c>
-      <c r="M64" s="564"/>
-      <c r="N64" s="564"/>
-      <c r="O64" s="565"/>
-      <c r="P64" s="563" t="s">
+      <c r="M64" s="567"/>
+      <c r="N64" s="567"/>
+      <c r="O64" s="568"/>
+      <c r="P64" s="566" t="s">
         <v>34</v>
       </c>
-      <c r="Q64" s="564"/>
-      <c r="R64" s="564"/>
-      <c r="S64" s="565"/>
-      <c r="T64" s="566" t="s">
+      <c r="Q64" s="567"/>
+      <c r="R64" s="567"/>
+      <c r="S64" s="568"/>
+      <c r="T64" s="572" t="s">
         <v>68</v>
       </c>
-      <c r="U64" s="567"/>
-      <c r="V64" s="566" t="s">
+      <c r="U64" s="573"/>
+      <c r="V64" s="572" t="s">
         <v>503</v>
       </c>
-      <c r="W64" s="568"/>
-      <c r="X64" s="568"/>
-      <c r="Y64" s="567"/>
+      <c r="W64" s="574"/>
+      <c r="X64" s="574"/>
+      <c r="Y64" s="573"/>
       <c r="Z64" s="367" t="s">
         <v>515</v>
       </c>
@@ -26549,15 +26549,15 @@
         <v>4.2250000000000005</v>
       </c>
       <c r="W65" s="373">
-        <f t="shared" ref="W65:Y65" si="62">W69*1.3</f>
+        <f t="shared" ref="W65:Y65" si="64">W69*1.3</f>
         <v>4.2250000000000005</v>
       </c>
       <c r="X65" s="373">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>4.2250000000000005</v>
       </c>
       <c r="Y65" s="373">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>4.2250000000000005</v>
       </c>
       <c r="Z65" s="373">
@@ -26570,7 +26570,7 @@
       <c r="AE65" s="71"/>
       <c r="AF65" s="71"/>
       <c r="AG65" s="62">
-        <f t="shared" ref="AG65:AG128" si="63">31.536*(AJ65/1000)</f>
+        <f t="shared" ref="AG65:AG128" si="65">31.536*(AJ65/1000)</f>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH65" s="65"/>
@@ -26584,11 +26584,11 @@
         <v>31</v>
       </c>
       <c r="AM65" s="99" t="str">
-        <f t="shared" ref="AM65:AM76" si="64">C65</f>
+        <f t="shared" ref="AM65:AM76" si="66">C65</f>
         <v>R-SH_Att_KER_N1</v>
       </c>
       <c r="AN65" s="99" t="str">
-        <f t="shared" ref="AN65:AN76" si="65">D65</f>
+        <f t="shared" ref="AN65:AN76" si="67">D65</f>
         <v>Residential Kerosene Heating Oil - New 1 SH</v>
       </c>
       <c r="AO65" s="100" t="s">
@@ -26638,15 +26638,15 @@
         <v>0.7</v>
       </c>
       <c r="Q66" s="23">
-        <f t="shared" ref="Q66:Q68" si="66">I66*0.7</f>
+        <f t="shared" ref="Q66:Q68" si="68">I66*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R66" s="23">
-        <f t="shared" ref="R66:R68" si="67">J66*0.7</f>
+        <f t="shared" ref="R66:R68" si="69">J66*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S66" s="57">
-        <f t="shared" ref="S66:S68" si="68">K66*0.7</f>
+        <f t="shared" ref="S66:S68" si="70">K66*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T66" s="53">
@@ -26658,15 +26658,15 @@
         <v>4.2773760330578519</v>
       </c>
       <c r="W66" s="374">
-        <f t="shared" ref="W66:Y66" si="69">W70*1.3</f>
+        <f t="shared" ref="W66:Y66" si="71">W70*1.3</f>
         <v>4.2773760330578519</v>
       </c>
       <c r="X66" s="374">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>4.2773760330578519</v>
       </c>
       <c r="Y66" s="374">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>4.2773760330578519</v>
       </c>
       <c r="Z66" s="374">
@@ -26679,7 +26679,7 @@
       <c r="AE66" s="72"/>
       <c r="AF66" s="72"/>
       <c r="AG66" s="63">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH66" s="66"/>
@@ -26691,11 +26691,11 @@
       </c>
       <c r="AL66" s="100"/>
       <c r="AM66" s="99" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>R-SW_Att_KER_N1</v>
       </c>
       <c r="AN66" s="99" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>Residential Kerosene Heating Oil - New 2 SH + WH</v>
       </c>
       <c r="AO66" s="100" t="s">
@@ -26745,15 +26745,15 @@
         <v>0.7</v>
       </c>
       <c r="Q67" s="29">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0.7</v>
       </c>
       <c r="R67" s="29">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0.7</v>
       </c>
       <c r="S67" s="58">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0.7</v>
       </c>
       <c r="T67" s="54">
@@ -26791,7 +26791,7 @@
         <v>5</v>
       </c>
       <c r="AG67" s="62">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH67" s="65"/>
@@ -26803,11 +26803,11 @@
       </c>
       <c r="AL67" s="100"/>
       <c r="AM67" s="99" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>R-SW_Att_KER_N2</v>
       </c>
       <c r="AN67" s="99" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Solar</v>
       </c>
       <c r="AO67" s="100" t="s">
@@ -26857,15 +26857,15 @@
         <v>0.7</v>
       </c>
       <c r="Q68" s="23">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="R68" s="23">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="S68" s="57">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="T68" s="53">
@@ -26915,11 +26915,11 @@
       </c>
       <c r="AL68" s="100"/>
       <c r="AM68" s="99" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>R-SW_Att_KER_N3</v>
       </c>
       <c r="AN68" s="99" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Wood Stove</v>
       </c>
       <c r="AO68" s="101" t="s">
@@ -26975,15 +26975,15 @@
         <v>3.25</v>
       </c>
       <c r="W69" s="373">
-        <f t="shared" ref="W69:Y69" si="70">3.25</f>
+        <f t="shared" ref="W69:Y69" si="72">3.25</f>
         <v>3.25</v>
       </c>
       <c r="X69" s="373">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>3.25</v>
       </c>
       <c r="Y69" s="373">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>3.25</v>
       </c>
       <c r="Z69" s="373">
@@ -26996,7 +26996,7 @@
       <c r="AE69" s="71"/>
       <c r="AF69" s="71"/>
       <c r="AG69" s="62">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH69" s="65"/>
@@ -27008,11 +27008,11 @@
       </c>
       <c r="AL69" s="100"/>
       <c r="AM69" s="99" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>R-SH_Att_GAS_N1</v>
       </c>
       <c r="AN69" s="99" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>Residential Natural Gas Heating - New 1 SH</v>
       </c>
       <c r="AO69" s="100" t="s">
@@ -27062,15 +27062,15 @@
         <v>0.7</v>
       </c>
       <c r="Q70" s="23">
-        <f t="shared" ref="Q70:Q72" si="71">I70*0.7</f>
+        <f t="shared" ref="Q70:Q72" si="73">I70*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R70" s="23">
-        <f t="shared" ref="R70:R72" si="72">J70*0.7</f>
+        <f t="shared" ref="R70:R72" si="74">J70*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S70" s="57">
-        <f t="shared" ref="S70:S72" si="73">K70*0.7</f>
+        <f t="shared" ref="S70:S72" si="75">K70*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T70" s="53">
@@ -27103,7 +27103,7 @@
       <c r="AE70" s="72"/>
       <c r="AF70" s="72"/>
       <c r="AG70" s="63">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH70" s="66"/>
@@ -27115,11 +27115,11 @@
       </c>
       <c r="AL70" s="100"/>
       <c r="AM70" s="99" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>R-SW_Att_GAS_N1</v>
       </c>
       <c r="AN70" s="99" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>Residential Natural Gas Heating - New 2 SH + WH</v>
       </c>
       <c r="AO70" s="100" t="s">
@@ -27169,15 +27169,15 @@
         <v>0.7</v>
       </c>
       <c r="Q71" s="29">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>0.7</v>
       </c>
       <c r="R71" s="29">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>0.7</v>
       </c>
       <c r="S71" s="58">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>0.7</v>
       </c>
       <c r="T71" s="54">
@@ -27213,7 +27213,7 @@
         <v>5</v>
       </c>
       <c r="AG71" s="62">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH71" s="65"/>
@@ -27225,11 +27225,11 @@
       </c>
       <c r="AL71" s="100"/>
       <c r="AM71" s="99" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>R-SW_Att_GAS_N2</v>
       </c>
       <c r="AN71" s="99" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>Residential Natural Gas Heating - New 3 SH + WH + Solar</v>
       </c>
       <c r="AO71" s="100" t="s">
@@ -27279,15 +27279,15 @@
         <v>0.7</v>
       </c>
       <c r="Q72" s="23">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="R72" s="23">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="S72" s="57">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="T72" s="53">
@@ -27325,7 +27325,7 @@
         <v>5</v>
       </c>
       <c r="AG72" s="63">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH72" s="66"/>
@@ -27337,11 +27337,11 @@
       </c>
       <c r="AL72" s="100"/>
       <c r="AM72" s="99" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>R-SW_Att_GAS_N3</v>
       </c>
       <c r="AN72" s="99" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>Residential Natural Gas Heating - New 4 SH + WH + Wood Stove</v>
       </c>
       <c r="AO72" s="100" t="s">
@@ -27421,7 +27421,7 @@
       <c r="AE73" s="71"/>
       <c r="AF73" s="71"/>
       <c r="AG73" s="62">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH73" s="65"/>
@@ -27433,11 +27433,11 @@
       </c>
       <c r="AL73" s="100"/>
       <c r="AM73" s="99" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>R-SH_Att_LPG_N1</v>
       </c>
       <c r="AN73" s="99" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>Residential Liquid Petroleum Gas- New 1 SH</v>
       </c>
       <c r="AO73" s="100" t="s">
@@ -27487,15 +27487,15 @@
         <v>0.7</v>
       </c>
       <c r="Q74" s="23">
-        <f t="shared" ref="Q74" si="74">I74*0.7</f>
+        <f t="shared" ref="Q74" si="76">I74*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R74" s="23">
-        <f t="shared" ref="R74" si="75">J74*0.7</f>
+        <f t="shared" ref="R74" si="77">J74*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S74" s="57">
-        <f t="shared" ref="S74" si="76">K74*0.7</f>
+        <f t="shared" ref="S74" si="78">K74*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T74" s="53">
@@ -27529,7 +27529,7 @@
       <c r="AE74" s="72"/>
       <c r="AF74" s="72"/>
       <c r="AG74" s="63">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH74" s="66"/>
@@ -27541,11 +27541,11 @@
       </c>
       <c r="AL74" s="100"/>
       <c r="AM74" s="206" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>R-SW_Att_LPG_N1</v>
       </c>
       <c r="AN74" s="206" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>Residential Liquid Petroleum Gas- New 2 SH + WH</v>
       </c>
       <c r="AO74" s="100" t="s">
@@ -27623,7 +27623,7 @@
       <c r="AE75" s="71"/>
       <c r="AF75" s="71"/>
       <c r="AG75" s="62">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH75" s="65"/>
@@ -27635,11 +27635,11 @@
       </c>
       <c r="AL75" s="100"/>
       <c r="AM75" s="206" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>R-SH_Att_WOO_N1</v>
       </c>
       <c r="AN75" s="206" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>Residential Biomass Boiler - New 1 SH</v>
       </c>
       <c r="AO75" s="100" t="s">
@@ -27685,19 +27685,19 @@
       <c r="N76" s="32"/>
       <c r="O76" s="45"/>
       <c r="P76" s="22">
-        <f t="shared" ref="P76:S80" si="77">H76*0.7</f>
+        <f t="shared" ref="P76:S80" si="79">H76*0.7</f>
         <v>0.7</v>
       </c>
       <c r="Q76" s="23">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>0.7</v>
       </c>
       <c r="R76" s="23">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>0.7</v>
       </c>
       <c r="S76" s="57">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>0.7</v>
       </c>
       <c r="T76" s="53">
@@ -27730,7 +27730,7 @@
       <c r="AE76" s="72"/>
       <c r="AF76" s="72"/>
       <c r="AG76" s="63">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH76" s="66"/>
@@ -27742,11 +27742,11 @@
       </c>
       <c r="AL76" s="100"/>
       <c r="AM76" s="206" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>R-SW_Att_WOO_N1</v>
       </c>
       <c r="AN76" s="206" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>Residential Biomass Boiler - New 2 SH + WH</v>
       </c>
       <c r="AO76" s="100" t="s">
@@ -27825,7 +27825,7 @@
       <c r="AE77" s="72"/>
       <c r="AF77" s="72"/>
       <c r="AG77" s="63">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH77" s="66"/>
@@ -27884,19 +27884,19 @@
       <c r="N78" s="32"/>
       <c r="O78" s="45"/>
       <c r="P78" s="22">
-        <f t="shared" ref="P78" si="78">H78*0.7</f>
+        <f t="shared" ref="P78" si="80">H78*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="Q78" s="23">
-        <f t="shared" ref="Q78" si="79">I78*0.7</f>
+        <f t="shared" ref="Q78" si="81">I78*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="R78" s="23">
-        <f t="shared" ref="R78" si="80">J78*0.7</f>
+        <f t="shared" ref="R78" si="82">J78*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="S78" s="57">
-        <f t="shared" ref="S78" si="81">K78*0.7</f>
+        <f t="shared" ref="S78" si="83">K78*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="T78" s="53">
@@ -27929,7 +27929,7 @@
       <c r="AE78" s="72"/>
       <c r="AF78" s="72"/>
       <c r="AG78" s="63">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH78" s="66"/>
@@ -27999,19 +27999,19 @@
         <v>4.2250000000000005</v>
       </c>
       <c r="W79" s="62">
-        <f t="shared" ref="W79:Z80" si="82">W65</f>
+        <f t="shared" ref="W79:Z80" si="84">W65</f>
         <v>4.2250000000000005</v>
       </c>
       <c r="X79" s="62">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>4.2250000000000005</v>
       </c>
       <c r="Y79" s="62">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>4.2250000000000005</v>
       </c>
       <c r="Z79" s="62">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>0.12</v>
       </c>
       <c r="AA79" s="65"/>
@@ -28082,19 +28082,19 @@
       <c r="N80" s="50"/>
       <c r="O80" s="51"/>
       <c r="P80" s="246">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="Q80" s="26">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="R80" s="26">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="S80" s="59">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="T80" s="55">
@@ -28106,19 +28106,19 @@
         <v>4.2773760330578519</v>
       </c>
       <c r="W80" s="62">
-        <f t="shared" ref="W80:Y80" si="83">W66</f>
+        <f t="shared" ref="W80:Y80" si="85">W66</f>
         <v>4.2773760330578519</v>
       </c>
       <c r="X80" s="62">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>4.2773760330578519</v>
       </c>
       <c r="Y80" s="62">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>4.2773760330578519</v>
       </c>
       <c r="Z80" s="62">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>0.12</v>
       </c>
       <c r="AA80" s="66"/>
@@ -28128,7 +28128,7 @@
       <c r="AE80" s="72"/>
       <c r="AF80" s="72"/>
       <c r="AG80" s="63">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH80" s="67"/>
@@ -28281,7 +28281,7 @@
       <c r="AE82" s="83"/>
       <c r="AF82" s="83"/>
       <c r="AG82" s="81">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH82" s="82"/>
@@ -28293,11 +28293,11 @@
       </c>
       <c r="AL82" s="100"/>
       <c r="AM82" s="206" t="str">
-        <f t="shared" ref="AM82:AN97" si="84">C84</f>
+        <f t="shared" ref="AM82:AN97" si="86">C84</f>
         <v>R-SH_Att_ELC_HPN1</v>
       </c>
       <c r="AN82" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>Residential Electric Heat Pump - Air to Air - SH</v>
       </c>
       <c r="AO82" s="100" t="s">
@@ -28350,11 +28350,11 @@
       <c r="AJ83" s="34"/>
       <c r="AL83" s="100"/>
       <c r="AM83" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>R-HC_Att_ELC_HPN1</v>
       </c>
       <c r="AN83" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>Residential Electric Heat Pump - Air to Air - SH + SC</v>
       </c>
       <c r="AO83" s="100" t="s">
@@ -28439,7 +28439,7 @@
       <c r="AE84" s="84"/>
       <c r="AF84" s="20"/>
       <c r="AG84" s="84">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.220752</v>
       </c>
       <c r="AH84" s="88"/>
@@ -28451,11 +28451,11 @@
       </c>
       <c r="AL84" s="100"/>
       <c r="AM84" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>R-SH_Att_ELC_HPN2-AB</v>
       </c>
       <c r="AN84" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>Residential Electric Heat Pump - Air to Water - SH - AB rated dwelling</v>
       </c>
       <c r="AO84" s="100" t="s">
@@ -28551,7 +28551,7 @@
       <c r="AE85" s="64"/>
       <c r="AF85" s="26"/>
       <c r="AG85" s="64">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH85" s="27"/>
@@ -28563,11 +28563,11 @@
       </c>
       <c r="AL85" s="100"/>
       <c r="AM85" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>R-SH_Att_ELC_HPN2-C</v>
       </c>
       <c r="AN85" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>Residential Electric Heat Pump - Air to Water - SH - C rated dwelling</v>
       </c>
       <c r="AO85" s="100" t="s">
@@ -28651,7 +28651,7 @@
       <c r="AE86" s="254"/>
       <c r="AF86" s="46"/>
       <c r="AG86" s="84">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.220752</v>
       </c>
       <c r="AH86" s="87"/>
@@ -28663,11 +28663,11 @@
       </c>
       <c r="AL86" s="100"/>
       <c r="AM86" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>R-SH_Att_ELC_HPN2-D</v>
       </c>
       <c r="AN86" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>Residential Electric Heat Pump - Air to Water - SH - Drated dwelling</v>
       </c>
       <c r="AO86" s="100" t="s">
@@ -28727,19 +28727,19 @@
       </c>
       <c r="U87" s="23"/>
       <c r="V87" s="22">
-        <f>V21/$V$20*$V$86</f>
+        <f t="shared" ref="V87:Y91" si="87">V21/$V$20*$V$86</f>
         <v>10.803454157782514</v>
       </c>
       <c r="W87" s="23">
-        <f>W21/$V$20*$V$86</f>
+        <f t="shared" si="87"/>
         <v>10.035754157782517</v>
       </c>
       <c r="X87" s="23">
-        <f>X21/$V$20*$V$86</f>
+        <f t="shared" si="87"/>
         <v>9.3371471577825158</v>
       </c>
       <c r="Y87" s="57">
-        <f>Y21/$V$20*$V$86</f>
+        <f t="shared" si="87"/>
         <v>9.2680541577825153</v>
       </c>
       <c r="Z87" s="63">
@@ -28752,7 +28752,7 @@
       <c r="AE87" s="72"/>
       <c r="AF87" s="44"/>
       <c r="AG87" s="63">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.220752</v>
       </c>
       <c r="AH87" s="66"/>
@@ -28764,11 +28764,11 @@
       </c>
       <c r="AL87" s="100"/>
       <c r="AM87" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>R-SH_Att_ELC_HPN2-E</v>
       </c>
       <c r="AN87" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>Residential Electric Heat Pump - Air to Water - SH - E rated dwelling</v>
       </c>
       <c r="AO87" s="100" t="s">
@@ -28828,19 +28828,19 @@
       </c>
       <c r="U88" s="29"/>
       <c r="V88" s="40">
-        <f>V22/$V$20*$V$86</f>
+        <f t="shared" si="87"/>
         <v>10.917126865671641</v>
       </c>
       <c r="W88" s="29">
-        <f>W22/$V$20*$V$86</f>
+        <f t="shared" si="87"/>
         <v>10.149426865671641</v>
       </c>
       <c r="X88" s="29">
-        <f>X22/$V$20*$V$86</f>
+        <f t="shared" si="87"/>
         <v>9.450819865671642</v>
       </c>
       <c r="Y88" s="58">
-        <f>Y22/$V$20*$V$86</f>
+        <f t="shared" si="87"/>
         <v>9.3817268656716415</v>
       </c>
       <c r="Z88" s="62">
@@ -28853,7 +28853,7 @@
       <c r="AE88" s="71"/>
       <c r="AF88" s="42"/>
       <c r="AG88" s="62">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.220752</v>
       </c>
       <c r="AH88" s="65"/>
@@ -28865,11 +28865,11 @@
       </c>
       <c r="AL88" s="100"/>
       <c r="AM88" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>R-SH_Att_ELC_HPN2-F</v>
       </c>
       <c r="AN88" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>Residential Electric Heat Pump - Air to Water - SH - F rated dwelling</v>
       </c>
       <c r="AO88" s="100" t="s">
@@ -28929,19 +28929,19 @@
       </c>
       <c r="U89" s="23"/>
       <c r="V89" s="22">
-        <f>V23/$V$20*$V$86</f>
+        <f t="shared" si="87"/>
         <v>11.48549040511727</v>
       </c>
       <c r="W89" s="23">
-        <f>W23/$V$20*$V$86</f>
+        <f t="shared" si="87"/>
         <v>10.71779040511727</v>
       </c>
       <c r="X89" s="23">
-        <f>X23/$V$20*$V$86</f>
+        <f t="shared" si="87"/>
         <v>10.019183405117271</v>
       </c>
       <c r="Y89" s="57">
-        <f>Y23/$V$20*$V$86</f>
+        <f t="shared" si="87"/>
         <v>9.9500904051172725</v>
       </c>
       <c r="Z89" s="63">
@@ -28954,7 +28954,7 @@
       <c r="AE89" s="72"/>
       <c r="AF89" s="44"/>
       <c r="AG89" s="63">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.220752</v>
       </c>
       <c r="AH89" s="66"/>
@@ -28966,11 +28966,11 @@
       </c>
       <c r="AL89" s="100"/>
       <c r="AM89" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>R-SH_Att_ELC_HPN2-G</v>
       </c>
       <c r="AN89" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>Residential Electric Heat Pump - Air to Water - SH - G rated dwelling</v>
       </c>
       <c r="AO89" s="100" t="s">
@@ -29030,19 +29030,19 @@
       </c>
       <c r="U90" s="29"/>
       <c r="V90" s="40">
-        <f>V24/$V$20*$V$86</f>
+        <f t="shared" si="87"/>
         <v>12.053853944562899</v>
       </c>
       <c r="W90" s="29">
-        <f>W24/$V$20*$V$86</f>
+        <f t="shared" si="87"/>
         <v>11.2861539445629</v>
       </c>
       <c r="X90" s="29">
-        <f>X24/$V$20*$V$86</f>
+        <f t="shared" si="87"/>
         <v>10.5875469445629</v>
       </c>
       <c r="Y90" s="58">
-        <f>Y24/$V$20*$V$86</f>
+        <f t="shared" si="87"/>
         <v>10.5184539445629</v>
       </c>
       <c r="Z90" s="62">
@@ -29055,7 +29055,7 @@
       <c r="AE90" s="71"/>
       <c r="AF90" s="42"/>
       <c r="AG90" s="62">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.220752</v>
       </c>
       <c r="AH90" s="65"/>
@@ -29067,11 +29067,11 @@
       </c>
       <c r="AL90" s="100"/>
       <c r="AM90" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>R-SW_Att_ELC_HPN1-AB</v>
       </c>
       <c r="AN90" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH - AB rated dwelling</v>
       </c>
       <c r="AO90" s="100" t="s">
@@ -29131,19 +29131,19 @@
       </c>
       <c r="U91" s="26"/>
       <c r="V91" s="246">
-        <f>V25/$V$20*$V$86</f>
+        <f t="shared" si="87"/>
         <v>12.622217484008528</v>
       </c>
       <c r="W91" s="26">
-        <f>W25/$V$20*$V$86</f>
+        <f t="shared" si="87"/>
         <v>11.854517484008529</v>
       </c>
       <c r="X91" s="26">
-        <f>X25/$V$20*$V$86</f>
+        <f t="shared" si="87"/>
         <v>11.15591048400853</v>
       </c>
       <c r="Y91" s="59">
-        <f>Y25/$V$20*$V$86</f>
+        <f t="shared" si="87"/>
         <v>11.086817484008529</v>
       </c>
       <c r="Z91" s="64">
@@ -29156,7 +29156,7 @@
       <c r="AE91" s="515"/>
       <c r="AF91" s="49"/>
       <c r="AG91" s="64">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.220752</v>
       </c>
       <c r="AH91" s="67"/>
@@ -29168,11 +29168,11 @@
       </c>
       <c r="AL91" s="100"/>
       <c r="AM91" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>R-SW_Att_ELC_HPN1-C</v>
       </c>
       <c r="AN91" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH - C rated dwelling</v>
       </c>
       <c r="AO91" s="100" t="s">
@@ -29228,15 +29228,15 @@
         <v>0.7</v>
       </c>
       <c r="Q92" s="20">
-        <f t="shared" ref="Q92:Q103" si="85">I92*0.7</f>
+        <f t="shared" ref="Q92:Q103" si="88">I92*0.7</f>
         <v>0.76999999999999991</v>
       </c>
       <c r="R92" s="20">
-        <f t="shared" ref="R92:R103" si="86">J92*0.7</f>
+        <f t="shared" ref="R92:R103" si="89">J92*0.7</f>
         <v>0.86333333333333329</v>
       </c>
       <c r="S92" s="56">
-        <f t="shared" ref="S92:S103" si="87">K92*0.7</f>
+        <f t="shared" ref="S92:S103" si="90">K92*0.7</f>
         <v>0.93333333333333324</v>
       </c>
       <c r="T92" s="510">
@@ -29269,7 +29269,7 @@
       <c r="AE92" s="254"/>
       <c r="AF92" s="46"/>
       <c r="AG92" s="84">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH92" s="87"/>
@@ -29281,11 +29281,11 @@
       </c>
       <c r="AL92" s="100"/>
       <c r="AM92" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>R-SW_Att_ELC_HPN1-D</v>
       </c>
       <c r="AN92" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH - D rated dwelling</v>
       </c>
       <c r="AO92" s="100" t="s">
@@ -29337,19 +29337,19 @@
       <c r="N93" s="23"/>
       <c r="O93" s="57"/>
       <c r="P93" s="22">
-        <f t="shared" ref="P93:P97" si="88">H93*0.7</f>
+        <f t="shared" ref="P93:P97" si="91">H93*0.7</f>
         <v>0.7</v>
       </c>
       <c r="Q93" s="23">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>0.76999999999999991</v>
       </c>
       <c r="R93" s="23">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>0.86333333333333329</v>
       </c>
       <c r="S93" s="57">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>0.93333333333333324</v>
       </c>
       <c r="T93" s="511">
@@ -29357,19 +29357,19 @@
       </c>
       <c r="U93" s="57"/>
       <c r="V93" s="22">
-        <f>V21/$V$20*$V$92</f>
+        <f t="shared" ref="V93:Y97" si="92">V21/$V$20*$V$92</f>
         <v>10.894622547299667</v>
       </c>
       <c r="W93" s="23">
-        <f>W21/$V$20*$V$92</f>
+        <f t="shared" si="92"/>
         <v>10.120444066287011</v>
       </c>
       <c r="X93" s="23">
-        <f>X21/$V$20*$V$92</f>
+        <f t="shared" si="92"/>
         <v>9.4159416485654912</v>
       </c>
       <c r="Y93" s="57">
-        <f>Y21/$V$20*$V$92</f>
+        <f t="shared" si="92"/>
         <v>9.3462655852743506</v>
       </c>
       <c r="Z93" s="63">
@@ -29394,11 +29394,11 @@
       </c>
       <c r="AL93" s="100"/>
       <c r="AM93" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>R-SW_Att_ELC_HPN1-E</v>
       </c>
       <c r="AN93" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH - E rated dwelling</v>
       </c>
       <c r="AO93" s="100" t="s">
@@ -29449,19 +29449,19 @@
       <c r="N94" s="29"/>
       <c r="O94" s="58"/>
       <c r="P94" s="40">
+        <f t="shared" si="91"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q94" s="29">
         <f t="shared" si="88"/>
-        <v>0.7</v>
-      </c>
-      <c r="Q94" s="29">
-        <f t="shared" si="85"/>
         <v>0.76999999999999991</v>
       </c>
       <c r="R94" s="29">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>0.86333333333333329</v>
       </c>
       <c r="S94" s="58">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>0.93333333333333324</v>
       </c>
       <c r="T94" s="512">
@@ -29469,19 +29469,19 @@
       </c>
       <c r="U94" s="58"/>
       <c r="V94" s="40">
-        <f>V22/$V$20*$V$92</f>
+        <f t="shared" si="92"/>
         <v>11.009254518546506</v>
       </c>
       <c r="W94" s="29">
-        <f>W22/$V$20*$V$92</f>
+        <f t="shared" si="92"/>
         <v>10.235076037533849</v>
       </c>
       <c r="X94" s="29">
-        <f>X22/$V$20*$V$92</f>
+        <f t="shared" si="92"/>
         <v>9.5305736198123316</v>
       </c>
       <c r="Y94" s="58">
-        <f>Y22/$V$20*$V$92</f>
+        <f t="shared" si="92"/>
         <v>9.4608975565211928</v>
       </c>
       <c r="Z94" s="62">
@@ -29494,7 +29494,7 @@
       <c r="AE94" s="71"/>
       <c r="AF94" s="42"/>
       <c r="AG94" s="62">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH94" s="65"/>
@@ -29506,11 +29506,11 @@
       </c>
       <c r="AL94" s="206"/>
       <c r="AM94" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>R-SW_Att_ELC_HPN1-F</v>
       </c>
       <c r="AN94" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH - F rated dwelling</v>
       </c>
       <c r="AO94" s="100" t="s">
@@ -29561,19 +29561,19 @@
       <c r="N95" s="23"/>
       <c r="O95" s="57"/>
       <c r="P95" s="22">
+        <f t="shared" si="91"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q95" s="23">
         <f t="shared" si="88"/>
-        <v>0.7</v>
-      </c>
-      <c r="Q95" s="23">
-        <f t="shared" si="85"/>
         <v>0.76999999999999991</v>
       </c>
       <c r="R95" s="23">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>0.86333333333333329</v>
       </c>
       <c r="S95" s="57">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>0.93333333333333324</v>
       </c>
       <c r="T95" s="511">
@@ -29581,19 +29581,19 @@
       </c>
       <c r="U95" s="57"/>
       <c r="V95" s="22">
-        <f>V23/$V$20*$V$92</f>
+        <f t="shared" si="92"/>
         <v>11.582414374780706</v>
       </c>
       <c r="W95" s="23">
-        <f>W23/$V$20*$V$92</f>
+        <f t="shared" si="92"/>
         <v>10.80823589376805</v>
       </c>
       <c r="X95" s="23">
-        <f>X23/$V$20*$V$92</f>
+        <f t="shared" si="92"/>
         <v>10.103733476046532</v>
       </c>
       <c r="Y95" s="57">
-        <f>Y23/$V$20*$V$92</f>
+        <f t="shared" si="92"/>
         <v>10.034057412755393</v>
       </c>
       <c r="Z95" s="63">
@@ -29606,7 +29606,7 @@
       <c r="AE95" s="72"/>
       <c r="AF95" s="44"/>
       <c r="AG95" s="63">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH95" s="66"/>
@@ -29618,11 +29618,11 @@
       </c>
       <c r="AL95" s="206"/>
       <c r="AM95" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>R-SW_Att_ELC_HPN1-G</v>
       </c>
       <c r="AN95" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH - G rated dwelling</v>
       </c>
       <c r="AO95" s="100" t="s">
@@ -29673,19 +29673,19 @@
       <c r="N96" s="29"/>
       <c r="O96" s="58"/>
       <c r="P96" s="40">
+        <f t="shared" si="91"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q96" s="29">
         <f t="shared" si="88"/>
-        <v>0.7</v>
-      </c>
-      <c r="Q96" s="29">
-        <f t="shared" si="85"/>
         <v>0.76999999999999991</v>
       </c>
       <c r="R96" s="29">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>0.86333333333333329</v>
       </c>
       <c r="S96" s="58">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>0.93333333333333324</v>
       </c>
       <c r="T96" s="512">
@@ -29693,19 +29693,19 @@
       </c>
       <c r="U96" s="58"/>
       <c r="V96" s="40">
-        <f>V24/$V$20*$V$92</f>
+        <f t="shared" si="92"/>
         <v>12.155574231014906</v>
       </c>
       <c r="W96" s="29">
-        <f>W24/$V$20*$V$92</f>
+        <f t="shared" si="92"/>
         <v>11.38139575000225</v>
       </c>
       <c r="X96" s="29">
-        <f>X24/$V$20*$V$92</f>
+        <f t="shared" si="92"/>
         <v>10.676893332280732</v>
       </c>
       <c r="Y96" s="58">
-        <f>Y24/$V$20*$V$92</f>
+        <f t="shared" si="92"/>
         <v>10.60721726898959</v>
       </c>
       <c r="Z96" s="62">
@@ -29718,7 +29718,7 @@
       <c r="AE96" s="71"/>
       <c r="AF96" s="42"/>
       <c r="AG96" s="62">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH96" s="65"/>
@@ -29730,11 +29730,11 @@
       </c>
       <c r="AL96" s="206"/>
       <c r="AM96" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>R-SW_Att_ELC_HPN2-AB</v>
       </c>
       <c r="AN96" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar - AB rated dwelling</v>
       </c>
       <c r="AO96" s="100" t="s">
@@ -29785,19 +29785,19 @@
       <c r="N97" s="26"/>
       <c r="O97" s="59"/>
       <c r="P97" s="246">
+        <f t="shared" si="91"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q97" s="26">
         <f t="shared" si="88"/>
-        <v>0.7</v>
-      </c>
-      <c r="Q97" s="26">
-        <f t="shared" si="85"/>
         <v>0.76999999999999991</v>
       </c>
       <c r="R97" s="26">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>0.86333333333333329</v>
       </c>
       <c r="S97" s="59">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>0.93333333333333324</v>
       </c>
       <c r="T97" s="514">
@@ -29805,19 +29805,19 @@
       </c>
       <c r="U97" s="59"/>
       <c r="V97" s="246">
-        <f>V25/$V$20*$V$92</f>
+        <f t="shared" si="92"/>
         <v>12.728734087249107</v>
       </c>
       <c r="W97" s="26">
-        <f>W25/$V$20*$V$92</f>
+        <f t="shared" si="92"/>
         <v>11.95455560623645</v>
       </c>
       <c r="X97" s="26">
-        <f>X25/$V$20*$V$92</f>
+        <f t="shared" si="92"/>
         <v>11.250053188514931</v>
       </c>
       <c r="Y97" s="59">
-        <f>Y25/$V$20*$V$92</f>
+        <f t="shared" si="92"/>
         <v>11.18037712522379</v>
       </c>
       <c r="Z97" s="64">
@@ -29830,7 +29830,7 @@
       <c r="AE97" s="515"/>
       <c r="AF97" s="49"/>
       <c r="AG97" s="64">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH97" s="67"/>
@@ -29842,11 +29842,11 @@
       </c>
       <c r="AL97" s="206"/>
       <c r="AM97" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>R-SW_Att_ELC_HPN2-C</v>
       </c>
       <c r="AN97" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar - C rated dwelling</v>
       </c>
       <c r="AO97" s="100" t="s">
@@ -29898,15 +29898,15 @@
         <v>0.7</v>
       </c>
       <c r="Q98" s="29">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>0.77700000000000002</v>
       </c>
       <c r="R98" s="29">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="S98" s="58">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="T98" s="510">
@@ -29944,7 +29944,7 @@
         <v>5</v>
       </c>
       <c r="AG98" s="84">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH98" s="87"/>
@@ -29956,11 +29956,11 @@
       </c>
       <c r="AL98" s="2"/>
       <c r="AM98" s="206" t="str">
-        <f t="shared" ref="AM98:AN113" si="89">C100</f>
+        <f t="shared" ref="AM98:AN113" si="93">C100</f>
         <v>R-SW_Att_ELC_HPN2-D</v>
       </c>
       <c r="AN98" s="206" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar - D rated dwelling</v>
       </c>
       <c r="AO98" s="100" t="s">
@@ -30008,19 +30008,19 @@
       <c r="N99" s="23"/>
       <c r="O99" s="57"/>
       <c r="P99" s="22">
-        <f t="shared" ref="P99:P103" si="90">H99*0.7</f>
+        <f t="shared" ref="P99:P103" si="94">H99*0.7</f>
         <v>0.7</v>
       </c>
       <c r="Q99" s="23">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>0.77700000000000002</v>
       </c>
       <c r="R99" s="23">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="S99" s="57">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="T99" s="511">
@@ -30028,19 +30028,19 @@
       </c>
       <c r="U99" s="23"/>
       <c r="V99" s="22">
-        <f>V21/$V$20*$V$98</f>
+        <f t="shared" ref="V99:Y103" si="95">V21/$V$20*$V$98</f>
         <v>16.822795115332429</v>
       </c>
       <c r="W99" s="23">
-        <f>W21/$V$20*$V$98</f>
+        <f t="shared" si="95"/>
         <v>15.627357098803504</v>
       </c>
       <c r="X99" s="23">
-        <f>X21/$V$20*$V$98</f>
+        <f t="shared" si="95"/>
         <v>14.539508503762182</v>
       </c>
       <c r="Y99" s="57">
-        <f>Y21/$V$20*$V$98</f>
+        <f t="shared" si="95"/>
         <v>14.431919082274579</v>
       </c>
       <c r="Z99" s="63">
@@ -30058,7 +30058,7 @@
         <v>5</v>
       </c>
       <c r="AG99" s="63">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH99" s="66"/>
@@ -30070,11 +30070,11 @@
       </c>
       <c r="AL99" s="2"/>
       <c r="AM99" s="206" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>R-SW_Att_ELC_HPN2-E</v>
       </c>
       <c r="AN99" s="206" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar - E rated dwelling</v>
       </c>
       <c r="AO99" s="100" t="s">
@@ -30122,19 +30122,19 @@
       <c r="N100" s="29"/>
       <c r="O100" s="58"/>
       <c r="P100" s="40">
+        <f t="shared" si="94"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q100" s="29">
+        <f t="shared" si="88"/>
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="R100" s="29">
+        <f t="shared" si="89"/>
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="S100" s="58">
         <f t="shared" si="90"/>
-        <v>0.7</v>
-      </c>
-      <c r="Q100" s="29">
-        <f t="shared" si="85"/>
-        <v>0.77700000000000002</v>
-      </c>
-      <c r="R100" s="29">
-        <f t="shared" si="86"/>
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="S100" s="58">
-        <f t="shared" si="87"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="T100" s="512">
@@ -30142,19 +30142,19 @@
       </c>
       <c r="U100" s="29"/>
       <c r="V100" s="40">
-        <f>V22/$V$20*$V$98</f>
+        <f t="shared" si="95"/>
         <v>16.999802639694089</v>
       </c>
       <c r="W100" s="29">
-        <f>W22/$V$20*$V$98</f>
+        <f t="shared" si="95"/>
         <v>15.804364623165167</v>
       </c>
       <c r="X100" s="29">
-        <f>X22/$V$20*$V$98</f>
+        <f t="shared" si="95"/>
         <v>14.716516028123847</v>
       </c>
       <c r="Y100" s="58">
-        <f>Y22/$V$20*$V$98</f>
+        <f t="shared" si="95"/>
         <v>14.608926606636242</v>
       </c>
       <c r="Z100" s="62">
@@ -30172,7 +30172,7 @@
         <v>5</v>
       </c>
       <c r="AG100" s="62">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH100" s="65"/>
@@ -30184,11 +30184,11 @@
       </c>
       <c r="AL100" s="2"/>
       <c r="AM100" s="206" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>R-SW_Att_ELC_HPN2-F</v>
       </c>
       <c r="AN100" s="206" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar - F rated dwelling</v>
       </c>
       <c r="AO100" s="100" t="s">
@@ -30236,19 +30236,19 @@
       <c r="N101" s="23"/>
       <c r="O101" s="57"/>
       <c r="P101" s="22">
+        <f t="shared" si="94"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q101" s="23">
+        <f t="shared" si="88"/>
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="R101" s="23">
+        <f t="shared" si="89"/>
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="S101" s="57">
         <f t="shared" si="90"/>
-        <v>0.7</v>
-      </c>
-      <c r="Q101" s="23">
-        <f t="shared" si="85"/>
-        <v>0.77700000000000002</v>
-      </c>
-      <c r="R101" s="23">
-        <f t="shared" si="86"/>
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="S101" s="57">
-        <f t="shared" si="87"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="T101" s="511">
@@ -30256,19 +30256,19 @@
       </c>
       <c r="U101" s="23"/>
       <c r="V101" s="22">
-        <f>V23/$V$20*$V$98</f>
+        <f t="shared" si="95"/>
         <v>17.884840261502404</v>
       </c>
       <c r="W101" s="23">
-        <f>W23/$V$20*$V$98</f>
+        <f t="shared" si="95"/>
         <v>16.689402244973479</v>
       </c>
       <c r="X101" s="23">
-        <f>X23/$V$20*$V$98</f>
+        <f t="shared" si="95"/>
         <v>15.601553649932161</v>
       </c>
       <c r="Y101" s="57">
-        <f>Y23/$V$20*$V$98</f>
+        <f t="shared" si="95"/>
         <v>15.493964228444558</v>
       </c>
       <c r="Z101" s="63">
@@ -30286,7 +30286,7 @@
         <v>5</v>
       </c>
       <c r="AG101" s="63">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH101" s="66"/>
@@ -30298,11 +30298,11 @@
       </c>
       <c r="AL101" s="2"/>
       <c r="AM101" s="206" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>R-SW_Att_ELC_HPN2-G</v>
       </c>
       <c r="AN101" s="206" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar - G rated dwelling</v>
       </c>
       <c r="AO101" s="100" t="s">
@@ -30350,19 +30350,19 @@
       <c r="N102" s="29"/>
       <c r="O102" s="58"/>
       <c r="P102" s="40">
+        <f t="shared" si="94"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q102" s="29">
+        <f t="shared" si="88"/>
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="R102" s="29">
+        <f t="shared" si="89"/>
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="S102" s="58">
         <f t="shared" si="90"/>
-        <v>0.7</v>
-      </c>
-      <c r="Q102" s="29">
-        <f t="shared" si="85"/>
-        <v>0.77700000000000002</v>
-      </c>
-      <c r="R102" s="29">
-        <f t="shared" si="86"/>
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="S102" s="58">
-        <f t="shared" si="87"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="T102" s="512">
@@ -30370,19 +30370,19 @@
       </c>
       <c r="U102" s="29"/>
       <c r="V102" s="40">
-        <f>V24/$V$20*$V$98</f>
+        <f t="shared" si="95"/>
         <v>18.76987788331072</v>
       </c>
       <c r="W102" s="29">
-        <f>W24/$V$20*$V$98</f>
+        <f t="shared" si="95"/>
         <v>17.574439866781795</v>
       </c>
       <c r="X102" s="29">
-        <f>X24/$V$20*$V$98</f>
+        <f t="shared" si="95"/>
         <v>16.486591271740476</v>
       </c>
       <c r="Y102" s="58">
-        <f>Y24/$V$20*$V$98</f>
+        <f t="shared" si="95"/>
         <v>16.37900185025287</v>
       </c>
       <c r="Z102" s="62">
@@ -30400,7 +30400,7 @@
         <v>5</v>
       </c>
       <c r="AG102" s="62">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH102" s="65"/>
@@ -30412,11 +30412,11 @@
       </c>
       <c r="AL102" s="2"/>
       <c r="AM102" s="206" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>R-SH_Att_ELC_HPN3-AB</v>
       </c>
       <c r="AN102" s="206" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH - AB rated dwelling</v>
       </c>
       <c r="AO102" s="100" t="s">
@@ -30464,19 +30464,19 @@
       <c r="N103" s="26"/>
       <c r="O103" s="59"/>
       <c r="P103" s="246">
+        <f t="shared" si="94"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q103" s="26">
+        <f t="shared" si="88"/>
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="R103" s="26">
+        <f t="shared" si="89"/>
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="S103" s="59">
         <f t="shared" si="90"/>
-        <v>0.7</v>
-      </c>
-      <c r="Q103" s="26">
-        <f t="shared" si="85"/>
-        <v>0.77700000000000002</v>
-      </c>
-      <c r="R103" s="26">
-        <f t="shared" si="86"/>
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="S103" s="59">
-        <f t="shared" si="87"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="T103" s="514">
@@ -30484,19 +30484,19 @@
       </c>
       <c r="U103" s="26"/>
       <c r="V103" s="246">
-        <f>V25/$V$20*$V$98</f>
+        <f t="shared" si="95"/>
         <v>19.654915505119032</v>
       </c>
       <c r="W103" s="26">
-        <f>W25/$V$20*$V$98</f>
+        <f t="shared" si="95"/>
         <v>18.45947748859011</v>
       </c>
       <c r="X103" s="26">
-        <f>X25/$V$20*$V$98</f>
+        <f t="shared" si="95"/>
         <v>17.371628893548788</v>
       </c>
       <c r="Y103" s="59">
-        <f>Y25/$V$20*$V$98</f>
+        <f t="shared" si="95"/>
         <v>17.264039472061182</v>
       </c>
       <c r="Z103" s="64">
@@ -30514,7 +30514,7 @@
         <v>5</v>
       </c>
       <c r="AG103" s="64">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH103" s="67"/>
@@ -30526,11 +30526,11 @@
       </c>
       <c r="AL103" s="2"/>
       <c r="AM103" s="206" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>R-SH_Att_ELC_HPN3-C</v>
       </c>
       <c r="AN103" s="206" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH - C rated dwelling</v>
       </c>
       <c r="AO103" s="100" t="s">
@@ -30616,7 +30616,7 @@
       <c r="AE104" s="254"/>
       <c r="AF104" s="46"/>
       <c r="AG104" s="84">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.220752</v>
       </c>
       <c r="AH104" s="87"/>
@@ -30628,11 +30628,11 @@
       </c>
       <c r="AL104" s="2"/>
       <c r="AM104" s="206" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>R-SH_Att_ELC_HPN3-D</v>
       </c>
       <c r="AN104" s="206" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH - D rated dwelling</v>
       </c>
       <c r="AO104" s="100" t="s">
@@ -30692,19 +30692,19 @@
       </c>
       <c r="U105" s="57"/>
       <c r="V105" s="22">
-        <f>V21/$V$20*$V$104</f>
+        <f t="shared" ref="V105:Y109" si="96">V21/$V$20*$V$104</f>
         <v>17.514224794395371</v>
       </c>
       <c r="W105" s="23">
-        <f>W21/$V$20*$V$104</f>
+        <f t="shared" si="96"/>
         <v>16.269653365823942</v>
       </c>
       <c r="X105" s="23">
-        <f>X21/$V$20*$V$104</f>
+        <f t="shared" si="96"/>
         <v>15.137093365823942</v>
       </c>
       <c r="Y105" s="57">
-        <f>Y21/$V$20*$V$104</f>
+        <f t="shared" si="96"/>
         <v>15.025081937252514</v>
       </c>
       <c r="Z105" s="63">
@@ -30718,7 +30718,7 @@
       <c r="AE105" s="72"/>
       <c r="AF105" s="44"/>
       <c r="AG105" s="63">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.220752</v>
       </c>
       <c r="AH105" s="66"/>
@@ -30730,11 +30730,11 @@
       </c>
       <c r="AL105" s="2"/>
       <c r="AM105" s="206" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>R-SH_Att_ELC_HPN3-E</v>
       </c>
       <c r="AN105" s="206" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH - E rated dwelling</v>
       </c>
       <c r="AO105" s="100" t="s">
@@ -30794,19 +30794,19 @@
       </c>
       <c r="U106" s="58"/>
       <c r="V106" s="40">
-        <f>V22/$V$20*$V$104</f>
+        <f t="shared" si="96"/>
         <v>17.698507462686567</v>
       </c>
       <c r="W106" s="29">
-        <f>W22/$V$20*$V$104</f>
+        <f t="shared" si="96"/>
         <v>16.453936034115138</v>
       </c>
       <c r="X106" s="29">
-        <f>X22/$V$20*$V$104</f>
+        <f t="shared" si="96"/>
         <v>15.321376034115142</v>
       </c>
       <c r="Y106" s="58">
-        <f>Y22/$V$20*$V$104</f>
+        <f t="shared" si="96"/>
         <v>15.209364605543712</v>
       </c>
       <c r="Z106" s="62">
@@ -30820,7 +30820,7 @@
       <c r="AE106" s="71"/>
       <c r="AF106" s="42"/>
       <c r="AG106" s="62">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.220752</v>
       </c>
       <c r="AH106" s="65"/>
@@ -30832,11 +30832,11 @@
       </c>
       <c r="AL106" s="2"/>
       <c r="AM106" s="206" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>R-SH_Att_ELC_HPN3-F</v>
       </c>
       <c r="AN106" s="206" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH - F rated dwelling</v>
       </c>
       <c r="AO106" s="100" t="s">
@@ -30896,19 +30896,19 @@
       </c>
       <c r="U107" s="57"/>
       <c r="V107" s="22">
-        <f>V23/$V$20*$V$104</f>
+        <f t="shared" si="96"/>
         <v>18.619920804142552</v>
       </c>
       <c r="W107" s="23">
-        <f>W23/$V$20*$V$104</f>
+        <f t="shared" si="96"/>
         <v>17.375349375571126</v>
       </c>
       <c r="X107" s="23">
-        <f>X23/$V$20*$V$104</f>
+        <f t="shared" si="96"/>
         <v>16.242789375571128</v>
       </c>
       <c r="Y107" s="57">
-        <f>Y23/$V$20*$V$104</f>
+        <f t="shared" si="96"/>
         <v>16.1307779469997</v>
       </c>
       <c r="Z107" s="63">
@@ -30922,7 +30922,7 @@
       <c r="AE107" s="72"/>
       <c r="AF107" s="44"/>
       <c r="AG107" s="63">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.220752</v>
       </c>
       <c r="AH107" s="66"/>
@@ -30934,11 +30934,11 @@
       </c>
       <c r="AL107" s="2"/>
       <c r="AM107" s="206" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>R-SH_Att_ELC_HPN3-G</v>
       </c>
       <c r="AN107" s="206" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH - G rated dwelling</v>
       </c>
       <c r="AO107" s="100" t="s">
@@ -30998,19 +30998,19 @@
       </c>
       <c r="U108" s="58"/>
       <c r="V108" s="40">
-        <f>V24/$V$20*$V$104</f>
+        <f t="shared" si="96"/>
         <v>19.541334145598537</v>
       </c>
       <c r="W108" s="29">
-        <f>W24/$V$20*$V$104</f>
+        <f t="shared" si="96"/>
         <v>18.296762717027111</v>
       </c>
       <c r="X108" s="29">
-        <f>X24/$V$20*$V$104</f>
+        <f t="shared" si="96"/>
         <v>17.164202717027113</v>
       </c>
       <c r="Y108" s="58">
-        <f>Y24/$V$20*$V$104</f>
+        <f t="shared" si="96"/>
         <v>17.052191288455681</v>
       </c>
       <c r="Z108" s="62">
@@ -31024,7 +31024,7 @@
       <c r="AE108" s="71"/>
       <c r="AF108" s="42"/>
       <c r="AG108" s="62">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.220752</v>
       </c>
       <c r="AH108" s="65"/>
@@ -31036,11 +31036,11 @@
       </c>
       <c r="AL108" s="2"/>
       <c r="AM108" s="206" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>R-HC_Att_ELC_HPN2-AB</v>
       </c>
       <c r="AN108" s="206" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC - AB rated dwelling</v>
       </c>
       <c r="AO108" s="100" t="s">
@@ -31100,19 +31100,19 @@
       </c>
       <c r="U109" s="59"/>
       <c r="V109" s="246">
-        <f>V25/$V$20*$V$104</f>
+        <f t="shared" si="96"/>
         <v>20.462747487054525</v>
       </c>
       <c r="W109" s="26">
-        <f>W25/$V$20*$V$104</f>
+        <f t="shared" si="96"/>
         <v>19.218176058483099</v>
       </c>
       <c r="X109" s="26">
-        <f>X25/$V$20*$V$104</f>
+        <f t="shared" si="96"/>
         <v>18.085616058483101</v>
       </c>
       <c r="Y109" s="59">
-        <f>Y25/$V$20*$V$104</f>
+        <f t="shared" si="96"/>
         <v>17.973604629911669</v>
       </c>
       <c r="Z109" s="64">
@@ -31126,7 +31126,7 @@
       <c r="AE109" s="515"/>
       <c r="AF109" s="49"/>
       <c r="AG109" s="64">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.220752</v>
       </c>
       <c r="AH109" s="67"/>
@@ -31138,11 +31138,11 @@
       </c>
       <c r="AL109" s="2"/>
       <c r="AM109" s="206" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>R-HC_Att_ELC_HPN2-C</v>
       </c>
       <c r="AN109" s="206" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC - C rated dwelling</v>
       </c>
       <c r="AO109" s="100" t="s">
@@ -31252,11 +31252,11 @@
       </c>
       <c r="AL110" s="2"/>
       <c r="AM110" s="206" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>R-HC_Att_ELC_HPN2-D</v>
       </c>
       <c r="AN110" s="206" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC - D rated dwelling</v>
       </c>
       <c r="AO110" s="100" t="s">
@@ -31328,19 +31328,19 @@
       </c>
       <c r="U111" s="23"/>
       <c r="V111" s="22">
-        <f>V21/$V$20*$V$110</f>
+        <f t="shared" ref="V111:Y115" si="97">V21/$V$20*$V$110</f>
         <v>17.731343283582088</v>
       </c>
       <c r="W111" s="23">
-        <f>W21/$V$20*$V$110</f>
+        <f t="shared" si="97"/>
         <v>16.47134328358209</v>
       </c>
       <c r="X111" s="23">
-        <f>X21/$V$20*$V$110</f>
+        <f t="shared" si="97"/>
         <v>15.324743283582089</v>
       </c>
       <c r="Y111" s="57">
-        <f>Y21/$V$20*$V$110</f>
+        <f t="shared" si="97"/>
         <v>15.211343283582089</v>
       </c>
       <c r="Z111" s="63">
@@ -31354,7 +31354,7 @@
       <c r="AE111" s="72"/>
       <c r="AF111" s="44"/>
       <c r="AG111" s="63">
-        <f t="shared" ref="AG111:AG115" si="91">31.536*(AJ111/1000)</f>
+        <f t="shared" ref="AG111:AG115" si="98">31.536*(AJ111/1000)</f>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH111" s="66"/>
@@ -31366,11 +31366,11 @@
       </c>
       <c r="AL111" s="2"/>
       <c r="AM111" s="206" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>R-HC_Att_ELC_HPN2-E</v>
       </c>
       <c r="AN111" s="206" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC - E rated dwelling</v>
       </c>
       <c r="AO111" s="100" t="s">
@@ -31442,19 +31442,19 @@
       </c>
       <c r="U112" s="29"/>
       <c r="V112" s="40">
-        <f>V22/$V$20*$V$110</f>
+        <f t="shared" si="97"/>
         <v>17.917910447761191</v>
       </c>
       <c r="W112" s="29">
-        <f>W22/$V$20*$V$110</f>
+        <f t="shared" si="97"/>
         <v>16.657910447761193</v>
       </c>
       <c r="X112" s="29">
-        <f>X22/$V$20*$V$110</f>
+        <f t="shared" si="97"/>
         <v>15.511310447761197</v>
       </c>
       <c r="Y112" s="58">
-        <f>Y22/$V$20*$V$110</f>
+        <f t="shared" si="97"/>
         <v>15.397910447761197</v>
       </c>
       <c r="Z112" s="62">
@@ -31468,7 +31468,7 @@
       <c r="AE112" s="71"/>
       <c r="AF112" s="42"/>
       <c r="AG112" s="62">
-        <f t="shared" si="91"/>
+        <f t="shared" si="98"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH112" s="65"/>
@@ -31480,11 +31480,11 @@
       </c>
       <c r="AL112" s="2"/>
       <c r="AM112" s="206" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>R-HC_Att_ELC_HPN2-F</v>
       </c>
       <c r="AN112" s="206" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC - F rated dwelling</v>
       </c>
       <c r="AO112" s="100" t="s">
@@ -31556,19 +31556,19 @@
       </c>
       <c r="U113" s="23"/>
       <c r="V113" s="22">
-        <f>V23/$V$20*$V$110</f>
+        <f t="shared" si="97"/>
         <v>18.850746268656714</v>
       </c>
       <c r="W113" s="23">
-        <f>W23/$V$20*$V$110</f>
+        <f t="shared" si="97"/>
         <v>17.590746268656716</v>
       </c>
       <c r="X113" s="23">
-        <f>X23/$V$20*$V$110</f>
+        <f t="shared" si="97"/>
         <v>16.44414626865672</v>
       </c>
       <c r="Y113" s="57">
-        <f>Y23/$V$20*$V$110</f>
+        <f t="shared" si="97"/>
         <v>16.330746268656718</v>
       </c>
       <c r="Z113" s="63">
@@ -31582,7 +31582,7 @@
       <c r="AE113" s="72"/>
       <c r="AF113" s="44"/>
       <c r="AG113" s="63">
-        <f t="shared" si="91"/>
+        <f t="shared" si="98"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH113" s="66"/>
@@ -31594,11 +31594,11 @@
       </c>
       <c r="AL113" s="2"/>
       <c r="AM113" s="206" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>R-HC_Att_ELC_HPN2-G</v>
       </c>
       <c r="AN113" s="206" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC - G rated dwelling</v>
       </c>
       <c r="AO113" s="100" t="s">
@@ -31670,19 +31670,19 @@
       </c>
       <c r="U114" s="29"/>
       <c r="V114" s="40">
-        <f>V24/$V$20*$V$110</f>
+        <f t="shared" si="97"/>
         <v>19.783582089552237</v>
       </c>
       <c r="W114" s="29">
-        <f>W24/$V$20*$V$110</f>
+        <f t="shared" si="97"/>
         <v>18.523582089552239</v>
       </c>
       <c r="X114" s="29">
-        <f>X24/$V$20*$V$110</f>
+        <f t="shared" si="97"/>
         <v>17.376982089552243</v>
       </c>
       <c r="Y114" s="58">
-        <f>Y24/$V$20*$V$110</f>
+        <f t="shared" si="97"/>
         <v>17.263582089552237</v>
       </c>
       <c r="Z114" s="62">
@@ -31696,7 +31696,7 @@
       <c r="AE114" s="71"/>
       <c r="AF114" s="42"/>
       <c r="AG114" s="62">
-        <f t="shared" si="91"/>
+        <f t="shared" si="98"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH114" s="65"/>
@@ -31785,19 +31785,19 @@
       </c>
       <c r="U115" s="26"/>
       <c r="V115" s="246">
-        <f>V25/$V$20*$V$110</f>
+        <f t="shared" si="97"/>
         <v>20.71641791044776</v>
       </c>
       <c r="W115" s="26">
-        <f>W25/$V$20*$V$110</f>
+        <f t="shared" si="97"/>
         <v>19.456417910447762</v>
       </c>
       <c r="X115" s="26">
-        <f>X25/$V$20*$V$110</f>
+        <f t="shared" si="97"/>
         <v>18.309817910447766</v>
       </c>
       <c r="Y115" s="59">
-        <f>Y25/$V$20*$V$110</f>
+        <f t="shared" si="97"/>
         <v>18.196417910447764</v>
       </c>
       <c r="Z115" s="64">
@@ -31811,7 +31811,7 @@
       <c r="AE115" s="515"/>
       <c r="AF115" s="49"/>
       <c r="AG115" s="64">
-        <f t="shared" si="91"/>
+        <f t="shared" si="98"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH115" s="67"/>
@@ -31823,11 +31823,11 @@
       </c>
       <c r="AL115" s="2"/>
       <c r="AM115" s="206" t="str">
-        <f t="shared" ref="AM115:AN115" si="92">C118</f>
+        <f t="shared" ref="AM115:AN115" si="99">C118</f>
         <v>R-SW_Att_GAS_HPN2</v>
       </c>
       <c r="AN115" s="206" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="99"/>
         <v>Residential Gas Engine Heat Pump - Air to Water - SH + WH</v>
       </c>
       <c r="AO115" s="100" t="s">
@@ -31942,15 +31942,15 @@
         <v>1.1666666666666667</v>
       </c>
       <c r="Q117" s="20">
-        <f t="shared" ref="Q117:Q118" si="93">I117*0.7</f>
+        <f t="shared" ref="Q117:Q118" si="100">I117*0.7</f>
         <v>1.2530864197530862</v>
       </c>
       <c r="R117" s="20">
-        <f t="shared" ref="R117:R118" si="94">J117*0.7</f>
+        <f t="shared" ref="R117:R118" si="101">J117*0.7</f>
         <v>1.4691358024691357</v>
       </c>
       <c r="S117" s="56">
-        <f t="shared" ref="S117:S118" si="95">K117*0.7</f>
+        <f t="shared" ref="S117:S118" si="102">K117*0.7</f>
         <v>1.4691358024691357</v>
       </c>
       <c r="T117" s="88">
@@ -31984,7 +31984,7 @@
       <c r="AE117" s="84"/>
       <c r="AF117" s="84"/>
       <c r="AG117" s="84">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH117" s="87"/>
@@ -32057,15 +32057,15 @@
         <v>1.1666666666666665</v>
       </c>
       <c r="Q118" s="26">
-        <f t="shared" si="93"/>
+        <f t="shared" si="100"/>
         <v>1.2055555555555555</v>
       </c>
       <c r="R118" s="26">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>1.2055555555555555</v>
       </c>
       <c r="S118" s="59">
-        <f t="shared" si="95"/>
+        <f t="shared" si="102"/>
         <v>1.2444444444444445</v>
       </c>
       <c r="T118" s="27">
@@ -32111,7 +32111,7 @@
       </c>
       <c r="AL118" s="2"/>
       <c r="AM118" s="206" t="str">
-        <f t="shared" ref="AM118" si="96">C123</f>
+        <f t="shared" ref="AM118" si="103">C123</f>
         <v>R-SW_Att_HET_N2</v>
       </c>
       <c r="AN118" s="206" t="str">
@@ -32228,15 +32228,15 @@
         <v>2.2084999999999999</v>
       </c>
       <c r="Q120" s="26">
-        <f t="shared" ref="Q120" si="97">I120*0.7</f>
+        <f t="shared" ref="Q120" si="104">I120*0.7</f>
         <v>2.4464999999999999</v>
       </c>
       <c r="R120" s="26">
-        <f t="shared" ref="R120" si="98">J120*0.7</f>
+        <f t="shared" ref="R120" si="105">J120*0.7</f>
         <v>2.625</v>
       </c>
       <c r="S120" s="59">
-        <f t="shared" ref="S120" si="99">K120*0.7</f>
+        <f t="shared" ref="S120" si="106">K120*0.7</f>
         <v>2.625</v>
       </c>
       <c r="T120" s="3">
@@ -32276,7 +32276,7 @@
         <v>5</v>
       </c>
       <c r="AG120" s="81">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.45017639999999998</v>
       </c>
       <c r="AH120" s="82"/>
@@ -32289,11 +32289,11 @@
       </c>
       <c r="AL120" s="2"/>
       <c r="AM120" s="206" t="str">
-        <f t="shared" ref="AM120" si="100">C126</f>
+        <f t="shared" ref="AM120" si="107">C126</f>
         <v>R-WH_Att_SOL_N1</v>
       </c>
       <c r="AN120" s="206" t="str">
-        <f t="shared" ref="AN120" si="101">D126</f>
+        <f t="shared" ref="AN120" si="108">D126</f>
         <v xml:space="preserve">Residential Solar Water Heater </v>
       </c>
       <c r="AO120" s="100" t="s">
@@ -32438,7 +32438,7 @@
       <c r="AE122" s="84"/>
       <c r="AF122" s="84"/>
       <c r="AG122" s="84">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH122" s="87"/>
@@ -32530,7 +32530,7 @@
       <c r="AE123" s="64"/>
       <c r="AF123" s="64"/>
       <c r="AG123" s="64">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH123" s="67"/>
@@ -32659,7 +32659,7 @@
       <c r="AE125" s="84"/>
       <c r="AF125" s="84"/>
       <c r="AG125" s="84">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.18921600000000002</v>
       </c>
       <c r="AH125" s="87"/>
@@ -32745,7 +32745,7 @@
       <c r="AE126" s="63"/>
       <c r="AF126" s="63"/>
       <c r="AG126" s="63">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.18921600000000002</v>
       </c>
       <c r="AH126" s="67"/>
@@ -32877,7 +32877,7 @@
       <c r="AE128" s="90"/>
       <c r="AF128" s="90"/>
       <c r="AG128" s="90">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.18921600000000002</v>
       </c>
       <c r="AH128" s="89"/>
@@ -33090,12 +33090,12 @@
         <v>85</v>
       </c>
       <c r="U135" s="571"/>
-      <c r="V135" s="572" t="s">
+      <c r="V135" s="563" t="s">
         <v>86</v>
       </c>
-      <c r="W135" s="573"/>
-      <c r="X135" s="573"/>
-      <c r="Y135" s="574"/>
+      <c r="W135" s="564"/>
+      <c r="X135" s="564"/>
+      <c r="Y135" s="565"/>
       <c r="Z135" s="60"/>
       <c r="AA135" s="60"/>
       <c r="AB135" s="68" t="s">
@@ -33184,11 +33184,11 @@
         <v>31</v>
       </c>
       <c r="AM136" s="99" t="str">
-        <f t="shared" ref="AM136:AM147" si="102">C138</f>
+        <f t="shared" ref="AM136:AM147" si="109">C138</f>
         <v>R-SH_Det_KER_N1</v>
       </c>
       <c r="AN136" s="99" t="str">
-        <f t="shared" ref="AN136:AN147" si="103">D138</f>
+        <f t="shared" ref="AN136:AN147" si="110">D138</f>
         <v>Residential Kerosene Heating Oil - New 1 SH</v>
       </c>
       <c r="AO136" s="100" t="s">
@@ -33210,34 +33210,34 @@
       <c r="E137" s="38"/>
       <c r="F137" s="38"/>
       <c r="G137" s="39"/>
-      <c r="H137" s="563" t="s">
+      <c r="H137" s="566" t="s">
         <v>34</v>
       </c>
-      <c r="I137" s="564"/>
-      <c r="J137" s="564"/>
-      <c r="K137" s="565"/>
-      <c r="L137" s="564" t="s">
+      <c r="I137" s="567"/>
+      <c r="J137" s="567"/>
+      <c r="K137" s="568"/>
+      <c r="L137" s="567" t="s">
         <v>34</v>
       </c>
-      <c r="M137" s="564"/>
-      <c r="N137" s="564"/>
-      <c r="O137" s="565"/>
-      <c r="P137" s="563" t="s">
+      <c r="M137" s="567"/>
+      <c r="N137" s="567"/>
+      <c r="O137" s="568"/>
+      <c r="P137" s="566" t="s">
         <v>34</v>
       </c>
-      <c r="Q137" s="564"/>
-      <c r="R137" s="564"/>
-      <c r="S137" s="565"/>
-      <c r="T137" s="566" t="s">
+      <c r="Q137" s="567"/>
+      <c r="R137" s="567"/>
+      <c r="S137" s="568"/>
+      <c r="T137" s="572" t="s">
         <v>68</v>
       </c>
-      <c r="U137" s="567"/>
-      <c r="V137" s="566" t="s">
+      <c r="U137" s="573"/>
+      <c r="V137" s="572" t="s">
         <v>503</v>
       </c>
-      <c r="W137" s="568"/>
-      <c r="X137" s="568"/>
-      <c r="Y137" s="567"/>
+      <c r="W137" s="574"/>
+      <c r="X137" s="574"/>
+      <c r="Y137" s="573"/>
       <c r="Z137" s="367" t="s">
         <v>515</v>
       </c>
@@ -33269,11 +33269,11 @@
       </c>
       <c r="AL137" s="100"/>
       <c r="AM137" s="99" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>R-SW_Det_KER_N1</v>
       </c>
       <c r="AN137" s="99" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>Residential Kerosene Heating Oil - New 2 SH + WH</v>
       </c>
       <c r="AO137" s="100" t="s">
@@ -33331,15 +33331,15 @@
         <v>4.5825000000000005</v>
       </c>
       <c r="W138" s="373">
-        <f t="shared" ref="W138:Y138" si="104">W142*1.3</f>
+        <f t="shared" ref="W138:Y138" si="111">W142*1.3</f>
         <v>4.5825000000000005</v>
       </c>
       <c r="X138" s="373">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>4.5825000000000005</v>
       </c>
       <c r="Y138" s="373">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>4.5825000000000005</v>
       </c>
       <c r="Z138" s="373">
@@ -33352,7 +33352,7 @@
       <c r="AE138" s="71"/>
       <c r="AF138" s="71"/>
       <c r="AG138" s="62">
-        <f t="shared" ref="AG138:AG201" si="105">31.536*(AJ138/1000)</f>
+        <f t="shared" ref="AG138:AG201" si="112">31.536*(AJ138/1000)</f>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH138" s="65"/>
@@ -33364,11 +33364,11 @@
       </c>
       <c r="AL138" s="100"/>
       <c r="AM138" s="99" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>R-SW_Det_KER_N2</v>
       </c>
       <c r="AN138" s="99" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Solar</v>
       </c>
       <c r="AO138" s="100" t="s">
@@ -33418,15 +33418,15 @@
         <v>0.7</v>
       </c>
       <c r="Q139" s="23">
-        <f t="shared" ref="Q139:Q141" si="106">I139*0.7</f>
+        <f t="shared" ref="Q139:Q141" si="113">I139*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R139" s="23">
-        <f t="shared" ref="R139:R141" si="107">J139*0.7</f>
+        <f t="shared" ref="R139:R141" si="114">J139*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S139" s="57">
-        <f t="shared" ref="S139:S141" si="108">K139*0.7</f>
+        <f t="shared" ref="S139:S141" si="115">K139*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T139" s="53">
@@ -33438,15 +33438,15 @@
         <v>4.9452075289575284</v>
       </c>
       <c r="W139" s="374">
-        <f t="shared" ref="W139:Y139" si="109">W143*1.3</f>
+        <f t="shared" ref="W139:Y139" si="116">W143*1.3</f>
         <v>4.9452075289575284</v>
       </c>
       <c r="X139" s="374">
-        <f t="shared" si="109"/>
+        <f t="shared" si="116"/>
         <v>4.9452075289575284</v>
       </c>
       <c r="Y139" s="374">
-        <f t="shared" si="109"/>
+        <f t="shared" si="116"/>
         <v>4.9452075289575284</v>
       </c>
       <c r="Z139" s="374">
@@ -33459,7 +33459,7 @@
       <c r="AE139" s="72"/>
       <c r="AF139" s="72"/>
       <c r="AG139" s="63">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH139" s="66"/>
@@ -33471,11 +33471,11 @@
       </c>
       <c r="AL139" s="100"/>
       <c r="AM139" s="99" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>R-SW_Det_KER_N3</v>
       </c>
       <c r="AN139" s="99" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Wood Stove</v>
       </c>
       <c r="AO139" s="101" t="s">
@@ -33523,15 +33523,15 @@
         <v>0.7</v>
       </c>
       <c r="Q140" s="29">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>0.7</v>
       </c>
       <c r="R140" s="29">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>0.7</v>
       </c>
       <c r="S140" s="58">
-        <f t="shared" si="108"/>
+        <f t="shared" si="115"/>
         <v>0.7</v>
       </c>
       <c r="T140" s="54">
@@ -33569,7 +33569,7 @@
         <v>5</v>
       </c>
       <c r="AG140" s="62">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH140" s="65"/>
@@ -33581,11 +33581,11 @@
       </c>
       <c r="AL140" s="100"/>
       <c r="AM140" s="99" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>R-SH_Det_GAS_N1</v>
       </c>
       <c r="AN140" s="99" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>Residential Natural Gas Heating - New 1 SH</v>
       </c>
       <c r="AO140" s="100" t="s">
@@ -33635,15 +33635,15 @@
         <v>0.7</v>
       </c>
       <c r="Q141" s="23">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="R141" s="23">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="S141" s="57">
-        <f t="shared" si="108"/>
+        <f t="shared" si="115"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="T141" s="53">
@@ -33681,7 +33681,7 @@
         <v>5</v>
       </c>
       <c r="AG141" s="63">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH141" s="66"/>
@@ -33693,11 +33693,11 @@
       </c>
       <c r="AL141" s="100"/>
       <c r="AM141" s="99" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>R-SW_Det_GAS_N1</v>
       </c>
       <c r="AN141" s="99" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>Residential Natural Gas Heating - New 2 SH + WH</v>
       </c>
       <c r="AO141" s="100" t="s">
@@ -33755,15 +33755,15 @@
         <v>3.5249999999999999</v>
       </c>
       <c r="W142" s="373">
-        <f t="shared" ref="W142:Y142" si="110">3.525</f>
+        <f t="shared" ref="W142:Y142" si="117">3.525</f>
         <v>3.5249999999999999</v>
       </c>
       <c r="X142" s="373">
-        <f t="shared" si="110"/>
+        <f t="shared" si="117"/>
         <v>3.5249999999999999</v>
       </c>
       <c r="Y142" s="373">
-        <f t="shared" si="110"/>
+        <f t="shared" si="117"/>
         <v>3.5249999999999999</v>
       </c>
       <c r="Z142" s="373">
@@ -33776,7 +33776,7 @@
       <c r="AE142" s="71"/>
       <c r="AF142" s="71"/>
       <c r="AG142" s="62">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH142" s="65"/>
@@ -33788,11 +33788,11 @@
       </c>
       <c r="AL142" s="100"/>
       <c r="AM142" s="99" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>R-SW_Det_GAS_N2</v>
       </c>
       <c r="AN142" s="99" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>Residential Natural Gas Heating - New 3 SH + WH + Solar</v>
       </c>
       <c r="AO142" s="100" t="s">
@@ -33842,15 +33842,15 @@
         <v>0.7</v>
       </c>
       <c r="Q143" s="23">
-        <f t="shared" ref="Q143:Q145" si="111">I143*0.7</f>
+        <f t="shared" ref="Q143:Q145" si="118">I143*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R143" s="23">
-        <f t="shared" ref="R143:R145" si="112">J143*0.7</f>
+        <f t="shared" ref="R143:R145" si="119">J143*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S143" s="57">
-        <f t="shared" ref="S143:S145" si="113">K143*0.7</f>
+        <f t="shared" ref="S143:S145" si="120">K143*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T143" s="53">
@@ -33883,7 +33883,7 @@
       <c r="AE143" s="72"/>
       <c r="AF143" s="72"/>
       <c r="AG143" s="63">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH143" s="66"/>
@@ -33895,11 +33895,11 @@
       </c>
       <c r="AL143" s="100"/>
       <c r="AM143" s="99" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>R-SW_Det_GAS_N3</v>
       </c>
       <c r="AN143" s="99" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>Residential Natural Gas Heating - New 4 SH + WH + Wood Stove</v>
       </c>
       <c r="AO143" s="100" t="s">
@@ -33949,15 +33949,15 @@
         <v>0.7</v>
       </c>
       <c r="Q144" s="29">
-        <f t="shared" si="111"/>
+        <f t="shared" si="118"/>
         <v>0.7</v>
       </c>
       <c r="R144" s="29">
-        <f t="shared" si="112"/>
+        <f t="shared" si="119"/>
         <v>0.7</v>
       </c>
       <c r="S144" s="58">
-        <f t="shared" si="113"/>
+        <f t="shared" si="120"/>
         <v>0.7</v>
       </c>
       <c r="T144" s="54">
@@ -33993,7 +33993,7 @@
         <v>5</v>
       </c>
       <c r="AG144" s="62">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH144" s="65"/>
@@ -34005,11 +34005,11 @@
       </c>
       <c r="AL144" s="100"/>
       <c r="AM144" s="99" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>R-SH_Det_LPG_N1</v>
       </c>
       <c r="AN144" s="99" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>Residential Liquid Petroleum Gas- New 1 SH</v>
       </c>
       <c r="AO144" s="100" t="s">
@@ -34059,15 +34059,15 @@
         <v>0.7</v>
       </c>
       <c r="Q145" s="23">
-        <f t="shared" si="111"/>
+        <f t="shared" si="118"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="R145" s="23">
-        <f t="shared" si="112"/>
+        <f t="shared" si="119"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="S145" s="57">
-        <f t="shared" si="113"/>
+        <f t="shared" si="120"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="T145" s="53">
@@ -34105,7 +34105,7 @@
         <v>5</v>
       </c>
       <c r="AG145" s="63">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH145" s="66"/>
@@ -34117,11 +34117,11 @@
       </c>
       <c r="AL145" s="100"/>
       <c r="AM145" s="99" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>R-SW_Det_LPG_N1</v>
       </c>
       <c r="AN145" s="99" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>Residential Liquid Petroleum Gas- New 2 SH + WH</v>
       </c>
       <c r="AO145" s="100" t="s">
@@ -34175,19 +34175,19 @@
       </c>
       <c r="U146" s="41"/>
       <c r="V146" s="373">
-        <f t="shared" ref="V146:Y147" si="114">V142+0.3</f>
+        <f t="shared" ref="V146:Y147" si="121">V142+0.3</f>
         <v>3.8249999999999997</v>
       </c>
       <c r="W146" s="373">
-        <f t="shared" si="114"/>
+        <f t="shared" si="121"/>
         <v>3.8249999999999997</v>
       </c>
       <c r="X146" s="373">
-        <f t="shared" si="114"/>
+        <f t="shared" si="121"/>
         <v>3.8249999999999997</v>
       </c>
       <c r="Y146" s="373">
-        <f t="shared" si="114"/>
+        <f t="shared" si="121"/>
         <v>3.8249999999999997</v>
       </c>
       <c r="Z146" s="373">
@@ -34201,7 +34201,7 @@
       <c r="AE146" s="71"/>
       <c r="AF146" s="71"/>
       <c r="AG146" s="62">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH146" s="65"/>
@@ -34213,11 +34213,11 @@
       </c>
       <c r="AL146" s="100"/>
       <c r="AM146" s="206" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>R-SH_Det_WOO_N1</v>
       </c>
       <c r="AN146" s="206" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>Residential Biomass Boiler - New 1 SH</v>
       </c>
       <c r="AO146" s="100" t="s">
@@ -34267,15 +34267,15 @@
         <v>0.7</v>
       </c>
       <c r="Q147" s="23">
-        <f t="shared" ref="Q147" si="115">I147*0.7</f>
+        <f t="shared" ref="Q147" si="122">I147*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R147" s="23">
-        <f t="shared" ref="R147" si="116">J147*0.7</f>
+        <f t="shared" ref="R147" si="123">J147*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S147" s="57">
-        <f t="shared" ref="S147" si="117">K147*0.7</f>
+        <f t="shared" ref="S147" si="124">K147*0.7</f>
         <v>0.7</v>
       </c>
       <c r="T147" s="53">
@@ -34283,19 +34283,19 @@
       </c>
       <c r="U147" s="25"/>
       <c r="V147" s="374">
-        <f t="shared" si="114"/>
+        <f t="shared" si="121"/>
         <v>4.1040057915057915</v>
       </c>
       <c r="W147" s="374">
-        <f t="shared" si="114"/>
+        <f t="shared" si="121"/>
         <v>4.1040057915057915</v>
       </c>
       <c r="X147" s="374">
-        <f t="shared" si="114"/>
+        <f t="shared" si="121"/>
         <v>4.1040057915057915</v>
       </c>
       <c r="Y147" s="374">
-        <f t="shared" si="114"/>
+        <f t="shared" si="121"/>
         <v>4.1040057915057915</v>
       </c>
       <c r="Z147" s="373">
@@ -34309,7 +34309,7 @@
       <c r="AE147" s="72"/>
       <c r="AF147" s="72"/>
       <c r="AG147" s="63">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH147" s="66"/>
@@ -34321,11 +34321,11 @@
       </c>
       <c r="AL147" s="100"/>
       <c r="AM147" s="206" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>R-SW_Det_WOO_N1</v>
       </c>
       <c r="AN147" s="206" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>Residential Biomass Boiler - New 2 SH + WH</v>
       </c>
       <c r="AO147" s="100" t="s">
@@ -34404,7 +34404,7 @@
       <c r="AE148" s="71"/>
       <c r="AF148" s="71"/>
       <c r="AG148" s="62">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH148" s="65"/>
@@ -34464,19 +34464,19 @@
       <c r="N149" s="32"/>
       <c r="O149" s="45"/>
       <c r="P149" s="22">
-        <f t="shared" ref="P149:S149" si="118">H149*0.7</f>
+        <f t="shared" ref="P149:S149" si="125">H149*0.7</f>
         <v>0.7</v>
       </c>
       <c r="Q149" s="23">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>0.7</v>
       </c>
       <c r="R149" s="23">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>0.7</v>
       </c>
       <c r="S149" s="57">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>0.7</v>
       </c>
       <c r="T149" s="53">
@@ -34509,7 +34509,7 @@
       <c r="AE149" s="72"/>
       <c r="AF149" s="72"/>
       <c r="AG149" s="63">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH149" s="66"/>
@@ -34601,7 +34601,7 @@
       <c r="AE150" s="72"/>
       <c r="AF150" s="72"/>
       <c r="AG150" s="63">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH150" s="66"/>
@@ -34663,19 +34663,19 @@
       <c r="N151" s="32"/>
       <c r="O151" s="45"/>
       <c r="P151" s="22">
-        <f t="shared" ref="P151:P153" si="119">H151*0.7</f>
+        <f t="shared" ref="P151:P153" si="126">H151*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="Q151" s="23">
-        <f t="shared" ref="Q151:Q153" si="120">I151*0.7</f>
+        <f t="shared" ref="Q151:Q153" si="127">I151*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="R151" s="23">
-        <f t="shared" ref="R151:R153" si="121">J151*0.7</f>
+        <f t="shared" ref="R151:R153" si="128">J151*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="S151" s="57">
-        <f t="shared" ref="S151:S153" si="122">K151*0.7</f>
+        <f t="shared" ref="S151:S153" si="129">K151*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="T151" s="53">
@@ -34708,7 +34708,7 @@
       <c r="AE151" s="72"/>
       <c r="AF151" s="72"/>
       <c r="AG151" s="63">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH151" s="66"/>
@@ -34781,19 +34781,19 @@
         <v>4.5825000000000005</v>
       </c>
       <c r="W152" s="62">
-        <f t="shared" ref="W152:Z152" si="123">W138</f>
+        <f t="shared" ref="W152:Z152" si="130">W138</f>
         <v>4.5825000000000005</v>
       </c>
       <c r="X152" s="62">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>4.5825000000000005</v>
       </c>
       <c r="Y152" s="62">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>4.5825000000000005</v>
       </c>
       <c r="Z152" s="62">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>0.12</v>
       </c>
       <c r="AA152" s="65"/>
@@ -34803,7 +34803,7 @@
       <c r="AE152" s="71"/>
       <c r="AF152" s="71"/>
       <c r="AG152" s="62">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH152" s="65"/>
@@ -34864,19 +34864,19 @@
       <c r="N153" s="50"/>
       <c r="O153" s="51"/>
       <c r="P153" s="246">
-        <f t="shared" si="119"/>
+        <f t="shared" si="126"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="Q153" s="26">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="R153" s="26">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="S153" s="59">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>0.57399999999999995</v>
       </c>
       <c r="T153" s="55">
@@ -34888,19 +34888,19 @@
         <v>4.9452075289575284</v>
       </c>
       <c r="W153" s="62">
-        <f t="shared" ref="W153:Z153" si="124">W139</f>
+        <f t="shared" ref="W153:Z153" si="131">W139</f>
         <v>4.9452075289575284</v>
       </c>
       <c r="X153" s="62">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>4.9452075289575284</v>
       </c>
       <c r="Y153" s="62">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>4.9452075289575284</v>
       </c>
       <c r="Z153" s="62">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>0.12</v>
       </c>
       <c r="AA153" s="66"/>
@@ -34910,7 +34910,7 @@
       <c r="AE153" s="72"/>
       <c r="AF153" s="72"/>
       <c r="AG153" s="63">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH153" s="67"/>
@@ -34922,11 +34922,11 @@
       </c>
       <c r="AL153" s="100"/>
       <c r="AM153" s="206" t="str">
-        <f>C157</f>
+        <f t="shared" ref="AM153:AM184" si="132">C157</f>
         <v>R-SH_Det_ELC_HPN1</v>
       </c>
       <c r="AN153" s="206" t="str">
-        <f>D157</f>
+        <f t="shared" ref="AN153:AN184" si="133">D157</f>
         <v>Residential Electric Heat Pump - Air to Air - SH</v>
       </c>
       <c r="AO153" s="100" t="s">
@@ -34979,11 +34979,11 @@
       <c r="AJ154" s="34"/>
       <c r="AL154" s="100"/>
       <c r="AM154" s="206" t="str">
-        <f>C158</f>
+        <f t="shared" si="132"/>
         <v>R-HC_Det_ELC_HPN1</v>
       </c>
       <c r="AN154" s="206" t="str">
-        <f>D158</f>
+        <f t="shared" si="133"/>
         <v>Residential Electric Heat Pump - Air to Air - SH + SC</v>
       </c>
       <c r="AO154" s="100" t="s">
@@ -35063,7 +35063,7 @@
       <c r="AE155" s="83"/>
       <c r="AF155" s="83"/>
       <c r="AG155" s="81">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH155" s="82"/>
@@ -35075,11 +35075,11 @@
       </c>
       <c r="AL155" s="100"/>
       <c r="AM155" s="206" t="str">
-        <f>C159</f>
+        <f t="shared" si="132"/>
         <v>R-SH_Det_ELC_HPN2-AB</v>
       </c>
       <c r="AN155" s="206" t="str">
-        <f>D159</f>
+        <f t="shared" si="133"/>
         <v>Residential Electric Heat Pump - Air to Water - SH - AB rated dwelling</v>
       </c>
       <c r="AO155" s="100" t="s">
@@ -35132,11 +35132,11 @@
       <c r="AJ156" s="34"/>
       <c r="AL156" s="100"/>
       <c r="AM156" s="206" t="str">
-        <f>C160</f>
+        <f t="shared" si="132"/>
         <v>R-SH_Det_ELC_HPN2-C</v>
       </c>
       <c r="AN156" s="206" t="str">
-        <f>D160</f>
+        <f t="shared" si="133"/>
         <v>Residential Electric Heat Pump - Air to Water - SH - C rated dwelling</v>
       </c>
       <c r="AO156" s="100" t="s">
@@ -35218,7 +35218,7 @@
       <c r="AE157" s="84"/>
       <c r="AF157" s="20"/>
       <c r="AG157" s="84">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AH157" s="88"/>
@@ -35230,11 +35230,11 @@
       </c>
       <c r="AL157" s="100"/>
       <c r="AM157" s="206" t="str">
-        <f>C161</f>
+        <f t="shared" si="132"/>
         <v>R-SH_Det_ELC_HPN2-D</v>
       </c>
       <c r="AN157" s="206" t="str">
-        <f>D161</f>
+        <f t="shared" si="133"/>
         <v>Residential Electric Heat Pump - Air to Water - SH - D rated dwelling</v>
       </c>
       <c r="AO157" s="100" t="s">
@@ -35324,7 +35324,7 @@
       <c r="AE158" s="64"/>
       <c r="AF158" s="26"/>
       <c r="AG158" s="64">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH158" s="27"/>
@@ -35336,11 +35336,11 @@
       </c>
       <c r="AL158" s="100"/>
       <c r="AM158" s="206" t="str">
-        <f>C162</f>
+        <f t="shared" si="132"/>
         <v>R-SH_Det_ELC_HPN2-E</v>
       </c>
       <c r="AN158" s="206" t="str">
-        <f>D162</f>
+        <f t="shared" si="133"/>
         <v>Residential Electric Heat Pump - Air to Water - SH - E rated dwelling</v>
       </c>
       <c r="AO158" s="100" t="s">
@@ -35420,7 +35420,7 @@
       <c r="AE159" s="254"/>
       <c r="AF159" s="46"/>
       <c r="AG159" s="84">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AH159" s="87"/>
@@ -35432,11 +35432,11 @@
       </c>
       <c r="AL159" s="100"/>
       <c r="AM159" s="206" t="str">
-        <f>C163</f>
+        <f t="shared" si="132"/>
         <v>R-SH_Det_ELC_HPN2-F</v>
       </c>
       <c r="AN159" s="206" t="str">
-        <f>D163</f>
+        <f t="shared" si="133"/>
         <v>Residential Electric Heat Pump - Air to Water - SH - F rated dwelling</v>
       </c>
       <c r="AO159" s="100" t="s">
@@ -35492,19 +35492,19 @@
       </c>
       <c r="U160" s="23"/>
       <c r="V160" s="22">
-        <f>V21/$V$20*$V$159</f>
+        <f t="shared" ref="V160:Y164" si="134">V21/$V$20*$V$159</f>
         <v>12.471466950959487</v>
       </c>
       <c r="W160" s="23">
-        <f>W21/$V$20*$V$159</f>
+        <f t="shared" si="134"/>
         <v>11.585236950959489</v>
       </c>
       <c r="X160" s="23">
-        <f>X21/$V$20*$V$159</f>
+        <f t="shared" si="134"/>
         <v>10.778767650959487</v>
       </c>
       <c r="Y160" s="57">
-        <f>Y21/$V$20*$V$159</f>
+        <f t="shared" si="134"/>
         <v>10.699006950959488</v>
       </c>
       <c r="Z160" s="63">
@@ -35517,7 +35517,7 @@
       <c r="AE160" s="72"/>
       <c r="AF160" s="44"/>
       <c r="AG160" s="63">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AH160" s="66"/>
@@ -35529,11 +35529,11 @@
       </c>
       <c r="AL160" s="100"/>
       <c r="AM160" s="206" t="str">
-        <f>C164</f>
+        <f t="shared" si="132"/>
         <v>R-SH_Det_ELC_HPN2-G</v>
       </c>
       <c r="AN160" s="206" t="str">
-        <f>D164</f>
+        <f t="shared" si="133"/>
         <v>Residential Electric Heat Pump - Air to Water - SH - G rated dwelling</v>
       </c>
       <c r="AO160" s="100" t="s">
@@ -35589,19 +35589,19 @@
       </c>
       <c r="U161" s="29"/>
       <c r="V161" s="40">
-        <f>V22/$V$20*$V$159</f>
+        <f t="shared" si="134"/>
         <v>12.602690298507461</v>
       </c>
       <c r="W161" s="29">
-        <f>W22/$V$20*$V$159</f>
+        <f t="shared" si="134"/>
         <v>11.716460298507462</v>
       </c>
       <c r="X161" s="29">
-        <f>X22/$V$20*$V$159</f>
+        <f t="shared" si="134"/>
         <v>10.909990998507464</v>
       </c>
       <c r="Y161" s="58">
-        <f>Y22/$V$20*$V$159</f>
+        <f t="shared" si="134"/>
         <v>10.830230298507464</v>
       </c>
       <c r="Z161" s="62">
@@ -35614,7 +35614,7 @@
       <c r="AE161" s="71"/>
       <c r="AF161" s="42"/>
       <c r="AG161" s="62">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AH161" s="65"/>
@@ -35626,11 +35626,11 @@
       </c>
       <c r="AL161" s="100"/>
       <c r="AM161" s="206" t="str">
-        <f>C165</f>
+        <f t="shared" si="132"/>
         <v>R-SW_Det_ELC_HPN1-AB</v>
       </c>
       <c r="AN161" s="206" t="str">
-        <f>D165</f>
+        <f t="shared" si="133"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH - AB rated dwelling</v>
       </c>
       <c r="AO161" s="100" t="s">
@@ -35686,19 +35686,19 @@
       </c>
       <c r="U162" s="23"/>
       <c r="V162" s="22">
-        <f>V23/$V$20*$V$159</f>
+        <f t="shared" si="134"/>
         <v>13.258807036247333</v>
       </c>
       <c r="W162" s="23">
-        <f>W23/$V$20*$V$159</f>
+        <f t="shared" si="134"/>
         <v>12.372577036247336</v>
       </c>
       <c r="X162" s="23">
-        <f>X23/$V$20*$V$159</f>
+        <f t="shared" si="134"/>
         <v>11.566107736247336</v>
       </c>
       <c r="Y162" s="57">
-        <f>Y23/$V$20*$V$159</f>
+        <f t="shared" si="134"/>
         <v>11.486347036247336</v>
       </c>
       <c r="Z162" s="63">
@@ -35711,7 +35711,7 @@
       <c r="AE162" s="72"/>
       <c r="AF162" s="44"/>
       <c r="AG162" s="63">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AH162" s="66"/>
@@ -35723,11 +35723,11 @@
       </c>
       <c r="AL162" s="100"/>
       <c r="AM162" s="206" t="str">
-        <f>C166</f>
+        <f t="shared" si="132"/>
         <v>R-SW_Det_ELC_HPN1-C</v>
       </c>
       <c r="AN162" s="206" t="str">
-        <f>D166</f>
+        <f t="shared" si="133"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH - C rated dwelling</v>
       </c>
       <c r="AO162" s="100" t="s">
@@ -35783,19 +35783,19 @@
       </c>
       <c r="U163" s="29"/>
       <c r="V163" s="40">
-        <f>V24/$V$20*$V$159</f>
+        <f t="shared" si="134"/>
         <v>13.914923773987205</v>
       </c>
       <c r="W163" s="29">
-        <f>W24/$V$20*$V$159</f>
+        <f t="shared" si="134"/>
         <v>13.028693773987207</v>
       </c>
       <c r="X163" s="29">
-        <f>X24/$V$20*$V$159</f>
+        <f t="shared" si="134"/>
         <v>12.222224473987209</v>
       </c>
       <c r="Y163" s="58">
-        <f>Y24/$V$20*$V$159</f>
+        <f t="shared" si="134"/>
         <v>12.142463773987206</v>
       </c>
       <c r="Z163" s="62">
@@ -35808,7 +35808,7 @@
       <c r="AE163" s="71"/>
       <c r="AF163" s="42"/>
       <c r="AG163" s="62">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AH163" s="65"/>
@@ -35820,11 +35820,11 @@
       </c>
       <c r="AL163" s="100"/>
       <c r="AM163" s="206" t="str">
-        <f>C167</f>
+        <f t="shared" si="132"/>
         <v>R-SW_Det_ELC_HPN1-D</v>
       </c>
       <c r="AN163" s="206" t="str">
-        <f>D167</f>
+        <f t="shared" si="133"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH - D rated dwelling</v>
       </c>
       <c r="AO163" s="100" t="s">
@@ -35880,19 +35880,19 @@
       </c>
       <c r="U164" s="26"/>
       <c r="V164" s="246">
-        <f>V25/$V$20*$V$159</f>
+        <f t="shared" si="134"/>
         <v>14.571040511727078</v>
       </c>
       <c r="W164" s="26">
-        <f>W25/$V$20*$V$159</f>
+        <f t="shared" si="134"/>
         <v>13.684810511727079</v>
       </c>
       <c r="X164" s="26">
-        <f>X25/$V$20*$V$159</f>
+        <f t="shared" si="134"/>
         <v>12.878341211727081</v>
       </c>
       <c r="Y164" s="59">
-        <f>Y25/$V$20*$V$159</f>
+        <f t="shared" si="134"/>
         <v>12.79858051172708</v>
       </c>
       <c r="Z164" s="64">
@@ -35905,7 +35905,7 @@
       <c r="AE164" s="515"/>
       <c r="AF164" s="49"/>
       <c r="AG164" s="64">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AH164" s="67"/>
@@ -35917,11 +35917,11 @@
       </c>
       <c r="AL164" s="100"/>
       <c r="AM164" s="206" t="str">
-        <f>C168</f>
+        <f t="shared" si="132"/>
         <v>R-SW_Det_ELC_HPN1-E</v>
       </c>
       <c r="AN164" s="206" t="str">
-        <f>D168</f>
+        <f t="shared" si="133"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH - E rated dwelling</v>
       </c>
       <c r="AO164" s="100" t="s">
@@ -35973,15 +35973,15 @@
         <v>0.7</v>
       </c>
       <c r="Q165" s="20">
-        <f t="shared" ref="Q165:S176" si="125">I165*0.7</f>
+        <f t="shared" ref="Q165:S176" si="135">I165*0.7</f>
         <v>0.76999999999999991</v>
       </c>
       <c r="R165" s="20">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.86333333333333329</v>
       </c>
       <c r="S165" s="56">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.93333333333333324</v>
       </c>
       <c r="T165" s="510">
@@ -36014,7 +36014,7 @@
       <c r="AE165" s="254"/>
       <c r="AF165" s="46"/>
       <c r="AG165" s="84">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH165" s="87"/>
@@ -36026,11 +36026,11 @@
       </c>
       <c r="AL165" s="100"/>
       <c r="AM165" s="206" t="str">
-        <f>C169</f>
+        <f t="shared" si="132"/>
         <v>R-SW_Det_ELC_HPN1-F</v>
       </c>
       <c r="AN165" s="206" t="str">
-        <f>D169</f>
+        <f t="shared" si="133"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH - F rated dwelling</v>
       </c>
       <c r="AO165" s="100" t="s">
@@ -36078,19 +36078,19 @@
       <c r="N166" s="23"/>
       <c r="O166" s="57"/>
       <c r="P166" s="22">
-        <f t="shared" ref="P166:P170" si="126">H166*0.7</f>
+        <f t="shared" ref="P166:P170" si="136">H166*0.7</f>
         <v>0.7</v>
       </c>
       <c r="Q166" s="23">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.76999999999999991</v>
       </c>
       <c r="R166" s="23">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.86333333333333329</v>
       </c>
       <c r="S166" s="57">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.93333333333333324</v>
       </c>
       <c r="T166" s="511">
@@ -36098,19 +36098,19 @@
       </c>
       <c r="U166" s="57"/>
       <c r="V166" s="22">
-        <f>V21/$V$20*$V$165</f>
+        <f t="shared" ref="V166:Y170" si="137">V21/$V$20*$V$165</f>
         <v>12.576711397803027</v>
       </c>
       <c r="W166" s="23">
-        <f>W21/$V$20*$V$165</f>
+        <f t="shared" si="137"/>
         <v>11.683002663625814</v>
       </c>
       <c r="X166" s="23">
-        <f>X21/$V$20*$V$165</f>
+        <f t="shared" si="137"/>
         <v>10.869727715524547</v>
       </c>
       <c r="Y166" s="57">
-        <f>Y21/$V$20*$V$165</f>
+        <f t="shared" si="137"/>
         <v>10.789293929448599</v>
       </c>
       <c r="Z166" s="63">
@@ -36123,7 +36123,7 @@
       <c r="AE166" s="72"/>
       <c r="AF166" s="44"/>
       <c r="AG166" s="63">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH166" s="66"/>
@@ -36135,11 +36135,11 @@
       </c>
       <c r="AL166" s="100"/>
       <c r="AM166" s="206" t="str">
-        <f>C170</f>
+        <f t="shared" si="132"/>
         <v>R-SW_Det_ELC_HPN1-G</v>
       </c>
       <c r="AN166" s="206" t="str">
-        <f>D170</f>
+        <f t="shared" si="133"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH - G rated dwelling</v>
       </c>
       <c r="AO166" s="100" t="s">
@@ -36187,19 +36187,19 @@
       <c r="N167" s="29"/>
       <c r="O167" s="58"/>
       <c r="P167" s="40">
-        <f t="shared" si="126"/>
+        <f t="shared" si="136"/>
         <v>0.7</v>
       </c>
       <c r="Q167" s="29">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.76999999999999991</v>
       </c>
       <c r="R167" s="29">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.86333333333333329</v>
       </c>
       <c r="S167" s="58">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.93333333333333324</v>
       </c>
       <c r="T167" s="512">
@@ -36207,19 +36207,19 @@
       </c>
       <c r="U167" s="58"/>
       <c r="V167" s="40">
-        <f>V22/$V$20*$V$165</f>
+        <f t="shared" si="137"/>
         <v>12.709042115372503</v>
       </c>
       <c r="W167" s="29">
-        <f>W22/$V$20*$V$165</f>
+        <f t="shared" si="137"/>
         <v>11.815333381195289</v>
       </c>
       <c r="X167" s="29">
-        <f>X22/$V$20*$V$165</f>
+        <f t="shared" si="137"/>
         <v>11.002058433094025</v>
       </c>
       <c r="Y167" s="58">
-        <f>Y22/$V$20*$V$165</f>
+        <f t="shared" si="137"/>
         <v>10.921624647018076</v>
       </c>
       <c r="Z167" s="62">
@@ -36232,7 +36232,7 @@
       <c r="AE167" s="71"/>
       <c r="AF167" s="42"/>
       <c r="AG167" s="62">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH167" s="65"/>
@@ -36244,11 +36244,11 @@
       </c>
       <c r="AL167" s="100"/>
       <c r="AM167" s="206" t="str">
-        <f>C171</f>
+        <f t="shared" si="132"/>
         <v>R-SW_Det_ELC_HPN2-AB</v>
       </c>
       <c r="AN167" s="206" t="str">
-        <f>D171</f>
+        <f t="shared" si="133"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar - AB rated dwelling</v>
       </c>
       <c r="AO167" s="100" t="s">
@@ -36296,19 +36296,19 @@
       <c r="N168" s="23"/>
       <c r="O168" s="57"/>
       <c r="P168" s="22">
-        <f t="shared" si="126"/>
+        <f t="shared" si="136"/>
         <v>0.7</v>
       </c>
       <c r="Q168" s="23">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.76999999999999991</v>
       </c>
       <c r="R168" s="23">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.86333333333333329</v>
       </c>
       <c r="S168" s="57">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.93333333333333324</v>
       </c>
       <c r="T168" s="511">
@@ -36316,19 +36316,19 @@
       </c>
       <c r="U168" s="57"/>
       <c r="V168" s="22">
-        <f>V23/$V$20*$V$165</f>
+        <f t="shared" si="137"/>
         <v>13.370695703219885</v>
       </c>
       <c r="W168" s="23">
-        <f>W23/$V$20*$V$165</f>
+        <f t="shared" si="137"/>
         <v>12.476986969042672</v>
       </c>
       <c r="X168" s="23">
-        <f>X23/$V$20*$V$165</f>
+        <f t="shared" si="137"/>
         <v>11.663712020941407</v>
       </c>
       <c r="Y168" s="57">
-        <f>Y23/$V$20*$V$165</f>
+        <f t="shared" si="137"/>
         <v>11.583278234865459</v>
       </c>
       <c r="Z168" s="63">
@@ -36341,7 +36341,7 @@
       <c r="AE168" s="72"/>
       <c r="AF168" s="44"/>
       <c r="AG168" s="63">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH168" s="66"/>
@@ -36353,11 +36353,11 @@
       </c>
       <c r="AL168" s="100"/>
       <c r="AM168" s="206" t="str">
-        <f>C172</f>
+        <f t="shared" si="132"/>
         <v>R-SW_Det_ELC_HPN2-C</v>
       </c>
       <c r="AN168" s="206" t="str">
-        <f>D172</f>
+        <f t="shared" si="133"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar - C rated dwelling</v>
       </c>
       <c r="AO168" s="100" t="s">
@@ -36405,19 +36405,19 @@
       <c r="N169" s="29"/>
       <c r="O169" s="58"/>
       <c r="P169" s="40">
-        <f t="shared" si="126"/>
+        <f t="shared" si="136"/>
         <v>0.7</v>
       </c>
       <c r="Q169" s="29">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.76999999999999991</v>
       </c>
       <c r="R169" s="29">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.86333333333333329</v>
       </c>
       <c r="S169" s="58">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.93333333333333324</v>
       </c>
       <c r="T169" s="512">
@@ -36425,19 +36425,19 @@
       </c>
       <c r="U169" s="58"/>
       <c r="V169" s="40">
-        <f>V24/$V$20*$V$165</f>
+        <f t="shared" si="137"/>
         <v>14.032349291067268</v>
       </c>
       <c r="W169" s="29">
-        <f>W24/$V$20*$V$165</f>
+        <f t="shared" si="137"/>
         <v>13.138640556890053</v>
       </c>
       <c r="X169" s="29">
-        <f>X24/$V$20*$V$165</f>
+        <f t="shared" si="137"/>
         <v>12.32536560878879</v>
       </c>
       <c r="Y169" s="58">
-        <f>Y24/$V$20*$V$165</f>
+        <f t="shared" si="137"/>
         <v>12.244931822712838</v>
       </c>
       <c r="Z169" s="62">
@@ -36450,7 +36450,7 @@
       <c r="AE169" s="71"/>
       <c r="AF169" s="42"/>
       <c r="AG169" s="62">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH169" s="65"/>
@@ -36462,11 +36462,11 @@
       </c>
       <c r="AL169" s="100"/>
       <c r="AM169" s="206" t="str">
-        <f>C173</f>
+        <f t="shared" si="132"/>
         <v>R-SW_Det_ELC_HPN2-D</v>
       </c>
       <c r="AN169" s="206" t="str">
-        <f>D173</f>
+        <f t="shared" si="133"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar - D rated dwelling</v>
       </c>
       <c r="AO169" s="100" t="s">
@@ -36514,19 +36514,19 @@
       <c r="N170" s="26"/>
       <c r="O170" s="59"/>
       <c r="P170" s="246">
-        <f t="shared" si="126"/>
+        <f t="shared" si="136"/>
         <v>0.7</v>
       </c>
       <c r="Q170" s="26">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.76999999999999991</v>
       </c>
       <c r="R170" s="26">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.86333333333333329</v>
       </c>
       <c r="S170" s="59">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.93333333333333324</v>
       </c>
       <c r="T170" s="514">
@@ -36534,19 +36534,19 @@
       </c>
       <c r="U170" s="59"/>
       <c r="V170" s="246">
-        <f>V25/$V$20*$V$165</f>
+        <f t="shared" si="137"/>
         <v>14.694002878914649</v>
       </c>
       <c r="W170" s="26">
-        <f>W25/$V$20*$V$165</f>
+        <f t="shared" si="137"/>
         <v>13.800294144737435</v>
       </c>
       <c r="X170" s="26">
-        <f>X25/$V$20*$V$165</f>
+        <f t="shared" si="137"/>
         <v>12.987019196636171</v>
       </c>
       <c r="Y170" s="59">
-        <f>Y25/$V$20*$V$165</f>
+        <f t="shared" si="137"/>
         <v>12.90658541056022</v>
       </c>
       <c r="Z170" s="64">
@@ -36559,7 +36559,7 @@
       <c r="AE170" s="515"/>
       <c r="AF170" s="49"/>
       <c r="AG170" s="64">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH170" s="67"/>
@@ -36571,11 +36571,11 @@
       </c>
       <c r="AL170" s="100"/>
       <c r="AM170" s="206" t="str">
-        <f>C174</f>
+        <f t="shared" si="132"/>
         <v>R-SW_Det_ELC_HPN2-E</v>
       </c>
       <c r="AN170" s="206" t="str">
-        <f>D174</f>
+        <f t="shared" si="133"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar - E rated dwelling</v>
       </c>
       <c r="AO170" s="100" t="s">
@@ -36627,15 +36627,15 @@
         <v>0.7</v>
       </c>
       <c r="Q171" s="29">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.77700000000000002</v>
       </c>
       <c r="R171" s="29">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="S171" s="58">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="T171" s="510">
@@ -36673,7 +36673,7 @@
         <v>5</v>
       </c>
       <c r="AG171" s="84">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH171" s="87"/>
@@ -36685,11 +36685,11 @@
       </c>
       <c r="AL171" s="100"/>
       <c r="AM171" s="206" t="str">
-        <f>C175</f>
+        <f t="shared" si="132"/>
         <v>R-SW_Det_ELC_HPN2-F</v>
       </c>
       <c r="AN171" s="206" t="str">
-        <f>D175</f>
+        <f t="shared" si="133"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar - F rated dwelling</v>
       </c>
       <c r="AO171" s="100" t="s">
@@ -36737,19 +36737,19 @@
       <c r="N172" s="23"/>
       <c r="O172" s="57"/>
       <c r="P172" s="22">
-        <f t="shared" ref="P172:P176" si="127">H172*0.7</f>
+        <f t="shared" ref="P172:P176" si="138">H172*0.7</f>
         <v>0.7</v>
       </c>
       <c r="Q172" s="23">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.77700000000000002</v>
       </c>
       <c r="R172" s="23">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="S172" s="57">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="T172" s="511">
@@ -36757,19 +36757,19 @@
       </c>
       <c r="U172" s="23"/>
       <c r="V172" s="22">
-        <f>V21/$V$20*$V$171</f>
+        <f t="shared" ref="V172:Y176" si="139">V21/$V$20*$V$171</f>
         <v>19.191719325450666</v>
       </c>
       <c r="W172" s="23">
-        <f>W21/$V$20*$V$171</f>
+        <f t="shared" si="139"/>
         <v>17.827944118839099</v>
       </c>
       <c r="X172" s="23">
-        <f>X21/$V$20*$V$171</f>
+        <f t="shared" si="139"/>
         <v>16.586908680822567</v>
       </c>
       <c r="Y172" s="57">
-        <f>Y21/$V$20*$V$171</f>
+        <f t="shared" si="139"/>
         <v>16.464168912227528</v>
       </c>
       <c r="Z172" s="63">
@@ -36787,7 +36787,7 @@
         <v>5</v>
       </c>
       <c r="AG172" s="63">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH172" s="66"/>
@@ -36799,11 +36799,11 @@
       </c>
       <c r="AL172" s="100"/>
       <c r="AM172" s="206" t="str">
-        <f>C176</f>
+        <f t="shared" si="132"/>
         <v>R-SW_Det_ELC_HPN2-G</v>
       </c>
       <c r="AN172" s="206" t="str">
-        <f>D176</f>
+        <f t="shared" si="133"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar - G rated dwelling</v>
       </c>
       <c r="AO172" s="100" t="s">
@@ -36851,19 +36851,19 @@
       <c r="N173" s="29"/>
       <c r="O173" s="58"/>
       <c r="P173" s="40">
-        <f t="shared" si="127"/>
+        <f t="shared" si="138"/>
         <v>0.7</v>
       </c>
       <c r="Q173" s="29">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.77700000000000002</v>
       </c>
       <c r="R173" s="29">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="S173" s="58">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="T173" s="512">
@@ -36871,19 +36871,19 @@
       </c>
       <c r="U173" s="29"/>
       <c r="V173" s="40">
-        <f>V22/$V$20*$V$171</f>
+        <f t="shared" si="139"/>
         <v>19.393652399161216</v>
       </c>
       <c r="W173" s="29">
-        <f>W22/$V$20*$V$171</f>
+        <f t="shared" si="139"/>
         <v>18.029877192549648</v>
       </c>
       <c r="X173" s="29">
-        <f>X22/$V$20*$V$171</f>
+        <f t="shared" si="139"/>
         <v>16.78884175453312</v>
       </c>
       <c r="Y173" s="58">
-        <f>Y22/$V$20*$V$171</f>
+        <f t="shared" si="139"/>
         <v>16.666101985938077</v>
       </c>
       <c r="Z173" s="62">
@@ -36901,7 +36901,7 @@
         <v>5</v>
       </c>
       <c r="AG173" s="62">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH173" s="65"/>
@@ -36913,11 +36913,11 @@
       </c>
       <c r="AL173" s="100"/>
       <c r="AM173" s="206" t="str">
-        <f>C177</f>
+        <f t="shared" si="132"/>
         <v>R-SH_Det_ELC_HPN3-AB</v>
       </c>
       <c r="AN173" s="206" t="str">
-        <f>D177</f>
+        <f t="shared" si="133"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH - AB rated dwelling</v>
       </c>
       <c r="AO173" s="100" t="s">
@@ -36965,19 +36965,19 @@
       <c r="N174" s="23"/>
       <c r="O174" s="57"/>
       <c r="P174" s="22">
-        <f t="shared" si="127"/>
+        <f t="shared" si="138"/>
         <v>0.7</v>
       </c>
       <c r="Q174" s="23">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.77700000000000002</v>
       </c>
       <c r="R174" s="23">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="S174" s="57">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="T174" s="511">
@@ -36985,19 +36985,19 @@
       </c>
       <c r="U174" s="23"/>
       <c r="V174" s="22">
-        <f>V23/$V$20*$V$171</f>
+        <f t="shared" si="139"/>
         <v>20.403317767713965</v>
       </c>
       <c r="W174" s="23">
-        <f>W23/$V$20*$V$171</f>
+        <f t="shared" si="139"/>
         <v>19.039542561102397</v>
       </c>
       <c r="X174" s="23">
-        <f>X23/$V$20*$V$171</f>
+        <f t="shared" si="139"/>
         <v>17.798507123085869</v>
       </c>
       <c r="Y174" s="57">
-        <f>Y23/$V$20*$V$171</f>
+        <f t="shared" si="139"/>
         <v>17.67576735449083</v>
       </c>
       <c r="Z174" s="63">
@@ -37015,7 +37015,7 @@
         <v>5</v>
       </c>
       <c r="AG174" s="63">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH174" s="66"/>
@@ -37027,11 +37027,11 @@
       </c>
       <c r="AL174" s="100"/>
       <c r="AM174" s="206" t="str">
-        <f>C178</f>
+        <f t="shared" si="132"/>
         <v>R-SH_Det_ELC_HPN3-C</v>
       </c>
       <c r="AN174" s="206" t="str">
-        <f>D178</f>
+        <f t="shared" si="133"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH - C rated dwelling</v>
       </c>
       <c r="AO174" s="100" t="s">
@@ -37079,19 +37079,19 @@
       <c r="N175" s="29"/>
       <c r="O175" s="58"/>
       <c r="P175" s="40">
-        <f t="shared" si="127"/>
+        <f t="shared" si="138"/>
         <v>0.7</v>
       </c>
       <c r="Q175" s="29">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.77700000000000002</v>
       </c>
       <c r="R175" s="29">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="S175" s="58">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="T175" s="512">
@@ -37099,19 +37099,19 @@
       </c>
       <c r="U175" s="29"/>
       <c r="V175" s="40">
-        <f>V24/$V$20*$V$171</f>
+        <f t="shared" si="139"/>
         <v>21.412983136266714</v>
       </c>
       <c r="W175" s="29">
-        <f>W24/$V$20*$V$171</f>
+        <f t="shared" si="139"/>
         <v>20.049207929655147</v>
       </c>
       <c r="X175" s="29">
-        <f>X24/$V$20*$V$171</f>
+        <f t="shared" si="139"/>
         <v>18.808172491638622</v>
       </c>
       <c r="Y175" s="58">
-        <f>Y24/$V$20*$V$171</f>
+        <f t="shared" si="139"/>
         <v>18.685432723043576</v>
       </c>
       <c r="Z175" s="62">
@@ -37129,7 +37129,7 @@
         <v>5</v>
       </c>
       <c r="AG175" s="62">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH175" s="65"/>
@@ -37141,11 +37141,11 @@
       </c>
       <c r="AL175" s="100"/>
       <c r="AM175" s="206" t="str">
-        <f>C179</f>
+        <f t="shared" si="132"/>
         <v>R-SH_Det_ELC_HPN3-D</v>
       </c>
       <c r="AN175" s="206" t="str">
-        <f>D179</f>
+        <f t="shared" si="133"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH - D rated dwelling</v>
       </c>
       <c r="AO175" s="100" t="s">
@@ -37193,19 +37193,19 @@
       <c r="N176" s="26"/>
       <c r="O176" s="59"/>
       <c r="P176" s="246">
-        <f t="shared" si="127"/>
+        <f t="shared" si="138"/>
         <v>0.7</v>
       </c>
       <c r="Q176" s="26">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.77700000000000002</v>
       </c>
       <c r="R176" s="26">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="S176" s="59">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="T176" s="514">
@@ -37213,19 +37213,19 @@
       </c>
       <c r="U176" s="26"/>
       <c r="V176" s="246">
-        <f>V25/$V$20*$V$171</f>
+        <f t="shared" si="139"/>
         <v>22.422648504819467</v>
       </c>
       <c r="W176" s="26">
-        <f>W25/$V$20*$V$171</f>
+        <f t="shared" si="139"/>
         <v>21.058873298207896</v>
       </c>
       <c r="X176" s="26">
-        <f>X25/$V$20*$V$171</f>
+        <f t="shared" si="139"/>
         <v>19.817837860191371</v>
       </c>
       <c r="Y176" s="59">
-        <f>Y25/$V$20*$V$171</f>
+        <f t="shared" si="139"/>
         <v>19.695098091596325</v>
       </c>
       <c r="Z176" s="64">
@@ -37243,7 +37243,7 @@
         <v>5</v>
       </c>
       <c r="AG176" s="64">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH176" s="67"/>
@@ -37255,11 +37255,11 @@
       </c>
       <c r="AL176" s="100"/>
       <c r="AM176" s="206" t="str">
-        <f>C180</f>
+        <f t="shared" si="132"/>
         <v>R-SH_Det_ELC_HPN3-E</v>
       </c>
       <c r="AN176" s="206" t="str">
-        <f>D180</f>
+        <f t="shared" si="133"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH - E rated dwelling</v>
       </c>
       <c r="AO176" s="100" t="s">
@@ -37341,7 +37341,7 @@
       <c r="AE177" s="254"/>
       <c r="AF177" s="46"/>
       <c r="AG177" s="84">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AH177" s="87"/>
@@ -37353,11 +37353,11 @@
       </c>
       <c r="AL177" s="100"/>
       <c r="AM177" s="206" t="str">
-        <f>C181</f>
+        <f t="shared" si="132"/>
         <v>R-SH_Det_ELC_HPN3-F</v>
       </c>
       <c r="AN177" s="206" t="str">
-        <f>D181</f>
+        <f t="shared" si="133"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH - F rated dwelling</v>
       </c>
       <c r="AO177" s="100" t="s">
@@ -37413,19 +37413,19 @@
       </c>
       <c r="U178" s="57"/>
       <c r="V178" s="22">
-        <f>V21/$V$20*$V$177</f>
+        <f t="shared" ref="V178:Y182" si="140">V21/$V$20*$V$177</f>
         <v>18.744562899786782</v>
       </c>
       <c r="W178" s="23">
-        <f>W21/$V$20*$V$177</f>
+        <f t="shared" si="140"/>
         <v>17.412562899786781</v>
       </c>
       <c r="X178" s="23">
-        <f>X21/$V$20*$V$177</f>
+        <f t="shared" si="140"/>
         <v>16.200442899786783</v>
       </c>
       <c r="Y178" s="57">
-        <f>Y21/$V$20*$V$177</f>
+        <f t="shared" si="140"/>
         <v>16.080562899786781</v>
       </c>
       <c r="Z178" s="63"/>
@@ -37436,7 +37436,7 @@
       <c r="AE178" s="72"/>
       <c r="AF178" s="44"/>
       <c r="AG178" s="63">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AH178" s="66"/>
@@ -37448,11 +37448,11 @@
       </c>
       <c r="AL178" s="100"/>
       <c r="AM178" s="206" t="str">
-        <f>C182</f>
+        <f t="shared" si="132"/>
         <v>R-SH_Det_ELC_HPN3-G</v>
       </c>
       <c r="AN178" s="206" t="str">
-        <f>D182</f>
+        <f t="shared" si="133"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH - G rated dwelling</v>
       </c>
       <c r="AO178" s="100" t="s">
@@ -37508,19 +37508,19 @@
       </c>
       <c r="U179" s="58"/>
       <c r="V179" s="40">
-        <f>V22/$V$20*$V$177</f>
+        <f t="shared" si="140"/>
         <v>18.941791044776117</v>
       </c>
       <c r="W179" s="29">
-        <f>W22/$V$20*$V$177</f>
+        <f t="shared" si="140"/>
         <v>17.60979104477612</v>
       </c>
       <c r="X179" s="29">
-        <f>X22/$V$20*$V$177</f>
+        <f t="shared" si="140"/>
         <v>16.397671044776121</v>
       </c>
       <c r="Y179" s="58">
-        <f>Y22/$V$20*$V$177</f>
+        <f t="shared" si="140"/>
         <v>16.277791044776123</v>
       </c>
       <c r="Z179" s="62"/>
@@ -37531,7 +37531,7 @@
       <c r="AE179" s="71"/>
       <c r="AF179" s="42"/>
       <c r="AG179" s="62">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AH179" s="65"/>
@@ -37543,11 +37543,11 @@
       </c>
       <c r="AL179" s="100"/>
       <c r="AM179" s="206" t="str">
-        <f>C183</f>
+        <f t="shared" si="132"/>
         <v>R-HC_Det_ELC_HPN2-AB</v>
       </c>
       <c r="AN179" s="206" t="str">
-        <f>D183</f>
+        <f t="shared" si="133"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC - AB rated dwelling</v>
       </c>
       <c r="AO179" s="100" t="s">
@@ -37603,19 +37603,19 @@
       </c>
       <c r="U180" s="57"/>
       <c r="V180" s="22">
-        <f>V23/$V$20*$V$177</f>
+        <f t="shared" si="140"/>
         <v>19.927931769722814</v>
       </c>
       <c r="W180" s="23">
-        <f>W23/$V$20*$V$177</f>
+        <f t="shared" si="140"/>
         <v>18.595931769722817</v>
       </c>
       <c r="X180" s="23">
-        <f>X23/$V$20*$V$177</f>
+        <f t="shared" si="140"/>
         <v>17.383811769722818</v>
       </c>
       <c r="Y180" s="57">
-        <f>Y23/$V$20*$V$177</f>
+        <f t="shared" si="140"/>
         <v>17.263931769722817</v>
       </c>
       <c r="Z180" s="63"/>
@@ -37626,7 +37626,7 @@
       <c r="AE180" s="72"/>
       <c r="AF180" s="44"/>
       <c r="AG180" s="63">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AH180" s="66"/>
@@ -37638,11 +37638,11 @@
       </c>
       <c r="AL180" s="100"/>
       <c r="AM180" s="206" t="str">
-        <f>C184</f>
+        <f t="shared" si="132"/>
         <v>R-HC_Det_ELC_HPN2-C</v>
       </c>
       <c r="AN180" s="206" t="str">
-        <f>D184</f>
+        <f t="shared" si="133"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC - C rated dwelling</v>
       </c>
       <c r="AO180" s="100" t="s">
@@ -37698,19 +37698,19 @@
       </c>
       <c r="U181" s="58"/>
       <c r="V181" s="40">
-        <f>V24/$V$20*$V$177</f>
+        <f t="shared" si="140"/>
         <v>20.914072494669512</v>
       </c>
       <c r="W181" s="29">
-        <f>W24/$V$20*$V$177</f>
+        <f t="shared" si="140"/>
         <v>19.582072494669511</v>
       </c>
       <c r="X181" s="29">
-        <f>X24/$V$20*$V$177</f>
+        <f t="shared" si="140"/>
         <v>18.369952494669512</v>
       </c>
       <c r="Y181" s="58">
-        <f>Y24/$V$20*$V$177</f>
+        <f t="shared" si="140"/>
         <v>18.25007249466951</v>
       </c>
       <c r="Z181" s="62"/>
@@ -37721,7 +37721,7 @@
       <c r="AE181" s="71"/>
       <c r="AF181" s="42"/>
       <c r="AG181" s="62">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AH181" s="65"/>
@@ -37733,11 +37733,11 @@
       </c>
       <c r="AL181" s="100"/>
       <c r="AM181" s="206" t="str">
-        <f>C185</f>
+        <f t="shared" si="132"/>
         <v>R-HC_Det_ELC_HPN2-D</v>
       </c>
       <c r="AN181" s="206" t="str">
-        <f>D185</f>
+        <f t="shared" si="133"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC - D rated dwelling</v>
       </c>
       <c r="AO181" s="100" t="s">
@@ -37793,19 +37793,19 @@
       </c>
       <c r="U182" s="59"/>
       <c r="V182" s="246">
-        <f>V25/$V$20*$V$177</f>
+        <f t="shared" si="140"/>
         <v>21.900213219616205</v>
       </c>
       <c r="W182" s="26">
-        <f>W25/$V$20*$V$177</f>
+        <f t="shared" si="140"/>
         <v>20.568213219616208</v>
       </c>
       <c r="X182" s="26">
-        <f>X25/$V$20*$V$177</f>
+        <f t="shared" si="140"/>
         <v>19.356093219616209</v>
       </c>
       <c r="Y182" s="59">
-        <f>Y25/$V$20*$V$177</f>
+        <f t="shared" si="140"/>
         <v>19.236213219616207</v>
       </c>
       <c r="Z182" s="64"/>
@@ -37816,7 +37816,7 @@
       <c r="AE182" s="515"/>
       <c r="AF182" s="49"/>
       <c r="AG182" s="64">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AH182" s="67"/>
@@ -37828,11 +37828,11 @@
       </c>
       <c r="AL182" s="100"/>
       <c r="AM182" s="206" t="str">
-        <f>C186</f>
+        <f t="shared" si="132"/>
         <v>R-HC_Det_ELC_HPN2-E</v>
       </c>
       <c r="AN182" s="206" t="str">
-        <f>D186</f>
+        <f t="shared" si="133"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC - E rated dwelling</v>
       </c>
       <c r="AO182" s="100" t="s">
@@ -37934,11 +37934,11 @@
       </c>
       <c r="AL183" s="100"/>
       <c r="AM183" s="206" t="str">
-        <f>C187</f>
+        <f t="shared" si="132"/>
         <v>R-HC_Det_ELC_HPN2-F</v>
       </c>
       <c r="AN183" s="206" t="str">
-        <f>D187</f>
+        <f t="shared" si="133"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC - F rated dwelling</v>
       </c>
       <c r="AO183" s="100" t="s">
@@ -38002,19 +38002,19 @@
       </c>
       <c r="U184" s="23"/>
       <c r="V184" s="22">
-        <f>V21/$V$20*$V$183</f>
+        <f t="shared" ref="V184:Y188" si="141">V21/$V$20*$V$183</f>
         <v>20.228205909229359</v>
       </c>
       <c r="W184" s="23">
-        <f>W21/$V$20*$V$183</f>
+        <f t="shared" si="141"/>
         <v>18.79077733780079</v>
       </c>
       <c r="X184" s="23">
-        <f>X21/$V$20*$V$183</f>
+        <f t="shared" si="141"/>
         <v>17.482717337800789</v>
       </c>
       <c r="Y184" s="57">
-        <f>Y21/$V$20*$V$183</f>
+        <f t="shared" si="141"/>
         <v>17.353348766372218</v>
       </c>
       <c r="Z184" s="63"/>
@@ -38025,7 +38025,7 @@
       <c r="AE184" s="72"/>
       <c r="AF184" s="44"/>
       <c r="AG184" s="63">
-        <f t="shared" ref="AG184:AG188" si="128">31.536*(AJ184/1000)</f>
+        <f t="shared" ref="AG184:AG188" si="142">31.536*(AJ184/1000)</f>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH184" s="66"/>
@@ -38037,11 +38037,11 @@
       </c>
       <c r="AL184" s="100"/>
       <c r="AM184" s="206" t="str">
-        <f>C188</f>
+        <f t="shared" si="132"/>
         <v>R-HC_Det_ELC_HPN2-G</v>
       </c>
       <c r="AN184" s="206" t="str">
-        <f>D188</f>
+        <f t="shared" si="133"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC - G rated dwelling</v>
       </c>
       <c r="AO184" s="100" t="s">
@@ -38105,19 +38105,19 @@
       </c>
       <c r="U185" s="29"/>
       <c r="V185" s="40">
-        <f>V22/$V$20*$V$183</f>
+        <f t="shared" si="141"/>
         <v>20.441044776119398</v>
       </c>
       <c r="W185" s="29">
-        <f>W22/$V$20*$V$183</f>
+        <f t="shared" si="141"/>
         <v>19.003616204690829</v>
       </c>
       <c r="X185" s="29">
-        <f>X22/$V$20*$V$183</f>
+        <f t="shared" si="141"/>
         <v>17.695556204690831</v>
       </c>
       <c r="Y185" s="58">
-        <f>Y22/$V$20*$V$183</f>
+        <f t="shared" si="141"/>
         <v>17.56618763326226</v>
       </c>
       <c r="Z185" s="62"/>
@@ -38128,7 +38128,7 @@
       <c r="AE185" s="71"/>
       <c r="AF185" s="42"/>
       <c r="AG185" s="62">
-        <f t="shared" si="128"/>
+        <f t="shared" si="142"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH185" s="65"/>
@@ -38208,19 +38208,19 @@
       </c>
       <c r="U186" s="23"/>
       <c r="V186" s="22">
-        <f>V23/$V$20*$V$183</f>
+        <f t="shared" si="141"/>
         <v>21.505239110569597</v>
       </c>
       <c r="W186" s="23">
-        <f>W23/$V$20*$V$183</f>
+        <f t="shared" si="141"/>
         <v>20.067810539141028</v>
       </c>
       <c r="X186" s="23">
-        <f>X23/$V$20*$V$183</f>
+        <f t="shared" si="141"/>
         <v>18.759750539141031</v>
       </c>
       <c r="Y186" s="57">
-        <f>Y23/$V$20*$V$183</f>
+        <f t="shared" si="141"/>
         <v>18.630381967712459</v>
       </c>
       <c r="Z186" s="63"/>
@@ -38231,7 +38231,7 @@
       <c r="AE186" s="72"/>
       <c r="AF186" s="44"/>
       <c r="AG186" s="63">
-        <f t="shared" si="128"/>
+        <f t="shared" si="142"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH186" s="66"/>
@@ -38311,19 +38311,19 @@
       </c>
       <c r="U187" s="29"/>
       <c r="V187" s="40">
-        <f>V24/$V$20*$V$183</f>
+        <f t="shared" si="141"/>
         <v>22.569433445019797</v>
       </c>
       <c r="W187" s="29">
-        <f>W24/$V$20*$V$183</f>
+        <f t="shared" si="141"/>
         <v>21.132004873591228</v>
       </c>
       <c r="X187" s="29">
-        <f>X24/$V$20*$V$183</f>
+        <f t="shared" si="141"/>
         <v>19.82394487359123</v>
       </c>
       <c r="Y187" s="58">
-        <f>Y24/$V$20*$V$183</f>
+        <f t="shared" si="141"/>
         <v>19.694576302162655</v>
       </c>
       <c r="Z187" s="62"/>
@@ -38334,7 +38334,7 @@
       <c r="AE187" s="71"/>
       <c r="AF187" s="42"/>
       <c r="AG187" s="62">
-        <f t="shared" si="128"/>
+        <f t="shared" si="142"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH187" s="65"/>
@@ -38414,19 +38414,19 @@
       </c>
       <c r="U188" s="26"/>
       <c r="V188" s="246">
-        <f>V25/$V$20*$V$183</f>
+        <f t="shared" si="141"/>
         <v>23.633627779469993</v>
       </c>
       <c r="W188" s="26">
-        <f>W25/$V$20*$V$183</f>
+        <f t="shared" si="141"/>
         <v>22.196199208041424</v>
       </c>
       <c r="X188" s="26">
-        <f>X25/$V$20*$V$183</f>
+        <f t="shared" si="141"/>
         <v>20.888139208041427</v>
       </c>
       <c r="Y188" s="59">
-        <f>Y25/$V$20*$V$183</f>
+        <f t="shared" si="141"/>
         <v>20.758770636612851</v>
       </c>
       <c r="Z188" s="64"/>
@@ -38437,7 +38437,7 @@
       <c r="AE188" s="515"/>
       <c r="AF188" s="49"/>
       <c r="AG188" s="64">
-        <f t="shared" si="128"/>
+        <f t="shared" si="142"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH188" s="67"/>
@@ -38566,15 +38566,15 @@
         <v>1.1666666666666667</v>
       </c>
       <c r="Q190" s="20">
-        <f t="shared" ref="Q190:Q191" si="129">I190*0.7</f>
+        <f t="shared" ref="Q190:Q191" si="143">I190*0.7</f>
         <v>1.2530864197530862</v>
       </c>
       <c r="R190" s="20">
-        <f t="shared" ref="R190:R191" si="130">J190*0.7</f>
+        <f t="shared" ref="R190:R191" si="144">J190*0.7</f>
         <v>1.4691358024691357</v>
       </c>
       <c r="S190" s="56">
-        <f t="shared" ref="S190:S191" si="131">K190*0.7</f>
+        <f t="shared" ref="S190:S191" si="145">K190*0.7</f>
         <v>1.4691358024691357</v>
       </c>
       <c r="T190" s="88">
@@ -38608,7 +38608,7 @@
       <c r="AE190" s="84"/>
       <c r="AF190" s="84"/>
       <c r="AG190" s="84">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH190" s="87"/>
@@ -38680,15 +38680,15 @@
         <v>1.1666666666666665</v>
       </c>
       <c r="Q191" s="26">
-        <f t="shared" si="129"/>
+        <f t="shared" si="143"/>
         <v>1.2055555555555555</v>
       </c>
       <c r="R191" s="26">
-        <f t="shared" si="130"/>
+        <f t="shared" si="144"/>
         <v>1.2055555555555555</v>
       </c>
       <c r="S191" s="59">
-        <f t="shared" si="131"/>
+        <f t="shared" si="145"/>
         <v>1.2444444444444445</v>
       </c>
       <c r="T191" s="27">
@@ -38722,7 +38722,7 @@
       <c r="AE191" s="64"/>
       <c r="AF191" s="64"/>
       <c r="AG191" s="64">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH191" s="67"/>
@@ -38851,15 +38851,15 @@
         <v>2.2084999999999999</v>
       </c>
       <c r="Q193" s="26">
-        <f t="shared" ref="Q193" si="132">I193*0.7</f>
+        <f t="shared" ref="Q193" si="146">I193*0.7</f>
         <v>2.4464999999999999</v>
       </c>
       <c r="R193" s="26">
-        <f t="shared" ref="R193" si="133">J193*0.7</f>
+        <f t="shared" ref="R193" si="147">J193*0.7</f>
         <v>2.625</v>
       </c>
       <c r="S193" s="59">
-        <f t="shared" ref="S193" si="134">K193*0.7</f>
+        <f t="shared" ref="S193" si="148">K193*0.7</f>
         <v>2.625</v>
       </c>
       <c r="T193" s="3">
@@ -38899,7 +38899,7 @@
         <v>5</v>
       </c>
       <c r="AG193" s="81">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>0.66540960000000005</v>
       </c>
       <c r="AH193" s="82"/>
@@ -39025,7 +39025,7 @@
       <c r="AE195" s="84"/>
       <c r="AF195" s="84"/>
       <c r="AG195" s="84">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH195" s="87"/>
@@ -39111,7 +39111,7 @@
       <c r="AE196" s="64"/>
       <c r="AF196" s="64"/>
       <c r="AG196" s="64">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH196" s="67"/>
@@ -39227,7 +39227,7 @@
       <c r="AE198" s="84"/>
       <c r="AF198" s="84"/>
       <c r="AG198" s="84">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>0.25228800000000001</v>
       </c>
       <c r="AH198" s="87"/>
@@ -39306,7 +39306,7 @@
       <c r="AE199" s="63"/>
       <c r="AF199" s="63"/>
       <c r="AG199" s="63">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>0.25228800000000001</v>
       </c>
       <c r="AH199" s="67"/>
@@ -39421,7 +39421,7 @@
       <c r="AE201" s="90"/>
       <c r="AF201" s="90"/>
       <c r="AG201" s="90">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>0.25228800000000001</v>
       </c>
       <c r="AH201" s="89"/>
@@ -39502,7 +39502,7 @@
         <v>3</v>
       </c>
       <c r="U215" s="371">
-        <f t="shared" ref="U215:U224" si="135">V215/$V$223</f>
+        <f t="shared" ref="U215:U224" si="149">V215/$V$223</f>
         <v>0.72929037751472525</v>
       </c>
       <c r="V215" s="372">
@@ -39516,7 +39516,7 @@
         <v>5</v>
       </c>
       <c r="U216" s="371">
-        <f t="shared" si="135"/>
+        <f t="shared" si="149"/>
         <v>0.79101166159768732</v>
       </c>
       <c r="V216" s="372">
@@ -39529,7 +39529,7 @@
         <v>8</v>
       </c>
       <c r="U217" s="371">
-        <f t="shared" si="135"/>
+        <f t="shared" si="149"/>
         <v>0.85077698714062355</v>
       </c>
       <c r="V217" s="372">
@@ -39542,7 +39542,7 @@
         <v>10</v>
       </c>
       <c r="U218" s="371">
-        <f t="shared" si="135"/>
+        <f t="shared" si="149"/>
         <v>0.86872586872586877</v>
       </c>
       <c r="V218" s="370">
@@ -39562,7 +39562,7 @@
         <v>15</v>
       </c>
       <c r="U219" s="361">
-        <f t="shared" si="135"/>
+        <f t="shared" si="149"/>
         <v>0.91505791505791501</v>
       </c>
       <c r="V219" s="3">
@@ -39589,7 +39589,7 @@
         <v>18</v>
       </c>
       <c r="U220" s="361">
-        <f t="shared" si="135"/>
+        <f t="shared" si="149"/>
         <v>0.92277992277992282</v>
       </c>
       <c r="V220" s="3">
@@ -39618,7 +39618,7 @@
         <v>20</v>
       </c>
       <c r="U221" s="371">
-        <f t="shared" si="135"/>
+        <f t="shared" si="149"/>
         <v>0.93436293436293438</v>
       </c>
       <c r="V221" s="370">
@@ -39648,7 +39648,7 @@
         <v>24</v>
       </c>
       <c r="U222" s="361">
-        <f t="shared" si="135"/>
+        <f t="shared" si="149"/>
         <v>0.94594594594594594</v>
       </c>
       <c r="V222" s="3">
@@ -39677,7 +39677,7 @@
         <v>30</v>
       </c>
       <c r="U223" s="361">
-        <f t="shared" si="135"/>
+        <f t="shared" si="149"/>
         <v>1</v>
       </c>
       <c r="V223" s="3">
@@ -39706,7 +39706,7 @@
         <v>35</v>
       </c>
       <c r="U224" s="361">
-        <f t="shared" si="135"/>
+        <f t="shared" si="149"/>
         <v>1.0791505791505791</v>
       </c>
       <c r="V224" s="3">
@@ -39750,6 +39750,26 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:O137"/>
+    <mergeCell ref="P137:S137"/>
+    <mergeCell ref="T137:U137"/>
+    <mergeCell ref="V137:Y137"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:O135"/>
+    <mergeCell ref="P135:S135"/>
+    <mergeCell ref="T135:U135"/>
+    <mergeCell ref="V135:Y135"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:O64"/>
+    <mergeCell ref="P64:S64"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="V64:Y64"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="P62:S62"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="V62:Y62"/>
     <mergeCell ref="V4:Y4"/>
     <mergeCell ref="V6:Y6"/>
     <mergeCell ref="H4:K4"/>
@@ -39760,26 +39780,6 @@
     <mergeCell ref="P6:S6"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="P62:S62"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="V62:Y62"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:O64"/>
-    <mergeCell ref="P64:S64"/>
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="V64:Y64"/>
-    <mergeCell ref="H135:K135"/>
-    <mergeCell ref="L135:O135"/>
-    <mergeCell ref="P135:S135"/>
-    <mergeCell ref="T135:U135"/>
-    <mergeCell ref="V135:Y135"/>
-    <mergeCell ref="H137:K137"/>
-    <mergeCell ref="L137:O137"/>
-    <mergeCell ref="P137:S137"/>
-    <mergeCell ref="T137:U137"/>
-    <mergeCell ref="V137:Y137"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -39925,12 +39925,12 @@
       <c r="I5" s="121"/>
       <c r="J5" s="121"/>
       <c r="K5" s="121"/>
-      <c r="L5" s="572" t="s">
+      <c r="L5" s="563" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="573"/>
-      <c r="N5" s="573"/>
-      <c r="O5" s="574"/>
+      <c r="M5" s="564"/>
+      <c r="N5" s="564"/>
+      <c r="O5" s="565"/>
       <c r="P5" s="60"/>
       <c r="Q5" s="60" t="s">
         <v>87</v>
@@ -39961,12 +39961,12 @@
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
       <c r="K6" s="37"/>
-      <c r="L6" s="566" t="s">
+      <c r="L6" s="572" t="s">
         <v>503</v>
       </c>
-      <c r="M6" s="568"/>
-      <c r="N6" s="568"/>
-      <c r="O6" s="567"/>
+      <c r="M6" s="574"/>
+      <c r="N6" s="574"/>
+      <c r="O6" s="573"/>
       <c r="P6" s="367" t="s">
         <v>515</v>
       </c>
@@ -40852,23 +40852,23 @@
       <c r="K33" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L33" s="572" t="s">
+      <c r="L33" s="563" t="s">
         <v>86</v>
       </c>
-      <c r="M33" s="573"/>
-      <c r="N33" s="573"/>
-      <c r="O33" s="574"/>
+      <c r="M33" s="564"/>
+      <c r="N33" s="564"/>
+      <c r="O33" s="565"/>
     </row>
     <row r="34" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H34" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L34" s="566" t="s">
+      <c r="L34" s="572" t="s">
         <v>91</v>
       </c>
-      <c r="M34" s="568"/>
-      <c r="N34" s="568"/>
-      <c r="O34" s="567"/>
+      <c r="M34" s="574"/>
+      <c r="N34" s="574"/>
+      <c r="O34" s="573"/>
     </row>
     <row r="35" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H35" s="3" t="s">
@@ -41215,11 +41215,11 @@
       </c>
       <c r="I4" s="570"/>
       <c r="J4" s="571"/>
-      <c r="K4" s="572" t="s">
+      <c r="K4" s="563" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="573"/>
-      <c r="M4" s="574"/>
+      <c r="L4" s="564"/>
+      <c r="M4" s="565"/>
       <c r="N4" s="60"/>
       <c r="O4" s="60" t="s">
         <v>87</v>
@@ -41245,16 +41245,16 @@
       <c r="G5" s="375" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="578" t="s">
+      <c r="H5" s="575" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="579"/>
-      <c r="J5" s="580"/>
-      <c r="K5" s="578" t="s">
+      <c r="I5" s="576"/>
+      <c r="J5" s="577"/>
+      <c r="K5" s="575" t="s">
         <v>292</v>
       </c>
-      <c r="L5" s="579"/>
-      <c r="M5" s="580"/>
+      <c r="L5" s="576"/>
+      <c r="M5" s="577"/>
       <c r="N5" s="376" t="s">
         <v>92</v>
       </c>
@@ -41271,23 +41271,23 @@
         <v>210</v>
       </c>
       <c r="AA5" s="201"/>
-      <c r="AB5" s="575" t="s">
+      <c r="AB5" s="578" t="s">
         <v>541</v>
       </c>
-      <c r="AC5" s="575"/>
+      <c r="AC5" s="578"/>
       <c r="AD5" s="378"/>
-      <c r="AE5" s="576" t="s">
+      <c r="AE5" s="579" t="s">
         <v>65</v>
       </c>
-      <c r="AF5" s="576"/>
-      <c r="AG5" s="576" t="s">
+      <c r="AF5" s="579"/>
+      <c r="AG5" s="579" t="s">
         <v>542</v>
       </c>
-      <c r="AH5" s="576"/>
-      <c r="AI5" s="577" t="s">
+      <c r="AH5" s="579"/>
+      <c r="AI5" s="580" t="s">
         <v>543</v>
       </c>
-      <c r="AJ5" s="577"/>
+      <c r="AJ5" s="580"/>
     </row>
     <row r="6" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C6" s="422" t="str">
@@ -42025,12 +42025,12 @@
       <c r="K27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L27" s="572" t="s">
+      <c r="L27" s="563" t="s">
         <v>86</v>
       </c>
-      <c r="M27" s="573"/>
-      <c r="N27" s="573"/>
-      <c r="O27" s="574"/>
+      <c r="M27" s="564"/>
+      <c r="N27" s="564"/>
+      <c r="O27" s="565"/>
       <c r="T27" s="203"/>
       <c r="U27" s="203"/>
     </row>
@@ -42038,12 +42038,12 @@
       <c r="J28" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L28" s="563" t="s">
+      <c r="L28" s="566" t="s">
         <v>91</v>
       </c>
-      <c r="M28" s="564"/>
-      <c r="N28" s="564"/>
-      <c r="O28" s="565"/>
+      <c r="M28" s="567"/>
+      <c r="N28" s="567"/>
+      <c r="O28" s="568"/>
       <c r="T28" s="203"/>
       <c r="U28" s="203"/>
     </row>
@@ -43433,16 +43433,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="L27:O27"/>
     <mergeCell ref="L28:O28"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="K5:M5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="L27:O27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S7" r:id="rId1" xr:uid="{B1EDD63D-40A5-4174-9D28-8666BD314B83}"/>
@@ -43873,103 +43873,103 @@
       <c r="C4" s="273" t="s">
         <v>301</v>
       </c>
-      <c r="D4" s="582" t="s">
+      <c r="D4" s="581" t="s">
         <v>302</v>
       </c>
-      <c r="E4" s="581"/>
-      <c r="F4" s="581"/>
-      <c r="G4" s="581"/>
+      <c r="E4" s="582"/>
+      <c r="F4" s="582"/>
+      <c r="G4" s="582"/>
       <c r="H4" s="583"/>
-      <c r="I4" s="581" t="s">
+      <c r="I4" s="582" t="s">
         <v>303</v>
       </c>
-      <c r="J4" s="581"/>
-      <c r="K4" s="581"/>
-      <c r="L4" s="581"/>
+      <c r="J4" s="582"/>
+      <c r="K4" s="582"/>
+      <c r="L4" s="582"/>
       <c r="M4" s="583"/>
-      <c r="N4" s="581" t="s">
+      <c r="N4" s="582" t="s">
         <v>304</v>
       </c>
-      <c r="O4" s="581"/>
-      <c r="P4" s="581"/>
-      <c r="Q4" s="581"/>
+      <c r="O4" s="582"/>
+      <c r="P4" s="582"/>
+      <c r="Q4" s="582"/>
       <c r="R4" s="583"/>
-      <c r="S4" s="581" t="s">
+      <c r="S4" s="582" t="s">
         <v>305</v>
       </c>
-      <c r="T4" s="581"/>
-      <c r="U4" s="581"/>
-      <c r="V4" s="581"/>
+      <c r="T4" s="582"/>
+      <c r="U4" s="582"/>
+      <c r="V4" s="582"/>
       <c r="W4" s="583"/>
-      <c r="X4" s="581" t="s">
+      <c r="X4" s="582" t="s">
         <v>306</v>
       </c>
-      <c r="Y4" s="581"/>
-      <c r="Z4" s="581"/>
-      <c r="AA4" s="581"/>
+      <c r="Y4" s="582"/>
+      <c r="Z4" s="582"/>
+      <c r="AA4" s="582"/>
       <c r="AB4" s="583"/>
-      <c r="AC4" s="581" t="s">
+      <c r="AC4" s="582" t="s">
         <v>307</v>
       </c>
-      <c r="AD4" s="581"/>
-      <c r="AE4" s="581"/>
-      <c r="AF4" s="581"/>
+      <c r="AD4" s="582"/>
+      <c r="AE4" s="582"/>
+      <c r="AF4" s="582"/>
       <c r="AG4" s="583"/>
-      <c r="AH4" s="581" t="s">
+      <c r="AH4" s="582" t="s">
         <v>308</v>
       </c>
-      <c r="AI4" s="581"/>
-      <c r="AJ4" s="581"/>
-      <c r="AK4" s="581"/>
+      <c r="AI4" s="582"/>
+      <c r="AJ4" s="582"/>
+      <c r="AK4" s="582"/>
       <c r="AL4" s="583"/>
-      <c r="AM4" s="581" t="s">
+      <c r="AM4" s="582" t="s">
         <v>309</v>
       </c>
-      <c r="AN4" s="581"/>
-      <c r="AO4" s="581"/>
-      <c r="AP4" s="581"/>
+      <c r="AN4" s="582"/>
+      <c r="AO4" s="582"/>
+      <c r="AP4" s="582"/>
       <c r="AQ4" s="583"/>
-      <c r="AR4" s="581" t="s">
+      <c r="AR4" s="582" t="s">
         <v>310</v>
       </c>
-      <c r="AS4" s="581"/>
-      <c r="AT4" s="581"/>
-      <c r="AU4" s="581"/>
+      <c r="AS4" s="582"/>
+      <c r="AT4" s="582"/>
+      <c r="AU4" s="582"/>
       <c r="AV4" s="583"/>
-      <c r="AW4" s="581" t="s">
+      <c r="AW4" s="582" t="s">
         <v>311</v>
       </c>
-      <c r="AX4" s="581"/>
-      <c r="AY4" s="581"/>
-      <c r="AZ4" s="581"/>
-      <c r="BA4" s="581"/>
-      <c r="BB4" s="582" t="s">
+      <c r="AX4" s="582"/>
+      <c r="AY4" s="582"/>
+      <c r="AZ4" s="582"/>
+      <c r="BA4" s="582"/>
+      <c r="BB4" s="581" t="s">
         <v>312</v>
       </c>
-      <c r="BC4" s="581"/>
-      <c r="BD4" s="581"/>
-      <c r="BE4" s="581"/>
+      <c r="BC4" s="582"/>
+      <c r="BD4" s="582"/>
+      <c r="BE4" s="582"/>
       <c r="BF4" s="583"/>
-      <c r="BG4" s="581" t="s">
+      <c r="BG4" s="582" t="s">
         <v>313</v>
       </c>
-      <c r="BH4" s="581"/>
-      <c r="BI4" s="581"/>
-      <c r="BJ4" s="581"/>
-      <c r="BK4" s="581"/>
-      <c r="BL4" s="582" t="s">
+      <c r="BH4" s="582"/>
+      <c r="BI4" s="582"/>
+      <c r="BJ4" s="582"/>
+      <c r="BK4" s="582"/>
+      <c r="BL4" s="581" t="s">
         <v>314</v>
       </c>
-      <c r="BM4" s="581"/>
-      <c r="BN4" s="581"/>
-      <c r="BO4" s="581"/>
-      <c r="BP4" s="581"/>
-      <c r="BQ4" s="582" t="s">
+      <c r="BM4" s="582"/>
+      <c r="BN4" s="582"/>
+      <c r="BO4" s="582"/>
+      <c r="BP4" s="582"/>
+      <c r="BQ4" s="581" t="s">
         <v>315</v>
       </c>
-      <c r="BR4" s="581"/>
-      <c r="BS4" s="581"/>
-      <c r="BT4" s="581"/>
+      <c r="BR4" s="582"/>
+      <c r="BS4" s="582"/>
+      <c r="BT4" s="582"/>
       <c r="BU4" s="583"/>
       <c r="BV4" s="274" t="s">
         <v>316</v>
@@ -57563,11 +57563,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="BL4:BP4"/>
-    <mergeCell ref="BQ4:BU4"/>
-    <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="CB4:CF4"/>
-    <mergeCell ref="CG4:CK4"/>
     <mergeCell ref="BG4:BK4"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
@@ -57580,6 +57575,11 @@
     <mergeCell ref="AR4:AV4"/>
     <mergeCell ref="AW4:BA4"/>
     <mergeCell ref="BB4:BF4"/>
+    <mergeCell ref="BL4:BP4"/>
+    <mergeCell ref="BQ4:BU4"/>
+    <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="CB4:CF4"/>
+    <mergeCell ref="CG4:CK4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -57602,23 +57602,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="590" t="s">
+      <c r="A1" s="588" t="s">
         <v>585</v>
       </c>
-      <c r="B1" s="592" t="s">
+      <c r="B1" s="590" t="s">
         <v>586</v>
       </c>
-      <c r="C1" s="593"/>
-      <c r="D1" s="593"/>
-      <c r="E1" s="593"/>
-      <c r="F1" s="594"/>
-      <c r="G1" s="592" t="s">
+      <c r="C1" s="591"/>
+      <c r="D1" s="591"/>
+      <c r="E1" s="591"/>
+      <c r="F1" s="592"/>
+      <c r="G1" s="590" t="s">
         <v>587</v>
       </c>
-      <c r="H1" s="593"/>
-      <c r="I1" s="593"/>
-      <c r="J1" s="593"/>
-      <c r="K1" s="594"/>
+      <c r="H1" s="591"/>
+      <c r="I1" s="591"/>
+      <c r="J1" s="591"/>
+      <c r="K1" s="592"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -57628,7 +57628,7 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="591"/>
+      <c r="A2" s="589"/>
       <c r="B2" s="443" t="s">
         <v>254</v>
       </c>
@@ -59121,11 +59121,11 @@
       <c r="Y48" t="s">
         <v>636</v>
       </c>
-      <c r="Z48" s="588" t="s">
+      <c r="Z48" s="593" t="s">
         <v>574</v>
       </c>
-      <c r="AA48" s="589"/>
-      <c r="AB48" s="589"/>
+      <c r="AA48" s="594"/>
+      <c r="AB48" s="594"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
@@ -59342,11 +59342,11 @@
       <c r="Y53" t="s">
         <v>638</v>
       </c>
-      <c r="Z53" s="588" t="s">
+      <c r="Z53" s="593" t="s">
         <v>573</v>
       </c>
-      <c r="AA53" s="589"/>
-      <c r="AB53" s="589"/>
+      <c r="AA53" s="594"/>
+      <c r="AB53" s="594"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
@@ -59548,11 +59548,11 @@
       <c r="Y59" t="s">
         <v>639</v>
       </c>
-      <c r="Z59" s="588" t="s">
+      <c r="Z59" s="593" t="s">
         <v>640</v>
       </c>
-      <c r="AA59" s="589"/>
-      <c r="AB59" s="589"/>
+      <c r="AA59" s="594"/>
+      <c r="AB59" s="594"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="463" t="str">
@@ -60389,17 +60389,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="Z48:AB48"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="Z48:AB48"/>
   </mergeCells>
   <phoneticPr fontId="54" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29197B3-356A-403B-A186-A5A53A30FCCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9D08C6-2025-44E7-AD03-2391BC09B319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="-15150" windowWidth="21600" windowHeight="11385" firstSheet="3" activeTab="3" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="62" r:id="rId1"/>
@@ -8639,7 +8639,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="797">
   <si>
     <t>Document type:</t>
   </si>
@@ -11033,6 +11033,24 @@
   </si>
   <si>
     <t>RSDSH_Apt-G,RSDSC_Apt</t>
+  </si>
+  <si>
+    <t>RSDSH_Det-AB,RSDSC_Det</t>
+  </si>
+  <si>
+    <t>RSDSH_Det-C,RSDSC_Det</t>
+  </si>
+  <si>
+    <t>RSDSH_Det-D,RSDSC_Det</t>
+  </si>
+  <si>
+    <t>RSDSH_Det-E,RSDSC_Det</t>
+  </si>
+  <si>
+    <t>RSDSH_Det-F,RSDSC_Det</t>
+  </si>
+  <si>
+    <t>RSDSH_Det-G,RSDSC_Det</t>
   </si>
 </sst>
 </file>
@@ -13763,15 +13781,6 @@
     <xf numFmtId="0" fontId="37" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -13779,6 +13788,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13790,22 +13808,13 @@
     <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -13817,10 +13826,19 @@
     <xf numFmtId="0" fontId="53" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13838,6 +13856,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -13852,12 +13876,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -14644,6 +14662,7 @@
       <sheetName val="ApartmentEnergyData"/>
       <sheetName val="AttachedEnergyData"/>
       <sheetName val="DettachedEnergyData"/>
+      <sheetName val="RES"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -14726,6 +14745,7 @@
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
+      <sheetData sheetId="19" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -20779,8 +20799,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:AS229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="B141" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="G189" sqref="G189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20970,12 +20990,12 @@
         <v>85</v>
       </c>
       <c r="U4" s="571"/>
-      <c r="V4" s="563" t="s">
+      <c r="V4" s="572" t="s">
         <v>86</v>
       </c>
-      <c r="W4" s="564"/>
-      <c r="X4" s="564"/>
-      <c r="Y4" s="565"/>
+      <c r="W4" s="573"/>
+      <c r="X4" s="573"/>
+      <c r="Y4" s="574"/>
       <c r="Z4" s="60"/>
       <c r="AA4" s="60"/>
       <c r="AB4" s="68" t="s">
@@ -21078,34 +21098,34 @@
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
       <c r="G6" s="39"/>
-      <c r="H6" s="566" t="s">
+      <c r="H6" s="563" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="567"/>
-      <c r="J6" s="567"/>
-      <c r="K6" s="568"/>
-      <c r="L6" s="567" t="s">
+      <c r="I6" s="564"/>
+      <c r="J6" s="564"/>
+      <c r="K6" s="565"/>
+      <c r="L6" s="564" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="567"/>
-      <c r="N6" s="567"/>
-      <c r="O6" s="568"/>
-      <c r="P6" s="566" t="s">
+      <c r="M6" s="564"/>
+      <c r="N6" s="564"/>
+      <c r="O6" s="565"/>
+      <c r="P6" s="563" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="567"/>
-      <c r="R6" s="567"/>
-      <c r="S6" s="568"/>
-      <c r="T6" s="566" t="s">
+      <c r="Q6" s="564"/>
+      <c r="R6" s="564"/>
+      <c r="S6" s="565"/>
+      <c r="T6" s="563" t="s">
         <v>68</v>
       </c>
-      <c r="U6" s="568"/>
-      <c r="V6" s="566" t="s">
+      <c r="U6" s="565"/>
+      <c r="V6" s="563" t="s">
         <v>503</v>
       </c>
-      <c r="W6" s="567"/>
-      <c r="X6" s="567"/>
-      <c r="Y6" s="568"/>
+      <c r="W6" s="564"/>
+      <c r="X6" s="564"/>
+      <c r="Y6" s="565"/>
       <c r="Z6" s="521" t="s">
         <v>515</v>
       </c>
@@ -26318,12 +26338,12 @@
         <v>85</v>
       </c>
       <c r="U62" s="571"/>
-      <c r="V62" s="563" t="s">
+      <c r="V62" s="572" t="s">
         <v>86</v>
       </c>
-      <c r="W62" s="564"/>
-      <c r="X62" s="564"/>
-      <c r="Y62" s="565"/>
+      <c r="W62" s="573"/>
+      <c r="X62" s="573"/>
+      <c r="Y62" s="574"/>
       <c r="Z62" s="60"/>
       <c r="AA62" s="60"/>
       <c r="AB62" s="68" t="s">
@@ -26426,34 +26446,34 @@
       <c r="E64" s="38"/>
       <c r="F64" s="38"/>
       <c r="G64" s="39"/>
-      <c r="H64" s="566" t="s">
+      <c r="H64" s="563" t="s">
         <v>34</v>
       </c>
-      <c r="I64" s="567"/>
-      <c r="J64" s="567"/>
-      <c r="K64" s="568"/>
-      <c r="L64" s="567" t="s">
+      <c r="I64" s="564"/>
+      <c r="J64" s="564"/>
+      <c r="K64" s="565"/>
+      <c r="L64" s="564" t="s">
         <v>34</v>
       </c>
-      <c r="M64" s="567"/>
-      <c r="N64" s="567"/>
-      <c r="O64" s="568"/>
-      <c r="P64" s="566" t="s">
+      <c r="M64" s="564"/>
+      <c r="N64" s="564"/>
+      <c r="O64" s="565"/>
+      <c r="P64" s="563" t="s">
         <v>34</v>
       </c>
-      <c r="Q64" s="567"/>
-      <c r="R64" s="567"/>
-      <c r="S64" s="568"/>
-      <c r="T64" s="572" t="s">
+      <c r="Q64" s="564"/>
+      <c r="R64" s="564"/>
+      <c r="S64" s="565"/>
+      <c r="T64" s="566" t="s">
         <v>68</v>
       </c>
-      <c r="U64" s="573"/>
-      <c r="V64" s="572" t="s">
+      <c r="U64" s="567"/>
+      <c r="V64" s="566" t="s">
         <v>503</v>
       </c>
-      <c r="W64" s="574"/>
-      <c r="X64" s="574"/>
-      <c r="Y64" s="573"/>
+      <c r="W64" s="568"/>
+      <c r="X64" s="568"/>
+      <c r="Y64" s="567"/>
       <c r="Z64" s="367" t="s">
         <v>515</v>
       </c>
@@ -33090,12 +33110,12 @@
         <v>85</v>
       </c>
       <c r="U135" s="571"/>
-      <c r="V135" s="563" t="s">
+      <c r="V135" s="572" t="s">
         <v>86</v>
       </c>
-      <c r="W135" s="564"/>
-      <c r="X135" s="564"/>
-      <c r="Y135" s="565"/>
+      <c r="W135" s="573"/>
+      <c r="X135" s="573"/>
+      <c r="Y135" s="574"/>
       <c r="Z135" s="60"/>
       <c r="AA135" s="60"/>
       <c r="AB135" s="68" t="s">
@@ -33210,34 +33230,34 @@
       <c r="E137" s="38"/>
       <c r="F137" s="38"/>
       <c r="G137" s="39"/>
-      <c r="H137" s="566" t="s">
+      <c r="H137" s="563" t="s">
         <v>34</v>
       </c>
-      <c r="I137" s="567"/>
-      <c r="J137" s="567"/>
-      <c r="K137" s="568"/>
-      <c r="L137" s="567" t="s">
+      <c r="I137" s="564"/>
+      <c r="J137" s="564"/>
+      <c r="K137" s="565"/>
+      <c r="L137" s="564" t="s">
         <v>34</v>
       </c>
-      <c r="M137" s="567"/>
-      <c r="N137" s="567"/>
-      <c r="O137" s="568"/>
-      <c r="P137" s="566" t="s">
+      <c r="M137" s="564"/>
+      <c r="N137" s="564"/>
+      <c r="O137" s="565"/>
+      <c r="P137" s="563" t="s">
         <v>34</v>
       </c>
-      <c r="Q137" s="567"/>
-      <c r="R137" s="567"/>
-      <c r="S137" s="568"/>
-      <c r="T137" s="572" t="s">
+      <c r="Q137" s="564"/>
+      <c r="R137" s="564"/>
+      <c r="S137" s="565"/>
+      <c r="T137" s="566" t="s">
         <v>68</v>
       </c>
-      <c r="U137" s="573"/>
-      <c r="V137" s="572" t="s">
+      <c r="U137" s="567"/>
+      <c r="V137" s="566" t="s">
         <v>503</v>
       </c>
-      <c r="W137" s="574"/>
-      <c r="X137" s="574"/>
-      <c r="Y137" s="573"/>
+      <c r="W137" s="568"/>
+      <c r="X137" s="568"/>
+      <c r="Y137" s="567"/>
       <c r="Z137" s="367" t="s">
         <v>515</v>
       </c>
@@ -37861,7 +37881,7 @@
         <v>558</v>
       </c>
       <c r="G183" s="88" t="s">
-        <v>728</v>
+        <v>791</v>
       </c>
       <c r="H183" s="19">
         <v>1.0999999999999999</v>
@@ -37967,7 +37987,7 @@
         <v>558</v>
       </c>
       <c r="G184" s="24" t="s">
-        <v>762</v>
+        <v>792</v>
       </c>
       <c r="H184" s="22">
         <v>1.0999999999999999</v>
@@ -38070,7 +38090,7 @@
         <v>558</v>
       </c>
       <c r="G185" s="30" t="s">
-        <v>763</v>
+        <v>793</v>
       </c>
       <c r="H185" s="40">
         <v>1.0999999999999999</v>
@@ -38173,7 +38193,7 @@
         <v>558</v>
       </c>
       <c r="G186" s="24" t="s">
-        <v>764</v>
+        <v>794</v>
       </c>
       <c r="H186" s="22">
         <v>1.0999999999999999</v>
@@ -38276,7 +38296,7 @@
         <v>558</v>
       </c>
       <c r="G187" s="30" t="s">
-        <v>766</v>
+        <v>795</v>
       </c>
       <c r="H187" s="40">
         <v>1.0999999999999999</v>
@@ -38379,7 +38399,7 @@
         <v>558</v>
       </c>
       <c r="G188" s="27" t="s">
-        <v>765</v>
+        <v>796</v>
       </c>
       <c r="H188" s="246">
         <v>1.0999999999999999</v>
@@ -39750,26 +39770,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="H137:K137"/>
-    <mergeCell ref="L137:O137"/>
-    <mergeCell ref="P137:S137"/>
-    <mergeCell ref="T137:U137"/>
-    <mergeCell ref="V137:Y137"/>
-    <mergeCell ref="H135:K135"/>
-    <mergeCell ref="L135:O135"/>
-    <mergeCell ref="P135:S135"/>
-    <mergeCell ref="T135:U135"/>
-    <mergeCell ref="V135:Y135"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:O64"/>
-    <mergeCell ref="P64:S64"/>
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="V64:Y64"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="P62:S62"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="V62:Y62"/>
     <mergeCell ref="V4:Y4"/>
     <mergeCell ref="V6:Y6"/>
     <mergeCell ref="H4:K4"/>
@@ -39780,6 +39780,26 @@
     <mergeCell ref="P6:S6"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="P62:S62"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="V62:Y62"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:O64"/>
+    <mergeCell ref="P64:S64"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="V64:Y64"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:O135"/>
+    <mergeCell ref="P135:S135"/>
+    <mergeCell ref="T135:U135"/>
+    <mergeCell ref="V135:Y135"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:O137"/>
+    <mergeCell ref="P137:S137"/>
+    <mergeCell ref="T137:U137"/>
+    <mergeCell ref="V137:Y137"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -39925,12 +39945,12 @@
       <c r="I5" s="121"/>
       <c r="J5" s="121"/>
       <c r="K5" s="121"/>
-      <c r="L5" s="563" t="s">
+      <c r="L5" s="572" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="564"/>
-      <c r="N5" s="564"/>
-      <c r="O5" s="565"/>
+      <c r="M5" s="573"/>
+      <c r="N5" s="573"/>
+      <c r="O5" s="574"/>
       <c r="P5" s="60"/>
       <c r="Q5" s="60" t="s">
         <v>87</v>
@@ -39961,12 +39981,12 @@
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
       <c r="K6" s="37"/>
-      <c r="L6" s="572" t="s">
+      <c r="L6" s="566" t="s">
         <v>503</v>
       </c>
-      <c r="M6" s="574"/>
-      <c r="N6" s="574"/>
-      <c r="O6" s="573"/>
+      <c r="M6" s="568"/>
+      <c r="N6" s="568"/>
+      <c r="O6" s="567"/>
       <c r="P6" s="367" t="s">
         <v>515</v>
       </c>
@@ -40852,23 +40872,23 @@
       <c r="K33" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L33" s="563" t="s">
+      <c r="L33" s="572" t="s">
         <v>86</v>
       </c>
-      <c r="M33" s="564"/>
-      <c r="N33" s="564"/>
-      <c r="O33" s="565"/>
+      <c r="M33" s="573"/>
+      <c r="N33" s="573"/>
+      <c r="O33" s="574"/>
     </row>
     <row r="34" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H34" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L34" s="572" t="s">
+      <c r="L34" s="566" t="s">
         <v>91</v>
       </c>
-      <c r="M34" s="574"/>
-      <c r="N34" s="574"/>
-      <c r="O34" s="573"/>
+      <c r="M34" s="568"/>
+      <c r="N34" s="568"/>
+      <c r="O34" s="567"/>
     </row>
     <row r="35" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H35" s="3" t="s">
@@ -41215,11 +41235,11 @@
       </c>
       <c r="I4" s="570"/>
       <c r="J4" s="571"/>
-      <c r="K4" s="563" t="s">
+      <c r="K4" s="572" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="564"/>
-      <c r="M4" s="565"/>
+      <c r="L4" s="573"/>
+      <c r="M4" s="574"/>
       <c r="N4" s="60"/>
       <c r="O4" s="60" t="s">
         <v>87</v>
@@ -41245,16 +41265,16 @@
       <c r="G5" s="375" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="575" t="s">
+      <c r="H5" s="578" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="576"/>
-      <c r="J5" s="577"/>
-      <c r="K5" s="575" t="s">
+      <c r="I5" s="579"/>
+      <c r="J5" s="580"/>
+      <c r="K5" s="578" t="s">
         <v>292</v>
       </c>
-      <c r="L5" s="576"/>
-      <c r="M5" s="577"/>
+      <c r="L5" s="579"/>
+      <c r="M5" s="580"/>
       <c r="N5" s="376" t="s">
         <v>92</v>
       </c>
@@ -41271,23 +41291,23 @@
         <v>210</v>
       </c>
       <c r="AA5" s="201"/>
-      <c r="AB5" s="578" t="s">
+      <c r="AB5" s="575" t="s">
         <v>541</v>
       </c>
-      <c r="AC5" s="578"/>
+      <c r="AC5" s="575"/>
       <c r="AD5" s="378"/>
-      <c r="AE5" s="579" t="s">
+      <c r="AE5" s="576" t="s">
         <v>65</v>
       </c>
-      <c r="AF5" s="579"/>
-      <c r="AG5" s="579" t="s">
+      <c r="AF5" s="576"/>
+      <c r="AG5" s="576" t="s">
         <v>542</v>
       </c>
-      <c r="AH5" s="579"/>
-      <c r="AI5" s="580" t="s">
+      <c r="AH5" s="576"/>
+      <c r="AI5" s="577" t="s">
         <v>543</v>
       </c>
-      <c r="AJ5" s="580"/>
+      <c r="AJ5" s="577"/>
     </row>
     <row r="6" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C6" s="422" t="str">
@@ -42025,12 +42045,12 @@
       <c r="K27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L27" s="563" t="s">
+      <c r="L27" s="572" t="s">
         <v>86</v>
       </c>
-      <c r="M27" s="564"/>
-      <c r="N27" s="564"/>
-      <c r="O27" s="565"/>
+      <c r="M27" s="573"/>
+      <c r="N27" s="573"/>
+      <c r="O27" s="574"/>
       <c r="T27" s="203"/>
       <c r="U27" s="203"/>
     </row>
@@ -42038,12 +42058,12 @@
       <c r="J28" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L28" s="566" t="s">
+      <c r="L28" s="563" t="s">
         <v>91</v>
       </c>
-      <c r="M28" s="567"/>
-      <c r="N28" s="567"/>
-      <c r="O28" s="568"/>
+      <c r="M28" s="564"/>
+      <c r="N28" s="564"/>
+      <c r="O28" s="565"/>
       <c r="T28" s="203"/>
       <c r="U28" s="203"/>
     </row>
@@ -43433,16 +43453,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
     <mergeCell ref="AB5:AC5"/>
     <mergeCell ref="AE5:AF5"/>
     <mergeCell ref="AG5:AH5"/>
     <mergeCell ref="AI5:AJ5"/>
     <mergeCell ref="L27:O27"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S7" r:id="rId1" xr:uid="{B1EDD63D-40A5-4174-9D28-8666BD314B83}"/>
@@ -43873,103 +43893,103 @@
       <c r="C4" s="273" t="s">
         <v>301</v>
       </c>
-      <c r="D4" s="581" t="s">
+      <c r="D4" s="582" t="s">
         <v>302</v>
       </c>
-      <c r="E4" s="582"/>
-      <c r="F4" s="582"/>
-      <c r="G4" s="582"/>
+      <c r="E4" s="581"/>
+      <c r="F4" s="581"/>
+      <c r="G4" s="581"/>
       <c r="H4" s="583"/>
-      <c r="I4" s="582" t="s">
+      <c r="I4" s="581" t="s">
         <v>303</v>
       </c>
-      <c r="J4" s="582"/>
-      <c r="K4" s="582"/>
-      <c r="L4" s="582"/>
+      <c r="J4" s="581"/>
+      <c r="K4" s="581"/>
+      <c r="L4" s="581"/>
       <c r="M4" s="583"/>
-      <c r="N4" s="582" t="s">
+      <c r="N4" s="581" t="s">
         <v>304</v>
       </c>
-      <c r="O4" s="582"/>
-      <c r="P4" s="582"/>
-      <c r="Q4" s="582"/>
+      <c r="O4" s="581"/>
+      <c r="P4" s="581"/>
+      <c r="Q4" s="581"/>
       <c r="R4" s="583"/>
-      <c r="S4" s="582" t="s">
+      <c r="S4" s="581" t="s">
         <v>305</v>
       </c>
-      <c r="T4" s="582"/>
-      <c r="U4" s="582"/>
-      <c r="V4" s="582"/>
+      <c r="T4" s="581"/>
+      <c r="U4" s="581"/>
+      <c r="V4" s="581"/>
       <c r="W4" s="583"/>
-      <c r="X4" s="582" t="s">
+      <c r="X4" s="581" t="s">
         <v>306</v>
       </c>
-      <c r="Y4" s="582"/>
-      <c r="Z4" s="582"/>
-      <c r="AA4" s="582"/>
+      <c r="Y4" s="581"/>
+      <c r="Z4" s="581"/>
+      <c r="AA4" s="581"/>
       <c r="AB4" s="583"/>
-      <c r="AC4" s="582" t="s">
+      <c r="AC4" s="581" t="s">
         <v>307</v>
       </c>
-      <c r="AD4" s="582"/>
-      <c r="AE4" s="582"/>
-      <c r="AF4" s="582"/>
+      <c r="AD4" s="581"/>
+      <c r="AE4" s="581"/>
+      <c r="AF4" s="581"/>
       <c r="AG4" s="583"/>
-      <c r="AH4" s="582" t="s">
+      <c r="AH4" s="581" t="s">
         <v>308</v>
       </c>
-      <c r="AI4" s="582"/>
-      <c r="AJ4" s="582"/>
-      <c r="AK4" s="582"/>
+      <c r="AI4" s="581"/>
+      <c r="AJ4" s="581"/>
+      <c r="AK4" s="581"/>
       <c r="AL4" s="583"/>
-      <c r="AM4" s="582" t="s">
+      <c r="AM4" s="581" t="s">
         <v>309</v>
       </c>
-      <c r="AN4" s="582"/>
-      <c r="AO4" s="582"/>
-      <c r="AP4" s="582"/>
+      <c r="AN4" s="581"/>
+      <c r="AO4" s="581"/>
+      <c r="AP4" s="581"/>
       <c r="AQ4" s="583"/>
-      <c r="AR4" s="582" t="s">
+      <c r="AR4" s="581" t="s">
         <v>310</v>
       </c>
-      <c r="AS4" s="582"/>
-      <c r="AT4" s="582"/>
-      <c r="AU4" s="582"/>
+      <c r="AS4" s="581"/>
+      <c r="AT4" s="581"/>
+      <c r="AU4" s="581"/>
       <c r="AV4" s="583"/>
-      <c r="AW4" s="582" t="s">
+      <c r="AW4" s="581" t="s">
         <v>311</v>
       </c>
-      <c r="AX4" s="582"/>
-      <c r="AY4" s="582"/>
-      <c r="AZ4" s="582"/>
-      <c r="BA4" s="582"/>
-      <c r="BB4" s="581" t="s">
+      <c r="AX4" s="581"/>
+      <c r="AY4" s="581"/>
+      <c r="AZ4" s="581"/>
+      <c r="BA4" s="581"/>
+      <c r="BB4" s="582" t="s">
         <v>312</v>
       </c>
-      <c r="BC4" s="582"/>
-      <c r="BD4" s="582"/>
-      <c r="BE4" s="582"/>
+      <c r="BC4" s="581"/>
+      <c r="BD4" s="581"/>
+      <c r="BE4" s="581"/>
       <c r="BF4" s="583"/>
-      <c r="BG4" s="582" t="s">
+      <c r="BG4" s="581" t="s">
         <v>313</v>
       </c>
-      <c r="BH4" s="582"/>
-      <c r="BI4" s="582"/>
-      <c r="BJ4" s="582"/>
-      <c r="BK4" s="582"/>
-      <c r="BL4" s="581" t="s">
+      <c r="BH4" s="581"/>
+      <c r="BI4" s="581"/>
+      <c r="BJ4" s="581"/>
+      <c r="BK4" s="581"/>
+      <c r="BL4" s="582" t="s">
         <v>314</v>
       </c>
-      <c r="BM4" s="582"/>
-      <c r="BN4" s="582"/>
-      <c r="BO4" s="582"/>
-      <c r="BP4" s="582"/>
-      <c r="BQ4" s="581" t="s">
+      <c r="BM4" s="581"/>
+      <c r="BN4" s="581"/>
+      <c r="BO4" s="581"/>
+      <c r="BP4" s="581"/>
+      <c r="BQ4" s="582" t="s">
         <v>315</v>
       </c>
-      <c r="BR4" s="582"/>
-      <c r="BS4" s="582"/>
-      <c r="BT4" s="582"/>
+      <c r="BR4" s="581"/>
+      <c r="BS4" s="581"/>
+      <c r="BT4" s="581"/>
       <c r="BU4" s="583"/>
       <c r="BV4" s="274" t="s">
         <v>316</v>
@@ -57563,6 +57583,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="BL4:BP4"/>
+    <mergeCell ref="BQ4:BU4"/>
+    <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="CB4:CF4"/>
+    <mergeCell ref="CG4:CK4"/>
     <mergeCell ref="BG4:BK4"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
@@ -57575,11 +57600,6 @@
     <mergeCell ref="AR4:AV4"/>
     <mergeCell ref="AW4:BA4"/>
     <mergeCell ref="BB4:BF4"/>
-    <mergeCell ref="BL4:BP4"/>
-    <mergeCell ref="BQ4:BU4"/>
-    <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="CB4:CF4"/>
-    <mergeCell ref="CG4:CK4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -57602,23 +57622,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="588" t="s">
+      <c r="A1" s="590" t="s">
         <v>585</v>
       </c>
-      <c r="B1" s="590" t="s">
+      <c r="B1" s="592" t="s">
         <v>586</v>
       </c>
-      <c r="C1" s="591"/>
-      <c r="D1" s="591"/>
-      <c r="E1" s="591"/>
-      <c r="F1" s="592"/>
-      <c r="G1" s="590" t="s">
+      <c r="C1" s="593"/>
+      <c r="D1" s="593"/>
+      <c r="E1" s="593"/>
+      <c r="F1" s="594"/>
+      <c r="G1" s="592" t="s">
         <v>587</v>
       </c>
-      <c r="H1" s="591"/>
-      <c r="I1" s="591"/>
-      <c r="J1" s="591"/>
-      <c r="K1" s="592"/>
+      <c r="H1" s="593"/>
+      <c r="I1" s="593"/>
+      <c r="J1" s="593"/>
+      <c r="K1" s="594"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -57628,7 +57648,7 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="589"/>
+      <c r="A2" s="591"/>
       <c r="B2" s="443" t="s">
         <v>254</v>
       </c>
@@ -59121,11 +59141,11 @@
       <c r="Y48" t="s">
         <v>636</v>
       </c>
-      <c r="Z48" s="593" t="s">
+      <c r="Z48" s="588" t="s">
         <v>574</v>
       </c>
-      <c r="AA48" s="594"/>
-      <c r="AB48" s="594"/>
+      <c r="AA48" s="589"/>
+      <c r="AB48" s="589"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
@@ -59342,11 +59362,11 @@
       <c r="Y53" t="s">
         <v>638</v>
       </c>
-      <c r="Z53" s="593" t="s">
+      <c r="Z53" s="588" t="s">
         <v>573</v>
       </c>
-      <c r="AA53" s="594"/>
-      <c r="AB53" s="594"/>
+      <c r="AA53" s="589"/>
+      <c r="AB53" s="589"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
@@ -59548,11 +59568,11 @@
       <c r="Y59" t="s">
         <v>639</v>
       </c>
-      <c r="Z59" s="593" t="s">
+      <c r="Z59" s="588" t="s">
         <v>640</v>
       </c>
-      <c r="AA59" s="594"/>
-      <c r="AB59" s="594"/>
+      <c r="AA59" s="589"/>
+      <c r="AB59" s="589"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="463" t="str">
@@ -60389,17 +60409,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="Z48:AB48"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="Z48:AB48"/>
   </mergeCells>
   <phoneticPr fontId="54" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
@@ -3,9 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4FB151-7C10-42E5-BBBE-C7821010D5F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC2ECFB-CB59-4B1A-AF6A-C2E80D7F9F6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2850" yWindow="555" windowWidth="21600" windowHeight="11385" firstSheet="3" activeTab="6" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
     <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{2CC7CA6E-3559-4BC7-B5C1-253B80EF5435}"/>
   </bookViews>
   <sheets>
@@ -13899,6 +13898,19 @@
     <xf numFmtId="0" fontId="59" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="0" fillId="34" borderId="87" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="37" borderId="87" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="37" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="37" borderId="80" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="15" borderId="80" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="15" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="15" borderId="87" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="39" borderId="80" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="39" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="34" borderId="87" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="34" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="34" borderId="85" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="15" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -13944,6 +13956,42 @@
     <xf numFmtId="0" fontId="59" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="37" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -13962,40 +14010,13 @@
     <xf numFmtId="0" fontId="4" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -14007,19 +14028,10 @@
     <xf numFmtId="0" fontId="53" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14037,12 +14049,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -14058,19 +14064,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="34" borderId="87" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="37" borderId="87" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="37" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="37" borderId="80" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="15" borderId="80" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="15" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="15" borderId="87" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="39" borderId="80" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="39" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="34" borderId="87" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="34" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="34" borderId="85" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="15" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Accent1" xfId="4" builtinId="29"/>
@@ -15270,10 +15269,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15710,12 +15706,12 @@
       <c r="Z15" s="493"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="578" t="s">
+      <c r="A16" s="591" t="s">
         <v>676</v>
       </c>
-      <c r="B16" s="578"/>
-      <c r="C16" s="578"/>
-      <c r="D16" s="578"/>
+      <c r="B16" s="591"/>
+      <c r="C16" s="591"/>
+      <c r="D16" s="591"/>
       <c r="E16" s="495"/>
       <c r="F16" s="495"/>
       <c r="G16" s="496"/>
@@ -15799,11 +15795,11 @@
       <c r="A19" s="500" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="577" t="s">
+      <c r="B19" s="590" t="s">
         <v>692</v>
       </c>
-      <c r="C19" s="577"/>
-      <c r="D19" s="577"/>
+      <c r="C19" s="590"/>
+      <c r="D19" s="590"/>
       <c r="E19" s="501"/>
       <c r="F19" s="501"/>
       <c r="G19" s="502"/>
@@ -15831,11 +15827,11 @@
       <c r="A20" s="500" t="s">
         <v>677</v>
       </c>
-      <c r="B20" s="577" t="s">
+      <c r="B20" s="590" t="s">
         <v>687</v>
       </c>
-      <c r="C20" s="577"/>
-      <c r="D20" s="577"/>
+      <c r="C20" s="590"/>
+      <c r="D20" s="590"/>
       <c r="E20" s="501"/>
       <c r="F20" s="501"/>
       <c r="G20" s="502"/>
@@ -15923,11 +15919,11 @@
       <c r="A23" s="500" t="s">
         <v>679</v>
       </c>
-      <c r="B23" s="577" t="s">
+      <c r="B23" s="590" t="s">
         <v>689</v>
       </c>
-      <c r="C23" s="577"/>
-      <c r="D23" s="577"/>
+      <c r="C23" s="590"/>
+      <c r="D23" s="590"/>
       <c r="E23" s="493"/>
       <c r="F23" s="493"/>
       <c r="G23" s="493"/>
@@ -15953,11 +15949,11 @@
     </row>
     <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="500"/>
-      <c r="B24" s="577" t="s">
+      <c r="B24" s="590" t="s">
         <v>690</v>
       </c>
-      <c r="C24" s="577"/>
-      <c r="D24" s="577"/>
+      <c r="C24" s="590"/>
+      <c r="D24" s="590"/>
       <c r="E24" s="493"/>
       <c r="F24" s="493"/>
       <c r="G24" s="493"/>
@@ -15983,11 +15979,11 @@
     </row>
     <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="500"/>
-      <c r="B25" s="577" t="s">
+      <c r="B25" s="590" t="s">
         <v>691</v>
       </c>
-      <c r="C25" s="577"/>
-      <c r="D25" s="577"/>
+      <c r="C25" s="590"/>
+      <c r="D25" s="590"/>
       <c r="E25" s="493"/>
       <c r="F25" s="493"/>
       <c r="G25" s="493"/>
@@ -16015,11 +16011,11 @@
       <c r="A26" s="500" t="s">
         <v>680</v>
       </c>
-      <c r="B26" s="577" t="s">
+      <c r="B26" s="590" t="s">
         <v>689</v>
       </c>
-      <c r="C26" s="577"/>
-      <c r="D26" s="577"/>
+      <c r="C26" s="590"/>
+      <c r="D26" s="590"/>
       <c r="E26" s="493"/>
       <c r="F26" s="493"/>
       <c r="G26" s="493"/>
@@ -16045,11 +16041,11 @@
     </row>
     <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="500"/>
-      <c r="B27" s="577" t="s">
+      <c r="B27" s="590" t="s">
         <v>691</v>
       </c>
-      <c r="C27" s="577"/>
-      <c r="D27" s="577"/>
+      <c r="C27" s="590"/>
+      <c r="D27" s="590"/>
       <c r="E27" s="493"/>
       <c r="F27" s="493"/>
       <c r="G27" s="493"/>
@@ -16137,11 +16133,11 @@
       <c r="A30" s="500" t="s">
         <v>682</v>
       </c>
-      <c r="B30" s="579" t="s">
+      <c r="B30" s="592" t="s">
         <v>683</v>
       </c>
-      <c r="C30" s="577"/>
-      <c r="D30" s="577"/>
+      <c r="C30" s="590"/>
+      <c r="D30" s="590"/>
       <c r="E30" s="505"/>
       <c r="F30" s="505"/>
       <c r="G30" s="493"/>
@@ -16169,11 +16165,11 @@
       <c r="A31" s="500" t="s">
         <v>684</v>
       </c>
-      <c r="B31" s="577" t="s">
+      <c r="B31" s="590" t="s">
         <v>685</v>
       </c>
-      <c r="C31" s="577"/>
-      <c r="D31" s="577"/>
+      <c r="C31" s="590"/>
+      <c r="D31" s="590"/>
       <c r="E31" s="505"/>
       <c r="F31" s="505"/>
       <c r="G31" s="493"/>
@@ -18133,10 +18129,7 @@
   </sheetPr>
   <dimension ref="B1:T43"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -18153,16 +18146,16 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="580" t="s">
+      <c r="B2" s="593" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="581"/>
-      <c r="D2" s="581"/>
-      <c r="E2" s="582"/>
-      <c r="G2" s="580" t="s">
+      <c r="C2" s="594"/>
+      <c r="D2" s="594"/>
+      <c r="E2" s="595"/>
+      <c r="G2" s="593" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="582"/>
+      <c r="H2" s="595"/>
       <c r="I2" s="147"/>
       <c r="J2" s="147"/>
       <c r="K2" s="148"/>
@@ -18445,10 +18438,10 @@
       <c r="E14" s="163" t="s">
         <v>180</v>
       </c>
-      <c r="G14" s="580" t="s">
+      <c r="G14" s="593" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="582"/>
+      <c r="H14" s="595"/>
     </row>
     <row r="15" spans="2:20" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="160" t="s">
@@ -18532,12 +18525,12 @@
     </row>
     <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="583" t="s">
+      <c r="B20" s="596" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="584"/>
-      <c r="D20" s="584"/>
-      <c r="E20" s="585"/>
+      <c r="C20" s="597"/>
+      <c r="D20" s="597"/>
+      <c r="E20" s="598"/>
     </row>
     <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="175" t="s">
@@ -18720,16 +18713,16 @@
     </row>
     <row r="35" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="580" t="s">
+      <c r="B36" s="593" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="581"/>
-      <c r="D36" s="581"/>
-      <c r="E36" s="582"/>
-      <c r="G36" s="586" t="s">
+      <c r="C36" s="594"/>
+      <c r="D36" s="594"/>
+      <c r="E36" s="595"/>
+      <c r="G36" s="599" t="s">
         <v>55</v>
       </c>
-      <c r="H36" s="587"/>
+      <c r="H36" s="600"/>
     </row>
     <row r="37" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" s="191" t="s">
@@ -18828,10 +18821,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:AM103"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -18890,13 +18880,13 @@
       <c r="J3" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="S3" s="588" t="s">
+      <c r="S3" s="601" t="s">
         <v>248</v>
       </c>
-      <c r="T3" s="588"/>
-      <c r="U3" s="588"/>
-      <c r="V3" s="588"/>
-      <c r="W3" s="588"/>
+      <c r="T3" s="601"/>
+      <c r="U3" s="601"/>
+      <c r="V3" s="601"/>
+      <c r="W3" s="601"/>
     </row>
     <row r="4" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="16" t="s">
@@ -20997,10 +20987,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:AS251"/>
   <sheetViews>
-    <sheetView topLeftCell="I203" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AM242" sqref="AM242"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="H25" zoomScale="80" zoomScaleNormal="80" workbookViewId="1">
+    <sheetView tabSelected="1" topLeftCell="H25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AB41" sqref="AB41"/>
     </sheetView>
   </sheetViews>
@@ -21176,34 +21163,34 @@
       <c r="G4" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="604" t="s">
+      <c r="H4" s="611" t="s">
         <v>258</v>
       </c>
-      <c r="I4" s="605"/>
-      <c r="J4" s="605"/>
-      <c r="K4" s="606"/>
-      <c r="L4" s="604" t="s">
+      <c r="I4" s="612"/>
+      <c r="J4" s="612"/>
+      <c r="K4" s="613"/>
+      <c r="L4" s="611" t="s">
         <v>83</v>
       </c>
-      <c r="M4" s="605"/>
-      <c r="N4" s="605"/>
-      <c r="O4" s="606"/>
-      <c r="P4" s="604" t="s">
+      <c r="M4" s="612"/>
+      <c r="N4" s="612"/>
+      <c r="O4" s="613"/>
+      <c r="P4" s="611" t="s">
         <v>84</v>
       </c>
-      <c r="Q4" s="605"/>
-      <c r="R4" s="605"/>
-      <c r="S4" s="606"/>
-      <c r="T4" s="604" t="s">
+      <c r="Q4" s="612"/>
+      <c r="R4" s="612"/>
+      <c r="S4" s="613"/>
+      <c r="T4" s="611" t="s">
         <v>85</v>
       </c>
-      <c r="U4" s="606"/>
-      <c r="V4" s="607" t="s">
+      <c r="U4" s="613"/>
+      <c r="V4" s="605" t="s">
         <v>86</v>
       </c>
-      <c r="W4" s="608"/>
-      <c r="X4" s="608"/>
-      <c r="Y4" s="609"/>
+      <c r="W4" s="606"/>
+      <c r="X4" s="606"/>
+      <c r="Y4" s="607"/>
       <c r="Z4" s="60"/>
       <c r="AA4" s="60"/>
       <c r="AB4" s="68" t="s">
@@ -21306,34 +21293,34 @@
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
       <c r="G6" s="39"/>
-      <c r="H6" s="598" t="s">
+      <c r="H6" s="608" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="599"/>
-      <c r="J6" s="599"/>
-      <c r="K6" s="600"/>
-      <c r="L6" s="599" t="s">
+      <c r="I6" s="609"/>
+      <c r="J6" s="609"/>
+      <c r="K6" s="610"/>
+      <c r="L6" s="609" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="599"/>
-      <c r="N6" s="599"/>
-      <c r="O6" s="600"/>
-      <c r="P6" s="598" t="s">
+      <c r="M6" s="609"/>
+      <c r="N6" s="609"/>
+      <c r="O6" s="610"/>
+      <c r="P6" s="608" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="599"/>
-      <c r="R6" s="599"/>
-      <c r="S6" s="600"/>
-      <c r="T6" s="598" t="s">
+      <c r="Q6" s="609"/>
+      <c r="R6" s="609"/>
+      <c r="S6" s="610"/>
+      <c r="T6" s="608" t="s">
         <v>68</v>
       </c>
-      <c r="U6" s="600"/>
-      <c r="V6" s="598" t="s">
+      <c r="U6" s="610"/>
+      <c r="V6" s="608" t="s">
         <v>503</v>
       </c>
-      <c r="W6" s="599"/>
-      <c r="X6" s="599"/>
-      <c r="Y6" s="600"/>
+      <c r="W6" s="609"/>
+      <c r="X6" s="609"/>
+      <c r="Y6" s="610"/>
       <c r="Z6" s="520" t="s">
         <v>515</v>
       </c>
@@ -22685,7 +22672,7 @@
         <f>JRC_Data!$BL$18/1000</f>
         <v>0.15</v>
       </c>
-      <c r="AA20" s="642"/>
+      <c r="AA20" s="589"/>
       <c r="AB20" s="254"/>
       <c r="AC20" s="254"/>
       <c r="AD20" s="254"/>
@@ -26528,34 +26515,34 @@
       <c r="G62" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H62" s="604" t="s">
+      <c r="H62" s="611" t="s">
         <v>82</v>
       </c>
-      <c r="I62" s="605"/>
-      <c r="J62" s="605"/>
-      <c r="K62" s="606"/>
-      <c r="L62" s="604" t="s">
+      <c r="I62" s="612"/>
+      <c r="J62" s="612"/>
+      <c r="K62" s="613"/>
+      <c r="L62" s="611" t="s">
         <v>83</v>
       </c>
-      <c r="M62" s="605"/>
-      <c r="N62" s="605"/>
-      <c r="O62" s="606"/>
-      <c r="P62" s="604" t="s">
+      <c r="M62" s="612"/>
+      <c r="N62" s="612"/>
+      <c r="O62" s="613"/>
+      <c r="P62" s="611" t="s">
         <v>84</v>
       </c>
-      <c r="Q62" s="605"/>
-      <c r="R62" s="605"/>
-      <c r="S62" s="606"/>
-      <c r="T62" s="604" t="s">
+      <c r="Q62" s="612"/>
+      <c r="R62" s="612"/>
+      <c r="S62" s="613"/>
+      <c r="T62" s="611" t="s">
         <v>85</v>
       </c>
-      <c r="U62" s="606"/>
-      <c r="V62" s="607" t="s">
+      <c r="U62" s="613"/>
+      <c r="V62" s="605" t="s">
         <v>86</v>
       </c>
-      <c r="W62" s="608"/>
-      <c r="X62" s="608"/>
-      <c r="Y62" s="609"/>
+      <c r="W62" s="606"/>
+      <c r="X62" s="606"/>
+      <c r="Y62" s="607"/>
       <c r="Z62" s="60"/>
       <c r="AA62" s="60"/>
       <c r="AB62" s="68" t="s">
@@ -26658,34 +26645,34 @@
       <c r="E64" s="38"/>
       <c r="F64" s="38"/>
       <c r="G64" s="39"/>
-      <c r="H64" s="598" t="s">
+      <c r="H64" s="608" t="s">
         <v>34</v>
       </c>
-      <c r="I64" s="599"/>
-      <c r="J64" s="599"/>
-      <c r="K64" s="600"/>
-      <c r="L64" s="599" t="s">
+      <c r="I64" s="609"/>
+      <c r="J64" s="609"/>
+      <c r="K64" s="610"/>
+      <c r="L64" s="609" t="s">
         <v>34</v>
       </c>
-      <c r="M64" s="599"/>
-      <c r="N64" s="599"/>
-      <c r="O64" s="600"/>
-      <c r="P64" s="598" t="s">
+      <c r="M64" s="609"/>
+      <c r="N64" s="609"/>
+      <c r="O64" s="610"/>
+      <c r="P64" s="608" t="s">
         <v>34</v>
       </c>
-      <c r="Q64" s="599"/>
-      <c r="R64" s="599"/>
-      <c r="S64" s="600"/>
-      <c r="T64" s="601" t="s">
+      <c r="Q64" s="609"/>
+      <c r="R64" s="609"/>
+      <c r="S64" s="610"/>
+      <c r="T64" s="614" t="s">
         <v>68</v>
       </c>
-      <c r="U64" s="602"/>
-      <c r="V64" s="601" t="s">
+      <c r="U64" s="615"/>
+      <c r="V64" s="614" t="s">
         <v>503</v>
       </c>
-      <c r="W64" s="603"/>
-      <c r="X64" s="603"/>
-      <c r="Y64" s="602"/>
+      <c r="W64" s="616"/>
+      <c r="X64" s="616"/>
+      <c r="Y64" s="615"/>
       <c r="Z64" s="367" t="s">
         <v>515</v>
       </c>
@@ -33300,34 +33287,34 @@
       <c r="G135" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H135" s="604" t="s">
+      <c r="H135" s="611" t="s">
         <v>82</v>
       </c>
-      <c r="I135" s="605"/>
-      <c r="J135" s="605"/>
-      <c r="K135" s="606"/>
-      <c r="L135" s="604" t="s">
+      <c r="I135" s="612"/>
+      <c r="J135" s="612"/>
+      <c r="K135" s="613"/>
+      <c r="L135" s="611" t="s">
         <v>83</v>
       </c>
-      <c r="M135" s="605"/>
-      <c r="N135" s="605"/>
-      <c r="O135" s="606"/>
-      <c r="P135" s="604" t="s">
+      <c r="M135" s="612"/>
+      <c r="N135" s="612"/>
+      <c r="O135" s="613"/>
+      <c r="P135" s="611" t="s">
         <v>84</v>
       </c>
-      <c r="Q135" s="605"/>
-      <c r="R135" s="605"/>
-      <c r="S135" s="606"/>
-      <c r="T135" s="604" t="s">
+      <c r="Q135" s="612"/>
+      <c r="R135" s="612"/>
+      <c r="S135" s="613"/>
+      <c r="T135" s="611" t="s">
         <v>85</v>
       </c>
-      <c r="U135" s="606"/>
-      <c r="V135" s="607" t="s">
+      <c r="U135" s="613"/>
+      <c r="V135" s="605" t="s">
         <v>86</v>
       </c>
-      <c r="W135" s="608"/>
-      <c r="X135" s="608"/>
-      <c r="Y135" s="609"/>
+      <c r="W135" s="606"/>
+      <c r="X135" s="606"/>
+      <c r="Y135" s="607"/>
       <c r="Z135" s="60"/>
       <c r="AA135" s="60"/>
       <c r="AB135" s="68" t="s">
@@ -33442,34 +33429,34 @@
       <c r="E137" s="38"/>
       <c r="F137" s="38"/>
       <c r="G137" s="39"/>
-      <c r="H137" s="598" t="s">
+      <c r="H137" s="608" t="s">
         <v>34</v>
       </c>
-      <c r="I137" s="599"/>
-      <c r="J137" s="599"/>
-      <c r="K137" s="600"/>
-      <c r="L137" s="599" t="s">
+      <c r="I137" s="609"/>
+      <c r="J137" s="609"/>
+      <c r="K137" s="610"/>
+      <c r="L137" s="609" t="s">
         <v>34</v>
       </c>
-      <c r="M137" s="599"/>
-      <c r="N137" s="599"/>
-      <c r="O137" s="600"/>
-      <c r="P137" s="598" t="s">
+      <c r="M137" s="609"/>
+      <c r="N137" s="609"/>
+      <c r="O137" s="610"/>
+      <c r="P137" s="608" t="s">
         <v>34</v>
       </c>
-      <c r="Q137" s="599"/>
-      <c r="R137" s="599"/>
-      <c r="S137" s="600"/>
-      <c r="T137" s="601" t="s">
+      <c r="Q137" s="609"/>
+      <c r="R137" s="609"/>
+      <c r="S137" s="610"/>
+      <c r="T137" s="614" t="s">
         <v>68</v>
       </c>
-      <c r="U137" s="602"/>
-      <c r="V137" s="601" t="s">
+      <c r="U137" s="615"/>
+      <c r="V137" s="614" t="s">
         <v>503</v>
       </c>
-      <c r="W137" s="603"/>
-      <c r="X137" s="603"/>
-      <c r="Y137" s="602"/>
+      <c r="W137" s="616"/>
+      <c r="X137" s="616"/>
+      <c r="Y137" s="615"/>
       <c r="Z137" s="367" t="s">
         <v>515</v>
       </c>
@@ -39790,12 +39777,12 @@
         <f>V221-(V223-V221)</f>
         <v>2250</v>
       </c>
-      <c r="Z218" s="592" t="s">
+      <c r="Z218" s="617" t="s">
         <v>810</v>
       </c>
-      <c r="AA218" s="593"/>
-      <c r="AB218" s="593"/>
-      <c r="AC218" s="594"/>
+      <c r="AA218" s="618"/>
+      <c r="AB218" s="618"/>
+      <c r="AC218" s="619"/>
       <c r="AD218" s="124" t="s">
         <v>811</v>
       </c>
@@ -39817,14 +39804,14 @@
       </c>
     </row>
     <row r="219" spans="10:36" x14ac:dyDescent="0.2">
-      <c r="L219" s="596" t="s">
+      <c r="L219" s="621" t="s">
         <v>504</v>
       </c>
-      <c r="M219" s="596"/>
-      <c r="N219" s="596"/>
-      <c r="O219" s="596"/>
-      <c r="P219" s="596"/>
-      <c r="Q219" s="596"/>
+      <c r="M219" s="621"/>
+      <c r="N219" s="621"/>
+      <c r="O219" s="621"/>
+      <c r="P219" s="621"/>
+      <c r="Q219" s="621"/>
       <c r="T219" s="3">
         <v>15</v>
       </c>
@@ -39852,10 +39839,10 @@
       <c r="AD219" s="124" t="s">
         <v>812</v>
       </c>
-      <c r="AF219" s="595" t="s">
+      <c r="AF219" s="620" t="s">
         <v>813</v>
       </c>
-      <c r="AG219" s="595"/>
+      <c r="AG219" s="620"/>
     </row>
     <row r="220" spans="10:36" x14ac:dyDescent="0.2">
       <c r="L220" s="124" t="s">
@@ -40239,22 +40226,22 @@
       <c r="I230" s="4"/>
       <c r="J230" s="4"/>
       <c r="K230" s="4"/>
-      <c r="AB230" s="597" t="s">
+      <c r="AB230" s="622" t="s">
         <v>819</v>
       </c>
-      <c r="AC230" s="597"/>
-      <c r="AD230" s="597"/>
-      <c r="AE230" s="597"/>
-      <c r="AG230" s="589" t="s">
+      <c r="AC230" s="622"/>
+      <c r="AD230" s="622"/>
+      <c r="AE230" s="622"/>
+      <c r="AG230" s="602" t="s">
         <v>816</v>
       </c>
-      <c r="AH230" s="590"/>
-      <c r="AI230" s="591"/>
-      <c r="AJ230" s="589" t="s">
+      <c r="AH230" s="603"/>
+      <c r="AI230" s="604"/>
+      <c r="AJ230" s="602" t="s">
         <v>65</v>
       </c>
-      <c r="AK230" s="590"/>
-      <c r="AL230" s="591"/>
+      <c r="AK230" s="603"/>
+      <c r="AL230" s="604"/>
     </row>
     <row r="231" spans="8:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H231" s="4"/>
@@ -40726,16 +40713,16 @@
       <c r="AC240" s="4"/>
       <c r="AD240" s="4"/>
       <c r="AF240" s="4"/>
-      <c r="AG240" s="589" t="s">
+      <c r="AG240" s="602" t="s">
         <v>816</v>
       </c>
-      <c r="AH240" s="590"/>
-      <c r="AI240" s="591"/>
-      <c r="AJ240" s="589" t="s">
+      <c r="AH240" s="603"/>
+      <c r="AI240" s="604"/>
+      <c r="AJ240" s="602" t="s">
         <v>65</v>
       </c>
-      <c r="AK240" s="590"/>
-      <c r="AL240" s="591"/>
+      <c r="AK240" s="603"/>
+      <c r="AL240" s="604"/>
     </row>
     <row r="241" spans="8:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H241" s="4"/>
@@ -40815,13 +40802,13 @@
       <c r="AI242" s="558">
         <v>0</v>
       </c>
-      <c r="AJ242" s="631">
+      <c r="AJ242" s="578">
         <v>1</v>
       </c>
-      <c r="AK242" s="632">
+      <c r="AK242" s="579">
         <v>1</v>
       </c>
-      <c r="AL242" s="633">
+      <c r="AL242" s="580">
         <v>1</v>
       </c>
     </row>
@@ -40836,13 +40823,13 @@
         <f>AI233</f>
         <v>2520.0000000000009</v>
       </c>
-      <c r="AJ243" s="631">
+      <c r="AJ243" s="578">
         <v>1</v>
       </c>
-      <c r="AK243" s="632">
+      <c r="AK243" s="579">
         <v>1</v>
       </c>
-      <c r="AL243" s="634">
+      <c r="AL243" s="581">
         <f>AL233</f>
         <v>0.85285285285285284</v>
       </c>
@@ -40859,14 +40846,14 @@
         <f>AI243+(AI247-AI243)/4</f>
         <v>2835.0000000000009</v>
       </c>
-      <c r="AJ244" s="631">
+      <c r="AJ244" s="578">
         <v>1</v>
       </c>
-      <c r="AK244" s="635">
+      <c r="AK244" s="582">
         <f>AK234</f>
         <v>0.85285285285285284</v>
       </c>
-      <c r="AL244" s="634">
+      <c r="AL244" s="581">
         <f>AL243+(AL247-AL243)/4</f>
         <v>0.81606606606606602</v>
       </c>
@@ -40884,15 +40871,15 @@
         <f>AI244+(AI247-AI243)/4</f>
         <v>3150.0000000000009</v>
       </c>
-      <c r="AJ245" s="636">
+      <c r="AJ245" s="583">
         <f>AJ235</f>
         <v>0.85285285285285284</v>
       </c>
-      <c r="AK245" s="635">
+      <c r="AK245" s="582">
         <f>AK244+(AK247-AK244)/3</f>
         <v>0.80380380380380378</v>
       </c>
-      <c r="AL245" s="637">
+      <c r="AL245" s="584">
         <f>AL244+(AL247-AL243)/4</f>
         <v>0.7792792792792792</v>
       </c>
@@ -40910,22 +40897,22 @@
         <f>AI245+(AI247-AI243)/4</f>
         <v>3465.0000000000009</v>
       </c>
-      <c r="AJ246" s="636">
+      <c r="AJ246" s="583">
         <f>(AJ247+AJ245)/2</f>
         <v>0.77927927927927931</v>
       </c>
-      <c r="AK246" s="638">
+      <c r="AK246" s="585">
         <f>AK245+(AK247-AK244)/3</f>
         <v>0.75475475475475473</v>
       </c>
-      <c r="AL246" s="637">
+      <c r="AL246" s="584">
         <f>AL245+(AL247-AL243)/4</f>
         <v>0.74249249249249238</v>
       </c>
     </row>
     <row r="247" spans="8:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AG247" s="630">
-        <f t="shared" ref="AG246:AG247" si="141">AG237</f>
+      <c r="AG247" s="577">
+        <f t="shared" ref="AG247" si="141">AG237</f>
         <v>1575</v>
       </c>
       <c r="AH247" s="564">
@@ -40936,15 +40923,15 @@
         <f>AI237</f>
         <v>3780.0000000000005</v>
       </c>
-      <c r="AJ247" s="639">
+      <c r="AJ247" s="586">
         <f t="shared" ref="AJ247" si="142">AJ237</f>
         <v>0.70570570570570568</v>
       </c>
-      <c r="AK247" s="640">
+      <c r="AK247" s="587">
         <f>AK237</f>
         <v>0.70570570570570568</v>
       </c>
-      <c r="AL247" s="641">
+      <c r="AL247" s="588">
         <f>AL237</f>
         <v>0.70570570570570568</v>
       </c>
@@ -40975,6 +40962,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="AJ230:AL230"/>
+    <mergeCell ref="Z218:AC218"/>
+    <mergeCell ref="AF219:AG219"/>
+    <mergeCell ref="L219:Q219"/>
+    <mergeCell ref="AB230:AE230"/>
+    <mergeCell ref="AG230:AI230"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:O137"/>
+    <mergeCell ref="P137:S137"/>
+    <mergeCell ref="T137:U137"/>
+    <mergeCell ref="V137:Y137"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:O135"/>
+    <mergeCell ref="P135:S135"/>
+    <mergeCell ref="T135:U135"/>
+    <mergeCell ref="V135:Y135"/>
+    <mergeCell ref="V62:Y62"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:O64"/>
+    <mergeCell ref="P64:S64"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="V64:Y64"/>
     <mergeCell ref="AG240:AI240"/>
     <mergeCell ref="AJ240:AL240"/>
     <mergeCell ref="V4:Y4"/>
@@ -40991,28 +41000,6 @@
     <mergeCell ref="L62:O62"/>
     <mergeCell ref="P62:S62"/>
     <mergeCell ref="T62:U62"/>
-    <mergeCell ref="V62:Y62"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:O64"/>
-    <mergeCell ref="P64:S64"/>
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="V64:Y64"/>
-    <mergeCell ref="H135:K135"/>
-    <mergeCell ref="L135:O135"/>
-    <mergeCell ref="P135:S135"/>
-    <mergeCell ref="T135:U135"/>
-    <mergeCell ref="V135:Y135"/>
-    <mergeCell ref="H137:K137"/>
-    <mergeCell ref="L137:O137"/>
-    <mergeCell ref="P137:S137"/>
-    <mergeCell ref="T137:U137"/>
-    <mergeCell ref="V137:Y137"/>
-    <mergeCell ref="AJ230:AL230"/>
-    <mergeCell ref="Z218:AC218"/>
-    <mergeCell ref="AF219:AG219"/>
-    <mergeCell ref="L219:Q219"/>
-    <mergeCell ref="AB230:AE230"/>
-    <mergeCell ref="AG230:AI230"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -41030,10 +41017,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="C2:AA43"/>
   <sheetViews>
-    <sheetView topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -41159,12 +41143,12 @@
       <c r="I5" s="121"/>
       <c r="J5" s="121"/>
       <c r="K5" s="121"/>
-      <c r="L5" s="607" t="s">
+      <c r="L5" s="605" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="608"/>
-      <c r="N5" s="608"/>
-      <c r="O5" s="609"/>
+      <c r="M5" s="606"/>
+      <c r="N5" s="606"/>
+      <c r="O5" s="607"/>
       <c r="P5" s="60"/>
       <c r="Q5" s="60" t="s">
         <v>87</v>
@@ -41195,12 +41179,12 @@
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
       <c r="K6" s="37"/>
-      <c r="L6" s="601" t="s">
+      <c r="L6" s="614" t="s">
         <v>503</v>
       </c>
-      <c r="M6" s="603"/>
-      <c r="N6" s="603"/>
-      <c r="O6" s="602"/>
+      <c r="M6" s="616"/>
+      <c r="N6" s="616"/>
+      <c r="O6" s="615"/>
       <c r="P6" s="367" t="s">
         <v>515</v>
       </c>
@@ -42086,23 +42070,23 @@
       <c r="K33" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L33" s="607" t="s">
+      <c r="L33" s="605" t="s">
         <v>86</v>
       </c>
-      <c r="M33" s="608"/>
-      <c r="N33" s="608"/>
-      <c r="O33" s="609"/>
+      <c r="M33" s="606"/>
+      <c r="N33" s="606"/>
+      <c r="O33" s="607"/>
     </row>
     <row r="34" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H34" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L34" s="601" t="s">
+      <c r="L34" s="614" t="s">
         <v>91</v>
       </c>
-      <c r="M34" s="603"/>
-      <c r="N34" s="603"/>
-      <c r="O34" s="602"/>
+      <c r="M34" s="616"/>
+      <c r="N34" s="616"/>
+      <c r="O34" s="615"/>
     </row>
     <row r="35" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H35" s="3" t="s">
@@ -42347,10 +42331,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="C2:AK347"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AH9" sqref="AH9"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -42445,16 +42426,16 @@
       <c r="G4" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="604" t="s">
+      <c r="H4" s="611" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="605"/>
-      <c r="J4" s="606"/>
-      <c r="K4" s="607" t="s">
+      <c r="I4" s="612"/>
+      <c r="J4" s="613"/>
+      <c r="K4" s="605" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="608"/>
-      <c r="M4" s="609"/>
+      <c r="L4" s="606"/>
+      <c r="M4" s="607"/>
       <c r="N4" s="60"/>
       <c r="O4" s="60" t="s">
         <v>87</v>
@@ -42480,16 +42461,16 @@
       <c r="G5" s="375" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="613" t="s">
+      <c r="H5" s="623" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="614"/>
-      <c r="J5" s="615"/>
-      <c r="K5" s="613" t="s">
+      <c r="I5" s="624"/>
+      <c r="J5" s="625"/>
+      <c r="K5" s="623" t="s">
         <v>292</v>
       </c>
-      <c r="L5" s="614"/>
-      <c r="M5" s="615"/>
+      <c r="L5" s="624"/>
+      <c r="M5" s="625"/>
       <c r="N5" s="376" t="s">
         <v>92</v>
       </c>
@@ -42506,23 +42487,23 @@
         <v>210</v>
       </c>
       <c r="AA5" s="201"/>
-      <c r="AB5" s="610" t="s">
+      <c r="AB5" s="626" t="s">
         <v>541</v>
       </c>
-      <c r="AC5" s="610"/>
+      <c r="AC5" s="626"/>
       <c r="AD5" s="378"/>
-      <c r="AE5" s="611" t="s">
+      <c r="AE5" s="627" t="s">
         <v>65</v>
       </c>
-      <c r="AF5" s="611"/>
-      <c r="AG5" s="611" t="s">
+      <c r="AF5" s="627"/>
+      <c r="AG5" s="627" t="s">
         <v>542</v>
       </c>
-      <c r="AH5" s="611"/>
-      <c r="AI5" s="612" t="s">
+      <c r="AH5" s="627"/>
+      <c r="AI5" s="628" t="s">
         <v>543</v>
       </c>
-      <c r="AJ5" s="612"/>
+      <c r="AJ5" s="628"/>
     </row>
     <row r="6" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C6" s="422" t="str">
@@ -43260,12 +43241,12 @@
       <c r="K27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L27" s="607" t="s">
+      <c r="L27" s="605" t="s">
         <v>86</v>
       </c>
-      <c r="M27" s="608"/>
-      <c r="N27" s="608"/>
-      <c r="O27" s="609"/>
+      <c r="M27" s="606"/>
+      <c r="N27" s="606"/>
+      <c r="O27" s="607"/>
       <c r="T27" s="203"/>
       <c r="U27" s="203"/>
     </row>
@@ -43273,12 +43254,12 @@
       <c r="J28" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L28" s="598" t="s">
+      <c r="L28" s="608" t="s">
         <v>91</v>
       </c>
-      <c r="M28" s="599"/>
-      <c r="N28" s="599"/>
-      <c r="O28" s="600"/>
+      <c r="M28" s="609"/>
+      <c r="N28" s="609"/>
+      <c r="O28" s="610"/>
       <c r="T28" s="203"/>
       <c r="U28" s="203"/>
     </row>
@@ -44668,16 +44649,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="L27:O27"/>
     <mergeCell ref="L28:O28"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="K5:M5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="L27:O27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S7" r:id="rId1" xr:uid="{B1EDD63D-40A5-4174-9D28-8666BD314B83}"/>
@@ -44695,10 +44676,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:CK183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BC20" sqref="BC20"/>
-    </sheetView>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="1">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -45111,128 +45089,128 @@
       <c r="C4" s="273" t="s">
         <v>301</v>
       </c>
-      <c r="D4" s="617" t="s">
+      <c r="D4" s="629" t="s">
         <v>302</v>
       </c>
-      <c r="E4" s="616"/>
-      <c r="F4" s="616"/>
-      <c r="G4" s="616"/>
-      <c r="H4" s="618"/>
-      <c r="I4" s="616" t="s">
+      <c r="E4" s="630"/>
+      <c r="F4" s="630"/>
+      <c r="G4" s="630"/>
+      <c r="H4" s="631"/>
+      <c r="I4" s="630" t="s">
         <v>303</v>
       </c>
-      <c r="J4" s="616"/>
-      <c r="K4" s="616"/>
-      <c r="L4" s="616"/>
-      <c r="M4" s="618"/>
-      <c r="N4" s="616" t="s">
+      <c r="J4" s="630"/>
+      <c r="K4" s="630"/>
+      <c r="L4" s="630"/>
+      <c r="M4" s="631"/>
+      <c r="N4" s="630" t="s">
         <v>304</v>
       </c>
-      <c r="O4" s="616"/>
-      <c r="P4" s="616"/>
-      <c r="Q4" s="616"/>
-      <c r="R4" s="618"/>
-      <c r="S4" s="616" t="s">
+      <c r="O4" s="630"/>
+      <c r="P4" s="630"/>
+      <c r="Q4" s="630"/>
+      <c r="R4" s="631"/>
+      <c r="S4" s="630" t="s">
         <v>305</v>
       </c>
-      <c r="T4" s="616"/>
-      <c r="U4" s="616"/>
-      <c r="V4" s="616"/>
-      <c r="W4" s="618"/>
-      <c r="X4" s="616" t="s">
+      <c r="T4" s="630"/>
+      <c r="U4" s="630"/>
+      <c r="V4" s="630"/>
+      <c r="W4" s="631"/>
+      <c r="X4" s="630" t="s">
         <v>306</v>
       </c>
-      <c r="Y4" s="616"/>
-      <c r="Z4" s="616"/>
-      <c r="AA4" s="616"/>
-      <c r="AB4" s="618"/>
-      <c r="AC4" s="616" t="s">
+      <c r="Y4" s="630"/>
+      <c r="Z4" s="630"/>
+      <c r="AA4" s="630"/>
+      <c r="AB4" s="631"/>
+      <c r="AC4" s="630" t="s">
         <v>307</v>
       </c>
-      <c r="AD4" s="616"/>
-      <c r="AE4" s="616"/>
-      <c r="AF4" s="616"/>
-      <c r="AG4" s="618"/>
-      <c r="AH4" s="616" t="s">
+      <c r="AD4" s="630"/>
+      <c r="AE4" s="630"/>
+      <c r="AF4" s="630"/>
+      <c r="AG4" s="631"/>
+      <c r="AH4" s="630" t="s">
         <v>308</v>
       </c>
-      <c r="AI4" s="616"/>
-      <c r="AJ4" s="616"/>
-      <c r="AK4" s="616"/>
-      <c r="AL4" s="618"/>
-      <c r="AM4" s="616" t="s">
+      <c r="AI4" s="630"/>
+      <c r="AJ4" s="630"/>
+      <c r="AK4" s="630"/>
+      <c r="AL4" s="631"/>
+      <c r="AM4" s="630" t="s">
         <v>309</v>
       </c>
-      <c r="AN4" s="616"/>
-      <c r="AO4" s="616"/>
-      <c r="AP4" s="616"/>
-      <c r="AQ4" s="618"/>
-      <c r="AR4" s="616" t="s">
+      <c r="AN4" s="630"/>
+      <c r="AO4" s="630"/>
+      <c r="AP4" s="630"/>
+      <c r="AQ4" s="631"/>
+      <c r="AR4" s="630" t="s">
         <v>310</v>
       </c>
-      <c r="AS4" s="616"/>
-      <c r="AT4" s="616"/>
-      <c r="AU4" s="616"/>
-      <c r="AV4" s="618"/>
-      <c r="AW4" s="616" t="s">
+      <c r="AS4" s="630"/>
+      <c r="AT4" s="630"/>
+      <c r="AU4" s="630"/>
+      <c r="AV4" s="631"/>
+      <c r="AW4" s="630" t="s">
         <v>311</v>
       </c>
-      <c r="AX4" s="616"/>
-      <c r="AY4" s="616"/>
-      <c r="AZ4" s="616"/>
-      <c r="BA4" s="616"/>
-      <c r="BB4" s="617" t="s">
+      <c r="AX4" s="630"/>
+      <c r="AY4" s="630"/>
+      <c r="AZ4" s="630"/>
+      <c r="BA4" s="630"/>
+      <c r="BB4" s="629" t="s">
         <v>312</v>
       </c>
-      <c r="BC4" s="616"/>
-      <c r="BD4" s="616"/>
-      <c r="BE4" s="616"/>
-      <c r="BF4" s="618"/>
-      <c r="BG4" s="616" t="s">
+      <c r="BC4" s="630"/>
+      <c r="BD4" s="630"/>
+      <c r="BE4" s="630"/>
+      <c r="BF4" s="631"/>
+      <c r="BG4" s="630" t="s">
         <v>313</v>
       </c>
-      <c r="BH4" s="616"/>
-      <c r="BI4" s="616"/>
-      <c r="BJ4" s="616"/>
-      <c r="BK4" s="616"/>
-      <c r="BL4" s="617" t="s">
+      <c r="BH4" s="630"/>
+      <c r="BI4" s="630"/>
+      <c r="BJ4" s="630"/>
+      <c r="BK4" s="630"/>
+      <c r="BL4" s="629" t="s">
         <v>314</v>
       </c>
-      <c r="BM4" s="616"/>
-      <c r="BN4" s="616"/>
-      <c r="BO4" s="616"/>
-      <c r="BP4" s="616"/>
-      <c r="BQ4" s="617" t="s">
+      <c r="BM4" s="630"/>
+      <c r="BN4" s="630"/>
+      <c r="BO4" s="630"/>
+      <c r="BP4" s="630"/>
+      <c r="BQ4" s="629" t="s">
         <v>315</v>
       </c>
-      <c r="BR4" s="616"/>
-      <c r="BS4" s="616"/>
-      <c r="BT4" s="616"/>
-      <c r="BU4" s="618"/>
+      <c r="BR4" s="630"/>
+      <c r="BS4" s="630"/>
+      <c r="BT4" s="630"/>
+      <c r="BU4" s="631"/>
       <c r="BV4" s="274" t="s">
         <v>316</v>
       </c>
-      <c r="BW4" s="619" t="s">
+      <c r="BW4" s="632" t="s">
         <v>317</v>
       </c>
-      <c r="BX4" s="620"/>
-      <c r="BY4" s="620"/>
-      <c r="BZ4" s="620"/>
-      <c r="CA4" s="621"/>
-      <c r="CB4" s="619" t="s">
+      <c r="BX4" s="633"/>
+      <c r="BY4" s="633"/>
+      <c r="BZ4" s="633"/>
+      <c r="CA4" s="634"/>
+      <c r="CB4" s="632" t="s">
         <v>318</v>
       </c>
-      <c r="CC4" s="620"/>
-      <c r="CD4" s="620"/>
-      <c r="CE4" s="620"/>
-      <c r="CF4" s="621"/>
-      <c r="CG4" s="619" t="s">
+      <c r="CC4" s="633"/>
+      <c r="CD4" s="633"/>
+      <c r="CE4" s="633"/>
+      <c r="CF4" s="634"/>
+      <c r="CG4" s="632" t="s">
         <v>319</v>
       </c>
-      <c r="CH4" s="620"/>
-      <c r="CI4" s="620"/>
-      <c r="CJ4" s="620"/>
-      <c r="CK4" s="621"/>
+      <c r="CH4" s="633"/>
+      <c r="CI4" s="633"/>
+      <c r="CJ4" s="633"/>
+      <c r="CK4" s="634"/>
     </row>
     <row r="5" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A5" s="276"/>
@@ -58801,11 +58779,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="BL4:BP4"/>
-    <mergeCell ref="BQ4:BU4"/>
-    <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="CB4:CF4"/>
-    <mergeCell ref="CG4:CK4"/>
     <mergeCell ref="BG4:BK4"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
@@ -58818,6 +58791,11 @@
     <mergeCell ref="AR4:AV4"/>
     <mergeCell ref="AW4:BA4"/>
     <mergeCell ref="BB4:BF4"/>
+    <mergeCell ref="BL4:BP4"/>
+    <mergeCell ref="BQ4:BU4"/>
+    <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="CB4:CF4"/>
+    <mergeCell ref="CG4:CK4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -58829,10 +58807,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AD121"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V33" sqref="V33"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
@@ -58843,23 +58818,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="625" t="s">
+      <c r="A1" s="636" t="s">
         <v>585</v>
       </c>
-      <c r="B1" s="627" t="s">
+      <c r="B1" s="638" t="s">
         <v>586</v>
       </c>
-      <c r="C1" s="628"/>
-      <c r="D1" s="628"/>
-      <c r="E1" s="628"/>
-      <c r="F1" s="629"/>
-      <c r="G1" s="627" t="s">
+      <c r="C1" s="639"/>
+      <c r="D1" s="639"/>
+      <c r="E1" s="639"/>
+      <c r="F1" s="640"/>
+      <c r="G1" s="638" t="s">
         <v>587</v>
       </c>
-      <c r="H1" s="628"/>
-      <c r="I1" s="628"/>
-      <c r="J1" s="628"/>
-      <c r="K1" s="629"/>
+      <c r="H1" s="639"/>
+      <c r="I1" s="639"/>
+      <c r="J1" s="639"/>
+      <c r="K1" s="640"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -58869,7 +58844,7 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="626"/>
+      <c r="A2" s="637"/>
       <c r="B2" s="443" t="s">
         <v>254</v>
       </c>
@@ -59015,12 +58990,12 @@
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="622" t="s">
+      <c r="A7" s="635" t="s">
         <v>588</v>
       </c>
-      <c r="B7" s="622"/>
-      <c r="C7" s="622"/>
-      <c r="D7" s="622"/>
+      <c r="B7" s="635"/>
+      <c r="C7" s="635"/>
+      <c r="D7" s="635"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -59306,12 +59281,12 @@
       <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:30" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="622" t="s">
+      <c r="A18" s="635" t="s">
         <v>602</v>
       </c>
-      <c r="B18" s="622"/>
-      <c r="C18" s="622"/>
-      <c r="D18" s="622"/>
+      <c r="B18" s="635"/>
+      <c r="C18" s="635"/>
+      <c r="D18" s="635"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -59566,12 +59541,12 @@
       <c r="R27" s="3"/>
     </row>
     <row r="28" spans="1:30" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="622" t="s">
+      <c r="A28" s="635" t="s">
         <v>610</v>
       </c>
-      <c r="B28" s="622"/>
-      <c r="C28" s="622"/>
-      <c r="D28" s="622"/>
+      <c r="B28" s="635"/>
+      <c r="C28" s="635"/>
+      <c r="D28" s="635"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -60059,12 +60034,12 @@
       </c>
     </row>
     <row r="40" spans="1:30" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="622" t="s">
+      <c r="A40" s="635" t="s">
         <v>591</v>
       </c>
-      <c r="B40" s="622"/>
-      <c r="C40" s="622"/>
-      <c r="D40" s="622"/>
+      <c r="B40" s="635"/>
+      <c r="C40" s="635"/>
+      <c r="D40" s="635"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -60240,12 +60215,12 @@
       <c r="T44" s="3"/>
     </row>
     <row r="45" spans="1:30" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="622" t="s">
+      <c r="A45" s="635" t="s">
         <v>619</v>
       </c>
-      <c r="B45" s="622"/>
-      <c r="C45" s="622"/>
-      <c r="D45" s="622"/>
+      <c r="B45" s="635"/>
+      <c r="C45" s="635"/>
+      <c r="D45" s="635"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -60362,11 +60337,11 @@
       <c r="Y48" t="s">
         <v>636</v>
       </c>
-      <c r="Z48" s="623" t="s">
+      <c r="Z48" s="641" t="s">
         <v>574</v>
       </c>
-      <c r="AA48" s="624"/>
-      <c r="AB48" s="624"/>
+      <c r="AA48" s="642"/>
+      <c r="AB48" s="642"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
@@ -60583,11 +60558,11 @@
       <c r="Y53" t="s">
         <v>638</v>
       </c>
-      <c r="Z53" s="623" t="s">
+      <c r="Z53" s="641" t="s">
         <v>573</v>
       </c>
-      <c r="AA53" s="624"/>
-      <c r="AB53" s="624"/>
+      <c r="AA53" s="642"/>
+      <c r="AB53" s="642"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
@@ -60789,11 +60764,11 @@
       <c r="Y59" t="s">
         <v>639</v>
       </c>
-      <c r="Z59" s="623" t="s">
+      <c r="Z59" s="641" t="s">
         <v>640</v>
       </c>
-      <c r="AA59" s="624"/>
-      <c r="AB59" s="624"/>
+      <c r="AA59" s="642"/>
+      <c r="AB59" s="642"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="463" t="str">
@@ -61630,17 +61605,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="Z48:AB48"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="Z48:AB48"/>
   </mergeCells>
   <phoneticPr fontId="54" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC2ECFB-CB59-4B1A-AF6A-C2E80D7F9F6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18652DE8-F8DE-4BFB-82ED-82AACE9F2B08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{2CC7CA6E-3559-4BC7-B5C1-253B80EF5435}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{2CC7CA6E-3559-4BC7-B5C1-253B80EF5435}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="62" r:id="rId1"/>
@@ -8639,7 +8639,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2647" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2647" uniqueCount="823">
   <si>
     <t>Document type:</t>
   </si>
@@ -10849,9 +10849,6 @@
     <t>RSDSH_Det-AB</t>
   </si>
   <si>
-    <t>CEFF~2019</t>
-  </si>
-  <si>
     <t>CEFF~2030</t>
   </si>
   <si>
@@ -11126,6 +11123,12 @@
   </si>
   <si>
     <t>Smoothed</t>
+  </si>
+  <si>
+    <t>CEFF</t>
+  </si>
+  <si>
+    <t>INVCOST</t>
   </si>
 </sst>
 </file>
@@ -13956,42 +13959,6 @@
     <xf numFmtId="0" fontId="59" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="37" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -14010,13 +13977,40 @@
     <xf numFmtId="0" fontId="4" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -14028,10 +14022,19 @@
     <xf numFmtId="0" fontId="53" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14049,6 +14052,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -14063,12 +14072,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -20987,8 +20990,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:AS251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AB41" sqref="AB41"/>
+    <sheetView tabSelected="1" topLeftCell="G124" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V135" sqref="V135:Y135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21060,16 +21063,16 @@
         <v>24</v>
       </c>
       <c r="H3" s="17" t="s">
+        <v>821</v>
+      </c>
+      <c r="I3" s="17" t="s">
         <v>729</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="J3" s="17" t="s">
         <v>730</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="K3" s="17" t="s">
         <v>731</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>732</v>
       </c>
       <c r="L3" s="17" t="s">
         <v>218</v>
@@ -21102,7 +21105,7 @@
         <v>76</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>236</v>
+        <v>822</v>
       </c>
       <c r="W3" s="17" t="s">
         <v>88</v>
@@ -21163,34 +21166,34 @@
       <c r="G4" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="611" t="s">
+      <c r="H4" s="617" t="s">
         <v>258</v>
       </c>
-      <c r="I4" s="612"/>
-      <c r="J4" s="612"/>
-      <c r="K4" s="613"/>
-      <c r="L4" s="611" t="s">
+      <c r="I4" s="618"/>
+      <c r="J4" s="618"/>
+      <c r="K4" s="619"/>
+      <c r="L4" s="617" t="s">
         <v>83</v>
       </c>
-      <c r="M4" s="612"/>
-      <c r="N4" s="612"/>
-      <c r="O4" s="613"/>
-      <c r="P4" s="611" t="s">
+      <c r="M4" s="618"/>
+      <c r="N4" s="618"/>
+      <c r="O4" s="619"/>
+      <c r="P4" s="617" t="s">
         <v>84</v>
       </c>
-      <c r="Q4" s="612"/>
-      <c r="R4" s="612"/>
-      <c r="S4" s="613"/>
-      <c r="T4" s="611" t="s">
+      <c r="Q4" s="618"/>
+      <c r="R4" s="618"/>
+      <c r="S4" s="619"/>
+      <c r="T4" s="617" t="s">
         <v>85</v>
       </c>
-      <c r="U4" s="613"/>
-      <c r="V4" s="605" t="s">
+      <c r="U4" s="619"/>
+      <c r="V4" s="620" t="s">
         <v>86</v>
       </c>
-      <c r="W4" s="606"/>
-      <c r="X4" s="606"/>
-      <c r="Y4" s="607"/>
+      <c r="W4" s="621"/>
+      <c r="X4" s="621"/>
+      <c r="Y4" s="622"/>
       <c r="Z4" s="60"/>
       <c r="AA4" s="60"/>
       <c r="AB4" s="68" t="s">
@@ -21293,34 +21296,34 @@
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
       <c r="G6" s="39"/>
-      <c r="H6" s="608" t="s">
+      <c r="H6" s="611" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="609"/>
-      <c r="J6" s="609"/>
-      <c r="K6" s="610"/>
-      <c r="L6" s="609" t="s">
+      <c r="I6" s="612"/>
+      <c r="J6" s="612"/>
+      <c r="K6" s="613"/>
+      <c r="L6" s="612" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="609"/>
-      <c r="N6" s="609"/>
-      <c r="O6" s="610"/>
-      <c r="P6" s="608" t="s">
+      <c r="M6" s="612"/>
+      <c r="N6" s="612"/>
+      <c r="O6" s="613"/>
+      <c r="P6" s="611" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="609"/>
-      <c r="R6" s="609"/>
-      <c r="S6" s="610"/>
-      <c r="T6" s="608" t="s">
+      <c r="Q6" s="612"/>
+      <c r="R6" s="612"/>
+      <c r="S6" s="613"/>
+      <c r="T6" s="611" t="s">
         <v>68</v>
       </c>
-      <c r="U6" s="610"/>
-      <c r="V6" s="608" t="s">
+      <c r="U6" s="613"/>
+      <c r="V6" s="611" t="s">
         <v>503</v>
       </c>
-      <c r="W6" s="609"/>
-      <c r="X6" s="609"/>
-      <c r="Y6" s="610"/>
+      <c r="W6" s="612"/>
+      <c r="X6" s="612"/>
+      <c r="Y6" s="613"/>
       <c r="Z6" s="520" t="s">
         <v>515</v>
       </c>
@@ -23128,7 +23131,7 @@
         <v>R-SH_Apt_ELC_HPN2-G</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E25" s="27" t="s">
         <v>148</v>
@@ -23137,7 +23140,7 @@
         <v>558</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H25" s="22">
         <f>(JRC_Data!$AC$18/JRC_Data!$AC$16)*AJ247</f>
@@ -23805,7 +23808,7 @@
         <v>R-SW_Apt_ELC_HPN1-G</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E31" s="27" t="s">
         <v>148</v>
@@ -23814,7 +23817,7 @@
         <v>660</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H31" s="246">
         <f>(JRC_Data!$AC$18/JRC_Data!$AC$16)*AJ247</f>
@@ -23920,7 +23923,7 @@
         <v>R-SH_Apt_ELC_HPN3-AB</v>
       </c>
       <c r="D32" s="88" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E32" s="88" t="s">
         <v>148</v>
@@ -24023,7 +24026,7 @@
         <v>R-SH_Apt_ELC_HPN3-C</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E33" s="24" t="s">
         <v>148</v>
@@ -24126,7 +24129,7 @@
         <v>R-SH_Apt_ELC_HPN3-D</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E34" s="30" t="s">
         <v>148</v>
@@ -24228,7 +24231,7 @@
         <v>R-SH_Apt_ELC_HPN3-E</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E35" s="24" t="s">
         <v>148</v>
@@ -24331,7 +24334,7 @@
         <v>R-SH_Apt_ELC_HPN3-F</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E36" s="30" t="s">
         <v>148</v>
@@ -24434,7 +24437,7 @@
         <v>R-SH_Apt_ELC_HPN3-G</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E37" s="27" t="s">
         <v>148</v>
@@ -24443,7 +24446,7 @@
         <v>558</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H37" s="22">
         <f>(JRC_Data!$AC$18/JRC_Data!$AC$16)*AJ247</f>
@@ -24537,7 +24540,7 @@
         <v>R-HC_Apt_ELC_HPN2-AB</v>
       </c>
       <c r="D38" s="88" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E38" s="88" t="s">
         <v>148</v>
@@ -24546,7 +24549,7 @@
         <v>558</v>
       </c>
       <c r="G38" s="88" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H38" s="19">
         <f>JRC_Data!AC20/JRC_Data!$AC$16</f>
@@ -24650,7 +24653,7 @@
         <v>R-HC_Apt_ELC_HPN2-C</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E39" s="24" t="s">
         <v>148</v>
@@ -24659,7 +24662,7 @@
         <v>558</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H39" s="22">
         <f>JRC_Data!AC20/JRC_Data!$AC$16</f>
@@ -24764,7 +24767,7 @@
         <v>R-HC_Apt_ELC_HPN2-D</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E40" s="30" t="s">
         <v>148</v>
@@ -24773,7 +24776,7 @@
         <v>558</v>
       </c>
       <c r="G40" s="30" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H40" s="40">
         <f>JRC_Data!AC20/JRC_Data!$AC$16</f>
@@ -24877,7 +24880,7 @@
         <v>R-HC_Apt_ELC_HPN2-E</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E41" s="24" t="s">
         <v>148</v>
@@ -24886,7 +24889,7 @@
         <v>558</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H41" s="22">
         <f>(JRC_Data!$AC$18/JRC_Data!$AC$16)*AJ245</f>
@@ -24987,7 +24990,7 @@
         <v>R-HC_Apt_ELC_HPN2-F</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E42" s="30" t="s">
         <v>148</v>
@@ -24996,7 +24999,7 @@
         <v>558</v>
       </c>
       <c r="G42" s="30" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H42" s="40">
         <f>(JRC_Data!$AC$18/JRC_Data!$AC$16)*AJ246</f>
@@ -25097,7 +25100,7 @@
         <v>R-HC_Apt_ELC_HPN2-G</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E43" s="27" t="s">
         <v>148</v>
@@ -25106,7 +25109,7 @@
         <v>558</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H43" s="22">
         <f>(JRC_Data!$AC$18/JRC_Data!$AC$16)*AJ247</f>
@@ -26379,7 +26382,7 @@
         <v>659</v>
       </c>
       <c r="AN60" s="482" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AO60" s="483" t="s">
         <v>13</v>
@@ -26412,16 +26415,16 @@
         <v>24</v>
       </c>
       <c r="H61" s="17" t="s">
+        <v>821</v>
+      </c>
+      <c r="I61" s="17" t="s">
         <v>729</v>
       </c>
-      <c r="I61" s="17" t="s">
+      <c r="J61" s="17" t="s">
         <v>730</v>
       </c>
-      <c r="J61" s="17" t="s">
+      <c r="K61" s="17" t="s">
         <v>731</v>
-      </c>
-      <c r="K61" s="17" t="s">
-        <v>732</v>
       </c>
       <c r="L61" s="17" t="s">
         <v>226</v>
@@ -26454,7 +26457,7 @@
         <v>76</v>
       </c>
       <c r="V61" s="17" t="s">
-        <v>236</v>
+        <v>822</v>
       </c>
       <c r="W61" s="17" t="s">
         <v>88</v>
@@ -26515,34 +26518,34 @@
       <c r="G62" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H62" s="611" t="s">
+      <c r="H62" s="617" t="s">
         <v>82</v>
       </c>
-      <c r="I62" s="612"/>
-      <c r="J62" s="612"/>
-      <c r="K62" s="613"/>
-      <c r="L62" s="611" t="s">
+      <c r="I62" s="618"/>
+      <c r="J62" s="618"/>
+      <c r="K62" s="619"/>
+      <c r="L62" s="617" t="s">
         <v>83</v>
       </c>
-      <c r="M62" s="612"/>
-      <c r="N62" s="612"/>
-      <c r="O62" s="613"/>
-      <c r="P62" s="611" t="s">
+      <c r="M62" s="618"/>
+      <c r="N62" s="618"/>
+      <c r="O62" s="619"/>
+      <c r="P62" s="617" t="s">
         <v>84</v>
       </c>
-      <c r="Q62" s="612"/>
-      <c r="R62" s="612"/>
-      <c r="S62" s="613"/>
-      <c r="T62" s="611" t="s">
+      <c r="Q62" s="618"/>
+      <c r="R62" s="618"/>
+      <c r="S62" s="619"/>
+      <c r="T62" s="617" t="s">
         <v>85</v>
       </c>
-      <c r="U62" s="613"/>
-      <c r="V62" s="605" t="s">
+      <c r="U62" s="619"/>
+      <c r="V62" s="620" t="s">
         <v>86</v>
       </c>
-      <c r="W62" s="606"/>
-      <c r="X62" s="606"/>
-      <c r="Y62" s="607"/>
+      <c r="W62" s="621"/>
+      <c r="X62" s="621"/>
+      <c r="Y62" s="622"/>
       <c r="Z62" s="60"/>
       <c r="AA62" s="60"/>
       <c r="AB62" s="68" t="s">
@@ -26645,24 +26648,24 @@
       <c r="E64" s="38"/>
       <c r="F64" s="38"/>
       <c r="G64" s="39"/>
-      <c r="H64" s="608" t="s">
+      <c r="H64" s="611" t="s">
         <v>34</v>
       </c>
-      <c r="I64" s="609"/>
-      <c r="J64" s="609"/>
-      <c r="K64" s="610"/>
-      <c r="L64" s="609" t="s">
+      <c r="I64" s="612"/>
+      <c r="J64" s="612"/>
+      <c r="K64" s="613"/>
+      <c r="L64" s="612" t="s">
         <v>34</v>
       </c>
-      <c r="M64" s="609"/>
-      <c r="N64" s="609"/>
-      <c r="O64" s="610"/>
-      <c r="P64" s="608" t="s">
+      <c r="M64" s="612"/>
+      <c r="N64" s="612"/>
+      <c r="O64" s="613"/>
+      <c r="P64" s="611" t="s">
         <v>34</v>
       </c>
-      <c r="Q64" s="609"/>
-      <c r="R64" s="609"/>
-      <c r="S64" s="610"/>
+      <c r="Q64" s="612"/>
+      <c r="R64" s="612"/>
+      <c r="S64" s="613"/>
       <c r="T64" s="614" t="s">
         <v>68</v>
       </c>
@@ -28916,7 +28919,7 @@
         <v>558</v>
       </c>
       <c r="G87" s="24" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H87" s="22">
         <v>1</v>
@@ -29008,7 +29011,7 @@
         <v>R-SH_Att_ELC_HPN2-D</v>
       </c>
       <c r="D88" s="30" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E88" s="30" t="s">
         <v>148</v>
@@ -29017,7 +29020,7 @@
         <v>558</v>
       </c>
       <c r="G88" s="30" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H88" s="40">
         <v>1</v>
@@ -29118,7 +29121,7 @@
         <v>558</v>
       </c>
       <c r="G89" s="24" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H89" s="22">
         <v>1</v>
@@ -29219,7 +29222,7 @@
         <v>558</v>
       </c>
       <c r="G90" s="30" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H90" s="40">
         <v>1</v>
@@ -29311,7 +29314,7 @@
         <v>R-SH_Att_ELC_HPN2-G</v>
       </c>
       <c r="D91" s="27" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E91" s="27" t="s">
         <v>148</v>
@@ -29320,7 +29323,7 @@
         <v>558</v>
       </c>
       <c r="G91" s="27" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H91" s="246">
         <v>1</v>
@@ -29421,7 +29424,7 @@
         <v>660</v>
       </c>
       <c r="G92" s="88" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H92" s="19">
         <v>1</v>
@@ -29534,7 +29537,7 @@
         <v>660</v>
       </c>
       <c r="G93" s="24" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H93" s="22">
         <v>1</v>
@@ -29646,7 +29649,7 @@
         <v>660</v>
       </c>
       <c r="G94" s="30" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H94" s="40">
         <v>1</v>
@@ -29758,7 +29761,7 @@
         <v>660</v>
       </c>
       <c r="G95" s="24" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H95" s="22">
         <v>1</v>
@@ -29870,7 +29873,7 @@
         <v>660</v>
       </c>
       <c r="G96" s="30" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H96" s="40">
         <v>1</v>
@@ -29973,7 +29976,7 @@
         <v>R-SW_Att_ELC_HPN1-G</v>
       </c>
       <c r="D97" s="27" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E97" s="27" t="s">
         <v>148</v>
@@ -29982,7 +29985,7 @@
         <v>660</v>
       </c>
       <c r="G97" s="27" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H97" s="246">
         <v>1</v>
@@ -30085,7 +30088,7 @@
         <v>R-SW_Att_ELC_HPN2-AB</v>
       </c>
       <c r="D98" s="88" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E98" s="88" t="s">
         <v>550</v>
@@ -30094,7 +30097,7 @@
         <v>660</v>
       </c>
       <c r="G98" s="88" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H98" s="19">
         <v>1</v>
@@ -30199,7 +30202,7 @@
         <v>R-SW_Att_ELC_HPN2-C</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E99" s="24" t="s">
         <v>550</v>
@@ -30208,7 +30211,7 @@
         <v>660</v>
       </c>
       <c r="G99" s="24" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H99" s="22">
         <v>1</v>
@@ -30313,7 +30316,7 @@
         <v>R-SW_Att_ELC_HPN2-D</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E100" s="30" t="s">
         <v>550</v>
@@ -30322,7 +30325,7 @@
         <v>660</v>
       </c>
       <c r="G100" s="30" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H100" s="40">
         <v>1</v>
@@ -30427,7 +30430,7 @@
         <v>R-SW_Att_ELC_HPN2-E</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E101" s="24" t="s">
         <v>550</v>
@@ -30436,7 +30439,7 @@
         <v>660</v>
       </c>
       <c r="G101" s="24" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H101" s="22">
         <v>1</v>
@@ -30541,7 +30544,7 @@
         <v>R-SW_Att_ELC_HPN2-F</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E102" s="30" t="s">
         <v>550</v>
@@ -30550,7 +30553,7 @@
         <v>660</v>
       </c>
       <c r="G102" s="30" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H102" s="40">
         <v>1</v>
@@ -30655,7 +30658,7 @@
         <v>R-SW_Att_ELC_HPN2-G</v>
       </c>
       <c r="D103" s="27" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E103" s="27" t="s">
         <v>550</v>
@@ -30664,7 +30667,7 @@
         <v>660</v>
       </c>
       <c r="G103" s="27" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H103" s="246">
         <v>1</v>
@@ -30769,7 +30772,7 @@
         <v>R-SH_Att_ELC_HPN3-AB</v>
       </c>
       <c r="D104" s="88" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E104" s="88" t="s">
         <v>148</v>
@@ -30871,7 +30874,7 @@
         <v>R-SH_Att_ELC_HPN3-C</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E105" s="24" t="s">
         <v>148</v>
@@ -30880,7 +30883,7 @@
         <v>558</v>
       </c>
       <c r="G105" s="24" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H105" s="22">
         <f>JRC_Data!AC20/JRC_Data!$AC$16</f>
@@ -30973,7 +30976,7 @@
         <v>R-SH_Att_ELC_HPN3-D</v>
       </c>
       <c r="D106" s="30" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E106" s="30" t="s">
         <v>148</v>
@@ -30982,7 +30985,7 @@
         <v>558</v>
       </c>
       <c r="G106" s="30" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H106" s="40">
         <f>JRC_Data!AC20/JRC_Data!$AC$16</f>
@@ -31075,7 +31078,7 @@
         <v>R-SH_Att_ELC_HPN3-E</v>
       </c>
       <c r="D107" s="24" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E107" s="24" t="s">
         <v>148</v>
@@ -31084,7 +31087,7 @@
         <v>558</v>
       </c>
       <c r="G107" s="24" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H107" s="22">
         <f>JRC_Data!AC20/JRC_Data!$AC$16</f>
@@ -31177,7 +31180,7 @@
         <v>R-SH_Att_ELC_HPN3-F</v>
       </c>
       <c r="D108" s="30" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E108" s="30" t="s">
         <v>148</v>
@@ -31186,7 +31189,7 @@
         <v>558</v>
       </c>
       <c r="G108" s="30" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H108" s="40">
         <f>JRC_Data!AC20/JRC_Data!$AC$16</f>
@@ -31279,7 +31282,7 @@
         <v>R-SH_Att_ELC_HPN3-G</v>
       </c>
       <c r="D109" s="27" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E109" s="27" t="s">
         <v>148</v>
@@ -31288,7 +31291,7 @@
         <v>558</v>
       </c>
       <c r="G109" s="27" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H109" s="246">
         <f>JRC_Data!AC20/JRC_Data!$AC$16</f>
@@ -31381,7 +31384,7 @@
         <v>R-HC_Att_ELC_HPN2-AB</v>
       </c>
       <c r="D110" s="88" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E110" s="88" t="s">
         <v>148</v>
@@ -31390,7 +31393,7 @@
         <v>558</v>
       </c>
       <c r="G110" s="88" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H110" s="19">
         <f>JRC_Data!AC20/JRC_Data!$AC$16</f>
@@ -31495,7 +31498,7 @@
         <v>R-HC_Att_ELC_HPN2-C</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E111" s="24" t="s">
         <v>148</v>
@@ -31504,7 +31507,7 @@
         <v>558</v>
       </c>
       <c r="G111" s="24" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H111" s="22">
         <f>JRC_Data!AC20/JRC_Data!$AC$16</f>
@@ -31609,7 +31612,7 @@
         <v>R-HC_Att_ELC_HPN2-D</v>
       </c>
       <c r="D112" s="30" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E112" s="30" t="s">
         <v>148</v>
@@ -31618,7 +31621,7 @@
         <v>558</v>
       </c>
       <c r="G112" s="30" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H112" s="40">
         <f>JRC_Data!AC20/JRC_Data!$AC$16</f>
@@ -31723,7 +31726,7 @@
         <v>R-HC_Att_ELC_HPN2-E</v>
       </c>
       <c r="D113" s="24" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E113" s="24" t="s">
         <v>148</v>
@@ -31732,7 +31735,7 @@
         <v>558</v>
       </c>
       <c r="G113" s="24" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H113" s="22">
         <f>JRC_Data!AC20/JRC_Data!$AC$16</f>
@@ -31837,7 +31840,7 @@
         <v>R-HC_Att_ELC_HPN2-F</v>
       </c>
       <c r="D114" s="30" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E114" s="30" t="s">
         <v>148</v>
@@ -31846,7 +31849,7 @@
         <v>558</v>
       </c>
       <c r="G114" s="30" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H114" s="40">
         <f>JRC_Data!AC20/JRC_Data!$AC$16</f>
@@ -31952,7 +31955,7 @@
         <v>R-HC_Att_ELC_HPN2-G</v>
       </c>
       <c r="D115" s="27" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E115" s="27" t="s">
         <v>148</v>
@@ -31961,7 +31964,7 @@
         <v>558</v>
       </c>
       <c r="G115" s="27" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H115" s="246">
         <f>JRC_Data!AC20/JRC_Data!$AC$16</f>
@@ -33163,16 +33166,16 @@
         <v>24</v>
       </c>
       <c r="H134" s="17" t="s">
+        <v>821</v>
+      </c>
+      <c r="I134" s="17" t="s">
         <v>729</v>
       </c>
-      <c r="I134" s="17" t="s">
+      <c r="J134" s="17" t="s">
         <v>730</v>
       </c>
-      <c r="J134" s="17" t="s">
+      <c r="K134" s="17" t="s">
         <v>731</v>
-      </c>
-      <c r="K134" s="17" t="s">
-        <v>732</v>
       </c>
       <c r="L134" s="17" t="s">
         <v>530</v>
@@ -33205,7 +33208,7 @@
         <v>76</v>
       </c>
       <c r="V134" s="17" t="s">
-        <v>236</v>
+        <v>822</v>
       </c>
       <c r="W134" s="17" t="s">
         <v>88</v>
@@ -33287,34 +33290,34 @@
       <c r="G135" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H135" s="611" t="s">
+      <c r="H135" s="617" t="s">
         <v>82</v>
       </c>
-      <c r="I135" s="612"/>
-      <c r="J135" s="612"/>
-      <c r="K135" s="613"/>
-      <c r="L135" s="611" t="s">
+      <c r="I135" s="618"/>
+      <c r="J135" s="618"/>
+      <c r="K135" s="619"/>
+      <c r="L135" s="617" t="s">
         <v>83</v>
       </c>
-      <c r="M135" s="612"/>
-      <c r="N135" s="612"/>
-      <c r="O135" s="613"/>
-      <c r="P135" s="611" t="s">
+      <c r="M135" s="618"/>
+      <c r="N135" s="618"/>
+      <c r="O135" s="619"/>
+      <c r="P135" s="617" t="s">
         <v>84</v>
       </c>
-      <c r="Q135" s="612"/>
-      <c r="R135" s="612"/>
-      <c r="S135" s="613"/>
-      <c r="T135" s="611" t="s">
+      <c r="Q135" s="618"/>
+      <c r="R135" s="618"/>
+      <c r="S135" s="619"/>
+      <c r="T135" s="617" t="s">
         <v>85</v>
       </c>
-      <c r="U135" s="613"/>
-      <c r="V135" s="605" t="s">
+      <c r="U135" s="619"/>
+      <c r="V135" s="620" t="s">
         <v>86</v>
       </c>
-      <c r="W135" s="606"/>
-      <c r="X135" s="606"/>
-      <c r="Y135" s="607"/>
+      <c r="W135" s="621"/>
+      <c r="X135" s="621"/>
+      <c r="Y135" s="622"/>
       <c r="Z135" s="60"/>
       <c r="AA135" s="60"/>
       <c r="AB135" s="68" t="s">
@@ -33429,24 +33432,24 @@
       <c r="E137" s="38"/>
       <c r="F137" s="38"/>
       <c r="G137" s="39"/>
-      <c r="H137" s="608" t="s">
+      <c r="H137" s="611" t="s">
         <v>34</v>
       </c>
-      <c r="I137" s="609"/>
-      <c r="J137" s="609"/>
-      <c r="K137" s="610"/>
-      <c r="L137" s="609" t="s">
+      <c r="I137" s="612"/>
+      <c r="J137" s="612"/>
+      <c r="K137" s="613"/>
+      <c r="L137" s="612" t="s">
         <v>34</v>
       </c>
-      <c r="M137" s="609"/>
-      <c r="N137" s="609"/>
-      <c r="O137" s="610"/>
-      <c r="P137" s="608" t="s">
+      <c r="M137" s="612"/>
+      <c r="N137" s="612"/>
+      <c r="O137" s="613"/>
+      <c r="P137" s="611" t="s">
         <v>34</v>
       </c>
-      <c r="Q137" s="609"/>
-      <c r="R137" s="609"/>
-      <c r="S137" s="610"/>
+      <c r="Q137" s="612"/>
+      <c r="R137" s="612"/>
+      <c r="S137" s="613"/>
       <c r="T137" s="614" t="s">
         <v>68</v>
       </c>
@@ -35684,7 +35687,7 @@
         <v>558</v>
       </c>
       <c r="G160" s="24" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H160" s="22">
         <v>1</v>
@@ -35781,7 +35784,7 @@
         <v>558</v>
       </c>
       <c r="G161" s="30" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H161" s="40">
         <v>1</v>
@@ -35878,7 +35881,7 @@
         <v>558</v>
       </c>
       <c r="G162" s="24" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H162" s="22">
         <v>1</v>
@@ -35975,7 +35978,7 @@
         <v>558</v>
       </c>
       <c r="G163" s="30" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H163" s="40">
         <v>1</v>
@@ -36063,7 +36066,7 @@
         <v>R-SH_Det_ELC_HPN2-G</v>
       </c>
       <c r="D164" s="27" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E164" s="27" t="s">
         <v>148</v>
@@ -36072,7 +36075,7 @@
         <v>558</v>
       </c>
       <c r="G164" s="27" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H164" s="246">
         <v>1</v>
@@ -36169,7 +36172,7 @@
         <v>660</v>
       </c>
       <c r="G165" s="88" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H165" s="19">
         <v>1</v>
@@ -36278,7 +36281,7 @@
         <v>660</v>
       </c>
       <c r="G166" s="24" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H166" s="22">
         <v>1</v>
@@ -36387,7 +36390,7 @@
         <v>660</v>
       </c>
       <c r="G167" s="30" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H167" s="40">
         <v>1</v>
@@ -36496,7 +36499,7 @@
         <v>660</v>
       </c>
       <c r="G168" s="24" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H168" s="22">
         <v>1</v>
@@ -36605,7 +36608,7 @@
         <v>660</v>
       </c>
       <c r="G169" s="30" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H169" s="40">
         <v>1</v>
@@ -36705,7 +36708,7 @@
         <v>R-SW_Det_ELC_HPN1-G</v>
       </c>
       <c r="D170" s="27" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E170" s="27" t="s">
         <v>148</v>
@@ -36714,7 +36717,7 @@
         <v>660</v>
       </c>
       <c r="G170" s="27" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H170" s="246">
         <v>1</v>
@@ -36814,7 +36817,7 @@
         <v>R-SW_Det_ELC_HPN2-AB</v>
       </c>
       <c r="D171" s="88" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E171" s="88" t="s">
         <v>550</v>
@@ -36823,7 +36826,7 @@
         <v>660</v>
       </c>
       <c r="G171" s="88" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H171" s="19">
         <v>1</v>
@@ -36928,7 +36931,7 @@
         <v>R-SW_Det_ELC_HPN2-C</v>
       </c>
       <c r="D172" s="24" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E172" s="24" t="s">
         <v>550</v>
@@ -36937,7 +36940,7 @@
         <v>660</v>
       </c>
       <c r="G172" s="24" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H172" s="22">
         <v>1</v>
@@ -37042,7 +37045,7 @@
         <v>R-SW_Det_ELC_HPN2-D</v>
       </c>
       <c r="D173" s="30" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E173" s="30" t="s">
         <v>550</v>
@@ -37051,7 +37054,7 @@
         <v>660</v>
       </c>
       <c r="G173" s="30" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H173" s="40">
         <v>1</v>
@@ -37156,7 +37159,7 @@
         <v>R-SW_Det_ELC_HPN2-E</v>
       </c>
       <c r="D174" s="24" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E174" s="24" t="s">
         <v>550</v>
@@ -37165,7 +37168,7 @@
         <v>660</v>
       </c>
       <c r="G174" s="24" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H174" s="22">
         <v>1</v>
@@ -37270,7 +37273,7 @@
         <v>R-SW_Det_ELC_HPN2-F</v>
       </c>
       <c r="D175" s="30" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E175" s="30" t="s">
         <v>550</v>
@@ -37279,7 +37282,7 @@
         <v>660</v>
       </c>
       <c r="G175" s="30" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H175" s="40">
         <v>1</v>
@@ -37384,7 +37387,7 @@
         <v>R-SW_Det_ELC_HPN2-G</v>
       </c>
       <c r="D176" s="27" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E176" s="27" t="s">
         <v>550</v>
@@ -37393,7 +37396,7 @@
         <v>660</v>
       </c>
       <c r="G176" s="27" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H176" s="246">
         <v>1</v>
@@ -37498,7 +37501,7 @@
         <v>R-SH_Det_ELC_HPN3-AB</v>
       </c>
       <c r="D177" s="88" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E177" s="88" t="s">
         <v>148</v>
@@ -37596,7 +37599,7 @@
         <v>R-SH_Det_ELC_HPN3-C</v>
       </c>
       <c r="D178" s="24" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E178" s="24" t="s">
         <v>148</v>
@@ -37605,7 +37608,7 @@
         <v>558</v>
       </c>
       <c r="G178" s="24" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H178" s="22">
         <v>1.0999999999999999</v>
@@ -37691,7 +37694,7 @@
         <v>R-SH_Det_ELC_HPN3-D</v>
       </c>
       <c r="D179" s="30" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E179" s="30" t="s">
         <v>148</v>
@@ -37700,7 +37703,7 @@
         <v>558</v>
       </c>
       <c r="G179" s="30" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H179" s="40">
         <v>1.0999999999999999</v>
@@ -37786,7 +37789,7 @@
         <v>R-SH_Det_ELC_HPN3-E</v>
       </c>
       <c r="D180" s="24" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E180" s="24" t="s">
         <v>148</v>
@@ -37795,7 +37798,7 @@
         <v>558</v>
       </c>
       <c r="G180" s="24" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H180" s="22">
         <v>1.0999999999999999</v>
@@ -37881,7 +37884,7 @@
         <v>R-SH_Det_ELC_HPN3-F</v>
       </c>
       <c r="D181" s="30" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E181" s="30" t="s">
         <v>148</v>
@@ -37890,7 +37893,7 @@
         <v>558</v>
       </c>
       <c r="G181" s="30" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H181" s="40">
         <v>1.0999999999999999</v>
@@ -37976,7 +37979,7 @@
         <v>R-SH_Det_ELC_HPN3-G</v>
       </c>
       <c r="D182" s="27" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E182" s="27" t="s">
         <v>148</v>
@@ -37985,7 +37988,7 @@
         <v>558</v>
       </c>
       <c r="G182" s="27" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H182" s="246">
         <v>1.0999999999999999</v>
@@ -38071,7 +38074,7 @@
         <v>R-HC_Det_ELC_HPN2-AB</v>
       </c>
       <c r="D183" s="88" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E183" s="88" t="s">
         <v>148</v>
@@ -38080,7 +38083,7 @@
         <v>558</v>
       </c>
       <c r="G183" s="88" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H183" s="19">
         <v>1.0999999999999999</v>
@@ -38177,7 +38180,7 @@
         <v>R-HC_Det_ELC_HPN2-C</v>
       </c>
       <c r="D184" s="24" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E184" s="24" t="s">
         <v>148</v>
@@ -38186,7 +38189,7 @@
         <v>558</v>
       </c>
       <c r="G184" s="24" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H184" s="22">
         <v>1.0999999999999999</v>
@@ -38280,7 +38283,7 @@
         <v>R-HC_Det_ELC_HPN2-D</v>
       </c>
       <c r="D185" s="30" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E185" s="30" t="s">
         <v>148</v>
@@ -38289,7 +38292,7 @@
         <v>558</v>
       </c>
       <c r="G185" s="30" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H185" s="40">
         <v>1.0999999999999999</v>
@@ -38383,7 +38386,7 @@
         <v>R-HC_Det_ELC_HPN2-E</v>
       </c>
       <c r="D186" s="24" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E186" s="24" t="s">
         <v>148</v>
@@ -38392,7 +38395,7 @@
         <v>558</v>
       </c>
       <c r="G186" s="24" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H186" s="22">
         <v>1.0999999999999999</v>
@@ -38486,7 +38489,7 @@
         <v>R-HC_Det_ELC_HPN2-F</v>
       </c>
       <c r="D187" s="30" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E187" s="30" t="s">
         <v>148</v>
@@ -38495,7 +38498,7 @@
         <v>558</v>
       </c>
       <c r="G187" s="30" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H187" s="40">
         <v>1.0999999999999999</v>
@@ -38589,7 +38592,7 @@
         <v>R-HC_Det_ELC_HPN2-G</v>
       </c>
       <c r="D188" s="27" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E188" s="27" t="s">
         <v>148</v>
@@ -38598,7 +38601,7 @@
         <v>558</v>
       </c>
       <c r="G188" s="27" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H188" s="246">
         <v>1.0999999999999999</v>
@@ -39759,10 +39762,10 @@
       <c r="AC217" s="124"/>
       <c r="AE217" s="3"/>
       <c r="AG217" s="124" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AH217" s="124" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="218" spans="10:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -39777,18 +39780,18 @@
         <f>V221-(V223-V221)</f>
         <v>2250</v>
       </c>
-      <c r="Z218" s="617" t="s">
+      <c r="Z218" s="605" t="s">
+        <v>809</v>
+      </c>
+      <c r="AA218" s="606"/>
+      <c r="AB218" s="606"/>
+      <c r="AC218" s="607"/>
+      <c r="AD218" s="124" t="s">
         <v>810</v>
-      </c>
-      <c r="AA218" s="618"/>
-      <c r="AB218" s="618"/>
-      <c r="AC218" s="619"/>
-      <c r="AD218" s="124" t="s">
-        <v>811</v>
       </c>
       <c r="AE218" s="124"/>
       <c r="AF218" s="124" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AG218" s="124" t="s">
         <v>55</v>
@@ -39804,14 +39807,14 @@
       </c>
     </row>
     <row r="219" spans="10:36" x14ac:dyDescent="0.2">
-      <c r="L219" s="621" t="s">
+      <c r="L219" s="609" t="s">
         <v>504</v>
       </c>
-      <c r="M219" s="621"/>
-      <c r="N219" s="621"/>
-      <c r="O219" s="621"/>
-      <c r="P219" s="621"/>
-      <c r="Q219" s="621"/>
+      <c r="M219" s="609"/>
+      <c r="N219" s="609"/>
+      <c r="O219" s="609"/>
+      <c r="P219" s="609"/>
+      <c r="Q219" s="609"/>
       <c r="T219" s="3">
         <v>15</v>
       </c>
@@ -39825,28 +39828,28 @@
       <c r="X219" s="4"/>
       <c r="Y219" s="4"/>
       <c r="Z219" s="546" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="AA219" s="547" t="s">
+        <v>796</v>
+      </c>
+      <c r="AB219" s="547" t="s">
         <v>797</v>
       </c>
-      <c r="AB219" s="547" t="s">
-        <v>798</v>
-      </c>
       <c r="AC219" s="548" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AD219" s="124" t="s">
+        <v>811</v>
+      </c>
+      <c r="AF219" s="608" t="s">
         <v>812</v>
       </c>
-      <c r="AF219" s="620" t="s">
-        <v>813</v>
-      </c>
-      <c r="AG219" s="620"/>
+      <c r="AG219" s="608"/>
     </row>
     <row r="220" spans="10:36" x14ac:dyDescent="0.2">
       <c r="L220" s="124" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="M220" s="3" t="s">
         <v>512</v>
@@ -39876,10 +39879,10 @@
       <c r="X220" s="4"/>
       <c r="Y220" s="4"/>
       <c r="Z220" s="537" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AA220" s="538" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AB220" s="2">
         <v>35</v>
@@ -39944,7 +39947,7 @@
         <v>483</v>
       </c>
       <c r="AA221" s="541" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AB221" s="542">
         <v>40</v>
@@ -40008,10 +40011,10 @@
       <c r="X222" s="4"/>
       <c r="Y222" s="4"/>
       <c r="Z222" s="537" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AA222" s="538" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AB222" s="2">
         <v>45</v>
@@ -40075,10 +40078,10 @@
       <c r="X223" s="4"/>
       <c r="Y223" s="4"/>
       <c r="Z223" s="540" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AA223" s="541" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="AB223" s="542">
         <v>50</v>
@@ -40140,13 +40143,13 @@
         <v>2795</v>
       </c>
       <c r="Z224" s="544" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AA224" s="545" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AB224" s="545" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="AC224" s="555">
         <v>2.35</v>
@@ -40226,14 +40229,14 @@
       <c r="I230" s="4"/>
       <c r="J230" s="4"/>
       <c r="K230" s="4"/>
-      <c r="AB230" s="622" t="s">
-        <v>819</v>
-      </c>
-      <c r="AC230" s="622"/>
-      <c r="AD230" s="622"/>
-      <c r="AE230" s="622"/>
+      <c r="AB230" s="610" t="s">
+        <v>818</v>
+      </c>
+      <c r="AC230" s="610"/>
+      <c r="AD230" s="610"/>
+      <c r="AE230" s="610"/>
       <c r="AG230" s="602" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AH230" s="603"/>
       <c r="AI230" s="604"/>
@@ -40294,7 +40297,7 @@
       <c r="Z232" s="4"/>
       <c r="AA232" s="4"/>
       <c r="AB232" s="124" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="AC232" s="550">
         <v>1.5</v>
@@ -40306,7 +40309,7 @@
         <v>1.95</v>
       </c>
       <c r="AF232" s="124" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="AG232" s="556">
         <v>0</v>
@@ -40682,7 +40685,7 @@
       <c r="AD239" s="4"/>
       <c r="AF239" s="4"/>
       <c r="AG239" s="124" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AH239" s="4"/>
       <c r="AI239" s="4"/>
@@ -40714,7 +40717,7 @@
       <c r="AD240" s="4"/>
       <c r="AF240" s="4"/>
       <c r="AG240" s="602" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AH240" s="603"/>
       <c r="AI240" s="604"/>
@@ -40962,28 +40965,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="AJ230:AL230"/>
-    <mergeCell ref="Z218:AC218"/>
-    <mergeCell ref="AF219:AG219"/>
-    <mergeCell ref="L219:Q219"/>
-    <mergeCell ref="AB230:AE230"/>
-    <mergeCell ref="AG230:AI230"/>
-    <mergeCell ref="H137:K137"/>
-    <mergeCell ref="L137:O137"/>
-    <mergeCell ref="P137:S137"/>
-    <mergeCell ref="T137:U137"/>
-    <mergeCell ref="V137:Y137"/>
-    <mergeCell ref="H135:K135"/>
-    <mergeCell ref="L135:O135"/>
-    <mergeCell ref="P135:S135"/>
-    <mergeCell ref="T135:U135"/>
-    <mergeCell ref="V135:Y135"/>
-    <mergeCell ref="V62:Y62"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:O64"/>
-    <mergeCell ref="P64:S64"/>
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="V64:Y64"/>
     <mergeCell ref="AG240:AI240"/>
     <mergeCell ref="AJ240:AL240"/>
     <mergeCell ref="V4:Y4"/>
@@ -41000,6 +40981,28 @@
     <mergeCell ref="L62:O62"/>
     <mergeCell ref="P62:S62"/>
     <mergeCell ref="T62:U62"/>
+    <mergeCell ref="V62:Y62"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:O64"/>
+    <mergeCell ref="P64:S64"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="V64:Y64"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:O135"/>
+    <mergeCell ref="P135:S135"/>
+    <mergeCell ref="T135:U135"/>
+    <mergeCell ref="V135:Y135"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:O137"/>
+    <mergeCell ref="P137:S137"/>
+    <mergeCell ref="T137:U137"/>
+    <mergeCell ref="V137:Y137"/>
+    <mergeCell ref="AJ230:AL230"/>
+    <mergeCell ref="Z218:AC218"/>
+    <mergeCell ref="AF219:AG219"/>
+    <mergeCell ref="L219:Q219"/>
+    <mergeCell ref="AB230:AE230"/>
+    <mergeCell ref="AG230:AI230"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -41143,12 +41146,12 @@
       <c r="I5" s="121"/>
       <c r="J5" s="121"/>
       <c r="K5" s="121"/>
-      <c r="L5" s="605" t="s">
+      <c r="L5" s="620" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="606"/>
-      <c r="N5" s="606"/>
-      <c r="O5" s="607"/>
+      <c r="M5" s="621"/>
+      <c r="N5" s="621"/>
+      <c r="O5" s="622"/>
       <c r="P5" s="60"/>
       <c r="Q5" s="60" t="s">
         <v>87</v>
@@ -42070,12 +42073,12 @@
       <c r="K33" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L33" s="605" t="s">
+      <c r="L33" s="620" t="s">
         <v>86</v>
       </c>
-      <c r="M33" s="606"/>
-      <c r="N33" s="606"/>
-      <c r="O33" s="607"/>
+      <c r="M33" s="621"/>
+      <c r="N33" s="621"/>
+      <c r="O33" s="622"/>
     </row>
     <row r="34" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H34" s="3" t="s">
@@ -42426,16 +42429,16 @@
       <c r="G4" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="611" t="s">
+      <c r="H4" s="617" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="612"/>
-      <c r="J4" s="613"/>
-      <c r="K4" s="605" t="s">
+      <c r="I4" s="618"/>
+      <c r="J4" s="619"/>
+      <c r="K4" s="620" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="606"/>
-      <c r="M4" s="607"/>
+      <c r="L4" s="621"/>
+      <c r="M4" s="622"/>
       <c r="N4" s="60"/>
       <c r="O4" s="60" t="s">
         <v>87</v>
@@ -42461,16 +42464,16 @@
       <c r="G5" s="375" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="623" t="s">
+      <c r="H5" s="626" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="624"/>
-      <c r="J5" s="625"/>
-      <c r="K5" s="623" t="s">
+      <c r="I5" s="627"/>
+      <c r="J5" s="628"/>
+      <c r="K5" s="626" t="s">
         <v>292</v>
       </c>
-      <c r="L5" s="624"/>
-      <c r="M5" s="625"/>
+      <c r="L5" s="627"/>
+      <c r="M5" s="628"/>
       <c r="N5" s="376" t="s">
         <v>92</v>
       </c>
@@ -42487,23 +42490,23 @@
         <v>210</v>
       </c>
       <c r="AA5" s="201"/>
-      <c r="AB5" s="626" t="s">
+      <c r="AB5" s="623" t="s">
         <v>541</v>
       </c>
-      <c r="AC5" s="626"/>
+      <c r="AC5" s="623"/>
       <c r="AD5" s="378"/>
-      <c r="AE5" s="627" t="s">
+      <c r="AE5" s="624" t="s">
         <v>65</v>
       </c>
-      <c r="AF5" s="627"/>
-      <c r="AG5" s="627" t="s">
+      <c r="AF5" s="624"/>
+      <c r="AG5" s="624" t="s">
         <v>542</v>
       </c>
-      <c r="AH5" s="627"/>
-      <c r="AI5" s="628" t="s">
+      <c r="AH5" s="624"/>
+      <c r="AI5" s="625" t="s">
         <v>543</v>
       </c>
-      <c r="AJ5" s="628"/>
+      <c r="AJ5" s="625"/>
     </row>
     <row r="6" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C6" s="422" t="str">
@@ -43241,12 +43244,12 @@
       <c r="K27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L27" s="605" t="s">
+      <c r="L27" s="620" t="s">
         <v>86</v>
       </c>
-      <c r="M27" s="606"/>
-      <c r="N27" s="606"/>
-      <c r="O27" s="607"/>
+      <c r="M27" s="621"/>
+      <c r="N27" s="621"/>
+      <c r="O27" s="622"/>
       <c r="T27" s="203"/>
       <c r="U27" s="203"/>
     </row>
@@ -43254,12 +43257,12 @@
       <c r="J28" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L28" s="608" t="s">
+      <c r="L28" s="611" t="s">
         <v>91</v>
       </c>
-      <c r="M28" s="609"/>
-      <c r="N28" s="609"/>
-      <c r="O28" s="610"/>
+      <c r="M28" s="612"/>
+      <c r="N28" s="612"/>
+      <c r="O28" s="613"/>
       <c r="T28" s="203"/>
       <c r="U28" s="203"/>
     </row>
@@ -44649,16 +44652,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
     <mergeCell ref="AB5:AC5"/>
     <mergeCell ref="AE5:AF5"/>
     <mergeCell ref="AG5:AH5"/>
     <mergeCell ref="AI5:AJ5"/>
     <mergeCell ref="L27:O27"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S7" r:id="rId1" xr:uid="{B1EDD63D-40A5-4174-9D28-8666BD314B83}"/>
@@ -45089,103 +45092,103 @@
       <c r="C4" s="273" t="s">
         <v>301</v>
       </c>
-      <c r="D4" s="629" t="s">
+      <c r="D4" s="630" t="s">
         <v>302</v>
       </c>
-      <c r="E4" s="630"/>
-      <c r="F4" s="630"/>
-      <c r="G4" s="630"/>
+      <c r="E4" s="629"/>
+      <c r="F4" s="629"/>
+      <c r="G4" s="629"/>
       <c r="H4" s="631"/>
-      <c r="I4" s="630" t="s">
+      <c r="I4" s="629" t="s">
         <v>303</v>
       </c>
-      <c r="J4" s="630"/>
-      <c r="K4" s="630"/>
-      <c r="L4" s="630"/>
+      <c r="J4" s="629"/>
+      <c r="K4" s="629"/>
+      <c r="L4" s="629"/>
       <c r="M4" s="631"/>
-      <c r="N4" s="630" t="s">
+      <c r="N4" s="629" t="s">
         <v>304</v>
       </c>
-      <c r="O4" s="630"/>
-      <c r="P4" s="630"/>
-      <c r="Q4" s="630"/>
+      <c r="O4" s="629"/>
+      <c r="P4" s="629"/>
+      <c r="Q4" s="629"/>
       <c r="R4" s="631"/>
-      <c r="S4" s="630" t="s">
+      <c r="S4" s="629" t="s">
         <v>305</v>
       </c>
-      <c r="T4" s="630"/>
-      <c r="U4" s="630"/>
-      <c r="V4" s="630"/>
+      <c r="T4" s="629"/>
+      <c r="U4" s="629"/>
+      <c r="V4" s="629"/>
       <c r="W4" s="631"/>
-      <c r="X4" s="630" t="s">
+      <c r="X4" s="629" t="s">
         <v>306</v>
       </c>
-      <c r="Y4" s="630"/>
-      <c r="Z4" s="630"/>
-      <c r="AA4" s="630"/>
+      <c r="Y4" s="629"/>
+      <c r="Z4" s="629"/>
+      <c r="AA4" s="629"/>
       <c r="AB4" s="631"/>
-      <c r="AC4" s="630" t="s">
+      <c r="AC4" s="629" t="s">
         <v>307</v>
       </c>
-      <c r="AD4" s="630"/>
-      <c r="AE4" s="630"/>
-      <c r="AF4" s="630"/>
+      <c r="AD4" s="629"/>
+      <c r="AE4" s="629"/>
+      <c r="AF4" s="629"/>
       <c r="AG4" s="631"/>
-      <c r="AH4" s="630" t="s">
+      <c r="AH4" s="629" t="s">
         <v>308</v>
       </c>
-      <c r="AI4" s="630"/>
-      <c r="AJ4" s="630"/>
-      <c r="AK4" s="630"/>
+      <c r="AI4" s="629"/>
+      <c r="AJ4" s="629"/>
+      <c r="AK4" s="629"/>
       <c r="AL4" s="631"/>
-      <c r="AM4" s="630" t="s">
+      <c r="AM4" s="629" t="s">
         <v>309</v>
       </c>
-      <c r="AN4" s="630"/>
-      <c r="AO4" s="630"/>
-      <c r="AP4" s="630"/>
+      <c r="AN4" s="629"/>
+      <c r="AO4" s="629"/>
+      <c r="AP4" s="629"/>
       <c r="AQ4" s="631"/>
-      <c r="AR4" s="630" t="s">
+      <c r="AR4" s="629" t="s">
         <v>310</v>
       </c>
-      <c r="AS4" s="630"/>
-      <c r="AT4" s="630"/>
-      <c r="AU4" s="630"/>
+      <c r="AS4" s="629"/>
+      <c r="AT4" s="629"/>
+      <c r="AU4" s="629"/>
       <c r="AV4" s="631"/>
-      <c r="AW4" s="630" t="s">
+      <c r="AW4" s="629" t="s">
         <v>311</v>
       </c>
-      <c r="AX4" s="630"/>
-      <c r="AY4" s="630"/>
-      <c r="AZ4" s="630"/>
-      <c r="BA4" s="630"/>
-      <c r="BB4" s="629" t="s">
+      <c r="AX4" s="629"/>
+      <c r="AY4" s="629"/>
+      <c r="AZ4" s="629"/>
+      <c r="BA4" s="629"/>
+      <c r="BB4" s="630" t="s">
         <v>312</v>
       </c>
-      <c r="BC4" s="630"/>
-      <c r="BD4" s="630"/>
-      <c r="BE4" s="630"/>
+      <c r="BC4" s="629"/>
+      <c r="BD4" s="629"/>
+      <c r="BE4" s="629"/>
       <c r="BF4" s="631"/>
-      <c r="BG4" s="630" t="s">
+      <c r="BG4" s="629" t="s">
         <v>313</v>
       </c>
-      <c r="BH4" s="630"/>
-      <c r="BI4" s="630"/>
-      <c r="BJ4" s="630"/>
-      <c r="BK4" s="630"/>
-      <c r="BL4" s="629" t="s">
+      <c r="BH4" s="629"/>
+      <c r="BI4" s="629"/>
+      <c r="BJ4" s="629"/>
+      <c r="BK4" s="629"/>
+      <c r="BL4" s="630" t="s">
         <v>314</v>
       </c>
-      <c r="BM4" s="630"/>
-      <c r="BN4" s="630"/>
-      <c r="BO4" s="630"/>
-      <c r="BP4" s="630"/>
-      <c r="BQ4" s="629" t="s">
+      <c r="BM4" s="629"/>
+      <c r="BN4" s="629"/>
+      <c r="BO4" s="629"/>
+      <c r="BP4" s="629"/>
+      <c r="BQ4" s="630" t="s">
         <v>315</v>
       </c>
-      <c r="BR4" s="630"/>
-      <c r="BS4" s="630"/>
-      <c r="BT4" s="630"/>
+      <c r="BR4" s="629"/>
+      <c r="BS4" s="629"/>
+      <c r="BT4" s="629"/>
       <c r="BU4" s="631"/>
       <c r="BV4" s="274" t="s">
         <v>316</v>
@@ -58779,6 +58782,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="BL4:BP4"/>
+    <mergeCell ref="BQ4:BU4"/>
+    <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="CB4:CF4"/>
+    <mergeCell ref="CG4:CK4"/>
     <mergeCell ref="BG4:BK4"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
@@ -58791,11 +58799,6 @@
     <mergeCell ref="AR4:AV4"/>
     <mergeCell ref="AW4:BA4"/>
     <mergeCell ref="BB4:BF4"/>
-    <mergeCell ref="BL4:BP4"/>
-    <mergeCell ref="BQ4:BU4"/>
-    <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="CB4:CF4"/>
-    <mergeCell ref="CG4:CK4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -58818,23 +58821,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="636" t="s">
+      <c r="A1" s="638" t="s">
         <v>585</v>
       </c>
-      <c r="B1" s="638" t="s">
+      <c r="B1" s="640" t="s">
         <v>586</v>
       </c>
-      <c r="C1" s="639"/>
-      <c r="D1" s="639"/>
-      <c r="E1" s="639"/>
-      <c r="F1" s="640"/>
-      <c r="G1" s="638" t="s">
+      <c r="C1" s="641"/>
+      <c r="D1" s="641"/>
+      <c r="E1" s="641"/>
+      <c r="F1" s="642"/>
+      <c r="G1" s="640" t="s">
         <v>587</v>
       </c>
-      <c r="H1" s="639"/>
-      <c r="I1" s="639"/>
-      <c r="J1" s="639"/>
-      <c r="K1" s="640"/>
+      <c r="H1" s="641"/>
+      <c r="I1" s="641"/>
+      <c r="J1" s="641"/>
+      <c r="K1" s="642"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -58844,7 +58847,7 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="637"/>
+      <c r="A2" s="639"/>
       <c r="B2" s="443" t="s">
         <v>254</v>
       </c>
@@ -60337,11 +60340,11 @@
       <c r="Y48" t="s">
         <v>636</v>
       </c>
-      <c r="Z48" s="641" t="s">
+      <c r="Z48" s="636" t="s">
         <v>574</v>
       </c>
-      <c r="AA48" s="642"/>
-      <c r="AB48" s="642"/>
+      <c r="AA48" s="637"/>
+      <c r="AB48" s="637"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
@@ -60558,11 +60561,11 @@
       <c r="Y53" t="s">
         <v>638</v>
       </c>
-      <c r="Z53" s="641" t="s">
+      <c r="Z53" s="636" t="s">
         <v>573</v>
       </c>
-      <c r="AA53" s="642"/>
-      <c r="AB53" s="642"/>
+      <c r="AA53" s="637"/>
+      <c r="AB53" s="637"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
@@ -60764,11 +60767,11 @@
       <c r="Y59" t="s">
         <v>639</v>
       </c>
-      <c r="Z59" s="641" t="s">
+      <c r="Z59" s="636" t="s">
         <v>640</v>
       </c>
-      <c r="AA59" s="642"/>
-      <c r="AB59" s="642"/>
+      <c r="AA59" s="637"/>
+      <c r="AB59" s="637"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="463" t="str">
@@ -61605,17 +61608,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="Z48:AB48"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="Z48:AB48"/>
   </mergeCells>
   <phoneticPr fontId="54" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18652DE8-F8DE-4BFB-82ED-82AACE9F2B08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64930D97-B1A4-474A-8E20-F918DE4024BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{2CC7CA6E-3559-4BC7-B5C1-253B80EF5435}"/>
+    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{2CC7CA6E-3559-4BC7-B5C1-253B80EF5435}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="62" r:id="rId1"/>
@@ -13959,6 +13959,42 @@
     <xf numFmtId="0" fontId="59" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="37" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -13977,40 +14013,13 @@
     <xf numFmtId="0" fontId="4" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -14022,19 +14031,10 @@
     <xf numFmtId="0" fontId="53" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14052,12 +14052,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -14072,6 +14066,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -20990,8 +20990,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:AS251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G124" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V135" sqref="V135:Y135"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21166,34 +21166,34 @@
       <c r="G4" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="617" t="s">
+      <c r="H4" s="611" t="s">
         <v>258</v>
       </c>
-      <c r="I4" s="618"/>
-      <c r="J4" s="618"/>
-      <c r="K4" s="619"/>
-      <c r="L4" s="617" t="s">
+      <c r="I4" s="612"/>
+      <c r="J4" s="612"/>
+      <c r="K4" s="613"/>
+      <c r="L4" s="611" t="s">
         <v>83</v>
       </c>
-      <c r="M4" s="618"/>
-      <c r="N4" s="618"/>
-      <c r="O4" s="619"/>
-      <c r="P4" s="617" t="s">
+      <c r="M4" s="612"/>
+      <c r="N4" s="612"/>
+      <c r="O4" s="613"/>
+      <c r="P4" s="611" t="s">
         <v>84</v>
       </c>
-      <c r="Q4" s="618"/>
-      <c r="R4" s="618"/>
-      <c r="S4" s="619"/>
-      <c r="T4" s="617" t="s">
+      <c r="Q4" s="612"/>
+      <c r="R4" s="612"/>
+      <c r="S4" s="613"/>
+      <c r="T4" s="611" t="s">
         <v>85</v>
       </c>
-      <c r="U4" s="619"/>
-      <c r="V4" s="620" t="s">
+      <c r="U4" s="613"/>
+      <c r="V4" s="605" t="s">
         <v>86</v>
       </c>
-      <c r="W4" s="621"/>
-      <c r="X4" s="621"/>
-      <c r="Y4" s="622"/>
+      <c r="W4" s="606"/>
+      <c r="X4" s="606"/>
+      <c r="Y4" s="607"/>
       <c r="Z4" s="60"/>
       <c r="AA4" s="60"/>
       <c r="AB4" s="68" t="s">
@@ -21296,34 +21296,34 @@
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
       <c r="G6" s="39"/>
-      <c r="H6" s="611" t="s">
+      <c r="H6" s="608" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="612"/>
-      <c r="J6" s="612"/>
-      <c r="K6" s="613"/>
-      <c r="L6" s="612" t="s">
+      <c r="I6" s="609"/>
+      <c r="J6" s="609"/>
+      <c r="K6" s="610"/>
+      <c r="L6" s="609" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="612"/>
-      <c r="N6" s="612"/>
-      <c r="O6" s="613"/>
-      <c r="P6" s="611" t="s">
+      <c r="M6" s="609"/>
+      <c r="N6" s="609"/>
+      <c r="O6" s="610"/>
+      <c r="P6" s="608" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="612"/>
-      <c r="R6" s="612"/>
-      <c r="S6" s="613"/>
-      <c r="T6" s="611" t="s">
+      <c r="Q6" s="609"/>
+      <c r="R6" s="609"/>
+      <c r="S6" s="610"/>
+      <c r="T6" s="608" t="s">
         <v>68</v>
       </c>
-      <c r="U6" s="613"/>
-      <c r="V6" s="611" t="s">
+      <c r="U6" s="610"/>
+      <c r="V6" s="608" t="s">
         <v>503</v>
       </c>
-      <c r="W6" s="612"/>
-      <c r="X6" s="612"/>
-      <c r="Y6" s="613"/>
+      <c r="W6" s="609"/>
+      <c r="X6" s="609"/>
+      <c r="Y6" s="610"/>
       <c r="Z6" s="520" t="s">
         <v>515</v>
       </c>
@@ -26518,34 +26518,34 @@
       <c r="G62" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H62" s="617" t="s">
+      <c r="H62" s="611" t="s">
         <v>82</v>
       </c>
-      <c r="I62" s="618"/>
-      <c r="J62" s="618"/>
-      <c r="K62" s="619"/>
-      <c r="L62" s="617" t="s">
+      <c r="I62" s="612"/>
+      <c r="J62" s="612"/>
+      <c r="K62" s="613"/>
+      <c r="L62" s="611" t="s">
         <v>83</v>
       </c>
-      <c r="M62" s="618"/>
-      <c r="N62" s="618"/>
-      <c r="O62" s="619"/>
-      <c r="P62" s="617" t="s">
+      <c r="M62" s="612"/>
+      <c r="N62" s="612"/>
+      <c r="O62" s="613"/>
+      <c r="P62" s="611" t="s">
         <v>84</v>
       </c>
-      <c r="Q62" s="618"/>
-      <c r="R62" s="618"/>
-      <c r="S62" s="619"/>
-      <c r="T62" s="617" t="s">
+      <c r="Q62" s="612"/>
+      <c r="R62" s="612"/>
+      <c r="S62" s="613"/>
+      <c r="T62" s="611" t="s">
         <v>85</v>
       </c>
-      <c r="U62" s="619"/>
-      <c r="V62" s="620" t="s">
+      <c r="U62" s="613"/>
+      <c r="V62" s="605" t="s">
         <v>86</v>
       </c>
-      <c r="W62" s="621"/>
-      <c r="X62" s="621"/>
-      <c r="Y62" s="622"/>
+      <c r="W62" s="606"/>
+      <c r="X62" s="606"/>
+      <c r="Y62" s="607"/>
       <c r="Z62" s="60"/>
       <c r="AA62" s="60"/>
       <c r="AB62" s="68" t="s">
@@ -26648,24 +26648,24 @@
       <c r="E64" s="38"/>
       <c r="F64" s="38"/>
       <c r="G64" s="39"/>
-      <c r="H64" s="611" t="s">
+      <c r="H64" s="608" t="s">
         <v>34</v>
       </c>
-      <c r="I64" s="612"/>
-      <c r="J64" s="612"/>
-      <c r="K64" s="613"/>
-      <c r="L64" s="612" t="s">
+      <c r="I64" s="609"/>
+      <c r="J64" s="609"/>
+      <c r="K64" s="610"/>
+      <c r="L64" s="609" t="s">
         <v>34</v>
       </c>
-      <c r="M64" s="612"/>
-      <c r="N64" s="612"/>
-      <c r="O64" s="613"/>
-      <c r="P64" s="611" t="s">
+      <c r="M64" s="609"/>
+      <c r="N64" s="609"/>
+      <c r="O64" s="610"/>
+      <c r="P64" s="608" t="s">
         <v>34</v>
       </c>
-      <c r="Q64" s="612"/>
-      <c r="R64" s="612"/>
-      <c r="S64" s="613"/>
+      <c r="Q64" s="609"/>
+      <c r="R64" s="609"/>
+      <c r="S64" s="610"/>
       <c r="T64" s="614" t="s">
         <v>68</v>
       </c>
@@ -33290,34 +33290,34 @@
       <c r="G135" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H135" s="617" t="s">
+      <c r="H135" s="611" t="s">
         <v>82</v>
       </c>
-      <c r="I135" s="618"/>
-      <c r="J135" s="618"/>
-      <c r="K135" s="619"/>
-      <c r="L135" s="617" t="s">
+      <c r="I135" s="612"/>
+      <c r="J135" s="612"/>
+      <c r="K135" s="613"/>
+      <c r="L135" s="611" t="s">
         <v>83</v>
       </c>
-      <c r="M135" s="618"/>
-      <c r="N135" s="618"/>
-      <c r="O135" s="619"/>
-      <c r="P135" s="617" t="s">
+      <c r="M135" s="612"/>
+      <c r="N135" s="612"/>
+      <c r="O135" s="613"/>
+      <c r="P135" s="611" t="s">
         <v>84</v>
       </c>
-      <c r="Q135" s="618"/>
-      <c r="R135" s="618"/>
-      <c r="S135" s="619"/>
-      <c r="T135" s="617" t="s">
+      <c r="Q135" s="612"/>
+      <c r="R135" s="612"/>
+      <c r="S135" s="613"/>
+      <c r="T135" s="611" t="s">
         <v>85</v>
       </c>
-      <c r="U135" s="619"/>
-      <c r="V135" s="620" t="s">
+      <c r="U135" s="613"/>
+      <c r="V135" s="605" t="s">
         <v>86</v>
       </c>
-      <c r="W135" s="621"/>
-      <c r="X135" s="621"/>
-      <c r="Y135" s="622"/>
+      <c r="W135" s="606"/>
+      <c r="X135" s="606"/>
+      <c r="Y135" s="607"/>
       <c r="Z135" s="60"/>
       <c r="AA135" s="60"/>
       <c r="AB135" s="68" t="s">
@@ -33432,24 +33432,24 @@
       <c r="E137" s="38"/>
       <c r="F137" s="38"/>
       <c r="G137" s="39"/>
-      <c r="H137" s="611" t="s">
+      <c r="H137" s="608" t="s">
         <v>34</v>
       </c>
-      <c r="I137" s="612"/>
-      <c r="J137" s="612"/>
-      <c r="K137" s="613"/>
-      <c r="L137" s="612" t="s">
+      <c r="I137" s="609"/>
+      <c r="J137" s="609"/>
+      <c r="K137" s="610"/>
+      <c r="L137" s="609" t="s">
         <v>34</v>
       </c>
-      <c r="M137" s="612"/>
-      <c r="N137" s="612"/>
-      <c r="O137" s="613"/>
-      <c r="P137" s="611" t="s">
+      <c r="M137" s="609"/>
+      <c r="N137" s="609"/>
+      <c r="O137" s="610"/>
+      <c r="P137" s="608" t="s">
         <v>34</v>
       </c>
-      <c r="Q137" s="612"/>
-      <c r="R137" s="612"/>
-      <c r="S137" s="613"/>
+      <c r="Q137" s="609"/>
+      <c r="R137" s="609"/>
+      <c r="S137" s="610"/>
       <c r="T137" s="614" t="s">
         <v>68</v>
       </c>
@@ -39780,12 +39780,12 @@
         <f>V221-(V223-V221)</f>
         <v>2250</v>
       </c>
-      <c r="Z218" s="605" t="s">
+      <c r="Z218" s="617" t="s">
         <v>809</v>
       </c>
-      <c r="AA218" s="606"/>
-      <c r="AB218" s="606"/>
-      <c r="AC218" s="607"/>
+      <c r="AA218" s="618"/>
+      <c r="AB218" s="618"/>
+      <c r="AC218" s="619"/>
       <c r="AD218" s="124" t="s">
         <v>810</v>
       </c>
@@ -39807,14 +39807,14 @@
       </c>
     </row>
     <row r="219" spans="10:36" x14ac:dyDescent="0.2">
-      <c r="L219" s="609" t="s">
+      <c r="L219" s="621" t="s">
         <v>504</v>
       </c>
-      <c r="M219" s="609"/>
-      <c r="N219" s="609"/>
-      <c r="O219" s="609"/>
-      <c r="P219" s="609"/>
-      <c r="Q219" s="609"/>
+      <c r="M219" s="621"/>
+      <c r="N219" s="621"/>
+      <c r="O219" s="621"/>
+      <c r="P219" s="621"/>
+      <c r="Q219" s="621"/>
       <c r="T219" s="3">
         <v>15</v>
       </c>
@@ -39842,10 +39842,10 @@
       <c r="AD219" s="124" t="s">
         <v>811</v>
       </c>
-      <c r="AF219" s="608" t="s">
+      <c r="AF219" s="620" t="s">
         <v>812</v>
       </c>
-      <c r="AG219" s="608"/>
+      <c r="AG219" s="620"/>
     </row>
     <row r="220" spans="10:36" x14ac:dyDescent="0.2">
       <c r="L220" s="124" t="s">
@@ -40229,12 +40229,12 @@
       <c r="I230" s="4"/>
       <c r="J230" s="4"/>
       <c r="K230" s="4"/>
-      <c r="AB230" s="610" t="s">
+      <c r="AB230" s="622" t="s">
         <v>818</v>
       </c>
-      <c r="AC230" s="610"/>
-      <c r="AD230" s="610"/>
-      <c r="AE230" s="610"/>
+      <c r="AC230" s="622"/>
+      <c r="AD230" s="622"/>
+      <c r="AE230" s="622"/>
       <c r="AG230" s="602" t="s">
         <v>815</v>
       </c>
@@ -40965,6 +40965,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="AJ230:AL230"/>
+    <mergeCell ref="Z218:AC218"/>
+    <mergeCell ref="AF219:AG219"/>
+    <mergeCell ref="L219:Q219"/>
+    <mergeCell ref="AB230:AE230"/>
+    <mergeCell ref="AG230:AI230"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:O137"/>
+    <mergeCell ref="P137:S137"/>
+    <mergeCell ref="T137:U137"/>
+    <mergeCell ref="V137:Y137"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:O135"/>
+    <mergeCell ref="P135:S135"/>
+    <mergeCell ref="T135:U135"/>
+    <mergeCell ref="V135:Y135"/>
+    <mergeCell ref="V62:Y62"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:O64"/>
+    <mergeCell ref="P64:S64"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="V64:Y64"/>
     <mergeCell ref="AG240:AI240"/>
     <mergeCell ref="AJ240:AL240"/>
     <mergeCell ref="V4:Y4"/>
@@ -40981,28 +41003,6 @@
     <mergeCell ref="L62:O62"/>
     <mergeCell ref="P62:S62"/>
     <mergeCell ref="T62:U62"/>
-    <mergeCell ref="V62:Y62"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:O64"/>
-    <mergeCell ref="P64:S64"/>
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="V64:Y64"/>
-    <mergeCell ref="H135:K135"/>
-    <mergeCell ref="L135:O135"/>
-    <mergeCell ref="P135:S135"/>
-    <mergeCell ref="T135:U135"/>
-    <mergeCell ref="V135:Y135"/>
-    <mergeCell ref="H137:K137"/>
-    <mergeCell ref="L137:O137"/>
-    <mergeCell ref="P137:S137"/>
-    <mergeCell ref="T137:U137"/>
-    <mergeCell ref="V137:Y137"/>
-    <mergeCell ref="AJ230:AL230"/>
-    <mergeCell ref="Z218:AC218"/>
-    <mergeCell ref="AF219:AG219"/>
-    <mergeCell ref="L219:Q219"/>
-    <mergeCell ref="AB230:AE230"/>
-    <mergeCell ref="AG230:AI230"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -41146,12 +41146,12 @@
       <c r="I5" s="121"/>
       <c r="J5" s="121"/>
       <c r="K5" s="121"/>
-      <c r="L5" s="620" t="s">
+      <c r="L5" s="605" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="621"/>
-      <c r="N5" s="621"/>
-      <c r="O5" s="622"/>
+      <c r="M5" s="606"/>
+      <c r="N5" s="606"/>
+      <c r="O5" s="607"/>
       <c r="P5" s="60"/>
       <c r="Q5" s="60" t="s">
         <v>87</v>
@@ -42073,12 +42073,12 @@
       <c r="K33" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L33" s="620" t="s">
+      <c r="L33" s="605" t="s">
         <v>86</v>
       </c>
-      <c r="M33" s="621"/>
-      <c r="N33" s="621"/>
-      <c r="O33" s="622"/>
+      <c r="M33" s="606"/>
+      <c r="N33" s="606"/>
+      <c r="O33" s="607"/>
     </row>
     <row r="34" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H34" s="3" t="s">
@@ -42429,16 +42429,16 @@
       <c r="G4" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="617" t="s">
+      <c r="H4" s="611" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="618"/>
-      <c r="J4" s="619"/>
-      <c r="K4" s="620" t="s">
+      <c r="I4" s="612"/>
+      <c r="J4" s="613"/>
+      <c r="K4" s="605" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="621"/>
-      <c r="M4" s="622"/>
+      <c r="L4" s="606"/>
+      <c r="M4" s="607"/>
       <c r="N4" s="60"/>
       <c r="O4" s="60" t="s">
         <v>87</v>
@@ -42464,16 +42464,16 @@
       <c r="G5" s="375" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="626" t="s">
+      <c r="H5" s="623" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="627"/>
-      <c r="J5" s="628"/>
-      <c r="K5" s="626" t="s">
+      <c r="I5" s="624"/>
+      <c r="J5" s="625"/>
+      <c r="K5" s="623" t="s">
         <v>292</v>
       </c>
-      <c r="L5" s="627"/>
-      <c r="M5" s="628"/>
+      <c r="L5" s="624"/>
+      <c r="M5" s="625"/>
       <c r="N5" s="376" t="s">
         <v>92</v>
       </c>
@@ -42490,23 +42490,23 @@
         <v>210</v>
       </c>
       <c r="AA5" s="201"/>
-      <c r="AB5" s="623" t="s">
+      <c r="AB5" s="626" t="s">
         <v>541</v>
       </c>
-      <c r="AC5" s="623"/>
+      <c r="AC5" s="626"/>
       <c r="AD5" s="378"/>
-      <c r="AE5" s="624" t="s">
+      <c r="AE5" s="627" t="s">
         <v>65</v>
       </c>
-      <c r="AF5" s="624"/>
-      <c r="AG5" s="624" t="s">
+      <c r="AF5" s="627"/>
+      <c r="AG5" s="627" t="s">
         <v>542</v>
       </c>
-      <c r="AH5" s="624"/>
-      <c r="AI5" s="625" t="s">
+      <c r="AH5" s="627"/>
+      <c r="AI5" s="628" t="s">
         <v>543</v>
       </c>
-      <c r="AJ5" s="625"/>
+      <c r="AJ5" s="628"/>
     </row>
     <row r="6" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C6" s="422" t="str">
@@ -43244,12 +43244,12 @@
       <c r="K27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L27" s="620" t="s">
+      <c r="L27" s="605" t="s">
         <v>86</v>
       </c>
-      <c r="M27" s="621"/>
-      <c r="N27" s="621"/>
-      <c r="O27" s="622"/>
+      <c r="M27" s="606"/>
+      <c r="N27" s="606"/>
+      <c r="O27" s="607"/>
       <c r="T27" s="203"/>
       <c r="U27" s="203"/>
     </row>
@@ -43257,12 +43257,12 @@
       <c r="J28" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L28" s="611" t="s">
+      <c r="L28" s="608" t="s">
         <v>91</v>
       </c>
-      <c r="M28" s="612"/>
-      <c r="N28" s="612"/>
-      <c r="O28" s="613"/>
+      <c r="M28" s="609"/>
+      <c r="N28" s="609"/>
+      <c r="O28" s="610"/>
       <c r="T28" s="203"/>
       <c r="U28" s="203"/>
     </row>
@@ -44652,16 +44652,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="L27:O27"/>
     <mergeCell ref="L28:O28"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="K5:M5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="L27:O27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S7" r:id="rId1" xr:uid="{B1EDD63D-40A5-4174-9D28-8666BD314B83}"/>
@@ -45092,103 +45092,103 @@
       <c r="C4" s="273" t="s">
         <v>301</v>
       </c>
-      <c r="D4" s="630" t="s">
+      <c r="D4" s="629" t="s">
         <v>302</v>
       </c>
-      <c r="E4" s="629"/>
-      <c r="F4" s="629"/>
-      <c r="G4" s="629"/>
+      <c r="E4" s="630"/>
+      <c r="F4" s="630"/>
+      <c r="G4" s="630"/>
       <c r="H4" s="631"/>
-      <c r="I4" s="629" t="s">
+      <c r="I4" s="630" t="s">
         <v>303</v>
       </c>
-      <c r="J4" s="629"/>
-      <c r="K4" s="629"/>
-      <c r="L4" s="629"/>
+      <c r="J4" s="630"/>
+      <c r="K4" s="630"/>
+      <c r="L4" s="630"/>
       <c r="M4" s="631"/>
-      <c r="N4" s="629" t="s">
+      <c r="N4" s="630" t="s">
         <v>304</v>
       </c>
-      <c r="O4" s="629"/>
-      <c r="P4" s="629"/>
-      <c r="Q4" s="629"/>
+      <c r="O4" s="630"/>
+      <c r="P4" s="630"/>
+      <c r="Q4" s="630"/>
       <c r="R4" s="631"/>
-      <c r="S4" s="629" t="s">
+      <c r="S4" s="630" t="s">
         <v>305</v>
       </c>
-      <c r="T4" s="629"/>
-      <c r="U4" s="629"/>
-      <c r="V4" s="629"/>
+      <c r="T4" s="630"/>
+      <c r="U4" s="630"/>
+      <c r="V4" s="630"/>
       <c r="W4" s="631"/>
-      <c r="X4" s="629" t="s">
+      <c r="X4" s="630" t="s">
         <v>306</v>
       </c>
-      <c r="Y4" s="629"/>
-      <c r="Z4" s="629"/>
-      <c r="AA4" s="629"/>
+      <c r="Y4" s="630"/>
+      <c r="Z4" s="630"/>
+      <c r="AA4" s="630"/>
       <c r="AB4" s="631"/>
-      <c r="AC4" s="629" t="s">
+      <c r="AC4" s="630" t="s">
         <v>307</v>
       </c>
-      <c r="AD4" s="629"/>
-      <c r="AE4" s="629"/>
-      <c r="AF4" s="629"/>
+      <c r="AD4" s="630"/>
+      <c r="AE4" s="630"/>
+      <c r="AF4" s="630"/>
       <c r="AG4" s="631"/>
-      <c r="AH4" s="629" t="s">
+      <c r="AH4" s="630" t="s">
         <v>308</v>
       </c>
-      <c r="AI4" s="629"/>
-      <c r="AJ4" s="629"/>
-      <c r="AK4" s="629"/>
+      <c r="AI4" s="630"/>
+      <c r="AJ4" s="630"/>
+      <c r="AK4" s="630"/>
       <c r="AL4" s="631"/>
-      <c r="AM4" s="629" t="s">
+      <c r="AM4" s="630" t="s">
         <v>309</v>
       </c>
-      <c r="AN4" s="629"/>
-      <c r="AO4" s="629"/>
-      <c r="AP4" s="629"/>
+      <c r="AN4" s="630"/>
+      <c r="AO4" s="630"/>
+      <c r="AP4" s="630"/>
       <c r="AQ4" s="631"/>
-      <c r="AR4" s="629" t="s">
+      <c r="AR4" s="630" t="s">
         <v>310</v>
       </c>
-      <c r="AS4" s="629"/>
-      <c r="AT4" s="629"/>
-      <c r="AU4" s="629"/>
+      <c r="AS4" s="630"/>
+      <c r="AT4" s="630"/>
+      <c r="AU4" s="630"/>
       <c r="AV4" s="631"/>
-      <c r="AW4" s="629" t="s">
+      <c r="AW4" s="630" t="s">
         <v>311</v>
       </c>
-      <c r="AX4" s="629"/>
-      <c r="AY4" s="629"/>
-      <c r="AZ4" s="629"/>
-      <c r="BA4" s="629"/>
-      <c r="BB4" s="630" t="s">
+      <c r="AX4" s="630"/>
+      <c r="AY4" s="630"/>
+      <c r="AZ4" s="630"/>
+      <c r="BA4" s="630"/>
+      <c r="BB4" s="629" t="s">
         <v>312</v>
       </c>
-      <c r="BC4" s="629"/>
-      <c r="BD4" s="629"/>
-      <c r="BE4" s="629"/>
+      <c r="BC4" s="630"/>
+      <c r="BD4" s="630"/>
+      <c r="BE4" s="630"/>
       <c r="BF4" s="631"/>
-      <c r="BG4" s="629" t="s">
+      <c r="BG4" s="630" t="s">
         <v>313</v>
       </c>
-      <c r="BH4" s="629"/>
-      <c r="BI4" s="629"/>
-      <c r="BJ4" s="629"/>
-      <c r="BK4" s="629"/>
-      <c r="BL4" s="630" t="s">
+      <c r="BH4" s="630"/>
+      <c r="BI4" s="630"/>
+      <c r="BJ4" s="630"/>
+      <c r="BK4" s="630"/>
+      <c r="BL4" s="629" t="s">
         <v>314</v>
       </c>
-      <c r="BM4" s="629"/>
-      <c r="BN4" s="629"/>
-      <c r="BO4" s="629"/>
-      <c r="BP4" s="629"/>
-      <c r="BQ4" s="630" t="s">
+      <c r="BM4" s="630"/>
+      <c r="BN4" s="630"/>
+      <c r="BO4" s="630"/>
+      <c r="BP4" s="630"/>
+      <c r="BQ4" s="629" t="s">
         <v>315</v>
       </c>
-      <c r="BR4" s="629"/>
-      <c r="BS4" s="629"/>
-      <c r="BT4" s="629"/>
+      <c r="BR4" s="630"/>
+      <c r="BS4" s="630"/>
+      <c r="BT4" s="630"/>
       <c r="BU4" s="631"/>
       <c r="BV4" s="274" t="s">
         <v>316</v>
@@ -58782,11 +58782,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="BL4:BP4"/>
-    <mergeCell ref="BQ4:BU4"/>
-    <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="CB4:CF4"/>
-    <mergeCell ref="CG4:CK4"/>
     <mergeCell ref="BG4:BK4"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
@@ -58799,6 +58794,11 @@
     <mergeCell ref="AR4:AV4"/>
     <mergeCell ref="AW4:BA4"/>
     <mergeCell ref="BB4:BF4"/>
+    <mergeCell ref="BL4:BP4"/>
+    <mergeCell ref="BQ4:BU4"/>
+    <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="CB4:CF4"/>
+    <mergeCell ref="CG4:CK4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -58821,23 +58821,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="638" t="s">
+      <c r="A1" s="636" t="s">
         <v>585</v>
       </c>
-      <c r="B1" s="640" t="s">
+      <c r="B1" s="638" t="s">
         <v>586</v>
       </c>
-      <c r="C1" s="641"/>
-      <c r="D1" s="641"/>
-      <c r="E1" s="641"/>
-      <c r="F1" s="642"/>
-      <c r="G1" s="640" t="s">
+      <c r="C1" s="639"/>
+      <c r="D1" s="639"/>
+      <c r="E1" s="639"/>
+      <c r="F1" s="640"/>
+      <c r="G1" s="638" t="s">
         <v>587</v>
       </c>
-      <c r="H1" s="641"/>
-      <c r="I1" s="641"/>
-      <c r="J1" s="641"/>
-      <c r="K1" s="642"/>
+      <c r="H1" s="639"/>
+      <c r="I1" s="639"/>
+      <c r="J1" s="639"/>
+      <c r="K1" s="640"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -58847,7 +58847,7 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="639"/>
+      <c r="A2" s="637"/>
       <c r="B2" s="443" t="s">
         <v>254</v>
       </c>
@@ -60340,11 +60340,11 @@
       <c r="Y48" t="s">
         <v>636</v>
       </c>
-      <c r="Z48" s="636" t="s">
+      <c r="Z48" s="641" t="s">
         <v>574</v>
       </c>
-      <c r="AA48" s="637"/>
-      <c r="AB48" s="637"/>
+      <c r="AA48" s="642"/>
+      <c r="AB48" s="642"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
@@ -60561,11 +60561,11 @@
       <c r="Y53" t="s">
         <v>638</v>
       </c>
-      <c r="Z53" s="636" t="s">
+      <c r="Z53" s="641" t="s">
         <v>573</v>
       </c>
-      <c r="AA53" s="637"/>
-      <c r="AB53" s="637"/>
+      <c r="AA53" s="642"/>
+      <c r="AB53" s="642"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
@@ -60767,11 +60767,11 @@
       <c r="Y59" t="s">
         <v>639</v>
       </c>
-      <c r="Z59" s="636" t="s">
+      <c r="Z59" s="641" t="s">
         <v>640</v>
       </c>
-      <c r="AA59" s="637"/>
-      <c r="AB59" s="637"/>
+      <c r="AA59" s="642"/>
+      <c r="AB59" s="642"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="463" t="str">
@@ -61608,17 +61608,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="Z48:AB48"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="Z48:AB48"/>
   </mergeCells>
   <phoneticPr fontId="54" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64930D97-B1A4-474A-8E20-F918DE4024BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99B5D2F-D504-4B23-94C4-876AFB039FCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{2CC7CA6E-3559-4BC7-B5C1-253B80EF5435}"/>
   </bookViews>
@@ -13959,42 +13959,6 @@
     <xf numFmtId="0" fontId="59" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="37" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -14013,13 +13977,40 @@
     <xf numFmtId="0" fontId="4" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -14031,10 +14022,19 @@
     <xf numFmtId="0" fontId="53" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14052,6 +14052,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -14066,12 +14072,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -20990,8 +20990,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:AS251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H117" sqref="H117"/>
+    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K194" sqref="K194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21166,34 +21166,34 @@
       <c r="G4" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="611" t="s">
+      <c r="H4" s="617" t="s">
         <v>258</v>
       </c>
-      <c r="I4" s="612"/>
-      <c r="J4" s="612"/>
-      <c r="K4" s="613"/>
-      <c r="L4" s="611" t="s">
+      <c r="I4" s="618"/>
+      <c r="J4" s="618"/>
+      <c r="K4" s="619"/>
+      <c r="L4" s="617" t="s">
         <v>83</v>
       </c>
-      <c r="M4" s="612"/>
-      <c r="N4" s="612"/>
-      <c r="O4" s="613"/>
-      <c r="P4" s="611" t="s">
+      <c r="M4" s="618"/>
+      <c r="N4" s="618"/>
+      <c r="O4" s="619"/>
+      <c r="P4" s="617" t="s">
         <v>84</v>
       </c>
-      <c r="Q4" s="612"/>
-      <c r="R4" s="612"/>
-      <c r="S4" s="613"/>
-      <c r="T4" s="611" t="s">
+      <c r="Q4" s="618"/>
+      <c r="R4" s="618"/>
+      <c r="S4" s="619"/>
+      <c r="T4" s="617" t="s">
         <v>85</v>
       </c>
-      <c r="U4" s="613"/>
-      <c r="V4" s="605" t="s">
+      <c r="U4" s="619"/>
+      <c r="V4" s="620" t="s">
         <v>86</v>
       </c>
-      <c r="W4" s="606"/>
-      <c r="X4" s="606"/>
-      <c r="Y4" s="607"/>
+      <c r="W4" s="621"/>
+      <c r="X4" s="621"/>
+      <c r="Y4" s="622"/>
       <c r="Z4" s="60"/>
       <c r="AA4" s="60"/>
       <c r="AB4" s="68" t="s">
@@ -21296,34 +21296,34 @@
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
       <c r="G6" s="39"/>
-      <c r="H6" s="608" t="s">
+      <c r="H6" s="611" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="609"/>
-      <c r="J6" s="609"/>
-      <c r="K6" s="610"/>
-      <c r="L6" s="609" t="s">
+      <c r="I6" s="612"/>
+      <c r="J6" s="612"/>
+      <c r="K6" s="613"/>
+      <c r="L6" s="612" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="609"/>
-      <c r="N6" s="609"/>
-      <c r="O6" s="610"/>
-      <c r="P6" s="608" t="s">
+      <c r="M6" s="612"/>
+      <c r="N6" s="612"/>
+      <c r="O6" s="613"/>
+      <c r="P6" s="611" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="609"/>
-      <c r="R6" s="609"/>
-      <c r="S6" s="610"/>
-      <c r="T6" s="608" t="s">
+      <c r="Q6" s="612"/>
+      <c r="R6" s="612"/>
+      <c r="S6" s="613"/>
+      <c r="T6" s="611" t="s">
         <v>68</v>
       </c>
-      <c r="U6" s="610"/>
-      <c r="V6" s="608" t="s">
+      <c r="U6" s="613"/>
+      <c r="V6" s="611" t="s">
         <v>503</v>
       </c>
-      <c r="W6" s="609"/>
-      <c r="X6" s="609"/>
-      <c r="Y6" s="610"/>
+      <c r="W6" s="612"/>
+      <c r="X6" s="612"/>
+      <c r="Y6" s="613"/>
       <c r="Z6" s="520" t="s">
         <v>515</v>
       </c>
@@ -25564,20 +25564,20 @@
         <v>709</v>
       </c>
       <c r="H48" s="373">
-        <f>1*$AD$48+JRC_Data!AD18*(1.2-$AD$48)</f>
-        <v>3.1549999999999998</v>
+        <f>1*$AD$48+JRC_Data!AD18*(1.3-$AD$48)</f>
+        <v>3.4850000000000003</v>
       </c>
       <c r="I48" s="373">
-        <f>1*$AD$48+JRC_Data!AE18*(1.2-$AD$48)</f>
-        <v>3.4950000000000001</v>
+        <f>1*$AD$48+JRC_Data!AE18*(1.3-$AD$48)</f>
+        <v>3.8650000000000007</v>
       </c>
       <c r="J48" s="373">
-        <f>1*$AD$48+JRC_Data!AF18*(1.2-$AD$48)</f>
-        <v>3.75</v>
+        <f>1*$AD$48+JRC_Data!AF18*(1.3-$AD$48)</f>
+        <v>4.1500000000000004</v>
       </c>
       <c r="K48" s="373">
-        <f>1*$AD$48+JRC_Data!AG18*(1.2-$AD$48)</f>
-        <v>3.75</v>
+        <f>1*$AD$48+JRC_Data!AG18*(1.3-$AD$48)</f>
+        <v>4.1500000000000004</v>
       </c>
       <c r="L48" s="49"/>
       <c r="M48" s="50"/>
@@ -25585,19 +25585,19 @@
       <c r="O48" s="51"/>
       <c r="P48" s="246">
         <f>H48*0.7</f>
-        <v>2.2084999999999999</v>
+        <v>2.4395000000000002</v>
       </c>
       <c r="Q48" s="26">
         <f>I48*0.7</f>
-        <v>2.4464999999999999</v>
+        <v>2.7055000000000002</v>
       </c>
       <c r="R48" s="26">
         <f t="shared" ref="R48:S48" si="51">J48*0.7</f>
-        <v>2.625</v>
+        <v>2.9050000000000002</v>
       </c>
       <c r="S48" s="59">
         <f t="shared" si="51"/>
-        <v>2.625</v>
+        <v>2.9050000000000002</v>
       </c>
       <c r="T48" s="250">
         <v>20</v>
@@ -26518,34 +26518,34 @@
       <c r="G62" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H62" s="611" t="s">
+      <c r="H62" s="617" t="s">
         <v>82</v>
       </c>
-      <c r="I62" s="612"/>
-      <c r="J62" s="612"/>
-      <c r="K62" s="613"/>
-      <c r="L62" s="611" t="s">
+      <c r="I62" s="618"/>
+      <c r="J62" s="618"/>
+      <c r="K62" s="619"/>
+      <c r="L62" s="617" t="s">
         <v>83</v>
       </c>
-      <c r="M62" s="612"/>
-      <c r="N62" s="612"/>
-      <c r="O62" s="613"/>
-      <c r="P62" s="611" t="s">
+      <c r="M62" s="618"/>
+      <c r="N62" s="618"/>
+      <c r="O62" s="619"/>
+      <c r="P62" s="617" t="s">
         <v>84</v>
       </c>
-      <c r="Q62" s="612"/>
-      <c r="R62" s="612"/>
-      <c r="S62" s="613"/>
-      <c r="T62" s="611" t="s">
+      <c r="Q62" s="618"/>
+      <c r="R62" s="618"/>
+      <c r="S62" s="619"/>
+      <c r="T62" s="617" t="s">
         <v>85</v>
       </c>
-      <c r="U62" s="613"/>
-      <c r="V62" s="605" t="s">
+      <c r="U62" s="619"/>
+      <c r="V62" s="620" t="s">
         <v>86</v>
       </c>
-      <c r="W62" s="606"/>
-      <c r="X62" s="606"/>
-      <c r="Y62" s="607"/>
+      <c r="W62" s="621"/>
+      <c r="X62" s="621"/>
+      <c r="Y62" s="622"/>
       <c r="Z62" s="60"/>
       <c r="AA62" s="60"/>
       <c r="AB62" s="68" t="s">
@@ -26648,24 +26648,24 @@
       <c r="E64" s="38"/>
       <c r="F64" s="38"/>
       <c r="G64" s="39"/>
-      <c r="H64" s="608" t="s">
+      <c r="H64" s="611" t="s">
         <v>34</v>
       </c>
-      <c r="I64" s="609"/>
-      <c r="J64" s="609"/>
-      <c r="K64" s="610"/>
-      <c r="L64" s="609" t="s">
+      <c r="I64" s="612"/>
+      <c r="J64" s="612"/>
+      <c r="K64" s="613"/>
+      <c r="L64" s="612" t="s">
         <v>34</v>
       </c>
-      <c r="M64" s="609"/>
-      <c r="N64" s="609"/>
-      <c r="O64" s="610"/>
-      <c r="P64" s="608" t="s">
+      <c r="M64" s="612"/>
+      <c r="N64" s="612"/>
+      <c r="O64" s="613"/>
+      <c r="P64" s="611" t="s">
         <v>34</v>
       </c>
-      <c r="Q64" s="609"/>
-      <c r="R64" s="609"/>
-      <c r="S64" s="610"/>
+      <c r="Q64" s="612"/>
+      <c r="R64" s="612"/>
+      <c r="S64" s="613"/>
       <c r="T64" s="614" t="s">
         <v>68</v>
       </c>
@@ -32426,20 +32426,20 @@
         <v>722</v>
       </c>
       <c r="H120" s="373">
-        <f>1*$AD$48+JRC_Data!AD18*(1.2-$AD$48)</f>
-        <v>3.1549999999999998</v>
+        <f>1*$AD$48+JRC_Data!AD18*(1.3-$AD$48)</f>
+        <v>3.4850000000000003</v>
       </c>
       <c r="I120" s="373">
-        <f>1*$AD$48+JRC_Data!AE18*(1.2-$AD$48)</f>
-        <v>3.4950000000000001</v>
+        <f>1*$AD$48+JRC_Data!AE18*(1.3-$AD$48)</f>
+        <v>3.8650000000000007</v>
       </c>
       <c r="J120" s="373">
-        <f>1*$AD$48+JRC_Data!AF18*(1.2-$AD$48)</f>
-        <v>3.75</v>
+        <f>1*$AD$48+JRC_Data!AF18*(1.3-$AD$48)</f>
+        <v>4.1500000000000004</v>
       </c>
       <c r="K120" s="373">
-        <f>1*$AD$48+JRC_Data!AG18*(1.2-$AD$48)</f>
-        <v>3.75</v>
+        <f>1*$AD$48+JRC_Data!AG18*(1.3-$AD$48)</f>
+        <v>4.1500000000000004</v>
       </c>
       <c r="L120" s="49"/>
       <c r="M120" s="50"/>
@@ -32447,19 +32447,19 @@
       <c r="O120" s="51"/>
       <c r="P120" s="246">
         <f>H120*0.7</f>
-        <v>2.2084999999999999</v>
+        <v>2.4395000000000002</v>
       </c>
       <c r="Q120" s="26">
         <f t="shared" ref="Q120" si="95">I120*0.7</f>
-        <v>2.4464999999999999</v>
+        <v>2.7055000000000002</v>
       </c>
       <c r="R120" s="26">
         <f t="shared" ref="R120" si="96">J120*0.7</f>
-        <v>2.625</v>
+        <v>2.9050000000000002</v>
       </c>
       <c r="S120" s="59">
         <f t="shared" ref="S120" si="97">K120*0.7</f>
-        <v>2.625</v>
+        <v>2.9050000000000002</v>
       </c>
       <c r="T120" s="3">
         <v>20</v>
@@ -33290,34 +33290,34 @@
       <c r="G135" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H135" s="611" t="s">
+      <c r="H135" s="617" t="s">
         <v>82</v>
       </c>
-      <c r="I135" s="612"/>
-      <c r="J135" s="612"/>
-      <c r="K135" s="613"/>
-      <c r="L135" s="611" t="s">
+      <c r="I135" s="618"/>
+      <c r="J135" s="618"/>
+      <c r="K135" s="619"/>
+      <c r="L135" s="617" t="s">
         <v>83</v>
       </c>
-      <c r="M135" s="612"/>
-      <c r="N135" s="612"/>
-      <c r="O135" s="613"/>
-      <c r="P135" s="611" t="s">
+      <c r="M135" s="618"/>
+      <c r="N135" s="618"/>
+      <c r="O135" s="619"/>
+      <c r="P135" s="617" t="s">
         <v>84</v>
       </c>
-      <c r="Q135" s="612"/>
-      <c r="R135" s="612"/>
-      <c r="S135" s="613"/>
-      <c r="T135" s="611" t="s">
+      <c r="Q135" s="618"/>
+      <c r="R135" s="618"/>
+      <c r="S135" s="619"/>
+      <c r="T135" s="617" t="s">
         <v>85</v>
       </c>
-      <c r="U135" s="613"/>
-      <c r="V135" s="605" t="s">
+      <c r="U135" s="619"/>
+      <c r="V135" s="620" t="s">
         <v>86</v>
       </c>
-      <c r="W135" s="606"/>
-      <c r="X135" s="606"/>
-      <c r="Y135" s="607"/>
+      <c r="W135" s="621"/>
+      <c r="X135" s="621"/>
+      <c r="Y135" s="622"/>
       <c r="Z135" s="60"/>
       <c r="AA135" s="60"/>
       <c r="AB135" s="68" t="s">
@@ -33432,24 +33432,24 @@
       <c r="E137" s="38"/>
       <c r="F137" s="38"/>
       <c r="G137" s="39"/>
-      <c r="H137" s="608" t="s">
+      <c r="H137" s="611" t="s">
         <v>34</v>
       </c>
-      <c r="I137" s="609"/>
-      <c r="J137" s="609"/>
-      <c r="K137" s="610"/>
-      <c r="L137" s="609" t="s">
+      <c r="I137" s="612"/>
+      <c r="J137" s="612"/>
+      <c r="K137" s="613"/>
+      <c r="L137" s="612" t="s">
         <v>34</v>
       </c>
-      <c r="M137" s="609"/>
-      <c r="N137" s="609"/>
-      <c r="O137" s="610"/>
-      <c r="P137" s="608" t="s">
+      <c r="M137" s="612"/>
+      <c r="N137" s="612"/>
+      <c r="O137" s="613"/>
+      <c r="P137" s="611" t="s">
         <v>34</v>
       </c>
-      <c r="Q137" s="609"/>
-      <c r="R137" s="609"/>
-      <c r="S137" s="610"/>
+      <c r="Q137" s="612"/>
+      <c r="R137" s="612"/>
+      <c r="S137" s="613"/>
       <c r="T137" s="614" t="s">
         <v>68</v>
       </c>
@@ -39049,20 +39049,20 @@
         <v>725</v>
       </c>
       <c r="H193" s="373">
-        <f>1*$AD$48+JRC_Data!AD18*(1.2-$AD$48)</f>
-        <v>3.1549999999999998</v>
+        <f>1*$AD$48+JRC_Data!AD18*(1.3-$AD$48)</f>
+        <v>3.4850000000000003</v>
       </c>
       <c r="I193" s="373">
-        <f>1*$AD$48+JRC_Data!AE18*(1.2-$AD$48)</f>
-        <v>3.4950000000000001</v>
+        <f>1*$AD$48+JRC_Data!AE18*(1.3-$AD$48)</f>
+        <v>3.8650000000000007</v>
       </c>
       <c r="J193" s="373">
-        <f>1*$AD$48+JRC_Data!AF18*(1.2-$AD$48)</f>
-        <v>3.75</v>
+        <f>1*$AD$48+JRC_Data!AF18*(1.3-$AD$48)</f>
+        <v>4.1500000000000004</v>
       </c>
       <c r="K193" s="373">
-        <f>1*$AD$48+JRC_Data!AG18*(1.2-$AD$48)</f>
-        <v>3.75</v>
+        <f>1*$AD$48+JRC_Data!AG18*(1.3-$AD$48)</f>
+        <v>4.1500000000000004</v>
       </c>
       <c r="L193" s="49"/>
       <c r="M193" s="50"/>
@@ -39070,19 +39070,19 @@
       <c r="O193" s="51"/>
       <c r="P193" s="246">
         <f>H193*0.7</f>
-        <v>2.2084999999999999</v>
+        <v>2.4395000000000002</v>
       </c>
       <c r="Q193" s="26">
         <f t="shared" ref="Q193" si="137">I193*0.7</f>
-        <v>2.4464999999999999</v>
+        <v>2.7055000000000002</v>
       </c>
       <c r="R193" s="26">
         <f t="shared" ref="R193" si="138">J193*0.7</f>
-        <v>2.625</v>
+        <v>2.9050000000000002</v>
       </c>
       <c r="S193" s="59">
         <f t="shared" ref="S193" si="139">K193*0.7</f>
-        <v>2.625</v>
+        <v>2.9050000000000002</v>
       </c>
       <c r="T193" s="3">
         <v>20</v>
@@ -39780,12 +39780,12 @@
         <f>V221-(V223-V221)</f>
         <v>2250</v>
       </c>
-      <c r="Z218" s="617" t="s">
+      <c r="Z218" s="605" t="s">
         <v>809</v>
       </c>
-      <c r="AA218" s="618"/>
-      <c r="AB218" s="618"/>
-      <c r="AC218" s="619"/>
+      <c r="AA218" s="606"/>
+      <c r="AB218" s="606"/>
+      <c r="AC218" s="607"/>
       <c r="AD218" s="124" t="s">
         <v>810</v>
       </c>
@@ -39807,14 +39807,14 @@
       </c>
     </row>
     <row r="219" spans="10:36" x14ac:dyDescent="0.2">
-      <c r="L219" s="621" t="s">
+      <c r="L219" s="609" t="s">
         <v>504</v>
       </c>
-      <c r="M219" s="621"/>
-      <c r="N219" s="621"/>
-      <c r="O219" s="621"/>
-      <c r="P219" s="621"/>
-      <c r="Q219" s="621"/>
+      <c r="M219" s="609"/>
+      <c r="N219" s="609"/>
+      <c r="O219" s="609"/>
+      <c r="P219" s="609"/>
+      <c r="Q219" s="609"/>
       <c r="T219" s="3">
         <v>15</v>
       </c>
@@ -39842,10 +39842,10 @@
       <c r="AD219" s="124" t="s">
         <v>811</v>
       </c>
-      <c r="AF219" s="620" t="s">
+      <c r="AF219" s="608" t="s">
         <v>812</v>
       </c>
-      <c r="AG219" s="620"/>
+      <c r="AG219" s="608"/>
     </row>
     <row r="220" spans="10:36" x14ac:dyDescent="0.2">
       <c r="L220" s="124" t="s">
@@ -40229,12 +40229,12 @@
       <c r="I230" s="4"/>
       <c r="J230" s="4"/>
       <c r="K230" s="4"/>
-      <c r="AB230" s="622" t="s">
+      <c r="AB230" s="610" t="s">
         <v>818</v>
       </c>
-      <c r="AC230" s="622"/>
-      <c r="AD230" s="622"/>
-      <c r="AE230" s="622"/>
+      <c r="AC230" s="610"/>
+      <c r="AD230" s="610"/>
+      <c r="AE230" s="610"/>
       <c r="AG230" s="602" t="s">
         <v>815</v>
       </c>
@@ -40965,28 +40965,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="AJ230:AL230"/>
-    <mergeCell ref="Z218:AC218"/>
-    <mergeCell ref="AF219:AG219"/>
-    <mergeCell ref="L219:Q219"/>
-    <mergeCell ref="AB230:AE230"/>
-    <mergeCell ref="AG230:AI230"/>
-    <mergeCell ref="H137:K137"/>
-    <mergeCell ref="L137:O137"/>
-    <mergeCell ref="P137:S137"/>
-    <mergeCell ref="T137:U137"/>
-    <mergeCell ref="V137:Y137"/>
-    <mergeCell ref="H135:K135"/>
-    <mergeCell ref="L135:O135"/>
-    <mergeCell ref="P135:S135"/>
-    <mergeCell ref="T135:U135"/>
-    <mergeCell ref="V135:Y135"/>
-    <mergeCell ref="V62:Y62"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:O64"/>
-    <mergeCell ref="P64:S64"/>
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="V64:Y64"/>
     <mergeCell ref="AG240:AI240"/>
     <mergeCell ref="AJ240:AL240"/>
     <mergeCell ref="V4:Y4"/>
@@ -41003,6 +40981,28 @@
     <mergeCell ref="L62:O62"/>
     <mergeCell ref="P62:S62"/>
     <mergeCell ref="T62:U62"/>
+    <mergeCell ref="V62:Y62"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:O64"/>
+    <mergeCell ref="P64:S64"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="V64:Y64"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:O135"/>
+    <mergeCell ref="P135:S135"/>
+    <mergeCell ref="T135:U135"/>
+    <mergeCell ref="V135:Y135"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:O137"/>
+    <mergeCell ref="P137:S137"/>
+    <mergeCell ref="T137:U137"/>
+    <mergeCell ref="V137:Y137"/>
+    <mergeCell ref="AJ230:AL230"/>
+    <mergeCell ref="Z218:AC218"/>
+    <mergeCell ref="AF219:AG219"/>
+    <mergeCell ref="L219:Q219"/>
+    <mergeCell ref="AB230:AE230"/>
+    <mergeCell ref="AG230:AI230"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -41146,12 +41146,12 @@
       <c r="I5" s="121"/>
       <c r="J5" s="121"/>
       <c r="K5" s="121"/>
-      <c r="L5" s="605" t="s">
+      <c r="L5" s="620" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="606"/>
-      <c r="N5" s="606"/>
-      <c r="O5" s="607"/>
+      <c r="M5" s="621"/>
+      <c r="N5" s="621"/>
+      <c r="O5" s="622"/>
       <c r="P5" s="60"/>
       <c r="Q5" s="60" t="s">
         <v>87</v>
@@ -42073,12 +42073,12 @@
       <c r="K33" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L33" s="605" t="s">
+      <c r="L33" s="620" t="s">
         <v>86</v>
       </c>
-      <c r="M33" s="606"/>
-      <c r="N33" s="606"/>
-      <c r="O33" s="607"/>
+      <c r="M33" s="621"/>
+      <c r="N33" s="621"/>
+      <c r="O33" s="622"/>
     </row>
     <row r="34" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H34" s="3" t="s">
@@ -42429,16 +42429,16 @@
       <c r="G4" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="611" t="s">
+      <c r="H4" s="617" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="612"/>
-      <c r="J4" s="613"/>
-      <c r="K4" s="605" t="s">
+      <c r="I4" s="618"/>
+      <c r="J4" s="619"/>
+      <c r="K4" s="620" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="606"/>
-      <c r="M4" s="607"/>
+      <c r="L4" s="621"/>
+      <c r="M4" s="622"/>
       <c r="N4" s="60"/>
       <c r="O4" s="60" t="s">
         <v>87</v>
@@ -42464,16 +42464,16 @@
       <c r="G5" s="375" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="623" t="s">
+      <c r="H5" s="626" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="624"/>
-      <c r="J5" s="625"/>
-      <c r="K5" s="623" t="s">
+      <c r="I5" s="627"/>
+      <c r="J5" s="628"/>
+      <c r="K5" s="626" t="s">
         <v>292</v>
       </c>
-      <c r="L5" s="624"/>
-      <c r="M5" s="625"/>
+      <c r="L5" s="627"/>
+      <c r="M5" s="628"/>
       <c r="N5" s="376" t="s">
         <v>92</v>
       </c>
@@ -42490,23 +42490,23 @@
         <v>210</v>
       </c>
       <c r="AA5" s="201"/>
-      <c r="AB5" s="626" t="s">
+      <c r="AB5" s="623" t="s">
         <v>541</v>
       </c>
-      <c r="AC5" s="626"/>
+      <c r="AC5" s="623"/>
       <c r="AD5" s="378"/>
-      <c r="AE5" s="627" t="s">
+      <c r="AE5" s="624" t="s">
         <v>65</v>
       </c>
-      <c r="AF5" s="627"/>
-      <c r="AG5" s="627" t="s">
+      <c r="AF5" s="624"/>
+      <c r="AG5" s="624" t="s">
         <v>542</v>
       </c>
-      <c r="AH5" s="627"/>
-      <c r="AI5" s="628" t="s">
+      <c r="AH5" s="624"/>
+      <c r="AI5" s="625" t="s">
         <v>543</v>
       </c>
-      <c r="AJ5" s="628"/>
+      <c r="AJ5" s="625"/>
     </row>
     <row r="6" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C6" s="422" t="str">
@@ -43244,12 +43244,12 @@
       <c r="K27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L27" s="605" t="s">
+      <c r="L27" s="620" t="s">
         <v>86</v>
       </c>
-      <c r="M27" s="606"/>
-      <c r="N27" s="606"/>
-      <c r="O27" s="607"/>
+      <c r="M27" s="621"/>
+      <c r="N27" s="621"/>
+      <c r="O27" s="622"/>
       <c r="T27" s="203"/>
       <c r="U27" s="203"/>
     </row>
@@ -43257,12 +43257,12 @@
       <c r="J28" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L28" s="608" t="s">
+      <c r="L28" s="611" t="s">
         <v>91</v>
       </c>
-      <c r="M28" s="609"/>
-      <c r="N28" s="609"/>
-      <c r="O28" s="610"/>
+      <c r="M28" s="612"/>
+      <c r="N28" s="612"/>
+      <c r="O28" s="613"/>
       <c r="T28" s="203"/>
       <c r="U28" s="203"/>
     </row>
@@ -44652,16 +44652,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
     <mergeCell ref="AB5:AC5"/>
     <mergeCell ref="AE5:AF5"/>
     <mergeCell ref="AG5:AH5"/>
     <mergeCell ref="AI5:AJ5"/>
     <mergeCell ref="L27:O27"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S7" r:id="rId1" xr:uid="{B1EDD63D-40A5-4174-9D28-8666BD314B83}"/>
@@ -45092,103 +45092,103 @@
       <c r="C4" s="273" t="s">
         <v>301</v>
       </c>
-      <c r="D4" s="629" t="s">
+      <c r="D4" s="630" t="s">
         <v>302</v>
       </c>
-      <c r="E4" s="630"/>
-      <c r="F4" s="630"/>
-      <c r="G4" s="630"/>
+      <c r="E4" s="629"/>
+      <c r="F4" s="629"/>
+      <c r="G4" s="629"/>
       <c r="H4" s="631"/>
-      <c r="I4" s="630" t="s">
+      <c r="I4" s="629" t="s">
         <v>303</v>
       </c>
-      <c r="J4" s="630"/>
-      <c r="K4" s="630"/>
-      <c r="L4" s="630"/>
+      <c r="J4" s="629"/>
+      <c r="K4" s="629"/>
+      <c r="L4" s="629"/>
       <c r="M4" s="631"/>
-      <c r="N4" s="630" t="s">
+      <c r="N4" s="629" t="s">
         <v>304</v>
       </c>
-      <c r="O4" s="630"/>
-      <c r="P4" s="630"/>
-      <c r="Q4" s="630"/>
+      <c r="O4" s="629"/>
+      <c r="P4" s="629"/>
+      <c r="Q4" s="629"/>
       <c r="R4" s="631"/>
-      <c r="S4" s="630" t="s">
+      <c r="S4" s="629" t="s">
         <v>305</v>
       </c>
-      <c r="T4" s="630"/>
-      <c r="U4" s="630"/>
-      <c r="V4" s="630"/>
+      <c r="T4" s="629"/>
+      <c r="U4" s="629"/>
+      <c r="V4" s="629"/>
       <c r="W4" s="631"/>
-      <c r="X4" s="630" t="s">
+      <c r="X4" s="629" t="s">
         <v>306</v>
       </c>
-      <c r="Y4" s="630"/>
-      <c r="Z4" s="630"/>
-      <c r="AA4" s="630"/>
+      <c r="Y4" s="629"/>
+      <c r="Z4" s="629"/>
+      <c r="AA4" s="629"/>
       <c r="AB4" s="631"/>
-      <c r="AC4" s="630" t="s">
+      <c r="AC4" s="629" t="s">
         <v>307</v>
       </c>
-      <c r="AD4" s="630"/>
-      <c r="AE4" s="630"/>
-      <c r="AF4" s="630"/>
+      <c r="AD4" s="629"/>
+      <c r="AE4" s="629"/>
+      <c r="AF4" s="629"/>
       <c r="AG4" s="631"/>
-      <c r="AH4" s="630" t="s">
+      <c r="AH4" s="629" t="s">
         <v>308</v>
       </c>
-      <c r="AI4" s="630"/>
-      <c r="AJ4" s="630"/>
-      <c r="AK4" s="630"/>
+      <c r="AI4" s="629"/>
+      <c r="AJ4" s="629"/>
+      <c r="AK4" s="629"/>
       <c r="AL4" s="631"/>
-      <c r="AM4" s="630" t="s">
+      <c r="AM4" s="629" t="s">
         <v>309</v>
       </c>
-      <c r="AN4" s="630"/>
-      <c r="AO4" s="630"/>
-      <c r="AP4" s="630"/>
+      <c r="AN4" s="629"/>
+      <c r="AO4" s="629"/>
+      <c r="AP4" s="629"/>
       <c r="AQ4" s="631"/>
-      <c r="AR4" s="630" t="s">
+      <c r="AR4" s="629" t="s">
         <v>310</v>
       </c>
-      <c r="AS4" s="630"/>
-      <c r="AT4" s="630"/>
-      <c r="AU4" s="630"/>
+      <c r="AS4" s="629"/>
+      <c r="AT4" s="629"/>
+      <c r="AU4" s="629"/>
       <c r="AV4" s="631"/>
-      <c r="AW4" s="630" t="s">
+      <c r="AW4" s="629" t="s">
         <v>311</v>
       </c>
-      <c r="AX4" s="630"/>
-      <c r="AY4" s="630"/>
-      <c r="AZ4" s="630"/>
-      <c r="BA4" s="630"/>
-      <c r="BB4" s="629" t="s">
+      <c r="AX4" s="629"/>
+      <c r="AY4" s="629"/>
+      <c r="AZ4" s="629"/>
+      <c r="BA4" s="629"/>
+      <c r="BB4" s="630" t="s">
         <v>312</v>
       </c>
-      <c r="BC4" s="630"/>
-      <c r="BD4" s="630"/>
-      <c r="BE4" s="630"/>
+      <c r="BC4" s="629"/>
+      <c r="BD4" s="629"/>
+      <c r="BE4" s="629"/>
       <c r="BF4" s="631"/>
-      <c r="BG4" s="630" t="s">
+      <c r="BG4" s="629" t="s">
         <v>313</v>
       </c>
-      <c r="BH4" s="630"/>
-      <c r="BI4" s="630"/>
-      <c r="BJ4" s="630"/>
-      <c r="BK4" s="630"/>
-      <c r="BL4" s="629" t="s">
+      <c r="BH4" s="629"/>
+      <c r="BI4" s="629"/>
+      <c r="BJ4" s="629"/>
+      <c r="BK4" s="629"/>
+      <c r="BL4" s="630" t="s">
         <v>314</v>
       </c>
-      <c r="BM4" s="630"/>
-      <c r="BN4" s="630"/>
-      <c r="BO4" s="630"/>
-      <c r="BP4" s="630"/>
-      <c r="BQ4" s="629" t="s">
+      <c r="BM4" s="629"/>
+      <c r="BN4" s="629"/>
+      <c r="BO4" s="629"/>
+      <c r="BP4" s="629"/>
+      <c r="BQ4" s="630" t="s">
         <v>315</v>
       </c>
-      <c r="BR4" s="630"/>
-      <c r="BS4" s="630"/>
-      <c r="BT4" s="630"/>
+      <c r="BR4" s="629"/>
+      <c r="BS4" s="629"/>
+      <c r="BT4" s="629"/>
       <c r="BU4" s="631"/>
       <c r="BV4" s="274" t="s">
         <v>316</v>
@@ -58782,6 +58782,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="BL4:BP4"/>
+    <mergeCell ref="BQ4:BU4"/>
+    <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="CB4:CF4"/>
+    <mergeCell ref="CG4:CK4"/>
     <mergeCell ref="BG4:BK4"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
@@ -58794,11 +58799,6 @@
     <mergeCell ref="AR4:AV4"/>
     <mergeCell ref="AW4:BA4"/>
     <mergeCell ref="BB4:BF4"/>
-    <mergeCell ref="BL4:BP4"/>
-    <mergeCell ref="BQ4:BU4"/>
-    <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="CB4:CF4"/>
-    <mergeCell ref="CG4:CK4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -58821,23 +58821,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="636" t="s">
+      <c r="A1" s="638" t="s">
         <v>585</v>
       </c>
-      <c r="B1" s="638" t="s">
+      <c r="B1" s="640" t="s">
         <v>586</v>
       </c>
-      <c r="C1" s="639"/>
-      <c r="D1" s="639"/>
-      <c r="E1" s="639"/>
-      <c r="F1" s="640"/>
-      <c r="G1" s="638" t="s">
+      <c r="C1" s="641"/>
+      <c r="D1" s="641"/>
+      <c r="E1" s="641"/>
+      <c r="F1" s="642"/>
+      <c r="G1" s="640" t="s">
         <v>587</v>
       </c>
-      <c r="H1" s="639"/>
-      <c r="I1" s="639"/>
-      <c r="J1" s="639"/>
-      <c r="K1" s="640"/>
+      <c r="H1" s="641"/>
+      <c r="I1" s="641"/>
+      <c r="J1" s="641"/>
+      <c r="K1" s="642"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -58847,7 +58847,7 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="637"/>
+      <c r="A2" s="639"/>
       <c r="B2" s="443" t="s">
         <v>254</v>
       </c>
@@ -60340,11 +60340,11 @@
       <c r="Y48" t="s">
         <v>636</v>
       </c>
-      <c r="Z48" s="641" t="s">
+      <c r="Z48" s="636" t="s">
         <v>574</v>
       </c>
-      <c r="AA48" s="642"/>
-      <c r="AB48" s="642"/>
+      <c r="AA48" s="637"/>
+      <c r="AB48" s="637"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
@@ -60561,11 +60561,11 @@
       <c r="Y53" t="s">
         <v>638</v>
       </c>
-      <c r="Z53" s="641" t="s">
+      <c r="Z53" s="636" t="s">
         <v>573</v>
       </c>
-      <c r="AA53" s="642"/>
-      <c r="AB53" s="642"/>
+      <c r="AA53" s="637"/>
+      <c r="AB53" s="637"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
@@ -60767,11 +60767,11 @@
       <c r="Y59" t="s">
         <v>639</v>
       </c>
-      <c r="Z59" s="641" t="s">
+      <c r="Z59" s="636" t="s">
         <v>640</v>
       </c>
-      <c r="AA59" s="642"/>
-      <c r="AB59" s="642"/>
+      <c r="AA59" s="637"/>
+      <c r="AB59" s="637"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="463" t="str">
@@ -61608,17 +61608,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="Z48:AB48"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="Z48:AB48"/>
   </mergeCells>
   <phoneticPr fontId="54" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99B5D2F-D504-4B23-94C4-876AFB039FCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD1C0A5-039B-4D33-9970-6AE8717F2B4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{2CC7CA6E-3559-4BC7-B5C1-253B80EF5435}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{2CC7CA6E-3559-4BC7-B5C1-253B80EF5435}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="62" r:id="rId1"/>
@@ -539,30 +539,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="H71" authorId="0" shapeId="0" xr:uid="{2B894309-01C1-483E-BE14-F173630551CD}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Assumptions made, no Oil-Solar in referenced database. Used Gas-Solar.</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="H77" authorId="0" shapeId="0" xr:uid="{ACE57B7A-48EB-4A59-8DA0-82634B18CFAF}">
       <text>
         <r>
@@ -795,7 +771,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H144" authorId="0" shapeId="0" xr:uid="{C43945FE-EEF5-4678-88FD-9217010BC669}">
+    <comment ref="H150" authorId="0" shapeId="0" xr:uid="{0492800A-15A2-4907-98C1-4313E15194A8}">
       <text>
         <r>
           <rPr>
@@ -815,7 +791,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Assumptions made, no Oil-Solar in referenced database. Used Gas-Solar.</t>
+Same as BY eff</t>
         </r>
       </text>
     </comment>
@@ -12879,7 +12855,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="58" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="643">
+  <cellXfs count="645">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -13959,6 +13935,42 @@
     <xf numFmtId="0" fontId="59" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="37" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -13977,40 +13989,13 @@
     <xf numFmtId="0" fontId="4" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -14022,19 +14007,10 @@
     <xf numFmtId="0" fontId="53" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14052,12 +14028,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -14073,6 +14043,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="15" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="15" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Accent1" xfId="4" builtinId="29"/>
@@ -20990,8 +20968,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:AS251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K194" sqref="K194"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="N165" sqref="N165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21166,34 +21144,34 @@
       <c r="G4" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="617" t="s">
+      <c r="H4" s="611" t="s">
         <v>258</v>
       </c>
-      <c r="I4" s="618"/>
-      <c r="J4" s="618"/>
-      <c r="K4" s="619"/>
-      <c r="L4" s="617" t="s">
+      <c r="I4" s="612"/>
+      <c r="J4" s="612"/>
+      <c r="K4" s="613"/>
+      <c r="L4" s="611" t="s">
         <v>83</v>
       </c>
-      <c r="M4" s="618"/>
-      <c r="N4" s="618"/>
-      <c r="O4" s="619"/>
-      <c r="P4" s="617" t="s">
+      <c r="M4" s="612"/>
+      <c r="N4" s="612"/>
+      <c r="O4" s="613"/>
+      <c r="P4" s="611" t="s">
         <v>84</v>
       </c>
-      <c r="Q4" s="618"/>
-      <c r="R4" s="618"/>
-      <c r="S4" s="619"/>
-      <c r="T4" s="617" t="s">
+      <c r="Q4" s="612"/>
+      <c r="R4" s="612"/>
+      <c r="S4" s="613"/>
+      <c r="T4" s="611" t="s">
         <v>85</v>
       </c>
-      <c r="U4" s="619"/>
-      <c r="V4" s="620" t="s">
+      <c r="U4" s="613"/>
+      <c r="V4" s="605" t="s">
         <v>86</v>
       </c>
-      <c r="W4" s="621"/>
-      <c r="X4" s="621"/>
-      <c r="Y4" s="622"/>
+      <c r="W4" s="606"/>
+      <c r="X4" s="606"/>
+      <c r="Y4" s="607"/>
       <c r="Z4" s="60"/>
       <c r="AA4" s="60"/>
       <c r="AB4" s="68" t="s">
@@ -21296,34 +21274,34 @@
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
       <c r="G6" s="39"/>
-      <c r="H6" s="611" t="s">
+      <c r="H6" s="608" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="612"/>
-      <c r="J6" s="612"/>
-      <c r="K6" s="613"/>
-      <c r="L6" s="612" t="s">
+      <c r="I6" s="609"/>
+      <c r="J6" s="609"/>
+      <c r="K6" s="610"/>
+      <c r="L6" s="609" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="612"/>
-      <c r="N6" s="612"/>
-      <c r="O6" s="613"/>
-      <c r="P6" s="611" t="s">
+      <c r="M6" s="609"/>
+      <c r="N6" s="609"/>
+      <c r="O6" s="610"/>
+      <c r="P6" s="608" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="612"/>
-      <c r="R6" s="612"/>
-      <c r="S6" s="613"/>
-      <c r="T6" s="611" t="s">
+      <c r="Q6" s="609"/>
+      <c r="R6" s="609"/>
+      <c r="S6" s="610"/>
+      <c r="T6" s="608" t="s">
         <v>68</v>
       </c>
-      <c r="U6" s="613"/>
-      <c r="V6" s="611" t="s">
+      <c r="U6" s="610"/>
+      <c r="V6" s="608" t="s">
         <v>503</v>
       </c>
-      <c r="W6" s="612"/>
-      <c r="X6" s="612"/>
-      <c r="Y6" s="613"/>
+      <c r="W6" s="609"/>
+      <c r="X6" s="609"/>
+      <c r="Y6" s="610"/>
       <c r="Z6" s="520" t="s">
         <v>515</v>
       </c>
@@ -21390,17 +21368,17 @@
       <c r="G7" s="518" t="s">
         <v>708</v>
       </c>
-      <c r="H7" s="240">
-        <v>1</v>
-      </c>
-      <c r="I7" s="241">
-        <v>1</v>
-      </c>
-      <c r="J7" s="241">
-        <v>1</v>
-      </c>
-      <c r="K7" s="242">
-        <v>1</v>
+      <c r="H7" s="19">
+        <v>1.05</v>
+      </c>
+      <c r="I7" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J7" s="20">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K7" s="56">
+        <v>1.2</v>
       </c>
       <c r="L7" s="46"/>
       <c r="M7" s="47"/>
@@ -21487,17 +21465,17 @@
       <c r="G8" s="57" t="s">
         <v>709</v>
       </c>
-      <c r="H8" s="237">
-        <v>1</v>
-      </c>
-      <c r="I8" s="238">
-        <v>1</v>
-      </c>
-      <c r="J8" s="238">
-        <v>1</v>
-      </c>
-      <c r="K8" s="239">
-        <v>1</v>
+      <c r="H8" s="22">
+        <v>1.05</v>
+      </c>
+      <c r="I8" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J8" s="23">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K8" s="57">
+        <v>1.2</v>
       </c>
       <c r="L8" s="44"/>
       <c r="M8" s="32"/>
@@ -21505,19 +21483,19 @@
       <c r="O8" s="45"/>
       <c r="P8" s="237">
         <f>H8*0.7</f>
-        <v>0.7</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="Q8" s="238">
         <f t="shared" ref="Q8" si="2">I8*0.7</f>
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="R8" s="238">
         <f t="shared" ref="R8" si="3">J8*0.7</f>
-        <v>0.7</v>
+        <v>0.80499999999999994</v>
       </c>
       <c r="S8" s="239">
         <f t="shared" ref="S8" si="4">K8*0.7</f>
-        <v>0.7</v>
+        <v>0.84</v>
       </c>
       <c r="T8" s="53">
         <v>20</v>
@@ -21594,17 +21572,17 @@
       <c r="G9" s="519" t="s">
         <v>708</v>
       </c>
-      <c r="H9" s="234">
-        <v>1</v>
-      </c>
-      <c r="I9" s="235">
-        <v>1</v>
-      </c>
-      <c r="J9" s="235">
-        <v>1</v>
-      </c>
-      <c r="K9" s="236">
-        <v>1</v>
+      <c r="H9" s="40">
+        <v>1.05</v>
+      </c>
+      <c r="I9" s="29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J9" s="29">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K9" s="58">
+        <v>1.2</v>
       </c>
       <c r="L9" s="42"/>
       <c r="M9" s="31"/>
@@ -21689,17 +21667,17 @@
       <c r="G10" s="57" t="s">
         <v>709</v>
       </c>
-      <c r="H10" s="237">
-        <v>1</v>
-      </c>
-      <c r="I10" s="238">
-        <v>1</v>
-      </c>
-      <c r="J10" s="238">
-        <v>1</v>
-      </c>
-      <c r="K10" s="239">
-        <v>1</v>
+      <c r="H10" s="22">
+        <v>1.05</v>
+      </c>
+      <c r="I10" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J10" s="23">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K10" s="57">
+        <v>1.2</v>
       </c>
       <c r="L10" s="44"/>
       <c r="M10" s="32"/>
@@ -21707,19 +21685,19 @@
       <c r="O10" s="45"/>
       <c r="P10" s="237">
         <f>H10*0.7</f>
-        <v>0.7</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="Q10" s="238">
         <f t="shared" ref="Q10" si="8">I10*0.7</f>
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="R10" s="238">
         <f t="shared" ref="R10" si="9">J10*0.7</f>
-        <v>0.7</v>
+        <v>0.80499999999999994</v>
       </c>
       <c r="S10" s="239">
         <f t="shared" ref="S10" si="10">K10*0.7</f>
-        <v>0.7</v>
+        <v>0.84</v>
       </c>
       <c r="T10" s="53">
         <v>22</v>
@@ -21796,17 +21774,17 @@
       <c r="G11" s="519" t="s">
         <v>708</v>
       </c>
-      <c r="H11" s="234">
-        <v>1</v>
-      </c>
-      <c r="I11" s="235">
-        <v>1</v>
-      </c>
-      <c r="J11" s="235">
-        <v>1</v>
-      </c>
-      <c r="K11" s="236">
-        <v>1</v>
+      <c r="H11" s="40">
+        <v>1.05</v>
+      </c>
+      <c r="I11" s="29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J11" s="29">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K11" s="58">
+        <v>1.2</v>
       </c>
       <c r="L11" s="42"/>
       <c r="M11" s="31"/>
@@ -21892,17 +21870,17 @@
       <c r="G12" s="57" t="s">
         <v>709</v>
       </c>
-      <c r="H12" s="237">
-        <v>1</v>
-      </c>
-      <c r="I12" s="238">
-        <v>1</v>
-      </c>
-      <c r="J12" s="238">
-        <v>1</v>
-      </c>
-      <c r="K12" s="239">
-        <v>1</v>
+      <c r="H12" s="22">
+        <v>1.05</v>
+      </c>
+      <c r="I12" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J12" s="23">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K12" s="57">
+        <v>1.2</v>
       </c>
       <c r="L12" s="44"/>
       <c r="M12" s="32"/>
@@ -21910,19 +21888,19 @@
       <c r="O12" s="45"/>
       <c r="P12" s="237">
         <f>H12*0.7</f>
-        <v>0.7</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="Q12" s="238">
         <f t="shared" ref="Q12:S12" si="12">I12*0.7</f>
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="R12" s="238">
         <f t="shared" si="12"/>
-        <v>0.7</v>
+        <v>0.80499999999999994</v>
       </c>
       <c r="S12" s="239">
         <f t="shared" si="12"/>
-        <v>0.7</v>
+        <v>0.84</v>
       </c>
       <c r="T12" s="53">
         <v>22</v>
@@ -22000,17 +21978,17 @@
       <c r="G13" s="519" t="s">
         <v>708</v>
       </c>
-      <c r="H13" s="234">
-        <v>1</v>
-      </c>
-      <c r="I13" s="235">
-        <v>1</v>
-      </c>
-      <c r="J13" s="235">
-        <v>1</v>
-      </c>
-      <c r="K13" s="236">
-        <v>1</v>
+      <c r="H13" s="40">
+        <v>1.2</v>
+      </c>
+      <c r="I13" s="29">
+        <v>1.25</v>
+      </c>
+      <c r="J13" s="29">
+        <v>1.28</v>
+      </c>
+      <c r="K13" s="58">
+        <v>1.3</v>
       </c>
       <c r="L13" s="42"/>
       <c r="M13" s="31"/>
@@ -22093,17 +22071,17 @@
       <c r="G14" s="59" t="s">
         <v>709</v>
       </c>
-      <c r="H14" s="247">
-        <v>1</v>
-      </c>
-      <c r="I14" s="248">
-        <v>1</v>
-      </c>
-      <c r="J14" s="248">
-        <v>1</v>
-      </c>
-      <c r="K14" s="249">
-        <v>1</v>
+      <c r="H14" s="22">
+        <v>1.2</v>
+      </c>
+      <c r="I14" s="23">
+        <v>1.25</v>
+      </c>
+      <c r="J14" s="23">
+        <v>1.28</v>
+      </c>
+      <c r="K14" s="57">
+        <v>1.3</v>
       </c>
       <c r="L14" s="49"/>
       <c r="M14" s="50"/>
@@ -22111,19 +22089,19 @@
       <c r="O14" s="51"/>
       <c r="P14" s="247">
         <f t="shared" ref="P14:S14" si="14">H14*0.7</f>
-        <v>0.7</v>
+        <v>0.84</v>
       </c>
       <c r="Q14" s="248">
         <f t="shared" si="14"/>
-        <v>0.7</v>
+        <v>0.875</v>
       </c>
       <c r="R14" s="248">
         <f t="shared" si="14"/>
-        <v>0.7</v>
+        <v>0.89599999999999991</v>
       </c>
       <c r="S14" s="249">
         <f t="shared" si="14"/>
-        <v>0.7</v>
+        <v>0.90999999999999992</v>
       </c>
       <c r="T14" s="55">
         <v>20</v>
@@ -22530,19 +22508,20 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="L19" s="22">
-        <v>1</v>
-      </c>
-      <c r="M19" s="23">
-        <f>JRC_Data!AD16/JRC_Data!$AC$16</f>
-        <v>1.0666666666666667</v>
-      </c>
-      <c r="N19" s="23">
-        <f>JRC_Data!AE16/JRC_Data!$AC$16</f>
-        <v>1.2333333333333334</v>
-      </c>
-      <c r="O19" s="57">
-        <f>JRC_Data!AF16/JRC_Data!$AC$16</f>
-        <v>1.3333333333333333</v>
+        <f>H19*0.9</f>
+        <v>0.9</v>
+      </c>
+      <c r="M19" s="22">
+        <f t="shared" ref="M19:O19" si="17">I19*0.9</f>
+        <v>0.96</v>
+      </c>
+      <c r="N19" s="22">
+        <f t="shared" si="17"/>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="O19" s="22">
+        <f t="shared" si="17"/>
+        <v>1.2</v>
       </c>
       <c r="P19" s="22"/>
       <c r="Q19" s="23"/>
@@ -22591,11 +22570,11 @@
       </c>
       <c r="AL19" s="100"/>
       <c r="AM19" s="206" t="str">
-        <f t="shared" ref="AM19:AN19" si="17">C21</f>
+        <f t="shared" ref="AM19:AN19" si="18">C21</f>
         <v>R-SH_Apt_ELC_HPN2-C</v>
       </c>
       <c r="AN19" s="206" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Residential Electric Heat Pump - Air to Water - SH - C rated dwelling</v>
       </c>
       <c r="AO19" s="100" t="s">
@@ -22694,11 +22673,11 @@
       </c>
       <c r="AL20" s="100"/>
       <c r="AM20" s="206" t="str">
-        <f t="shared" ref="AM20:AN20" si="18">C22</f>
+        <f t="shared" ref="AM20:AN20" si="19">C22</f>
         <v>R-SH_Apt_ELC_HPN2-D</v>
       </c>
       <c r="AN20" s="206" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Residential Electric Heat Pump - Air to Water - SH - D rated dwelling</v>
       </c>
       <c r="AO20" s="100" t="s">
@@ -22785,7 +22764,7 @@
       <c r="AE21" s="72"/>
       <c r="AF21" s="72"/>
       <c r="AG21" s="63">
-        <f t="shared" ref="AG21:AG25" si="19">31.536*(AJ21/1000)</f>
+        <f t="shared" ref="AG21:AG25" si="20">31.536*(AJ21/1000)</f>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH21" s="66"/>
@@ -22797,11 +22776,11 @@
       </c>
       <c r="AL21" s="100"/>
       <c r="AM21" s="206" t="str">
-        <f t="shared" ref="AM21:AN21" si="20">C23</f>
+        <f t="shared" ref="AM21:AN21" si="21">C23</f>
         <v>R-SH_Apt_ELC_HPN2-E</v>
       </c>
       <c r="AN21" s="206" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>Residential Electric Heat Pump - Air to Water - SH - E rated dwelling</v>
       </c>
       <c r="AO21" s="100" t="s">
@@ -22888,7 +22867,7 @@
       <c r="AE22" s="71"/>
       <c r="AF22" s="71"/>
       <c r="AG22" s="62">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH22" s="65"/>
@@ -22900,11 +22879,11 @@
       </c>
       <c r="AL22" s="100"/>
       <c r="AM22" s="206" t="str">
-        <f t="shared" ref="AM22:AN22" si="21">C24</f>
+        <f t="shared" ref="AM22:AN22" si="22">C24</f>
         <v>R-SH_Apt_ELC_HPN2-F</v>
       </c>
       <c r="AN22" s="206" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>Residential Electric Heat Pump - Air to Water - SH - F rated dwelling</v>
       </c>
       <c r="AO22" s="100" t="s">
@@ -22991,7 +22970,7 @@
       <c r="AE23" s="72"/>
       <c r="AF23" s="72"/>
       <c r="AG23" s="63">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH23" s="66"/>
@@ -23003,11 +22982,11 @@
       </c>
       <c r="AL23" s="100"/>
       <c r="AM23" s="206" t="str">
-        <f t="shared" ref="AM23" si="22">C25</f>
+        <f t="shared" ref="AM23" si="23">C25</f>
         <v>R-SH_Apt_ELC_HPN2-G</v>
       </c>
       <c r="AN23" s="206" t="str">
-        <f t="shared" ref="AN23" si="23">D25</f>
+        <f t="shared" ref="AN23" si="24">D25</f>
         <v>Residential Electric Heat Pump - Air to Water - SH - G rated dwelling</v>
       </c>
       <c r="AO23" s="100" t="s">
@@ -23094,7 +23073,7 @@
       <c r="AE24" s="71"/>
       <c r="AF24" s="71"/>
       <c r="AG24" s="62">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH24" s="65"/>
@@ -23106,11 +23085,11 @@
       </c>
       <c r="AL24" s="100"/>
       <c r="AM24" s="206" t="str">
-        <f t="shared" ref="AM24:AN24" si="24">C26</f>
+        <f t="shared" ref="AM24:AN24" si="25">C26</f>
         <v>R-SW_Apt_ELC_HPN1-AB</v>
       </c>
       <c r="AN24" s="206" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH - AB rated dwelling</v>
       </c>
       <c r="AO24" s="100" t="s">
@@ -23197,7 +23176,7 @@
       <c r="AE25" s="515"/>
       <c r="AF25" s="515"/>
       <c r="AG25" s="64">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH25" s="67"/>
@@ -23270,15 +23249,15 @@
         <v>0.7</v>
       </c>
       <c r="Q26" s="20">
-        <f t="shared" ref="Q26:S26" si="25">I26*0.7</f>
+        <f t="shared" ref="Q26:S26" si="26">I26*0.7</f>
         <v>0.76999999999999991</v>
       </c>
       <c r="R26" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.86333333333333329</v>
       </c>
       <c r="S26" s="56">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.93333333333333324</v>
       </c>
       <c r="T26" s="531">
@@ -23324,11 +23303,11 @@
       </c>
       <c r="AL26" s="100"/>
       <c r="AM26" s="206" t="str">
-        <f t="shared" ref="AM26" si="26">C28</f>
+        <f t="shared" ref="AM26" si="27">C28</f>
         <v>R-SW_Apt_ELC_HPN1-D</v>
       </c>
       <c r="AN26" s="206" t="str">
-        <f t="shared" ref="AN26" si="27">D28</f>
+        <f t="shared" ref="AN26" si="28">D28</f>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH - D rated dwelling</v>
       </c>
       <c r="AO26" s="100" t="s">
@@ -23381,19 +23360,19 @@
       <c r="N27" s="23"/>
       <c r="O27" s="57"/>
       <c r="P27" s="22">
-        <f t="shared" ref="P27:P30" si="28">H27*0.7</f>
+        <f t="shared" ref="P27:P30" si="29">H27*0.7</f>
         <v>0.7</v>
       </c>
       <c r="Q27" s="23">
-        <f t="shared" ref="Q27:Q30" si="29">I27*0.7</f>
+        <f t="shared" ref="Q27:Q30" si="30">I27*0.7</f>
         <v>0.76999999999999991</v>
       </c>
       <c r="R27" s="23">
-        <f t="shared" ref="R27:R30" si="30">J27*0.7</f>
+        <f t="shared" ref="R27:R30" si="31">J27*0.7</f>
         <v>0.86333333333333329</v>
       </c>
       <c r="S27" s="57">
-        <f t="shared" ref="S27:S30" si="31">K27*0.7</f>
+        <f t="shared" ref="S27:S30" si="32">K27*0.7</f>
         <v>0.93333333333333324</v>
       </c>
       <c r="T27" s="532">
@@ -23427,7 +23406,7 @@
       <c r="AE27" s="72"/>
       <c r="AF27" s="72"/>
       <c r="AG27" s="63">
-        <f t="shared" ref="AG27:AG30" si="32">31.536*(AJ27/1000)</f>
+        <f t="shared" ref="AG27:AG30" si="33">31.536*(AJ27/1000)</f>
         <v>0.18921600000000002</v>
       </c>
       <c r="AH27" s="66"/>
@@ -23439,11 +23418,11 @@
       </c>
       <c r="AL27" s="100"/>
       <c r="AM27" s="206" t="str">
-        <f t="shared" ref="AM27" si="33">C29</f>
+        <f t="shared" ref="AM27" si="34">C29</f>
         <v>R-SW_Apt_ELC_HPN1-E</v>
       </c>
       <c r="AN27" s="206" t="str">
-        <f t="shared" ref="AN27" si="34">D29</f>
+        <f t="shared" ref="AN27" si="35">D29</f>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH - E rated dwelling</v>
       </c>
       <c r="AO27" s="100" t="s">
@@ -23496,19 +23475,19 @@
       <c r="N28" s="29"/>
       <c r="O28" s="58"/>
       <c r="P28" s="40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.7</v>
       </c>
       <c r="Q28" s="29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.76999999999999991</v>
       </c>
       <c r="R28" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.86333333333333329</v>
       </c>
       <c r="S28" s="58">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.93333333333333324</v>
       </c>
       <c r="T28" s="533">
@@ -23542,7 +23521,7 @@
       <c r="AE28" s="71"/>
       <c r="AF28" s="71"/>
       <c r="AG28" s="62">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.18921600000000002</v>
       </c>
       <c r="AH28" s="65"/>
@@ -23553,11 +23532,11 @@
         <v>6</v>
       </c>
       <c r="AM28" s="206" t="str">
-        <f t="shared" ref="AM28:AN35" si="35">C30</f>
+        <f t="shared" ref="AM28:AN35" si="36">C30</f>
         <v>R-SW_Apt_ELC_HPN1-F</v>
       </c>
       <c r="AN28" s="206" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH - F rated dwelling</v>
       </c>
       <c r="AO28" s="100" t="s">
@@ -23610,19 +23589,19 @@
       <c r="N29" s="23"/>
       <c r="O29" s="57"/>
       <c r="P29" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.59699699699699693</v>
       </c>
       <c r="Q29" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.6566966966966965</v>
       </c>
       <c r="R29" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.73629629629629623</v>
       </c>
       <c r="S29" s="57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.79599599599599591</v>
       </c>
       <c r="T29" s="532">
@@ -23656,7 +23635,7 @@
       <c r="AE29" s="72"/>
       <c r="AF29" s="72"/>
       <c r="AG29" s="63">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.18921600000000002</v>
       </c>
       <c r="AH29" s="66"/>
@@ -23668,11 +23647,11 @@
       </c>
       <c r="AL29" s="100"/>
       <c r="AM29" s="206" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>R-SW_Apt_ELC_HPN1-G</v>
       </c>
       <c r="AN29" s="206" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH - G rated dwelling</v>
       </c>
       <c r="AO29" s="100" t="s">
@@ -23725,19 +23704,19 @@
       <c r="N30" s="29"/>
       <c r="O30" s="58"/>
       <c r="P30" s="40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.54549549549549547</v>
       </c>
       <c r="Q30" s="29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.60004504504504497</v>
       </c>
       <c r="R30" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.67277777777777781</v>
       </c>
       <c r="S30" s="58">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.72732732732732719</v>
       </c>
       <c r="T30" s="533">
@@ -23771,7 +23750,7 @@
       <c r="AE30" s="71"/>
       <c r="AF30" s="71"/>
       <c r="AG30" s="62">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.18921600000000002</v>
       </c>
       <c r="AH30" s="65"/>
@@ -23783,11 +23762,11 @@
       </c>
       <c r="AL30" s="206"/>
       <c r="AM30" s="99" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>R-SH_Apt_ELC_HPN3-AB</v>
       </c>
       <c r="AN30" s="99" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH - AB rated dwelling</v>
       </c>
       <c r="AO30" s="100" t="s">
@@ -23840,19 +23819,19 @@
       <c r="N31" s="26"/>
       <c r="O31" s="59"/>
       <c r="P31" s="246">
-        <f t="shared" ref="P31" si="36">H31*0.7</f>
+        <f t="shared" ref="P31" si="37">H31*0.7</f>
         <v>0.49399399399399396</v>
       </c>
       <c r="Q31" s="26">
-        <f t="shared" ref="Q31" si="37">I31*0.7</f>
+        <f t="shared" ref="Q31" si="38">I31*0.7</f>
         <v>0.54339339339339332</v>
       </c>
       <c r="R31" s="26">
-        <f t="shared" ref="R31" si="38">J31*0.7</f>
+        <f t="shared" ref="R31" si="39">J31*0.7</f>
         <v>0.60925925925925917</v>
       </c>
       <c r="S31" s="59">
-        <f t="shared" ref="S31" si="39">K31*0.7</f>
+        <f t="shared" ref="S31" si="40">K31*0.7</f>
         <v>0.65865865865865858</v>
       </c>
       <c r="T31" s="530">
@@ -23886,7 +23865,7 @@
       <c r="AE31" s="515"/>
       <c r="AF31" s="515"/>
       <c r="AG31" s="64">
-        <f t="shared" ref="AG31" si="40">31.536*(AJ31/1000)</f>
+        <f t="shared" ref="AG31" si="41">31.536*(AJ31/1000)</f>
         <v>0.18921600000000002</v>
       </c>
       <c r="AH31" s="67"/>
@@ -23898,11 +23877,11 @@
       </c>
       <c r="AL31" s="206"/>
       <c r="AM31" s="206" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>R-SH_Apt_ELC_HPN3-C</v>
       </c>
       <c r="AN31" s="206" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH - C rated dwelling</v>
       </c>
       <c r="AO31" s="100" t="s">
@@ -24001,11 +23980,11 @@
       </c>
       <c r="AL32" s="206"/>
       <c r="AM32" s="206" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>R-SH_Apt_ELC_HPN3-D</v>
       </c>
       <c r="AN32" s="206" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH - D rated dwelling</v>
       </c>
       <c r="AO32" s="100" t="s">
@@ -24092,7 +24071,7 @@
       <c r="AE33" s="72"/>
       <c r="AF33" s="44"/>
       <c r="AG33" s="63">
-        <f t="shared" ref="AG33:AG37" si="41">31.536*(AJ33/1000)</f>
+        <f t="shared" ref="AG33:AG37" si="42">31.536*(AJ33/1000)</f>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH33" s="66"/>
@@ -24104,11 +24083,11 @@
       </c>
       <c r="AL33" s="206"/>
       <c r="AM33" s="206" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>R-SH_Apt_ELC_HPN3-E</v>
       </c>
       <c r="AN33" s="206" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH - E rated dwelling</v>
       </c>
       <c r="AO33" s="100" t="s">
@@ -24195,7 +24174,7 @@
       <c r="AE34" s="71"/>
       <c r="AF34" s="42"/>
       <c r="AG34" s="62">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH34" s="65"/>
@@ -24207,11 +24186,11 @@
       </c>
       <c r="AL34" s="206"/>
       <c r="AM34" s="206" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>R-SH_Apt_ELC_HPN3-F</v>
       </c>
       <c r="AN34" s="206" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH - F rated dwelling</v>
       </c>
       <c r="AO34" s="100" t="s">
@@ -24297,7 +24276,7 @@
       <c r="AE35" s="72"/>
       <c r="AF35" s="44"/>
       <c r="AG35" s="63">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH35" s="66"/>
@@ -24309,11 +24288,11 @@
       </c>
       <c r="AL35" s="206"/>
       <c r="AM35" s="206" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>R-SH_Apt_ELC_HPN3-G</v>
       </c>
       <c r="AN35" s="206" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH - G rated dwelling</v>
       </c>
       <c r="AO35" s="100" t="s">
@@ -24400,7 +24379,7 @@
       <c r="AE36" s="71"/>
       <c r="AF36" s="42"/>
       <c r="AG36" s="62">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH36" s="65"/>
@@ -24412,11 +24391,11 @@
       </c>
       <c r="AL36" s="206"/>
       <c r="AM36" s="206" t="str">
-        <f t="shared" ref="AM36:AN41" si="42">C38</f>
+        <f t="shared" ref="AM36:AN41" si="43">C38</f>
         <v>R-HC_Apt_ELC_HPN2-AB</v>
       </c>
       <c r="AN36" s="206" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC - AB rated dwelling</v>
       </c>
       <c r="AO36" s="100" t="s">
@@ -24503,7 +24482,7 @@
       <c r="AE37" s="515"/>
       <c r="AF37" s="49"/>
       <c r="AG37" s="64">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH37" s="67"/>
@@ -24515,11 +24494,11 @@
       </c>
       <c r="AL37" s="206"/>
       <c r="AM37" s="206" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>R-HC_Apt_ELC_HPN2-C</v>
       </c>
       <c r="AN37" s="206" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC - C rated dwelling</v>
       </c>
       <c r="AO37" s="100" t="s">
@@ -24568,19 +24547,20 @@
         <v>1.5</v>
       </c>
       <c r="L38" s="19">
-        <v>1</v>
+        <f>H38*0.9</f>
+        <v>0.98999999999999988</v>
       </c>
       <c r="M38" s="20">
-        <f>JRC_Data!AD20/JRC_Data!$AC$16</f>
-        <v>1.1666666666666667</v>
+        <f t="shared" ref="M38:O43" si="44">I38*0.9</f>
+        <v>1.05</v>
       </c>
       <c r="N38" s="20">
-        <f>JRC_Data!AE20/JRC_Data!$AC$16</f>
-        <v>1.3333333333333333</v>
+        <f t="shared" si="44"/>
+        <v>1.2</v>
       </c>
       <c r="O38" s="56">
-        <f>JRC_Data!AF20/JRC_Data!$AC$16</f>
-        <v>1.5</v>
+        <f t="shared" si="44"/>
+        <v>1.35</v>
       </c>
       <c r="P38" s="19"/>
       <c r="Q38" s="20"/>
@@ -24595,15 +24575,15 @@
         <v>14.004545454545456</v>
       </c>
       <c r="W38" s="19">
-        <f t="shared" ref="W38:Y38" si="43">W32*1.1</f>
+        <f t="shared" ref="W38:Y38" si="45">W32*1.1</f>
         <v>12.927272727272729</v>
       </c>
       <c r="X38" s="19">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>11.85</v>
       </c>
       <c r="Y38" s="19">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>11.85</v>
       </c>
       <c r="Z38" s="84">
@@ -24629,11 +24609,11 @@
       </c>
       <c r="AL38" s="206"/>
       <c r="AM38" s="206" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>R-HC_Apt_ELC_HPN2-D</v>
       </c>
       <c r="AN38" s="206" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC - D rated dwelling</v>
       </c>
       <c r="AO38" s="100" t="s">
@@ -24681,19 +24661,20 @@
         <v>1.5</v>
       </c>
       <c r="L39" s="22">
-        <v>1</v>
+        <f t="shared" ref="L39:L43" si="46">H39*0.9</f>
+        <v>0.98999999999999988</v>
       </c>
       <c r="M39" s="23">
-        <f>JRC_Data!AD20/JRC_Data!$AC$16</f>
-        <v>1.1666666666666667</v>
+        <f t="shared" si="44"/>
+        <v>1.05</v>
       </c>
       <c r="N39" s="23">
-        <f>JRC_Data!AE20/JRC_Data!$AC$16</f>
-        <v>1.3333333333333333</v>
+        <f t="shared" si="44"/>
+        <v>1.2</v>
       </c>
       <c r="O39" s="57">
-        <f>JRC_Data!AF20/JRC_Data!$AC$16</f>
-        <v>1.5</v>
+        <f t="shared" si="44"/>
+        <v>1.35</v>
       </c>
       <c r="P39" s="22"/>
       <c r="Q39" s="23"/>
@@ -24704,19 +24685,19 @@
       </c>
       <c r="U39" s="57"/>
       <c r="V39" s="22">
-        <f t="shared" ref="V39:Y43" si="44">V33*1.1</f>
+        <f t="shared" ref="V39:Y43" si="47">V33*1.1</f>
         <v>14.004545454545456</v>
       </c>
       <c r="W39" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>12.927272727272729</v>
       </c>
       <c r="X39" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>11.85</v>
       </c>
       <c r="Y39" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>11.85</v>
       </c>
       <c r="Z39" s="63">
@@ -24730,7 +24711,7 @@
       <c r="AE39" s="72"/>
       <c r="AF39" s="44"/>
       <c r="AG39" s="63">
-        <f t="shared" ref="AG39:AG43" si="45">31.536*(AJ39/1000)</f>
+        <f t="shared" ref="AG39:AG43" si="48">31.536*(AJ39/1000)</f>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH39" s="66"/>
@@ -24742,11 +24723,11 @@
       </c>
       <c r="AL39" s="206"/>
       <c r="AM39" s="206" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>R-HC_Apt_ELC_HPN2-E</v>
       </c>
       <c r="AN39" s="206" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC - E rated dwelling</v>
       </c>
       <c r="AO39" s="100" t="s">
@@ -24795,19 +24776,20 @@
         <v>1.5</v>
       </c>
       <c r="L40" s="40">
-        <v>1</v>
+        <f t="shared" si="46"/>
+        <v>0.98999999999999988</v>
       </c>
       <c r="M40" s="29">
-        <f>JRC_Data!AD20/JRC_Data!$AC$16</f>
-        <v>1.1666666666666667</v>
+        <f t="shared" si="44"/>
+        <v>1.05</v>
       </c>
       <c r="N40" s="29">
-        <f>JRC_Data!AE20/JRC_Data!$AC$16</f>
-        <v>1.3333333333333333</v>
+        <f t="shared" si="44"/>
+        <v>1.2</v>
       </c>
       <c r="O40" s="58">
-        <f>JRC_Data!AF20/JRC_Data!$AC$16</f>
-        <v>1.5</v>
+        <f t="shared" si="44"/>
+        <v>1.35</v>
       </c>
       <c r="P40" s="40"/>
       <c r="Q40" s="29"/>
@@ -24818,19 +24800,19 @@
       </c>
       <c r="U40" s="58"/>
       <c r="V40" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>14.004545454545456</v>
       </c>
       <c r="W40" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>12.927272727272729</v>
       </c>
       <c r="X40" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>11.85</v>
       </c>
       <c r="Y40" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>11.85</v>
       </c>
       <c r="Z40" s="62">
@@ -24844,7 +24826,7 @@
       <c r="AE40" s="71"/>
       <c r="AF40" s="42"/>
       <c r="AG40" s="62">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH40" s="65"/>
@@ -24856,11 +24838,11 @@
       </c>
       <c r="AL40" s="206"/>
       <c r="AM40" s="206" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>R-HC_Apt_ELC_HPN2-F</v>
       </c>
       <c r="AN40" s="206" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC - F rated dwelling</v>
       </c>
       <c r="AO40" s="100" t="s">
@@ -24908,16 +24890,20 @@
         <v>1.137137137137137</v>
       </c>
       <c r="L41" s="22">
-        <v>0.85285285285285284</v>
+        <f t="shared" si="46"/>
+        <v>0.76756756756756761</v>
       </c>
       <c r="M41" s="23">
-        <v>0.93813813813813796</v>
+        <f t="shared" si="44"/>
+        <v>0.84432432432432414</v>
       </c>
       <c r="N41" s="23">
-        <v>1.0518518518518518</v>
+        <f t="shared" si="44"/>
+        <v>0.94666666666666666</v>
       </c>
       <c r="O41" s="57">
-        <v>1.137137137137137</v>
+        <f t="shared" si="44"/>
+        <v>1.0234234234234234</v>
       </c>
       <c r="P41" s="22"/>
       <c r="Q41" s="23"/>
@@ -24928,19 +24914,19 @@
       </c>
       <c r="U41" s="57"/>
       <c r="V41" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>15.390545454545455</v>
       </c>
       <c r="W41" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>14.313272727272729</v>
       </c>
       <c r="X41" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>13.235999999999999</v>
       </c>
       <c r="Y41" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>13.235999999999999</v>
       </c>
       <c r="Z41" s="63">
@@ -24954,7 +24940,7 @@
       <c r="AE41" s="72"/>
       <c r="AF41" s="44"/>
       <c r="AG41" s="63">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH41" s="66"/>
@@ -24966,11 +24952,11 @@
       </c>
       <c r="AL41" s="206"/>
       <c r="AM41" s="206" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>R-HC_Apt_ELC_HPN2-G</v>
       </c>
       <c r="AN41" s="206" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC - G rated dwelling</v>
       </c>
       <c r="AO41" s="100" t="s">
@@ -25018,16 +25004,20 @@
         <v>1.0390390390390389</v>
       </c>
       <c r="L42" s="40">
-        <v>0.77927927927927931</v>
+        <f t="shared" si="46"/>
+        <v>0.7013513513513514</v>
       </c>
       <c r="M42" s="29">
-        <v>0.85720720720720711</v>
+        <f t="shared" si="44"/>
+        <v>0.77148648648648643</v>
       </c>
       <c r="N42" s="29">
-        <v>0.96111111111111125</v>
+        <f t="shared" si="44"/>
+        <v>0.8650000000000001</v>
       </c>
       <c r="O42" s="58">
-        <v>1.0390390390390389</v>
+        <f t="shared" si="44"/>
+        <v>0.93513513513513502</v>
       </c>
       <c r="P42" s="40"/>
       <c r="Q42" s="29"/>
@@ -25038,19 +25028,19 @@
       </c>
       <c r="U42" s="58"/>
       <c r="V42" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>15.563795454545456</v>
       </c>
       <c r="W42" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>14.48652272727273</v>
       </c>
       <c r="X42" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>13.40925</v>
       </c>
       <c r="Y42" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>13.40925</v>
       </c>
       <c r="Z42" s="62">
@@ -25064,7 +25054,7 @@
       <c r="AE42" s="71"/>
       <c r="AF42" s="42"/>
       <c r="AG42" s="62">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH42" s="65"/>
@@ -25128,16 +25118,20 @@
         <v>0.94094094094094083</v>
       </c>
       <c r="L43" s="22">
-        <v>0.70570570570570568</v>
+        <f t="shared" si="46"/>
+        <v>0.63513513513513509</v>
       </c>
       <c r="M43" s="23">
-        <v>0.77627627627627616</v>
+        <f t="shared" si="44"/>
+        <v>0.69864864864864851</v>
       </c>
       <c r="N43" s="23">
-        <v>0.87037037037037035</v>
+        <f t="shared" si="44"/>
+        <v>0.78333333333333333</v>
       </c>
       <c r="O43" s="57">
-        <v>0.94094094094094083</v>
+        <f t="shared" si="44"/>
+        <v>0.84684684684684675</v>
       </c>
       <c r="P43" s="246"/>
       <c r="Q43" s="26"/>
@@ -25148,19 +25142,19 @@
       </c>
       <c r="U43" s="59"/>
       <c r="V43" s="246">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>15.737045454545456</v>
       </c>
       <c r="W43" s="246">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>14.659772727272728</v>
       </c>
       <c r="X43" s="246">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>13.5825</v>
       </c>
       <c r="Y43" s="246">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>13.5825</v>
       </c>
       <c r="Z43" s="64">
@@ -25174,7 +25168,7 @@
       <c r="AE43" s="515"/>
       <c r="AF43" s="49"/>
       <c r="AG43" s="64">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH43" s="67"/>
@@ -25303,15 +25297,15 @@
         <v>1.1666666666666667</v>
       </c>
       <c r="Q45" s="20">
-        <f t="shared" ref="Q45:S45" si="46">I45*0.7</f>
+        <f t="shared" ref="Q45:S45" si="49">I45*0.7</f>
         <v>1.2530864197530862</v>
       </c>
       <c r="R45" s="20">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>1.4691358024691357</v>
       </c>
       <c r="S45" s="56">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>1.4691358024691357</v>
       </c>
       <c r="T45" s="88">
@@ -25345,7 +25339,7 @@
       <c r="AE45" s="84"/>
       <c r="AF45" s="84"/>
       <c r="AG45" s="84">
-        <f t="shared" ref="AG45:AG46" si="47">31.536*(AJ45/1000)</f>
+        <f t="shared" ref="AG45:AG46" si="50">31.536*(AJ45/1000)</f>
         <v>0.56764799999999993</v>
       </c>
       <c r="AH45" s="87"/>
@@ -25417,15 +25411,15 @@
         <v>1.1666666666666665</v>
       </c>
       <c r="Q46" s="26">
-        <f t="shared" ref="Q46" si="48">I46*0.7</f>
+        <f t="shared" ref="Q46" si="51">I46*0.7</f>
         <v>1.2055555555555555</v>
       </c>
       <c r="R46" s="26">
-        <f t="shared" ref="R46" si="49">J46*0.7</f>
+        <f t="shared" ref="R46" si="52">J46*0.7</f>
         <v>1.2055555555555555</v>
       </c>
       <c r="S46" s="59">
-        <f t="shared" ref="S46" si="50">K46*0.7</f>
+        <f t="shared" ref="S46" si="53">K46*0.7</f>
         <v>1.2444444444444445</v>
       </c>
       <c r="T46" s="27">
@@ -25459,7 +25453,7 @@
       <c r="AE46" s="64"/>
       <c r="AF46" s="64"/>
       <c r="AG46" s="64">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.56764799999999993</v>
       </c>
       <c r="AH46" s="67"/>
@@ -25592,11 +25586,11 @@
         <v>2.7055000000000002</v>
       </c>
       <c r="R48" s="26">
-        <f t="shared" ref="R48:S48" si="51">J48*0.7</f>
+        <f t="shared" ref="R48:S48" si="54">J48*0.7</f>
         <v>2.9050000000000002</v>
       </c>
       <c r="S48" s="59">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>2.9050000000000002</v>
       </c>
       <c r="T48" s="250">
@@ -25760,16 +25754,16 @@
       <c r="N50" s="47"/>
       <c r="O50" s="48"/>
       <c r="P50" s="240">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Q50" s="241">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="R50" s="241">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S50" s="242">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="T50" s="52">
         <v>20</v>
@@ -25802,7 +25796,7 @@
       <c r="AE50" s="84"/>
       <c r="AF50" s="84"/>
       <c r="AG50" s="84">
-        <f t="shared" ref="AG50:AG51" si="52">31.536*(AJ50/1000)</f>
+        <f t="shared" ref="AG50:AG51" si="55">31.536*(AJ50/1000)</f>
         <v>0.56764799999999993</v>
       </c>
       <c r="AH50" s="87"/>
@@ -25863,16 +25857,16 @@
       <c r="N51" s="50"/>
       <c r="O51" s="51"/>
       <c r="P51" s="247">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Q51" s="248">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="R51" s="248">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S51" s="249">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="T51" s="55">
         <v>20</v>
@@ -25905,7 +25899,7 @@
       <c r="AE51" s="63"/>
       <c r="AF51" s="63"/>
       <c r="AG51" s="64">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>0.56764799999999993</v>
       </c>
       <c r="AH51" s="67"/>
@@ -25978,16 +25972,16 @@
       <c r="N53" s="47"/>
       <c r="O53" s="48"/>
       <c r="P53" s="240">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Q53" s="241">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="R53" s="241">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S53" s="242">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="T53" s="52">
         <v>30</v>
@@ -26020,7 +26014,7 @@
       <c r="AE53" s="84"/>
       <c r="AF53" s="84"/>
       <c r="AG53" s="84">
-        <f t="shared" ref="AG53:AG54" si="53">31.536*(AJ53/1000)</f>
+        <f t="shared" ref="AG53:AG54" si="56">31.536*(AJ53/1000)</f>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH53" s="87"/>
@@ -26099,7 +26093,7 @@
       <c r="AE54" s="63"/>
       <c r="AF54" s="63"/>
       <c r="AG54" s="63">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH54" s="66"/>
@@ -26217,7 +26211,7 @@
       <c r="AE56" s="84"/>
       <c r="AF56" s="84"/>
       <c r="AG56" s="84">
-        <f t="shared" ref="AG56:AG57" si="54">31.536*(AJ56/1000)</f>
+        <f t="shared" ref="AG56:AG57" si="57">31.536*(AJ56/1000)</f>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH56" s="87"/>
@@ -26297,7 +26291,7 @@
       <c r="AE57" s="64"/>
       <c r="AF57" s="64"/>
       <c r="AG57" s="64">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>0.15768000000000001</v>
       </c>
       <c r="AH57" s="67"/>
@@ -26518,34 +26512,34 @@
       <c r="G62" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H62" s="617" t="s">
+      <c r="H62" s="611" t="s">
         <v>82</v>
       </c>
-      <c r="I62" s="618"/>
-      <c r="J62" s="618"/>
-      <c r="K62" s="619"/>
-      <c r="L62" s="617" t="s">
+      <c r="I62" s="612"/>
+      <c r="J62" s="612"/>
+      <c r="K62" s="613"/>
+      <c r="L62" s="611" t="s">
         <v>83</v>
       </c>
-      <c r="M62" s="618"/>
-      <c r="N62" s="618"/>
-      <c r="O62" s="619"/>
-      <c r="P62" s="617" t="s">
+      <c r="M62" s="612"/>
+      <c r="N62" s="612"/>
+      <c r="O62" s="613"/>
+      <c r="P62" s="611" t="s">
         <v>84</v>
       </c>
-      <c r="Q62" s="618"/>
-      <c r="R62" s="618"/>
-      <c r="S62" s="619"/>
-      <c r="T62" s="617" t="s">
+      <c r="Q62" s="612"/>
+      <c r="R62" s="612"/>
+      <c r="S62" s="613"/>
+      <c r="T62" s="611" t="s">
         <v>85</v>
       </c>
-      <c r="U62" s="619"/>
-      <c r="V62" s="620" t="s">
+      <c r="U62" s="613"/>
+      <c r="V62" s="605" t="s">
         <v>86</v>
       </c>
-      <c r="W62" s="621"/>
-      <c r="X62" s="621"/>
-      <c r="Y62" s="622"/>
+      <c r="W62" s="606"/>
+      <c r="X62" s="606"/>
+      <c r="Y62" s="607"/>
       <c r="Z62" s="60"/>
       <c r="AA62" s="60"/>
       <c r="AB62" s="68" t="s">
@@ -26648,24 +26642,24 @@
       <c r="E64" s="38"/>
       <c r="F64" s="38"/>
       <c r="G64" s="39"/>
-      <c r="H64" s="611" t="s">
+      <c r="H64" s="608" t="s">
         <v>34</v>
       </c>
-      <c r="I64" s="612"/>
-      <c r="J64" s="612"/>
-      <c r="K64" s="613"/>
-      <c r="L64" s="612" t="s">
+      <c r="I64" s="609"/>
+      <c r="J64" s="609"/>
+      <c r="K64" s="610"/>
+      <c r="L64" s="609" t="s">
         <v>34</v>
       </c>
-      <c r="M64" s="612"/>
-      <c r="N64" s="612"/>
-      <c r="O64" s="613"/>
-      <c r="P64" s="611" t="s">
+      <c r="M64" s="609"/>
+      <c r="N64" s="609"/>
+      <c r="O64" s="610"/>
+      <c r="P64" s="608" t="s">
         <v>34</v>
       </c>
-      <c r="Q64" s="612"/>
-      <c r="R64" s="612"/>
-      <c r="S64" s="613"/>
+      <c r="Q64" s="609"/>
+      <c r="R64" s="609"/>
+      <c r="S64" s="610"/>
       <c r="T64" s="614" t="s">
         <v>68</v>
       </c>
@@ -26742,17 +26736,17 @@
       <c r="G65" s="508" t="s">
         <v>721</v>
       </c>
-      <c r="H65" s="19">
-        <v>1</v>
-      </c>
-      <c r="I65" s="20">
-        <v>1</v>
-      </c>
-      <c r="J65" s="20">
-        <v>1</v>
-      </c>
-      <c r="K65" s="56">
-        <v>1</v>
+      <c r="H65" s="40">
+        <v>1.05</v>
+      </c>
+      <c r="I65" s="29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J65" s="29">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K65" s="58">
+        <v>1.2</v>
       </c>
       <c r="L65" s="46"/>
       <c r="M65" s="47"/>
@@ -26771,15 +26765,15 @@
         <v>4.2250000000000005</v>
       </c>
       <c r="W65" s="373">
-        <f t="shared" ref="W65:Y65" si="55">W69*1.3</f>
+        <f t="shared" ref="W65:Y65" si="58">W69*1.3</f>
         <v>4.2250000000000005</v>
       </c>
       <c r="X65" s="373">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>4.2250000000000005</v>
       </c>
       <c r="Y65" s="373">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>4.2250000000000005</v>
       </c>
       <c r="Z65" s="373">
@@ -26792,7 +26786,7 @@
       <c r="AE65" s="71"/>
       <c r="AF65" s="71"/>
       <c r="AG65" s="62">
-        <f t="shared" ref="AG65:AG128" si="56">31.536*(AJ65/1000)</f>
+        <f t="shared" ref="AG65:AG128" si="59">31.536*(AJ65/1000)</f>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH65" s="65"/>
@@ -26806,11 +26800,11 @@
         <v>31</v>
       </c>
       <c r="AM65" s="99" t="str">
-        <f t="shared" ref="AM65:AM76" si="57">C65</f>
+        <f t="shared" ref="AM65:AM76" si="60">C65</f>
         <v>R-SH_Att_KER_N1</v>
       </c>
       <c r="AN65" s="99" t="str">
-        <f t="shared" ref="AN65:AN76" si="58">D65</f>
+        <f t="shared" ref="AN65:AN76" si="61">D65</f>
         <v>Residential Kerosene Heating Oil - New 1 SH</v>
       </c>
       <c r="AO65" s="100" t="s">
@@ -26840,16 +26834,16 @@
         <v>722</v>
       </c>
       <c r="H66" s="22">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="I66" s="23">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J66" s="23">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K66" s="57">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L66" s="44"/>
       <c r="M66" s="32"/>
@@ -26857,19 +26851,19 @@
       <c r="O66" s="45"/>
       <c r="P66" s="22">
         <f>H66*0.7</f>
-        <v>0.7</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="Q66" s="23">
-        <f t="shared" ref="Q66:Q68" si="59">I66*0.7</f>
-        <v>0.7</v>
+        <f t="shared" ref="Q66:Q68" si="62">I66*0.7</f>
+        <v>0.77</v>
       </c>
       <c r="R66" s="23">
-        <f t="shared" ref="R66:R68" si="60">J66*0.7</f>
-        <v>0.7</v>
+        <f t="shared" ref="R66:R68" si="63">J66*0.7</f>
+        <v>0.80499999999999994</v>
       </c>
       <c r="S66" s="57">
-        <f t="shared" ref="S66:S68" si="61">K66*0.7</f>
-        <v>0.7</v>
+        <f t="shared" ref="S66:S68" si="64">K66*0.7</f>
+        <v>0.84</v>
       </c>
       <c r="T66" s="53">
         <v>20</v>
@@ -26880,15 +26874,15 @@
         <v>4.2773760330578519</v>
       </c>
       <c r="W66" s="374">
-        <f t="shared" ref="W66:Y66" si="62">W70*1.3</f>
+        <f t="shared" ref="W66:Y66" si="65">W70*1.3</f>
         <v>4.2773760330578519</v>
       </c>
       <c r="X66" s="374">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>4.2773760330578519</v>
       </c>
       <c r="Y66" s="374">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>4.2773760330578519</v>
       </c>
       <c r="Z66" s="374">
@@ -26901,7 +26895,7 @@
       <c r="AE66" s="72"/>
       <c r="AF66" s="72"/>
       <c r="AG66" s="63">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH66" s="66"/>
@@ -26913,11 +26907,11 @@
       </c>
       <c r="AL66" s="100"/>
       <c r="AM66" s="99" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>R-SW_Att_KER_N1</v>
       </c>
       <c r="AN66" s="99" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>Residential Kerosene Heating Oil - New 2 SH + WH</v>
       </c>
       <c r="AO66" s="100" t="s">
@@ -26947,16 +26941,16 @@
         <v>722</v>
       </c>
       <c r="H67" s="40">
-        <v>1</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="I67" s="29">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="J67" s="29">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K67" s="58">
-        <v>1</v>
+        <v>1.23</v>
       </c>
       <c r="L67" s="42"/>
       <c r="M67" s="31"/>
@@ -26964,19 +26958,19 @@
       <c r="O67" s="43"/>
       <c r="P67" s="40">
         <f>H67*0.7</f>
-        <v>0.7</v>
+        <v>0.79799999999999993</v>
       </c>
       <c r="Q67" s="29">
-        <f t="shared" si="59"/>
-        <v>0.7</v>
+        <f t="shared" si="62"/>
+        <v>0.81899999999999995</v>
       </c>
       <c r="R67" s="29">
-        <f t="shared" si="60"/>
-        <v>0.7</v>
+        <f t="shared" si="63"/>
+        <v>0.84</v>
       </c>
       <c r="S67" s="58">
-        <f t="shared" si="61"/>
-        <v>0.7</v>
+        <f t="shared" si="64"/>
+        <v>0.86099999999999999</v>
       </c>
       <c r="T67" s="54">
         <v>20</v>
@@ -27013,7 +27007,7 @@
         <v>5</v>
       </c>
       <c r="AG67" s="62">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH67" s="65"/>
@@ -27025,11 +27019,11 @@
       </c>
       <c r="AL67" s="100"/>
       <c r="AM67" s="99" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>R-SW_Att_KER_N2</v>
       </c>
       <c r="AN67" s="99" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Solar</v>
       </c>
       <c r="AO67" s="100" t="s">
@@ -27059,16 +27053,16 @@
         <v>722</v>
       </c>
       <c r="H68" s="22">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="I68" s="23">
-        <v>1.0249999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="J68" s="23">
-        <v>1.0249999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K68" s="57">
-        <v>1.0249999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="L68" s="44"/>
       <c r="M68" s="32"/>
@@ -27076,19 +27070,19 @@
       <c r="O68" s="45"/>
       <c r="P68" s="22">
         <f>H68*0.7</f>
-        <v>0.7</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="Q68" s="23">
-        <f t="shared" si="59"/>
-        <v>0.71749999999999992</v>
+        <f t="shared" si="62"/>
+        <v>0.76300000000000001</v>
       </c>
       <c r="R68" s="23">
-        <f t="shared" si="60"/>
-        <v>0.71749999999999992</v>
+        <f t="shared" si="63"/>
+        <v>0.79099999999999993</v>
       </c>
       <c r="S68" s="57">
-        <f t="shared" si="61"/>
-        <v>0.71749999999999992</v>
+        <f t="shared" si="64"/>
+        <v>0.81199999999999994</v>
       </c>
       <c r="T68" s="53">
         <v>20</v>
@@ -27137,11 +27131,11 @@
       </c>
       <c r="AL68" s="100"/>
       <c r="AM68" s="99" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>R-SW_Att_KER_N3</v>
       </c>
       <c r="AN68" s="99" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Wood Stove</v>
       </c>
       <c r="AO68" s="101" t="s">
@@ -27169,16 +27163,16 @@
         <v>721</v>
       </c>
       <c r="H69" s="40">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="I69" s="29">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J69" s="29">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K69" s="58">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L69" s="42"/>
       <c r="M69" s="31"/>
@@ -27197,15 +27191,15 @@
         <v>3.25</v>
       </c>
       <c r="W69" s="373">
-        <f t="shared" ref="W69:Y69" si="63">3.25</f>
+        <f t="shared" ref="W69:Y69" si="66">3.25</f>
         <v>3.25</v>
       </c>
       <c r="X69" s="373">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>3.25</v>
       </c>
       <c r="Y69" s="373">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>3.25</v>
       </c>
       <c r="Z69" s="373">
@@ -27218,7 +27212,7 @@
       <c r="AE69" s="71"/>
       <c r="AF69" s="71"/>
       <c r="AG69" s="62">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH69" s="65"/>
@@ -27230,11 +27224,11 @@
       </c>
       <c r="AL69" s="100"/>
       <c r="AM69" s="99" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>R-SH_Att_GAS_N1</v>
       </c>
       <c r="AN69" s="99" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>Residential Natural Gas Heating - New 1 SH</v>
       </c>
       <c r="AO69" s="100" t="s">
@@ -27264,16 +27258,16 @@
         <v>722</v>
       </c>
       <c r="H70" s="22">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="I70" s="23">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J70" s="23">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K70" s="57">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L70" s="44"/>
       <c r="M70" s="32"/>
@@ -27281,19 +27275,19 @@
       <c r="O70" s="45"/>
       <c r="P70" s="22">
         <f>H70*0.7</f>
-        <v>0.7</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="Q70" s="23">
-        <f t="shared" ref="Q70:Q72" si="64">I70*0.7</f>
-        <v>0.7</v>
+        <f t="shared" ref="Q70:Q72" si="67">I70*0.7</f>
+        <v>0.77</v>
       </c>
       <c r="R70" s="23">
-        <f t="shared" ref="R70:R72" si="65">J70*0.7</f>
-        <v>0.7</v>
+        <f t="shared" ref="R70:R72" si="68">J70*0.7</f>
+        <v>0.80499999999999994</v>
       </c>
       <c r="S70" s="57">
-        <f t="shared" ref="S70:S72" si="66">K70*0.7</f>
-        <v>0.7</v>
+        <f t="shared" ref="S70:S72" si="69">K70*0.7</f>
+        <v>0.84</v>
       </c>
       <c r="T70" s="53">
         <v>20</v>
@@ -27325,7 +27319,7 @@
       <c r="AE70" s="72"/>
       <c r="AF70" s="72"/>
       <c r="AG70" s="63">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH70" s="66"/>
@@ -27337,11 +27331,11 @@
       </c>
       <c r="AL70" s="100"/>
       <c r="AM70" s="99" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>R-SW_Att_GAS_N1</v>
       </c>
       <c r="AN70" s="99" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>Residential Natural Gas Heating - New 2 SH + WH</v>
       </c>
       <c r="AO70" s="100" t="s">
@@ -27371,16 +27365,16 @@
         <v>722</v>
       </c>
       <c r="H71" s="40">
-        <v>1</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="I71" s="29">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="J71" s="29">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K71" s="58">
-        <v>1</v>
+        <v>1.23</v>
       </c>
       <c r="L71" s="42"/>
       <c r="M71" s="31"/>
@@ -27388,19 +27382,19 @@
       <c r="O71" s="43"/>
       <c r="P71" s="40">
         <f>H71*0.7</f>
-        <v>0.7</v>
+        <v>0.79799999999999993</v>
       </c>
       <c r="Q71" s="29">
-        <f t="shared" si="64"/>
-        <v>0.7</v>
+        <f t="shared" si="67"/>
+        <v>0.81899999999999995</v>
       </c>
       <c r="R71" s="29">
-        <f t="shared" si="65"/>
-        <v>0.7</v>
+        <f t="shared" si="68"/>
+        <v>0.84</v>
       </c>
       <c r="S71" s="58">
-        <f t="shared" si="66"/>
-        <v>0.7</v>
+        <f t="shared" si="69"/>
+        <v>0.86099999999999999</v>
       </c>
       <c r="T71" s="54">
         <v>20</v>
@@ -27435,7 +27429,7 @@
         <v>5</v>
       </c>
       <c r="AG71" s="62">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH71" s="65"/>
@@ -27447,11 +27441,11 @@
       </c>
       <c r="AL71" s="100"/>
       <c r="AM71" s="99" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>R-SW_Att_GAS_N2</v>
       </c>
       <c r="AN71" s="99" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>Residential Natural Gas Heating - New 3 SH + WH + Solar</v>
       </c>
       <c r="AO71" s="100" t="s">
@@ -27481,16 +27475,16 @@
         <v>722</v>
       </c>
       <c r="H72" s="22">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="I72" s="23">
-        <v>1.0249999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="J72" s="23">
-        <v>1.0249999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K72" s="57">
-        <v>1.0249999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="L72" s="44"/>
       <c r="M72" s="32"/>
@@ -27498,19 +27492,19 @@
       <c r="O72" s="45"/>
       <c r="P72" s="22">
         <f>H72*0.7</f>
-        <v>0.7</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="Q72" s="23">
-        <f t="shared" si="64"/>
-        <v>0.71749999999999992</v>
+        <f t="shared" si="67"/>
+        <v>0.76300000000000001</v>
       </c>
       <c r="R72" s="23">
-        <f t="shared" si="65"/>
-        <v>0.71749999999999992</v>
+        <f t="shared" si="68"/>
+        <v>0.79099999999999993</v>
       </c>
       <c r="S72" s="57">
-        <f t="shared" si="66"/>
-        <v>0.71749999999999992</v>
+        <f t="shared" si="69"/>
+        <v>0.81199999999999994</v>
       </c>
       <c r="T72" s="53">
         <v>20</v>
@@ -27547,7 +27541,7 @@
         <v>5</v>
       </c>
       <c r="AG72" s="63">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH72" s="66"/>
@@ -27559,11 +27553,11 @@
       </c>
       <c r="AL72" s="100"/>
       <c r="AM72" s="99" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>R-SW_Att_GAS_N3</v>
       </c>
       <c r="AN72" s="99" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>Residential Natural Gas Heating - New 4 SH + WH + Wood Stove</v>
       </c>
       <c r="AO72" s="100" t="s">
@@ -27593,16 +27587,16 @@
         <v>721</v>
       </c>
       <c r="H73" s="40">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="I73" s="29">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J73" s="29">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K73" s="58">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L73" s="42"/>
       <c r="M73" s="31"/>
@@ -27643,7 +27637,7 @@
       <c r="AE73" s="71"/>
       <c r="AF73" s="71"/>
       <c r="AG73" s="62">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH73" s="65"/>
@@ -27655,11 +27649,11 @@
       </c>
       <c r="AL73" s="100"/>
       <c r="AM73" s="99" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>R-SH_Att_LPG_N1</v>
       </c>
       <c r="AN73" s="99" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>Residential Liquid Petroleum Gas- New 1 SH</v>
       </c>
       <c r="AO73" s="100" t="s">
@@ -27689,16 +27683,16 @@
         <v>722</v>
       </c>
       <c r="H74" s="22">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="I74" s="23">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J74" s="23">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K74" s="57">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L74" s="44"/>
       <c r="M74" s="32"/>
@@ -27706,19 +27700,19 @@
       <c r="O74" s="45"/>
       <c r="P74" s="22">
         <f>H74*0.7</f>
-        <v>0.7</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="Q74" s="23">
-        <f t="shared" ref="Q74" si="67">I74*0.7</f>
-        <v>0.7</v>
+        <f t="shared" ref="Q74" si="70">I74*0.7</f>
+        <v>0.77</v>
       </c>
       <c r="R74" s="23">
-        <f t="shared" ref="R74" si="68">J74*0.7</f>
-        <v>0.7</v>
+        <f t="shared" ref="R74" si="71">J74*0.7</f>
+        <v>0.80499999999999994</v>
       </c>
       <c r="S74" s="57">
-        <f t="shared" ref="S74" si="69">K74*0.7</f>
-        <v>0.7</v>
+        <f t="shared" ref="S74" si="72">K74*0.7</f>
+        <v>0.84</v>
       </c>
       <c r="T74" s="53">
         <v>20</v>
@@ -27751,7 +27745,7 @@
       <c r="AE74" s="72"/>
       <c r="AF74" s="72"/>
       <c r="AG74" s="63">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH74" s="66"/>
@@ -27763,11 +27757,11 @@
       </c>
       <c r="AL74" s="100"/>
       <c r="AM74" s="206" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>R-SW_Att_LPG_N1</v>
       </c>
       <c r="AN74" s="206" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>Residential Liquid Petroleum Gas- New 2 SH + WH</v>
       </c>
       <c r="AO74" s="100" t="s">
@@ -27797,16 +27791,16 @@
         <v>721</v>
       </c>
       <c r="H75" s="40">
-        <v>1</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="I75" s="29">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="J75" s="29">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K75" s="58">
-        <v>1</v>
+        <v>1.23</v>
       </c>
       <c r="L75" s="42"/>
       <c r="M75" s="31"/>
@@ -27845,7 +27839,7 @@
       <c r="AE75" s="71"/>
       <c r="AF75" s="71"/>
       <c r="AG75" s="62">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH75" s="65"/>
@@ -27857,11 +27851,11 @@
       </c>
       <c r="AL75" s="100"/>
       <c r="AM75" s="206" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>R-SH_Att_WOO_N1</v>
       </c>
       <c r="AN75" s="206" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>Residential Biomass Boiler - New 1 SH</v>
       </c>
       <c r="AO75" s="100" t="s">
@@ -27891,36 +27885,36 @@
         <v>722</v>
       </c>
       <c r="H76" s="22">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="I76" s="23">
-        <v>1</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="J76" s="23">
-        <v>1</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K76" s="57">
-        <v>1</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="L76" s="44"/>
       <c r="M76" s="32"/>
       <c r="N76" s="32"/>
       <c r="O76" s="45"/>
       <c r="P76" s="22">
-        <f t="shared" ref="P76:S80" si="70">H76*0.7</f>
-        <v>0.7</v>
+        <f t="shared" ref="P76:S80" si="73">H76*0.7</f>
+        <v>0.72799999999999998</v>
       </c>
       <c r="Q76" s="23">
-        <f t="shared" si="70"/>
-        <v>0.7</v>
+        <f t="shared" si="73"/>
+        <v>0.76300000000000001</v>
       </c>
       <c r="R76" s="23">
-        <f t="shared" si="70"/>
-        <v>0.7</v>
+        <f t="shared" si="73"/>
+        <v>0.79099999999999993</v>
       </c>
       <c r="S76" s="57">
-        <f t="shared" si="70"/>
-        <v>0.7</v>
+        <f t="shared" si="73"/>
+        <v>0.81199999999999994</v>
       </c>
       <c r="T76" s="53">
         <v>20</v>
@@ -27952,7 +27946,7 @@
       <c r="AE76" s="72"/>
       <c r="AF76" s="72"/>
       <c r="AG76" s="63">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH76" s="66"/>
@@ -27964,11 +27958,11 @@
       </c>
       <c r="AL76" s="100"/>
       <c r="AM76" s="206" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>R-SW_Att_WOO_N1</v>
       </c>
       <c r="AN76" s="206" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>Residential Biomass Boiler - New 2 SH + WH</v>
       </c>
       <c r="AO76" s="100" t="s">
@@ -28000,13 +27994,13 @@
       <c r="H77" s="40">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I77" s="40">
+      <c r="I77" s="29">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J77" s="40">
+      <c r="J77" s="29">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K77" s="40">
+      <c r="K77" s="58">
         <v>0.55000000000000004</v>
       </c>
       <c r="L77" s="44"/>
@@ -28047,7 +28041,7 @@
       <c r="AE77" s="72"/>
       <c r="AF77" s="72"/>
       <c r="AG77" s="63">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH77" s="66"/>
@@ -28089,16 +28083,16 @@
       <c r="G78" s="57" t="s">
         <v>722</v>
       </c>
-      <c r="H78" s="40">
+      <c r="H78" s="22">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I78" s="40">
+      <c r="I78" s="23">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J78" s="40">
+      <c r="J78" s="23">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K78" s="40">
+      <c r="K78" s="57">
         <v>0.55000000000000004</v>
       </c>
       <c r="L78" s="44"/>
@@ -28106,19 +28100,19 @@
       <c r="N78" s="32"/>
       <c r="O78" s="45"/>
       <c r="P78" s="22">
-        <f t="shared" ref="P78" si="71">H78*0.7</f>
+        <f t="shared" ref="P78" si="74">H78*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="Q78" s="23">
-        <f t="shared" ref="Q78" si="72">I78*0.7</f>
+        <f t="shared" ref="Q78" si="75">I78*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="R78" s="23">
-        <f t="shared" ref="R78" si="73">J78*0.7</f>
+        <f t="shared" ref="R78" si="76">J78*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="S78" s="57">
-        <f t="shared" ref="S78" si="74">K78*0.7</f>
+        <f t="shared" ref="S78" si="77">K78*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="T78" s="53">
@@ -28151,7 +28145,7 @@
       <c r="AE78" s="72"/>
       <c r="AF78" s="72"/>
       <c r="AG78" s="63">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH78" s="66"/>
@@ -28193,16 +28187,16 @@
         <v>721</v>
       </c>
       <c r="H79" s="40">
-        <v>0.82</v>
-      </c>
-      <c r="I79" s="40">
-        <v>0.82</v>
-      </c>
-      <c r="J79" s="40">
-        <v>0.82</v>
-      </c>
-      <c r="K79" s="40">
-        <v>0.82</v>
+        <v>1.05</v>
+      </c>
+      <c r="I79" s="29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J79" s="29">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K79" s="58">
+        <v>1.2</v>
       </c>
       <c r="L79" s="42"/>
       <c r="M79" s="31"/>
@@ -28221,19 +28215,19 @@
         <v>4.2250000000000005</v>
       </c>
       <c r="W79" s="62">
-        <f t="shared" ref="W79:Z80" si="75">W65</f>
+        <f t="shared" ref="W79:Z80" si="78">W65</f>
         <v>4.2250000000000005</v>
       </c>
       <c r="X79" s="62">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>4.2250000000000005</v>
       </c>
       <c r="Y79" s="62">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>4.2250000000000005</v>
       </c>
       <c r="Z79" s="62">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>0.12</v>
       </c>
       <c r="AA79" s="65"/>
@@ -28288,36 +28282,36 @@
         <v>722</v>
       </c>
       <c r="H80" s="22">
-        <v>0.82</v>
-      </c>
-      <c r="I80" s="22">
-        <v>0.82</v>
-      </c>
-      <c r="J80" s="22">
-        <v>0.82</v>
-      </c>
-      <c r="K80" s="22">
-        <v>0.82</v>
+        <v>1.05</v>
+      </c>
+      <c r="I80" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J80" s="23">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K80" s="57">
+        <v>1.2</v>
       </c>
       <c r="L80" s="49"/>
       <c r="M80" s="50"/>
       <c r="N80" s="50"/>
       <c r="O80" s="51"/>
       <c r="P80" s="246">
-        <f t="shared" si="70"/>
-        <v>0.57399999999999995</v>
+        <f t="shared" si="73"/>
+        <v>0.73499999999999999</v>
       </c>
       <c r="Q80" s="26">
-        <f t="shared" si="70"/>
-        <v>0.57399999999999995</v>
+        <f t="shared" si="73"/>
+        <v>0.77</v>
       </c>
       <c r="R80" s="26">
-        <f t="shared" si="70"/>
-        <v>0.57399999999999995</v>
+        <f t="shared" si="73"/>
+        <v>0.80499999999999994</v>
       </c>
       <c r="S80" s="59">
-        <f t="shared" si="70"/>
-        <v>0.57399999999999995</v>
+        <f t="shared" si="73"/>
+        <v>0.84</v>
       </c>
       <c r="T80" s="55">
         <v>20</v>
@@ -28328,19 +28322,19 @@
         <v>4.2773760330578519</v>
       </c>
       <c r="W80" s="62">
-        <f t="shared" ref="W80:Y80" si="76">W66</f>
+        <f t="shared" ref="W80:Y80" si="79">W66</f>
         <v>4.2773760330578519</v>
       </c>
       <c r="X80" s="62">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>4.2773760330578519</v>
       </c>
       <c r="Y80" s="62">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>4.2773760330578519</v>
       </c>
       <c r="Z80" s="62">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>0.12</v>
       </c>
       <c r="AA80" s="66"/>
@@ -28350,7 +28344,7 @@
       <c r="AE80" s="72"/>
       <c r="AF80" s="72"/>
       <c r="AG80" s="63">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH80" s="67"/>
@@ -28503,7 +28497,7 @@
       <c r="AE82" s="83"/>
       <c r="AF82" s="83"/>
       <c r="AG82" s="81">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.63072000000000006</v>
       </c>
       <c r="AH82" s="82"/>
@@ -28515,11 +28509,11 @@
       </c>
       <c r="AL82" s="100"/>
       <c r="AM82" s="206" t="str">
-        <f t="shared" ref="AM82:AN97" si="77">C84</f>
+        <f t="shared" ref="AM82:AN97" si="80">C84</f>
         <v>R-SH_Att_ELC_HPN1</v>
       </c>
       <c r="AN82" s="206" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>Residential Electric Heat Pump - Air to Air - SH</v>
       </c>
       <c r="AO82" s="100" t="s">
@@ -28572,11 +28566,11 @@
       <c r="AJ83" s="34"/>
       <c r="AL83" s="100"/>
       <c r="AM83" s="206" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>R-HC_Att_ELC_HPN1</v>
       </c>
       <c r="AN83" s="206" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>Residential Electric Heat Pump - Air to Air - SH + SC</v>
       </c>
       <c r="AO83" s="100" t="s">
@@ -28661,7 +28655,7 @@
       <c r="AE84" s="84"/>
       <c r="AF84" s="20"/>
       <c r="AG84" s="84">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.220752</v>
       </c>
       <c r="AH84" s="88"/>
@@ -28673,11 +28667,11 @@
       </c>
       <c r="AL84" s="100"/>
       <c r="AM84" s="206" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>R-SH_Att_ELC_HPN2-AB</v>
       </c>
       <c r="AN84" s="206" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>Residential Electric Heat Pump - Air to Water - SH - AB rated dwelling</v>
       </c>
       <c r="AO84" s="100" t="s">
@@ -28724,19 +28718,20 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="L85" s="246">
-        <v>1</v>
+        <f>H85*0.9</f>
+        <v>0.9</v>
       </c>
       <c r="M85" s="26">
-        <f>JRC_Data!AD16/JRC_Data!$AC$16</f>
-        <v>1.0666666666666667</v>
+        <f t="shared" ref="M85:O85" si="81">I85*0.9</f>
+        <v>0.96</v>
       </c>
       <c r="N85" s="26">
-        <f>JRC_Data!AE16/JRC_Data!$AC$16</f>
-        <v>1.2333333333333334</v>
+        <f t="shared" si="81"/>
+        <v>1.1100000000000001</v>
       </c>
       <c r="O85" s="59">
-        <f>JRC_Data!AF16/JRC_Data!$AC$16</f>
-        <v>1.3333333333333333</v>
+        <f t="shared" si="81"/>
+        <v>1.2</v>
       </c>
       <c r="P85" s="26"/>
       <c r="Q85" s="26"/>
@@ -28773,7 +28768,7 @@
       <c r="AE85" s="64"/>
       <c r="AF85" s="26"/>
       <c r="AG85" s="64">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH85" s="27"/>
@@ -28785,11 +28780,11 @@
       </c>
       <c r="AL85" s="100"/>
       <c r="AM85" s="206" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>R-SH_Att_ELC_HPN2-C</v>
       </c>
       <c r="AN85" s="206" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>Residential Electric Heat Pump - Air to Water - SH - C rated dwelling</v>
       </c>
       <c r="AO85" s="100" t="s">
@@ -28873,7 +28868,7 @@
       <c r="AE86" s="254"/>
       <c r="AF86" s="46"/>
       <c r="AG86" s="84">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.220752</v>
       </c>
       <c r="AH86" s="87"/>
@@ -28885,11 +28880,11 @@
       </c>
       <c r="AL86" s="100"/>
       <c r="AM86" s="206" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>R-SH_Att_ELC_HPN2-D</v>
       </c>
       <c r="AN86" s="206" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>Residential Electric Heat Pump - Air to Water - SH - Drated dwelling</v>
       </c>
       <c r="AO86" s="100" t="s">
@@ -28953,15 +28948,15 @@
         <v>8.5299999999999994</v>
       </c>
       <c r="W87" s="23">
-        <f t="shared" ref="V87:Y91" si="78">W21/$V$20*$V$86</f>
+        <f t="shared" ref="V87:Y91" si="82">W21/$V$20*$V$86</f>
         <v>8.5299999999999994</v>
       </c>
       <c r="X87" s="23">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>7.6769999999999987</v>
       </c>
       <c r="Y87" s="57">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>7.6769999999999987</v>
       </c>
       <c r="Z87" s="63">
@@ -28974,7 +28969,7 @@
       <c r="AE87" s="72"/>
       <c r="AF87" s="44"/>
       <c r="AG87" s="63">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.220752</v>
       </c>
       <c r="AH87" s="66"/>
@@ -28986,11 +28981,11 @@
       </c>
       <c r="AL87" s="100"/>
       <c r="AM87" s="206" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>R-SH_Att_ELC_HPN2-E</v>
       </c>
       <c r="AN87" s="206" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>Residential Electric Heat Pump - Air to Water - SH - E rated dwelling</v>
       </c>
       <c r="AO87" s="100" t="s">
@@ -29050,19 +29045,19 @@
       </c>
       <c r="U88" s="29"/>
       <c r="V88" s="40">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>8.5299999999999994</v>
       </c>
       <c r="W88" s="29">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>8.5299999999999994</v>
       </c>
       <c r="X88" s="29">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>7.6769999999999987</v>
       </c>
       <c r="Y88" s="58">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>7.6769999999999987</v>
       </c>
       <c r="Z88" s="62">
@@ -29075,7 +29070,7 @@
       <c r="AE88" s="71"/>
       <c r="AF88" s="42"/>
       <c r="AG88" s="62">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.220752</v>
       </c>
       <c r="AH88" s="65"/>
@@ -29087,11 +29082,11 @@
       </c>
       <c r="AL88" s="100"/>
       <c r="AM88" s="206" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>R-SH_Att_ELC_HPN2-F</v>
       </c>
       <c r="AN88" s="206" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>Residential Electric Heat Pump - Air to Water - SH - F rated dwelling</v>
       </c>
       <c r="AO88" s="100" t="s">
@@ -29151,19 +29146,19 @@
       </c>
       <c r="U89" s="23"/>
       <c r="V89" s="22">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>9.7103734818565393</v>
       </c>
       <c r="W89" s="23">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>9.7103734818565393</v>
       </c>
       <c r="X89" s="23">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>8.8573734818565377</v>
       </c>
       <c r="Y89" s="57">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>8.8573734818565377</v>
       </c>
       <c r="Z89" s="63">
@@ -29176,7 +29171,7 @@
       <c r="AE89" s="72"/>
       <c r="AF89" s="44"/>
       <c r="AG89" s="63">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.220752</v>
       </c>
       <c r="AH89" s="66"/>
@@ -29188,11 +29183,11 @@
       </c>
       <c r="AL89" s="100"/>
       <c r="AM89" s="206" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>R-SH_Att_ELC_HPN2-G</v>
       </c>
       <c r="AN89" s="206" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>Residential Electric Heat Pump - Air to Water - SH - G rated dwelling</v>
       </c>
       <c r="AO89" s="100" t="s">
@@ -29252,19 +29247,19 @@
       </c>
       <c r="U90" s="29"/>
       <c r="V90" s="40">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>9.8579201670886061</v>
       </c>
       <c r="W90" s="29">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>9.8579201670886061</v>
       </c>
       <c r="X90" s="29">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>9.0049201670886081</v>
       </c>
       <c r="Y90" s="58">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>9.0049201670886081</v>
       </c>
       <c r="Z90" s="62">
@@ -29277,7 +29272,7 @@
       <c r="AE90" s="71"/>
       <c r="AF90" s="42"/>
       <c r="AG90" s="62">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.220752</v>
       </c>
       <c r="AH90" s="65"/>
@@ -29289,11 +29284,11 @@
       </c>
       <c r="AL90" s="100"/>
       <c r="AM90" s="206" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>R-SW_Att_ELC_HPN1-AB</v>
       </c>
       <c r="AN90" s="206" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH - AB rated dwelling</v>
       </c>
       <c r="AO90" s="100" t="s">
@@ -29353,19 +29348,19 @@
       </c>
       <c r="U91" s="26"/>
       <c r="V91" s="246">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>10.005466852320673</v>
       </c>
       <c r="W91" s="26">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>10.005466852320673</v>
       </c>
       <c r="X91" s="26">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>9.1524668523206731</v>
       </c>
       <c r="Y91" s="59">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>9.1524668523206731</v>
       </c>
       <c r="Z91" s="64">
@@ -29378,7 +29373,7 @@
       <c r="AE91" s="515"/>
       <c r="AF91" s="49"/>
       <c r="AG91" s="64">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.220752</v>
       </c>
       <c r="AH91" s="67"/>
@@ -29390,11 +29385,11 @@
       </c>
       <c r="AL91" s="100"/>
       <c r="AM91" s="206" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>R-SW_Att_ELC_HPN1-C</v>
       </c>
       <c r="AN91" s="206" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH - C rated dwelling</v>
       </c>
       <c r="AO91" s="100" t="s">
@@ -29450,15 +29445,15 @@
         <v>0.7</v>
       </c>
       <c r="Q92" s="20">
-        <f t="shared" ref="Q92:Q103" si="79">I92*0.7</f>
+        <f t="shared" ref="Q92:Q103" si="83">I92*0.7</f>
         <v>0.76999999999999991</v>
       </c>
       <c r="R92" s="20">
-        <f t="shared" ref="R92:R103" si="80">J92*0.7</f>
+        <f t="shared" ref="R92:R103" si="84">J92*0.7</f>
         <v>0.86333333333333329</v>
       </c>
       <c r="S92" s="56">
-        <f t="shared" ref="S92:S103" si="81">K92*0.7</f>
+        <f t="shared" ref="S92:S103" si="85">K92*0.7</f>
         <v>0.93333333333333324</v>
       </c>
       <c r="T92" s="510">
@@ -29491,7 +29486,7 @@
       <c r="AE92" s="254"/>
       <c r="AF92" s="46"/>
       <c r="AG92" s="84">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH92" s="87"/>
@@ -29503,11 +29498,11 @@
       </c>
       <c r="AL92" s="100"/>
       <c r="AM92" s="206" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>R-SW_Att_ELC_HPN1-D</v>
       </c>
       <c r="AN92" s="206" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH - D rated dwelling</v>
       </c>
       <c r="AO92" s="100" t="s">
@@ -29559,19 +29554,19 @@
       <c r="N93" s="23"/>
       <c r="O93" s="57"/>
       <c r="P93" s="22">
-        <f t="shared" ref="P93:P97" si="82">H93*0.7</f>
+        <f t="shared" ref="P93:P97" si="86">H93*0.7</f>
         <v>0.7</v>
       </c>
       <c r="Q93" s="23">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>0.76999999999999991</v>
       </c>
       <c r="R93" s="23">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>0.86333333333333329</v>
       </c>
       <c r="S93" s="57">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0.93333333333333324</v>
       </c>
       <c r="T93" s="511">
@@ -29579,19 +29574,19 @@
       </c>
       <c r="U93" s="57"/>
       <c r="V93" s="22">
-        <f t="shared" ref="V93:Y97" si="83">V21/$V$20*$V$92</f>
+        <f t="shared" ref="V93:Y97" si="87">V21/$V$20*$V$92</f>
         <v>8.6019831223628689</v>
       </c>
       <c r="W93" s="23">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>8.6019831223628689</v>
       </c>
       <c r="X93" s="23">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>7.7417848101265809</v>
       </c>
       <c r="Y93" s="57">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>7.7417848101265809</v>
       </c>
       <c r="Z93" s="63">
@@ -29616,11 +29611,11 @@
       </c>
       <c r="AL93" s="100"/>
       <c r="AM93" s="206" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>R-SW_Att_ELC_HPN1-E</v>
       </c>
       <c r="AN93" s="206" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH - E rated dwelling</v>
       </c>
       <c r="AO93" s="100" t="s">
@@ -29671,19 +29666,19 @@
       <c r="N94" s="29"/>
       <c r="O94" s="58"/>
       <c r="P94" s="40">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>0.7</v>
       </c>
       <c r="Q94" s="29">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>0.76999999999999991</v>
       </c>
       <c r="R94" s="29">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>0.86333333333333329</v>
       </c>
       <c r="S94" s="58">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0.93333333333333324</v>
       </c>
       <c r="T94" s="512">
@@ -29691,19 +29686,19 @@
       </c>
       <c r="U94" s="58"/>
       <c r="V94" s="40">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>8.6019831223628689</v>
       </c>
       <c r="W94" s="29">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>8.6019831223628689</v>
       </c>
       <c r="X94" s="29">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>7.7417848101265809</v>
       </c>
       <c r="Y94" s="58">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>7.7417848101265809</v>
       </c>
       <c r="Z94" s="62">
@@ -29716,7 +29711,7 @@
       <c r="AE94" s="71"/>
       <c r="AF94" s="42"/>
       <c r="AG94" s="62">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH94" s="65"/>
@@ -29728,11 +29723,11 @@
       </c>
       <c r="AL94" s="206"/>
       <c r="AM94" s="206" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>R-SW_Att_ELC_HPN1-F</v>
       </c>
       <c r="AN94" s="206" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH - F rated dwelling</v>
       </c>
       <c r="AO94" s="100" t="s">
@@ -29783,19 +29778,19 @@
       <c r="N95" s="23"/>
       <c r="O95" s="57"/>
       <c r="P95" s="22">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>0.7</v>
       </c>
       <c r="Q95" s="23">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>0.76999999999999991</v>
       </c>
       <c r="R95" s="23">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>0.86333333333333329</v>
       </c>
       <c r="S95" s="57">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0.93333333333333324</v>
       </c>
       <c r="T95" s="511">
@@ -29803,19 +29798,19 @@
       </c>
       <c r="U95" s="57"/>
       <c r="V95" s="22">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>9.7923175618722063</v>
       </c>
       <c r="W95" s="23">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>9.7923175618722063</v>
       </c>
       <c r="X95" s="23">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>8.9321192496359192</v>
       </c>
       <c r="Y95" s="57">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>8.9321192496359192</v>
       </c>
       <c r="Z95" s="63">
@@ -29828,7 +29823,7 @@
       <c r="AE95" s="72"/>
       <c r="AF95" s="44"/>
       <c r="AG95" s="63">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH95" s="66"/>
@@ -29840,11 +29835,11 @@
       </c>
       <c r="AL95" s="206"/>
       <c r="AM95" s="206" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>R-SW_Att_ELC_HPN1-G</v>
       </c>
       <c r="AN95" s="206" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH - G rated dwelling</v>
       </c>
       <c r="AO95" s="100" t="s">
@@ -29895,19 +29890,19 @@
       <c r="N96" s="29"/>
       <c r="O96" s="58"/>
       <c r="P96" s="40">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>0.7</v>
       </c>
       <c r="Q96" s="29">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>0.76999999999999991</v>
       </c>
       <c r="R96" s="29">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>0.86333333333333329</v>
       </c>
       <c r="S96" s="58">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0.93333333333333324</v>
       </c>
       <c r="T96" s="512">
@@ -29915,19 +29910,19 @@
       </c>
       <c r="U96" s="58"/>
       <c r="V96" s="40">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>9.9411093668108741</v>
       </c>
       <c r="W96" s="29">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>9.9411093668108741</v>
       </c>
       <c r="X96" s="29">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>9.080911054574587</v>
       </c>
       <c r="Y96" s="58">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>9.080911054574587</v>
       </c>
       <c r="Z96" s="62">
@@ -29940,7 +29935,7 @@
       <c r="AE96" s="71"/>
       <c r="AF96" s="42"/>
       <c r="AG96" s="62">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH96" s="65"/>
@@ -29952,11 +29947,11 @@
       </c>
       <c r="AL96" s="206"/>
       <c r="AM96" s="206" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>R-SW_Att_ELC_HPN2-AB</v>
       </c>
       <c r="AN96" s="206" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar - AB rated dwelling</v>
       </c>
       <c r="AO96" s="100" t="s">
@@ -30007,19 +30002,19 @@
       <c r="N97" s="26"/>
       <c r="O97" s="59"/>
       <c r="P97" s="246">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>0.7</v>
       </c>
       <c r="Q97" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>0.76999999999999991</v>
       </c>
       <c r="R97" s="26">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>0.86333333333333329</v>
       </c>
       <c r="S97" s="59">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0.93333333333333324</v>
       </c>
       <c r="T97" s="514">
@@ -30027,19 +30022,19 @@
       </c>
       <c r="U97" s="59"/>
       <c r="V97" s="246">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>10.08990117174954</v>
       </c>
       <c r="W97" s="26">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>10.08990117174954</v>
       </c>
       <c r="X97" s="26">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>9.2297028595132531</v>
       </c>
       <c r="Y97" s="59">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>9.2297028595132531</v>
       </c>
       <c r="Z97" s="64">
@@ -30052,7 +30047,7 @@
       <c r="AE97" s="515"/>
       <c r="AF97" s="49"/>
       <c r="AG97" s="64">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH97" s="67"/>
@@ -30064,11 +30059,11 @@
       </c>
       <c r="AL97" s="206"/>
       <c r="AM97" s="206" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>R-SW_Att_ELC_HPN2-C</v>
       </c>
       <c r="AN97" s="206" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar - C rated dwelling</v>
       </c>
       <c r="AO97" s="100" t="s">
@@ -30120,15 +30115,15 @@
         <v>0.7</v>
       </c>
       <c r="Q98" s="29">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>0.77700000000000002</v>
       </c>
       <c r="R98" s="29">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="S98" s="58">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="T98" s="510">
@@ -30166,7 +30161,7 @@
         <v>5</v>
       </c>
       <c r="AG98" s="84">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH98" s="87"/>
@@ -30178,11 +30173,11 @@
       </c>
       <c r="AL98" s="2"/>
       <c r="AM98" s="206" t="str">
-        <f t="shared" ref="AM98:AN113" si="84">C100</f>
+        <f t="shared" ref="AM98:AN113" si="88">C100</f>
         <v>R-SW_Att_ELC_HPN2-D</v>
       </c>
       <c r="AN98" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar - D rated dwelling</v>
       </c>
       <c r="AO98" s="100" t="s">
@@ -30230,19 +30225,19 @@
       <c r="N99" s="23"/>
       <c r="O99" s="57"/>
       <c r="P99" s="22">
-        <f t="shared" ref="P99:P103" si="85">H99*0.7</f>
+        <f t="shared" ref="P99:P103" si="89">H99*0.7</f>
         <v>0.7</v>
       </c>
       <c r="Q99" s="23">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>0.77700000000000002</v>
       </c>
       <c r="R99" s="23">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="S99" s="57">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="T99" s="511">
@@ -30250,19 +30245,19 @@
       </c>
       <c r="U99" s="23"/>
       <c r="V99" s="22">
-        <f t="shared" ref="V99:Y103" si="86">V21/$V$20*$V$98</f>
+        <f t="shared" ref="V99:Y103" si="90">V21/$V$20*$V$98</f>
         <v>13.282644628099174</v>
       </c>
       <c r="W99" s="23">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>13.282644628099174</v>
       </c>
       <c r="X99" s="23">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>11.954380165289255</v>
       </c>
       <c r="Y99" s="57">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>11.954380165289255</v>
       </c>
       <c r="Z99" s="63">
@@ -30280,7 +30275,7 @@
         <v>5</v>
       </c>
       <c r="AG99" s="63">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH99" s="66"/>
@@ -30292,11 +30287,11 @@
       </c>
       <c r="AL99" s="2"/>
       <c r="AM99" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>R-SW_Att_ELC_HPN2-E</v>
       </c>
       <c r="AN99" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar - E rated dwelling</v>
       </c>
       <c r="AO99" s="100" t="s">
@@ -30344,19 +30339,19 @@
       <c r="N100" s="29"/>
       <c r="O100" s="58"/>
       <c r="P100" s="40">
+        <f t="shared" si="89"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q100" s="29">
+        <f t="shared" si="83"/>
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="R100" s="29">
+        <f t="shared" si="84"/>
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="S100" s="58">
         <f t="shared" si="85"/>
-        <v>0.7</v>
-      </c>
-      <c r="Q100" s="29">
-        <f t="shared" si="79"/>
-        <v>0.77700000000000002</v>
-      </c>
-      <c r="R100" s="29">
-        <f t="shared" si="80"/>
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="S100" s="58">
-        <f t="shared" si="81"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="T100" s="512">
@@ -30364,19 +30359,19 @@
       </c>
       <c r="U100" s="29"/>
       <c r="V100" s="40">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>13.282644628099174</v>
       </c>
       <c r="W100" s="29">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>13.282644628099174</v>
       </c>
       <c r="X100" s="29">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>11.954380165289255</v>
       </c>
       <c r="Y100" s="58">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>11.954380165289255</v>
       </c>
       <c r="Z100" s="62">
@@ -30394,7 +30389,7 @@
         <v>5</v>
       </c>
       <c r="AG100" s="62">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH100" s="65"/>
@@ -30406,11 +30401,11 @@
       </c>
       <c r="AL100" s="2"/>
       <c r="AM100" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>R-SW_Att_ELC_HPN2-F</v>
       </c>
       <c r="AN100" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar - F rated dwelling</v>
       </c>
       <c r="AO100" s="100" t="s">
@@ -30458,19 +30453,19 @@
       <c r="N101" s="23"/>
       <c r="O101" s="57"/>
       <c r="P101" s="22">
+        <f t="shared" si="89"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q101" s="23">
+        <f t="shared" si="83"/>
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="R101" s="23">
+        <f t="shared" si="84"/>
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="S101" s="57">
         <f t="shared" si="85"/>
-        <v>0.7</v>
-      </c>
-      <c r="Q101" s="23">
-        <f t="shared" si="79"/>
-        <v>0.77700000000000002</v>
-      </c>
-      <c r="R101" s="23">
-        <f t="shared" si="80"/>
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="S101" s="57">
-        <f t="shared" si="81"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="T101" s="511">
@@ -30478,19 +30473,19 @@
       </c>
       <c r="U101" s="23"/>
       <c r="V101" s="22">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>15.120684661854447</v>
       </c>
       <c r="W101" s="23">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>15.120684661854447</v>
       </c>
       <c r="X101" s="23">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>13.79242019904453</v>
       </c>
       <c r="Y101" s="57">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>13.79242019904453</v>
       </c>
       <c r="Z101" s="63">
@@ -30508,7 +30503,7 @@
         <v>5</v>
       </c>
       <c r="AG101" s="63">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH101" s="66"/>
@@ -30520,11 +30515,11 @@
       </c>
       <c r="AL101" s="2"/>
       <c r="AM101" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>R-SW_Att_ELC_HPN2-G</v>
       </c>
       <c r="AN101" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar - G rated dwelling</v>
       </c>
       <c r="AO101" s="100" t="s">
@@ -30572,19 +30567,19 @@
       <c r="N102" s="29"/>
       <c r="O102" s="58"/>
       <c r="P102" s="40">
+        <f t="shared" si="89"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q102" s="29">
+        <f t="shared" si="83"/>
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="R102" s="29">
+        <f t="shared" si="84"/>
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="S102" s="58">
         <f t="shared" si="85"/>
-        <v>0.7</v>
-      </c>
-      <c r="Q102" s="29">
-        <f t="shared" si="79"/>
-        <v>0.77700000000000002</v>
-      </c>
-      <c r="R102" s="29">
-        <f t="shared" si="80"/>
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="S102" s="58">
-        <f t="shared" si="81"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="T102" s="512">
@@ -30592,19 +30587,19 @@
       </c>
       <c r="U102" s="29"/>
       <c r="V102" s="40">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>15.350439666073857</v>
       </c>
       <c r="W102" s="29">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>15.350439666073857</v>
       </c>
       <c r="X102" s="29">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>14.022175203263942</v>
       </c>
       <c r="Y102" s="58">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>14.022175203263942</v>
       </c>
       <c r="Z102" s="62">
@@ -30622,7 +30617,7 @@
         <v>5</v>
       </c>
       <c r="AG102" s="62">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH102" s="65"/>
@@ -30634,11 +30629,11 @@
       </c>
       <c r="AL102" s="2"/>
       <c r="AM102" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>R-SH_Att_ELC_HPN3-AB</v>
       </c>
       <c r="AN102" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH - AB rated dwelling</v>
       </c>
       <c r="AO102" s="100" t="s">
@@ -30686,19 +30681,19 @@
       <c r="N103" s="26"/>
       <c r="O103" s="59"/>
       <c r="P103" s="246">
+        <f t="shared" si="89"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q103" s="26">
+        <f t="shared" si="83"/>
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="R103" s="26">
+        <f t="shared" si="84"/>
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="S103" s="59">
         <f t="shared" si="85"/>
-        <v>0.7</v>
-      </c>
-      <c r="Q103" s="26">
-        <f t="shared" si="79"/>
-        <v>0.77700000000000002</v>
-      </c>
-      <c r="R103" s="26">
-        <f t="shared" si="80"/>
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="S103" s="59">
-        <f t="shared" si="81"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="T103" s="514">
@@ -30706,19 +30701,19 @@
       </c>
       <c r="U103" s="26"/>
       <c r="V103" s="246">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>15.580194670293265</v>
       </c>
       <c r="W103" s="26">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>15.580194670293265</v>
       </c>
       <c r="X103" s="26">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>14.251930207483348</v>
       </c>
       <c r="Y103" s="59">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>14.251930207483348</v>
       </c>
       <c r="Z103" s="64">
@@ -30736,7 +30731,7 @@
         <v>5</v>
       </c>
       <c r="AG103" s="64">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH103" s="67"/>
@@ -30748,11 +30743,11 @@
       </c>
       <c r="AL103" s="2"/>
       <c r="AM103" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>R-SH_Att_ELC_HPN3-C</v>
       </c>
       <c r="AN103" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH - C rated dwelling</v>
       </c>
       <c r="AO103" s="100" t="s">
@@ -30838,7 +30833,7 @@
       <c r="AE104" s="254"/>
       <c r="AF104" s="46"/>
       <c r="AG104" s="84">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.220752</v>
       </c>
       <c r="AH104" s="87"/>
@@ -30850,11 +30845,11 @@
       </c>
       <c r="AL104" s="2"/>
       <c r="AM104" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>R-SH_Att_ELC_HPN3-D</v>
       </c>
       <c r="AN104" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH - D rated dwelling</v>
       </c>
       <c r="AO104" s="100" t="s">
@@ -30914,19 +30909,19 @@
       </c>
       <c r="U105" s="57"/>
       <c r="V105" s="22">
-        <f t="shared" ref="V105:Y109" si="87">V21/$V$20*$V$104</f>
+        <f t="shared" ref="V105:Y109" si="91">V21/$V$20*$V$104</f>
         <v>13.828571428571429</v>
       </c>
       <c r="W105" s="23">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>13.828571428571429</v>
       </c>
       <c r="X105" s="23">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>12.445714285714285</v>
       </c>
       <c r="Y105" s="57">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>12.445714285714285</v>
       </c>
       <c r="Z105" s="63">
@@ -30940,7 +30935,7 @@
       <c r="AE105" s="72"/>
       <c r="AF105" s="44"/>
       <c r="AG105" s="63">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.220752</v>
       </c>
       <c r="AH105" s="66"/>
@@ -30952,11 +30947,11 @@
       </c>
       <c r="AL105" s="2"/>
       <c r="AM105" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>R-SH_Att_ELC_HPN3-E</v>
       </c>
       <c r="AN105" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH - E rated dwelling</v>
       </c>
       <c r="AO105" s="100" t="s">
@@ -31016,19 +31011,19 @@
       </c>
       <c r="U106" s="58"/>
       <c r="V106" s="40">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>13.828571428571429</v>
       </c>
       <c r="W106" s="29">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>13.828571428571429</v>
       </c>
       <c r="X106" s="29">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>12.445714285714285</v>
       </c>
       <c r="Y106" s="58">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>12.445714285714285</v>
       </c>
       <c r="Z106" s="62">
@@ -31042,7 +31037,7 @@
       <c r="AE106" s="71"/>
       <c r="AF106" s="42"/>
       <c r="AG106" s="62">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.220752</v>
       </c>
       <c r="AH106" s="65"/>
@@ -31054,11 +31049,11 @@
       </c>
       <c r="AL106" s="2"/>
       <c r="AM106" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>R-SH_Att_ELC_HPN3-F</v>
       </c>
       <c r="AN106" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH - F rated dwelling</v>
       </c>
       <c r="AO106" s="100" t="s">
@@ -31118,19 +31113,19 @@
       </c>
       <c r="U107" s="57"/>
       <c r="V107" s="22">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>15.74215630620856</v>
       </c>
       <c r="W107" s="23">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>15.74215630620856</v>
       </c>
       <c r="X107" s="23">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>14.359299163351416</v>
       </c>
       <c r="Y107" s="57">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>14.359299163351416</v>
       </c>
       <c r="Z107" s="63">
@@ -31144,7 +31139,7 @@
       <c r="AE107" s="72"/>
       <c r="AF107" s="44"/>
       <c r="AG107" s="63">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.220752</v>
       </c>
       <c r="AH107" s="66"/>
@@ -31156,11 +31151,11 @@
       </c>
       <c r="AL107" s="2"/>
       <c r="AM107" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>R-SH_Att_ELC_HPN3-G</v>
       </c>
       <c r="AN107" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH - G rated dwelling</v>
       </c>
       <c r="AO107" s="100" t="s">
@@ -31220,19 +31215,19 @@
       </c>
       <c r="U108" s="58"/>
       <c r="V108" s="40">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>15.9813544159132</v>
       </c>
       <c r="W108" s="29">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>15.9813544159132</v>
       </c>
       <c r="X108" s="29">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>14.59849727305606</v>
       </c>
       <c r="Y108" s="58">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>14.59849727305606</v>
       </c>
       <c r="Z108" s="62">
@@ -31246,7 +31241,7 @@
       <c r="AE108" s="71"/>
       <c r="AF108" s="42"/>
       <c r="AG108" s="62">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.220752</v>
       </c>
       <c r="AH108" s="65"/>
@@ -31258,11 +31253,11 @@
       </c>
       <c r="AL108" s="2"/>
       <c r="AM108" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>R-HC_Att_ELC_HPN2-AB</v>
       </c>
       <c r="AN108" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC - AB rated dwelling</v>
       </c>
       <c r="AO108" s="100" t="s">
@@ -31322,19 +31317,19 @@
       </c>
       <c r="U109" s="59"/>
       <c r="V109" s="246">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>16.22055252561784</v>
       </c>
       <c r="W109" s="26">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>16.22055252561784</v>
       </c>
       <c r="X109" s="26">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>14.837695382760698</v>
       </c>
       <c r="Y109" s="59">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>14.837695382760698</v>
       </c>
       <c r="Z109" s="64">
@@ -31348,7 +31343,7 @@
       <c r="AE109" s="515"/>
       <c r="AF109" s="49"/>
       <c r="AG109" s="64">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.220752</v>
       </c>
       <c r="AH109" s="67"/>
@@ -31360,11 +31355,11 @@
       </c>
       <c r="AL109" s="2"/>
       <c r="AM109" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>R-HC_Att_ELC_HPN2-C</v>
       </c>
       <c r="AN109" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC - C rated dwelling</v>
       </c>
       <c r="AO109" s="100" t="s">
@@ -31412,20 +31407,20 @@
         <v>1.5</v>
       </c>
       <c r="L110" s="19">
-        <f>JRC_Data!AC20/JRC_Data!$AC$16</f>
-        <v>1.0999999999999999</v>
+        <f>H110*0.9</f>
+        <v>0.98999999999999988</v>
       </c>
       <c r="M110" s="20">
-        <f>JRC_Data!AD20/JRC_Data!$AC$16</f>
-        <v>1.1666666666666667</v>
+        <f t="shared" ref="M110:O115" si="92">I110*0.9</f>
+        <v>1.05</v>
       </c>
       <c r="N110" s="20">
-        <f>JRC_Data!AE20/JRC_Data!$AC$16</f>
-        <v>1.3333333333333333</v>
+        <f t="shared" si="92"/>
+        <v>1.2</v>
       </c>
       <c r="O110" s="56">
-        <f>JRC_Data!AF20/JRC_Data!$AC$16</f>
-        <v>1.5</v>
+        <f t="shared" si="92"/>
+        <v>1.35</v>
       </c>
       <c r="P110" s="40"/>
       <c r="Q110" s="29"/>
@@ -31474,11 +31469,11 @@
       </c>
       <c r="AL110" s="2"/>
       <c r="AM110" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>R-HC_Att_ELC_HPN2-D</v>
       </c>
       <c r="AN110" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC - D rated dwelling</v>
       </c>
       <c r="AO110" s="100" t="s">
@@ -31526,20 +31521,20 @@
         <v>1.5</v>
       </c>
       <c r="L111" s="22">
-        <f>JRC_Data!AC20/JRC_Data!$AC$16</f>
-        <v>1.0999999999999999</v>
+        <f t="shared" ref="L111:L115" si="93">H111*0.9</f>
+        <v>0.98999999999999988</v>
       </c>
       <c r="M111" s="23">
-        <f>JRC_Data!AD20/JRC_Data!$AC$16</f>
-        <v>1.1666666666666667</v>
+        <f t="shared" si="92"/>
+        <v>1.05</v>
       </c>
       <c r="N111" s="23">
-        <f>JRC_Data!AE20/JRC_Data!$AC$16</f>
-        <v>1.3333333333333333</v>
+        <f t="shared" si="92"/>
+        <v>1.2</v>
       </c>
       <c r="O111" s="57">
-        <f>JRC_Data!AF20/JRC_Data!$AC$16</f>
-        <v>1.5</v>
+        <f t="shared" si="92"/>
+        <v>1.35</v>
       </c>
       <c r="P111" s="22"/>
       <c r="Q111" s="23"/>
@@ -31550,19 +31545,19 @@
       </c>
       <c r="U111" s="23"/>
       <c r="V111" s="22">
-        <f t="shared" ref="V111:Y115" si="88">V21/$V$20*$V$110</f>
+        <f t="shared" ref="V111:Y115" si="94">V21/$V$20*$V$110</f>
         <v>14</v>
       </c>
       <c r="W111" s="23">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>14</v>
       </c>
       <c r="X111" s="23">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>12.599999999999998</v>
       </c>
       <c r="Y111" s="57">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>12.599999999999998</v>
       </c>
       <c r="Z111" s="63">
@@ -31576,7 +31571,7 @@
       <c r="AE111" s="72"/>
       <c r="AF111" s="44"/>
       <c r="AG111" s="63">
-        <f t="shared" ref="AG111:AG115" si="89">31.536*(AJ111/1000)</f>
+        <f t="shared" ref="AG111:AG115" si="95">31.536*(AJ111/1000)</f>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH111" s="66"/>
@@ -31588,11 +31583,11 @@
       </c>
       <c r="AL111" s="2"/>
       <c r="AM111" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>R-HC_Att_ELC_HPN2-E</v>
       </c>
       <c r="AN111" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC - E rated dwelling</v>
       </c>
       <c r="AO111" s="100" t="s">
@@ -31640,20 +31635,20 @@
         <v>1.5</v>
       </c>
       <c r="L112" s="40">
-        <f>JRC_Data!AC20/JRC_Data!$AC$16</f>
-        <v>1.0999999999999999</v>
+        <f t="shared" si="93"/>
+        <v>0.98999999999999988</v>
       </c>
       <c r="M112" s="29">
-        <f>JRC_Data!AD20/JRC_Data!$AC$16</f>
-        <v>1.1666666666666667</v>
+        <f t="shared" si="92"/>
+        <v>1.05</v>
       </c>
       <c r="N112" s="29">
-        <f>JRC_Data!AE20/JRC_Data!$AC$16</f>
-        <v>1.3333333333333333</v>
+        <f t="shared" si="92"/>
+        <v>1.2</v>
       </c>
       <c r="O112" s="58">
-        <f>JRC_Data!AF20/JRC_Data!$AC$16</f>
-        <v>1.5</v>
+        <f t="shared" si="92"/>
+        <v>1.35</v>
       </c>
       <c r="P112" s="40"/>
       <c r="Q112" s="29"/>
@@ -31664,19 +31659,19 @@
       </c>
       <c r="U112" s="29"/>
       <c r="V112" s="40">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>14</v>
       </c>
       <c r="W112" s="29">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>14</v>
       </c>
       <c r="X112" s="29">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>12.599999999999998</v>
       </c>
       <c r="Y112" s="58">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>12.599999999999998</v>
       </c>
       <c r="Z112" s="62">
@@ -31690,7 +31685,7 @@
       <c r="AE112" s="71"/>
       <c r="AF112" s="42"/>
       <c r="AG112" s="62">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH112" s="65"/>
@@ -31702,11 +31697,11 @@
       </c>
       <c r="AL112" s="2"/>
       <c r="AM112" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>R-HC_Att_ELC_HPN2-F</v>
       </c>
       <c r="AN112" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC - F rated dwelling</v>
       </c>
       <c r="AO112" s="100" t="s">
@@ -31754,20 +31749,20 @@
         <v>1.5</v>
       </c>
       <c r="L113" s="22">
-        <f>JRC_Data!AC20/JRC_Data!$AC$16</f>
-        <v>1.0999999999999999</v>
+        <f t="shared" si="93"/>
+        <v>0.98999999999999988</v>
       </c>
       <c r="M113" s="23">
-        <f>JRC_Data!AD20/JRC_Data!$AC$16</f>
-        <v>1.1666666666666667</v>
+        <f t="shared" si="92"/>
+        <v>1.05</v>
       </c>
       <c r="N113" s="23">
-        <f>JRC_Data!AE20/JRC_Data!$AC$16</f>
-        <v>1.3333333333333333</v>
+        <f t="shared" si="92"/>
+        <v>1.2</v>
       </c>
       <c r="O113" s="57">
-        <f>JRC_Data!AF20/JRC_Data!$AC$16</f>
-        <v>1.5</v>
+        <f t="shared" si="92"/>
+        <v>1.35</v>
       </c>
       <c r="P113" s="22"/>
       <c r="Q113" s="23"/>
@@ -31778,19 +31773,19 @@
       </c>
       <c r="U113" s="23"/>
       <c r="V113" s="22">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>15.937307004219409</v>
       </c>
       <c r="W113" s="23">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>15.937307004219409</v>
       </c>
       <c r="X113" s="23">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>14.537307004219407</v>
       </c>
       <c r="Y113" s="57">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>14.537307004219407</v>
       </c>
       <c r="Z113" s="63">
@@ -31804,7 +31799,7 @@
       <c r="AE113" s="72"/>
       <c r="AF113" s="44"/>
       <c r="AG113" s="63">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH113" s="66"/>
@@ -31816,11 +31811,11 @@
       </c>
       <c r="AL113" s="2"/>
       <c r="AM113" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>R-HC_Att_ELC_HPN2-G</v>
       </c>
       <c r="AN113" s="206" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC - G rated dwelling</v>
       </c>
       <c r="AO113" s="100" t="s">
@@ -31868,20 +31863,20 @@
         <v>1.5</v>
       </c>
       <c r="L114" s="40">
-        <f>JRC_Data!AC20/JRC_Data!$AC$16</f>
-        <v>1.0999999999999999</v>
+        <f t="shared" si="93"/>
+        <v>0.98999999999999988</v>
       </c>
       <c r="M114" s="29">
-        <f>JRC_Data!AD20/JRC_Data!$AC$16</f>
-        <v>1.1666666666666667</v>
+        <f t="shared" si="92"/>
+        <v>1.05</v>
       </c>
       <c r="N114" s="29">
-        <f>JRC_Data!AE20/JRC_Data!$AC$16</f>
-        <v>1.3333333333333333</v>
+        <f t="shared" si="92"/>
+        <v>1.2</v>
       </c>
       <c r="O114" s="58">
-        <f>JRC_Data!AF20/JRC_Data!$AC$16</f>
-        <v>1.5</v>
+        <f t="shared" si="92"/>
+        <v>1.35</v>
       </c>
       <c r="P114" s="40"/>
       <c r="Q114" s="29"/>
@@ -31892,19 +31887,19 @@
       </c>
       <c r="U114" s="29"/>
       <c r="V114" s="40">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>16.179470379746835</v>
       </c>
       <c r="W114" s="29">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>16.179470379746835</v>
       </c>
       <c r="X114" s="29">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>14.779470379746837</v>
       </c>
       <c r="Y114" s="58">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>14.779470379746837</v>
       </c>
       <c r="Z114" s="62">
@@ -31918,7 +31913,7 @@
       <c r="AE114" s="71"/>
       <c r="AF114" s="42"/>
       <c r="AG114" s="62">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH114" s="65"/>
@@ -31983,20 +31978,20 @@
         <v>1.5</v>
       </c>
       <c r="L115" s="246">
-        <f>JRC_Data!AC20/JRC_Data!$AC$16</f>
-        <v>1.0999999999999999</v>
+        <f t="shared" si="93"/>
+        <v>0.98999999999999988</v>
       </c>
       <c r="M115" s="26">
-        <f>JRC_Data!AD20/JRC_Data!$AC$16</f>
-        <v>1.1666666666666667</v>
+        <f t="shared" si="92"/>
+        <v>1.05</v>
       </c>
       <c r="N115" s="26">
-        <f>JRC_Data!AE20/JRC_Data!$AC$16</f>
-        <v>1.3333333333333333</v>
+        <f t="shared" si="92"/>
+        <v>1.2</v>
       </c>
       <c r="O115" s="59">
-        <f>JRC_Data!AF20/JRC_Data!$AC$16</f>
-        <v>1.5</v>
+        <f t="shared" si="92"/>
+        <v>1.35</v>
       </c>
       <c r="P115" s="246"/>
       <c r="Q115" s="26"/>
@@ -32007,19 +32002,19 @@
       </c>
       <c r="U115" s="26"/>
       <c r="V115" s="246">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>16.421633755274261</v>
       </c>
       <c r="W115" s="26">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>16.421633755274261</v>
       </c>
       <c r="X115" s="26">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>15.021633755274259</v>
       </c>
       <c r="Y115" s="59">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>15.021633755274259</v>
       </c>
       <c r="Z115" s="64">
@@ -32033,7 +32028,7 @@
       <c r="AE115" s="515"/>
       <c r="AF115" s="49"/>
       <c r="AG115" s="64">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>0.26805600000000002</v>
       </c>
       <c r="AH115" s="67"/>
@@ -32045,11 +32040,11 @@
       </c>
       <c r="AL115" s="2"/>
       <c r="AM115" s="206" t="str">
-        <f t="shared" ref="AM115:AN115" si="90">C118</f>
+        <f t="shared" ref="AM115:AN115" si="96">C118</f>
         <v>R-SW_Att_GAS_HPN2</v>
       </c>
       <c r="AN115" s="206" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>Residential Gas Engine Heat Pump - Air to Water - SH + WH</v>
       </c>
       <c r="AO115" s="100" t="s">
@@ -32164,15 +32159,15 @@
         <v>1.1666666666666667</v>
       </c>
       <c r="Q117" s="20">
-        <f t="shared" ref="Q117:Q118" si="91">I117*0.7</f>
+        <f t="shared" ref="Q117:Q118" si="97">I117*0.7</f>
         <v>1.2530864197530862</v>
       </c>
       <c r="R117" s="20">
-        <f t="shared" ref="R117:R118" si="92">J117*0.7</f>
+        <f t="shared" ref="R117:R118" si="98">J117*0.7</f>
         <v>1.4691358024691357</v>
       </c>
       <c r="S117" s="56">
-        <f t="shared" ref="S117:S118" si="93">K117*0.7</f>
+        <f t="shared" ref="S117:S118" si="99">K117*0.7</f>
         <v>1.4691358024691357</v>
       </c>
       <c r="T117" s="88">
@@ -32206,7 +32201,7 @@
       <c r="AE117" s="84"/>
       <c r="AF117" s="84"/>
       <c r="AG117" s="84">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH117" s="87"/>
@@ -32279,15 +32274,15 @@
         <v>1.1666666666666665</v>
       </c>
       <c r="Q118" s="26">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>1.2055555555555555</v>
       </c>
       <c r="R118" s="26">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>1.2055555555555555</v>
       </c>
       <c r="S118" s="59">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>1.2444444444444445</v>
       </c>
       <c r="T118" s="27">
@@ -32333,7 +32328,7 @@
       </c>
       <c r="AL118" s="2"/>
       <c r="AM118" s="206" t="str">
-        <f t="shared" ref="AM118" si="94">C123</f>
+        <f t="shared" ref="AM118" si="100">C123</f>
         <v>R-SW_Att_HET_N2</v>
       </c>
       <c r="AN118" s="206" t="str">
@@ -32450,15 +32445,15 @@
         <v>2.4395000000000002</v>
       </c>
       <c r="Q120" s="26">
-        <f t="shared" ref="Q120" si="95">I120*0.7</f>
+        <f t="shared" ref="Q120" si="101">I120*0.7</f>
         <v>2.7055000000000002</v>
       </c>
       <c r="R120" s="26">
-        <f t="shared" ref="R120" si="96">J120*0.7</f>
+        <f t="shared" ref="R120" si="102">J120*0.7</f>
         <v>2.9050000000000002</v>
       </c>
       <c r="S120" s="59">
-        <f t="shared" ref="S120" si="97">K120*0.7</f>
+        <f t="shared" ref="S120" si="103">K120*0.7</f>
         <v>2.9050000000000002</v>
       </c>
       <c r="T120" s="3">
@@ -32498,7 +32493,7 @@
         <v>5</v>
       </c>
       <c r="AG120" s="81">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.45017639999999998</v>
       </c>
       <c r="AH120" s="82"/>
@@ -32511,11 +32506,11 @@
       </c>
       <c r="AL120" s="2"/>
       <c r="AM120" s="206" t="str">
-        <f t="shared" ref="AM120" si="98">C126</f>
+        <f t="shared" ref="AM120" si="104">C126</f>
         <v>R-WH_Att_SOL_N1</v>
       </c>
       <c r="AN120" s="206" t="str">
-        <f t="shared" ref="AN120" si="99">D126</f>
+        <f t="shared" ref="AN120" si="105">D126</f>
         <v xml:space="preserve">Residential Solar Water Heater </v>
       </c>
       <c r="AO120" s="100" t="s">
@@ -32618,16 +32613,16 @@
       <c r="N122" s="47"/>
       <c r="O122" s="48"/>
       <c r="P122" s="240">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Q122" s="241">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="R122" s="241">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S122" s="242">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="T122" s="52">
         <v>20</v>
@@ -32660,7 +32655,7 @@
       <c r="AE122" s="84"/>
       <c r="AF122" s="84"/>
       <c r="AG122" s="84">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH122" s="87"/>
@@ -32710,16 +32705,16 @@
       <c r="N123" s="50"/>
       <c r="O123" s="51"/>
       <c r="P123" s="247">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Q123" s="248">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="R123" s="248">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S123" s="249">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="T123" s="55">
         <v>20</v>
@@ -32752,7 +32747,7 @@
       <c r="AE123" s="64"/>
       <c r="AF123" s="64"/>
       <c r="AG123" s="64">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.7884000000000001</v>
       </c>
       <c r="AH123" s="67"/>
@@ -32839,16 +32834,16 @@
       <c r="N125" s="47"/>
       <c r="O125" s="48"/>
       <c r="P125" s="240">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Q125" s="241">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="R125" s="241">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S125" s="242">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="T125" s="52">
         <v>20</v>
@@ -32881,7 +32876,7 @@
       <c r="AE125" s="84"/>
       <c r="AF125" s="84"/>
       <c r="AG125" s="84">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.18921600000000002</v>
       </c>
       <c r="AH125" s="87"/>
@@ -32967,7 +32962,7 @@
       <c r="AE126" s="63"/>
       <c r="AF126" s="63"/>
       <c r="AG126" s="63">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.18921600000000002</v>
       </c>
       <c r="AH126" s="67"/>
@@ -33049,18 +33044,18 @@
       <c r="I128" s="110"/>
       <c r="J128" s="110"/>
       <c r="K128" s="110"/>
-      <c r="L128" s="252">
+      <c r="L128" s="643">
         <v>1</v>
       </c>
-      <c r="M128" s="253">
+      <c r="M128" s="644">
         <f>JRC_Data!AD16/JRC_Data!$AC$16</f>
         <v>1.0666666666666667</v>
       </c>
-      <c r="N128" s="253">
+      <c r="N128" s="644">
         <f>JRC_Data!AE16/JRC_Data!$AC$16</f>
         <v>1.2333333333333334</v>
       </c>
-      <c r="O128" s="253">
+      <c r="O128" s="644">
         <f>JRC_Data!AF16/JRC_Data!$AC$16</f>
         <v>1.3333333333333333</v>
       </c>
@@ -33099,7 +33094,7 @@
       <c r="AE128" s="90"/>
       <c r="AF128" s="90"/>
       <c r="AG128" s="90">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.18921600000000002</v>
       </c>
       <c r="AH128" s="89"/>
@@ -33290,34 +33285,34 @@
       <c r="G135" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H135" s="617" t="s">
+      <c r="H135" s="611" t="s">
         <v>82</v>
       </c>
-      <c r="I135" s="618"/>
-      <c r="J135" s="618"/>
-      <c r="K135" s="619"/>
-      <c r="L135" s="617" t="s">
+      <c r="I135" s="612"/>
+      <c r="J135" s="612"/>
+      <c r="K135" s="613"/>
+      <c r="L135" s="611" t="s">
         <v>83</v>
       </c>
-      <c r="M135" s="618"/>
-      <c r="N135" s="618"/>
-      <c r="O135" s="619"/>
-      <c r="P135" s="617" t="s">
+      <c r="M135" s="612"/>
+      <c r="N135" s="612"/>
+      <c r="O135" s="613"/>
+      <c r="P135" s="611" t="s">
         <v>84</v>
       </c>
-      <c r="Q135" s="618"/>
-      <c r="R135" s="618"/>
-      <c r="S135" s="619"/>
-      <c r="T135" s="617" t="s">
+      <c r="Q135" s="612"/>
+      <c r="R135" s="612"/>
+      <c r="S135" s="613"/>
+      <c r="T135" s="611" t="s">
         <v>85</v>
       </c>
-      <c r="U135" s="619"/>
-      <c r="V135" s="620" t="s">
+      <c r="U135" s="613"/>
+      <c r="V135" s="605" t="s">
         <v>86</v>
       </c>
-      <c r="W135" s="621"/>
-      <c r="X135" s="621"/>
-      <c r="Y135" s="622"/>
+      <c r="W135" s="606"/>
+      <c r="X135" s="606"/>
+      <c r="Y135" s="607"/>
       <c r="Z135" s="60"/>
       <c r="AA135" s="60"/>
       <c r="AB135" s="68" t="s">
@@ -33406,11 +33401,11 @@
         <v>31</v>
       </c>
       <c r="AM136" s="99" t="str">
-        <f t="shared" ref="AM136:AM147" si="100">C138</f>
+        <f t="shared" ref="AM136:AM147" si="106">C138</f>
         <v>R-SH_Det_KER_N1</v>
       </c>
       <c r="AN136" s="99" t="str">
-        <f t="shared" ref="AN136:AN147" si="101">D138</f>
+        <f t="shared" ref="AN136:AN147" si="107">D138</f>
         <v>Residential Kerosene Heating Oil - New 1 SH</v>
       </c>
       <c r="AO136" s="100" t="s">
@@ -33432,24 +33427,24 @@
       <c r="E137" s="38"/>
       <c r="F137" s="38"/>
       <c r="G137" s="39"/>
-      <c r="H137" s="611" t="s">
+      <c r="H137" s="608" t="s">
         <v>34</v>
       </c>
-      <c r="I137" s="612"/>
-      <c r="J137" s="612"/>
-      <c r="K137" s="613"/>
-      <c r="L137" s="612" t="s">
+      <c r="I137" s="609"/>
+      <c r="J137" s="609"/>
+      <c r="K137" s="610"/>
+      <c r="L137" s="609" t="s">
         <v>34</v>
       </c>
-      <c r="M137" s="612"/>
-      <c r="N137" s="612"/>
-      <c r="O137" s="613"/>
-      <c r="P137" s="611" t="s">
+      <c r="M137" s="609"/>
+      <c r="N137" s="609"/>
+      <c r="O137" s="610"/>
+      <c r="P137" s="608" t="s">
         <v>34</v>
       </c>
-      <c r="Q137" s="612"/>
-      <c r="R137" s="612"/>
-      <c r="S137" s="613"/>
+      <c r="Q137" s="609"/>
+      <c r="R137" s="609"/>
+      <c r="S137" s="610"/>
       <c r="T137" s="614" t="s">
         <v>68</v>
       </c>
@@ -33491,11 +33486,11 @@
       </c>
       <c r="AL137" s="100"/>
       <c r="AM137" s="99" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>R-SW_Det_KER_N1</v>
       </c>
       <c r="AN137" s="99" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>Residential Kerosene Heating Oil - New 2 SH + WH</v>
       </c>
       <c r="AO137" s="100" t="s">
@@ -33524,17 +33519,17 @@
       <c r="G138" s="509" t="s">
         <v>724</v>
       </c>
-      <c r="H138" s="19">
-        <v>1</v>
-      </c>
-      <c r="I138" s="20">
-        <v>1</v>
-      </c>
-      <c r="J138" s="20">
-        <v>1</v>
-      </c>
-      <c r="K138" s="56">
-        <v>1</v>
+      <c r="H138" s="40">
+        <v>1.05</v>
+      </c>
+      <c r="I138" s="29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J138" s="29">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K138" s="58">
+        <v>1.2</v>
       </c>
       <c r="L138" s="46"/>
       <c r="M138" s="47"/>
@@ -33553,15 +33548,15 @@
         <v>4.5825000000000005</v>
       </c>
       <c r="W138" s="373">
-        <f t="shared" ref="W138:Y138" si="102">W142*1.3</f>
+        <f t="shared" ref="W138:Y138" si="108">W142*1.3</f>
         <v>4.5825000000000005</v>
       </c>
       <c r="X138" s="373">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>4.5825000000000005</v>
       </c>
       <c r="Y138" s="373">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>4.5825000000000005</v>
       </c>
       <c r="Z138" s="373">
@@ -33574,7 +33569,7 @@
       <c r="AE138" s="71"/>
       <c r="AF138" s="71"/>
       <c r="AG138" s="62">
-        <f t="shared" ref="AG138:AG201" si="103">31.536*(AJ138/1000)</f>
+        <f t="shared" ref="AG138:AG201" si="109">31.536*(AJ138/1000)</f>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH138" s="65"/>
@@ -33586,11 +33581,11 @@
       </c>
       <c r="AL138" s="100"/>
       <c r="AM138" s="99" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>R-SW_Det_KER_N2</v>
       </c>
       <c r="AN138" s="99" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Solar</v>
       </c>
       <c r="AO138" s="100" t="s">
@@ -33620,16 +33615,16 @@
         <v>725</v>
       </c>
       <c r="H139" s="22">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="I139" s="23">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J139" s="23">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K139" s="57">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L139" s="44"/>
       <c r="M139" s="32"/>
@@ -33637,19 +33632,19 @@
       <c r="O139" s="45"/>
       <c r="P139" s="22">
         <f>H139*0.7</f>
-        <v>0.7</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="Q139" s="23">
-        <f t="shared" ref="Q139:Q141" si="104">I139*0.7</f>
-        <v>0.7</v>
+        <f t="shared" ref="Q139:Q141" si="110">I139*0.7</f>
+        <v>0.77</v>
       </c>
       <c r="R139" s="23">
-        <f t="shared" ref="R139:R141" si="105">J139*0.7</f>
-        <v>0.7</v>
+        <f t="shared" ref="R139:R141" si="111">J139*0.7</f>
+        <v>0.80499999999999994</v>
       </c>
       <c r="S139" s="57">
-        <f t="shared" ref="S139:S141" si="106">K139*0.7</f>
-        <v>0.7</v>
+        <f t="shared" ref="S139:S141" si="112">K139*0.7</f>
+        <v>0.84</v>
       </c>
       <c r="T139" s="53">
         <v>20</v>
@@ -33660,15 +33655,15 @@
         <v>4.9452075289575284</v>
       </c>
       <c r="W139" s="374">
-        <f t="shared" ref="W139:Y139" si="107">W143*1.3</f>
+        <f t="shared" ref="W139:Y139" si="113">W143*1.3</f>
         <v>4.9452075289575284</v>
       </c>
       <c r="X139" s="374">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>4.9452075289575284</v>
       </c>
       <c r="Y139" s="374">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>4.9452075289575284</v>
       </c>
       <c r="Z139" s="374">
@@ -33681,7 +33676,7 @@
       <c r="AE139" s="72"/>
       <c r="AF139" s="72"/>
       <c r="AG139" s="63">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH139" s="66"/>
@@ -33693,11 +33688,11 @@
       </c>
       <c r="AL139" s="100"/>
       <c r="AM139" s="99" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>R-SW_Det_KER_N3</v>
       </c>
       <c r="AN139" s="99" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Wood Stove</v>
       </c>
       <c r="AO139" s="101" t="s">
@@ -33725,16 +33720,16 @@
         <v>725</v>
       </c>
       <c r="H140" s="40">
-        <v>1</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="I140" s="29">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="J140" s="29">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K140" s="58">
-        <v>1</v>
+        <v>1.23</v>
       </c>
       <c r="L140" s="42"/>
       <c r="M140" s="31"/>
@@ -33742,19 +33737,19 @@
       <c r="O140" s="43"/>
       <c r="P140" s="40">
         <f>H140*0.7</f>
-        <v>0.7</v>
+        <v>0.79799999999999993</v>
       </c>
       <c r="Q140" s="29">
-        <f t="shared" si="104"/>
-        <v>0.7</v>
+        <f t="shared" si="110"/>
+        <v>0.81899999999999995</v>
       </c>
       <c r="R140" s="29">
-        <f t="shared" si="105"/>
-        <v>0.7</v>
+        <f t="shared" si="111"/>
+        <v>0.84</v>
       </c>
       <c r="S140" s="58">
-        <f t="shared" si="106"/>
-        <v>0.7</v>
+        <f t="shared" si="112"/>
+        <v>0.86099999999999999</v>
       </c>
       <c r="T140" s="54">
         <v>20</v>
@@ -33791,7 +33786,7 @@
         <v>5</v>
       </c>
       <c r="AG140" s="62">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH140" s="65"/>
@@ -33803,11 +33798,11 @@
       </c>
       <c r="AL140" s="100"/>
       <c r="AM140" s="99" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>R-SH_Det_GAS_N1</v>
       </c>
       <c r="AN140" s="99" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>Residential Natural Gas Heating - New 1 SH</v>
       </c>
       <c r="AO140" s="100" t="s">
@@ -33837,16 +33832,16 @@
         <v>725</v>
       </c>
       <c r="H141" s="22">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="I141" s="23">
-        <v>1.0249999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="J141" s="23">
-        <v>1.0249999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K141" s="57">
-        <v>1.0249999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="L141" s="44"/>
       <c r="M141" s="32"/>
@@ -33854,19 +33849,19 @@
       <c r="O141" s="45"/>
       <c r="P141" s="22">
         <f>H141*0.7</f>
-        <v>0.7</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="Q141" s="23">
-        <f t="shared" si="104"/>
-        <v>0.71749999999999992</v>
+        <f t="shared" si="110"/>
+        <v>0.76300000000000001</v>
       </c>
       <c r="R141" s="23">
-        <f t="shared" si="105"/>
-        <v>0.71749999999999992</v>
+        <f t="shared" si="111"/>
+        <v>0.79099999999999993</v>
       </c>
       <c r="S141" s="57">
-        <f t="shared" si="106"/>
-        <v>0.71749999999999992</v>
+        <f t="shared" si="112"/>
+        <v>0.81199999999999994</v>
       </c>
       <c r="T141" s="53">
         <v>20</v>
@@ -33903,7 +33898,7 @@
         <v>5</v>
       </c>
       <c r="AG141" s="63">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH141" s="66"/>
@@ -33915,11 +33910,11 @@
       </c>
       <c r="AL141" s="100"/>
       <c r="AM141" s="99" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>R-SW_Det_GAS_N1</v>
       </c>
       <c r="AN141" s="99" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>Residential Natural Gas Heating - New 2 SH + WH</v>
       </c>
       <c r="AO141" s="100" t="s">
@@ -33949,16 +33944,16 @@
         <v>724</v>
       </c>
       <c r="H142" s="40">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="I142" s="29">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J142" s="29">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K142" s="58">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L142" s="42"/>
       <c r="M142" s="31"/>
@@ -33977,15 +33972,15 @@
         <v>3.5249999999999999</v>
       </c>
       <c r="W142" s="373">
-        <f t="shared" ref="W142:Y142" si="108">3.525</f>
+        <f t="shared" ref="W142:Y142" si="114">3.525</f>
         <v>3.5249999999999999</v>
       </c>
       <c r="X142" s="373">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>3.5249999999999999</v>
       </c>
       <c r="Y142" s="373">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>3.5249999999999999</v>
       </c>
       <c r="Z142" s="373">
@@ -33998,7 +33993,7 @@
       <c r="AE142" s="71"/>
       <c r="AF142" s="71"/>
       <c r="AG142" s="62">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH142" s="65"/>
@@ -34010,11 +34005,11 @@
       </c>
       <c r="AL142" s="100"/>
       <c r="AM142" s="99" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>R-SW_Det_GAS_N2</v>
       </c>
       <c r="AN142" s="99" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>Residential Natural Gas Heating - New 3 SH + WH + Solar</v>
       </c>
       <c r="AO142" s="100" t="s">
@@ -34044,16 +34039,16 @@
         <v>725</v>
       </c>
       <c r="H143" s="22">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="I143" s="23">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J143" s="23">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K143" s="57">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L143" s="44"/>
       <c r="M143" s="32"/>
@@ -34061,19 +34056,19 @@
       <c r="O143" s="45"/>
       <c r="P143" s="22">
         <f>H143*0.7</f>
-        <v>0.7</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="Q143" s="23">
-        <f t="shared" ref="Q143:Q145" si="109">I143*0.7</f>
-        <v>0.7</v>
+        <f t="shared" ref="Q143:Q145" si="115">I143*0.7</f>
+        <v>0.77</v>
       </c>
       <c r="R143" s="23">
-        <f t="shared" ref="R143:R145" si="110">J143*0.7</f>
-        <v>0.7</v>
+        <f t="shared" ref="R143:R145" si="116">J143*0.7</f>
+        <v>0.80499999999999994</v>
       </c>
       <c r="S143" s="57">
-        <f t="shared" ref="S143:S145" si="111">K143*0.7</f>
-        <v>0.7</v>
+        <f t="shared" ref="S143:S145" si="117">K143*0.7</f>
+        <v>0.84</v>
       </c>
       <c r="T143" s="53">
         <v>20</v>
@@ -34105,7 +34100,7 @@
       <c r="AE143" s="72"/>
       <c r="AF143" s="72"/>
       <c r="AG143" s="63">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH143" s="66"/>
@@ -34117,11 +34112,11 @@
       </c>
       <c r="AL143" s="100"/>
       <c r="AM143" s="99" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>R-SW_Det_GAS_N3</v>
       </c>
       <c r="AN143" s="99" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>Residential Natural Gas Heating - New 4 SH + WH + Wood Stove</v>
       </c>
       <c r="AO143" s="100" t="s">
@@ -34151,16 +34146,16 @@
         <v>725</v>
       </c>
       <c r="H144" s="40">
-        <v>1</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="I144" s="29">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="J144" s="29">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K144" s="58">
-        <v>1</v>
+        <v>1.23</v>
       </c>
       <c r="L144" s="42"/>
       <c r="M144" s="31"/>
@@ -34168,19 +34163,19 @@
       <c r="O144" s="43"/>
       <c r="P144" s="40">
         <f>H144*0.7</f>
-        <v>0.7</v>
+        <v>0.79799999999999993</v>
       </c>
       <c r="Q144" s="29">
-        <f t="shared" si="109"/>
-        <v>0.7</v>
+        <f t="shared" si="115"/>
+        <v>0.81899999999999995</v>
       </c>
       <c r="R144" s="29">
-        <f t="shared" si="110"/>
-        <v>0.7</v>
+        <f t="shared" si="116"/>
+        <v>0.84</v>
       </c>
       <c r="S144" s="58">
-        <f t="shared" si="111"/>
-        <v>0.7</v>
+        <f t="shared" si="117"/>
+        <v>0.86099999999999999</v>
       </c>
       <c r="T144" s="54">
         <v>20</v>
@@ -34215,7 +34210,7 @@
         <v>5</v>
       </c>
       <c r="AG144" s="62">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH144" s="65"/>
@@ -34227,11 +34222,11 @@
       </c>
       <c r="AL144" s="100"/>
       <c r="AM144" s="99" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>R-SH_Det_LPG_N1</v>
       </c>
       <c r="AN144" s="99" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>Residential Liquid Petroleum Gas- New 1 SH</v>
       </c>
       <c r="AO144" s="100" t="s">
@@ -34261,16 +34256,16 @@
         <v>725</v>
       </c>
       <c r="H145" s="22">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="I145" s="23">
-        <v>1.0249999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="J145" s="23">
-        <v>1.0249999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K145" s="57">
-        <v>1.0249999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="L145" s="44"/>
       <c r="M145" s="32"/>
@@ -34278,19 +34273,19 @@
       <c r="O145" s="45"/>
       <c r="P145" s="22">
         <f>H145*0.7</f>
-        <v>0.7</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="Q145" s="23">
-        <f t="shared" si="109"/>
-        <v>0.71749999999999992</v>
+        <f t="shared" si="115"/>
+        <v>0.76300000000000001</v>
       </c>
       <c r="R145" s="23">
-        <f t="shared" si="110"/>
-        <v>0.71749999999999992</v>
+        <f t="shared" si="116"/>
+        <v>0.79099999999999993</v>
       </c>
       <c r="S145" s="57">
-        <f t="shared" si="111"/>
-        <v>0.71749999999999992</v>
+        <f t="shared" si="117"/>
+        <v>0.81199999999999994</v>
       </c>
       <c r="T145" s="53">
         <v>20</v>
@@ -34327,7 +34322,7 @@
         <v>5</v>
       </c>
       <c r="AG145" s="63">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH145" s="66"/>
@@ -34339,11 +34334,11 @@
       </c>
       <c r="AL145" s="100"/>
       <c r="AM145" s="99" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>R-SW_Det_LPG_N1</v>
       </c>
       <c r="AN145" s="99" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>Residential Liquid Petroleum Gas- New 2 SH + WH</v>
       </c>
       <c r="AO145" s="100" t="s">
@@ -34373,16 +34368,16 @@
         <v>724</v>
       </c>
       <c r="H146" s="40">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="I146" s="29">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J146" s="29">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K146" s="58">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L146" s="42"/>
       <c r="M146" s="31"/>
@@ -34397,19 +34392,19 @@
       </c>
       <c r="U146" s="41"/>
       <c r="V146" s="373">
-        <f t="shared" ref="V146:Y147" si="112">V142+0.3</f>
+        <f t="shared" ref="V146:Y147" si="118">V142+0.3</f>
         <v>3.8249999999999997</v>
       </c>
       <c r="W146" s="373">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>3.8249999999999997</v>
       </c>
       <c r="X146" s="373">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>3.8249999999999997</v>
       </c>
       <c r="Y146" s="373">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>3.8249999999999997</v>
       </c>
       <c r="Z146" s="373">
@@ -34423,7 +34418,7 @@
       <c r="AE146" s="71"/>
       <c r="AF146" s="71"/>
       <c r="AG146" s="62">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH146" s="65"/>
@@ -34435,11 +34430,11 @@
       </c>
       <c r="AL146" s="100"/>
       <c r="AM146" s="206" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>R-SH_Det_WOO_N1</v>
       </c>
       <c r="AN146" s="206" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>Residential Biomass Boiler - New 1 SH</v>
       </c>
       <c r="AO146" s="100" t="s">
@@ -34469,16 +34464,16 @@
         <v>725</v>
       </c>
       <c r="H147" s="22">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="I147" s="23">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J147" s="23">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K147" s="57">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L147" s="44"/>
       <c r="M147" s="32"/>
@@ -34486,38 +34481,38 @@
       <c r="O147" s="45"/>
       <c r="P147" s="22">
         <f>H147*0.7</f>
-        <v>0.7</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="Q147" s="23">
-        <f t="shared" ref="Q147" si="113">I147*0.7</f>
-        <v>0.7</v>
+        <f t="shared" ref="Q147" si="119">I147*0.7</f>
+        <v>0.77</v>
       </c>
       <c r="R147" s="23">
-        <f t="shared" ref="R147" si="114">J147*0.7</f>
-        <v>0.7</v>
+        <f t="shared" ref="R147" si="120">J147*0.7</f>
+        <v>0.80499999999999994</v>
       </c>
       <c r="S147" s="57">
-        <f t="shared" ref="S147" si="115">K147*0.7</f>
-        <v>0.7</v>
+        <f t="shared" ref="S147" si="121">K147*0.7</f>
+        <v>0.84</v>
       </c>
       <c r="T147" s="53">
         <v>20</v>
       </c>
       <c r="U147" s="25"/>
       <c r="V147" s="374">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>4.1040057915057915</v>
       </c>
       <c r="W147" s="374">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>4.1040057915057915</v>
       </c>
       <c r="X147" s="374">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>4.1040057915057915</v>
       </c>
       <c r="Y147" s="374">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>4.1040057915057915</v>
       </c>
       <c r="Z147" s="373">
@@ -34531,7 +34526,7 @@
       <c r="AE147" s="72"/>
       <c r="AF147" s="72"/>
       <c r="AG147" s="63">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH147" s="66"/>
@@ -34543,11 +34538,11 @@
       </c>
       <c r="AL147" s="100"/>
       <c r="AM147" s="206" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>R-SW_Det_WOO_N1</v>
       </c>
       <c r="AN147" s="206" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>Residential Biomass Boiler - New 2 SH + WH</v>
       </c>
       <c r="AO147" s="100" t="s">
@@ -34578,16 +34573,16 @@
         <v>724</v>
       </c>
       <c r="H148" s="40">
-        <v>1</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="I148" s="29">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="J148" s="29">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K148" s="58">
-        <v>1</v>
+        <v>1.23</v>
       </c>
       <c r="L148" s="42"/>
       <c r="M148" s="31"/>
@@ -34626,7 +34621,7 @@
       <c r="AE148" s="71"/>
       <c r="AF148" s="71"/>
       <c r="AG148" s="62">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH148" s="65"/>
@@ -34670,36 +34665,36 @@
         <v>725</v>
       </c>
       <c r="H149" s="22">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="I149" s="23">
-        <v>1</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="J149" s="23">
-        <v>1</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K149" s="57">
-        <v>1</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="L149" s="44"/>
       <c r="M149" s="32"/>
       <c r="N149" s="32"/>
       <c r="O149" s="45"/>
       <c r="P149" s="22">
-        <f t="shared" ref="P149:S149" si="116">H149*0.7</f>
-        <v>0.7</v>
+        <f t="shared" ref="P149:S149" si="122">H149*0.7</f>
+        <v>0.72799999999999998</v>
       </c>
       <c r="Q149" s="23">
-        <f t="shared" si="116"/>
-        <v>0.7</v>
+        <f t="shared" si="122"/>
+        <v>0.76300000000000001</v>
       </c>
       <c r="R149" s="23">
-        <f t="shared" si="116"/>
-        <v>0.7</v>
+        <f t="shared" si="122"/>
+        <v>0.79099999999999993</v>
       </c>
       <c r="S149" s="57">
-        <f t="shared" si="116"/>
-        <v>0.7</v>
+        <f t="shared" si="122"/>
+        <v>0.81199999999999994</v>
       </c>
       <c r="T149" s="53">
         <v>20</v>
@@ -34731,7 +34726,7 @@
       <c r="AE149" s="72"/>
       <c r="AF149" s="72"/>
       <c r="AG149" s="63">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH149" s="66"/>
@@ -34776,13 +34771,13 @@
       <c r="H150" s="40">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I150" s="40">
+      <c r="I150" s="29">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J150" s="40">
+      <c r="J150" s="29">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K150" s="40">
+      <c r="K150" s="58">
         <v>0.55000000000000004</v>
       </c>
       <c r="L150" s="44"/>
@@ -34823,7 +34818,7 @@
       <c r="AE150" s="72"/>
       <c r="AF150" s="72"/>
       <c r="AG150" s="63">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH150" s="66"/>
@@ -34868,16 +34863,16 @@
       <c r="G151" s="57" t="s">
         <v>725</v>
       </c>
-      <c r="H151" s="40">
+      <c r="H151" s="22">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I151" s="40">
+      <c r="I151" s="23">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J151" s="40">
+      <c r="J151" s="23">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K151" s="40">
+      <c r="K151" s="57">
         <v>0.55000000000000004</v>
       </c>
       <c r="L151" s="44"/>
@@ -34885,19 +34880,19 @@
       <c r="N151" s="32"/>
       <c r="O151" s="45"/>
       <c r="P151" s="22">
-        <f t="shared" ref="P151:P153" si="117">H151*0.7</f>
+        <f t="shared" ref="P151:P153" si="123">H151*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="Q151" s="23">
-        <f t="shared" ref="Q151:Q153" si="118">I151*0.7</f>
+        <f t="shared" ref="Q151:Q153" si="124">I151*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="R151" s="23">
-        <f t="shared" ref="R151:R153" si="119">J151*0.7</f>
+        <f t="shared" ref="R151:R153" si="125">J151*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="S151" s="57">
-        <f t="shared" ref="S151:S153" si="120">K151*0.7</f>
+        <f t="shared" ref="S151:S153" si="126">K151*0.7</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="T151" s="53">
@@ -34930,7 +34925,7 @@
       <c r="AE151" s="72"/>
       <c r="AF151" s="72"/>
       <c r="AG151" s="63">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH151" s="66"/>
@@ -34975,16 +34970,16 @@
         <v>724</v>
       </c>
       <c r="H152" s="40">
-        <v>0.82</v>
-      </c>
-      <c r="I152" s="40">
-        <v>0.82</v>
-      </c>
-      <c r="J152" s="40">
-        <v>0.82</v>
-      </c>
-      <c r="K152" s="40">
-        <v>0.82</v>
+        <v>1.05</v>
+      </c>
+      <c r="I152" s="29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J152" s="29">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K152" s="58">
+        <v>1.2</v>
       </c>
       <c r="L152" s="42"/>
       <c r="M152" s="31"/>
@@ -35003,19 +34998,19 @@
         <v>4.5825000000000005</v>
       </c>
       <c r="W152" s="62">
-        <f t="shared" ref="W152:Z152" si="121">W138</f>
+        <f t="shared" ref="W152:Z152" si="127">W138</f>
         <v>4.5825000000000005</v>
       </c>
       <c r="X152" s="62">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v>4.5825000000000005</v>
       </c>
       <c r="Y152" s="62">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v>4.5825000000000005</v>
       </c>
       <c r="Z152" s="62">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v>0.12</v>
       </c>
       <c r="AA152" s="65"/>
@@ -35025,7 +35020,7 @@
       <c r="AE152" s="71"/>
       <c r="AF152" s="71"/>
       <c r="AG152" s="62">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH152" s="65"/>
@@ -35070,36 +35065,36 @@
         <v>725</v>
       </c>
       <c r="H153" s="22">
-        <v>0.82</v>
-      </c>
-      <c r="I153" s="22">
-        <v>0.82</v>
-      </c>
-      <c r="J153" s="22">
-        <v>0.82</v>
-      </c>
-      <c r="K153" s="22">
-        <v>0.82</v>
+        <v>1.05</v>
+      </c>
+      <c r="I153" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J153" s="23">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K153" s="57">
+        <v>1.2</v>
       </c>
       <c r="L153" s="49"/>
       <c r="M153" s="50"/>
       <c r="N153" s="50"/>
       <c r="O153" s="51"/>
       <c r="P153" s="246">
-        <f t="shared" si="117"/>
-        <v>0.57399999999999995</v>
+        <f t="shared" si="123"/>
+        <v>0.73499999999999999</v>
       </c>
       <c r="Q153" s="26">
-        <f t="shared" si="118"/>
-        <v>0.57399999999999995</v>
+        <f t="shared" si="124"/>
+        <v>0.77</v>
       </c>
       <c r="R153" s="26">
-        <f t="shared" si="119"/>
-        <v>0.57399999999999995</v>
+        <f t="shared" si="125"/>
+        <v>0.80499999999999994</v>
       </c>
       <c r="S153" s="59">
-        <f t="shared" si="120"/>
-        <v>0.57399999999999995</v>
+        <f t="shared" si="126"/>
+        <v>0.84</v>
       </c>
       <c r="T153" s="55">
         <v>20</v>
@@ -35110,19 +35105,19 @@
         <v>4.9452075289575284</v>
       </c>
       <c r="W153" s="62">
-        <f t="shared" ref="W153:Z153" si="122">W139</f>
+        <f t="shared" ref="W153:Z153" si="128">W139</f>
         <v>4.9452075289575284</v>
       </c>
       <c r="X153" s="62">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>4.9452075289575284</v>
       </c>
       <c r="Y153" s="62">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>4.9452075289575284</v>
       </c>
       <c r="Z153" s="62">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>0.12</v>
       </c>
       <c r="AA153" s="66"/>
@@ -35132,7 +35127,7 @@
       <c r="AE153" s="72"/>
       <c r="AF153" s="72"/>
       <c r="AG153" s="63">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH153" s="67"/>
@@ -35144,11 +35139,11 @@
       </c>
       <c r="AL153" s="100"/>
       <c r="AM153" s="206" t="str">
-        <f t="shared" ref="AM153:AM184" si="123">C157</f>
+        <f t="shared" ref="AM153:AM184" si="129">C157</f>
         <v>R-SH_Det_ELC_HPN1</v>
       </c>
       <c r="AN153" s="206" t="str">
-        <f t="shared" ref="AN153:AN184" si="124">D157</f>
+        <f t="shared" ref="AN153:AN184" si="130">D157</f>
         <v>Residential Electric Heat Pump - Air to Air - SH</v>
       </c>
       <c r="AO153" s="100" t="s">
@@ -35201,11 +35196,11 @@
       <c r="AJ154" s="34"/>
       <c r="AL154" s="100"/>
       <c r="AM154" s="206" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>R-HC_Det_ELC_HPN1</v>
       </c>
       <c r="AN154" s="206" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>Residential Electric Heat Pump - Air to Air - SH + SC</v>
       </c>
       <c r="AO154" s="100" t="s">
@@ -35285,7 +35280,7 @@
       <c r="AE155" s="83"/>
       <c r="AF155" s="83"/>
       <c r="AG155" s="81">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.94608000000000003</v>
       </c>
       <c r="AH155" s="82"/>
@@ -35297,11 +35292,11 @@
       </c>
       <c r="AL155" s="100"/>
       <c r="AM155" s="206" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>R-SH_Det_ELC_HPN2-AB</v>
       </c>
       <c r="AN155" s="206" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>Residential Electric Heat Pump - Air to Water - SH - AB rated dwelling</v>
       </c>
       <c r="AO155" s="100" t="s">
@@ -35354,11 +35349,11 @@
       <c r="AJ156" s="34"/>
       <c r="AL156" s="100"/>
       <c r="AM156" s="206" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>R-SH_Det_ELC_HPN2-C</v>
       </c>
       <c r="AN156" s="206" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>Residential Electric Heat Pump - Air to Water - SH - C rated dwelling</v>
       </c>
       <c r="AO156" s="100" t="s">
@@ -35440,7 +35435,7 @@
       <c r="AE157" s="84"/>
       <c r="AF157" s="20"/>
       <c r="AG157" s="84">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AH157" s="88"/>
@@ -35452,11 +35447,11 @@
       </c>
       <c r="AL157" s="100"/>
       <c r="AM157" s="206" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>R-SH_Det_ELC_HPN2-D</v>
       </c>
       <c r="AN157" s="206" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>Residential Electric Heat Pump - Air to Water - SH - D rated dwelling</v>
       </c>
       <c r="AO157" s="100" t="s">
@@ -35500,16 +35495,20 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="L158" s="246">
-        <v>1</v>
+        <f>H158*0.9</f>
+        <v>0.9</v>
       </c>
       <c r="M158" s="26">
-        <v>1.0666666666666667</v>
+        <f t="shared" ref="M158:O158" si="131">I158*0.9</f>
+        <v>0.96</v>
       </c>
       <c r="N158" s="26">
-        <v>1.2333333333333334</v>
+        <f t="shared" si="131"/>
+        <v>1.1100000000000001</v>
       </c>
       <c r="O158" s="59">
-        <v>1.3333333333333333</v>
+        <f t="shared" si="131"/>
+        <v>1.2</v>
       </c>
       <c r="P158" s="26"/>
       <c r="Q158" s="26"/>
@@ -35546,7 +35545,7 @@
       <c r="AE158" s="64"/>
       <c r="AF158" s="26"/>
       <c r="AG158" s="64">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH158" s="27"/>
@@ -35558,11 +35557,11 @@
       </c>
       <c r="AL158" s="100"/>
       <c r="AM158" s="206" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>R-SH_Det_ELC_HPN2-E</v>
       </c>
       <c r="AN158" s="206" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>Residential Electric Heat Pump - Air to Water - SH - E rated dwelling</v>
       </c>
       <c r="AO158" s="100" t="s">
@@ -35642,7 +35641,7 @@
       <c r="AE159" s="254"/>
       <c r="AF159" s="46"/>
       <c r="AG159" s="84">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AH159" s="87"/>
@@ -35654,11 +35653,11 @@
       </c>
       <c r="AL159" s="100"/>
       <c r="AM159" s="206" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>R-SH_Det_ELC_HPN2-F</v>
       </c>
       <c r="AN159" s="206" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>Residential Electric Heat Pump - Air to Water - SH - F rated dwelling</v>
       </c>
       <c r="AO159" s="100" t="s">
@@ -35714,19 +35713,19 @@
       </c>
       <c r="U160" s="23"/>
       <c r="V160" s="22">
-        <f t="shared" ref="V160:Y164" si="125">V21/$V$20*$V$159</f>
+        <f t="shared" ref="V160:Y164" si="132">V21/$V$20*$V$159</f>
         <v>9.8469999999999995</v>
       </c>
       <c r="W160" s="23">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>9.8469999999999995</v>
       </c>
       <c r="X160" s="23">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>8.8622999999999994</v>
       </c>
       <c r="Y160" s="57">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>8.8622999999999994</v>
       </c>
       <c r="Z160" s="63">
@@ -35739,7 +35738,7 @@
       <c r="AE160" s="72"/>
       <c r="AF160" s="44"/>
       <c r="AG160" s="63">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AH160" s="66"/>
@@ -35751,11 +35750,11 @@
       </c>
       <c r="AL160" s="100"/>
       <c r="AM160" s="206" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>R-SH_Det_ELC_HPN2-G</v>
       </c>
       <c r="AN160" s="206" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>Residential Electric Heat Pump - Air to Water - SH - G rated dwelling</v>
       </c>
       <c r="AO160" s="100" t="s">
@@ -35811,19 +35810,19 @@
       </c>
       <c r="U161" s="29"/>
       <c r="V161" s="40">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>9.8469999999999995</v>
       </c>
       <c r="W161" s="29">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>9.8469999999999995</v>
       </c>
       <c r="X161" s="29">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>8.8622999999999994</v>
       </c>
       <c r="Y161" s="58">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>8.8622999999999994</v>
       </c>
       <c r="Z161" s="62">
@@ -35836,7 +35835,7 @@
       <c r="AE161" s="71"/>
       <c r="AF161" s="42"/>
       <c r="AG161" s="62">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AH161" s="65"/>
@@ -35848,11 +35847,11 @@
       </c>
       <c r="AL161" s="100"/>
       <c r="AM161" s="206" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>R-SW_Det_ELC_HPN1-AB</v>
       </c>
       <c r="AN161" s="206" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH - AB rated dwelling</v>
       </c>
       <c r="AO161" s="100" t="s">
@@ -35908,19 +35907,19 @@
       </c>
       <c r="U162" s="23"/>
       <c r="V162" s="22">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>11.209618719324894</v>
       </c>
       <c r="W162" s="23">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>11.209618719324894</v>
       </c>
       <c r="X162" s="23">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>10.224918719324894</v>
       </c>
       <c r="Y162" s="57">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>10.224918719324894</v>
       </c>
       <c r="Z162" s="63">
@@ -35933,7 +35932,7 @@
       <c r="AE162" s="72"/>
       <c r="AF162" s="44"/>
       <c r="AG162" s="63">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AH162" s="66"/>
@@ -35945,11 +35944,11 @@
       </c>
       <c r="AL162" s="100"/>
       <c r="AM162" s="206" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>R-SW_Det_ELC_HPN1-C</v>
       </c>
       <c r="AN162" s="206" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH - C rated dwelling</v>
       </c>
       <c r="AO162" s="100" t="s">
@@ -36005,19 +36004,19 @@
       </c>
       <c r="U163" s="29"/>
       <c r="V163" s="40">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>11.379946059240504</v>
       </c>
       <c r="W163" s="29">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>11.379946059240504</v>
       </c>
       <c r="X163" s="29">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>10.395246059240506</v>
       </c>
       <c r="Y163" s="58">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>10.395246059240506</v>
       </c>
       <c r="Z163" s="62">
@@ -36030,7 +36029,7 @@
       <c r="AE163" s="71"/>
       <c r="AF163" s="42"/>
       <c r="AG163" s="62">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AH163" s="65"/>
@@ -36042,11 +36041,11 @@
       </c>
       <c r="AL163" s="100"/>
       <c r="AM163" s="206" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>R-SW_Det_ELC_HPN1-D</v>
       </c>
       <c r="AN163" s="206" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH - D rated dwelling</v>
       </c>
       <c r="AO163" s="100" t="s">
@@ -36102,19 +36101,19 @@
       </c>
       <c r="U164" s="26"/>
       <c r="V164" s="246">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>11.550273399156117</v>
       </c>
       <c r="W164" s="26">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>11.550273399156117</v>
       </c>
       <c r="X164" s="26">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>10.565573399156117</v>
       </c>
       <c r="Y164" s="59">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>10.565573399156117</v>
       </c>
       <c r="Z164" s="64">
@@ -36127,7 +36126,7 @@
       <c r="AE164" s="515"/>
       <c r="AF164" s="49"/>
       <c r="AG164" s="64">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AH164" s="67"/>
@@ -36139,11 +36138,11 @@
       </c>
       <c r="AL164" s="100"/>
       <c r="AM164" s="206" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>R-SW_Det_ELC_HPN1-E</v>
       </c>
       <c r="AN164" s="206" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH - E rated dwelling</v>
       </c>
       <c r="AO164" s="100" t="s">
@@ -36195,15 +36194,15 @@
         <v>0.7</v>
       </c>
       <c r="Q165" s="20">
-        <f t="shared" ref="Q165:S176" si="126">I165*0.7</f>
+        <f t="shared" ref="Q165:S176" si="133">I165*0.7</f>
         <v>0.76999999999999991</v>
       </c>
       <c r="R165" s="20">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.86333333333333329</v>
       </c>
       <c r="S165" s="56">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.93333333333333324</v>
       </c>
       <c r="T165" s="510">
@@ -36236,7 +36235,7 @@
       <c r="AE165" s="254"/>
       <c r="AF165" s="46"/>
       <c r="AG165" s="84">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH165" s="87"/>
@@ -36248,11 +36247,11 @@
       </c>
       <c r="AL165" s="100"/>
       <c r="AM165" s="206" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>R-SW_Det_ELC_HPN1-F</v>
       </c>
       <c r="AN165" s="206" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH - F rated dwelling</v>
       </c>
       <c r="AO165" s="100" t="s">
@@ -36300,19 +36299,19 @@
       <c r="N166" s="23"/>
       <c r="O166" s="57"/>
       <c r="P166" s="22">
-        <f t="shared" ref="P166:P170" si="127">H166*0.7</f>
+        <f t="shared" ref="P166:P170" si="134">H166*0.7</f>
         <v>0.7</v>
       </c>
       <c r="Q166" s="23">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.76999999999999991</v>
       </c>
       <c r="R166" s="23">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.86333333333333329</v>
       </c>
       <c r="S166" s="57">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.93333333333333324</v>
       </c>
       <c r="T166" s="511">
@@ -36320,19 +36319,19 @@
       </c>
       <c r="U166" s="57"/>
       <c r="V166" s="22">
-        <f t="shared" ref="V166:Y170" si="128">V21/$V$20*$V$165</f>
+        <f t="shared" ref="V166:Y170" si="135">V21/$V$20*$V$165</f>
         <v>9.9300970464135023</v>
       </c>
       <c r="W166" s="23">
-        <f t="shared" si="128"/>
+        <f t="shared" si="135"/>
         <v>9.9300970464135023</v>
       </c>
       <c r="X166" s="23">
-        <f t="shared" si="128"/>
+        <f t="shared" si="135"/>
         <v>8.9370873417721519</v>
       </c>
       <c r="Y166" s="57">
-        <f t="shared" si="128"/>
+        <f t="shared" si="135"/>
         <v>8.9370873417721519</v>
       </c>
       <c r="Z166" s="63">
@@ -36345,7 +36344,7 @@
       <c r="AE166" s="72"/>
       <c r="AF166" s="44"/>
       <c r="AG166" s="63">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH166" s="66"/>
@@ -36357,11 +36356,11 @@
       </c>
       <c r="AL166" s="100"/>
       <c r="AM166" s="206" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>R-SW_Det_ELC_HPN1-G</v>
       </c>
       <c r="AN166" s="206" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH - G rated dwelling</v>
       </c>
       <c r="AO166" s="100" t="s">
@@ -36409,19 +36408,19 @@
       <c r="N167" s="29"/>
       <c r="O167" s="58"/>
       <c r="P167" s="40">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>0.7</v>
       </c>
       <c r="Q167" s="29">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.76999999999999991</v>
       </c>
       <c r="R167" s="29">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.86333333333333329</v>
       </c>
       <c r="S167" s="58">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.93333333333333324</v>
       </c>
       <c r="T167" s="512">
@@ -36429,19 +36428,19 @@
       </c>
       <c r="U167" s="58"/>
       <c r="V167" s="40">
-        <f t="shared" si="128"/>
+        <f t="shared" si="135"/>
         <v>9.9300970464135023</v>
       </c>
       <c r="W167" s="29">
-        <f t="shared" si="128"/>
+        <f t="shared" si="135"/>
         <v>9.9300970464135023</v>
       </c>
       <c r="X167" s="29">
-        <f t="shared" si="128"/>
+        <f t="shared" si="135"/>
         <v>8.9370873417721519</v>
       </c>
       <c r="Y167" s="58">
-        <f t="shared" si="128"/>
+        <f t="shared" si="135"/>
         <v>8.9370873417721519</v>
       </c>
       <c r="Z167" s="62">
@@ -36454,7 +36453,7 @@
       <c r="AE167" s="71"/>
       <c r="AF167" s="42"/>
       <c r="AG167" s="62">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH167" s="65"/>
@@ -36466,11 +36465,11 @@
       </c>
       <c r="AL167" s="100"/>
       <c r="AM167" s="206" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>R-SW_Det_ELC_HPN2-AB</v>
       </c>
       <c r="AN167" s="206" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar - AB rated dwelling</v>
       </c>
       <c r="AO167" s="100" t="s">
@@ -36518,19 +36517,19 @@
       <c r="N168" s="23"/>
       <c r="O168" s="57"/>
       <c r="P168" s="22">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>0.7</v>
       </c>
       <c r="Q168" s="23">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.76999999999999991</v>
       </c>
       <c r="R168" s="23">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.86333333333333329</v>
       </c>
       <c r="S168" s="57">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.93333333333333324</v>
       </c>
       <c r="T168" s="511">
@@ -36538,19 +36537,19 @@
       </c>
       <c r="U168" s="57"/>
       <c r="V168" s="22">
-        <f t="shared" si="128"/>
+        <f t="shared" si="135"/>
         <v>11.304214657884598</v>
       </c>
       <c r="W168" s="23">
-        <f t="shared" si="128"/>
+        <f t="shared" si="135"/>
         <v>11.304214657884598</v>
       </c>
       <c r="X168" s="23">
-        <f t="shared" si="128"/>
+        <f t="shared" si="135"/>
         <v>10.311204953243248</v>
       </c>
       <c r="Y168" s="57">
-        <f t="shared" si="128"/>
+        <f t="shared" si="135"/>
         <v>10.311204953243248</v>
       </c>
       <c r="Z168" s="63">
@@ -36563,7 +36562,7 @@
       <c r="AE168" s="72"/>
       <c r="AF168" s="44"/>
       <c r="AG168" s="63">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH168" s="66"/>
@@ -36575,11 +36574,11 @@
       </c>
       <c r="AL168" s="100"/>
       <c r="AM168" s="206" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>R-SW_Det_ELC_HPN2-C</v>
       </c>
       <c r="AN168" s="206" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar - C rated dwelling</v>
       </c>
       <c r="AO168" s="100" t="s">
@@ -36627,19 +36626,19 @@
       <c r="N169" s="29"/>
       <c r="O169" s="58"/>
       <c r="P169" s="40">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>0.7</v>
       </c>
       <c r="Q169" s="29">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.76999999999999991</v>
       </c>
       <c r="R169" s="29">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.86333333333333329</v>
       </c>
       <c r="S169" s="58">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.93333333333333324</v>
       </c>
       <c r="T169" s="512">
@@ -36647,19 +36646,19 @@
       </c>
       <c r="U169" s="58"/>
       <c r="V169" s="40">
-        <f t="shared" si="128"/>
+        <f t="shared" si="135"/>
         <v>11.475979359318485</v>
       </c>
       <c r="W169" s="29">
-        <f t="shared" si="128"/>
+        <f t="shared" si="135"/>
         <v>11.475979359318485</v>
       </c>
       <c r="X169" s="29">
-        <f t="shared" si="128"/>
+        <f t="shared" si="135"/>
         <v>10.482969654677136</v>
       </c>
       <c r="Y169" s="58">
-        <f t="shared" si="128"/>
+        <f t="shared" si="135"/>
         <v>10.482969654677136</v>
       </c>
       <c r="Z169" s="62">
@@ -36672,7 +36671,7 @@
       <c r="AE169" s="71"/>
       <c r="AF169" s="42"/>
       <c r="AG169" s="62">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH169" s="65"/>
@@ -36684,11 +36683,11 @@
       </c>
       <c r="AL169" s="100"/>
       <c r="AM169" s="206" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>R-SW_Det_ELC_HPN2-D</v>
       </c>
       <c r="AN169" s="206" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar - D rated dwelling</v>
       </c>
       <c r="AO169" s="100" t="s">
@@ -36736,19 +36735,19 @@
       <c r="N170" s="26"/>
       <c r="O170" s="59"/>
       <c r="P170" s="246">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>0.7</v>
       </c>
       <c r="Q170" s="26">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.76999999999999991</v>
       </c>
       <c r="R170" s="26">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.86333333333333329</v>
       </c>
       <c r="S170" s="59">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.93333333333333324</v>
       </c>
       <c r="T170" s="514">
@@ -36756,19 +36755,19 @@
       </c>
       <c r="U170" s="59"/>
       <c r="V170" s="246">
-        <f t="shared" si="128"/>
+        <f t="shared" si="135"/>
         <v>11.647744060752371</v>
       </c>
       <c r="W170" s="26">
-        <f t="shared" si="128"/>
+        <f t="shared" si="135"/>
         <v>11.647744060752371</v>
       </c>
       <c r="X170" s="26">
-        <f t="shared" si="128"/>
+        <f t="shared" si="135"/>
         <v>10.654734356111021</v>
       </c>
       <c r="Y170" s="59">
-        <f t="shared" si="128"/>
+        <f t="shared" si="135"/>
         <v>10.654734356111021</v>
       </c>
       <c r="Z170" s="64">
@@ -36781,7 +36780,7 @@
       <c r="AE170" s="515"/>
       <c r="AF170" s="49"/>
       <c r="AG170" s="64">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH170" s="67"/>
@@ -36793,11 +36792,11 @@
       </c>
       <c r="AL170" s="100"/>
       <c r="AM170" s="206" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>R-SW_Det_ELC_HPN2-E</v>
       </c>
       <c r="AN170" s="206" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar - E rated dwelling</v>
       </c>
       <c r="AO170" s="100" t="s">
@@ -36849,15 +36848,15 @@
         <v>0.7</v>
       </c>
       <c r="Q171" s="29">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.77700000000000002</v>
       </c>
       <c r="R171" s="29">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="S171" s="58">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="T171" s="510">
@@ -36895,7 +36894,7 @@
         <v>5</v>
       </c>
       <c r="AG171" s="84">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH171" s="87"/>
@@ -36907,11 +36906,11 @@
       </c>
       <c r="AL171" s="100"/>
       <c r="AM171" s="206" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>R-SW_Det_ELC_HPN2-F</v>
       </c>
       <c r="AN171" s="206" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar - F rated dwelling</v>
       </c>
       <c r="AO171" s="100" t="s">
@@ -36959,19 +36958,19 @@
       <c r="N172" s="23"/>
       <c r="O172" s="57"/>
       <c r="P172" s="22">
-        <f t="shared" ref="P172:P176" si="129">H172*0.7</f>
+        <f t="shared" ref="P172:P176" si="136">H172*0.7</f>
         <v>0.7</v>
       </c>
       <c r="Q172" s="23">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.77700000000000002</v>
       </c>
       <c r="R172" s="23">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="S172" s="57">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="T172" s="511">
@@ -36979,19 +36978,19 @@
       </c>
       <c r="U172" s="23"/>
       <c r="V172" s="22">
-        <f t="shared" ref="V172:Y176" si="130">V21/$V$20*$V$171</f>
+        <f t="shared" ref="V172:Y176" si="137">V21/$V$20*$V$171</f>
         <v>15.153057851239668</v>
       </c>
       <c r="W172" s="23">
-        <f t="shared" si="130"/>
+        <f t="shared" si="137"/>
         <v>15.153057851239668</v>
       </c>
       <c r="X172" s="23">
-        <f t="shared" si="130"/>
+        <f t="shared" si="137"/>
         <v>13.6377520661157</v>
       </c>
       <c r="Y172" s="57">
-        <f t="shared" si="130"/>
+        <f t="shared" si="137"/>
         <v>13.6377520661157</v>
       </c>
       <c r="Z172" s="63">
@@ -37009,7 +37008,7 @@
         <v>5</v>
       </c>
       <c r="AG172" s="63">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH172" s="66"/>
@@ -37021,11 +37020,11 @@
       </c>
       <c r="AL172" s="100"/>
       <c r="AM172" s="206" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>R-SW_Det_ELC_HPN2-G</v>
       </c>
       <c r="AN172" s="206" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar - G rated dwelling</v>
       </c>
       <c r="AO172" s="100" t="s">
@@ -37073,19 +37072,19 @@
       <c r="N173" s="29"/>
       <c r="O173" s="58"/>
       <c r="P173" s="40">
-        <f t="shared" si="129"/>
+        <f t="shared" si="136"/>
         <v>0.7</v>
       </c>
       <c r="Q173" s="29">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.77700000000000002</v>
       </c>
       <c r="R173" s="29">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="S173" s="58">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="T173" s="512">
@@ -37093,19 +37092,19 @@
       </c>
       <c r="U173" s="29"/>
       <c r="V173" s="40">
-        <f t="shared" si="130"/>
+        <f t="shared" si="137"/>
         <v>15.153057851239668</v>
       </c>
       <c r="W173" s="29">
-        <f t="shared" si="130"/>
+        <f t="shared" si="137"/>
         <v>15.153057851239668</v>
       </c>
       <c r="X173" s="29">
-        <f t="shared" si="130"/>
+        <f t="shared" si="137"/>
         <v>13.6377520661157</v>
       </c>
       <c r="Y173" s="58">
-        <f t="shared" si="130"/>
+        <f t="shared" si="137"/>
         <v>13.6377520661157</v>
       </c>
       <c r="Z173" s="62">
@@ -37123,7 +37122,7 @@
         <v>5</v>
       </c>
       <c r="AG173" s="62">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH173" s="65"/>
@@ -37135,11 +37134,11 @@
       </c>
       <c r="AL173" s="100"/>
       <c r="AM173" s="206" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>R-SH_Det_ELC_HPN3-AB</v>
       </c>
       <c r="AN173" s="206" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH - AB rated dwelling</v>
       </c>
       <c r="AO173" s="100" t="s">
@@ -37187,19 +37186,19 @@
       <c r="N174" s="23"/>
       <c r="O174" s="57"/>
       <c r="P174" s="22">
-        <f t="shared" si="129"/>
+        <f t="shared" si="136"/>
         <v>0.7</v>
       </c>
       <c r="Q174" s="23">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.77700000000000002</v>
       </c>
       <c r="R174" s="23">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="S174" s="57">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="T174" s="511">
@@ -37207,19 +37206,19 @@
       </c>
       <c r="U174" s="23"/>
       <c r="V174" s="22">
-        <f t="shared" si="130"/>
+        <f t="shared" si="137"/>
         <v>17.249923930564563</v>
       </c>
       <c r="W174" s="23">
-        <f t="shared" si="130"/>
+        <f t="shared" si="137"/>
         <v>17.249923930564563</v>
       </c>
       <c r="X174" s="23">
-        <f t="shared" si="130"/>
+        <f t="shared" si="137"/>
         <v>15.734618145440594</v>
       </c>
       <c r="Y174" s="57">
-        <f t="shared" si="130"/>
+        <f t="shared" si="137"/>
         <v>15.734618145440594</v>
       </c>
       <c r="Z174" s="63">
@@ -37237,7 +37236,7 @@
         <v>5</v>
       </c>
       <c r="AG174" s="63">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH174" s="66"/>
@@ -37249,11 +37248,11 @@
       </c>
       <c r="AL174" s="100"/>
       <c r="AM174" s="206" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>R-SH_Det_ELC_HPN3-C</v>
       </c>
       <c r="AN174" s="206" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH - C rated dwelling</v>
       </c>
       <c r="AO174" s="100" t="s">
@@ -37301,19 +37300,19 @@
       <c r="N175" s="29"/>
       <c r="O175" s="58"/>
       <c r="P175" s="40">
-        <f t="shared" si="129"/>
+        <f t="shared" si="136"/>
         <v>0.7</v>
       </c>
       <c r="Q175" s="29">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.77700000000000002</v>
       </c>
       <c r="R175" s="29">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="S175" s="58">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="T175" s="512">
@@ -37321,19 +37320,19 @@
       </c>
       <c r="U175" s="29"/>
       <c r="V175" s="40">
-        <f t="shared" si="130"/>
+        <f t="shared" si="137"/>
         <v>17.512032190480173</v>
       </c>
       <c r="W175" s="29">
-        <f t="shared" si="130"/>
+        <f t="shared" si="137"/>
         <v>17.512032190480173</v>
       </c>
       <c r="X175" s="29">
-        <f t="shared" si="130"/>
+        <f t="shared" si="137"/>
         <v>15.996726405356208</v>
       </c>
       <c r="Y175" s="58">
-        <f t="shared" si="130"/>
+        <f t="shared" si="137"/>
         <v>15.996726405356208</v>
       </c>
       <c r="Z175" s="62">
@@ -37351,7 +37350,7 @@
         <v>5</v>
       </c>
       <c r="AG175" s="62">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH175" s="65"/>
@@ -37363,11 +37362,11 @@
       </c>
       <c r="AL175" s="100"/>
       <c r="AM175" s="206" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>R-SH_Det_ELC_HPN3-D</v>
       </c>
       <c r="AN175" s="206" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH - D rated dwelling</v>
       </c>
       <c r="AO175" s="100" t="s">
@@ -37415,19 +37414,19 @@
       <c r="N176" s="26"/>
       <c r="O176" s="59"/>
       <c r="P176" s="246">
-        <f t="shared" si="129"/>
+        <f t="shared" si="136"/>
         <v>0.7</v>
       </c>
       <c r="Q176" s="26">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.77700000000000002</v>
       </c>
       <c r="R176" s="26">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="S176" s="59">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="T176" s="514">
@@ -37435,19 +37434,19 @@
       </c>
       <c r="U176" s="26"/>
       <c r="V176" s="246">
-        <f t="shared" si="130"/>
+        <f t="shared" si="137"/>
         <v>17.774140450395784</v>
       </c>
       <c r="W176" s="26">
-        <f t="shared" si="130"/>
+        <f t="shared" si="137"/>
         <v>17.774140450395784</v>
       </c>
       <c r="X176" s="26">
-        <f t="shared" si="130"/>
+        <f t="shared" si="137"/>
         <v>16.258834665271817</v>
       </c>
       <c r="Y176" s="59">
-        <f t="shared" si="130"/>
+        <f t="shared" si="137"/>
         <v>16.258834665271817</v>
       </c>
       <c r="Z176" s="64">
@@ -37465,7 +37464,7 @@
         <v>5</v>
       </c>
       <c r="AG176" s="64">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH176" s="67"/>
@@ -37477,11 +37476,11 @@
       </c>
       <c r="AL176" s="100"/>
       <c r="AM176" s="206" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>R-SH_Det_ELC_HPN3-E</v>
       </c>
       <c r="AN176" s="206" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH - E rated dwelling</v>
       </c>
       <c r="AO176" s="100" t="s">
@@ -37563,7 +37562,7 @@
       <c r="AE177" s="254"/>
       <c r="AF177" s="46"/>
       <c r="AG177" s="84">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AH177" s="87"/>
@@ -37575,11 +37574,11 @@
       </c>
       <c r="AL177" s="100"/>
       <c r="AM177" s="206" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>R-SH_Det_ELC_HPN3-F</v>
       </c>
       <c r="AN177" s="206" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH - F rated dwelling</v>
       </c>
       <c r="AO177" s="100" t="s">
@@ -37635,19 +37634,19 @@
       </c>
       <c r="U178" s="57"/>
       <c r="V178" s="22">
-        <f t="shared" ref="V178:Y182" si="131">V21/$V$20*$V$177</f>
+        <f t="shared" ref="V178:Y182" si="138">V21/$V$20*$V$177</f>
         <v>14.8</v>
       </c>
       <c r="W178" s="23">
-        <f t="shared" si="131"/>
+        <f t="shared" si="138"/>
         <v>14.8</v>
       </c>
       <c r="X178" s="23">
-        <f t="shared" si="131"/>
+        <f t="shared" si="138"/>
         <v>13.319999999999999</v>
       </c>
       <c r="Y178" s="57">
-        <f t="shared" si="131"/>
+        <f t="shared" si="138"/>
         <v>13.319999999999999</v>
       </c>
       <c r="Z178" s="63"/>
@@ -37658,7 +37657,7 @@
       <c r="AE178" s="72"/>
       <c r="AF178" s="44"/>
       <c r="AG178" s="63">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AH178" s="66"/>
@@ -37670,11 +37669,11 @@
       </c>
       <c r="AL178" s="100"/>
       <c r="AM178" s="206" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>R-SH_Det_ELC_HPN3-G</v>
       </c>
       <c r="AN178" s="206" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH - G rated dwelling</v>
       </c>
       <c r="AO178" s="100" t="s">
@@ -37730,19 +37729,19 @@
       </c>
       <c r="U179" s="58"/>
       <c r="V179" s="40">
-        <f t="shared" si="131"/>
+        <f t="shared" si="138"/>
         <v>14.8</v>
       </c>
       <c r="W179" s="29">
-        <f t="shared" si="131"/>
+        <f t="shared" si="138"/>
         <v>14.8</v>
       </c>
       <c r="X179" s="29">
-        <f t="shared" si="131"/>
+        <f t="shared" si="138"/>
         <v>13.319999999999999</v>
       </c>
       <c r="Y179" s="58">
-        <f t="shared" si="131"/>
+        <f t="shared" si="138"/>
         <v>13.319999999999999</v>
       </c>
       <c r="Z179" s="62"/>
@@ -37753,7 +37752,7 @@
       <c r="AE179" s="71"/>
       <c r="AF179" s="42"/>
       <c r="AG179" s="62">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AH179" s="65"/>
@@ -37765,11 +37764,11 @@
       </c>
       <c r="AL179" s="100"/>
       <c r="AM179" s="206" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>R-HC_Det_ELC_HPN2-AB</v>
       </c>
       <c r="AN179" s="206" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC - AB rated dwelling</v>
       </c>
       <c r="AO179" s="100" t="s">
@@ -37825,19 +37824,19 @@
       </c>
       <c r="U180" s="57"/>
       <c r="V180" s="22">
-        <f t="shared" si="131"/>
+        <f t="shared" si="138"/>
         <v>16.848010261603378</v>
       </c>
       <c r="W180" s="23">
-        <f t="shared" si="131"/>
+        <f t="shared" si="138"/>
         <v>16.848010261603378</v>
       </c>
       <c r="X180" s="23">
-        <f t="shared" si="131"/>
+        <f t="shared" si="138"/>
         <v>15.368010261603375</v>
       </c>
       <c r="Y180" s="57">
-        <f t="shared" si="131"/>
+        <f t="shared" si="138"/>
         <v>15.368010261603375</v>
       </c>
       <c r="Z180" s="63"/>
@@ -37848,7 +37847,7 @@
       <c r="AE180" s="72"/>
       <c r="AF180" s="44"/>
       <c r="AG180" s="63">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AH180" s="66"/>
@@ -37860,11 +37859,11 @@
       </c>
       <c r="AL180" s="100"/>
       <c r="AM180" s="206" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>R-HC_Det_ELC_HPN2-C</v>
       </c>
       <c r="AN180" s="206" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC - C rated dwelling</v>
       </c>
       <c r="AO180" s="100" t="s">
@@ -37920,19 +37919,19 @@
       </c>
       <c r="U181" s="58"/>
       <c r="V181" s="40">
-        <f t="shared" si="131"/>
+        <f t="shared" si="138"/>
         <v>17.104011544303798</v>
       </c>
       <c r="W181" s="29">
-        <f t="shared" si="131"/>
+        <f t="shared" si="138"/>
         <v>17.104011544303798</v>
       </c>
       <c r="X181" s="29">
-        <f t="shared" si="131"/>
+        <f t="shared" si="138"/>
         <v>15.6240115443038</v>
       </c>
       <c r="Y181" s="58">
-        <f t="shared" si="131"/>
+        <f t="shared" si="138"/>
         <v>15.6240115443038</v>
       </c>
       <c r="Z181" s="62"/>
@@ -37943,7 +37942,7 @@
       <c r="AE181" s="71"/>
       <c r="AF181" s="42"/>
       <c r="AG181" s="62">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AH181" s="65"/>
@@ -37955,11 +37954,11 @@
       </c>
       <c r="AL181" s="100"/>
       <c r="AM181" s="206" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>R-HC_Det_ELC_HPN2-D</v>
       </c>
       <c r="AN181" s="206" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC - D rated dwelling</v>
       </c>
       <c r="AO181" s="100" t="s">
@@ -38015,19 +38014,19 @@
       </c>
       <c r="U182" s="59"/>
       <c r="V182" s="246">
-        <f t="shared" si="131"/>
+        <f t="shared" si="138"/>
         <v>17.360012827004219</v>
       </c>
       <c r="W182" s="26">
-        <f t="shared" si="131"/>
+        <f t="shared" si="138"/>
         <v>17.360012827004219</v>
       </c>
       <c r="X182" s="26">
-        <f t="shared" si="131"/>
+        <f t="shared" si="138"/>
         <v>15.880012827004217</v>
       </c>
       <c r="Y182" s="59">
-        <f t="shared" si="131"/>
+        <f t="shared" si="138"/>
         <v>15.880012827004217</v>
       </c>
       <c r="Z182" s="64"/>
@@ -38038,7 +38037,7 @@
       <c r="AE182" s="515"/>
       <c r="AF182" s="49"/>
       <c r="AG182" s="64">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.31536000000000003</v>
       </c>
       <c r="AH182" s="67"/>
@@ -38050,11 +38049,11 @@
       </c>
       <c r="AL182" s="100"/>
       <c r="AM182" s="206" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>R-HC_Det_ELC_HPN2-E</v>
       </c>
       <c r="AN182" s="206" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC - E rated dwelling</v>
       </c>
       <c r="AO182" s="100" t="s">
@@ -38098,16 +38097,20 @@
         <v>1.5</v>
       </c>
       <c r="L183" s="19">
-        <v>1.0999999999999999</v>
+        <f>H183*0.9</f>
+        <v>0.98999999999999988</v>
       </c>
       <c r="M183" s="20">
-        <v>1.1666666666666667</v>
+        <f t="shared" ref="M183:O188" si="139">I183*0.9</f>
+        <v>1.05</v>
       </c>
       <c r="N183" s="20">
-        <v>1.3333333333333333</v>
+        <f t="shared" si="139"/>
+        <v>1.2</v>
       </c>
       <c r="O183" s="56">
-        <v>1.5</v>
+        <f t="shared" si="139"/>
+        <v>1.35</v>
       </c>
       <c r="P183" s="40"/>
       <c r="Q183" s="29"/>
@@ -38156,11 +38159,11 @@
       </c>
       <c r="AL183" s="100"/>
       <c r="AM183" s="206" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>R-HC_Det_ELC_HPN2-F</v>
       </c>
       <c r="AN183" s="206" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC - F rated dwelling</v>
       </c>
       <c r="AO183" s="100" t="s">
@@ -38204,16 +38207,20 @@
         <v>1.5</v>
       </c>
       <c r="L184" s="22">
-        <v>1.0999999999999999</v>
+        <f t="shared" ref="L184:L188" si="140">H184*0.9</f>
+        <v>0.98999999999999988</v>
       </c>
       <c r="M184" s="23">
-        <v>1.1666666666666667</v>
+        <f t="shared" si="139"/>
+        <v>1.05</v>
       </c>
       <c r="N184" s="23">
-        <v>1.3333333333333333</v>
+        <f t="shared" si="139"/>
+        <v>1.2</v>
       </c>
       <c r="O184" s="57">
-        <v>1.5</v>
+        <f t="shared" si="139"/>
+        <v>1.35</v>
       </c>
       <c r="P184" s="22"/>
       <c r="Q184" s="23"/>
@@ -38224,19 +38231,19 @@
       </c>
       <c r="U184" s="23"/>
       <c r="V184" s="22">
-        <f t="shared" ref="V184:Y188" si="132">V21/$V$20*$V$183</f>
+        <f t="shared" ref="V184:Y188" si="141">V21/$V$20*$V$183</f>
         <v>15.97142857142857</v>
       </c>
       <c r="W184" s="23">
-        <f t="shared" si="132"/>
+        <f t="shared" si="141"/>
         <v>15.97142857142857</v>
       </c>
       <c r="X184" s="23">
-        <f t="shared" si="132"/>
+        <f t="shared" si="141"/>
         <v>14.374285714285712</v>
       </c>
       <c r="Y184" s="57">
-        <f t="shared" si="132"/>
+        <f t="shared" si="141"/>
         <v>14.374285714285712</v>
       </c>
       <c r="Z184" s="63"/>
@@ -38247,7 +38254,7 @@
       <c r="AE184" s="72"/>
       <c r="AF184" s="44"/>
       <c r="AG184" s="63">
-        <f t="shared" ref="AG184:AG188" si="133">31.536*(AJ184/1000)</f>
+        <f t="shared" ref="AG184:AG188" si="142">31.536*(AJ184/1000)</f>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH184" s="66"/>
@@ -38259,11 +38266,11 @@
       </c>
       <c r="AL184" s="100"/>
       <c r="AM184" s="206" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>R-HC_Det_ELC_HPN2-G</v>
       </c>
       <c r="AN184" s="206" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC - G rated dwelling</v>
       </c>
       <c r="AO184" s="100" t="s">
@@ -38307,16 +38314,20 @@
         <v>1.5</v>
       </c>
       <c r="L185" s="40">
-        <v>1.0999999999999999</v>
+        <f t="shared" si="140"/>
+        <v>0.98999999999999988</v>
       </c>
       <c r="M185" s="29">
-        <v>1.1666666666666667</v>
+        <f t="shared" si="139"/>
+        <v>1.05</v>
       </c>
       <c r="N185" s="29">
-        <v>1.3333333333333333</v>
+        <f t="shared" si="139"/>
+        <v>1.2</v>
       </c>
       <c r="O185" s="58">
-        <v>1.5</v>
+        <f t="shared" si="139"/>
+        <v>1.35</v>
       </c>
       <c r="P185" s="40"/>
       <c r="Q185" s="29"/>
@@ -38327,19 +38338,19 @@
       </c>
       <c r="U185" s="29"/>
       <c r="V185" s="40">
-        <f t="shared" si="132"/>
+        <f t="shared" si="141"/>
         <v>15.97142857142857</v>
       </c>
       <c r="W185" s="29">
-        <f t="shared" si="132"/>
+        <f t="shared" si="141"/>
         <v>15.97142857142857</v>
       </c>
       <c r="X185" s="29">
-        <f t="shared" si="132"/>
+        <f t="shared" si="141"/>
         <v>14.374285714285712</v>
       </c>
       <c r="Y185" s="58">
-        <f t="shared" si="132"/>
+        <f t="shared" si="141"/>
         <v>14.374285714285712</v>
       </c>
       <c r="Z185" s="62"/>
@@ -38350,7 +38361,7 @@
       <c r="AE185" s="71"/>
       <c r="AF185" s="42"/>
       <c r="AG185" s="62">
-        <f t="shared" si="133"/>
+        <f t="shared" si="142"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH185" s="65"/>
@@ -38410,16 +38421,20 @@
         <v>1.5</v>
       </c>
       <c r="L186" s="22">
-        <v>1.0999999999999999</v>
+        <f t="shared" si="140"/>
+        <v>0.98999999999999988</v>
       </c>
       <c r="M186" s="23">
-        <v>1.1666666666666667</v>
+        <f t="shared" si="139"/>
+        <v>1.05</v>
       </c>
       <c r="N186" s="23">
-        <v>1.3333333333333333</v>
+        <f t="shared" si="139"/>
+        <v>1.2</v>
       </c>
       <c r="O186" s="57">
-        <v>1.5</v>
+        <f t="shared" si="139"/>
+        <v>1.35</v>
       </c>
       <c r="P186" s="22"/>
       <c r="Q186" s="23"/>
@@ -38430,19 +38445,19 @@
       </c>
       <c r="U186" s="23"/>
       <c r="V186" s="22">
-        <f t="shared" si="132"/>
+        <f t="shared" si="141"/>
         <v>18.181540031344181</v>
       </c>
       <c r="W186" s="23">
-        <f t="shared" si="132"/>
+        <f t="shared" si="141"/>
         <v>18.181540031344181</v>
       </c>
       <c r="X186" s="23">
-        <f t="shared" si="132"/>
+        <f t="shared" si="141"/>
         <v>16.584397174201321</v>
       </c>
       <c r="Y186" s="57">
-        <f t="shared" si="132"/>
+        <f t="shared" si="141"/>
         <v>16.584397174201321</v>
       </c>
       <c r="Z186" s="63"/>
@@ -38453,7 +38468,7 @@
       <c r="AE186" s="72"/>
       <c r="AF186" s="44"/>
       <c r="AG186" s="63">
-        <f t="shared" si="133"/>
+        <f t="shared" si="142"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH186" s="66"/>
@@ -38513,16 +38528,20 @@
         <v>1.5</v>
       </c>
       <c r="L187" s="40">
-        <v>1.0999999999999999</v>
+        <f t="shared" si="140"/>
+        <v>0.98999999999999988</v>
       </c>
       <c r="M187" s="29">
-        <v>1.1666666666666667</v>
+        <f t="shared" si="139"/>
+        <v>1.05</v>
       </c>
       <c r="N187" s="29">
-        <v>1.3333333333333333</v>
+        <f t="shared" si="139"/>
+        <v>1.2</v>
       </c>
       <c r="O187" s="58">
-        <v>1.5</v>
+        <f t="shared" si="139"/>
+        <v>1.35</v>
       </c>
       <c r="P187" s="40"/>
       <c r="Q187" s="29"/>
@@ -38533,19 +38552,19 @@
       </c>
       <c r="U187" s="29"/>
       <c r="V187" s="40">
-        <f t="shared" si="132"/>
+        <f t="shared" si="141"/>
         <v>18.457803963833634</v>
       </c>
       <c r="W187" s="29">
-        <f t="shared" si="132"/>
+        <f t="shared" si="141"/>
         <v>18.457803963833634</v>
       </c>
       <c r="X187" s="29">
-        <f t="shared" si="132"/>
+        <f t="shared" si="141"/>
         <v>16.860661106690777</v>
       </c>
       <c r="Y187" s="58">
-        <f t="shared" si="132"/>
+        <f t="shared" si="141"/>
         <v>16.860661106690777</v>
       </c>
       <c r="Z187" s="62"/>
@@ -38556,7 +38575,7 @@
       <c r="AE187" s="71"/>
       <c r="AF187" s="42"/>
       <c r="AG187" s="62">
-        <f t="shared" si="133"/>
+        <f t="shared" si="142"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH187" s="65"/>
@@ -38616,16 +38635,20 @@
         <v>1.5</v>
       </c>
       <c r="L188" s="246">
-        <v>1.0999999999999999</v>
+        <f t="shared" si="140"/>
+        <v>0.98999999999999988</v>
       </c>
       <c r="M188" s="26">
-        <v>1.1666666666666667</v>
+        <f t="shared" si="139"/>
+        <v>1.05</v>
       </c>
       <c r="N188" s="26">
-        <v>1.3333333333333333</v>
+        <f t="shared" si="139"/>
+        <v>1.2</v>
       </c>
       <c r="O188" s="59">
-        <v>1.5</v>
+        <f t="shared" si="139"/>
+        <v>1.35</v>
       </c>
       <c r="P188" s="246"/>
       <c r="Q188" s="26"/>
@@ -38636,19 +38659,19 @@
       </c>
       <c r="U188" s="26"/>
       <c r="V188" s="246">
-        <f t="shared" si="132"/>
+        <f t="shared" si="141"/>
         <v>18.734067896323083</v>
       </c>
       <c r="W188" s="26">
-        <f t="shared" si="132"/>
+        <f t="shared" si="141"/>
         <v>18.734067896323083</v>
       </c>
       <c r="X188" s="26">
-        <f t="shared" si="132"/>
+        <f t="shared" si="141"/>
         <v>17.136925039180223</v>
       </c>
       <c r="Y188" s="59">
-        <f t="shared" si="132"/>
+        <f t="shared" si="141"/>
         <v>17.136925039180223</v>
       </c>
       <c r="Z188" s="64"/>
@@ -38659,7 +38682,7 @@
       <c r="AE188" s="515"/>
       <c r="AF188" s="49"/>
       <c r="AG188" s="64">
-        <f t="shared" si="133"/>
+        <f t="shared" si="142"/>
         <v>0.37843200000000005</v>
       </c>
       <c r="AH188" s="67"/>
@@ -38788,15 +38811,15 @@
         <v>1.1666666666666667</v>
       </c>
       <c r="Q190" s="20">
-        <f t="shared" ref="Q190:Q191" si="134">I190*0.7</f>
+        <f t="shared" ref="Q190:Q191" si="143">I190*0.7</f>
         <v>1.2530864197530862</v>
       </c>
       <c r="R190" s="20">
-        <f t="shared" ref="R190:R191" si="135">J190*0.7</f>
+        <f t="shared" ref="R190:R191" si="144">J190*0.7</f>
         <v>1.4691358024691357</v>
       </c>
       <c r="S190" s="56">
-        <f t="shared" ref="S190:S191" si="136">K190*0.7</f>
+        <f t="shared" ref="S190:S191" si="145">K190*0.7</f>
         <v>1.4691358024691357</v>
       </c>
       <c r="T190" s="88">
@@ -38830,7 +38853,7 @@
       <c r="AE190" s="84"/>
       <c r="AF190" s="84"/>
       <c r="AG190" s="84">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH190" s="87"/>
@@ -38902,15 +38925,15 @@
         <v>1.1666666666666665</v>
       </c>
       <c r="Q191" s="26">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>1.2055555555555555</v>
       </c>
       <c r="R191" s="26">
-        <f t="shared" si="135"/>
+        <f t="shared" si="144"/>
         <v>1.2055555555555555</v>
       </c>
       <c r="S191" s="59">
-        <f t="shared" si="136"/>
+        <f t="shared" si="145"/>
         <v>1.2444444444444445</v>
       </c>
       <c r="T191" s="27">
@@ -38944,7 +38967,7 @@
       <c r="AE191" s="64"/>
       <c r="AF191" s="64"/>
       <c r="AG191" s="64">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH191" s="67"/>
@@ -39073,15 +39096,15 @@
         <v>2.4395000000000002</v>
       </c>
       <c r="Q193" s="26">
-        <f t="shared" ref="Q193" si="137">I193*0.7</f>
+        <f t="shared" ref="Q193" si="146">I193*0.7</f>
         <v>2.7055000000000002</v>
       </c>
       <c r="R193" s="26">
-        <f t="shared" ref="R193" si="138">J193*0.7</f>
+        <f t="shared" ref="R193" si="147">J193*0.7</f>
         <v>2.9050000000000002</v>
       </c>
       <c r="S193" s="59">
-        <f t="shared" ref="S193" si="139">K193*0.7</f>
+        <f t="shared" ref="S193" si="148">K193*0.7</f>
         <v>2.9050000000000002</v>
       </c>
       <c r="T193" s="3">
@@ -39121,7 +39144,7 @@
         <v>5</v>
       </c>
       <c r="AG193" s="81">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.66540960000000005</v>
       </c>
       <c r="AH193" s="82"/>
@@ -39205,16 +39228,16 @@
       <c r="N195" s="47"/>
       <c r="O195" s="48"/>
       <c r="P195" s="240">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Q195" s="241">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="R195" s="241">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S195" s="242">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="T195" s="52">
         <v>20</v>
@@ -39247,7 +39270,7 @@
       <c r="AE195" s="84"/>
       <c r="AF195" s="84"/>
       <c r="AG195" s="84">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH195" s="87"/>
@@ -39291,16 +39314,16 @@
       <c r="N196" s="50"/>
       <c r="O196" s="51"/>
       <c r="P196" s="247">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Q196" s="248">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="R196" s="248">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S196" s="249">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="T196" s="55">
         <v>20</v>
@@ -39333,7 +39356,7 @@
       <c r="AE196" s="64"/>
       <c r="AF196" s="64"/>
       <c r="AG196" s="64">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>1.1983680000000001</v>
       </c>
       <c r="AH196" s="67"/>
@@ -39407,16 +39430,16 @@
       <c r="N198" s="47"/>
       <c r="O198" s="48"/>
       <c r="P198" s="240">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Q198" s="241">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="R198" s="241">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S198" s="242">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="T198" s="52">
         <v>20</v>
@@ -39449,7 +39472,7 @@
       <c r="AE198" s="84"/>
       <c r="AF198" s="84"/>
       <c r="AG198" s="84">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.25228800000000001</v>
       </c>
       <c r="AH198" s="87"/>
@@ -39528,7 +39551,7 @@
       <c r="AE199" s="63"/>
       <c r="AF199" s="63"/>
       <c r="AG199" s="63">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.25228800000000001</v>
       </c>
       <c r="AH199" s="67"/>
@@ -39643,7 +39666,7 @@
       <c r="AE201" s="90"/>
       <c r="AF201" s="90"/>
       <c r="AG201" s="90">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.25228800000000001</v>
       </c>
       <c r="AH201" s="89"/>
@@ -39724,7 +39747,7 @@
         <v>3</v>
       </c>
       <c r="U215" s="371">
-        <f t="shared" ref="U215:U224" si="140">V215/$V$223</f>
+        <f t="shared" ref="U215:U224" si="149">V215/$V$223</f>
         <v>0.72929037751472525</v>
       </c>
       <c r="V215" s="372">
@@ -39738,7 +39761,7 @@
         <v>5</v>
       </c>
       <c r="U216" s="371">
-        <f t="shared" si="140"/>
+        <f t="shared" si="149"/>
         <v>0.79101166159768732</v>
       </c>
       <c r="V216" s="372">
@@ -39751,7 +39774,7 @@
         <v>8</v>
       </c>
       <c r="U217" s="371">
-        <f t="shared" si="140"/>
+        <f t="shared" si="149"/>
         <v>0.85077698714062355</v>
       </c>
       <c r="V217" s="372">
@@ -39773,19 +39796,19 @@
         <v>10</v>
       </c>
       <c r="U218" s="371">
-        <f t="shared" si="140"/>
+        <f t="shared" si="149"/>
         <v>0.86872586872586877</v>
       </c>
       <c r="V218" s="370">
         <f>V221-(V223-V221)</f>
         <v>2250</v>
       </c>
-      <c r="Z218" s="605" t="s">
+      <c r="Z218" s="617" t="s">
         <v>809</v>
       </c>
-      <c r="AA218" s="606"/>
-      <c r="AB218" s="606"/>
-      <c r="AC218" s="607"/>
+      <c r="AA218" s="618"/>
+      <c r="AB218" s="618"/>
+      <c r="AC218" s="619"/>
       <c r="AD218" s="124" t="s">
         <v>810</v>
       </c>
@@ -39807,19 +39830,19 @@
       </c>
     </row>
     <row r="219" spans="10:36" x14ac:dyDescent="0.2">
-      <c r="L219" s="609" t="s">
+      <c r="L219" s="621" t="s">
         <v>504</v>
       </c>
-      <c r="M219" s="609"/>
-      <c r="N219" s="609"/>
-      <c r="O219" s="609"/>
-      <c r="P219" s="609"/>
-      <c r="Q219" s="609"/>
+      <c r="M219" s="621"/>
+      <c r="N219" s="621"/>
+      <c r="O219" s="621"/>
+      <c r="P219" s="621"/>
+      <c r="Q219" s="621"/>
       <c r="T219" s="3">
         <v>15</v>
       </c>
       <c r="U219" s="361">
-        <f t="shared" si="140"/>
+        <f t="shared" si="149"/>
         <v>0.91505791505791501</v>
       </c>
       <c r="V219" s="3">
@@ -39842,10 +39865,10 @@
       <c r="AD219" s="124" t="s">
         <v>811</v>
       </c>
-      <c r="AF219" s="608" t="s">
+      <c r="AF219" s="620" t="s">
         <v>812</v>
       </c>
-      <c r="AG219" s="608"/>
+      <c r="AG219" s="620"/>
     </row>
     <row r="220" spans="10:36" x14ac:dyDescent="0.2">
       <c r="L220" s="124" t="s">
@@ -39870,7 +39893,7 @@
         <v>18</v>
       </c>
       <c r="U220" s="361">
-        <f t="shared" si="140"/>
+        <f t="shared" si="149"/>
         <v>0.92277992277992282</v>
       </c>
       <c r="V220" s="3">
@@ -39934,7 +39957,7 @@
         <v>20</v>
       </c>
       <c r="U221" s="371">
-        <f t="shared" si="140"/>
+        <f t="shared" si="149"/>
         <v>0.93436293436293438</v>
       </c>
       <c r="V221" s="370">
@@ -40002,7 +40025,7 @@
         <v>24</v>
       </c>
       <c r="U222" s="361">
-        <f t="shared" si="140"/>
+        <f t="shared" si="149"/>
         <v>0.94594594594594594</v>
       </c>
       <c r="V222" s="3">
@@ -40069,7 +40092,7 @@
         <v>30</v>
       </c>
       <c r="U223" s="361">
-        <f t="shared" si="140"/>
+        <f t="shared" si="149"/>
         <v>1</v>
       </c>
       <c r="V223" s="3">
@@ -40136,7 +40159,7 @@
         <v>35</v>
       </c>
       <c r="U224" s="361">
-        <f t="shared" si="140"/>
+        <f t="shared" si="149"/>
         <v>1.0791505791505791</v>
       </c>
       <c r="V224" s="3">
@@ -40229,12 +40252,12 @@
       <c r="I230" s="4"/>
       <c r="J230" s="4"/>
       <c r="K230" s="4"/>
-      <c r="AB230" s="610" t="s">
+      <c r="AB230" s="622" t="s">
         <v>818</v>
       </c>
-      <c r="AC230" s="610"/>
-      <c r="AD230" s="610"/>
-      <c r="AE230" s="610"/>
+      <c r="AC230" s="622"/>
+      <c r="AD230" s="622"/>
+      <c r="AE230" s="622"/>
       <c r="AG230" s="602" t="s">
         <v>815</v>
       </c>
@@ -40915,7 +40938,7 @@
     </row>
     <row r="247" spans="8:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AG247" s="577">
-        <f t="shared" ref="AG247" si="141">AG237</f>
+        <f t="shared" ref="AG247" si="150">AG237</f>
         <v>1575</v>
       </c>
       <c r="AH247" s="564">
@@ -40927,7 +40950,7 @@
         <v>3780.0000000000005</v>
       </c>
       <c r="AJ247" s="586">
-        <f t="shared" ref="AJ247" si="142">AJ237</f>
+        <f t="shared" ref="AJ247" si="151">AJ237</f>
         <v>0.70570570570570568</v>
       </c>
       <c r="AK247" s="587">
@@ -40965,6 +40988,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="AJ230:AL230"/>
+    <mergeCell ref="Z218:AC218"/>
+    <mergeCell ref="AF219:AG219"/>
+    <mergeCell ref="L219:Q219"/>
+    <mergeCell ref="AB230:AE230"/>
+    <mergeCell ref="AG230:AI230"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:O137"/>
+    <mergeCell ref="P137:S137"/>
+    <mergeCell ref="T137:U137"/>
+    <mergeCell ref="V137:Y137"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:O135"/>
+    <mergeCell ref="P135:S135"/>
+    <mergeCell ref="T135:U135"/>
+    <mergeCell ref="V135:Y135"/>
+    <mergeCell ref="V62:Y62"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:O64"/>
+    <mergeCell ref="P64:S64"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="V64:Y64"/>
     <mergeCell ref="AG240:AI240"/>
     <mergeCell ref="AJ240:AL240"/>
     <mergeCell ref="V4:Y4"/>
@@ -40981,28 +41026,6 @@
     <mergeCell ref="L62:O62"/>
     <mergeCell ref="P62:S62"/>
     <mergeCell ref="T62:U62"/>
-    <mergeCell ref="V62:Y62"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:O64"/>
-    <mergeCell ref="P64:S64"/>
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="V64:Y64"/>
-    <mergeCell ref="H135:K135"/>
-    <mergeCell ref="L135:O135"/>
-    <mergeCell ref="P135:S135"/>
-    <mergeCell ref="T135:U135"/>
-    <mergeCell ref="V135:Y135"/>
-    <mergeCell ref="H137:K137"/>
-    <mergeCell ref="L137:O137"/>
-    <mergeCell ref="P137:S137"/>
-    <mergeCell ref="T137:U137"/>
-    <mergeCell ref="V137:Y137"/>
-    <mergeCell ref="AJ230:AL230"/>
-    <mergeCell ref="Z218:AC218"/>
-    <mergeCell ref="AF219:AG219"/>
-    <mergeCell ref="L219:Q219"/>
-    <mergeCell ref="AB230:AE230"/>
-    <mergeCell ref="AG230:AI230"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -41146,12 +41169,12 @@
       <c r="I5" s="121"/>
       <c r="J5" s="121"/>
       <c r="K5" s="121"/>
-      <c r="L5" s="620" t="s">
+      <c r="L5" s="605" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="621"/>
-      <c r="N5" s="621"/>
-      <c r="O5" s="622"/>
+      <c r="M5" s="606"/>
+      <c r="N5" s="606"/>
+      <c r="O5" s="607"/>
       <c r="P5" s="60"/>
       <c r="Q5" s="60" t="s">
         <v>87</v>
@@ -42073,12 +42096,12 @@
       <c r="K33" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L33" s="620" t="s">
+      <c r="L33" s="605" t="s">
         <v>86</v>
       </c>
-      <c r="M33" s="621"/>
-      <c r="N33" s="621"/>
-      <c r="O33" s="622"/>
+      <c r="M33" s="606"/>
+      <c r="N33" s="606"/>
+      <c r="O33" s="607"/>
     </row>
     <row r="34" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H34" s="3" t="s">
@@ -42429,16 +42452,16 @@
       <c r="G4" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="617" t="s">
+      <c r="H4" s="611" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="618"/>
-      <c r="J4" s="619"/>
-      <c r="K4" s="620" t="s">
+      <c r="I4" s="612"/>
+      <c r="J4" s="613"/>
+      <c r="K4" s="605" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="621"/>
-      <c r="M4" s="622"/>
+      <c r="L4" s="606"/>
+      <c r="M4" s="607"/>
       <c r="N4" s="60"/>
       <c r="O4" s="60" t="s">
         <v>87</v>
@@ -42464,16 +42487,16 @@
       <c r="G5" s="375" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="626" t="s">
+      <c r="H5" s="623" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="627"/>
-      <c r="J5" s="628"/>
-      <c r="K5" s="626" t="s">
+      <c r="I5" s="624"/>
+      <c r="J5" s="625"/>
+      <c r="K5" s="623" t="s">
         <v>292</v>
       </c>
-      <c r="L5" s="627"/>
-      <c r="M5" s="628"/>
+      <c r="L5" s="624"/>
+      <c r="M5" s="625"/>
       <c r="N5" s="376" t="s">
         <v>92</v>
       </c>
@@ -42490,23 +42513,23 @@
         <v>210</v>
       </c>
       <c r="AA5" s="201"/>
-      <c r="AB5" s="623" t="s">
+      <c r="AB5" s="626" t="s">
         <v>541</v>
       </c>
-      <c r="AC5" s="623"/>
+      <c r="AC5" s="626"/>
       <c r="AD5" s="378"/>
-      <c r="AE5" s="624" t="s">
+      <c r="AE5" s="627" t="s">
         <v>65</v>
       </c>
-      <c r="AF5" s="624"/>
-      <c r="AG5" s="624" t="s">
+      <c r="AF5" s="627"/>
+      <c r="AG5" s="627" t="s">
         <v>542</v>
       </c>
-      <c r="AH5" s="624"/>
-      <c r="AI5" s="625" t="s">
+      <c r="AH5" s="627"/>
+      <c r="AI5" s="628" t="s">
         <v>543</v>
       </c>
-      <c r="AJ5" s="625"/>
+      <c r="AJ5" s="628"/>
     </row>
     <row r="6" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C6" s="422" t="str">
@@ -43244,12 +43267,12 @@
       <c r="K27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L27" s="620" t="s">
+      <c r="L27" s="605" t="s">
         <v>86</v>
       </c>
-      <c r="M27" s="621"/>
-      <c r="N27" s="621"/>
-      <c r="O27" s="622"/>
+      <c r="M27" s="606"/>
+      <c r="N27" s="606"/>
+      <c r="O27" s="607"/>
       <c r="T27" s="203"/>
       <c r="U27" s="203"/>
     </row>
@@ -43257,12 +43280,12 @@
       <c r="J28" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L28" s="611" t="s">
+      <c r="L28" s="608" t="s">
         <v>91</v>
       </c>
-      <c r="M28" s="612"/>
-      <c r="N28" s="612"/>
-      <c r="O28" s="613"/>
+      <c r="M28" s="609"/>
+      <c r="N28" s="609"/>
+      <c r="O28" s="610"/>
       <c r="T28" s="203"/>
       <c r="U28" s="203"/>
     </row>
@@ -44652,16 +44675,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="L27:O27"/>
     <mergeCell ref="L28:O28"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="K5:M5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="L27:O27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S7" r:id="rId1" xr:uid="{B1EDD63D-40A5-4174-9D28-8666BD314B83}"/>
@@ -44679,8 +44702,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:CK183"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="L7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -45092,103 +45115,103 @@
       <c r="C4" s="273" t="s">
         <v>301</v>
       </c>
-      <c r="D4" s="630" t="s">
+      <c r="D4" s="629" t="s">
         <v>302</v>
       </c>
-      <c r="E4" s="629"/>
-      <c r="F4" s="629"/>
-      <c r="G4" s="629"/>
+      <c r="E4" s="630"/>
+      <c r="F4" s="630"/>
+      <c r="G4" s="630"/>
       <c r="H4" s="631"/>
-      <c r="I4" s="629" t="s">
+      <c r="I4" s="630" t="s">
         <v>303</v>
       </c>
-      <c r="J4" s="629"/>
-      <c r="K4" s="629"/>
-      <c r="L4" s="629"/>
+      <c r="J4" s="630"/>
+      <c r="K4" s="630"/>
+      <c r="L4" s="630"/>
       <c r="M4" s="631"/>
-      <c r="N4" s="629" t="s">
+      <c r="N4" s="630" t="s">
         <v>304</v>
       </c>
-      <c r="O4" s="629"/>
-      <c r="P4" s="629"/>
-      <c r="Q4" s="629"/>
+      <c r="O4" s="630"/>
+      <c r="P4" s="630"/>
+      <c r="Q4" s="630"/>
       <c r="R4" s="631"/>
-      <c r="S4" s="629" t="s">
+      <c r="S4" s="630" t="s">
         <v>305</v>
       </c>
-      <c r="T4" s="629"/>
-      <c r="U4" s="629"/>
-      <c r="V4" s="629"/>
+      <c r="T4" s="630"/>
+      <c r="U4" s="630"/>
+      <c r="V4" s="630"/>
       <c r="W4" s="631"/>
-      <c r="X4" s="629" t="s">
+      <c r="X4" s="630" t="s">
         <v>306</v>
       </c>
-      <c r="Y4" s="629"/>
-      <c r="Z4" s="629"/>
-      <c r="AA4" s="629"/>
+      <c r="Y4" s="630"/>
+      <c r="Z4" s="630"/>
+      <c r="AA4" s="630"/>
       <c r="AB4" s="631"/>
-      <c r="AC4" s="629" t="s">
+      <c r="AC4" s="630" t="s">
         <v>307</v>
       </c>
-      <c r="AD4" s="629"/>
-      <c r="AE4" s="629"/>
-      <c r="AF4" s="629"/>
+      <c r="AD4" s="630"/>
+      <c r="AE4" s="630"/>
+      <c r="AF4" s="630"/>
       <c r="AG4" s="631"/>
-      <c r="AH4" s="629" t="s">
+      <c r="AH4" s="630" t="s">
         <v>308</v>
       </c>
-      <c r="AI4" s="629"/>
-      <c r="AJ4" s="629"/>
-      <c r="AK4" s="629"/>
+      <c r="AI4" s="630"/>
+      <c r="AJ4" s="630"/>
+      <c r="AK4" s="630"/>
       <c r="AL4" s="631"/>
-      <c r="AM4" s="629" t="s">
+      <c r="AM4" s="630" t="s">
         <v>309</v>
       </c>
-      <c r="AN4" s="629"/>
-      <c r="AO4" s="629"/>
-      <c r="AP4" s="629"/>
+      <c r="AN4" s="630"/>
+      <c r="AO4" s="630"/>
+      <c r="AP4" s="630"/>
       <c r="AQ4" s="631"/>
-      <c r="AR4" s="629" t="s">
+      <c r="AR4" s="630" t="s">
         <v>310</v>
       </c>
-      <c r="AS4" s="629"/>
-      <c r="AT4" s="629"/>
-      <c r="AU4" s="629"/>
+      <c r="AS4" s="630"/>
+      <c r="AT4" s="630"/>
+      <c r="AU4" s="630"/>
       <c r="AV4" s="631"/>
-      <c r="AW4" s="629" t="s">
+      <c r="AW4" s="630" t="s">
         <v>311</v>
       </c>
-      <c r="AX4" s="629"/>
-      <c r="AY4" s="629"/>
-      <c r="AZ4" s="629"/>
-      <c r="BA4" s="629"/>
-      <c r="BB4" s="630" t="s">
+      <c r="AX4" s="630"/>
+      <c r="AY4" s="630"/>
+      <c r="AZ4" s="630"/>
+      <c r="BA4" s="630"/>
+      <c r="BB4" s="629" t="s">
         <v>312</v>
       </c>
-      <c r="BC4" s="629"/>
-      <c r="BD4" s="629"/>
-      <c r="BE4" s="629"/>
+      <c r="BC4" s="630"/>
+      <c r="BD4" s="630"/>
+      <c r="BE4" s="630"/>
       <c r="BF4" s="631"/>
-      <c r="BG4" s="629" t="s">
+      <c r="BG4" s="630" t="s">
         <v>313</v>
       </c>
-      <c r="BH4" s="629"/>
-      <c r="BI4" s="629"/>
-      <c r="BJ4" s="629"/>
-      <c r="BK4" s="629"/>
-      <c r="BL4" s="630" t="s">
+      <c r="BH4" s="630"/>
+      <c r="BI4" s="630"/>
+      <c r="BJ4" s="630"/>
+      <c r="BK4" s="630"/>
+      <c r="BL4" s="629" t="s">
         <v>314</v>
       </c>
-      <c r="BM4" s="629"/>
-      <c r="BN4" s="629"/>
-      <c r="BO4" s="629"/>
-      <c r="BP4" s="629"/>
-      <c r="BQ4" s="630" t="s">
+      <c r="BM4" s="630"/>
+      <c r="BN4" s="630"/>
+      <c r="BO4" s="630"/>
+      <c r="BP4" s="630"/>
+      <c r="BQ4" s="629" t="s">
         <v>315</v>
       </c>
-      <c r="BR4" s="629"/>
-      <c r="BS4" s="629"/>
-      <c r="BT4" s="629"/>
+      <c r="BR4" s="630"/>
+      <c r="BS4" s="630"/>
+      <c r="BT4" s="630"/>
       <c r="BU4" s="631"/>
       <c r="BV4" s="274" t="s">
         <v>316</v>
@@ -58782,11 +58805,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="BL4:BP4"/>
-    <mergeCell ref="BQ4:BU4"/>
-    <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="CB4:CF4"/>
-    <mergeCell ref="CG4:CK4"/>
     <mergeCell ref="BG4:BK4"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
@@ -58799,6 +58817,11 @@
     <mergeCell ref="AR4:AV4"/>
     <mergeCell ref="AW4:BA4"/>
     <mergeCell ref="BB4:BF4"/>
+    <mergeCell ref="BL4:BP4"/>
+    <mergeCell ref="BQ4:BU4"/>
+    <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="CB4:CF4"/>
+    <mergeCell ref="CG4:CK4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -58821,23 +58844,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="638" t="s">
+      <c r="A1" s="636" t="s">
         <v>585</v>
       </c>
-      <c r="B1" s="640" t="s">
+      <c r="B1" s="638" t="s">
         <v>586</v>
       </c>
-      <c r="C1" s="641"/>
-      <c r="D1" s="641"/>
-      <c r="E1" s="641"/>
-      <c r="F1" s="642"/>
-      <c r="G1" s="640" t="s">
+      <c r="C1" s="639"/>
+      <c r="D1" s="639"/>
+      <c r="E1" s="639"/>
+      <c r="F1" s="640"/>
+      <c r="G1" s="638" t="s">
         <v>587</v>
       </c>
-      <c r="H1" s="641"/>
-      <c r="I1" s="641"/>
-      <c r="J1" s="641"/>
-      <c r="K1" s="642"/>
+      <c r="H1" s="639"/>
+      <c r="I1" s="639"/>
+      <c r="J1" s="639"/>
+      <c r="K1" s="640"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -58847,7 +58870,7 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="639"/>
+      <c r="A2" s="637"/>
       <c r="B2" s="443" t="s">
         <v>254</v>
       </c>
@@ -60340,11 +60363,11 @@
       <c r="Y48" t="s">
         <v>636</v>
       </c>
-      <c r="Z48" s="636" t="s">
+      <c r="Z48" s="641" t="s">
         <v>574</v>
       </c>
-      <c r="AA48" s="637"/>
-      <c r="AB48" s="637"/>
+      <c r="AA48" s="642"/>
+      <c r="AB48" s="642"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
@@ -60561,11 +60584,11 @@
       <c r="Y53" t="s">
         <v>638</v>
       </c>
-      <c r="Z53" s="636" t="s">
+      <c r="Z53" s="641" t="s">
         <v>573</v>
       </c>
-      <c r="AA53" s="637"/>
-      <c r="AB53" s="637"/>
+      <c r="AA53" s="642"/>
+      <c r="AB53" s="642"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
@@ -60767,11 +60790,11 @@
       <c r="Y59" t="s">
         <v>639</v>
       </c>
-      <c r="Z59" s="636" t="s">
+      <c r="Z59" s="641" t="s">
         <v>640</v>
       </c>
-      <c r="AA59" s="637"/>
-      <c r="AB59" s="637"/>
+      <c r="AA59" s="642"/>
+      <c r="AB59" s="642"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="463" t="str">
@@ -61608,17 +61631,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="Z48:AB48"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="Z48:AB48"/>
   </mergeCells>
   <phoneticPr fontId="54" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
